--- a/app/data/static/templates/constructor_mozzarella.xlsx
+++ b/app/data/static/templates/constructor_mozzarella.xlsx
@@ -266,7 +266,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -335,6 +335,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -353,6 +357,10 @@
     </xf>
     <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -677,14 +685,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X122"/>
+  <dimension ref="A1:X220"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="16" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="Q1" activeCellId="0" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N3" activeCellId="0" sqref="N3"/>
+      <selection pane="bottomRight" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -790,8 +798,12 @@
         <f aca="true">IF(M2="", IF(O2="","",X2+(INDIRECT("S" &amp; ROW() - 1) - S2)),IF(O2="", "", INDIRECT("S" &amp; ROW() - 1) - S2))</f>
         <v/>
       </c>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17" t="str">
+      <c r="K2" s="17" t="str">
+        <f aca="false">IF(H2="", "", IF(H2="-","",VLOOKUP(H2, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18" t="str">
         <f aca="false">IF(M2="", IF(X2=0, "", X2), IF(V2 = "", "", IF(V2/U2 = 0, "", V2/U2)))</f>
         <v/>
       </c>
@@ -837,8 +849,12 @@
         <f aca="true">IF(M3="", IF(O3="","",X3+(INDIRECT("S" &amp; ROW() - 1) - S3)),IF(O3="", "", INDIRECT("S" &amp; ROW() - 1) - S3))</f>
         <v/>
       </c>
-      <c r="M3" s="18"/>
-      <c r="N3" s="17" t="str">
+      <c r="K3" s="17" t="str">
+        <f aca="false">IF(H3="", "", IF(H3="-","",VLOOKUP(H3, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M3" s="19"/>
+      <c r="N3" s="18" t="str">
         <f aca="false">IF(M3="", IF(X3=0, "", X3), IF(V3 = "", "", IF(V3/U3 = 0, "", V3/U3)))</f>
         <v/>
       </c>
@@ -884,8 +900,12 @@
         <f aca="true">IF(M4="", IF(O4="","",X4+(INDIRECT("S" &amp; ROW() - 1) - S4)),IF(O4="", "", INDIRECT("S" &amp; ROW() - 1) - S4))</f>
         <v/>
       </c>
-      <c r="M4" s="18"/>
-      <c r="N4" s="17" t="str">
+      <c r="K4" s="17" t="str">
+        <f aca="false">IF(H4="", "", IF(H4="-","",VLOOKUP(H4, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M4" s="19"/>
+      <c r="N4" s="18" t="str">
         <f aca="false">IF(M4="", IF(X4=0, "", X4), IF(V4 = "", "", IF(V4/U4 = 0, "", V4/U4)))</f>
         <v/>
       </c>
@@ -931,8 +951,12 @@
         <f aca="true">IF(M5="", IF(O5="","",X5+(INDIRECT("S" &amp; ROW() - 1) - S5)),IF(O5="", "", INDIRECT("S" &amp; ROW() - 1) - S5))</f>
         <v/>
       </c>
-      <c r="M5" s="18"/>
-      <c r="N5" s="17" t="str">
+      <c r="K5" s="17" t="str">
+        <f aca="false">IF(H5="", "", IF(H5="-","",VLOOKUP(H5, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M5" s="19"/>
+      <c r="N5" s="18" t="str">
         <f aca="false">IF(M5="", IF(X5=0, "", X5), IF(V5 = "", "", IF(V5/U5 = 0, "", V5/U5)))</f>
         <v/>
       </c>
@@ -978,8 +1002,12 @@
         <f aca="true">IF(M6="", IF(O6="","",X6+(INDIRECT("S" &amp; ROW() - 1) - S6)),IF(O6="", "", INDIRECT("S" &amp; ROW() - 1) - S6))</f>
         <v/>
       </c>
-      <c r="M6" s="18"/>
-      <c r="N6" s="17" t="str">
+      <c r="K6" s="17" t="str">
+        <f aca="false">IF(H6="", "", IF(H6="-","",VLOOKUP(H6, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M6" s="19"/>
+      <c r="N6" s="18" t="str">
         <f aca="false">IF(M6="", IF(X6=0, "", X6), IF(V6 = "", "", IF(V6/U6 = 0, "", V6/U6)))</f>
         <v/>
       </c>
@@ -1025,8 +1053,12 @@
         <f aca="true">IF(M7="", IF(O7="","",X7+(INDIRECT("S" &amp; ROW() - 1) - S7)),IF(O7="", "", INDIRECT("S" &amp; ROW() - 1) - S7))</f>
         <v/>
       </c>
-      <c r="M7" s="18"/>
-      <c r="N7" s="17" t="str">
+      <c r="K7" s="17" t="str">
+        <f aca="false">IF(H7="", "", IF(H7="-","",VLOOKUP(H7, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M7" s="19"/>
+      <c r="N7" s="18" t="str">
         <f aca="false">IF(M7="", IF(X7=0, "", X7), IF(V7 = "", "", IF(V7/U7 = 0, "", V7/U7)))</f>
         <v/>
       </c>
@@ -1072,8 +1104,12 @@
         <f aca="true">IF(M8="", IF(O8="","",X8+(INDIRECT("S" &amp; ROW() - 1) - S8)),IF(O8="", "", INDIRECT("S" &amp; ROW() - 1) - S8))</f>
         <v/>
       </c>
-      <c r="M8" s="18"/>
-      <c r="N8" s="17" t="str">
+      <c r="K8" s="17" t="str">
+        <f aca="false">IF(H8="", "", IF(H8="-","",VLOOKUP(H8, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M8" s="19"/>
+      <c r="N8" s="18" t="str">
         <f aca="false">IF(M8="", IF(X8=0, "", X8), IF(V8 = "", "", IF(V8/U8 = 0, "", V8/U8)))</f>
         <v/>
       </c>
@@ -1119,8 +1155,12 @@
         <f aca="true">IF(M9="", IF(O9="","",X9+(INDIRECT("S" &amp; ROW() - 1) - S9)),IF(O9="", "", INDIRECT("S" &amp; ROW() - 1) - S9))</f>
         <v/>
       </c>
-      <c r="M9" s="18"/>
-      <c r="N9" s="17" t="str">
+      <c r="K9" s="17" t="str">
+        <f aca="false">IF(H9="", "", IF(H9="-","",VLOOKUP(H9, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M9" s="19"/>
+      <c r="N9" s="18" t="str">
         <f aca="false">IF(M9="", IF(X9=0, "", X9), IF(V9 = "", "", IF(V9/U9 = 0, "", V9/U9)))</f>
         <v/>
       </c>
@@ -1166,8 +1206,12 @@
         <f aca="true">IF(M10="", IF(O10="","",X10+(INDIRECT("S" &amp; ROW() - 1) - S10)),IF(O10="", "", INDIRECT("S" &amp; ROW() - 1) - S10))</f>
         <v/>
       </c>
-      <c r="M10" s="18"/>
-      <c r="N10" s="17" t="str">
+      <c r="K10" s="17" t="str">
+        <f aca="false">IF(H10="", "", IF(H10="-","",VLOOKUP(H10, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M10" s="19"/>
+      <c r="N10" s="18" t="str">
         <f aca="false">IF(M10="", IF(X10=0, "", X10), IF(V10 = "", "", IF(V10/U10 = 0, "", V10/U10)))</f>
         <v/>
       </c>
@@ -1213,8 +1257,12 @@
         <f aca="true">IF(M11="", IF(O11="","",X11+(INDIRECT("S" &amp; ROW() - 1) - S11)),IF(O11="", "", INDIRECT("S" &amp; ROW() - 1) - S11))</f>
         <v/>
       </c>
-      <c r="M11" s="18"/>
-      <c r="N11" s="17" t="str">
+      <c r="K11" s="17" t="str">
+        <f aca="false">IF(H11="", "", IF(H11="-","",VLOOKUP(H11, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M11" s="19"/>
+      <c r="N11" s="18" t="str">
         <f aca="false">IF(M11="", IF(X11=0, "", X11), IF(V11 = "", "", IF(V11/U11 = 0, "", V11/U11)))</f>
         <v/>
       </c>
@@ -1260,8 +1308,12 @@
         <f aca="true">IF(M12="", IF(O12="","",X12+(INDIRECT("S" &amp; ROW() - 1) - S12)),IF(O12="", "", INDIRECT("S" &amp; ROW() - 1) - S12))</f>
         <v/>
       </c>
-      <c r="M12" s="18"/>
-      <c r="N12" s="17" t="str">
+      <c r="K12" s="17" t="str">
+        <f aca="false">IF(H12="", "", IF(H12="-","",VLOOKUP(H12, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M12" s="19"/>
+      <c r="N12" s="18" t="str">
         <f aca="false">IF(M12="", IF(X12=0, "", X12), IF(V12 = "", "", IF(V12/U12 = 0, "", V12/U12)))</f>
         <v/>
       </c>
@@ -1307,8 +1359,12 @@
         <f aca="true">IF(M13="", IF(O13="","",X13+(INDIRECT("S" &amp; ROW() - 1) - S13)),IF(O13="", "", INDIRECT("S" &amp; ROW() - 1) - S13))</f>
         <v/>
       </c>
-      <c r="M13" s="18"/>
-      <c r="N13" s="17" t="str">
+      <c r="K13" s="17" t="str">
+        <f aca="false">IF(H13="", "", IF(H13="-","",VLOOKUP(H13, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M13" s="19"/>
+      <c r="N13" s="18" t="str">
         <f aca="false">IF(M13="", IF(X13=0, "", X13), IF(V13 = "", "", IF(V13/U13 = 0, "", V13/U13)))</f>
         <v/>
       </c>
@@ -1354,8 +1410,12 @@
         <f aca="true">IF(M14="", IF(O14="","",X14+(INDIRECT("S" &amp; ROW() - 1) - S14)),IF(O14="", "", INDIRECT("S" &amp; ROW() - 1) - S14))</f>
         <v/>
       </c>
-      <c r="M14" s="18"/>
-      <c r="N14" s="17" t="str">
+      <c r="K14" s="17" t="str">
+        <f aca="false">IF(H14="", "", IF(H14="-","",VLOOKUP(H14, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M14" s="19"/>
+      <c r="N14" s="18" t="str">
         <f aca="false">IF(M14="", IF(X14=0, "", X14), IF(V14 = "", "", IF(V14/U14 = 0, "", V14/U14)))</f>
         <v/>
       </c>
@@ -1401,8 +1461,12 @@
         <f aca="true">IF(M15="", IF(O15="","",X15+(INDIRECT("S" &amp; ROW() - 1) - S15)),IF(O15="", "", INDIRECT("S" &amp; ROW() - 1) - S15))</f>
         <v/>
       </c>
-      <c r="M15" s="18"/>
-      <c r="N15" s="17" t="str">
+      <c r="K15" s="17" t="str">
+        <f aca="false">IF(H15="", "", IF(H15="-","",VLOOKUP(H15, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M15" s="19"/>
+      <c r="N15" s="18" t="str">
         <f aca="false">IF(M15="", IF(X15=0, "", X15), IF(V15 = "", "", IF(V15/U15 = 0, "", V15/U15)))</f>
         <v/>
       </c>
@@ -1448,8 +1512,12 @@
         <f aca="true">IF(M16="", IF(O16="","",X16+(INDIRECT("S" &amp; ROW() - 1) - S16)),IF(O16="", "", INDIRECT("S" &amp; ROW() - 1) - S16))</f>
         <v/>
       </c>
-      <c r="M16" s="18"/>
-      <c r="N16" s="17" t="str">
+      <c r="K16" s="17" t="str">
+        <f aca="false">IF(H16="", "", IF(H16="-","",VLOOKUP(H16, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M16" s="19"/>
+      <c r="N16" s="18" t="str">
         <f aca="false">IF(M16="", IF(X16=0, "", X16), IF(V16 = "", "", IF(V16/U16 = 0, "", V16/U16)))</f>
         <v/>
       </c>
@@ -1495,8 +1563,12 @@
         <f aca="true">IF(M17="", IF(O17="","",X17+(INDIRECT("S" &amp; ROW() - 1) - S17)),IF(O17="", "", INDIRECT("S" &amp; ROW() - 1) - S17))</f>
         <v/>
       </c>
-      <c r="M17" s="18"/>
-      <c r="N17" s="17" t="str">
+      <c r="K17" s="17" t="str">
+        <f aca="false">IF(H17="", "", IF(H17="-","",VLOOKUP(H17, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M17" s="19"/>
+      <c r="N17" s="18" t="str">
         <f aca="false">IF(M17="", IF(X17=0, "", X17), IF(V17 = "", "", IF(V17/U17 = 0, "", V17/U17)))</f>
         <v/>
       </c>
@@ -1542,8 +1614,12 @@
         <f aca="true">IF(M18="", IF(O18="","",X18+(INDIRECT("S" &amp; ROW() - 1) - S18)),IF(O18="", "", INDIRECT("S" &amp; ROW() - 1) - S18))</f>
         <v/>
       </c>
-      <c r="M18" s="18"/>
-      <c r="N18" s="17" t="str">
+      <c r="K18" s="17" t="str">
+        <f aca="false">IF(H18="", "", IF(H18="-","",VLOOKUP(H18, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M18" s="19"/>
+      <c r="N18" s="18" t="str">
         <f aca="false">IF(M18="", IF(X18=0, "", X18), IF(V18 = "", "", IF(V18/U18 = 0, "", V18/U18)))</f>
         <v/>
       </c>
@@ -1589,8 +1665,12 @@
         <f aca="true">IF(M19="", IF(O19="","",X19+(INDIRECT("S" &amp; ROW() - 1) - S19)),IF(O19="", "", INDIRECT("S" &amp; ROW() - 1) - S19))</f>
         <v/>
       </c>
-      <c r="M19" s="18"/>
-      <c r="N19" s="17" t="str">
+      <c r="K19" s="17" t="str">
+        <f aca="false">IF(H19="", "", IF(H19="-","",VLOOKUP(H19, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M19" s="19"/>
+      <c r="N19" s="18" t="str">
         <f aca="false">IF(M19="", IF(X19=0, "", X19), IF(V19 = "", "", IF(V19/U19 = 0, "", V19/U19)))</f>
         <v/>
       </c>
@@ -1636,8 +1716,12 @@
         <f aca="true">IF(M20="", IF(O20="","",X20+(INDIRECT("S" &amp; ROW() - 1) - S20)),IF(O20="", "", INDIRECT("S" &amp; ROW() - 1) - S20))</f>
         <v/>
       </c>
-      <c r="M20" s="18"/>
-      <c r="N20" s="17" t="str">
+      <c r="K20" s="17" t="str">
+        <f aca="false">IF(H20="", "", IF(H20="-","",VLOOKUP(H20, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M20" s="19"/>
+      <c r="N20" s="18" t="str">
         <f aca="false">IF(M20="", IF(X20=0, "", X20), IF(V20 = "", "", IF(V20/U20 = 0, "", V20/U20)))</f>
         <v/>
       </c>
@@ -1683,8 +1767,12 @@
         <f aca="true">IF(M21="", IF(O21="","",X21+(INDIRECT("S" &amp; ROW() - 1) - S21)),IF(O21="", "", INDIRECT("S" &amp; ROW() - 1) - S21))</f>
         <v/>
       </c>
-      <c r="M21" s="18"/>
-      <c r="N21" s="17" t="str">
+      <c r="K21" s="17" t="str">
+        <f aca="false">IF(H21="", "", IF(H21="-","",VLOOKUP(H21, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M21" s="19"/>
+      <c r="N21" s="18" t="str">
         <f aca="false">IF(M21="", IF(X21=0, "", X21), IF(V21 = "", "", IF(V21/U21 = 0, "", V21/U21)))</f>
         <v/>
       </c>
@@ -1730,8 +1818,12 @@
         <f aca="true">IF(M22="", IF(O22="","",X22+(INDIRECT("S" &amp; ROW() - 1) - S22)),IF(O22="", "", INDIRECT("S" &amp; ROW() - 1) - S22))</f>
         <v/>
       </c>
-      <c r="M22" s="18"/>
-      <c r="N22" s="17" t="str">
+      <c r="K22" s="17" t="str">
+        <f aca="false">IF(H22="", "", IF(H22="-","",VLOOKUP(H22, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M22" s="19"/>
+      <c r="N22" s="18" t="str">
         <f aca="false">IF(M22="", IF(X22=0, "", X22), IF(V22 = "", "", IF(V22/U22 = 0, "", V22/U22)))</f>
         <v/>
       </c>
@@ -1777,8 +1869,12 @@
         <f aca="true">IF(M23="", IF(O23="","",X23+(INDIRECT("S" &amp; ROW() - 1) - S23)),IF(O23="", "", INDIRECT("S" &amp; ROW() - 1) - S23))</f>
         <v/>
       </c>
-      <c r="M23" s="18"/>
-      <c r="N23" s="17" t="str">
+      <c r="K23" s="17" t="str">
+        <f aca="false">IF(H23="", "", IF(H23="-","",VLOOKUP(H23, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M23" s="19"/>
+      <c r="N23" s="18" t="str">
         <f aca="false">IF(M23="", IF(X23=0, "", X23), IF(V23 = "", "", IF(V23/U23 = 0, "", V23/U23)))</f>
         <v/>
       </c>
@@ -1824,8 +1920,12 @@
         <f aca="true">IF(M24="", IF(O24="","",X24+(INDIRECT("S" &amp; ROW() - 1) - S24)),IF(O24="", "", INDIRECT("S" &amp; ROW() - 1) - S24))</f>
         <v/>
       </c>
-      <c r="M24" s="18"/>
-      <c r="N24" s="17" t="str">
+      <c r="K24" s="17" t="str">
+        <f aca="false">IF(H24="", "", IF(H24="-","",VLOOKUP(H24, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M24" s="19"/>
+      <c r="N24" s="18" t="str">
         <f aca="false">IF(M24="", IF(X24=0, "", X24), IF(V24 = "", "", IF(V24/U24 = 0, "", V24/U24)))</f>
         <v/>
       </c>
@@ -1871,8 +1971,12 @@
         <f aca="true">IF(M25="", IF(O25="","",X25+(INDIRECT("S" &amp; ROW() - 1) - S25)),IF(O25="", "", INDIRECT("S" &amp; ROW() - 1) - S25))</f>
         <v/>
       </c>
-      <c r="M25" s="18"/>
-      <c r="N25" s="17" t="str">
+      <c r="K25" s="17" t="str">
+        <f aca="false">IF(H25="", "", IF(H25="-","",VLOOKUP(H25, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M25" s="19"/>
+      <c r="N25" s="18" t="str">
         <f aca="false">IF(M25="", IF(X25=0, "", X25), IF(V25 = "", "", IF(V25/U25 = 0, "", V25/U25)))</f>
         <v/>
       </c>
@@ -1918,8 +2022,12 @@
         <f aca="true">IF(M26="", IF(O26="","",X26+(INDIRECT("S" &amp; ROW() - 1) - S26)),IF(O26="", "", INDIRECT("S" &amp; ROW() - 1) - S26))</f>
         <v/>
       </c>
-      <c r="M26" s="18"/>
-      <c r="N26" s="17" t="str">
+      <c r="K26" s="17" t="str">
+        <f aca="false">IF(H26="", "", IF(H26="-","",VLOOKUP(H26, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M26" s="19"/>
+      <c r="N26" s="18" t="str">
         <f aca="false">IF(M26="", IF(X26=0, "", X26), IF(V26 = "", "", IF(V26/U26 = 0, "", V26/U26)))</f>
         <v/>
       </c>
@@ -1965,8 +2073,12 @@
         <f aca="true">IF(M27="", IF(O27="","",X27+(INDIRECT("S" &amp; ROW() - 1) - S27)),IF(O27="", "", INDIRECT("S" &amp; ROW() - 1) - S27))</f>
         <v/>
       </c>
-      <c r="M27" s="18"/>
-      <c r="N27" s="17" t="str">
+      <c r="K27" s="17" t="str">
+        <f aca="false">IF(H27="", "", IF(H27="-","",VLOOKUP(H27, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M27" s="19"/>
+      <c r="N27" s="18" t="str">
         <f aca="false">IF(M27="", IF(X27=0, "", X27), IF(V27 = "", "", IF(V27/U27 = 0, "", V27/U27)))</f>
         <v/>
       </c>
@@ -2012,8 +2124,12 @@
         <f aca="true">IF(M28="", IF(O28="","",X28+(INDIRECT("S" &amp; ROW() - 1) - S28)),IF(O28="", "", INDIRECT("S" &amp; ROW() - 1) - S28))</f>
         <v/>
       </c>
-      <c r="M28" s="18"/>
-      <c r="N28" s="17" t="str">
+      <c r="K28" s="17" t="str">
+        <f aca="false">IF(H28="", "", IF(H28="-","",VLOOKUP(H28, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M28" s="19"/>
+      <c r="N28" s="18" t="str">
         <f aca="false">IF(M28="", IF(X28=0, "", X28), IF(V28 = "", "", IF(V28/U28 = 0, "", V28/U28)))</f>
         <v/>
       </c>
@@ -2059,8 +2175,12 @@
         <f aca="true">IF(M29="", IF(O29="","",X29+(INDIRECT("S" &amp; ROW() - 1) - S29)),IF(O29="", "", INDIRECT("S" &amp; ROW() - 1) - S29))</f>
         <v/>
       </c>
-      <c r="M29" s="18"/>
-      <c r="N29" s="17" t="str">
+      <c r="K29" s="17" t="str">
+        <f aca="false">IF(H29="", "", IF(H29="-","",VLOOKUP(H29, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M29" s="19"/>
+      <c r="N29" s="18" t="str">
         <f aca="false">IF(M29="", IF(X29=0, "", X29), IF(V29 = "", "", IF(V29/U29 = 0, "", V29/U29)))</f>
         <v/>
       </c>
@@ -2106,8 +2226,12 @@
         <f aca="true">IF(M30="", IF(O30="","",X30+(INDIRECT("S" &amp; ROW() - 1) - S30)),IF(O30="", "", INDIRECT("S" &amp; ROW() - 1) - S30))</f>
         <v/>
       </c>
-      <c r="M30" s="18"/>
-      <c r="N30" s="17" t="str">
+      <c r="K30" s="17" t="str">
+        <f aca="false">IF(H30="", "", IF(H30="-","",VLOOKUP(H30, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M30" s="19"/>
+      <c r="N30" s="18" t="str">
         <f aca="false">IF(M30="", IF(X30=0, "", X30), IF(V30 = "", "", IF(V30/U30 = 0, "", V30/U30)))</f>
         <v/>
       </c>
@@ -2153,8 +2277,12 @@
         <f aca="true">IF(M31="", IF(O31="","",X31+(INDIRECT("S" &amp; ROW() - 1) - S31)),IF(O31="", "", INDIRECT("S" &amp; ROW() - 1) - S31))</f>
         <v/>
       </c>
-      <c r="M31" s="18"/>
-      <c r="N31" s="17" t="str">
+      <c r="K31" s="17" t="str">
+        <f aca="false">IF(H31="", "", IF(H31="-","",VLOOKUP(H31, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M31" s="19"/>
+      <c r="N31" s="18" t="str">
         <f aca="false">IF(M31="", IF(X31=0, "", X31), IF(V31 = "", "", IF(V31/U31 = 0, "", V31/U31)))</f>
         <v/>
       </c>
@@ -2200,8 +2328,12 @@
         <f aca="true">IF(M32="", IF(O32="","",X32+(INDIRECT("S" &amp; ROW() - 1) - S32)),IF(O32="", "", INDIRECT("S" &amp; ROW() - 1) - S32))</f>
         <v/>
       </c>
-      <c r="M32" s="18"/>
-      <c r="N32" s="17" t="str">
+      <c r="K32" s="17" t="str">
+        <f aca="false">IF(H32="", "", IF(H32="-","",VLOOKUP(H32, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M32" s="19"/>
+      <c r="N32" s="18" t="str">
         <f aca="false">IF(M32="", IF(X32=0, "", X32), IF(V32 = "", "", IF(V32/U32 = 0, "", V32/U32)))</f>
         <v/>
       </c>
@@ -2247,8 +2379,12 @@
         <f aca="true">IF(M33="", IF(O33="","",X33+(INDIRECT("S" &amp; ROW() - 1) - S33)),IF(O33="", "", INDIRECT("S" &amp; ROW() - 1) - S33))</f>
         <v/>
       </c>
-      <c r="M33" s="18"/>
-      <c r="N33" s="17" t="str">
+      <c r="K33" s="17" t="str">
+        <f aca="false">IF(H33="", "", IF(H33="-","",VLOOKUP(H33, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M33" s="19"/>
+      <c r="N33" s="18" t="str">
         <f aca="false">IF(M33="", IF(X33=0, "", X33), IF(V33 = "", "", IF(V33/U33 = 0, "", V33/U33)))</f>
         <v/>
       </c>
@@ -2294,8 +2430,12 @@
         <f aca="true">IF(M34="", IF(O34="","",X34+(INDIRECT("S" &amp; ROW() - 1) - S34)),IF(O34="", "", INDIRECT("S" &amp; ROW() - 1) - S34))</f>
         <v/>
       </c>
-      <c r="M34" s="18"/>
-      <c r="N34" s="17" t="str">
+      <c r="K34" s="17" t="str">
+        <f aca="false">IF(H34="", "", IF(H34="-","",VLOOKUP(H34, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M34" s="19"/>
+      <c r="N34" s="18" t="str">
         <f aca="false">IF(M34="", IF(X34=0, "", X34), IF(V34 = "", "", IF(V34/U34 = 0, "", V34/U34)))</f>
         <v/>
       </c>
@@ -2341,8 +2481,12 @@
         <f aca="true">IF(M35="", IF(O35="","",X35+(INDIRECT("S" &amp; ROW() - 1) - S35)),IF(O35="", "", INDIRECT("S" &amp; ROW() - 1) - S35))</f>
         <v/>
       </c>
-      <c r="M35" s="18"/>
-      <c r="N35" s="17" t="str">
+      <c r="K35" s="17" t="str">
+        <f aca="false">IF(H35="", "", IF(H35="-","",VLOOKUP(H35, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M35" s="19"/>
+      <c r="N35" s="18" t="str">
         <f aca="false">IF(M35="", IF(X35=0, "", X35), IF(V35 = "", "", IF(V35/U35 = 0, "", V35/U35)))</f>
         <v/>
       </c>
@@ -2388,8 +2532,12 @@
         <f aca="true">IF(M36="", IF(O36="","",X36+(INDIRECT("S" &amp; ROW() - 1) - S36)),IF(O36="", "", INDIRECT("S" &amp; ROW() - 1) - S36))</f>
         <v/>
       </c>
-      <c r="M36" s="18"/>
-      <c r="N36" s="17" t="str">
+      <c r="K36" s="17" t="str">
+        <f aca="false">IF(H36="", "", IF(H36="-","",VLOOKUP(H36, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M36" s="19"/>
+      <c r="N36" s="18" t="str">
         <f aca="false">IF(M36="", IF(X36=0, "", X36), IF(V36 = "", "", IF(V36/U36 = 0, "", V36/U36)))</f>
         <v/>
       </c>
@@ -2435,8 +2583,12 @@
         <f aca="true">IF(M37="", IF(O37="","",X37+(INDIRECT("S" &amp; ROW() - 1) - S37)),IF(O37="", "", INDIRECT("S" &amp; ROW() - 1) - S37))</f>
         <v/>
       </c>
-      <c r="M37" s="18"/>
-      <c r="N37" s="17" t="str">
+      <c r="K37" s="17" t="str">
+        <f aca="false">IF(H37="", "", IF(H37="-","",VLOOKUP(H37, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M37" s="19"/>
+      <c r="N37" s="18" t="str">
         <f aca="false">IF(M37="", IF(X37=0, "", X37), IF(V37 = "", "", IF(V37/U37 = 0, "", V37/U37)))</f>
         <v/>
       </c>
@@ -2482,8 +2634,12 @@
         <f aca="true">IF(M38="", IF(O38="","",X38+(INDIRECT("S" &amp; ROW() - 1) - S38)),IF(O38="", "", INDIRECT("S" &amp; ROW() - 1) - S38))</f>
         <v/>
       </c>
-      <c r="M38" s="18"/>
-      <c r="N38" s="17" t="str">
+      <c r="K38" s="17" t="str">
+        <f aca="false">IF(H38="", "", IF(H38="-","",VLOOKUP(H38, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M38" s="19"/>
+      <c r="N38" s="18" t="str">
         <f aca="false">IF(M38="", IF(X38=0, "", X38), IF(V38 = "", "", IF(V38/U38 = 0, "", V38/U38)))</f>
         <v/>
       </c>
@@ -2529,8 +2685,12 @@
         <f aca="true">IF(M39="", IF(O39="","",X39+(INDIRECT("S" &amp; ROW() - 1) - S39)),IF(O39="", "", INDIRECT("S" &amp; ROW() - 1) - S39))</f>
         <v/>
       </c>
-      <c r="M39" s="18"/>
-      <c r="N39" s="17" t="str">
+      <c r="K39" s="17" t="str">
+        <f aca="false">IF(H39="", "", IF(H39="-","",VLOOKUP(H39, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M39" s="19"/>
+      <c r="N39" s="18" t="str">
         <f aca="false">IF(M39="", IF(X39=0, "", X39), IF(V39 = "", "", IF(V39/U39 = 0, "", V39/U39)))</f>
         <v/>
       </c>
@@ -2576,8 +2736,12 @@
         <f aca="true">IF(M40="", IF(O40="","",X40+(INDIRECT("S" &amp; ROW() - 1) - S40)),IF(O40="", "", INDIRECT("S" &amp; ROW() - 1) - S40))</f>
         <v/>
       </c>
-      <c r="M40" s="18"/>
-      <c r="N40" s="17" t="str">
+      <c r="K40" s="17" t="str">
+        <f aca="false">IF(H40="", "", IF(H40="-","",VLOOKUP(H40, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M40" s="19"/>
+      <c r="N40" s="18" t="str">
         <f aca="false">IF(M40="", IF(X40=0, "", X40), IF(V40 = "", "", IF(V40/U40 = 0, "", V40/U40)))</f>
         <v/>
       </c>
@@ -2623,8 +2787,12 @@
         <f aca="true">IF(M41="", IF(O41="","",X41+(INDIRECT("S" &amp; ROW() - 1) - S41)),IF(O41="", "", INDIRECT("S" &amp; ROW() - 1) - S41))</f>
         <v/>
       </c>
-      <c r="M41" s="18"/>
-      <c r="N41" s="17" t="str">
+      <c r="K41" s="17" t="str">
+        <f aca="false">IF(H41="", "", IF(H41="-","",VLOOKUP(H41, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M41" s="19"/>
+      <c r="N41" s="18" t="str">
         <f aca="false">IF(M41="", IF(X41=0, "", X41), IF(V41 = "", "", IF(V41/U41 = 0, "", V41/U41)))</f>
         <v/>
       </c>
@@ -2670,8 +2838,12 @@
         <f aca="true">IF(M42="", IF(O42="","",X42+(INDIRECT("S" &amp; ROW() - 1) - S42)),IF(O42="", "", INDIRECT("S" &amp; ROW() - 1) - S42))</f>
         <v/>
       </c>
-      <c r="M42" s="18"/>
-      <c r="N42" s="17" t="str">
+      <c r="K42" s="17" t="str">
+        <f aca="false">IF(H42="", "", IF(H42="-","",VLOOKUP(H42, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M42" s="19"/>
+      <c r="N42" s="18" t="str">
         <f aca="false">IF(M42="", IF(X42=0, "", X42), IF(V42 = "", "", IF(V42/U42 = 0, "", V42/U42)))</f>
         <v/>
       </c>
@@ -2717,8 +2889,12 @@
         <f aca="true">IF(M43="", IF(O43="","",X43+(INDIRECT("S" &amp; ROW() - 1) - S43)),IF(O43="", "", INDIRECT("S" &amp; ROW() - 1) - S43))</f>
         <v/>
       </c>
-      <c r="M43" s="18"/>
-      <c r="N43" s="17" t="str">
+      <c r="K43" s="17" t="str">
+        <f aca="false">IF(H43="", "", IF(H43="-","",VLOOKUP(H43, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M43" s="19"/>
+      <c r="N43" s="18" t="str">
         <f aca="false">IF(M43="", IF(X43=0, "", X43), IF(V43 = "", "", IF(V43/U43 = 0, "", V43/U43)))</f>
         <v/>
       </c>
@@ -2764,8 +2940,12 @@
         <f aca="true">IF(M44="", IF(O44="","",X44+(INDIRECT("S" &amp; ROW() - 1) - S44)),IF(O44="", "", INDIRECT("S" &amp; ROW() - 1) - S44))</f>
         <v/>
       </c>
-      <c r="M44" s="18"/>
-      <c r="N44" s="17" t="str">
+      <c r="K44" s="17" t="str">
+        <f aca="false">IF(H44="", "", IF(H44="-","",VLOOKUP(H44, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M44" s="19"/>
+      <c r="N44" s="18" t="str">
         <f aca="false">IF(M44="", IF(X44=0, "", X44), IF(V44 = "", "", IF(V44/U44 = 0, "", V44/U44)))</f>
         <v/>
       </c>
@@ -2811,8 +2991,12 @@
         <f aca="true">IF(M45="", IF(O45="","",X45+(INDIRECT("S" &amp; ROW() - 1) - S45)),IF(O45="", "", INDIRECT("S" &amp; ROW() - 1) - S45))</f>
         <v/>
       </c>
-      <c r="M45" s="18"/>
-      <c r="N45" s="17" t="str">
+      <c r="K45" s="17" t="str">
+        <f aca="false">IF(H45="", "", IF(H45="-","",VLOOKUP(H45, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M45" s="19"/>
+      <c r="N45" s="18" t="str">
         <f aca="false">IF(M45="", IF(X45=0, "", X45), IF(V45 = "", "", IF(V45/U45 = 0, "", V45/U45)))</f>
         <v/>
       </c>
@@ -2858,8 +3042,12 @@
         <f aca="true">IF(M46="", IF(O46="","",X46+(INDIRECT("S" &amp; ROW() - 1) - S46)),IF(O46="", "", INDIRECT("S" &amp; ROW() - 1) - S46))</f>
         <v/>
       </c>
-      <c r="M46" s="18"/>
-      <c r="N46" s="17" t="str">
+      <c r="K46" s="17" t="str">
+        <f aca="false">IF(H46="", "", IF(H46="-","",VLOOKUP(H46, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M46" s="19"/>
+      <c r="N46" s="18" t="str">
         <f aca="false">IF(M46="", IF(X46=0, "", X46), IF(V46 = "", "", IF(V46/U46 = 0, "", V46/U46)))</f>
         <v/>
       </c>
@@ -2905,8 +3093,12 @@
         <f aca="true">IF(M47="", IF(O47="","",X47+(INDIRECT("S" &amp; ROW() - 1) - S47)),IF(O47="", "", INDIRECT("S" &amp; ROW() - 1) - S47))</f>
         <v/>
       </c>
-      <c r="M47" s="18"/>
-      <c r="N47" s="17" t="str">
+      <c r="K47" s="17" t="str">
+        <f aca="false">IF(H47="", "", IF(H47="-","",VLOOKUP(H47, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M47" s="19"/>
+      <c r="N47" s="18" t="str">
         <f aca="false">IF(M47="", IF(X47=0, "", X47), IF(V47 = "", "", IF(V47/U47 = 0, "", V47/U47)))</f>
         <v/>
       </c>
@@ -2952,8 +3144,12 @@
         <f aca="true">IF(M48="", IF(O48="","",X48+(INDIRECT("S" &amp; ROW() - 1) - S48)),IF(O48="", "", INDIRECT("S" &amp; ROW() - 1) - S48))</f>
         <v/>
       </c>
-      <c r="M48" s="18"/>
-      <c r="N48" s="17" t="str">
+      <c r="K48" s="17" t="str">
+        <f aca="false">IF(H48="", "", IF(H48="-","",VLOOKUP(H48, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M48" s="19"/>
+      <c r="N48" s="18" t="str">
         <f aca="false">IF(M48="", IF(X48=0, "", X48), IF(V48 = "", "", IF(V48/U48 = 0, "", V48/U48)))</f>
         <v/>
       </c>
@@ -2999,8 +3195,12 @@
         <f aca="true">IF(M49="", IF(O49="","",X49+(INDIRECT("S" &amp; ROW() - 1) - S49)),IF(O49="", "", INDIRECT("S" &amp; ROW() - 1) - S49))</f>
         <v/>
       </c>
-      <c r="M49" s="18"/>
-      <c r="N49" s="17" t="str">
+      <c r="K49" s="17" t="str">
+        <f aca="false">IF(H49="", "", IF(H49="-","",VLOOKUP(H49, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M49" s="19"/>
+      <c r="N49" s="18" t="str">
         <f aca="false">IF(M49="", IF(X49=0, "", X49), IF(V49 = "", "", IF(V49/U49 = 0, "", V49/U49)))</f>
         <v/>
       </c>
@@ -3046,8 +3246,12 @@
         <f aca="true">IF(M50="", IF(O50="","",X50+(INDIRECT("S" &amp; ROW() - 1) - S50)),IF(O50="", "", INDIRECT("S" &amp; ROW() - 1) - S50))</f>
         <v/>
       </c>
-      <c r="M50" s="18"/>
-      <c r="N50" s="17" t="str">
+      <c r="K50" s="17" t="str">
+        <f aca="false">IF(H50="", "", IF(H50="-","",VLOOKUP(H50, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M50" s="19"/>
+      <c r="N50" s="18" t="str">
         <f aca="false">IF(M50="", IF(X50=0, "", X50), IF(V50 = "", "", IF(V50/U50 = 0, "", V50/U50)))</f>
         <v/>
       </c>
@@ -3093,8 +3297,12 @@
         <f aca="true">IF(M51="", IF(O51="","",X51+(INDIRECT("S" &amp; ROW() - 1) - S51)),IF(O51="", "", INDIRECT("S" &amp; ROW() - 1) - S51))</f>
         <v/>
       </c>
-      <c r="M51" s="18"/>
-      <c r="N51" s="17" t="str">
+      <c r="K51" s="17" t="str">
+        <f aca="false">IF(H51="", "", IF(H51="-","",VLOOKUP(H51, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M51" s="19"/>
+      <c r="N51" s="18" t="str">
         <f aca="false">IF(M51="", IF(X51=0, "", X51), IF(V51 = "", "", IF(V51/U51 = 0, "", V51/U51)))</f>
         <v/>
       </c>
@@ -3140,8 +3348,12 @@
         <f aca="true">IF(M52="", IF(O52="","",X52+(INDIRECT("S" &amp; ROW() - 1) - S52)),IF(O52="", "", INDIRECT("S" &amp; ROW() - 1) - S52))</f>
         <v/>
       </c>
-      <c r="M52" s="18"/>
-      <c r="N52" s="17" t="str">
+      <c r="K52" s="17" t="str">
+        <f aca="false">IF(H52="", "", IF(H52="-","",VLOOKUP(H52, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M52" s="19"/>
+      <c r="N52" s="18" t="str">
         <f aca="false">IF(M52="", IF(X52=0, "", X52), IF(V52 = "", "", IF(V52/U52 = 0, "", V52/U52)))</f>
         <v/>
       </c>
@@ -3187,8 +3399,12 @@
         <f aca="true">IF(M53="", IF(O53="","",X53+(INDIRECT("S" &amp; ROW() - 1) - S53)),IF(O53="", "", INDIRECT("S" &amp; ROW() - 1) - S53))</f>
         <v/>
       </c>
-      <c r="M53" s="18"/>
-      <c r="N53" s="17" t="str">
+      <c r="K53" s="17" t="str">
+        <f aca="false">IF(H53="", "", IF(H53="-","",VLOOKUP(H53, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M53" s="19"/>
+      <c r="N53" s="18" t="str">
         <f aca="false">IF(M53="", IF(X53=0, "", X53), IF(V53 = "", "", IF(V53/U53 = 0, "", V53/U53)))</f>
         <v/>
       </c>
@@ -3234,8 +3450,12 @@
         <f aca="true">IF(M54="", IF(O54="","",X54+(INDIRECT("S" &amp; ROW() - 1) - S54)),IF(O54="", "", INDIRECT("S" &amp; ROW() - 1) - S54))</f>
         <v/>
       </c>
-      <c r="M54" s="18"/>
-      <c r="N54" s="17" t="str">
+      <c r="K54" s="17" t="str">
+        <f aca="false">IF(H54="", "", IF(H54="-","",VLOOKUP(H54, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M54" s="19"/>
+      <c r="N54" s="18" t="str">
         <f aca="false">IF(M54="", IF(X54=0, "", X54), IF(V54 = "", "", IF(V54/U54 = 0, "", V54/U54)))</f>
         <v/>
       </c>
@@ -3281,8 +3501,12 @@
         <f aca="true">IF(M55="", IF(O55="","",X55+(INDIRECT("S" &amp; ROW() - 1) - S55)),IF(O55="", "", INDIRECT("S" &amp; ROW() - 1) - S55))</f>
         <v/>
       </c>
-      <c r="M55" s="18"/>
-      <c r="N55" s="17" t="str">
+      <c r="K55" s="17" t="str">
+        <f aca="false">IF(H55="", "", IF(H55="-","",VLOOKUP(H55, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M55" s="19"/>
+      <c r="N55" s="18" t="str">
         <f aca="false">IF(M55="", IF(X55=0, "", X55), IF(V55 = "", "", IF(V55/U55 = 0, "", V55/U55)))</f>
         <v/>
       </c>
@@ -3328,8 +3552,12 @@
         <f aca="true">IF(M56="", IF(O56="","",X56+(INDIRECT("S" &amp; ROW() - 1) - S56)),IF(O56="", "", INDIRECT("S" &amp; ROW() - 1) - S56))</f>
         <v/>
       </c>
-      <c r="M56" s="18"/>
-      <c r="N56" s="17" t="str">
+      <c r="K56" s="17" t="str">
+        <f aca="false">IF(H56="", "", IF(H56="-","",VLOOKUP(H56, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M56" s="19"/>
+      <c r="N56" s="18" t="str">
         <f aca="false">IF(M56="", IF(X56=0, "", X56), IF(V56 = "", "", IF(V56/U56 = 0, "", V56/U56)))</f>
         <v/>
       </c>
@@ -3375,8 +3603,12 @@
         <f aca="true">IF(M57="", IF(O57="","",X57+(INDIRECT("S" &amp; ROW() - 1) - S57)),IF(O57="", "", INDIRECT("S" &amp; ROW() - 1) - S57))</f>
         <v/>
       </c>
-      <c r="M57" s="18"/>
-      <c r="N57" s="17" t="str">
+      <c r="K57" s="17" t="str">
+        <f aca="false">IF(H57="", "", IF(H57="-","",VLOOKUP(H57, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M57" s="19"/>
+      <c r="N57" s="18" t="str">
         <f aca="false">IF(M57="", IF(X57=0, "", X57), IF(V57 = "", "", IF(V57/U57 = 0, "", V57/U57)))</f>
         <v/>
       </c>
@@ -3422,8 +3654,12 @@
         <f aca="true">IF(M58="", IF(O58="","",X58+(INDIRECT("S" &amp; ROW() - 1) - S58)),IF(O58="", "", INDIRECT("S" &amp; ROW() - 1) - S58))</f>
         <v/>
       </c>
-      <c r="M58" s="18"/>
-      <c r="N58" s="17" t="str">
+      <c r="K58" s="17" t="str">
+        <f aca="false">IF(H58="", "", IF(H58="-","",VLOOKUP(H58, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M58" s="19"/>
+      <c r="N58" s="18" t="str">
         <f aca="false">IF(M58="", IF(X58=0, "", X58), IF(V58 = "", "", IF(V58/U58 = 0, "", V58/U58)))</f>
         <v/>
       </c>
@@ -3469,8 +3705,12 @@
         <f aca="true">IF(M59="", IF(O59="","",X59+(INDIRECT("S" &amp; ROW() - 1) - S59)),IF(O59="", "", INDIRECT("S" &amp; ROW() - 1) - S59))</f>
         <v/>
       </c>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17" t="str">
+      <c r="K59" s="17" t="str">
+        <f aca="false">IF(H59="", "", IF(H59="-","",VLOOKUP(H59, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M59" s="18"/>
+      <c r="N59" s="18" t="str">
         <f aca="false">IF(M59="", IF(X59=0, "", X59), IF(V59 = "", "", IF(V59/U59 = 0, "", V59/U59)))</f>
         <v/>
       </c>
@@ -3516,8 +3756,12 @@
         <f aca="true">IF(M60="", IF(O60="","",X60+(INDIRECT("S" &amp; ROW() - 1) - S60)),IF(O60="", "", INDIRECT("S" &amp; ROW() - 1) - S60))</f>
         <v/>
       </c>
-      <c r="M60" s="18"/>
-      <c r="N60" s="17" t="str">
+      <c r="K60" s="17" t="str">
+        <f aca="false">IF(H60="", "", IF(H60="-","",VLOOKUP(H60, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M60" s="19"/>
+      <c r="N60" s="18" t="str">
         <f aca="false">IF(M60="", IF(X60=0, "", X60), IF(V60 = "", "", IF(V60/U60 = 0, "", V60/U60)))</f>
         <v/>
       </c>
@@ -3563,8 +3807,12 @@
         <f aca="true">IF(M61="", IF(O61="","",X61+(INDIRECT("S" &amp; ROW() - 1) - S61)),IF(O61="", "", INDIRECT("S" &amp; ROW() - 1) - S61))</f>
         <v/>
       </c>
-      <c r="M61" s="18"/>
-      <c r="N61" s="17" t="str">
+      <c r="K61" s="17" t="str">
+        <f aca="false">IF(H61="", "", IF(H61="-","",VLOOKUP(H61, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M61" s="19"/>
+      <c r="N61" s="18" t="str">
         <f aca="false">IF(M61="", IF(X61=0, "", X61), IF(V61 = "", "", IF(V61/U61 = 0, "", V61/U61)))</f>
         <v/>
       </c>
@@ -3610,8 +3858,12 @@
         <f aca="true">IF(M62="", IF(O62="","",X62+(INDIRECT("S" &amp; ROW() - 1) - S62)),IF(O62="", "", INDIRECT("S" &amp; ROW() - 1) - S62))</f>
         <v/>
       </c>
-      <c r="M62" s="18"/>
-      <c r="N62" s="17" t="str">
+      <c r="K62" s="17" t="str">
+        <f aca="false">IF(H62="", "", IF(H62="-","",VLOOKUP(H62, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M62" s="19"/>
+      <c r="N62" s="18" t="str">
         <f aca="false">IF(M62="", IF(X62=0, "", X62), IF(V62 = "", "", IF(V62/U62 = 0, "", V62/U62)))</f>
         <v/>
       </c>
@@ -3657,8 +3909,12 @@
         <f aca="true">IF(M63="", IF(O63="","",X63+(INDIRECT("S" &amp; ROW() - 1) - S63)),IF(O63="", "", INDIRECT("S" &amp; ROW() - 1) - S63))</f>
         <v/>
       </c>
-      <c r="M63" s="18"/>
-      <c r="N63" s="17" t="str">
+      <c r="K63" s="17" t="str">
+        <f aca="false">IF(H63="", "", IF(H63="-","",VLOOKUP(H63, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M63" s="19"/>
+      <c r="N63" s="18" t="str">
         <f aca="false">IF(M63="", IF(X63=0, "", X63), IF(V63 = "", "", IF(V63/U63 = 0, "", V63/U63)))</f>
         <v/>
       </c>
@@ -3704,8 +3960,12 @@
         <f aca="true">IF(M64="", IF(O64="","",X64+(INDIRECT("S" &amp; ROW() - 1) - S64)),IF(O64="", "", INDIRECT("S" &amp; ROW() - 1) - S64))</f>
         <v/>
       </c>
-      <c r="M64" s="18"/>
-      <c r="N64" s="17" t="str">
+      <c r="K64" s="17" t="str">
+        <f aca="false">IF(H64="", "", IF(H64="-","",VLOOKUP(H64, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M64" s="19"/>
+      <c r="N64" s="18" t="str">
         <f aca="false">IF(M64="", IF(X64=0, "", X64), IF(V64 = "", "", IF(V64/U64 = 0, "", V64/U64)))</f>
         <v/>
       </c>
@@ -3751,8 +4011,12 @@
         <f aca="true">IF(M65="", IF(O65="","",X65+(INDIRECT("S" &amp; ROW() - 1) - S65)),IF(O65="", "", INDIRECT("S" &amp; ROW() - 1) - S65))</f>
         <v/>
       </c>
-      <c r="M65" s="18"/>
-      <c r="N65" s="17" t="str">
+      <c r="K65" s="17" t="str">
+        <f aca="false">IF(H65="", "", IF(H65="-","",VLOOKUP(H65, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M65" s="19"/>
+      <c r="N65" s="18" t="str">
         <f aca="false">IF(M65="", IF(X65=0, "", X65), IF(V65 = "", "", IF(V65/U65 = 0, "", V65/U65)))</f>
         <v/>
       </c>
@@ -3798,8 +4062,12 @@
         <f aca="true">IF(M66="", IF(O66="","",X66+(INDIRECT("S" &amp; ROW() - 1) - S66)),IF(O66="", "", INDIRECT("S" &amp; ROW() - 1) - S66))</f>
         <v/>
       </c>
-      <c r="M66" s="18"/>
-      <c r="N66" s="17" t="str">
+      <c r="K66" s="17" t="str">
+        <f aca="false">IF(H66="", "", IF(H66="-","",VLOOKUP(H66, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M66" s="19"/>
+      <c r="N66" s="18" t="str">
         <f aca="false">IF(M66="", IF(X66=0, "", X66), IF(V66 = "", "", IF(V66/U66 = 0, "", V66/U66)))</f>
         <v/>
       </c>
@@ -3845,8 +4113,12 @@
         <f aca="true">IF(M67="", IF(O67="","",X67+(INDIRECT("S" &amp; ROW() - 1) - S67)),IF(O67="", "", INDIRECT("S" &amp; ROW() - 1) - S67))</f>
         <v/>
       </c>
-      <c r="M67" s="18"/>
-      <c r="N67" s="17" t="str">
+      <c r="K67" s="17" t="str">
+        <f aca="false">IF(H67="", "", IF(H67="-","",VLOOKUP(H67, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M67" s="19"/>
+      <c r="N67" s="18" t="str">
         <f aca="false">IF(M67="", IF(X67=0, "", X67), IF(V67 = "", "", IF(V67/U67 = 0, "", V67/U67)))</f>
         <v/>
       </c>
@@ -3892,8 +4164,12 @@
         <f aca="true">IF(M68="", IF(O68="","",X68+(INDIRECT("S" &amp; ROW() - 1) - S68)),IF(O68="", "", INDIRECT("S" &amp; ROW() - 1) - S68))</f>
         <v/>
       </c>
-      <c r="M68" s="18"/>
-      <c r="N68" s="17" t="str">
+      <c r="K68" s="17" t="str">
+        <f aca="false">IF(H68="", "", IF(H68="-","",VLOOKUP(H68, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M68" s="19"/>
+      <c r="N68" s="18" t="str">
         <f aca="false">IF(M68="", IF(X68=0, "", X68), IF(V68 = "", "", IF(V68/U68 = 0, "", V68/U68)))</f>
         <v/>
       </c>
@@ -3939,8 +4215,12 @@
         <f aca="true">IF(M69="", IF(O69="","",X69+(INDIRECT("S" &amp; ROW() - 1) - S69)),IF(O69="", "", INDIRECT("S" &amp; ROW() - 1) - S69))</f>
         <v/>
       </c>
-      <c r="M69" s="18"/>
-      <c r="N69" s="17" t="str">
+      <c r="K69" s="17" t="str">
+        <f aca="false">IF(H69="", "", IF(H69="-","",VLOOKUP(H69, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M69" s="19"/>
+      <c r="N69" s="18" t="str">
         <f aca="false">IF(M69="", IF(X69=0, "", X69), IF(V69 = "", "", IF(V69/U69 = 0, "", V69/U69)))</f>
         <v/>
       </c>
@@ -3986,8 +4266,12 @@
         <f aca="true">IF(M70="", IF(O70="","",X70+(INDIRECT("S" &amp; ROW() - 1) - S70)),IF(O70="", "", INDIRECT("S" &amp; ROW() - 1) - S70))</f>
         <v/>
       </c>
-      <c r="M70" s="18"/>
-      <c r="N70" s="17" t="str">
+      <c r="K70" s="17" t="str">
+        <f aca="false">IF(H70="", "", IF(H70="-","",VLOOKUP(H70, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M70" s="19"/>
+      <c r="N70" s="18" t="str">
         <f aca="false">IF(M70="", IF(X70=0, "", X70), IF(V70 = "", "", IF(V70/U70 = 0, "", V70/U70)))</f>
         <v/>
       </c>
@@ -4033,8 +4317,12 @@
         <f aca="true">IF(M71="", IF(O71="","",X71+(INDIRECT("S" &amp; ROW() - 1) - S71)),IF(O71="", "", INDIRECT("S" &amp; ROW() - 1) - S71))</f>
         <v/>
       </c>
-      <c r="M71" s="18"/>
-      <c r="N71" s="17" t="str">
+      <c r="K71" s="17" t="str">
+        <f aca="false">IF(H71="", "", IF(H71="-","",VLOOKUP(H71, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M71" s="19"/>
+      <c r="N71" s="18" t="str">
         <f aca="false">IF(M71="", IF(X71=0, "", X71), IF(V71 = "", "", IF(V71/U71 = 0, "", V71/U71)))</f>
         <v/>
       </c>
@@ -4080,8 +4368,12 @@
         <f aca="true">IF(M72="", IF(O72="","",X72+(INDIRECT("S" &amp; ROW() - 1) - S72)),IF(O72="", "", INDIRECT("S" &amp; ROW() - 1) - S72))</f>
         <v/>
       </c>
-      <c r="M72" s="18"/>
-      <c r="N72" s="17" t="str">
+      <c r="K72" s="17" t="str">
+        <f aca="false">IF(H72="", "", IF(H72="-","",VLOOKUP(H72, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M72" s="19"/>
+      <c r="N72" s="18" t="str">
         <f aca="false">IF(M72="", IF(X72=0, "", X72), IF(V72 = "", "", IF(V72/U72 = 0, "", V72/U72)))</f>
         <v/>
       </c>
@@ -4127,8 +4419,12 @@
         <f aca="true">IF(M73="", IF(O73="","",X73+(INDIRECT("S" &amp; ROW() - 1) - S73)),IF(O73="", "", INDIRECT("S" &amp; ROW() - 1) - S73))</f>
         <v/>
       </c>
-      <c r="M73" s="18"/>
-      <c r="N73" s="17" t="str">
+      <c r="K73" s="17" t="str">
+        <f aca="false">IF(H73="", "", IF(H73="-","",VLOOKUP(H73, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M73" s="19"/>
+      <c r="N73" s="18" t="str">
         <f aca="false">IF(M73="", IF(X73=0, "", X73), IF(V73 = "", "", IF(V73/U73 = 0, "", V73/U73)))</f>
         <v/>
       </c>
@@ -4174,8 +4470,12 @@
         <f aca="true">IF(M74="", IF(O74="","",X74+(INDIRECT("S" &amp; ROW() - 1) - S74)),IF(O74="", "", INDIRECT("S" &amp; ROW() - 1) - S74))</f>
         <v/>
       </c>
-      <c r="M74" s="18"/>
-      <c r="N74" s="17" t="str">
+      <c r="K74" s="17" t="str">
+        <f aca="false">IF(H74="", "", IF(H74="-","",VLOOKUP(H74, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M74" s="19"/>
+      <c r="N74" s="18" t="str">
         <f aca="false">IF(M74="", IF(X74=0, "", X74), IF(V74 = "", "", IF(V74/U74 = 0, "", V74/U74)))</f>
         <v/>
       </c>
@@ -4221,8 +4521,12 @@
         <f aca="true">IF(M75="", IF(O75="","",X75+(INDIRECT("S" &amp; ROW() - 1) - S75)),IF(O75="", "", INDIRECT("S" &amp; ROW() - 1) - S75))</f>
         <v/>
       </c>
-      <c r="M75" s="18"/>
-      <c r="N75" s="17" t="str">
+      <c r="K75" s="17" t="str">
+        <f aca="false">IF(H75="", "", IF(H75="-","",VLOOKUP(H75, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M75" s="19"/>
+      <c r="N75" s="18" t="str">
         <f aca="false">IF(M75="", IF(X75=0, "", X75), IF(V75 = "", "", IF(V75/U75 = 0, "", V75/U75)))</f>
         <v/>
       </c>
@@ -4268,8 +4572,12 @@
         <f aca="true">IF(M76="", IF(O76="","",X76+(INDIRECT("S" &amp; ROW() - 1) - S76)),IF(O76="", "", INDIRECT("S" &amp; ROW() - 1) - S76))</f>
         <v/>
       </c>
-      <c r="M76" s="18"/>
-      <c r="N76" s="17" t="str">
+      <c r="K76" s="17" t="str">
+        <f aca="false">IF(H76="", "", IF(H76="-","",VLOOKUP(H76, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M76" s="19"/>
+      <c r="N76" s="18" t="str">
         <f aca="false">IF(M76="", IF(X76=0, "", X76), IF(V76 = "", "", IF(V76/U76 = 0, "", V76/U76)))</f>
         <v/>
       </c>
@@ -4315,8 +4623,12 @@
         <f aca="true">IF(M77="", IF(O77="","",X77+(INDIRECT("S" &amp; ROW() - 1) - S77)),IF(O77="", "", INDIRECT("S" &amp; ROW() - 1) - S77))</f>
         <v/>
       </c>
-      <c r="M77" s="18"/>
-      <c r="N77" s="17" t="str">
+      <c r="K77" s="17" t="str">
+        <f aca="false">IF(H77="", "", IF(H77="-","",VLOOKUP(H77, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M77" s="19"/>
+      <c r="N77" s="18" t="str">
         <f aca="false">IF(M77="", IF(X77=0, "", X77), IF(V77 = "", "", IF(V77/U77 = 0, "", V77/U77)))</f>
         <v/>
       </c>
@@ -4362,8 +4674,12 @@
         <f aca="true">IF(M78="", IF(O78="","",X78+(INDIRECT("S" &amp; ROW() - 1) - S78)),IF(O78="", "", INDIRECT("S" &amp; ROW() - 1) - S78))</f>
         <v/>
       </c>
-      <c r="M78" s="18"/>
-      <c r="N78" s="17" t="str">
+      <c r="K78" s="17" t="str">
+        <f aca="false">IF(H78="", "", IF(H78="-","",VLOOKUP(H78, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M78" s="19"/>
+      <c r="N78" s="18" t="str">
         <f aca="false">IF(M78="", IF(X78=0, "", X78), IF(V78 = "", "", IF(V78/U78 = 0, "", V78/U78)))</f>
         <v/>
       </c>
@@ -4409,8 +4725,12 @@
         <f aca="true">IF(M79="", IF(O79="","",X79+(INDIRECT("S" &amp; ROW() - 1) - S79)),IF(O79="", "", INDIRECT("S" &amp; ROW() - 1) - S79))</f>
         <v/>
       </c>
-      <c r="M79" s="18"/>
-      <c r="N79" s="17" t="str">
+      <c r="K79" s="17" t="str">
+        <f aca="false">IF(H79="", "", IF(H79="-","",VLOOKUP(H79, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M79" s="19"/>
+      <c r="N79" s="18" t="str">
         <f aca="false">IF(M79="", IF(X79=0, "", X79), IF(V79 = "", "", IF(V79/U79 = 0, "", V79/U79)))</f>
         <v/>
       </c>
@@ -4456,8 +4776,12 @@
         <f aca="true">IF(M80="", IF(O80="","",X80+(INDIRECT("S" &amp; ROW() - 1) - S80)),IF(O80="", "", INDIRECT("S" &amp; ROW() - 1) - S80))</f>
         <v/>
       </c>
-      <c r="M80" s="18"/>
-      <c r="N80" s="17" t="str">
+      <c r="K80" s="17" t="str">
+        <f aca="false">IF(H80="", "", IF(H80="-","",VLOOKUP(H80, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M80" s="19"/>
+      <c r="N80" s="18" t="str">
         <f aca="false">IF(M80="", IF(X80=0, "", X80), IF(V80 = "", "", IF(V80/U80 = 0, "", V80/U80)))</f>
         <v/>
       </c>
@@ -4503,8 +4827,12 @@
         <f aca="true">IF(M81="", IF(O81="","",X81+(INDIRECT("S" &amp; ROW() - 1) - S81)),IF(O81="", "", INDIRECT("S" &amp; ROW() - 1) - S81))</f>
         <v/>
       </c>
-      <c r="M81" s="18"/>
-      <c r="N81" s="17" t="str">
+      <c r="K81" s="17" t="str">
+        <f aca="false">IF(H81="", "", IF(H81="-","",VLOOKUP(H81, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M81" s="19"/>
+      <c r="N81" s="18" t="str">
         <f aca="false">IF(M81="", IF(X81=0, "", X81), IF(V81 = "", "", IF(V81/U81 = 0, "", V81/U81)))</f>
         <v/>
       </c>
@@ -4550,8 +4878,12 @@
         <f aca="true">IF(M82="", IF(O82="","",X82+(INDIRECT("S" &amp; ROW() - 1) - S82)),IF(O82="", "", INDIRECT("S" &amp; ROW() - 1) - S82))</f>
         <v/>
       </c>
-      <c r="M82" s="18"/>
-      <c r="N82" s="17" t="str">
+      <c r="K82" s="17" t="str">
+        <f aca="false">IF(H82="", "", IF(H82="-","",VLOOKUP(H82, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M82" s="19"/>
+      <c r="N82" s="18" t="str">
         <f aca="false">IF(M82="", IF(X82=0, "", X82), IF(V82 = "", "", IF(V82/U82 = 0, "", V82/U82)))</f>
         <v/>
       </c>
@@ -4597,8 +4929,12 @@
         <f aca="true">IF(M83="", IF(O83="","",X83+(INDIRECT("S" &amp; ROW() - 1) - S83)),IF(O83="", "", INDIRECT("S" &amp; ROW() - 1) - S83))</f>
         <v/>
       </c>
-      <c r="M83" s="18"/>
-      <c r="N83" s="17" t="str">
+      <c r="K83" s="17" t="str">
+        <f aca="false">IF(H83="", "", IF(H83="-","",VLOOKUP(H83, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M83" s="19"/>
+      <c r="N83" s="18" t="str">
         <f aca="false">IF(M83="", IF(X83=0, "", X83), IF(V83 = "", "", IF(V83/U83 = 0, "", V83/U83)))</f>
         <v/>
       </c>
@@ -4644,8 +4980,12 @@
         <f aca="true">IF(M84="", IF(O84="","",X84+(INDIRECT("S" &amp; ROW() - 1) - S84)),IF(O84="", "", INDIRECT("S" &amp; ROW() - 1) - S84))</f>
         <v/>
       </c>
-      <c r="M84" s="18"/>
-      <c r="N84" s="17" t="str">
+      <c r="K84" s="17" t="str">
+        <f aca="false">IF(H84="", "", IF(H84="-","",VLOOKUP(H84, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M84" s="19"/>
+      <c r="N84" s="18" t="str">
         <f aca="false">IF(M84="", IF(X84=0, "", X84), IF(V84 = "", "", IF(V84/U84 = 0, "", V84/U84)))</f>
         <v/>
       </c>
@@ -4691,8 +5031,12 @@
         <f aca="true">IF(M85="", IF(O85="","",X85+(INDIRECT("S" &amp; ROW() - 1) - S85)),IF(O85="", "", INDIRECT("S" &amp; ROW() - 1) - S85))</f>
         <v/>
       </c>
-      <c r="M85" s="18"/>
-      <c r="N85" s="17" t="str">
+      <c r="K85" s="17" t="str">
+        <f aca="false">IF(H85="", "", IF(H85="-","",VLOOKUP(H85, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M85" s="19"/>
+      <c r="N85" s="18" t="str">
         <f aca="false">IF(M85="", IF(X85=0, "", X85), IF(V85 = "", "", IF(V85/U85 = 0, "", V85/U85)))</f>
         <v/>
       </c>
@@ -4738,8 +5082,12 @@
         <f aca="true">IF(M86="", IF(O86="","",X86+(INDIRECT("S" &amp; ROW() - 1) - S86)),IF(O86="", "", INDIRECT("S" &amp; ROW() - 1) - S86))</f>
         <v/>
       </c>
-      <c r="M86" s="18"/>
-      <c r="N86" s="17" t="str">
+      <c r="K86" s="17" t="str">
+        <f aca="false">IF(H86="", "", IF(H86="-","",VLOOKUP(H86, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M86" s="19"/>
+      <c r="N86" s="18" t="str">
         <f aca="false">IF(M86="", IF(X86=0, "", X86), IF(V86 = "", "", IF(V86/U86 = 0, "", V86/U86)))</f>
         <v/>
       </c>
@@ -4785,8 +5133,12 @@
         <f aca="true">IF(M87="", IF(O87="","",X87+(INDIRECT("S" &amp; ROW() - 1) - S87)),IF(O87="", "", INDIRECT("S" &amp; ROW() - 1) - S87))</f>
         <v/>
       </c>
-      <c r="M87" s="18"/>
-      <c r="N87" s="17" t="str">
+      <c r="K87" s="17" t="str">
+        <f aca="false">IF(H87="", "", IF(H87="-","",VLOOKUP(H87, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M87" s="19"/>
+      <c r="N87" s="18" t="str">
         <f aca="false">IF(M87="", IF(X87=0, "", X87), IF(V87 = "", "", IF(V87/U87 = 0, "", V87/U87)))</f>
         <v/>
       </c>
@@ -4832,8 +5184,12 @@
         <f aca="true">IF(M88="", IF(O88="","",X88+(INDIRECT("S" &amp; ROW() - 1) - S88)),IF(O88="", "", INDIRECT("S" &amp; ROW() - 1) - S88))</f>
         <v/>
       </c>
-      <c r="M88" s="18"/>
-      <c r="N88" s="17" t="str">
+      <c r="K88" s="17" t="str">
+        <f aca="false">IF(H88="", "", IF(H88="-","",VLOOKUP(H88, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M88" s="19"/>
+      <c r="N88" s="18" t="str">
         <f aca="false">IF(M88="", IF(X88=0, "", X88), IF(V88 = "", "", IF(V88/U88 = 0, "", V88/U88)))</f>
         <v/>
       </c>
@@ -4879,8 +5235,12 @@
         <f aca="true">IF(M89="", IF(O89="","",X89+(INDIRECT("S" &amp; ROW() - 1) - S89)),IF(O89="", "", INDIRECT("S" &amp; ROW() - 1) - S89))</f>
         <v/>
       </c>
-      <c r="M89" s="18"/>
-      <c r="N89" s="17" t="str">
+      <c r="K89" s="17" t="str">
+        <f aca="false">IF(H89="", "", IF(H89="-","",VLOOKUP(H89, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M89" s="19"/>
+      <c r="N89" s="18" t="str">
         <f aca="false">IF(M89="", IF(X89=0, "", X89), IF(V89 = "", "", IF(V89/U89 = 0, "", V89/U89)))</f>
         <v/>
       </c>
@@ -4926,8 +5286,12 @@
         <f aca="true">IF(M90="", IF(O90="","",X90+(INDIRECT("S" &amp; ROW() - 1) - S90)),IF(O90="", "", INDIRECT("S" &amp; ROW() - 1) - S90))</f>
         <v/>
       </c>
-      <c r="M90" s="18"/>
-      <c r="N90" s="17" t="str">
+      <c r="K90" s="17" t="str">
+        <f aca="false">IF(H90="", "", IF(H90="-","",VLOOKUP(H90, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M90" s="19"/>
+      <c r="N90" s="18" t="str">
         <f aca="false">IF(M90="", IF(X90=0, "", X90), IF(V90 = "", "", IF(V90/U90 = 0, "", V90/U90)))</f>
         <v/>
       </c>
@@ -4973,8 +5337,12 @@
         <f aca="true">IF(M91="", IF(O91="","",X91+(INDIRECT("S" &amp; ROW() - 1) - S91)),IF(O91="", "", INDIRECT("S" &amp; ROW() - 1) - S91))</f>
         <v/>
       </c>
-      <c r="M91" s="18"/>
-      <c r="N91" s="17" t="str">
+      <c r="K91" s="17" t="str">
+        <f aca="false">IF(H91="", "", IF(H91="-","",VLOOKUP(H91, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M91" s="19"/>
+      <c r="N91" s="18" t="str">
         <f aca="false">IF(M91="", IF(X91=0, "", X91), IF(V91 = "", "", IF(V91/U91 = 0, "", V91/U91)))</f>
         <v/>
       </c>
@@ -5020,8 +5388,12 @@
         <f aca="true">IF(M92="", IF(O92="","",X92+(INDIRECT("S" &amp; ROW() - 1) - S92)),IF(O92="", "", INDIRECT("S" &amp; ROW() - 1) - S92))</f>
         <v/>
       </c>
-      <c r="M92" s="18"/>
-      <c r="N92" s="17" t="str">
+      <c r="K92" s="17" t="str">
+        <f aca="false">IF(H92="", "", IF(H92="-","",VLOOKUP(H92, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M92" s="19"/>
+      <c r="N92" s="18" t="str">
         <f aca="false">IF(M92="", IF(X92=0, "", X92), IF(V92 = "", "", IF(V92/U92 = 0, "", V92/U92)))</f>
         <v/>
       </c>
@@ -5067,8 +5439,12 @@
         <f aca="true">IF(M93="", IF(O93="","",X93+(INDIRECT("S" &amp; ROW() - 1) - S93)),IF(O93="", "", INDIRECT("S" &amp; ROW() - 1) - S93))</f>
         <v/>
       </c>
-      <c r="M93" s="18"/>
-      <c r="N93" s="17" t="str">
+      <c r="K93" s="17" t="str">
+        <f aca="false">IF(H93="", "", IF(H93="-","",VLOOKUP(H93, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M93" s="19"/>
+      <c r="N93" s="18" t="str">
         <f aca="false">IF(M93="", IF(X93=0, "", X93), IF(V93 = "", "", IF(V93/U93 = 0, "", V93/U93)))</f>
         <v/>
       </c>
@@ -5114,8 +5490,12 @@
         <f aca="true">IF(M94="", IF(O94="","",X94+(INDIRECT("S" &amp; ROW() - 1) - S94)),IF(O94="", "", INDIRECT("S" &amp; ROW() - 1) - S94))</f>
         <v/>
       </c>
-      <c r="M94" s="18"/>
-      <c r="N94" s="17" t="str">
+      <c r="K94" s="17" t="str">
+        <f aca="false">IF(H94="", "", IF(H94="-","",VLOOKUP(H94, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M94" s="19"/>
+      <c r="N94" s="18" t="str">
         <f aca="false">IF(M94="", IF(X94=0, "", X94), IF(V94 = "", "", IF(V94/U94 = 0, "", V94/U94)))</f>
         <v/>
       </c>
@@ -5161,8 +5541,12 @@
         <f aca="true">IF(M95="", IF(O95="","",X95+(INDIRECT("S" &amp; ROW() - 1) - S95)),IF(O95="", "", INDIRECT("S" &amp; ROW() - 1) - S95))</f>
         <v/>
       </c>
-      <c r="M95" s="18"/>
-      <c r="N95" s="17" t="str">
+      <c r="K95" s="17" t="str">
+        <f aca="false">IF(H95="", "", IF(H95="-","",VLOOKUP(H95, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M95" s="19"/>
+      <c r="N95" s="18" t="str">
         <f aca="false">IF(M95="", IF(X95=0, "", X95), IF(V95 = "", "", IF(V95/U95 = 0, "", V95/U95)))</f>
         <v/>
       </c>
@@ -5208,8 +5592,12 @@
         <f aca="true">IF(M96="", IF(O96="","",X96+(INDIRECT("S" &amp; ROW() - 1) - S96)),IF(O96="", "", INDIRECT("S" &amp; ROW() - 1) - S96))</f>
         <v/>
       </c>
-      <c r="M96" s="18"/>
-      <c r="N96" s="17" t="str">
+      <c r="K96" s="17" t="str">
+        <f aca="false">IF(H96="", "", IF(H96="-","",VLOOKUP(H96, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M96" s="19"/>
+      <c r="N96" s="18" t="str">
         <f aca="false">IF(M96="", IF(X96=0, "", X96), IF(V96 = "", "", IF(V96/U96 = 0, "", V96/U96)))</f>
         <v/>
       </c>
@@ -5255,8 +5643,12 @@
         <f aca="true">IF(M97="", IF(O97="","",X97+(INDIRECT("S" &amp; ROW() - 1) - S97)),IF(O97="", "", INDIRECT("S" &amp; ROW() - 1) - S97))</f>
         <v/>
       </c>
-      <c r="M97" s="18"/>
-      <c r="N97" s="17" t="str">
+      <c r="K97" s="17" t="str">
+        <f aca="false">IF(H97="", "", IF(H97="-","",VLOOKUP(H97, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M97" s="19"/>
+      <c r="N97" s="18" t="str">
         <f aca="false">IF(M97="", IF(X97=0, "", X97), IF(V97 = "", "", IF(V97/U97 = 0, "", V97/U97)))</f>
         <v/>
       </c>
@@ -5302,8 +5694,12 @@
         <f aca="true">IF(M98="", IF(O98="","",X98+(INDIRECT("S" &amp; ROW() - 1) - S98)),IF(O98="", "", INDIRECT("S" &amp; ROW() - 1) - S98))</f>
         <v/>
       </c>
-      <c r="M98" s="18"/>
-      <c r="N98" s="17" t="str">
+      <c r="K98" s="17" t="str">
+        <f aca="false">IF(H98="", "", IF(H98="-","",VLOOKUP(H98, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M98" s="19"/>
+      <c r="N98" s="18" t="str">
         <f aca="false">IF(M98="", IF(X98=0, "", X98), IF(V98 = "", "", IF(V98/U98 = 0, "", V98/U98)))</f>
         <v/>
       </c>
@@ -5349,8 +5745,12 @@
         <f aca="true">IF(M99="", IF(O99="","",X99+(INDIRECT("S" &amp; ROW() - 1) - S99)),IF(O99="", "", INDIRECT("S" &amp; ROW() - 1) - S99))</f>
         <v/>
       </c>
-      <c r="M99" s="18"/>
-      <c r="N99" s="17" t="str">
+      <c r="K99" s="17" t="str">
+        <f aca="false">IF(H99="", "", IF(H99="-","",VLOOKUP(H99, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M99" s="19"/>
+      <c r="N99" s="18" t="str">
         <f aca="false">IF(M99="", IF(X99=0, "", X99), IF(V99 = "", "", IF(V99/U99 = 0, "", V99/U99)))</f>
         <v/>
       </c>
@@ -5396,8 +5796,12 @@
         <f aca="true">IF(M100="", IF(O100="","",X100+(INDIRECT("S" &amp; ROW() - 1) - S100)),IF(O100="", "", INDIRECT("S" &amp; ROW() - 1) - S100))</f>
         <v/>
       </c>
-      <c r="M100" s="18"/>
-      <c r="N100" s="17" t="str">
+      <c r="K100" s="17" t="str">
+        <f aca="false">IF(H100="", "", IF(H100="-","",VLOOKUP(H100, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M100" s="19"/>
+      <c r="N100" s="18" t="str">
         <f aca="false">IF(M100="", IF(X100=0, "", X100), IF(V100 = "", "", IF(V100/U100 = 0, "", V100/U100)))</f>
         <v/>
       </c>
@@ -5443,8 +5847,12 @@
         <f aca="true">IF(M101="", IF(O101="","",X101+(INDIRECT("S" &amp; ROW() - 1) - S101)),IF(O101="", "", INDIRECT("S" &amp; ROW() - 1) - S101))</f>
         <v/>
       </c>
-      <c r="M101" s="18"/>
-      <c r="N101" s="17" t="str">
+      <c r="K101" s="17" t="str">
+        <f aca="false">IF(H101="", "", IF(H101="-","",VLOOKUP(H101, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M101" s="19"/>
+      <c r="N101" s="18" t="str">
         <f aca="false">IF(M101="", IF(X101=0, "", X101), IF(V101 = "", "", IF(V101/U101 = 0, "", V101/U101)))</f>
         <v/>
       </c>
@@ -5490,8 +5898,12 @@
         <f aca="true">IF(M102="", IF(O102="","",X102+(INDIRECT("S" &amp; ROW() - 1) - S102)),IF(O102="", "", INDIRECT("S" &amp; ROW() - 1) - S102))</f>
         <v/>
       </c>
-      <c r="M102" s="18"/>
-      <c r="N102" s="17" t="str">
+      <c r="K102" s="17" t="str">
+        <f aca="false">IF(H102="", "", IF(H102="-","",VLOOKUP(H102, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M102" s="19"/>
+      <c r="N102" s="18" t="str">
         <f aca="false">IF(M102="", IF(X102=0, "", X102), IF(V102 = "", "", IF(V102/U102 = 0, "", V102/U102)))</f>
         <v/>
       </c>
@@ -5537,8 +5949,12 @@
         <f aca="true">IF(M103="", IF(O103="","",X103+(INDIRECT("S" &amp; ROW() - 1) - S103)),IF(O103="", "", INDIRECT("S" &amp; ROW() - 1) - S103))</f>
         <v/>
       </c>
-      <c r="M103" s="18"/>
-      <c r="N103" s="17" t="str">
+      <c r="K103" s="17" t="str">
+        <f aca="false">IF(H103="", "", IF(H103="-","",VLOOKUP(H103, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M103" s="19"/>
+      <c r="N103" s="18" t="str">
         <f aca="false">IF(M103="", IF(X103=0, "", X103), IF(V103 = "", "", IF(V103/U103 = 0, "", V103/U103)))</f>
         <v/>
       </c>
@@ -5584,8 +6000,12 @@
         <f aca="true">IF(M104="", IF(O104="","",X104+(INDIRECT("S" &amp; ROW() - 1) - S104)),IF(O104="", "", INDIRECT("S" &amp; ROW() - 1) - S104))</f>
         <v/>
       </c>
-      <c r="M104" s="18"/>
-      <c r="N104" s="17" t="str">
+      <c r="K104" s="17" t="str">
+        <f aca="false">IF(H104="", "", IF(H104="-","",VLOOKUP(H104, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M104" s="19"/>
+      <c r="N104" s="18" t="str">
         <f aca="false">IF(M104="", IF(X104=0, "", X104), IF(V104 = "", "", IF(V104/U104 = 0, "", V104/U104)))</f>
         <v/>
       </c>
@@ -5631,8 +6051,12 @@
         <f aca="true">IF(M105="", IF(O105="","",X105+(INDIRECT("S" &amp; ROW() - 1) - S105)),IF(O105="", "", INDIRECT("S" &amp; ROW() - 1) - S105))</f>
         <v/>
       </c>
-      <c r="M105" s="18"/>
-      <c r="N105" s="17" t="str">
+      <c r="K105" s="17" t="str">
+        <f aca="false">IF(H105="", "", IF(H105="-","",VLOOKUP(H105, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M105" s="19"/>
+      <c r="N105" s="18" t="str">
         <f aca="false">IF(M105="", IF(X105=0, "", X105), IF(V105 = "", "", IF(V105/U105 = 0, "", V105/U105)))</f>
         <v/>
       </c>
@@ -5678,8 +6102,12 @@
         <f aca="true">IF(M106="", IF(O106="","",X106+(INDIRECT("S" &amp; ROW() - 1) - S106)),IF(O106="", "", INDIRECT("S" &amp; ROW() - 1) - S106))</f>
         <v/>
       </c>
-      <c r="M106" s="18"/>
-      <c r="N106" s="17" t="str">
+      <c r="K106" s="17" t="str">
+        <f aca="false">IF(H106="", "", IF(H106="-","",VLOOKUP(H106, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M106" s="19"/>
+      <c r="N106" s="18" t="str">
         <f aca="false">IF(M106="", IF(X106=0, "", X106), IF(V106 = "", "", IF(V106/U106 = 0, "", V106/U106)))</f>
         <v/>
       </c>
@@ -5725,8 +6153,12 @@
         <f aca="true">IF(M107="", IF(O107="","",X107+(INDIRECT("S" &amp; ROW() - 1) - S107)),IF(O107="", "", INDIRECT("S" &amp; ROW() - 1) - S107))</f>
         <v/>
       </c>
-      <c r="M107" s="18"/>
-      <c r="N107" s="17" t="str">
+      <c r="K107" s="17" t="str">
+        <f aca="false">IF(H107="", "", IF(H107="-","",VLOOKUP(H107, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M107" s="19"/>
+      <c r="N107" s="18" t="str">
         <f aca="false">IF(M107="", IF(X107=0, "", X107), IF(V107 = "", "", IF(V107/U107 = 0, "", V107/U107)))</f>
         <v/>
       </c>
@@ -5772,8 +6204,12 @@
         <f aca="true">IF(M108="", IF(O108="","",X108+(INDIRECT("S" &amp; ROW() - 1) - S108)),IF(O108="", "", INDIRECT("S" &amp; ROW() - 1) - S108))</f>
         <v/>
       </c>
-      <c r="M108" s="18"/>
-      <c r="N108" s="17" t="str">
+      <c r="K108" s="17" t="str">
+        <f aca="false">IF(H108="", "", IF(H108="-","",VLOOKUP(H108, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M108" s="19"/>
+      <c r="N108" s="18" t="str">
         <f aca="false">IF(M108="", IF(X108=0, "", X108), IF(V108 = "", "", IF(V108/U108 = 0, "", V108/U108)))</f>
         <v/>
       </c>
@@ -5819,8 +6255,12 @@
         <f aca="true">IF(M109="", IF(O109="","",X109+(INDIRECT("S" &amp; ROW() - 1) - S109)),IF(O109="", "", INDIRECT("S" &amp; ROW() - 1) - S109))</f>
         <v/>
       </c>
-      <c r="M109" s="18"/>
-      <c r="N109" s="17" t="str">
+      <c r="K109" s="17" t="str">
+        <f aca="false">IF(H109="", "", IF(H109="-","",VLOOKUP(H109, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M109" s="19"/>
+      <c r="N109" s="18" t="str">
         <f aca="false">IF(M109="", IF(X109=0, "", X109), IF(V109 = "", "", IF(V109/U109 = 0, "", V109/U109)))</f>
         <v/>
       </c>
@@ -5866,8 +6306,12 @@
         <f aca="true">IF(M110="", IF(O110="","",X110+(INDIRECT("S" &amp; ROW() - 1) - S110)),IF(O110="", "", INDIRECT("S" &amp; ROW() - 1) - S110))</f>
         <v/>
       </c>
-      <c r="M110" s="18"/>
-      <c r="N110" s="17" t="str">
+      <c r="K110" s="17" t="str">
+        <f aca="false">IF(H110="", "", IF(H110="-","",VLOOKUP(H110, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M110" s="19"/>
+      <c r="N110" s="18" t="str">
         <f aca="false">IF(M110="", IF(X110=0, "", X110), IF(V110 = "", "", IF(V110/U110 = 0, "", V110/U110)))</f>
         <v/>
       </c>
@@ -5913,8 +6357,12 @@
         <f aca="true">IF(M111="", IF(O111="","",X111+(INDIRECT("S" &amp; ROW() - 1) - S111)),IF(O111="", "", INDIRECT("S" &amp; ROW() - 1) - S111))</f>
         <v/>
       </c>
-      <c r="M111" s="18"/>
-      <c r="N111" s="17" t="str">
+      <c r="K111" s="17" t="str">
+        <f aca="false">IF(H111="", "", IF(H111="-","",VLOOKUP(H111, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M111" s="19"/>
+      <c r="N111" s="18" t="str">
         <f aca="false">IF(M111="", IF(X111=0, "", X111), IF(V111 = "", "", IF(V111/U111 = 0, "", V111/U111)))</f>
         <v/>
       </c>
@@ -5960,8 +6408,12 @@
         <f aca="true">IF(M112="", IF(O112="","",X112+(INDIRECT("S" &amp; ROW() - 1) - S112)),IF(O112="", "", INDIRECT("S" &amp; ROW() - 1) - S112))</f>
         <v/>
       </c>
-      <c r="M112" s="18"/>
-      <c r="N112" s="17" t="str">
+      <c r="K112" s="17" t="str">
+        <f aca="false">IF(H112="", "", IF(H112="-","",VLOOKUP(H112, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M112" s="19"/>
+      <c r="N112" s="18" t="str">
         <f aca="false">IF(M112="", IF(X112=0, "", X112), IF(V112 = "", "", IF(V112/U112 = 0, "", V112/U112)))</f>
         <v/>
       </c>
@@ -6007,8 +6459,12 @@
         <f aca="true">IF(M113="", IF(O113="","",X113+(INDIRECT("S" &amp; ROW() - 1) - S113)),IF(O113="", "", INDIRECT("S" &amp; ROW() - 1) - S113))</f>
         <v/>
       </c>
-      <c r="M113" s="18"/>
-      <c r="N113" s="17" t="str">
+      <c r="K113" s="17" t="str">
+        <f aca="false">IF(H113="", "", IF(H113="-","",VLOOKUP(H113, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M113" s="19"/>
+      <c r="N113" s="18" t="str">
         <f aca="false">IF(M113="", IF(X113=0, "", X113), IF(V113 = "", "", IF(V113/U113 = 0, "", V113/U113)))</f>
         <v/>
       </c>
@@ -6054,8 +6510,12 @@
         <f aca="true">IF(M114="", IF(O114="","",X114+(INDIRECT("S" &amp; ROW() - 1) - S114)),IF(O114="", "", INDIRECT("S" &amp; ROW() - 1) - S114))</f>
         <v/>
       </c>
-      <c r="M114" s="18"/>
-      <c r="N114" s="17" t="str">
+      <c r="K114" s="17" t="str">
+        <f aca="false">IF(H114="", "", IF(H114="-","",VLOOKUP(H114, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M114" s="19"/>
+      <c r="N114" s="18" t="str">
         <f aca="false">IF(M114="", IF(X114=0, "", X114), IF(V114 = "", "", IF(V114/U114 = 0, "", V114/U114)))</f>
         <v/>
       </c>
@@ -6101,8 +6561,12 @@
         <f aca="true">IF(M115="", IF(O115="","",X115+(INDIRECT("S" &amp; ROW() - 1) - S115)),IF(O115="", "", INDIRECT("S" &amp; ROW() - 1) - S115))</f>
         <v/>
       </c>
-      <c r="M115" s="18"/>
-      <c r="N115" s="17" t="str">
+      <c r="K115" s="17" t="str">
+        <f aca="false">IF(H115="", "", IF(H115="-","",VLOOKUP(H115, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M115" s="19"/>
+      <c r="N115" s="18" t="str">
         <f aca="false">IF(M115="", IF(X115=0, "", X115), IF(V115 = "", "", IF(V115/U115 = 0, "", V115/U115)))</f>
         <v/>
       </c>
@@ -6148,8 +6612,12 @@
         <f aca="true">IF(M116="", IF(O116="","",X116+(INDIRECT("S" &amp; ROW() - 1) - S116)),IF(O116="", "", INDIRECT("S" &amp; ROW() - 1) - S116))</f>
         <v/>
       </c>
-      <c r="M116" s="18"/>
-      <c r="N116" s="17" t="str">
+      <c r="K116" s="17" t="str">
+        <f aca="false">IF(H116="", "", IF(H116="-","",VLOOKUP(H116, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M116" s="19"/>
+      <c r="N116" s="18" t="str">
         <f aca="false">IF(M116="", IF(X116=0, "", X116), IF(V116 = "", "", IF(V116/U116 = 0, "", V116/U116)))</f>
         <v/>
       </c>
@@ -6195,8 +6663,12 @@
         <f aca="true">IF(M117="", IF(O117="","",X117+(INDIRECT("S" &amp; ROW() - 1) - S117)),IF(O117="", "", INDIRECT("S" &amp; ROW() - 1) - S117))</f>
         <v/>
       </c>
-      <c r="M117" s="18"/>
-      <c r="N117" s="17" t="str">
+      <c r="K117" s="17" t="str">
+        <f aca="false">IF(H117="", "", IF(H117="-","",VLOOKUP(H117, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M117" s="19"/>
+      <c r="N117" s="18" t="str">
         <f aca="false">IF(M117="", IF(X117=0, "", X117), IF(V117 = "", "", IF(V117/U117 = 0, "", V117/U117)))</f>
         <v/>
       </c>
@@ -6242,8 +6714,12 @@
         <f aca="true">IF(M118="", IF(O118="","",X118+(INDIRECT("S" &amp; ROW() - 1) - S118)),IF(O118="", "", INDIRECT("S" &amp; ROW() - 1) - S118))</f>
         <v/>
       </c>
-      <c r="M118" s="18"/>
-      <c r="N118" s="17" t="str">
+      <c r="K118" s="17" t="str">
+        <f aca="false">IF(H118="", "", IF(H118="-","",VLOOKUP(H118, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M118" s="19"/>
+      <c r="N118" s="18" t="str">
         <f aca="false">IF(M118="", IF(X118=0, "", X118), IF(V118 = "", "", IF(V118/U118 = 0, "", V118/U118)))</f>
         <v/>
       </c>
@@ -6289,8 +6765,12 @@
         <f aca="true">IF(M119="", IF(O119="","",X119+(INDIRECT("S" &amp; ROW() - 1) - S119)),IF(O119="", "", INDIRECT("S" &amp; ROW() - 1) - S119))</f>
         <v/>
       </c>
-      <c r="M119" s="18"/>
-      <c r="N119" s="17" t="str">
+      <c r="K119" s="17" t="str">
+        <f aca="false">IF(H119="", "", IF(H119="-","",VLOOKUP(H119, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M119" s="19"/>
+      <c r="N119" s="18" t="str">
         <f aca="false">IF(M119="", IF(X119=0, "", X119), IF(V119 = "", "", IF(V119/U119 = 0, "", V119/U119)))</f>
         <v/>
       </c>
@@ -6336,8 +6816,12 @@
         <f aca="true">IF(M120="", IF(O120="","",X120+(INDIRECT("S" &amp; ROW() - 1) - S120)),IF(O120="", "", INDIRECT("S" &amp; ROW() - 1) - S120))</f>
         <v/>
       </c>
-      <c r="M120" s="18"/>
-      <c r="N120" s="17" t="str">
+      <c r="K120" s="17" t="str">
+        <f aca="false">IF(H120="", "", IF(H120="-","",VLOOKUP(H120, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M120" s="19"/>
+      <c r="N120" s="18" t="str">
         <f aca="false">IF(M120="", IF(X120=0, "", X120), IF(V120 = "", "", IF(V120/U120 = 0, "", V120/U120)))</f>
         <v/>
       </c>
@@ -6383,8 +6867,12 @@
         <f aca="true">IF(M121="", IF(O121="","",X121+(INDIRECT("S" &amp; ROW() - 1) - S121)),IF(O121="", "", INDIRECT("S" &amp; ROW() - 1) - S121))</f>
         <v/>
       </c>
-      <c r="M121" s="18"/>
-      <c r="N121" s="17" t="str">
+      <c r="K121" s="17" t="str">
+        <f aca="false">IF(H121="", "", IF(H121="-","",VLOOKUP(H121, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M121" s="19"/>
+      <c r="N121" s="18" t="str">
         <f aca="false">IF(M121="", IF(X121=0, "", X121), IF(V121 = "", "", IF(V121/U121 = 0, "", V121/U121)))</f>
         <v/>
       </c>
@@ -6430,8 +6918,12 @@
         <f aca="true">IF(M122="", IF(O122="","",X122+(INDIRECT("S" &amp; ROW() - 1) - S122)),IF(O122="", "", INDIRECT("S" &amp; ROW() - 1) - S122))</f>
         <v/>
       </c>
-      <c r="M122" s="18"/>
-      <c r="N122" s="17" t="str">
+      <c r="K122" s="17" t="str">
+        <f aca="false">IF(H122="", "", IF(H122="-","",VLOOKUP(H122, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M122" s="19"/>
+      <c r="N122" s="18" t="str">
         <f aca="false">IF(M122="", IF(X122=0, "", X122), IF(V122 = "", "", IF(V122/U122 = 0, "", V122/U122)))</f>
         <v/>
       </c>
@@ -6469,6 +6961,594 @@
       </c>
       <c r="X122" s="0" t="str">
         <f aca="true">IF(O122="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S122)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K123" s="17" t="str">
+        <f aca="false">IF(H123="", "", IF(H123="-","",VLOOKUP(H123, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K124" s="17" t="str">
+        <f aca="false">IF(H124="", "", IF(H124="-","",VLOOKUP(H124, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K125" s="17" t="str">
+        <f aca="false">IF(H125="", "", IF(H125="-","",VLOOKUP(H125, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K126" s="17" t="str">
+        <f aca="false">IF(H126="", "", IF(H126="-","",VLOOKUP(H126, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K127" s="17" t="str">
+        <f aca="false">IF(H127="", "", IF(H127="-","",VLOOKUP(H127, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K128" s="17" t="str">
+        <f aca="false">IF(H128="", "", IF(H128="-","",VLOOKUP(H128, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K129" s="17" t="str">
+        <f aca="false">IF(H129="", "", IF(H129="-","",VLOOKUP(H129, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K130" s="17" t="str">
+        <f aca="false">IF(H130="", "", IF(H130="-","",VLOOKUP(H130, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K131" s="17" t="str">
+        <f aca="false">IF(H131="", "", IF(H131="-","",VLOOKUP(H131, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K132" s="9" t="str">
+        <f aca="false">IF(H132="", "", IF(H132="-","",VLOOKUP(H132, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K133" s="9" t="str">
+        <f aca="false">IF(H133="", "", IF(H133="-","",VLOOKUP(H133, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K134" s="9" t="str">
+        <f aca="false">IF(H134="", "", IF(H134="-","",VLOOKUP(H134, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K135" s="9" t="str">
+        <f aca="false">IF(H135="", "", IF(H135="-","",VLOOKUP(H135, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K136" s="9" t="str">
+        <f aca="false">IF(H136="", "", IF(H136="-","",VLOOKUP(H136, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K137" s="9" t="str">
+        <f aca="false">IF(H137="", "", IF(H137="-","",VLOOKUP(H137, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K138" s="9" t="str">
+        <f aca="false">IF(H138="", "", IF(H138="-","",VLOOKUP(H138, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K139" s="9" t="str">
+        <f aca="false">IF(H139="", "", IF(H139="-","",VLOOKUP(H139, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K140" s="9" t="str">
+        <f aca="false">IF(H140="", "", IF(H140="-","",VLOOKUP(H140, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K141" s="9" t="str">
+        <f aca="false">IF(H141="", "", IF(H141="-","",VLOOKUP(H141, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K142" s="9" t="str">
+        <f aca="false">IF(H142="", "", IF(H142="-","",VLOOKUP(H142, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K143" s="9" t="str">
+        <f aca="false">IF(H143="", "", IF(H143="-","",VLOOKUP(H143, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K144" s="9" t="str">
+        <f aca="false">IF(H144="", "", IF(H144="-","",VLOOKUP(H144, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K145" s="9" t="str">
+        <f aca="false">IF(H145="", "", IF(H145="-","",VLOOKUP(H145, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K146" s="9" t="str">
+        <f aca="false">IF(H146="", "", IF(H146="-","",VLOOKUP(H146, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K147" s="9" t="str">
+        <f aca="false">IF(H147="", "", IF(H147="-","",VLOOKUP(H147, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K148" s="9" t="str">
+        <f aca="false">IF(H148="", "", IF(H148="-","",VLOOKUP(H148, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K149" s="9" t="str">
+        <f aca="false">IF(H149="", "", IF(H149="-","",VLOOKUP(H149, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K150" s="9" t="str">
+        <f aca="false">IF(H150="", "", IF(H150="-","",VLOOKUP(H150, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K151" s="9" t="str">
+        <f aca="false">IF(H151="", "", IF(H151="-","",VLOOKUP(H151, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K152" s="9" t="str">
+        <f aca="false">IF(H152="", "", IF(H152="-","",VLOOKUP(H152, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K153" s="9" t="str">
+        <f aca="false">IF(H153="", "", IF(H153="-","",VLOOKUP(H153, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K154" s="9" t="str">
+        <f aca="false">IF(H154="", "", IF(H154="-","",VLOOKUP(H154, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K155" s="9" t="str">
+        <f aca="false">IF(H155="", "", IF(H155="-","",VLOOKUP(H155, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K156" s="9" t="str">
+        <f aca="false">IF(H156="", "", IF(H156="-","",VLOOKUP(H156, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K157" s="9" t="str">
+        <f aca="false">IF(H157="", "", IF(H157="-","",VLOOKUP(H157, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K158" s="9" t="str">
+        <f aca="false">IF(H158="", "", IF(H158="-","",VLOOKUP(H158, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K159" s="9" t="str">
+        <f aca="false">IF(H159="", "", IF(H159="-","",VLOOKUP(H159, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K160" s="9" t="str">
+        <f aca="false">IF(H160="", "", IF(H160="-","",VLOOKUP(H160, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K161" s="9" t="str">
+        <f aca="false">IF(H161="", "", IF(H161="-","",VLOOKUP(H161, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K162" s="9" t="str">
+        <f aca="false">IF(H162="", "", IF(H162="-","",VLOOKUP(H162, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K163" s="9" t="str">
+        <f aca="false">IF(H163="", "", IF(H163="-","",VLOOKUP(H163, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K164" s="9" t="str">
+        <f aca="false">IF(H164="", "", IF(H164="-","",VLOOKUP(H164, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K165" s="9" t="str">
+        <f aca="false">IF(H165="", "", IF(H165="-","",VLOOKUP(H165, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K166" s="9" t="str">
+        <f aca="false">IF(H166="", "", IF(H166="-","",VLOOKUP(H166, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K167" s="9" t="str">
+        <f aca="false">IF(H167="", "", IF(H167="-","",VLOOKUP(H167, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K168" s="9" t="str">
+        <f aca="false">IF(H168="", "", IF(H168="-","",VLOOKUP(H168, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K169" s="9" t="str">
+        <f aca="false">IF(H169="", "", IF(H169="-","",VLOOKUP(H169, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K170" s="9" t="str">
+        <f aca="false">IF(H170="", "", IF(H170="-","",VLOOKUP(H170, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K171" s="9" t="str">
+        <f aca="false">IF(H171="", "", IF(H171="-","",VLOOKUP(H171, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K172" s="9" t="str">
+        <f aca="false">IF(H172="", "", IF(H172="-","",VLOOKUP(H172, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K173" s="9" t="str">
+        <f aca="false">IF(H173="", "", IF(H173="-","",VLOOKUP(H173, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K174" s="9" t="str">
+        <f aca="false">IF(H174="", "", IF(H174="-","",VLOOKUP(H174, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K175" s="9" t="str">
+        <f aca="false">IF(H175="", "", IF(H175="-","",VLOOKUP(H175, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K176" s="9" t="str">
+        <f aca="false">IF(H176="", "", IF(H176="-","",VLOOKUP(H176, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K177" s="9" t="str">
+        <f aca="false">IF(H177="", "", IF(H177="-","",VLOOKUP(H177, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K178" s="9" t="str">
+        <f aca="false">IF(H178="", "", IF(H178="-","",VLOOKUP(H178, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K179" s="9" t="str">
+        <f aca="false">IF(H179="", "", IF(H179="-","",VLOOKUP(H179, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K180" s="9" t="str">
+        <f aca="false">IF(H180="", "", IF(H180="-","",VLOOKUP(H180, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K181" s="9" t="str">
+        <f aca="false">IF(H181="", "", IF(H181="-","",VLOOKUP(H181, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K182" s="9" t="str">
+        <f aca="false">IF(H182="", "", IF(H182="-","",VLOOKUP(H182, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K183" s="9" t="str">
+        <f aca="false">IF(H183="", "", IF(H183="-","",VLOOKUP(H183, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K184" s="9" t="str">
+        <f aca="false">IF(H184="", "", IF(H184="-","",VLOOKUP(H184, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K185" s="9" t="str">
+        <f aca="false">IF(H185="", "", IF(H185="-","",VLOOKUP(H185, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K186" s="9" t="str">
+        <f aca="false">IF(H186="", "", IF(H186="-","",VLOOKUP(H186, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K187" s="9" t="str">
+        <f aca="false">IF(H187="", "", IF(H187="-","",VLOOKUP(H187, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K188" s="9" t="str">
+        <f aca="false">IF(H188="", "", IF(H188="-","",VLOOKUP(H188, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K189" s="9" t="str">
+        <f aca="false">IF(H189="", "", IF(H189="-","",VLOOKUP(H189, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K190" s="9" t="str">
+        <f aca="false">IF(H190="", "", IF(H190="-","",VLOOKUP(H190, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K191" s="9" t="str">
+        <f aca="false">IF(H191="", "", IF(H191="-","",VLOOKUP(H191, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K192" s="9" t="str">
+        <f aca="false">IF(H192="", "", IF(H192="-","",VLOOKUP(H192, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K193" s="9" t="str">
+        <f aca="false">IF(H193="", "", IF(H193="-","",VLOOKUP(H193, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K194" s="9" t="str">
+        <f aca="false">IF(H194="", "", IF(H194="-","",VLOOKUP(H194, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K195" s="9" t="str">
+        <f aca="false">IF(H195="", "", IF(H195="-","",VLOOKUP(H195, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K196" s="9" t="str">
+        <f aca="false">IF(H196="", "", IF(H196="-","",VLOOKUP(H196, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K197" s="9" t="str">
+        <f aca="false">IF(H197="", "", IF(H197="-","",VLOOKUP(H197, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K198" s="9" t="str">
+        <f aca="false">IF(H198="", "", IF(H198="-","",VLOOKUP(H198, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K199" s="9" t="str">
+        <f aca="false">IF(H199="", "", IF(H199="-","",VLOOKUP(H199, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K200" s="9" t="str">
+        <f aca="false">IF(H200="", "", IF(H200="-","",VLOOKUP(H200, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K201" s="9" t="str">
+        <f aca="false">IF(H201="", "", IF(H201="-","",VLOOKUP(H201, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K202" s="9" t="str">
+        <f aca="false">IF(H202="", "", IF(H202="-","",VLOOKUP(H202, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K203" s="9" t="str">
+        <f aca="false">IF(H203="", "", IF(H203="-","",VLOOKUP(H203, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K204" s="9" t="str">
+        <f aca="false">IF(H204="", "", IF(H204="-","",VLOOKUP(H204, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K205" s="9" t="str">
+        <f aca="false">IF(H205="", "", IF(H205="-","",VLOOKUP(H205, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K206" s="9" t="str">
+        <f aca="false">IF(H206="", "", IF(H206="-","",VLOOKUP(H206, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K207" s="9" t="str">
+        <f aca="false">IF(H207="", "", IF(H207="-","",VLOOKUP(H207, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K208" s="9" t="str">
+        <f aca="false">IF(H208="", "", IF(H208="-","",VLOOKUP(H208, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K209" s="9" t="str">
+        <f aca="false">IF(H209="", "", IF(H209="-","",VLOOKUP(H209, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K210" s="9" t="str">
+        <f aca="false">IF(H210="", "", IF(H210="-","",VLOOKUP(H210, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K211" s="9" t="str">
+        <f aca="false">IF(H211="", "", IF(H211="-","",VLOOKUP(H211, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K212" s="9" t="str">
+        <f aca="false">IF(H212="", "", IF(H212="-","",VLOOKUP(H212, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K213" s="9" t="str">
+        <f aca="false">IF(H213="", "", IF(H213="-","",VLOOKUP(H213, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K214" s="9" t="str">
+        <f aca="false">IF(H214="", "", IF(H214="-","",VLOOKUP(H214, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K215" s="9" t="str">
+        <f aca="false">IF(H215="", "", IF(H215="-","",VLOOKUP(H215, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K216" s="9" t="str">
+        <f aca="false">IF(H216="", "", IF(H216="-","",VLOOKUP(H216, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K217" s="9" t="str">
+        <f aca="false">IF(H217="", "", IF(H217="-","",VLOOKUP(H217, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K218" s="9" t="str">
+        <f aca="false">IF(H218="", "", IF(H218="-","",VLOOKUP(H218, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K219" s="9" t="str">
+        <f aca="false">IF(H219="", "", IF(H219="-","",VLOOKUP(H219, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K220" s="9" t="str">
+        <f aca="false">IF(H220="", "", IF(H220="-","",VLOOKUP(H220, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
@@ -6533,12 +7613,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X122"/>
+  <dimension ref="A1:X287"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6552,8 +7632,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="8.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="9" width="8.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="19" width="8.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="20" width="8.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="20" width="8.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="21" width="8.72"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="15" min="15" style="0" width="1.82"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="16" min="16" style="0" width="5.54"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="17" min="17" style="0" width="5.46"/>
@@ -6604,10 +7684,10 @@
       <c r="L1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="22" t="s">
         <v>24</v>
       </c>
       <c r="O1" s="13" t="s">
@@ -6643,8 +7723,12 @@
         <f aca="true">IF(M2="", IF(O2="","",X2+(INDIRECT("S" &amp; ROW() - 1) - S2)),IF(O2="", "", INDIRECT("S" &amp; ROW() - 1) - S2))</f>
         <v/>
       </c>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17" t="str">
+      <c r="K2" s="17" t="str">
+        <f aca="false">IF(H2="", "", IF(H2="-","",VLOOKUP(H2, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18" t="str">
         <f aca="false">IF(M2="", IF(X2=0, "", X2), IF(V2 = "", "", IF(V2/U2 = 0, "", V2/U2)))</f>
         <v/>
       </c>
@@ -6690,8 +7774,12 @@
         <f aca="true">IF(M3="", IF(O3="","",X3+(INDIRECT("S" &amp; ROW() - 1) - S3)),IF(O3="", "", INDIRECT("S" &amp; ROW() - 1) - S3))</f>
         <v/>
       </c>
-      <c r="M3" s="18"/>
-      <c r="N3" s="17" t="str">
+      <c r="K3" s="17" t="str">
+        <f aca="false">IF(H3="", "", IF(H3="-","",VLOOKUP(H3, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M3" s="19"/>
+      <c r="N3" s="18" t="str">
         <f aca="false">IF(M3="", IF(X3=0, "", X3), IF(V3 = "", "", IF(V3/U3 = 0, "", V3/U3)))</f>
         <v/>
       </c>
@@ -6737,8 +7825,12 @@
         <f aca="true">IF(M4="", IF(O4="","",X4+(INDIRECT("S" &amp; ROW() - 1) - S4)),IF(O4="", "", INDIRECT("S" &amp; ROW() - 1) - S4))</f>
         <v/>
       </c>
-      <c r="M4" s="18"/>
-      <c r="N4" s="17" t="str">
+      <c r="K4" s="17" t="str">
+        <f aca="false">IF(H4="", "", IF(H4="-","",VLOOKUP(H4, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M4" s="19"/>
+      <c r="N4" s="18" t="str">
         <f aca="false">IF(M4="", IF(X4=0, "", X4), IF(V4 = "", "", IF(V4/U4 = 0, "", V4/U4)))</f>
         <v/>
       </c>
@@ -6784,8 +7876,12 @@
         <f aca="true">IF(M5="", IF(O5="","",X5+(INDIRECT("S" &amp; ROW() - 1) - S5)),IF(O5="", "", INDIRECT("S" &amp; ROW() - 1) - S5))</f>
         <v/>
       </c>
-      <c r="M5" s="18"/>
-      <c r="N5" s="17" t="str">
+      <c r="K5" s="17" t="str">
+        <f aca="false">IF(H5="", "", IF(H5="-","",VLOOKUP(H5, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M5" s="19"/>
+      <c r="N5" s="18" t="str">
         <f aca="false">IF(M5="", IF(X5=0, "", X5), IF(V5 = "", "", IF(V5/U5 = 0, "", V5/U5)))</f>
         <v/>
       </c>
@@ -6831,8 +7927,12 @@
         <f aca="true">IF(M6="", IF(O6="","",X6+(INDIRECT("S" &amp; ROW() - 1) - S6)),IF(O6="", "", INDIRECT("S" &amp; ROW() - 1) - S6))</f>
         <v/>
       </c>
-      <c r="M6" s="18"/>
-      <c r="N6" s="17" t="str">
+      <c r="K6" s="17" t="str">
+        <f aca="false">IF(H6="", "", IF(H6="-","",VLOOKUP(H6, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M6" s="19"/>
+      <c r="N6" s="18" t="str">
         <f aca="false">IF(M6="", IF(X6=0, "", X6), IF(V6 = "", "", IF(V6/U6 = 0, "", V6/U6)))</f>
         <v/>
       </c>
@@ -6878,8 +7978,12 @@
         <f aca="true">IF(M7="", IF(O7="","",X7+(INDIRECT("S" &amp; ROW() - 1) - S7)),IF(O7="", "", INDIRECT("S" &amp; ROW() - 1) - S7))</f>
         <v/>
       </c>
-      <c r="M7" s="18"/>
-      <c r="N7" s="17" t="str">
+      <c r="K7" s="17" t="str">
+        <f aca="false">IF(H7="", "", IF(H7="-","",VLOOKUP(H7, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M7" s="19"/>
+      <c r="N7" s="18" t="str">
         <f aca="false">IF(M7="", IF(X7=0, "", X7), IF(V7 = "", "", IF(V7/U7 = 0, "", V7/U7)))</f>
         <v/>
       </c>
@@ -6925,8 +8029,12 @@
         <f aca="true">IF(M8="", IF(O8="","",X8+(INDIRECT("S" &amp; ROW() - 1) - S8)),IF(O8="", "", INDIRECT("S" &amp; ROW() - 1) - S8))</f>
         <v/>
       </c>
-      <c r="M8" s="18"/>
-      <c r="N8" s="17" t="str">
+      <c r="K8" s="17" t="str">
+        <f aca="false">IF(H8="", "", IF(H8="-","",VLOOKUP(H8, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M8" s="19"/>
+      <c r="N8" s="18" t="str">
         <f aca="false">IF(M8="", IF(X8=0, "", X8), IF(V8 = "", "", IF(V8/U8 = 0, "", V8/U8)))</f>
         <v/>
       </c>
@@ -6972,8 +8080,12 @@
         <f aca="true">IF(M9="", IF(O9="","",X9+(INDIRECT("S" &amp; ROW() - 1) - S9)),IF(O9="", "", INDIRECT("S" &amp; ROW() - 1) - S9))</f>
         <v/>
       </c>
-      <c r="M9" s="18"/>
-      <c r="N9" s="17" t="str">
+      <c r="K9" s="17" t="str">
+        <f aca="false">IF(H9="", "", IF(H9="-","",VLOOKUP(H9, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M9" s="19"/>
+      <c r="N9" s="18" t="str">
         <f aca="false">IF(M9="", IF(X9=0, "", X9), IF(V9 = "", "", IF(V9/U9 = 0, "", V9/U9)))</f>
         <v/>
       </c>
@@ -7019,8 +8131,12 @@
         <f aca="true">IF(M10="", IF(O10="","",X10+(INDIRECT("S" &amp; ROW() - 1) - S10)),IF(O10="", "", INDIRECT("S" &amp; ROW() - 1) - S10))</f>
         <v/>
       </c>
-      <c r="M10" s="18"/>
-      <c r="N10" s="17" t="str">
+      <c r="K10" s="17" t="str">
+        <f aca="false">IF(H10="", "", IF(H10="-","",VLOOKUP(H10, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M10" s="19"/>
+      <c r="N10" s="18" t="str">
         <f aca="false">IF(M10="", IF(X10=0, "", X10), IF(V10 = "", "", IF(V10/U10 = 0, "", V10/U10)))</f>
         <v/>
       </c>
@@ -7066,8 +8182,12 @@
         <f aca="true">IF(M11="", IF(O11="","",X11+(INDIRECT("S" &amp; ROW() - 1) - S11)),IF(O11="", "", INDIRECT("S" &amp; ROW() - 1) - S11))</f>
         <v/>
       </c>
-      <c r="M11" s="18"/>
-      <c r="N11" s="17" t="str">
+      <c r="K11" s="17" t="str">
+        <f aca="false">IF(H11="", "", IF(H11="-","",VLOOKUP(H11, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M11" s="19"/>
+      <c r="N11" s="18" t="str">
         <f aca="false">IF(M11="", IF(X11=0, "", X11), IF(V11 = "", "", IF(V11/U11 = 0, "", V11/U11)))</f>
         <v/>
       </c>
@@ -7113,8 +8233,12 @@
         <f aca="true">IF(M12="", IF(O12="","",X12+(INDIRECT("S" &amp; ROW() - 1) - S12)),IF(O12="", "", INDIRECT("S" &amp; ROW() - 1) - S12))</f>
         <v/>
       </c>
-      <c r="M12" s="18"/>
-      <c r="N12" s="17" t="str">
+      <c r="K12" s="17" t="str">
+        <f aca="false">IF(H12="", "", IF(H12="-","",VLOOKUP(H12, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M12" s="19"/>
+      <c r="N12" s="18" t="str">
         <f aca="false">IF(M12="", IF(X12=0, "", X12), IF(V12 = "", "", IF(V12/U12 = 0, "", V12/U12)))</f>
         <v/>
       </c>
@@ -7160,8 +8284,12 @@
         <f aca="true">IF(M13="", IF(O13="","",X13+(INDIRECT("S" &amp; ROW() - 1) - S13)),IF(O13="", "", INDIRECT("S" &amp; ROW() - 1) - S13))</f>
         <v/>
       </c>
-      <c r="M13" s="18"/>
-      <c r="N13" s="17" t="str">
+      <c r="K13" s="17" t="str">
+        <f aca="false">IF(H13="", "", IF(H13="-","",VLOOKUP(H13, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M13" s="19"/>
+      <c r="N13" s="18" t="str">
         <f aca="false">IF(M13="", IF(X13=0, "", X13), IF(V13 = "", "", IF(V13/U13 = 0, "", V13/U13)))</f>
         <v/>
       </c>
@@ -7207,8 +8335,12 @@
         <f aca="true">IF(M14="", IF(O14="","",X14+(INDIRECT("S" &amp; ROW() - 1) - S14)),IF(O14="", "", INDIRECT("S" &amp; ROW() - 1) - S14))</f>
         <v/>
       </c>
-      <c r="M14" s="18"/>
-      <c r="N14" s="17" t="str">
+      <c r="K14" s="17" t="str">
+        <f aca="false">IF(H14="", "", IF(H14="-","",VLOOKUP(H14, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M14" s="19"/>
+      <c r="N14" s="18" t="str">
         <f aca="false">IF(M14="", IF(X14=0, "", X14), IF(V14 = "", "", IF(V14/U14 = 0, "", V14/U14)))</f>
         <v/>
       </c>
@@ -7254,8 +8386,12 @@
         <f aca="true">IF(M15="", IF(O15="","",X15+(INDIRECT("S" &amp; ROW() - 1) - S15)),IF(O15="", "", INDIRECT("S" &amp; ROW() - 1) - S15))</f>
         <v/>
       </c>
-      <c r="M15" s="18"/>
-      <c r="N15" s="17" t="str">
+      <c r="K15" s="17" t="str">
+        <f aca="false">IF(H15="", "", IF(H15="-","",VLOOKUP(H15, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M15" s="19"/>
+      <c r="N15" s="18" t="str">
         <f aca="false">IF(M15="", IF(X15=0, "", X15), IF(V15 = "", "", IF(V15/U15 = 0, "", V15/U15)))</f>
         <v/>
       </c>
@@ -7301,8 +8437,12 @@
         <f aca="true">IF(M16="", IF(O16="","",X16+(INDIRECT("S" &amp; ROW() - 1) - S16)),IF(O16="", "", INDIRECT("S" &amp; ROW() - 1) - S16))</f>
         <v/>
       </c>
-      <c r="M16" s="18"/>
-      <c r="N16" s="17" t="str">
+      <c r="K16" s="17" t="str">
+        <f aca="false">IF(H16="", "", IF(H16="-","",VLOOKUP(H16, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M16" s="19"/>
+      <c r="N16" s="18" t="str">
         <f aca="false">IF(M16="", IF(X16=0, "", X16), IF(V16 = "", "", IF(V16/U16 = 0, "", V16/U16)))</f>
         <v/>
       </c>
@@ -7348,8 +8488,12 @@
         <f aca="true">IF(M17="", IF(O17="","",X17+(INDIRECT("S" &amp; ROW() - 1) - S17)),IF(O17="", "", INDIRECT("S" &amp; ROW() - 1) - S17))</f>
         <v/>
       </c>
-      <c r="M17" s="18"/>
-      <c r="N17" s="17" t="str">
+      <c r="K17" s="17" t="str">
+        <f aca="false">IF(H17="", "", IF(H17="-","",VLOOKUP(H17, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M17" s="19"/>
+      <c r="N17" s="18" t="str">
         <f aca="false">IF(M17="", IF(X17=0, "", X17), IF(V17 = "", "", IF(V17/U17 = 0, "", V17/U17)))</f>
         <v/>
       </c>
@@ -7395,8 +8539,12 @@
         <f aca="true">IF(M18="", IF(O18="","",X18+(INDIRECT("S" &amp; ROW() - 1) - S18)),IF(O18="", "", INDIRECT("S" &amp; ROW() - 1) - S18))</f>
         <v/>
       </c>
-      <c r="M18" s="18"/>
-      <c r="N18" s="17" t="str">
+      <c r="K18" s="17" t="str">
+        <f aca="false">IF(H18="", "", IF(H18="-","",VLOOKUP(H18, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M18" s="19"/>
+      <c r="N18" s="18" t="str">
         <f aca="false">IF(M18="", IF(X18=0, "", X18), IF(V18 = "", "", IF(V18/U18 = 0, "", V18/U18)))</f>
         <v/>
       </c>
@@ -7442,8 +8590,12 @@
         <f aca="true">IF(M19="", IF(O19="","",X19+(INDIRECT("S" &amp; ROW() - 1) - S19)),IF(O19="", "", INDIRECT("S" &amp; ROW() - 1) - S19))</f>
         <v/>
       </c>
-      <c r="M19" s="18"/>
-      <c r="N19" s="17" t="str">
+      <c r="K19" s="17" t="str">
+        <f aca="false">IF(H19="", "", IF(H19="-","",VLOOKUP(H19, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M19" s="19"/>
+      <c r="N19" s="18" t="str">
         <f aca="false">IF(M19="", IF(X19=0, "", X19), IF(V19 = "", "", IF(V19/U19 = 0, "", V19/U19)))</f>
         <v/>
       </c>
@@ -7489,8 +8641,12 @@
         <f aca="true">IF(M20="", IF(O20="","",X20+(INDIRECT("S" &amp; ROW() - 1) - S20)),IF(O20="", "", INDIRECT("S" &amp; ROW() - 1) - S20))</f>
         <v/>
       </c>
-      <c r="M20" s="18"/>
-      <c r="N20" s="17" t="str">
+      <c r="K20" s="17" t="str">
+        <f aca="false">IF(H20="", "", IF(H20="-","",VLOOKUP(H20, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M20" s="19"/>
+      <c r="N20" s="18" t="str">
         <f aca="false">IF(M20="", IF(X20=0, "", X20), IF(V20 = "", "", IF(V20/U20 = 0, "", V20/U20)))</f>
         <v/>
       </c>
@@ -7536,8 +8692,12 @@
         <f aca="true">IF(M21="", IF(O21="","",X21+(INDIRECT("S" &amp; ROW() - 1) - S21)),IF(O21="", "", INDIRECT("S" &amp; ROW() - 1) - S21))</f>
         <v/>
       </c>
-      <c r="M21" s="18"/>
-      <c r="N21" s="17" t="str">
+      <c r="K21" s="17" t="str">
+        <f aca="false">IF(H21="", "", IF(H21="-","",VLOOKUP(H21, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M21" s="19"/>
+      <c r="N21" s="18" t="str">
         <f aca="false">IF(M21="", IF(X21=0, "", X21), IF(V21 = "", "", IF(V21/U21 = 0, "", V21/U21)))</f>
         <v/>
       </c>
@@ -7583,8 +8743,12 @@
         <f aca="true">IF(M22="", IF(O22="","",X22+(INDIRECT("S" &amp; ROW() - 1) - S22)),IF(O22="", "", INDIRECT("S" &amp; ROW() - 1) - S22))</f>
         <v/>
       </c>
-      <c r="M22" s="18"/>
-      <c r="N22" s="17" t="str">
+      <c r="K22" s="17" t="str">
+        <f aca="false">IF(H22="", "", IF(H22="-","",VLOOKUP(H22, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M22" s="19"/>
+      <c r="N22" s="18" t="str">
         <f aca="false">IF(M22="", IF(X22=0, "", X22), IF(V22 = "", "", IF(V22/U22 = 0, "", V22/U22)))</f>
         <v/>
       </c>
@@ -7630,8 +8794,12 @@
         <f aca="true">IF(M23="", IF(O23="","",X23+(INDIRECT("S" &amp; ROW() - 1) - S23)),IF(O23="", "", INDIRECT("S" &amp; ROW() - 1) - S23))</f>
         <v/>
       </c>
-      <c r="M23" s="18"/>
-      <c r="N23" s="17" t="str">
+      <c r="K23" s="17" t="str">
+        <f aca="false">IF(H23="", "", IF(H23="-","",VLOOKUP(H23, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M23" s="19"/>
+      <c r="N23" s="18" t="str">
         <f aca="false">IF(M23="", IF(X23=0, "", X23), IF(V23 = "", "", IF(V23/U23 = 0, "", V23/U23)))</f>
         <v/>
       </c>
@@ -7677,8 +8845,12 @@
         <f aca="true">IF(M24="", IF(O24="","",X24+(INDIRECT("S" &amp; ROW() - 1) - S24)),IF(O24="", "", INDIRECT("S" &amp; ROW() - 1) - S24))</f>
         <v/>
       </c>
-      <c r="M24" s="18"/>
-      <c r="N24" s="17" t="str">
+      <c r="K24" s="17" t="str">
+        <f aca="false">IF(H24="", "", IF(H24="-","",VLOOKUP(H24, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M24" s="19"/>
+      <c r="N24" s="18" t="str">
         <f aca="false">IF(M24="", IF(X24=0, "", X24), IF(V24 = "", "", IF(V24/U24 = 0, "", V24/U24)))</f>
         <v/>
       </c>
@@ -7724,8 +8896,12 @@
         <f aca="true">IF(M25="", IF(O25="","",X25+(INDIRECT("S" &amp; ROW() - 1) - S25)),IF(O25="", "", INDIRECT("S" &amp; ROW() - 1) - S25))</f>
         <v/>
       </c>
-      <c r="M25" s="18"/>
-      <c r="N25" s="17" t="str">
+      <c r="K25" s="17" t="str">
+        <f aca="false">IF(H25="", "", IF(H25="-","",VLOOKUP(H25, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M25" s="19"/>
+      <c r="N25" s="18" t="str">
         <f aca="false">IF(M25="", IF(X25=0, "", X25), IF(V25 = "", "", IF(V25/U25 = 0, "", V25/U25)))</f>
         <v/>
       </c>
@@ -7771,8 +8947,12 @@
         <f aca="true">IF(M26="", IF(O26="","",X26+(INDIRECT("S" &amp; ROW() - 1) - S26)),IF(O26="", "", INDIRECT("S" &amp; ROW() - 1) - S26))</f>
         <v/>
       </c>
-      <c r="M26" s="18"/>
-      <c r="N26" s="17" t="str">
+      <c r="K26" s="17" t="str">
+        <f aca="false">IF(H26="", "", IF(H26="-","",VLOOKUP(H26, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M26" s="19"/>
+      <c r="N26" s="18" t="str">
         <f aca="false">IF(M26="", IF(X26=0, "", X26), IF(V26 = "", "", IF(V26/U26 = 0, "", V26/U26)))</f>
         <v/>
       </c>
@@ -7818,8 +8998,12 @@
         <f aca="true">IF(M27="", IF(O27="","",X27+(INDIRECT("S" &amp; ROW() - 1) - S27)),IF(O27="", "", INDIRECT("S" &amp; ROW() - 1) - S27))</f>
         <v/>
       </c>
-      <c r="M27" s="18"/>
-      <c r="N27" s="17" t="str">
+      <c r="K27" s="17" t="str">
+        <f aca="false">IF(H27="", "", IF(H27="-","",VLOOKUP(H27, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M27" s="19"/>
+      <c r="N27" s="18" t="str">
         <f aca="false">IF(M27="", IF(X27=0, "", X27), IF(V27 = "", "", IF(V27/U27 = 0, "", V27/U27)))</f>
         <v/>
       </c>
@@ -7865,8 +9049,12 @@
         <f aca="true">IF(M28="", IF(O28="","",X28+(INDIRECT("S" &amp; ROW() - 1) - S28)),IF(O28="", "", INDIRECT("S" &amp; ROW() - 1) - S28))</f>
         <v/>
       </c>
-      <c r="M28" s="18"/>
-      <c r="N28" s="17" t="str">
+      <c r="K28" s="17" t="str">
+        <f aca="false">IF(H28="", "", IF(H28="-","",VLOOKUP(H28, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M28" s="19"/>
+      <c r="N28" s="18" t="str">
         <f aca="false">IF(M28="", IF(X28=0, "", X28), IF(V28 = "", "", IF(V28/U28 = 0, "", V28/U28)))</f>
         <v/>
       </c>
@@ -7912,8 +9100,12 @@
         <f aca="true">IF(M29="", IF(O29="","",X29+(INDIRECT("S" &amp; ROW() - 1) - S29)),IF(O29="", "", INDIRECT("S" &amp; ROW() - 1) - S29))</f>
         <v/>
       </c>
-      <c r="M29" s="18"/>
-      <c r="N29" s="17" t="str">
+      <c r="K29" s="17" t="str">
+        <f aca="false">IF(H29="", "", IF(H29="-","",VLOOKUP(H29, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M29" s="19"/>
+      <c r="N29" s="18" t="str">
         <f aca="false">IF(M29="", IF(X29=0, "", X29), IF(V29 = "", "", IF(V29/U29 = 0, "", V29/U29)))</f>
         <v/>
       </c>
@@ -7959,8 +9151,12 @@
         <f aca="true">IF(M30="", IF(O30="","",X30+(INDIRECT("S" &amp; ROW() - 1) - S30)),IF(O30="", "", INDIRECT("S" &amp; ROW() - 1) - S30))</f>
         <v/>
       </c>
-      <c r="M30" s="18"/>
-      <c r="N30" s="17" t="str">
+      <c r="K30" s="17" t="str">
+        <f aca="false">IF(H30="", "", IF(H30="-","",VLOOKUP(H30, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M30" s="19"/>
+      <c r="N30" s="18" t="str">
         <f aca="false">IF(M30="", IF(X30=0, "", X30), IF(V30 = "", "", IF(V30/U30 = 0, "", V30/U30)))</f>
         <v/>
       </c>
@@ -8006,8 +9202,12 @@
         <f aca="true">IF(M31="", IF(O31="","",X31+(INDIRECT("S" &amp; ROW() - 1) - S31)),IF(O31="", "", INDIRECT("S" &amp; ROW() - 1) - S31))</f>
         <v/>
       </c>
-      <c r="M31" s="18"/>
-      <c r="N31" s="17" t="str">
+      <c r="K31" s="17" t="str">
+        <f aca="false">IF(H31="", "", IF(H31="-","",VLOOKUP(H31, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M31" s="19"/>
+      <c r="N31" s="18" t="str">
         <f aca="false">IF(M31="", IF(X31=0, "", X31), IF(V31 = "", "", IF(V31/U31 = 0, "", V31/U31)))</f>
         <v/>
       </c>
@@ -8053,8 +9253,12 @@
         <f aca="true">IF(M32="", IF(O32="","",X32+(INDIRECT("S" &amp; ROW() - 1) - S32)),IF(O32="", "", INDIRECT("S" &amp; ROW() - 1) - S32))</f>
         <v/>
       </c>
-      <c r="M32" s="18"/>
-      <c r="N32" s="17" t="str">
+      <c r="K32" s="17" t="str">
+        <f aca="false">IF(H32="", "", IF(H32="-","",VLOOKUP(H32, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M32" s="19"/>
+      <c r="N32" s="18" t="str">
         <f aca="false">IF(M32="", IF(X32=0, "", X32), IF(V32 = "", "", IF(V32/U32 = 0, "", V32/U32)))</f>
         <v/>
       </c>
@@ -8100,8 +9304,12 @@
         <f aca="true">IF(M33="", IF(O33="","",X33+(INDIRECT("S" &amp; ROW() - 1) - S33)),IF(O33="", "", INDIRECT("S" &amp; ROW() - 1) - S33))</f>
         <v/>
       </c>
-      <c r="M33" s="18"/>
-      <c r="N33" s="17" t="str">
+      <c r="K33" s="17" t="str">
+        <f aca="false">IF(H33="", "", IF(H33="-","",VLOOKUP(H33, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M33" s="19"/>
+      <c r="N33" s="18" t="str">
         <f aca="false">IF(M33="", IF(X33=0, "", X33), IF(V33 = "", "", IF(V33/U33 = 0, "", V33/U33)))</f>
         <v/>
       </c>
@@ -8147,8 +9355,12 @@
         <f aca="true">IF(M34="", IF(O34="","",X34+(INDIRECT("S" &amp; ROW() - 1) - S34)),IF(O34="", "", INDIRECT("S" &amp; ROW() - 1) - S34))</f>
         <v/>
       </c>
-      <c r="M34" s="18"/>
-      <c r="N34" s="17" t="str">
+      <c r="K34" s="17" t="str">
+        <f aca="false">IF(H34="", "", IF(H34="-","",VLOOKUP(H34, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M34" s="19"/>
+      <c r="N34" s="18" t="str">
         <f aca="false">IF(M34="", IF(X34=0, "", X34), IF(V34 = "", "", IF(V34/U34 = 0, "", V34/U34)))</f>
         <v/>
       </c>
@@ -8194,8 +9406,12 @@
         <f aca="true">IF(M35="", IF(O35="","",X35+(INDIRECT("S" &amp; ROW() - 1) - S35)),IF(O35="", "", INDIRECT("S" &amp; ROW() - 1) - S35))</f>
         <v/>
       </c>
-      <c r="M35" s="18"/>
-      <c r="N35" s="17" t="str">
+      <c r="K35" s="17" t="str">
+        <f aca="false">IF(H35="", "", IF(H35="-","",VLOOKUP(H35, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M35" s="19"/>
+      <c r="N35" s="18" t="str">
         <f aca="false">IF(M35="", IF(X35=0, "", X35), IF(V35 = "", "", IF(V35/U35 = 0, "", V35/U35)))</f>
         <v/>
       </c>
@@ -8241,8 +9457,12 @@
         <f aca="true">IF(M36="", IF(O36="","",X36+(INDIRECT("S" &amp; ROW() - 1) - S36)),IF(O36="", "", INDIRECT("S" &amp; ROW() - 1) - S36))</f>
         <v/>
       </c>
-      <c r="M36" s="18"/>
-      <c r="N36" s="17" t="str">
+      <c r="K36" s="17" t="str">
+        <f aca="false">IF(H36="", "", IF(H36="-","",VLOOKUP(H36, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M36" s="19"/>
+      <c r="N36" s="18" t="str">
         <f aca="false">IF(M36="", IF(X36=0, "", X36), IF(V36 = "", "", IF(V36/U36 = 0, "", V36/U36)))</f>
         <v/>
       </c>
@@ -8288,8 +9508,12 @@
         <f aca="true">IF(M37="", IF(O37="","",X37+(INDIRECT("S" &amp; ROW() - 1) - S37)),IF(O37="", "", INDIRECT("S" &amp; ROW() - 1) - S37))</f>
         <v/>
       </c>
-      <c r="M37" s="18"/>
-      <c r="N37" s="17" t="str">
+      <c r="K37" s="17" t="str">
+        <f aca="false">IF(H37="", "", IF(H37="-","",VLOOKUP(H37, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M37" s="19"/>
+      <c r="N37" s="18" t="str">
         <f aca="false">IF(M37="", IF(X37=0, "", X37), IF(V37 = "", "", IF(V37/U37 = 0, "", V37/U37)))</f>
         <v/>
       </c>
@@ -8335,8 +9559,12 @@
         <f aca="true">IF(M38="", IF(O38="","",X38+(INDIRECT("S" &amp; ROW() - 1) - S38)),IF(O38="", "", INDIRECT("S" &amp; ROW() - 1) - S38))</f>
         <v/>
       </c>
-      <c r="M38" s="18"/>
-      <c r="N38" s="17" t="str">
+      <c r="K38" s="17" t="str">
+        <f aca="false">IF(H38="", "", IF(H38="-","",VLOOKUP(H38, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M38" s="19"/>
+      <c r="N38" s="18" t="str">
         <f aca="false">IF(M38="", IF(X38=0, "", X38), IF(V38 = "", "", IF(V38/U38 = 0, "", V38/U38)))</f>
         <v/>
       </c>
@@ -8382,8 +9610,12 @@
         <f aca="true">IF(M39="", IF(O39="","",X39+(INDIRECT("S" &amp; ROW() - 1) - S39)),IF(O39="", "", INDIRECT("S" &amp; ROW() - 1) - S39))</f>
         <v/>
       </c>
-      <c r="M39" s="18"/>
-      <c r="N39" s="17" t="str">
+      <c r="K39" s="17" t="str">
+        <f aca="false">IF(H39="", "", IF(H39="-","",VLOOKUP(H39, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M39" s="19"/>
+      <c r="N39" s="18" t="str">
         <f aca="false">IF(M39="", IF(X39=0, "", X39), IF(V39 = "", "", IF(V39/U39 = 0, "", V39/U39)))</f>
         <v/>
       </c>
@@ -8429,8 +9661,12 @@
         <f aca="true">IF(M40="", IF(O40="","",X40+(INDIRECT("S" &amp; ROW() - 1) - S40)),IF(O40="", "", INDIRECT("S" &amp; ROW() - 1) - S40))</f>
         <v/>
       </c>
-      <c r="M40" s="18"/>
-      <c r="N40" s="17" t="str">
+      <c r="K40" s="17" t="str">
+        <f aca="false">IF(H40="", "", IF(H40="-","",VLOOKUP(H40, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M40" s="19"/>
+      <c r="N40" s="18" t="str">
         <f aca="false">IF(M40="", IF(X40=0, "", X40), IF(V40 = "", "", IF(V40/U40 = 0, "", V40/U40)))</f>
         <v/>
       </c>
@@ -8476,8 +9712,12 @@
         <f aca="true">IF(M41="", IF(O41="","",X41+(INDIRECT("S" &amp; ROW() - 1) - S41)),IF(O41="", "", INDIRECT("S" &amp; ROW() - 1) - S41))</f>
         <v/>
       </c>
-      <c r="M41" s="18"/>
-      <c r="N41" s="17" t="str">
+      <c r="K41" s="17" t="str">
+        <f aca="false">IF(H41="", "", IF(H41="-","",VLOOKUP(H41, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M41" s="19"/>
+      <c r="N41" s="18" t="str">
         <f aca="false">IF(M41="", IF(X41=0, "", X41), IF(V41 = "", "", IF(V41/U41 = 0, "", V41/U41)))</f>
         <v/>
       </c>
@@ -8523,8 +9763,12 @@
         <f aca="true">IF(M42="", IF(O42="","",X42+(INDIRECT("S" &amp; ROW() - 1) - S42)),IF(O42="", "", INDIRECT("S" &amp; ROW() - 1) - S42))</f>
         <v/>
       </c>
-      <c r="M42" s="18"/>
-      <c r="N42" s="17" t="str">
+      <c r="K42" s="17" t="str">
+        <f aca="false">IF(H42="", "", IF(H42="-","",VLOOKUP(H42, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M42" s="19"/>
+      <c r="N42" s="18" t="str">
         <f aca="false">IF(M42="", IF(X42=0, "", X42), IF(V42 = "", "", IF(V42/U42 = 0, "", V42/U42)))</f>
         <v/>
       </c>
@@ -8570,8 +9814,12 @@
         <f aca="true">IF(M43="", IF(O43="","",X43+(INDIRECT("S" &amp; ROW() - 1) - S43)),IF(O43="", "", INDIRECT("S" &amp; ROW() - 1) - S43))</f>
         <v/>
       </c>
-      <c r="M43" s="18"/>
-      <c r="N43" s="17" t="str">
+      <c r="K43" s="17" t="str">
+        <f aca="false">IF(H43="", "", IF(H43="-","",VLOOKUP(H43, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M43" s="19"/>
+      <c r="N43" s="18" t="str">
         <f aca="false">IF(M43="", IF(X43=0, "", X43), IF(V43 = "", "", IF(V43/U43 = 0, "", V43/U43)))</f>
         <v/>
       </c>
@@ -8617,8 +9865,12 @@
         <f aca="true">IF(M44="", IF(O44="","",X44+(INDIRECT("S" &amp; ROW() - 1) - S44)),IF(O44="", "", INDIRECT("S" &amp; ROW() - 1) - S44))</f>
         <v/>
       </c>
-      <c r="M44" s="18"/>
-      <c r="N44" s="17" t="str">
+      <c r="K44" s="17" t="str">
+        <f aca="false">IF(H44="", "", IF(H44="-","",VLOOKUP(H44, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M44" s="19"/>
+      <c r="N44" s="18" t="str">
         <f aca="false">IF(M44="", IF(X44=0, "", X44), IF(V44 = "", "", IF(V44/U44 = 0, "", V44/U44)))</f>
         <v/>
       </c>
@@ -8664,8 +9916,12 @@
         <f aca="true">IF(M45="", IF(O45="","",X45+(INDIRECT("S" &amp; ROW() - 1) - S45)),IF(O45="", "", INDIRECT("S" &amp; ROW() - 1) - S45))</f>
         <v/>
       </c>
-      <c r="M45" s="18"/>
-      <c r="N45" s="17" t="str">
+      <c r="K45" s="17" t="str">
+        <f aca="false">IF(H45="", "", IF(H45="-","",VLOOKUP(H45, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M45" s="19"/>
+      <c r="N45" s="18" t="str">
         <f aca="false">IF(M45="", IF(X45=0, "", X45), IF(V45 = "", "", IF(V45/U45 = 0, "", V45/U45)))</f>
         <v/>
       </c>
@@ -8711,8 +9967,12 @@
         <f aca="true">IF(M46="", IF(O46="","",X46+(INDIRECT("S" &amp; ROW() - 1) - S46)),IF(O46="", "", INDIRECT("S" &amp; ROW() - 1) - S46))</f>
         <v/>
       </c>
-      <c r="M46" s="18"/>
-      <c r="N46" s="17" t="str">
+      <c r="K46" s="17" t="str">
+        <f aca="false">IF(H46="", "", IF(H46="-","",VLOOKUP(H46, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M46" s="19"/>
+      <c r="N46" s="18" t="str">
         <f aca="false">IF(M46="", IF(X46=0, "", X46), IF(V46 = "", "", IF(V46/U46 = 0, "", V46/U46)))</f>
         <v/>
       </c>
@@ -8758,8 +10018,12 @@
         <f aca="true">IF(M47="", IF(O47="","",X47+(INDIRECT("S" &amp; ROW() - 1) - S47)),IF(O47="", "", INDIRECT("S" &amp; ROW() - 1) - S47))</f>
         <v/>
       </c>
-      <c r="M47" s="18"/>
-      <c r="N47" s="17" t="str">
+      <c r="K47" s="17" t="str">
+        <f aca="false">IF(H47="", "", IF(H47="-","",VLOOKUP(H47, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M47" s="19"/>
+      <c r="N47" s="18" t="str">
         <f aca="false">IF(M47="", IF(X47=0, "", X47), IF(V47 = "", "", IF(V47/U47 = 0, "", V47/U47)))</f>
         <v/>
       </c>
@@ -8805,8 +10069,12 @@
         <f aca="true">IF(M48="", IF(O48="","",X48+(INDIRECT("S" &amp; ROW() - 1) - S48)),IF(O48="", "", INDIRECT("S" &amp; ROW() - 1) - S48))</f>
         <v/>
       </c>
-      <c r="M48" s="18"/>
-      <c r="N48" s="17" t="str">
+      <c r="K48" s="17" t="str">
+        <f aca="false">IF(H48="", "", IF(H48="-","",VLOOKUP(H48, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M48" s="19"/>
+      <c r="N48" s="18" t="str">
         <f aca="false">IF(M48="", IF(X48=0, "", X48), IF(V48 = "", "", IF(V48/U48 = 0, "", V48/U48)))</f>
         <v/>
       </c>
@@ -8852,8 +10120,12 @@
         <f aca="true">IF(M49="", IF(O49="","",X49+(INDIRECT("S" &amp; ROW() - 1) - S49)),IF(O49="", "", INDIRECT("S" &amp; ROW() - 1) - S49))</f>
         <v/>
       </c>
-      <c r="M49" s="18"/>
-      <c r="N49" s="17" t="str">
+      <c r="K49" s="17" t="str">
+        <f aca="false">IF(H49="", "", IF(H49="-","",VLOOKUP(H49, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M49" s="19"/>
+      <c r="N49" s="18" t="str">
         <f aca="false">IF(M49="", IF(X49=0, "", X49), IF(V49 = "", "", IF(V49/U49 = 0, "", V49/U49)))</f>
         <v/>
       </c>
@@ -8899,8 +10171,12 @@
         <f aca="true">IF(M50="", IF(O50="","",X50+(INDIRECT("S" &amp; ROW() - 1) - S50)),IF(O50="", "", INDIRECT("S" &amp; ROW() - 1) - S50))</f>
         <v/>
       </c>
-      <c r="M50" s="18"/>
-      <c r="N50" s="17" t="str">
+      <c r="K50" s="17" t="str">
+        <f aca="false">IF(H50="", "", IF(H50="-","",VLOOKUP(H50, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M50" s="19"/>
+      <c r="N50" s="18" t="str">
         <f aca="false">IF(M50="", IF(X50=0, "", X50), IF(V50 = "", "", IF(V50/U50 = 0, "", V50/U50)))</f>
         <v/>
       </c>
@@ -8946,8 +10222,12 @@
         <f aca="true">IF(M51="", IF(O51="","",X51+(INDIRECT("S" &amp; ROW() - 1) - S51)),IF(O51="", "", INDIRECT("S" &amp; ROW() - 1) - S51))</f>
         <v/>
       </c>
-      <c r="M51" s="18"/>
-      <c r="N51" s="17" t="str">
+      <c r="K51" s="17" t="str">
+        <f aca="false">IF(H51="", "", IF(H51="-","",VLOOKUP(H51, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M51" s="19"/>
+      <c r="N51" s="18" t="str">
         <f aca="false">IF(M51="", IF(X51=0, "", X51), IF(V51 = "", "", IF(V51/U51 = 0, "", V51/U51)))</f>
         <v/>
       </c>
@@ -8993,8 +10273,12 @@
         <f aca="true">IF(M52="", IF(O52="","",X52+(INDIRECT("S" &amp; ROW() - 1) - S52)),IF(O52="", "", INDIRECT("S" &amp; ROW() - 1) - S52))</f>
         <v/>
       </c>
-      <c r="M52" s="18"/>
-      <c r="N52" s="17" t="str">
+      <c r="K52" s="17" t="str">
+        <f aca="false">IF(H52="", "", IF(H52="-","",VLOOKUP(H52, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M52" s="19"/>
+      <c r="N52" s="18" t="str">
         <f aca="false">IF(M52="", IF(X52=0, "", X52), IF(V52 = "", "", IF(V52/U52 = 0, "", V52/U52)))</f>
         <v/>
       </c>
@@ -9040,8 +10324,12 @@
         <f aca="true">IF(M53="", IF(O53="","",X53+(INDIRECT("S" &amp; ROW() - 1) - S53)),IF(O53="", "", INDIRECT("S" &amp; ROW() - 1) - S53))</f>
         <v/>
       </c>
-      <c r="M53" s="18"/>
-      <c r="N53" s="17" t="str">
+      <c r="K53" s="17" t="str">
+        <f aca="false">IF(H53="", "", IF(H53="-","",VLOOKUP(H53, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M53" s="19"/>
+      <c r="N53" s="18" t="str">
         <f aca="false">IF(M53="", IF(X53=0, "", X53), IF(V53 = "", "", IF(V53/U53 = 0, "", V53/U53)))</f>
         <v/>
       </c>
@@ -9087,8 +10375,12 @@
         <f aca="true">IF(M54="", IF(O54="","",X54+(INDIRECT("S" &amp; ROW() - 1) - S54)),IF(O54="", "", INDIRECT("S" &amp; ROW() - 1) - S54))</f>
         <v/>
       </c>
-      <c r="M54" s="18"/>
-      <c r="N54" s="17" t="str">
+      <c r="K54" s="17" t="str">
+        <f aca="false">IF(H54="", "", IF(H54="-","",VLOOKUP(H54, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M54" s="19"/>
+      <c r="N54" s="18" t="str">
         <f aca="false">IF(M54="", IF(X54=0, "", X54), IF(V54 = "", "", IF(V54/U54 = 0, "", V54/U54)))</f>
         <v/>
       </c>
@@ -9134,8 +10426,12 @@
         <f aca="true">IF(M55="", IF(O55="","",X55+(INDIRECT("S" &amp; ROW() - 1) - S55)),IF(O55="", "", INDIRECT("S" &amp; ROW() - 1) - S55))</f>
         <v/>
       </c>
-      <c r="M55" s="18"/>
-      <c r="N55" s="17" t="str">
+      <c r="K55" s="17" t="str">
+        <f aca="false">IF(H55="", "", IF(H55="-","",VLOOKUP(H55, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M55" s="19"/>
+      <c r="N55" s="18" t="str">
         <f aca="false">IF(M55="", IF(X55=0, "", X55), IF(V55 = "", "", IF(V55/U55 = 0, "", V55/U55)))</f>
         <v/>
       </c>
@@ -9181,8 +10477,12 @@
         <f aca="true">IF(M56="", IF(O56="","",X56+(INDIRECT("S" &amp; ROW() - 1) - S56)),IF(O56="", "", INDIRECT("S" &amp; ROW() - 1) - S56))</f>
         <v/>
       </c>
-      <c r="M56" s="18"/>
-      <c r="N56" s="17" t="str">
+      <c r="K56" s="17" t="str">
+        <f aca="false">IF(H56="", "", IF(H56="-","",VLOOKUP(H56, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M56" s="19"/>
+      <c r="N56" s="18" t="str">
         <f aca="false">IF(M56="", IF(X56=0, "", X56), IF(V56 = "", "", IF(V56/U56 = 0, "", V56/U56)))</f>
         <v/>
       </c>
@@ -9228,8 +10528,12 @@
         <f aca="true">IF(M57="", IF(O57="","",X57+(INDIRECT("S" &amp; ROW() - 1) - S57)),IF(O57="", "", INDIRECT("S" &amp; ROW() - 1) - S57))</f>
         <v/>
       </c>
-      <c r="M57" s="18"/>
-      <c r="N57" s="17" t="str">
+      <c r="K57" s="17" t="str">
+        <f aca="false">IF(H57="", "", IF(H57="-","",VLOOKUP(H57, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M57" s="19"/>
+      <c r="N57" s="18" t="str">
         <f aca="false">IF(M57="", IF(X57=0, "", X57), IF(V57 = "", "", IF(V57/U57 = 0, "", V57/U57)))</f>
         <v/>
       </c>
@@ -9275,8 +10579,12 @@
         <f aca="true">IF(M58="", IF(O58="","",X58+(INDIRECT("S" &amp; ROW() - 1) - S58)),IF(O58="", "", INDIRECT("S" &amp; ROW() - 1) - S58))</f>
         <v/>
       </c>
-      <c r="M58" s="18"/>
-      <c r="N58" s="17" t="str">
+      <c r="K58" s="17" t="str">
+        <f aca="false">IF(H58="", "", IF(H58="-","",VLOOKUP(H58, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M58" s="19"/>
+      <c r="N58" s="18" t="str">
         <f aca="false">IF(M58="", IF(X58=0, "", X58), IF(V58 = "", "", IF(V58/U58 = 0, "", V58/U58)))</f>
         <v/>
       </c>
@@ -9322,8 +10630,12 @@
         <f aca="true">IF(M59="", IF(O59="","",X59+(INDIRECT("S" &amp; ROW() - 1) - S59)),IF(O59="", "", INDIRECT("S" &amp; ROW() - 1) - S59))</f>
         <v/>
       </c>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17" t="str">
+      <c r="K59" s="17" t="str">
+        <f aca="false">IF(H59="", "", IF(H59="-","",VLOOKUP(H59, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M59" s="18"/>
+      <c r="N59" s="18" t="str">
         <f aca="false">IF(M59="", IF(X59=0, "", X59), IF(V59 = "", "", IF(V59/U59 = 0, "", V59/U59)))</f>
         <v/>
       </c>
@@ -9369,8 +10681,12 @@
         <f aca="true">IF(M60="", IF(O60="","",X60+(INDIRECT("S" &amp; ROW() - 1) - S60)),IF(O60="", "", INDIRECT("S" &amp; ROW() - 1) - S60))</f>
         <v/>
       </c>
-      <c r="M60" s="18"/>
-      <c r="N60" s="17" t="str">
+      <c r="K60" s="17" t="str">
+        <f aca="false">IF(H60="", "", IF(H60="-","",VLOOKUP(H60, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M60" s="19"/>
+      <c r="N60" s="18" t="str">
         <f aca="false">IF(M60="", IF(X60=0, "", X60), IF(V60 = "", "", IF(V60/U60 = 0, "", V60/U60)))</f>
         <v/>
       </c>
@@ -9416,8 +10732,12 @@
         <f aca="true">IF(M61="", IF(O61="","",X61+(INDIRECT("S" &amp; ROW() - 1) - S61)),IF(O61="", "", INDIRECT("S" &amp; ROW() - 1) - S61))</f>
         <v/>
       </c>
-      <c r="M61" s="18"/>
-      <c r="N61" s="17" t="str">
+      <c r="K61" s="17" t="str">
+        <f aca="false">IF(H61="", "", IF(H61="-","",VLOOKUP(H61, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M61" s="19"/>
+      <c r="N61" s="18" t="str">
         <f aca="false">IF(M61="", IF(X61=0, "", X61), IF(V61 = "", "", IF(V61/U61 = 0, "", V61/U61)))</f>
         <v/>
       </c>
@@ -9463,8 +10783,12 @@
         <f aca="true">IF(M62="", IF(O62="","",X62+(INDIRECT("S" &amp; ROW() - 1) - S62)),IF(O62="", "", INDIRECT("S" &amp; ROW() - 1) - S62))</f>
         <v/>
       </c>
-      <c r="M62" s="18"/>
-      <c r="N62" s="17" t="str">
+      <c r="K62" s="17" t="str">
+        <f aca="false">IF(H62="", "", IF(H62="-","",VLOOKUP(H62, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M62" s="19"/>
+      <c r="N62" s="18" t="str">
         <f aca="false">IF(M62="", IF(X62=0, "", X62), IF(V62 = "", "", IF(V62/U62 = 0, "", V62/U62)))</f>
         <v/>
       </c>
@@ -9510,8 +10834,12 @@
         <f aca="true">IF(M63="", IF(O63="","",X63+(INDIRECT("S" &amp; ROW() - 1) - S63)),IF(O63="", "", INDIRECT("S" &amp; ROW() - 1) - S63))</f>
         <v/>
       </c>
-      <c r="M63" s="18"/>
-      <c r="N63" s="17" t="str">
+      <c r="K63" s="17" t="str">
+        <f aca="false">IF(H63="", "", IF(H63="-","",VLOOKUP(H63, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M63" s="19"/>
+      <c r="N63" s="18" t="str">
         <f aca="false">IF(M63="", IF(X63=0, "", X63), IF(V63 = "", "", IF(V63/U63 = 0, "", V63/U63)))</f>
         <v/>
       </c>
@@ -9557,8 +10885,12 @@
         <f aca="true">IF(M64="", IF(O64="","",X64+(INDIRECT("S" &amp; ROW() - 1) - S64)),IF(O64="", "", INDIRECT("S" &amp; ROW() - 1) - S64))</f>
         <v/>
       </c>
-      <c r="M64" s="18"/>
-      <c r="N64" s="17" t="str">
+      <c r="K64" s="17" t="str">
+        <f aca="false">IF(H64="", "", IF(H64="-","",VLOOKUP(H64, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M64" s="19"/>
+      <c r="N64" s="18" t="str">
         <f aca="false">IF(M64="", IF(X64=0, "", X64), IF(V64 = "", "", IF(V64/U64 = 0, "", V64/U64)))</f>
         <v/>
       </c>
@@ -9604,8 +10936,12 @@
         <f aca="true">IF(M65="", IF(O65="","",X65+(INDIRECT("S" &amp; ROW() - 1) - S65)),IF(O65="", "", INDIRECT("S" &amp; ROW() - 1) - S65))</f>
         <v/>
       </c>
-      <c r="M65" s="18"/>
-      <c r="N65" s="17" t="str">
+      <c r="K65" s="17" t="str">
+        <f aca="false">IF(H65="", "", IF(H65="-","",VLOOKUP(H65, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M65" s="19"/>
+      <c r="N65" s="18" t="str">
         <f aca="false">IF(M65="", IF(X65=0, "", X65), IF(V65 = "", "", IF(V65/U65 = 0, "", V65/U65)))</f>
         <v/>
       </c>
@@ -9651,8 +10987,12 @@
         <f aca="true">IF(M66="", IF(O66="","",X66+(INDIRECT("S" &amp; ROW() - 1) - S66)),IF(O66="", "", INDIRECT("S" &amp; ROW() - 1) - S66))</f>
         <v/>
       </c>
-      <c r="M66" s="18"/>
-      <c r="N66" s="17" t="str">
+      <c r="K66" s="17" t="str">
+        <f aca="false">IF(H66="", "", IF(H66="-","",VLOOKUP(H66, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M66" s="19"/>
+      <c r="N66" s="18" t="str">
         <f aca="false">IF(M66="", IF(X66=0, "", X66), IF(V66 = "", "", IF(V66/U66 = 0, "", V66/U66)))</f>
         <v/>
       </c>
@@ -9698,8 +11038,12 @@
         <f aca="true">IF(M67="", IF(O67="","",X67+(INDIRECT("S" &amp; ROW() - 1) - S67)),IF(O67="", "", INDIRECT("S" &amp; ROW() - 1) - S67))</f>
         <v/>
       </c>
-      <c r="M67" s="18"/>
-      <c r="N67" s="17" t="str">
+      <c r="K67" s="17" t="str">
+        <f aca="false">IF(H67="", "", IF(H67="-","",VLOOKUP(H67, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M67" s="19"/>
+      <c r="N67" s="18" t="str">
         <f aca="false">IF(M67="", IF(X67=0, "", X67), IF(V67 = "", "", IF(V67/U67 = 0, "", V67/U67)))</f>
         <v/>
       </c>
@@ -9745,8 +11089,12 @@
         <f aca="true">IF(M68="", IF(O68="","",X68+(INDIRECT("S" &amp; ROW() - 1) - S68)),IF(O68="", "", INDIRECT("S" &amp; ROW() - 1) - S68))</f>
         <v/>
       </c>
-      <c r="M68" s="18"/>
-      <c r="N68" s="17" t="str">
+      <c r="K68" s="17" t="str">
+        <f aca="false">IF(H68="", "", IF(H68="-","",VLOOKUP(H68, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M68" s="19"/>
+      <c r="N68" s="18" t="str">
         <f aca="false">IF(M68="", IF(X68=0, "", X68), IF(V68 = "", "", IF(V68/U68 = 0, "", V68/U68)))</f>
         <v/>
       </c>
@@ -9792,8 +11140,12 @@
         <f aca="true">IF(M69="", IF(O69="","",X69+(INDIRECT("S" &amp; ROW() - 1) - S69)),IF(O69="", "", INDIRECT("S" &amp; ROW() - 1) - S69))</f>
         <v/>
       </c>
-      <c r="M69" s="18"/>
-      <c r="N69" s="17" t="str">
+      <c r="K69" s="17" t="str">
+        <f aca="false">IF(H69="", "", IF(H69="-","",VLOOKUP(H69, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M69" s="19"/>
+      <c r="N69" s="18" t="str">
         <f aca="false">IF(M69="", IF(X69=0, "", X69), IF(V69 = "", "", IF(V69/U69 = 0, "", V69/U69)))</f>
         <v/>
       </c>
@@ -9839,8 +11191,12 @@
         <f aca="true">IF(M70="", IF(O70="","",X70+(INDIRECT("S" &amp; ROW() - 1) - S70)),IF(O70="", "", INDIRECT("S" &amp; ROW() - 1) - S70))</f>
         <v/>
       </c>
-      <c r="M70" s="18"/>
-      <c r="N70" s="17" t="str">
+      <c r="K70" s="17" t="str">
+        <f aca="false">IF(H70="", "", IF(H70="-","",VLOOKUP(H70, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M70" s="19"/>
+      <c r="N70" s="18" t="str">
         <f aca="false">IF(M70="", IF(X70=0, "", X70), IF(V70 = "", "", IF(V70/U70 = 0, "", V70/U70)))</f>
         <v/>
       </c>
@@ -9886,8 +11242,12 @@
         <f aca="true">IF(M71="", IF(O71="","",X71+(INDIRECT("S" &amp; ROW() - 1) - S71)),IF(O71="", "", INDIRECT("S" &amp; ROW() - 1) - S71))</f>
         <v/>
       </c>
-      <c r="M71" s="18"/>
-      <c r="N71" s="17" t="str">
+      <c r="K71" s="17" t="str">
+        <f aca="false">IF(H71="", "", IF(H71="-","",VLOOKUP(H71, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M71" s="19"/>
+      <c r="N71" s="18" t="str">
         <f aca="false">IF(M71="", IF(X71=0, "", X71), IF(V71 = "", "", IF(V71/U71 = 0, "", V71/U71)))</f>
         <v/>
       </c>
@@ -9933,8 +11293,12 @@
         <f aca="true">IF(M72="", IF(O72="","",X72+(INDIRECT("S" &amp; ROW() - 1) - S72)),IF(O72="", "", INDIRECT("S" &amp; ROW() - 1) - S72))</f>
         <v/>
       </c>
-      <c r="M72" s="18"/>
-      <c r="N72" s="17" t="str">
+      <c r="K72" s="17" t="str">
+        <f aca="false">IF(H72="", "", IF(H72="-","",VLOOKUP(H72, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M72" s="19"/>
+      <c r="N72" s="18" t="str">
         <f aca="false">IF(M72="", IF(X72=0, "", X72), IF(V72 = "", "", IF(V72/U72 = 0, "", V72/U72)))</f>
         <v/>
       </c>
@@ -9980,8 +11344,12 @@
         <f aca="true">IF(M73="", IF(O73="","",X73+(INDIRECT("S" &amp; ROW() - 1) - S73)),IF(O73="", "", INDIRECT("S" &amp; ROW() - 1) - S73))</f>
         <v/>
       </c>
-      <c r="M73" s="18"/>
-      <c r="N73" s="17" t="str">
+      <c r="K73" s="17" t="str">
+        <f aca="false">IF(H73="", "", IF(H73="-","",VLOOKUP(H73, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M73" s="19"/>
+      <c r="N73" s="18" t="str">
         <f aca="false">IF(M73="", IF(X73=0, "", X73), IF(V73 = "", "", IF(V73/U73 = 0, "", V73/U73)))</f>
         <v/>
       </c>
@@ -10027,8 +11395,12 @@
         <f aca="true">IF(M74="", IF(O74="","",X74+(INDIRECT("S" &amp; ROW() - 1) - S74)),IF(O74="", "", INDIRECT("S" &amp; ROW() - 1) - S74))</f>
         <v/>
       </c>
-      <c r="M74" s="18"/>
-      <c r="N74" s="17" t="str">
+      <c r="K74" s="17" t="str">
+        <f aca="false">IF(H74="", "", IF(H74="-","",VLOOKUP(H74, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M74" s="19"/>
+      <c r="N74" s="18" t="str">
         <f aca="false">IF(M74="", IF(X74=0, "", X74), IF(V74 = "", "", IF(V74/U74 = 0, "", V74/U74)))</f>
         <v/>
       </c>
@@ -10074,8 +11446,12 @@
         <f aca="true">IF(M75="", IF(O75="","",X75+(INDIRECT("S" &amp; ROW() - 1) - S75)),IF(O75="", "", INDIRECT("S" &amp; ROW() - 1) - S75))</f>
         <v/>
       </c>
-      <c r="M75" s="18"/>
-      <c r="N75" s="17" t="str">
+      <c r="K75" s="17" t="str">
+        <f aca="false">IF(H75="", "", IF(H75="-","",VLOOKUP(H75, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M75" s="19"/>
+      <c r="N75" s="18" t="str">
         <f aca="false">IF(M75="", IF(X75=0, "", X75), IF(V75 = "", "", IF(V75/U75 = 0, "", V75/U75)))</f>
         <v/>
       </c>
@@ -10121,8 +11497,12 @@
         <f aca="true">IF(M76="", IF(O76="","",X76+(INDIRECT("S" &amp; ROW() - 1) - S76)),IF(O76="", "", INDIRECT("S" &amp; ROW() - 1) - S76))</f>
         <v/>
       </c>
-      <c r="M76" s="18"/>
-      <c r="N76" s="17" t="str">
+      <c r="K76" s="17" t="str">
+        <f aca="false">IF(H76="", "", IF(H76="-","",VLOOKUP(H76, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M76" s="19"/>
+      <c r="N76" s="18" t="str">
         <f aca="false">IF(M76="", IF(X76=0, "", X76), IF(V76 = "", "", IF(V76/U76 = 0, "", V76/U76)))</f>
         <v/>
       </c>
@@ -10168,8 +11548,12 @@
         <f aca="true">IF(M77="", IF(O77="","",X77+(INDIRECT("S" &amp; ROW() - 1) - S77)),IF(O77="", "", INDIRECT("S" &amp; ROW() - 1) - S77))</f>
         <v/>
       </c>
-      <c r="M77" s="18"/>
-      <c r="N77" s="17" t="str">
+      <c r="K77" s="17" t="str">
+        <f aca="false">IF(H77="", "", IF(H77="-","",VLOOKUP(H77, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M77" s="19"/>
+      <c r="N77" s="18" t="str">
         <f aca="false">IF(M77="", IF(X77=0, "", X77), IF(V77 = "", "", IF(V77/U77 = 0, "", V77/U77)))</f>
         <v/>
       </c>
@@ -10215,8 +11599,12 @@
         <f aca="true">IF(M78="", IF(O78="","",X78+(INDIRECT("S" &amp; ROW() - 1) - S78)),IF(O78="", "", INDIRECT("S" &amp; ROW() - 1) - S78))</f>
         <v/>
       </c>
-      <c r="M78" s="18"/>
-      <c r="N78" s="17" t="str">
+      <c r="K78" s="17" t="str">
+        <f aca="false">IF(H78="", "", IF(H78="-","",VLOOKUP(H78, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M78" s="19"/>
+      <c r="N78" s="18" t="str">
         <f aca="false">IF(M78="", IF(X78=0, "", X78), IF(V78 = "", "", IF(V78/U78 = 0, "", V78/U78)))</f>
         <v/>
       </c>
@@ -10262,8 +11650,12 @@
         <f aca="true">IF(M79="", IF(O79="","",X79+(INDIRECT("S" &amp; ROW() - 1) - S79)),IF(O79="", "", INDIRECT("S" &amp; ROW() - 1) - S79))</f>
         <v/>
       </c>
-      <c r="M79" s="18"/>
-      <c r="N79" s="17" t="str">
+      <c r="K79" s="17" t="str">
+        <f aca="false">IF(H79="", "", IF(H79="-","",VLOOKUP(H79, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M79" s="19"/>
+      <c r="N79" s="18" t="str">
         <f aca="false">IF(M79="", IF(X79=0, "", X79), IF(V79 = "", "", IF(V79/U79 = 0, "", V79/U79)))</f>
         <v/>
       </c>
@@ -10309,8 +11701,12 @@
         <f aca="true">IF(M80="", IF(O80="","",X80+(INDIRECT("S" &amp; ROW() - 1) - S80)),IF(O80="", "", INDIRECT("S" &amp; ROW() - 1) - S80))</f>
         <v/>
       </c>
-      <c r="M80" s="18"/>
-      <c r="N80" s="17" t="str">
+      <c r="K80" s="17" t="str">
+        <f aca="false">IF(H80="", "", IF(H80="-","",VLOOKUP(H80, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M80" s="19"/>
+      <c r="N80" s="18" t="str">
         <f aca="false">IF(M80="", IF(X80=0, "", X80), IF(V80 = "", "", IF(V80/U80 = 0, "", V80/U80)))</f>
         <v/>
       </c>
@@ -10356,8 +11752,12 @@
         <f aca="true">IF(M81="", IF(O81="","",X81+(INDIRECT("S" &amp; ROW() - 1) - S81)),IF(O81="", "", INDIRECT("S" &amp; ROW() - 1) - S81))</f>
         <v/>
       </c>
-      <c r="M81" s="18"/>
-      <c r="N81" s="17" t="str">
+      <c r="K81" s="17" t="str">
+        <f aca="false">IF(H81="", "", IF(H81="-","",VLOOKUP(H81, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M81" s="19"/>
+      <c r="N81" s="18" t="str">
         <f aca="false">IF(M81="", IF(X81=0, "", X81), IF(V81 = "", "", IF(V81/U81 = 0, "", V81/U81)))</f>
         <v/>
       </c>
@@ -10403,8 +11803,12 @@
         <f aca="true">IF(M82="", IF(O82="","",X82+(INDIRECT("S" &amp; ROW() - 1) - S82)),IF(O82="", "", INDIRECT("S" &amp; ROW() - 1) - S82))</f>
         <v/>
       </c>
-      <c r="M82" s="18"/>
-      <c r="N82" s="17" t="str">
+      <c r="K82" s="17" t="str">
+        <f aca="false">IF(H82="", "", IF(H82="-","",VLOOKUP(H82, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M82" s="19"/>
+      <c r="N82" s="18" t="str">
         <f aca="false">IF(M82="", IF(X82=0, "", X82), IF(V82 = "", "", IF(V82/U82 = 0, "", V82/U82)))</f>
         <v/>
       </c>
@@ -10450,8 +11854,12 @@
         <f aca="true">IF(M83="", IF(O83="","",X83+(INDIRECT("S" &amp; ROW() - 1) - S83)),IF(O83="", "", INDIRECT("S" &amp; ROW() - 1) - S83))</f>
         <v/>
       </c>
-      <c r="M83" s="18"/>
-      <c r="N83" s="17" t="str">
+      <c r="K83" s="17" t="str">
+        <f aca="false">IF(H83="", "", IF(H83="-","",VLOOKUP(H83, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M83" s="19"/>
+      <c r="N83" s="18" t="str">
         <f aca="false">IF(M83="", IF(X83=0, "", X83), IF(V83 = "", "", IF(V83/U83 = 0, "", V83/U83)))</f>
         <v/>
       </c>
@@ -10497,8 +11905,12 @@
         <f aca="true">IF(M84="", IF(O84="","",X84+(INDIRECT("S" &amp; ROW() - 1) - S84)),IF(O84="", "", INDIRECT("S" &amp; ROW() - 1) - S84))</f>
         <v/>
       </c>
-      <c r="M84" s="18"/>
-      <c r="N84" s="17" t="str">
+      <c r="K84" s="17" t="str">
+        <f aca="false">IF(H84="", "", IF(H84="-","",VLOOKUP(H84, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M84" s="19"/>
+      <c r="N84" s="18" t="str">
         <f aca="false">IF(M84="", IF(X84=0, "", X84), IF(V84 = "", "", IF(V84/U84 = 0, "", V84/U84)))</f>
         <v/>
       </c>
@@ -10544,8 +11956,12 @@
         <f aca="true">IF(M85="", IF(O85="","",X85+(INDIRECT("S" &amp; ROW() - 1) - S85)),IF(O85="", "", INDIRECT("S" &amp; ROW() - 1) - S85))</f>
         <v/>
       </c>
-      <c r="M85" s="18"/>
-      <c r="N85" s="17" t="str">
+      <c r="K85" s="17" t="str">
+        <f aca="false">IF(H85="", "", IF(H85="-","",VLOOKUP(H85, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M85" s="19"/>
+      <c r="N85" s="18" t="str">
         <f aca="false">IF(M85="", IF(X85=0, "", X85), IF(V85 = "", "", IF(V85/U85 = 0, "", V85/U85)))</f>
         <v/>
       </c>
@@ -10591,8 +12007,12 @@
         <f aca="true">IF(M86="", IF(O86="","",X86+(INDIRECT("S" &amp; ROW() - 1) - S86)),IF(O86="", "", INDIRECT("S" &amp; ROW() - 1) - S86))</f>
         <v/>
       </c>
-      <c r="M86" s="18"/>
-      <c r="N86" s="17" t="str">
+      <c r="K86" s="17" t="str">
+        <f aca="false">IF(H86="", "", IF(H86="-","",VLOOKUP(H86, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M86" s="19"/>
+      <c r="N86" s="18" t="str">
         <f aca="false">IF(M86="", IF(X86=0, "", X86), IF(V86 = "", "", IF(V86/U86 = 0, "", V86/U86)))</f>
         <v/>
       </c>
@@ -10638,8 +12058,12 @@
         <f aca="true">IF(M87="", IF(O87="","",X87+(INDIRECT("S" &amp; ROW() - 1) - S87)),IF(O87="", "", INDIRECT("S" &amp; ROW() - 1) - S87))</f>
         <v/>
       </c>
-      <c r="M87" s="18"/>
-      <c r="N87" s="17" t="str">
+      <c r="K87" s="17" t="str">
+        <f aca="false">IF(H87="", "", IF(H87="-","",VLOOKUP(H87, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M87" s="19"/>
+      <c r="N87" s="18" t="str">
         <f aca="false">IF(M87="", IF(X87=0, "", X87), IF(V87 = "", "", IF(V87/U87 = 0, "", V87/U87)))</f>
         <v/>
       </c>
@@ -10685,8 +12109,12 @@
         <f aca="true">IF(M88="", IF(O88="","",X88+(INDIRECT("S" &amp; ROW() - 1) - S88)),IF(O88="", "", INDIRECT("S" &amp; ROW() - 1) - S88))</f>
         <v/>
       </c>
-      <c r="M88" s="18"/>
-      <c r="N88" s="17" t="str">
+      <c r="K88" s="17" t="str">
+        <f aca="false">IF(H88="", "", IF(H88="-","",VLOOKUP(H88, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M88" s="19"/>
+      <c r="N88" s="18" t="str">
         <f aca="false">IF(M88="", IF(X88=0, "", X88), IF(V88 = "", "", IF(V88/U88 = 0, "", V88/U88)))</f>
         <v/>
       </c>
@@ -10732,8 +12160,12 @@
         <f aca="true">IF(M89="", IF(O89="","",X89+(INDIRECT("S" &amp; ROW() - 1) - S89)),IF(O89="", "", INDIRECT("S" &amp; ROW() - 1) - S89))</f>
         <v/>
       </c>
-      <c r="M89" s="18"/>
-      <c r="N89" s="17" t="str">
+      <c r="K89" s="17" t="str">
+        <f aca="false">IF(H89="", "", IF(H89="-","",VLOOKUP(H89, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M89" s="19"/>
+      <c r="N89" s="18" t="str">
         <f aca="false">IF(M89="", IF(X89=0, "", X89), IF(V89 = "", "", IF(V89/U89 = 0, "", V89/U89)))</f>
         <v/>
       </c>
@@ -10779,8 +12211,12 @@
         <f aca="true">IF(M90="", IF(O90="","",X90+(INDIRECT("S" &amp; ROW() - 1) - S90)),IF(O90="", "", INDIRECT("S" &amp; ROW() - 1) - S90))</f>
         <v/>
       </c>
-      <c r="M90" s="18"/>
-      <c r="N90" s="17" t="str">
+      <c r="K90" s="17" t="str">
+        <f aca="false">IF(H90="", "", IF(H90="-","",VLOOKUP(H90, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M90" s="19"/>
+      <c r="N90" s="18" t="str">
         <f aca="false">IF(M90="", IF(X90=0, "", X90), IF(V90 = "", "", IF(V90/U90 = 0, "", V90/U90)))</f>
         <v/>
       </c>
@@ -10826,8 +12262,12 @@
         <f aca="true">IF(M91="", IF(O91="","",X91+(INDIRECT("S" &amp; ROW() - 1) - S91)),IF(O91="", "", INDIRECT("S" &amp; ROW() - 1) - S91))</f>
         <v/>
       </c>
-      <c r="M91" s="18"/>
-      <c r="N91" s="17" t="str">
+      <c r="K91" s="17" t="str">
+        <f aca="false">IF(H91="", "", IF(H91="-","",VLOOKUP(H91, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M91" s="19"/>
+      <c r="N91" s="18" t="str">
         <f aca="false">IF(M91="", IF(X91=0, "", X91), IF(V91 = "", "", IF(V91/U91 = 0, "", V91/U91)))</f>
         <v/>
       </c>
@@ -10873,8 +12313,12 @@
         <f aca="true">IF(M92="", IF(O92="","",X92+(INDIRECT("S" &amp; ROW() - 1) - S92)),IF(O92="", "", INDIRECT("S" &amp; ROW() - 1) - S92))</f>
         <v/>
       </c>
-      <c r="M92" s="18"/>
-      <c r="N92" s="17" t="str">
+      <c r="K92" s="17" t="str">
+        <f aca="false">IF(H92="", "", IF(H92="-","",VLOOKUP(H92, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M92" s="19"/>
+      <c r="N92" s="18" t="str">
         <f aca="false">IF(M92="", IF(X92=0, "", X92), IF(V92 = "", "", IF(V92/U92 = 0, "", V92/U92)))</f>
         <v/>
       </c>
@@ -10920,8 +12364,12 @@
         <f aca="true">IF(M93="", IF(O93="","",X93+(INDIRECT("S" &amp; ROW() - 1) - S93)),IF(O93="", "", INDIRECT("S" &amp; ROW() - 1) - S93))</f>
         <v/>
       </c>
-      <c r="M93" s="18"/>
-      <c r="N93" s="17" t="str">
+      <c r="K93" s="17" t="str">
+        <f aca="false">IF(H93="", "", IF(H93="-","",VLOOKUP(H93, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M93" s="19"/>
+      <c r="N93" s="18" t="str">
         <f aca="false">IF(M93="", IF(X93=0, "", X93), IF(V93 = "", "", IF(V93/U93 = 0, "", V93/U93)))</f>
         <v/>
       </c>
@@ -10967,8 +12415,12 @@
         <f aca="true">IF(M94="", IF(O94="","",X94+(INDIRECT("S" &amp; ROW() - 1) - S94)),IF(O94="", "", INDIRECT("S" &amp; ROW() - 1) - S94))</f>
         <v/>
       </c>
-      <c r="M94" s="18"/>
-      <c r="N94" s="17" t="str">
+      <c r="K94" s="17" t="str">
+        <f aca="false">IF(H94="", "", IF(H94="-","",VLOOKUP(H94, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M94" s="19"/>
+      <c r="N94" s="18" t="str">
         <f aca="false">IF(M94="", IF(X94=0, "", X94), IF(V94 = "", "", IF(V94/U94 = 0, "", V94/U94)))</f>
         <v/>
       </c>
@@ -11014,8 +12466,12 @@
         <f aca="true">IF(M95="", IF(O95="","",X95+(INDIRECT("S" &amp; ROW() - 1) - S95)),IF(O95="", "", INDIRECT("S" &amp; ROW() - 1) - S95))</f>
         <v/>
       </c>
-      <c r="M95" s="18"/>
-      <c r="N95" s="17" t="str">
+      <c r="K95" s="17" t="str">
+        <f aca="false">IF(H95="", "", IF(H95="-","",VLOOKUP(H95, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M95" s="19"/>
+      <c r="N95" s="18" t="str">
         <f aca="false">IF(M95="", IF(X95=0, "", X95), IF(V95 = "", "", IF(V95/U95 = 0, "", V95/U95)))</f>
         <v/>
       </c>
@@ -11061,8 +12517,12 @@
         <f aca="true">IF(M96="", IF(O96="","",X96+(INDIRECT("S" &amp; ROW() - 1) - S96)),IF(O96="", "", INDIRECT("S" &amp; ROW() - 1) - S96))</f>
         <v/>
       </c>
-      <c r="M96" s="18"/>
-      <c r="N96" s="17" t="str">
+      <c r="K96" s="17" t="str">
+        <f aca="false">IF(H96="", "", IF(H96="-","",VLOOKUP(H96, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M96" s="19"/>
+      <c r="N96" s="18" t="str">
         <f aca="false">IF(M96="", IF(X96=0, "", X96), IF(V96 = "", "", IF(V96/U96 = 0, "", V96/U96)))</f>
         <v/>
       </c>
@@ -11108,8 +12568,12 @@
         <f aca="true">IF(M97="", IF(O97="","",X97+(INDIRECT("S" &amp; ROW() - 1) - S97)),IF(O97="", "", INDIRECT("S" &amp; ROW() - 1) - S97))</f>
         <v/>
       </c>
-      <c r="M97" s="18"/>
-      <c r="N97" s="17" t="str">
+      <c r="K97" s="17" t="str">
+        <f aca="false">IF(H97="", "", IF(H97="-","",VLOOKUP(H97, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M97" s="19"/>
+      <c r="N97" s="18" t="str">
         <f aca="false">IF(M97="", IF(X97=0, "", X97), IF(V97 = "", "", IF(V97/U97 = 0, "", V97/U97)))</f>
         <v/>
       </c>
@@ -11155,8 +12619,12 @@
         <f aca="true">IF(M98="", IF(O98="","",X98+(INDIRECT("S" &amp; ROW() - 1) - S98)),IF(O98="", "", INDIRECT("S" &amp; ROW() - 1) - S98))</f>
         <v/>
       </c>
-      <c r="M98" s="18"/>
-      <c r="N98" s="17" t="str">
+      <c r="K98" s="17" t="str">
+        <f aca="false">IF(H98="", "", IF(H98="-","",VLOOKUP(H98, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M98" s="19"/>
+      <c r="N98" s="18" t="str">
         <f aca="false">IF(M98="", IF(X98=0, "", X98), IF(V98 = "", "", IF(V98/U98 = 0, "", V98/U98)))</f>
         <v/>
       </c>
@@ -11202,8 +12670,12 @@
         <f aca="true">IF(M99="", IF(O99="","",X99+(INDIRECT("S" &amp; ROW() - 1) - S99)),IF(O99="", "", INDIRECT("S" &amp; ROW() - 1) - S99))</f>
         <v/>
       </c>
-      <c r="M99" s="18"/>
-      <c r="N99" s="17" t="str">
+      <c r="K99" s="17" t="str">
+        <f aca="false">IF(H99="", "", IF(H99="-","",VLOOKUP(H99, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M99" s="19"/>
+      <c r="N99" s="18" t="str">
         <f aca="false">IF(M99="", IF(X99=0, "", X99), IF(V99 = "", "", IF(V99/U99 = 0, "", V99/U99)))</f>
         <v/>
       </c>
@@ -11249,8 +12721,12 @@
         <f aca="true">IF(M100="", IF(O100="","",X100+(INDIRECT("S" &amp; ROW() - 1) - S100)),IF(O100="", "", INDIRECT("S" &amp; ROW() - 1) - S100))</f>
         <v/>
       </c>
-      <c r="M100" s="18"/>
-      <c r="N100" s="17" t="str">
+      <c r="K100" s="17" t="str">
+        <f aca="false">IF(H100="", "", IF(H100="-","",VLOOKUP(H100, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M100" s="19"/>
+      <c r="N100" s="18" t="str">
         <f aca="false">IF(M100="", IF(X100=0, "", X100), IF(V100 = "", "", IF(V100/U100 = 0, "", V100/U100)))</f>
         <v/>
       </c>
@@ -11296,8 +12772,12 @@
         <f aca="true">IF(M101="", IF(O101="","",X101+(INDIRECT("S" &amp; ROW() - 1) - S101)),IF(O101="", "", INDIRECT("S" &amp; ROW() - 1) - S101))</f>
         <v/>
       </c>
-      <c r="M101" s="18"/>
-      <c r="N101" s="17" t="str">
+      <c r="K101" s="17" t="str">
+        <f aca="false">IF(H101="", "", IF(H101="-","",VLOOKUP(H101, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M101" s="19"/>
+      <c r="N101" s="18" t="str">
         <f aca="false">IF(M101="", IF(X101=0, "", X101), IF(V101 = "", "", IF(V101/U101 = 0, "", V101/U101)))</f>
         <v/>
       </c>
@@ -11343,8 +12823,12 @@
         <f aca="true">IF(M102="", IF(O102="","",X102+(INDIRECT("S" &amp; ROW() - 1) - S102)),IF(O102="", "", INDIRECT("S" &amp; ROW() - 1) - S102))</f>
         <v/>
       </c>
-      <c r="M102" s="18"/>
-      <c r="N102" s="17" t="str">
+      <c r="K102" s="17" t="str">
+        <f aca="false">IF(H102="", "", IF(H102="-","",VLOOKUP(H102, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M102" s="19"/>
+      <c r="N102" s="18" t="str">
         <f aca="false">IF(M102="", IF(X102=0, "", X102), IF(V102 = "", "", IF(V102/U102 = 0, "", V102/U102)))</f>
         <v/>
       </c>
@@ -11390,8 +12874,12 @@
         <f aca="true">IF(M103="", IF(O103="","",X103+(INDIRECT("S" &amp; ROW() - 1) - S103)),IF(O103="", "", INDIRECT("S" &amp; ROW() - 1) - S103))</f>
         <v/>
       </c>
-      <c r="M103" s="18"/>
-      <c r="N103" s="17" t="str">
+      <c r="K103" s="17" t="str">
+        <f aca="false">IF(H103="", "", IF(H103="-","",VLOOKUP(H103, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M103" s="19"/>
+      <c r="N103" s="18" t="str">
         <f aca="false">IF(M103="", IF(X103=0, "", X103), IF(V103 = "", "", IF(V103/U103 = 0, "", V103/U103)))</f>
         <v/>
       </c>
@@ -11437,8 +12925,12 @@
         <f aca="true">IF(M104="", IF(O104="","",X104+(INDIRECT("S" &amp; ROW() - 1) - S104)),IF(O104="", "", INDIRECT("S" &amp; ROW() - 1) - S104))</f>
         <v/>
       </c>
-      <c r="M104" s="18"/>
-      <c r="N104" s="17" t="str">
+      <c r="K104" s="17" t="str">
+        <f aca="false">IF(H104="", "", IF(H104="-","",VLOOKUP(H104, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M104" s="19"/>
+      <c r="N104" s="18" t="str">
         <f aca="false">IF(M104="", IF(X104=0, "", X104), IF(V104 = "", "", IF(V104/U104 = 0, "", V104/U104)))</f>
         <v/>
       </c>
@@ -11484,8 +12976,12 @@
         <f aca="true">IF(M105="", IF(O105="","",X105+(INDIRECT("S" &amp; ROW() - 1) - S105)),IF(O105="", "", INDIRECT("S" &amp; ROW() - 1) - S105))</f>
         <v/>
       </c>
-      <c r="M105" s="18"/>
-      <c r="N105" s="17" t="str">
+      <c r="K105" s="17" t="str">
+        <f aca="false">IF(H105="", "", IF(H105="-","",VLOOKUP(H105, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M105" s="19"/>
+      <c r="N105" s="18" t="str">
         <f aca="false">IF(M105="", IF(X105=0, "", X105), IF(V105 = "", "", IF(V105/U105 = 0, "", V105/U105)))</f>
         <v/>
       </c>
@@ -11531,8 +13027,12 @@
         <f aca="true">IF(M106="", IF(O106="","",X106+(INDIRECT("S" &amp; ROW() - 1) - S106)),IF(O106="", "", INDIRECT("S" &amp; ROW() - 1) - S106))</f>
         <v/>
       </c>
-      <c r="M106" s="18"/>
-      <c r="N106" s="17" t="str">
+      <c r="K106" s="17" t="str">
+        <f aca="false">IF(H106="", "", IF(H106="-","",VLOOKUP(H106, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M106" s="19"/>
+      <c r="N106" s="18" t="str">
         <f aca="false">IF(M106="", IF(X106=0, "", X106), IF(V106 = "", "", IF(V106/U106 = 0, "", V106/U106)))</f>
         <v/>
       </c>
@@ -11578,8 +13078,12 @@
         <f aca="true">IF(M107="", IF(O107="","",X107+(INDIRECT("S" &amp; ROW() - 1) - S107)),IF(O107="", "", INDIRECT("S" &amp; ROW() - 1) - S107))</f>
         <v/>
       </c>
-      <c r="M107" s="18"/>
-      <c r="N107" s="17" t="str">
+      <c r="K107" s="17" t="str">
+        <f aca="false">IF(H107="", "", IF(H107="-","",VLOOKUP(H107, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M107" s="19"/>
+      <c r="N107" s="18" t="str">
         <f aca="false">IF(M107="", IF(X107=0, "", X107), IF(V107 = "", "", IF(V107/U107 = 0, "", V107/U107)))</f>
         <v/>
       </c>
@@ -11625,8 +13129,12 @@
         <f aca="true">IF(M108="", IF(O108="","",X108+(INDIRECT("S" &amp; ROW() - 1) - S108)),IF(O108="", "", INDIRECT("S" &amp; ROW() - 1) - S108))</f>
         <v/>
       </c>
-      <c r="M108" s="18"/>
-      <c r="N108" s="17" t="str">
+      <c r="K108" s="17" t="str">
+        <f aca="false">IF(H108="", "", IF(H108="-","",VLOOKUP(H108, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M108" s="19"/>
+      <c r="N108" s="18" t="str">
         <f aca="false">IF(M108="", IF(X108=0, "", X108), IF(V108 = "", "", IF(V108/U108 = 0, "", V108/U108)))</f>
         <v/>
       </c>
@@ -11672,8 +13180,12 @@
         <f aca="true">IF(M109="", IF(O109="","",X109+(INDIRECT("S" &amp; ROW() - 1) - S109)),IF(O109="", "", INDIRECT("S" &amp; ROW() - 1) - S109))</f>
         <v/>
       </c>
-      <c r="M109" s="18"/>
-      <c r="N109" s="17" t="str">
+      <c r="K109" s="17" t="str">
+        <f aca="false">IF(H109="", "", IF(H109="-","",VLOOKUP(H109, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M109" s="19"/>
+      <c r="N109" s="18" t="str">
         <f aca="false">IF(M109="", IF(X109=0, "", X109), IF(V109 = "", "", IF(V109/U109 = 0, "", V109/U109)))</f>
         <v/>
       </c>
@@ -11719,8 +13231,12 @@
         <f aca="true">IF(M110="", IF(O110="","",X110+(INDIRECT("S" &amp; ROW() - 1) - S110)),IF(O110="", "", INDIRECT("S" &amp; ROW() - 1) - S110))</f>
         <v/>
       </c>
-      <c r="M110" s="18"/>
-      <c r="N110" s="17" t="str">
+      <c r="K110" s="17" t="str">
+        <f aca="false">IF(H110="", "", IF(H110="-","",VLOOKUP(H110, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M110" s="19"/>
+      <c r="N110" s="18" t="str">
         <f aca="false">IF(M110="", IF(X110=0, "", X110), IF(V110 = "", "", IF(V110/U110 = 0, "", V110/U110)))</f>
         <v/>
       </c>
@@ -11766,8 +13282,12 @@
         <f aca="true">IF(M111="", IF(O111="","",X111+(INDIRECT("S" &amp; ROW() - 1) - S111)),IF(O111="", "", INDIRECT("S" &amp; ROW() - 1) - S111))</f>
         <v/>
       </c>
-      <c r="M111" s="18"/>
-      <c r="N111" s="17" t="str">
+      <c r="K111" s="17" t="str">
+        <f aca="false">IF(H111="", "", IF(H111="-","",VLOOKUP(H111, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M111" s="19"/>
+      <c r="N111" s="18" t="str">
         <f aca="false">IF(M111="", IF(X111=0, "", X111), IF(V111 = "", "", IF(V111/U111 = 0, "", V111/U111)))</f>
         <v/>
       </c>
@@ -11813,8 +13333,12 @@
         <f aca="true">IF(M112="", IF(O112="","",X112+(INDIRECT("S" &amp; ROW() - 1) - S112)),IF(O112="", "", INDIRECT("S" &amp; ROW() - 1) - S112))</f>
         <v/>
       </c>
-      <c r="M112" s="18"/>
-      <c r="N112" s="17" t="str">
+      <c r="K112" s="17" t="str">
+        <f aca="false">IF(H112="", "", IF(H112="-","",VLOOKUP(H112, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M112" s="19"/>
+      <c r="N112" s="18" t="str">
         <f aca="false">IF(M112="", IF(X112=0, "", X112), IF(V112 = "", "", IF(V112/U112 = 0, "", V112/U112)))</f>
         <v/>
       </c>
@@ -11860,8 +13384,12 @@
         <f aca="true">IF(M113="", IF(O113="","",X113+(INDIRECT("S" &amp; ROW() - 1) - S113)),IF(O113="", "", INDIRECT("S" &amp; ROW() - 1) - S113))</f>
         <v/>
       </c>
-      <c r="M113" s="18"/>
-      <c r="N113" s="17" t="str">
+      <c r="K113" s="17" t="str">
+        <f aca="false">IF(H113="", "", IF(H113="-","",VLOOKUP(H113, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M113" s="19"/>
+      <c r="N113" s="18" t="str">
         <f aca="false">IF(M113="", IF(X113=0, "", X113), IF(V113 = "", "", IF(V113/U113 = 0, "", V113/U113)))</f>
         <v/>
       </c>
@@ -11907,8 +13435,12 @@
         <f aca="true">IF(M114="", IF(O114="","",X114+(INDIRECT("S" &amp; ROW() - 1) - S114)),IF(O114="", "", INDIRECT("S" &amp; ROW() - 1) - S114))</f>
         <v/>
       </c>
-      <c r="M114" s="18"/>
-      <c r="N114" s="17" t="str">
+      <c r="K114" s="17" t="str">
+        <f aca="false">IF(H114="", "", IF(H114="-","",VLOOKUP(H114, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M114" s="19"/>
+      <c r="N114" s="18" t="str">
         <f aca="false">IF(M114="", IF(X114=0, "", X114), IF(V114 = "", "", IF(V114/U114 = 0, "", V114/U114)))</f>
         <v/>
       </c>
@@ -11954,8 +13486,12 @@
         <f aca="true">IF(M115="", IF(O115="","",X115+(INDIRECT("S" &amp; ROW() - 1) - S115)),IF(O115="", "", INDIRECT("S" &amp; ROW() - 1) - S115))</f>
         <v/>
       </c>
-      <c r="M115" s="18"/>
-      <c r="N115" s="17" t="str">
+      <c r="K115" s="17" t="str">
+        <f aca="false">IF(H115="", "", IF(H115="-","",VLOOKUP(H115, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M115" s="19"/>
+      <c r="N115" s="18" t="str">
         <f aca="false">IF(M115="", IF(X115=0, "", X115), IF(V115 = "", "", IF(V115/U115 = 0, "", V115/U115)))</f>
         <v/>
       </c>
@@ -12001,8 +13537,12 @@
         <f aca="true">IF(M116="", IF(O116="","",X116+(INDIRECT("S" &amp; ROW() - 1) - S116)),IF(O116="", "", INDIRECT("S" &amp; ROW() - 1) - S116))</f>
         <v/>
       </c>
-      <c r="M116" s="18"/>
-      <c r="N116" s="17" t="str">
+      <c r="K116" s="17" t="str">
+        <f aca="false">IF(H116="", "", IF(H116="-","",VLOOKUP(H116, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M116" s="19"/>
+      <c r="N116" s="18" t="str">
         <f aca="false">IF(M116="", IF(X116=0, "", X116), IF(V116 = "", "", IF(V116/U116 = 0, "", V116/U116)))</f>
         <v/>
       </c>
@@ -12048,8 +13588,12 @@
         <f aca="true">IF(M117="", IF(O117="","",X117+(INDIRECT("S" &amp; ROW() - 1) - S117)),IF(O117="", "", INDIRECT("S" &amp; ROW() - 1) - S117))</f>
         <v/>
       </c>
-      <c r="M117" s="18"/>
-      <c r="N117" s="17" t="str">
+      <c r="K117" s="17" t="str">
+        <f aca="false">IF(H117="", "", IF(H117="-","",VLOOKUP(H117, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M117" s="19"/>
+      <c r="N117" s="18" t="str">
         <f aca="false">IF(M117="", IF(X117=0, "", X117), IF(V117 = "", "", IF(V117/U117 = 0, "", V117/U117)))</f>
         <v/>
       </c>
@@ -12095,8 +13639,12 @@
         <f aca="true">IF(M118="", IF(O118="","",X118+(INDIRECT("S" &amp; ROW() - 1) - S118)),IF(O118="", "", INDIRECT("S" &amp; ROW() - 1) - S118))</f>
         <v/>
       </c>
-      <c r="M118" s="18"/>
-      <c r="N118" s="17" t="str">
+      <c r="K118" s="17" t="str">
+        <f aca="false">IF(H118="", "", IF(H118="-","",VLOOKUP(H118, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M118" s="19"/>
+      <c r="N118" s="18" t="str">
         <f aca="false">IF(M118="", IF(X118=0, "", X118), IF(V118 = "", "", IF(V118/U118 = 0, "", V118/U118)))</f>
         <v/>
       </c>
@@ -12142,8 +13690,12 @@
         <f aca="true">IF(M119="", IF(O119="","",X119+(INDIRECT("S" &amp; ROW() - 1) - S119)),IF(O119="", "", INDIRECT("S" &amp; ROW() - 1) - S119))</f>
         <v/>
       </c>
-      <c r="M119" s="18"/>
-      <c r="N119" s="17" t="str">
+      <c r="K119" s="17" t="str">
+        <f aca="false">IF(H119="", "", IF(H119="-","",VLOOKUP(H119, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M119" s="19"/>
+      <c r="N119" s="18" t="str">
         <f aca="false">IF(M119="", IF(X119=0, "", X119), IF(V119 = "", "", IF(V119/U119 = 0, "", V119/U119)))</f>
         <v/>
       </c>
@@ -12189,8 +13741,12 @@
         <f aca="true">IF(M120="", IF(O120="","",X120+(INDIRECT("S" &amp; ROW() - 1) - S120)),IF(O120="", "", INDIRECT("S" &amp; ROW() - 1) - S120))</f>
         <v/>
       </c>
-      <c r="M120" s="18"/>
-      <c r="N120" s="17" t="str">
+      <c r="K120" s="17" t="str">
+        <f aca="false">IF(H120="", "", IF(H120="-","",VLOOKUP(H120, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M120" s="19"/>
+      <c r="N120" s="18" t="str">
         <f aca="false">IF(M120="", IF(X120=0, "", X120), IF(V120 = "", "", IF(V120/U120 = 0, "", V120/U120)))</f>
         <v/>
       </c>
@@ -12236,8 +13792,12 @@
         <f aca="true">IF(M121="", IF(O121="","",X121+(INDIRECT("S" &amp; ROW() - 1) - S121)),IF(O121="", "", INDIRECT("S" &amp; ROW() - 1) - S121))</f>
         <v/>
       </c>
-      <c r="M121" s="18"/>
-      <c r="N121" s="17" t="str">
+      <c r="K121" s="17" t="str">
+        <f aca="false">IF(H121="", "", IF(H121="-","",VLOOKUP(H121, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M121" s="19"/>
+      <c r="N121" s="18" t="str">
         <f aca="false">IF(M121="", IF(X121=0, "", X121), IF(V121 = "", "", IF(V121/U121 = 0, "", V121/U121)))</f>
         <v/>
       </c>
@@ -12283,8 +13843,12 @@
         <f aca="true">IF(M122="", IF(O122="","",X122+(INDIRECT("S" &amp; ROW() - 1) - S122)),IF(O122="", "", INDIRECT("S" &amp; ROW() - 1) - S122))</f>
         <v/>
       </c>
-      <c r="M122" s="18"/>
-      <c r="N122" s="17" t="str">
+      <c r="K122" s="17" t="str">
+        <f aca="false">IF(H122="", "", IF(H122="-","",VLOOKUP(H122, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+      <c r="M122" s="19"/>
+      <c r="N122" s="18" t="str">
         <f aca="false">IF(M122="", IF(X122=0, "", X122), IF(V122 = "", "", IF(V122/U122 = 0, "", V122/U122)))</f>
         <v/>
       </c>
@@ -12322,6 +13886,996 @@
       </c>
       <c r="X122" s="0" t="str">
         <f aca="true">IF(O122="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S122)/850, 0), 1) * 850)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K123" s="17" t="str">
+        <f aca="false">IF(H123="", "", IF(H123="-","",VLOOKUP(H123, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K124" s="17" t="str">
+        <f aca="false">IF(H124="", "", IF(H124="-","",VLOOKUP(H124, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K125" s="17" t="str">
+        <f aca="false">IF(H125="", "", IF(H125="-","",VLOOKUP(H125, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K126" s="17" t="str">
+        <f aca="false">IF(H126="", "", IF(H126="-","",VLOOKUP(H126, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K127" s="17" t="str">
+        <f aca="false">IF(H127="", "", IF(H127="-","",VLOOKUP(H127, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K128" s="17" t="str">
+        <f aca="false">IF(H128="", "", IF(H128="-","",VLOOKUP(H128, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K129" s="17" t="str">
+        <f aca="false">IF(H129="", "", IF(H129="-","",VLOOKUP(H129, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K130" s="17" t="str">
+        <f aca="false">IF(H130="", "", IF(H130="-","",VLOOKUP(H130, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K131" s="17" t="str">
+        <f aca="false">IF(H131="", "", IF(H131="-","",VLOOKUP(H131, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K132" s="17" t="str">
+        <f aca="false">IF(H132="", "", IF(H132="-","",VLOOKUP(H132, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K133" s="17" t="str">
+        <f aca="false">IF(H133="", "", IF(H133="-","",VLOOKUP(H133, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K134" s="17" t="str">
+        <f aca="false">IF(H134="", "", IF(H134="-","",VLOOKUP(H134, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K135" s="17" t="str">
+        <f aca="false">IF(H135="", "", IF(H135="-","",VLOOKUP(H135, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K136" s="17" t="str">
+        <f aca="false">IF(H136="", "", IF(H136="-","",VLOOKUP(H136, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K137" s="17" t="str">
+        <f aca="false">IF(H137="", "", IF(H137="-","",VLOOKUP(H137, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K138" s="17" t="str">
+        <f aca="false">IF(H138="", "", IF(H138="-","",VLOOKUP(H138, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K139" s="17" t="str">
+        <f aca="false">IF(H139="", "", IF(H139="-","",VLOOKUP(H139, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K140" s="17" t="str">
+        <f aca="false">IF(H140="", "", IF(H140="-","",VLOOKUP(H140, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K141" s="17" t="str">
+        <f aca="false">IF(H141="", "", IF(H141="-","",VLOOKUP(H141, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K142" s="17" t="str">
+        <f aca="false">IF(H142="", "", IF(H142="-","",VLOOKUP(H142, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K143" s="17" t="str">
+        <f aca="false">IF(H143="", "", IF(H143="-","",VLOOKUP(H143, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K144" s="17" t="str">
+        <f aca="false">IF(H144="", "", IF(H144="-","",VLOOKUP(H144, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K145" s="17" t="str">
+        <f aca="false">IF(H145="", "", IF(H145="-","",VLOOKUP(H145, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K146" s="17" t="str">
+        <f aca="false">IF(H146="", "", IF(H146="-","",VLOOKUP(H146, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K147" s="17" t="str">
+        <f aca="false">IF(H147="", "", IF(H147="-","",VLOOKUP(H147, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K148" s="17" t="str">
+        <f aca="false">IF(H148="", "", IF(H148="-","",VLOOKUP(H148, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K149" s="17" t="str">
+        <f aca="false">IF(H149="", "", IF(H149="-","",VLOOKUP(H149, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K150" s="17" t="str">
+        <f aca="false">IF(H150="", "", IF(H150="-","",VLOOKUP(H150, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K151" s="17" t="str">
+        <f aca="false">IF(H151="", "", IF(H151="-","",VLOOKUP(H151, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K152" s="17" t="str">
+        <f aca="false">IF(H152="", "", IF(H152="-","",VLOOKUP(H152, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K153" s="17" t="str">
+        <f aca="false">IF(H153="", "", IF(H153="-","",VLOOKUP(H153, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K154" s="17" t="str">
+        <f aca="false">IF(H154="", "", IF(H154="-","",VLOOKUP(H154, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K155" s="17" t="str">
+        <f aca="false">IF(H155="", "", IF(H155="-","",VLOOKUP(H155, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K156" s="17" t="str">
+        <f aca="false">IF(H156="", "", IF(H156="-","",VLOOKUP(H156, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K157" s="17" t="str">
+        <f aca="false">IF(H157="", "", IF(H157="-","",VLOOKUP(H157, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K158" s="17" t="str">
+        <f aca="false">IF(H158="", "", IF(H158="-","",VLOOKUP(H158, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K159" s="23" t="str">
+        <f aca="false">IF(H159="", "", IF(H159="-","",VLOOKUP(H159, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K160" s="23" t="str">
+        <f aca="false">IF(H160="", "", IF(H160="-","",VLOOKUP(H160, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K161" s="23" t="str">
+        <f aca="false">IF(H161="", "", IF(H161="-","",VLOOKUP(H161, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K162" s="23" t="str">
+        <f aca="false">IF(H162="", "", IF(H162="-","",VLOOKUP(H162, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K163" s="23" t="str">
+        <f aca="false">IF(H163="", "", IF(H163="-","",VLOOKUP(H163, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K164" s="0" t="str">
+        <f aca="false">IF(H164="", "", IF(H164="-","",VLOOKUP(H164, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K165" s="0" t="str">
+        <f aca="false">IF(H165="", "", IF(H165="-","",VLOOKUP(H165, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K166" s="0" t="str">
+        <f aca="false">IF(H166="", "", IF(H166="-","",VLOOKUP(H166, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K167" s="0" t="str">
+        <f aca="false">IF(H167="", "", IF(H167="-","",VLOOKUP(H167, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K168" s="0" t="str">
+        <f aca="false">IF(H168="", "", IF(H168="-","",VLOOKUP(H168, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K169" s="0" t="str">
+        <f aca="false">IF(H169="", "", IF(H169="-","",VLOOKUP(H169, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K170" s="0" t="str">
+        <f aca="false">IF(H170="", "", IF(H170="-","",VLOOKUP(H170, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K171" s="0" t="str">
+        <f aca="false">IF(H171="", "", IF(H171="-","",VLOOKUP(H171, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K172" s="0" t="str">
+        <f aca="false">IF(H172="", "", IF(H172="-","",VLOOKUP(H172, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K173" s="0" t="str">
+        <f aca="false">IF(H173="", "", IF(H173="-","",VLOOKUP(H173, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K174" s="0" t="str">
+        <f aca="false">IF(H174="", "", IF(H174="-","",VLOOKUP(H174, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K175" s="0" t="str">
+        <f aca="false">IF(H175="", "", IF(H175="-","",VLOOKUP(H175, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K176" s="0" t="str">
+        <f aca="false">IF(H176="", "", IF(H176="-","",VLOOKUP(H176, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K177" s="0" t="str">
+        <f aca="false">IF(H177="", "", IF(H177="-","",VLOOKUP(H177, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K178" s="0" t="str">
+        <f aca="false">IF(H178="", "", IF(H178="-","",VLOOKUP(H178, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K179" s="0" t="str">
+        <f aca="false">IF(H179="", "", IF(H179="-","",VLOOKUP(H179, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K180" s="0" t="str">
+        <f aca="false">IF(H180="", "", IF(H180="-","",VLOOKUP(H180, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K181" s="0" t="str">
+        <f aca="false">IF(H181="", "", IF(H181="-","",VLOOKUP(H181, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K182" s="0" t="str">
+        <f aca="false">IF(H182="", "", IF(H182="-","",VLOOKUP(H182, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K183" s="0" t="str">
+        <f aca="false">IF(H183="", "", IF(H183="-","",VLOOKUP(H183, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K184" s="0" t="str">
+        <f aca="false">IF(H184="", "", IF(H184="-","",VLOOKUP(H184, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K185" s="0" t="str">
+        <f aca="false">IF(H185="", "", IF(H185="-","",VLOOKUP(H185, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K186" s="0" t="str">
+        <f aca="false">IF(H186="", "", IF(H186="-","",VLOOKUP(H186, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K187" s="0" t="str">
+        <f aca="false">IF(H187="", "", IF(H187="-","",VLOOKUP(H187, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K188" s="0" t="str">
+        <f aca="false">IF(H188="", "", IF(H188="-","",VLOOKUP(H188, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K189" s="0" t="str">
+        <f aca="false">IF(H189="", "", IF(H189="-","",VLOOKUP(H189, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K190" s="0" t="str">
+        <f aca="false">IF(H190="", "", IF(H190="-","",VLOOKUP(H190, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K191" s="0" t="str">
+        <f aca="false">IF(H191="", "", IF(H191="-","",VLOOKUP(H191, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K192" s="0" t="str">
+        <f aca="false">IF(H192="", "", IF(H192="-","",VLOOKUP(H192, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K193" s="0" t="str">
+        <f aca="false">IF(H193="", "", IF(H193="-","",VLOOKUP(H193, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K194" s="0" t="str">
+        <f aca="false">IF(H194="", "", IF(H194="-","",VLOOKUP(H194, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K195" s="0" t="str">
+        <f aca="false">IF(H195="", "", IF(H195="-","",VLOOKUP(H195, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K196" s="0" t="str">
+        <f aca="false">IF(H196="", "", IF(H196="-","",VLOOKUP(H196, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K197" s="0" t="str">
+        <f aca="false">IF(H197="", "", IF(H197="-","",VLOOKUP(H197, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K198" s="0" t="str">
+        <f aca="false">IF(H198="", "", IF(H198="-","",VLOOKUP(H198, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K199" s="0" t="str">
+        <f aca="false">IF(H199="", "", IF(H199="-","",VLOOKUP(H199, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K200" s="0" t="str">
+        <f aca="false">IF(H200="", "", IF(H200="-","",VLOOKUP(H200, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K201" s="0" t="str">
+        <f aca="false">IF(H201="", "", IF(H201="-","",VLOOKUP(H201, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K202" s="0" t="str">
+        <f aca="false">IF(H202="", "", IF(H202="-","",VLOOKUP(H202, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K203" s="0" t="str">
+        <f aca="false">IF(H203="", "", IF(H203="-","",VLOOKUP(H203, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K204" s="0" t="str">
+        <f aca="false">IF(H204="", "", IF(H204="-","",VLOOKUP(H204, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K205" s="0" t="str">
+        <f aca="false">IF(H205="", "", IF(H205="-","",VLOOKUP(H205, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K206" s="0" t="str">
+        <f aca="false">IF(H206="", "", IF(H206="-","",VLOOKUP(H206, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K207" s="0" t="str">
+        <f aca="false">IF(H207="", "", IF(H207="-","",VLOOKUP(H207, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K208" s="0" t="str">
+        <f aca="false">IF(H208="", "", IF(H208="-","",VLOOKUP(H208, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K209" s="0" t="str">
+        <f aca="false">IF(H209="", "", IF(H209="-","",VLOOKUP(H209, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K210" s="0" t="str">
+        <f aca="false">IF(H210="", "", IF(H210="-","",VLOOKUP(H210, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K211" s="0" t="str">
+        <f aca="false">IF(H211="", "", IF(H211="-","",VLOOKUP(H211, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K212" s="0" t="str">
+        <f aca="false">IF(H212="", "", IF(H212="-","",VLOOKUP(H212, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K213" s="0" t="str">
+        <f aca="false">IF(H213="", "", IF(H213="-","",VLOOKUP(H213, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K214" s="0" t="str">
+        <f aca="false">IF(H214="", "", IF(H214="-","",VLOOKUP(H214, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K215" s="0" t="str">
+        <f aca="false">IF(H215="", "", IF(H215="-","",VLOOKUP(H215, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K216" s="0" t="str">
+        <f aca="false">IF(H216="", "", IF(H216="-","",VLOOKUP(H216, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K217" s="0" t="str">
+        <f aca="false">IF(H217="", "", IF(H217="-","",VLOOKUP(H217, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K218" s="0" t="str">
+        <f aca="false">IF(H218="", "", IF(H218="-","",VLOOKUP(H218, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K219" s="0" t="str">
+        <f aca="false">IF(H219="", "", IF(H219="-","",VLOOKUP(H219, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K220" s="0" t="str">
+        <f aca="false">IF(H220="", "", IF(H220="-","",VLOOKUP(H220, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K221" s="0" t="str">
+        <f aca="false">IF(H221="", "", IF(H221="-","",VLOOKUP(H221, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K222" s="0" t="str">
+        <f aca="false">IF(H222="", "", IF(H222="-","",VLOOKUP(H222, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K223" s="0" t="str">
+        <f aca="false">IF(H223="", "", IF(H223="-","",VLOOKUP(H223, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K224" s="0" t="str">
+        <f aca="false">IF(H224="", "", IF(H224="-","",VLOOKUP(H224, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K225" s="0" t="str">
+        <f aca="false">IF(H225="", "", IF(H225="-","",VLOOKUP(H225, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K226" s="0" t="str">
+        <f aca="false">IF(H226="", "", IF(H226="-","",VLOOKUP(H226, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K227" s="0" t="str">
+        <f aca="false">IF(H227="", "", IF(H227="-","",VLOOKUP(H227, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K228" s="0" t="str">
+        <f aca="false">IF(H228="", "", IF(H228="-","",VLOOKUP(H228, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K229" s="0" t="str">
+        <f aca="false">IF(H229="", "", IF(H229="-","",VLOOKUP(H229, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K230" s="0" t="str">
+        <f aca="false">IF(H230="", "", IF(H230="-","",VLOOKUP(H230, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K231" s="0" t="str">
+        <f aca="false">IF(H231="", "", IF(H231="-","",VLOOKUP(H231, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K232" s="0" t="str">
+        <f aca="false">IF(H232="", "", IF(H232="-","",VLOOKUP(H232, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K233" s="0" t="str">
+        <f aca="false">IF(H233="", "", IF(H233="-","",VLOOKUP(H233, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K234" s="0" t="str">
+        <f aca="false">IF(H234="", "", IF(H234="-","",VLOOKUP(H234, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K235" s="0" t="str">
+        <f aca="false">IF(H235="", "", IF(H235="-","",VLOOKUP(H235, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K236" s="0" t="str">
+        <f aca="false">IF(H236="", "", IF(H236="-","",VLOOKUP(H236, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K237" s="0" t="str">
+        <f aca="false">IF(H237="", "", IF(H237="-","",VLOOKUP(H237, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K238" s="0" t="str">
+        <f aca="false">IF(H238="", "", IF(H238="-","",VLOOKUP(H238, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K239" s="0" t="str">
+        <f aca="false">IF(H239="", "", IF(H239="-","",VLOOKUP(H239, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K240" s="0" t="str">
+        <f aca="false">IF(H240="", "", IF(H240="-","",VLOOKUP(H240, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K241" s="0" t="str">
+        <f aca="false">IF(H241="", "", IF(H241="-","",VLOOKUP(H241, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K242" s="0" t="str">
+        <f aca="false">IF(H242="", "", IF(H242="-","",VLOOKUP(H242, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K243" s="0" t="str">
+        <f aca="false">IF(H243="", "", IF(H243="-","",VLOOKUP(H243, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K244" s="0" t="str">
+        <f aca="false">IF(H244="", "", IF(H244="-","",VLOOKUP(H244, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K245" s="0" t="str">
+        <f aca="false">IF(H245="", "", IF(H245="-","",VLOOKUP(H245, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K246" s="0" t="str">
+        <f aca="false">IF(H246="", "", IF(H246="-","",VLOOKUP(H246, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K247" s="0" t="str">
+        <f aca="false">IF(H247="", "", IF(H247="-","",VLOOKUP(H247, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K248" s="0" t="str">
+        <f aca="false">IF(H248="", "", IF(H248="-","",VLOOKUP(H248, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K249" s="0" t="str">
+        <f aca="false">IF(H249="", "", IF(H249="-","",VLOOKUP(H249, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K250" s="0" t="str">
+        <f aca="false">IF(H250="", "", IF(H250="-","",VLOOKUP(H250, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K251" s="0" t="str">
+        <f aca="false">IF(H251="", "", IF(H251="-","",VLOOKUP(H251, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K252" s="0" t="str">
+        <f aca="false">IF(H252="", "", IF(H252="-","",VLOOKUP(H252, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K253" s="0" t="str">
+        <f aca="false">IF(H253="", "", IF(H253="-","",VLOOKUP(H253, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K254" s="0" t="str">
+        <f aca="false">IF(H254="", "", IF(H254="-","",VLOOKUP(H254, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K255" s="0" t="str">
+        <f aca="false">IF(H255="", "", IF(H255="-","",VLOOKUP(H255, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K256" s="0" t="str">
+        <f aca="false">IF(H256="", "", IF(H256="-","",VLOOKUP(H256, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K257" s="0" t="str">
+        <f aca="false">IF(H257="", "", IF(H257="-","",VLOOKUP(H257, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K258" s="0" t="str">
+        <f aca="false">IF(H258="", "", IF(H258="-","",VLOOKUP(H258, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K259" s="0" t="str">
+        <f aca="false">IF(H259="", "", IF(H259="-","",VLOOKUP(H259, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K260" s="0" t="str">
+        <f aca="false">IF(H260="", "", IF(H260="-","",VLOOKUP(H260, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K261" s="0" t="str">
+        <f aca="false">IF(H261="", "", IF(H261="-","",VLOOKUP(H261, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K262" s="0" t="str">
+        <f aca="false">IF(H262="", "", IF(H262="-","",VLOOKUP(H262, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K263" s="0" t="str">
+        <f aca="false">IF(H263="", "", IF(H263="-","",VLOOKUP(H263, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K264" s="0" t="str">
+        <f aca="false">IF(H264="", "", IF(H264="-","",VLOOKUP(H264, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K265" s="0" t="str">
+        <f aca="false">IF(H265="", "", IF(H265="-","",VLOOKUP(H265, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K266" s="0" t="str">
+        <f aca="false">IF(H266="", "", IF(H266="-","",VLOOKUP(H266, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K267" s="0" t="str">
+        <f aca="false">IF(H267="", "", IF(H267="-","",VLOOKUP(H267, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K268" s="0" t="str">
+        <f aca="false">IF(H268="", "", IF(H268="-","",VLOOKUP(H268, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K269" s="0" t="str">
+        <f aca="false">IF(H269="", "", IF(H269="-","",VLOOKUP(H269, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K270" s="0" t="str">
+        <f aca="false">IF(H270="", "", IF(H270="-","",VLOOKUP(H270, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K271" s="0" t="str">
+        <f aca="false">IF(H271="", "", IF(H271="-","",VLOOKUP(H271, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K272" s="0" t="str">
+        <f aca="false">IF(H272="", "", IF(H272="-","",VLOOKUP(H272, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K273" s="0" t="str">
+        <f aca="false">IF(H273="", "", IF(H273="-","",VLOOKUP(H273, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K274" s="0" t="str">
+        <f aca="false">IF(H274="", "", IF(H274="-","",VLOOKUP(H274, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K275" s="0" t="str">
+        <f aca="false">IF(H275="", "", IF(H275="-","",VLOOKUP(H275, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K276" s="0" t="str">
+        <f aca="false">IF(H276="", "", IF(H276="-","",VLOOKUP(H276, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K277" s="0" t="str">
+        <f aca="false">IF(H277="", "", IF(H277="-","",VLOOKUP(H277, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K278" s="0" t="str">
+        <f aca="false">IF(H278="", "", IF(H278="-","",VLOOKUP(H278, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K279" s="0" t="str">
+        <f aca="false">IF(H279="", "", IF(H279="-","",VLOOKUP(H279, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K280" s="0" t="str">
+        <f aca="false">IF(H280="", "", IF(H280="-","",VLOOKUP(H280, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K281" s="0" t="str">
+        <f aca="false">IF(H281="", "", IF(H281="-","",VLOOKUP(H281, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K282" s="0" t="str">
+        <f aca="false">IF(H282="", "", IF(H282="-","",VLOOKUP(H282, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K283" s="0" t="str">
+        <f aca="false">IF(H283="", "", IF(H283="-","",VLOOKUP(H283, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K284" s="0" t="str">
+        <f aca="false">IF(H284="", "", IF(H284="-","",VLOOKUP(H284, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K285" s="0" t="str">
+        <f aca="false">IF(H285="", "", IF(H285="-","",VLOOKUP(H285, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K286" s="0" t="str">
+        <f aca="false">IF(H286="", "", IF(H286="-","",VLOOKUP(H286, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K287" s="0" t="str">
+        <f aca="false">IF(H287="", "", IF(H287="-","",VLOOKUP(H287, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>

--- a/app/data/static/templates/constructor_mozzarella.xlsx
+++ b/app/data/static/templates/constructor_mozzarella.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="файл остатки" sheetId="1" state="visible" r:id="rId2"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
   <si>
     <t xml:space="preserve">Тип варки</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t xml:space="preserve">Нормативные остатки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Неучтенные остатки</t>
   </si>
   <si>
     <t xml:space="preserve">План производства</t>
@@ -596,30 +599,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="X15" activeCellId="0" sqref="X15"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="62.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="10.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="9.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="13" style="0" width="9.09"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="22" min="17" style="0" width="9.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="23" style="0" width="9.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="10.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="9.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="9.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="14" style="0" width="9.09"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="23" min="18" style="0" width="9.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="24" style="0" width="9.09"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -644,29 +647,32 @@
       <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="J1" s="3"/>
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O2" s="8" t="s">
+      <c r="P1" s="7" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P2" s="8" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -687,7 +693,7 @@
   </sheetPr>
   <dimension ref="A1:X220"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="16" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="Q1" activeCellId="0" sqref="Q1"/>
@@ -723,73 +729,73 @@
   <sheetData>
     <row r="1" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S1" s="13" t="n">
         <v>0</v>
       </c>
       <c r="T1" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U1" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V1" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="W1" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X1" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7615,7 +7621,7 @@
   </sheetPr>
   <dimension ref="A1:X287"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -7649,73 +7655,73 @@
   <sheetData>
     <row r="1" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N1" s="22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S1" s="13" t="n">
         <v>0</v>
       </c>
       <c r="T1" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U1" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V1" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="W1" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X1" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14950,17 +14956,17 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/static/templates/constructor_mozzarella.xlsx
+++ b/app/data/static/templates/constructor_mozzarella.xlsx
@@ -834,8 +834,8 @@
         <v/>
       </c>
       <c r="U2" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V2" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M2,",",REPT(" ",LEN($M2))), 0 *LEN($M2)+1,LEN($M2))) = "", "0", TRIM(MID(SUBSTITUTE($M2,",",REPT(" ",LEN($M2))),0 *LEN($M2)+1,LEN($M2))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M2,",",REPT(" ",LEN($M2))), 1 *LEN($M2)+1,LEN($M2))) = "", "0", TRIM(MID(SUBSTITUTE($M2,",",REPT(" ",LEN($M2))),1 *LEN($M2)+1,LEN($M2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M2,",",REPT(" ",LEN($M2))), 2 *LEN($M2)+1,LEN($M2))) = "", "0", TRIM(MID(SUBSTITUTE($M2,",",REPT(" ",LEN($M2))),2 *LEN($M2)+1,LEN($M2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M2,",",REPT(" ",LEN($M2))), 3 *LEN($M2)+1,LEN($M2))) = "", "0", TRIM(MID(SUBSTITUTE($M2,",",REPT(" ",LEN($M2))),3 *LEN($M2)+1,LEN($M2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M2,",",REPT(" ",LEN($M2))), 4 *LEN($M2)+1,LEN($M2))) = "", "0", TRIM(MID(SUBSTITUTE($M2,",",REPT(" ",LEN($M2))),4 *LEN($M2)+1,LEN($M2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M2,",",REPT(" ",LEN($M2))), 5 *LEN($M2)+1,LEN($M2))) = "", "0", TRIM(MID(SUBSTITUTE($M2,",",REPT(" ",LEN($M2))),5 *LEN($M2)+1,LEN($M2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M2,",",REPT(" ",LEN($M2))), 6 *LEN($M2)+1,LEN($M2))) = "", "0", TRIM(MID(SUBSTITUTE($M2,",",REPT(" ",LEN($M2))),6 *LEN($M2)+1,LEN($M2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M2,",",REPT(" ",LEN($M2))), 7 *LEN($M2)+1,LEN($M2))) = "", "0", TRIM(MID(SUBSTITUTE($M2,",",REPT(" ",LEN($M2))),7 *LEN($M2)+1,LEN($M2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M2,",",REPT(" ",LEN($M2))), 8 *LEN($M2)+1,LEN($M2))) = "", "0", TRIM(MID(SUBSTITUTE($M2,",",REPT(" ",LEN($M2))),8 *LEN($M2)+1,LEN($M2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M2,",",REPT(" ",LEN($M2))), 9 *LEN($M2)+1,LEN($M2))) = "", "0", TRIM(MID(SUBSTITUTE($M2,",",REPT(" ",LEN($M2))),9 *LEN($M2)+1,LEN($M2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M2,",",REPT(" ",LEN($M2))), 10 *LEN($M2)+1,LEN($M2))) = "", "0", TRIM(MID(SUBSTITUTE($M2,",",REPT(" ",LEN($M2))),10 *LEN($M2)+1,LEN($M2)))))</f>
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="X2" s="0" t="str">
-        <f aca="true">IF(O2="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S2)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O2="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S2)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -885,8 +885,8 @@
         <v/>
       </c>
       <c r="U3" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V3" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M3,",",REPT(" ",LEN($M3))), 0 *LEN($M3)+1,LEN($M3))) = "", "0", TRIM(MID(SUBSTITUTE($M3,",",REPT(" ",LEN($M3))),0 *LEN($M3)+1,LEN($M3))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M3,",",REPT(" ",LEN($M3))), 1 *LEN($M3)+1,LEN($M3))) = "", "0", TRIM(MID(SUBSTITUTE($M3,",",REPT(" ",LEN($M3))),1 *LEN($M3)+1,LEN($M3))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M3,",",REPT(" ",LEN($M3))), 2 *LEN($M3)+1,LEN($M3))) = "", "0", TRIM(MID(SUBSTITUTE($M3,",",REPT(" ",LEN($M3))),2 *LEN($M3)+1,LEN($M3))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M3,",",REPT(" ",LEN($M3))), 3 *LEN($M3)+1,LEN($M3))) = "", "0", TRIM(MID(SUBSTITUTE($M3,",",REPT(" ",LEN($M3))),3 *LEN($M3)+1,LEN($M3))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M3,",",REPT(" ",LEN($M3))), 4 *LEN($M3)+1,LEN($M3))) = "", "0", TRIM(MID(SUBSTITUTE($M3,",",REPT(" ",LEN($M3))),4 *LEN($M3)+1,LEN($M3))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M3,",",REPT(" ",LEN($M3))), 5 *LEN($M3)+1,LEN($M3))) = "", "0", TRIM(MID(SUBSTITUTE($M3,",",REPT(" ",LEN($M3))),5 *LEN($M3)+1,LEN($M3))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M3,",",REPT(" ",LEN($M3))), 6 *LEN($M3)+1,LEN($M3))) = "", "0", TRIM(MID(SUBSTITUTE($M3,",",REPT(" ",LEN($M3))),6 *LEN($M3)+1,LEN($M3))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M3,",",REPT(" ",LEN($M3))), 7 *LEN($M3)+1,LEN($M3))) = "", "0", TRIM(MID(SUBSTITUTE($M3,",",REPT(" ",LEN($M3))),7 *LEN($M3)+1,LEN($M3))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M3,",",REPT(" ",LEN($M3))), 8 *LEN($M3)+1,LEN($M3))) = "", "0", TRIM(MID(SUBSTITUTE($M3,",",REPT(" ",LEN($M3))),8 *LEN($M3)+1,LEN($M3))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M3,",",REPT(" ",LEN($M3))), 9 *LEN($M3)+1,LEN($M3))) = "", "0", TRIM(MID(SUBSTITUTE($M3,",",REPT(" ",LEN($M3))),9 *LEN($M3)+1,LEN($M3))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M3,",",REPT(" ",LEN($M3))), 10 *LEN($M3)+1,LEN($M3))) = "", "0", TRIM(MID(SUBSTITUTE($M3,",",REPT(" ",LEN($M3))),10 *LEN($M3)+1,LEN($M3)))))</f>
@@ -897,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="X3" s="0" t="str">
-        <f aca="true">IF(O3="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S3)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O3="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S3)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -936,8 +936,8 @@
         <v/>
       </c>
       <c r="U4" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V4" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M4,",",REPT(" ",LEN($M4))), 0 *LEN($M4)+1,LEN($M4))) = "", "0", TRIM(MID(SUBSTITUTE($M4,",",REPT(" ",LEN($M4))),0 *LEN($M4)+1,LEN($M4))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M4,",",REPT(" ",LEN($M4))), 1 *LEN($M4)+1,LEN($M4))) = "", "0", TRIM(MID(SUBSTITUTE($M4,",",REPT(" ",LEN($M4))),1 *LEN($M4)+1,LEN($M4))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M4,",",REPT(" ",LEN($M4))), 2 *LEN($M4)+1,LEN($M4))) = "", "0", TRIM(MID(SUBSTITUTE($M4,",",REPT(" ",LEN($M4))),2 *LEN($M4)+1,LEN($M4))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M4,",",REPT(" ",LEN($M4))), 3 *LEN($M4)+1,LEN($M4))) = "", "0", TRIM(MID(SUBSTITUTE($M4,",",REPT(" ",LEN($M4))),3 *LEN($M4)+1,LEN($M4))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M4,",",REPT(" ",LEN($M4))), 4 *LEN($M4)+1,LEN($M4))) = "", "0", TRIM(MID(SUBSTITUTE($M4,",",REPT(" ",LEN($M4))),4 *LEN($M4)+1,LEN($M4))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M4,",",REPT(" ",LEN($M4))), 5 *LEN($M4)+1,LEN($M4))) = "", "0", TRIM(MID(SUBSTITUTE($M4,",",REPT(" ",LEN($M4))),5 *LEN($M4)+1,LEN($M4))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M4,",",REPT(" ",LEN($M4))), 6 *LEN($M4)+1,LEN($M4))) = "", "0", TRIM(MID(SUBSTITUTE($M4,",",REPT(" ",LEN($M4))),6 *LEN($M4)+1,LEN($M4))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M4,",",REPT(" ",LEN($M4))), 7 *LEN($M4)+1,LEN($M4))) = "", "0", TRIM(MID(SUBSTITUTE($M4,",",REPT(" ",LEN($M4))),7 *LEN($M4)+1,LEN($M4))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M4,",",REPT(" ",LEN($M4))), 8 *LEN($M4)+1,LEN($M4))) = "", "0", TRIM(MID(SUBSTITUTE($M4,",",REPT(" ",LEN($M4))),8 *LEN($M4)+1,LEN($M4))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M4,",",REPT(" ",LEN($M4))), 9 *LEN($M4)+1,LEN($M4))) = "", "0", TRIM(MID(SUBSTITUTE($M4,",",REPT(" ",LEN($M4))),9 *LEN($M4)+1,LEN($M4))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M4,",",REPT(" ",LEN($M4))), 10 *LEN($M4)+1,LEN($M4))) = "", "0", TRIM(MID(SUBSTITUTE($M4,",",REPT(" ",LEN($M4))),10 *LEN($M4)+1,LEN($M4)))))</f>
@@ -948,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="X4" s="0" t="str">
-        <f aca="true">IF(O4="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S4)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O4="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S4)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -987,8 +987,8 @@
         <v/>
       </c>
       <c r="U5" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V5" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M5,",",REPT(" ",LEN($M5))), 0 *LEN($M5)+1,LEN($M5))) = "", "0", TRIM(MID(SUBSTITUTE($M5,",",REPT(" ",LEN($M5))),0 *LEN($M5)+1,LEN($M5))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M5,",",REPT(" ",LEN($M5))), 1 *LEN($M5)+1,LEN($M5))) = "", "0", TRIM(MID(SUBSTITUTE($M5,",",REPT(" ",LEN($M5))),1 *LEN($M5)+1,LEN($M5))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M5,",",REPT(" ",LEN($M5))), 2 *LEN($M5)+1,LEN($M5))) = "", "0", TRIM(MID(SUBSTITUTE($M5,",",REPT(" ",LEN($M5))),2 *LEN($M5)+1,LEN($M5))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M5,",",REPT(" ",LEN($M5))), 3 *LEN($M5)+1,LEN($M5))) = "", "0", TRIM(MID(SUBSTITUTE($M5,",",REPT(" ",LEN($M5))),3 *LEN($M5)+1,LEN($M5))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M5,",",REPT(" ",LEN($M5))), 4 *LEN($M5)+1,LEN($M5))) = "", "0", TRIM(MID(SUBSTITUTE($M5,",",REPT(" ",LEN($M5))),4 *LEN($M5)+1,LEN($M5))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M5,",",REPT(" ",LEN($M5))), 5 *LEN($M5)+1,LEN($M5))) = "", "0", TRIM(MID(SUBSTITUTE($M5,",",REPT(" ",LEN($M5))),5 *LEN($M5)+1,LEN($M5))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M5,",",REPT(" ",LEN($M5))), 6 *LEN($M5)+1,LEN($M5))) = "", "0", TRIM(MID(SUBSTITUTE($M5,",",REPT(" ",LEN($M5))),6 *LEN($M5)+1,LEN($M5))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M5,",",REPT(" ",LEN($M5))), 7 *LEN($M5)+1,LEN($M5))) = "", "0", TRIM(MID(SUBSTITUTE($M5,",",REPT(" ",LEN($M5))),7 *LEN($M5)+1,LEN($M5))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M5,",",REPT(" ",LEN($M5))), 8 *LEN($M5)+1,LEN($M5))) = "", "0", TRIM(MID(SUBSTITUTE($M5,",",REPT(" ",LEN($M5))),8 *LEN($M5)+1,LEN($M5))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M5,",",REPT(" ",LEN($M5))), 9 *LEN($M5)+1,LEN($M5))) = "", "0", TRIM(MID(SUBSTITUTE($M5,",",REPT(" ",LEN($M5))),9 *LEN($M5)+1,LEN($M5))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M5,",",REPT(" ",LEN($M5))), 10 *LEN($M5)+1,LEN($M5))) = "", "0", TRIM(MID(SUBSTITUTE($M5,",",REPT(" ",LEN($M5))),10 *LEN($M5)+1,LEN($M5)))))</f>
@@ -999,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="X5" s="0" t="str">
-        <f aca="true">IF(O5="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S5)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O5="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S5)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -1038,8 +1038,8 @@
         <v/>
       </c>
       <c r="U6" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V6" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M6,",",REPT(" ",LEN($M6))), 0 *LEN($M6)+1,LEN($M6))) = "", "0", TRIM(MID(SUBSTITUTE($M6,",",REPT(" ",LEN($M6))),0 *LEN($M6)+1,LEN($M6))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M6,",",REPT(" ",LEN($M6))), 1 *LEN($M6)+1,LEN($M6))) = "", "0", TRIM(MID(SUBSTITUTE($M6,",",REPT(" ",LEN($M6))),1 *LEN($M6)+1,LEN($M6))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M6,",",REPT(" ",LEN($M6))), 2 *LEN($M6)+1,LEN($M6))) = "", "0", TRIM(MID(SUBSTITUTE($M6,",",REPT(" ",LEN($M6))),2 *LEN($M6)+1,LEN($M6))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M6,",",REPT(" ",LEN($M6))), 3 *LEN($M6)+1,LEN($M6))) = "", "0", TRIM(MID(SUBSTITUTE($M6,",",REPT(" ",LEN($M6))),3 *LEN($M6)+1,LEN($M6))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M6,",",REPT(" ",LEN($M6))), 4 *LEN($M6)+1,LEN($M6))) = "", "0", TRIM(MID(SUBSTITUTE($M6,",",REPT(" ",LEN($M6))),4 *LEN($M6)+1,LEN($M6))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M6,",",REPT(" ",LEN($M6))), 5 *LEN($M6)+1,LEN($M6))) = "", "0", TRIM(MID(SUBSTITUTE($M6,",",REPT(" ",LEN($M6))),5 *LEN($M6)+1,LEN($M6))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M6,",",REPT(" ",LEN($M6))), 6 *LEN($M6)+1,LEN($M6))) = "", "0", TRIM(MID(SUBSTITUTE($M6,",",REPT(" ",LEN($M6))),6 *LEN($M6)+1,LEN($M6))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M6,",",REPT(" ",LEN($M6))), 7 *LEN($M6)+1,LEN($M6))) = "", "0", TRIM(MID(SUBSTITUTE($M6,",",REPT(" ",LEN($M6))),7 *LEN($M6)+1,LEN($M6))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M6,",",REPT(" ",LEN($M6))), 8 *LEN($M6)+1,LEN($M6))) = "", "0", TRIM(MID(SUBSTITUTE($M6,",",REPT(" ",LEN($M6))),8 *LEN($M6)+1,LEN($M6))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M6,",",REPT(" ",LEN($M6))), 9 *LEN($M6)+1,LEN($M6))) = "", "0", TRIM(MID(SUBSTITUTE($M6,",",REPT(" ",LEN($M6))),9 *LEN($M6)+1,LEN($M6))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M6,",",REPT(" ",LEN($M6))), 10 *LEN($M6)+1,LEN($M6))) = "", "0", TRIM(MID(SUBSTITUTE($M6,",",REPT(" ",LEN($M6))),10 *LEN($M6)+1,LEN($M6)))))</f>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="X6" s="0" t="str">
-        <f aca="true">IF(O6="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S6)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O6="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S6)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -1089,8 +1089,8 @@
         <v/>
       </c>
       <c r="U7" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V7" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))), 0 *LEN($M7)+1,LEN($M7))) = "", "0", TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))),0 *LEN($M7)+1,LEN($M7))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))), 1 *LEN($M7)+1,LEN($M7))) = "", "0", TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))),1 *LEN($M7)+1,LEN($M7))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))), 2 *LEN($M7)+1,LEN($M7))) = "", "0", TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))),2 *LEN($M7)+1,LEN($M7))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))), 3 *LEN($M7)+1,LEN($M7))) = "", "0", TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))),3 *LEN($M7)+1,LEN($M7))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))), 4 *LEN($M7)+1,LEN($M7))) = "", "0", TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))),4 *LEN($M7)+1,LEN($M7))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))), 5 *LEN($M7)+1,LEN($M7))) = "", "0", TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))),5 *LEN($M7)+1,LEN($M7))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))), 6 *LEN($M7)+1,LEN($M7))) = "", "0", TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))),6 *LEN($M7)+1,LEN($M7))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))), 7 *LEN($M7)+1,LEN($M7))) = "", "0", TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))),7 *LEN($M7)+1,LEN($M7))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))), 8 *LEN($M7)+1,LEN($M7))) = "", "0", TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))),8 *LEN($M7)+1,LEN($M7))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))), 9 *LEN($M7)+1,LEN($M7))) = "", "0", TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))),9 *LEN($M7)+1,LEN($M7))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))), 10 *LEN($M7)+1,LEN($M7))) = "", "0", TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))),10 *LEN($M7)+1,LEN($M7)))))</f>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="X7" s="0" t="str">
-        <f aca="true">IF(O7="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S7)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O7="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S7)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -1140,8 +1140,8 @@
         <v/>
       </c>
       <c r="U8" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V8" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))), 0 *LEN($M8)+1,LEN($M8))) = "", "0", TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))),0 *LEN($M8)+1,LEN($M8))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))), 1 *LEN($M8)+1,LEN($M8))) = "", "0", TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))),1 *LEN($M8)+1,LEN($M8))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))), 2 *LEN($M8)+1,LEN($M8))) = "", "0", TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))),2 *LEN($M8)+1,LEN($M8))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))), 3 *LEN($M8)+1,LEN($M8))) = "", "0", TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))),3 *LEN($M8)+1,LEN($M8))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))), 4 *LEN($M8)+1,LEN($M8))) = "", "0", TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))),4 *LEN($M8)+1,LEN($M8))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))), 5 *LEN($M8)+1,LEN($M8))) = "", "0", TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))),5 *LEN($M8)+1,LEN($M8))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))), 6 *LEN($M8)+1,LEN($M8))) = "", "0", TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))),6 *LEN($M8)+1,LEN($M8))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))), 7 *LEN($M8)+1,LEN($M8))) = "", "0", TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))),7 *LEN($M8)+1,LEN($M8))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))), 8 *LEN($M8)+1,LEN($M8))) = "", "0", TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))),8 *LEN($M8)+1,LEN($M8))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))), 9 *LEN($M8)+1,LEN($M8))) = "", "0", TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))),9 *LEN($M8)+1,LEN($M8))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))), 10 *LEN($M8)+1,LEN($M8))) = "", "0", TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))),10 *LEN($M8)+1,LEN($M8)))))</f>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="X8" s="0" t="str">
-        <f aca="true">IF(O8="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S8)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O8="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S8)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -1191,8 +1191,8 @@
         <v/>
       </c>
       <c r="U9" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V9" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))), 0 *LEN($M9)+1,LEN($M9))) = "", "0", TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))),0 *LEN($M9)+1,LEN($M9))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))), 1 *LEN($M9)+1,LEN($M9))) = "", "0", TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))),1 *LEN($M9)+1,LEN($M9))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))), 2 *LEN($M9)+1,LEN($M9))) = "", "0", TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))),2 *LEN($M9)+1,LEN($M9))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))), 3 *LEN($M9)+1,LEN($M9))) = "", "0", TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))),3 *LEN($M9)+1,LEN($M9))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))), 4 *LEN($M9)+1,LEN($M9))) = "", "0", TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))),4 *LEN($M9)+1,LEN($M9))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))), 5 *LEN($M9)+1,LEN($M9))) = "", "0", TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))),5 *LEN($M9)+1,LEN($M9))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))), 6 *LEN($M9)+1,LEN($M9))) = "", "0", TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))),6 *LEN($M9)+1,LEN($M9))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))), 7 *LEN($M9)+1,LEN($M9))) = "", "0", TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))),7 *LEN($M9)+1,LEN($M9))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))), 8 *LEN($M9)+1,LEN($M9))) = "", "0", TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))),8 *LEN($M9)+1,LEN($M9))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))), 9 *LEN($M9)+1,LEN($M9))) = "", "0", TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))),9 *LEN($M9)+1,LEN($M9))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))), 10 *LEN($M9)+1,LEN($M9))) = "", "0", TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))),10 *LEN($M9)+1,LEN($M9)))))</f>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="X9" s="0" t="str">
-        <f aca="true">IF(O9="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S9)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O9="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S9)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -1242,8 +1242,8 @@
         <v/>
       </c>
       <c r="U10" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V10" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M10,",",REPT(" ",LEN($M10))), 0 *LEN($M10)+1,LEN($M10))) = "", "0", TRIM(MID(SUBSTITUTE($M10,",",REPT(" ",LEN($M10))),0 *LEN($M10)+1,LEN($M10))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M10,",",REPT(" ",LEN($M10))), 1 *LEN($M10)+1,LEN($M10))) = "", "0", TRIM(MID(SUBSTITUTE($M10,",",REPT(" ",LEN($M10))),1 *LEN($M10)+1,LEN($M10))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M10,",",REPT(" ",LEN($M10))), 2 *LEN($M10)+1,LEN($M10))) = "", "0", TRIM(MID(SUBSTITUTE($M10,",",REPT(" ",LEN($M10))),2 *LEN($M10)+1,LEN($M10))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M10,",",REPT(" ",LEN($M10))), 3 *LEN($M10)+1,LEN($M10))) = "", "0", TRIM(MID(SUBSTITUTE($M10,",",REPT(" ",LEN($M10))),3 *LEN($M10)+1,LEN($M10))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M10,",",REPT(" ",LEN($M10))), 4 *LEN($M10)+1,LEN($M10))) = "", "0", TRIM(MID(SUBSTITUTE($M10,",",REPT(" ",LEN($M10))),4 *LEN($M10)+1,LEN($M10))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M10,",",REPT(" ",LEN($M10))), 5 *LEN($M10)+1,LEN($M10))) = "", "0", TRIM(MID(SUBSTITUTE($M10,",",REPT(" ",LEN($M10))),5 *LEN($M10)+1,LEN($M10))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M10,",",REPT(" ",LEN($M10))), 6 *LEN($M10)+1,LEN($M10))) = "", "0", TRIM(MID(SUBSTITUTE($M10,",",REPT(" ",LEN($M10))),6 *LEN($M10)+1,LEN($M10))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M10,",",REPT(" ",LEN($M10))), 7 *LEN($M10)+1,LEN($M10))) = "", "0", TRIM(MID(SUBSTITUTE($M10,",",REPT(" ",LEN($M10))),7 *LEN($M10)+1,LEN($M10))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M10,",",REPT(" ",LEN($M10))), 8 *LEN($M10)+1,LEN($M10))) = "", "0", TRIM(MID(SUBSTITUTE($M10,",",REPT(" ",LEN($M10))),8 *LEN($M10)+1,LEN($M10))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M10,",",REPT(" ",LEN($M10))), 9 *LEN($M10)+1,LEN($M10))) = "", "0", TRIM(MID(SUBSTITUTE($M10,",",REPT(" ",LEN($M10))),9 *LEN($M10)+1,LEN($M10))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M10,",",REPT(" ",LEN($M10))), 10 *LEN($M10)+1,LEN($M10))) = "", "0", TRIM(MID(SUBSTITUTE($M10,",",REPT(" ",LEN($M10))),10 *LEN($M10)+1,LEN($M10)))))</f>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="X10" s="0" t="str">
-        <f aca="true">IF(O10="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S10)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O10="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S10)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -1293,8 +1293,8 @@
         <v/>
       </c>
       <c r="U11" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V11" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M11,",",REPT(" ",LEN($M11))), 0 *LEN($M11)+1,LEN($M11))) = "", "0", TRIM(MID(SUBSTITUTE($M11,",",REPT(" ",LEN($M11))),0 *LEN($M11)+1,LEN($M11))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M11,",",REPT(" ",LEN($M11))), 1 *LEN($M11)+1,LEN($M11))) = "", "0", TRIM(MID(SUBSTITUTE($M11,",",REPT(" ",LEN($M11))),1 *LEN($M11)+1,LEN($M11))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M11,",",REPT(" ",LEN($M11))), 2 *LEN($M11)+1,LEN($M11))) = "", "0", TRIM(MID(SUBSTITUTE($M11,",",REPT(" ",LEN($M11))),2 *LEN($M11)+1,LEN($M11))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M11,",",REPT(" ",LEN($M11))), 3 *LEN($M11)+1,LEN($M11))) = "", "0", TRIM(MID(SUBSTITUTE($M11,",",REPT(" ",LEN($M11))),3 *LEN($M11)+1,LEN($M11))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M11,",",REPT(" ",LEN($M11))), 4 *LEN($M11)+1,LEN($M11))) = "", "0", TRIM(MID(SUBSTITUTE($M11,",",REPT(" ",LEN($M11))),4 *LEN($M11)+1,LEN($M11))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M11,",",REPT(" ",LEN($M11))), 5 *LEN($M11)+1,LEN($M11))) = "", "0", TRIM(MID(SUBSTITUTE($M11,",",REPT(" ",LEN($M11))),5 *LEN($M11)+1,LEN($M11))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M11,",",REPT(" ",LEN($M11))), 6 *LEN($M11)+1,LEN($M11))) = "", "0", TRIM(MID(SUBSTITUTE($M11,",",REPT(" ",LEN($M11))),6 *LEN($M11)+1,LEN($M11))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M11,",",REPT(" ",LEN($M11))), 7 *LEN($M11)+1,LEN($M11))) = "", "0", TRIM(MID(SUBSTITUTE($M11,",",REPT(" ",LEN($M11))),7 *LEN($M11)+1,LEN($M11))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M11,",",REPT(" ",LEN($M11))), 8 *LEN($M11)+1,LEN($M11))) = "", "0", TRIM(MID(SUBSTITUTE($M11,",",REPT(" ",LEN($M11))),8 *LEN($M11)+1,LEN($M11))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M11,",",REPT(" ",LEN($M11))), 9 *LEN($M11)+1,LEN($M11))) = "", "0", TRIM(MID(SUBSTITUTE($M11,",",REPT(" ",LEN($M11))),9 *LEN($M11)+1,LEN($M11))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M11,",",REPT(" ",LEN($M11))), 10 *LEN($M11)+1,LEN($M11))) = "", "0", TRIM(MID(SUBSTITUTE($M11,",",REPT(" ",LEN($M11))),10 *LEN($M11)+1,LEN($M11)))))</f>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="X11" s="0" t="str">
-        <f aca="true">IF(O11="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S11)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O11="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S11)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -1344,8 +1344,8 @@
         <v/>
       </c>
       <c r="U12" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V12" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M12,",",REPT(" ",LEN($M12))), 0 *LEN($M12)+1,LEN($M12))) = "", "0", TRIM(MID(SUBSTITUTE($M12,",",REPT(" ",LEN($M12))),0 *LEN($M12)+1,LEN($M12))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M12,",",REPT(" ",LEN($M12))), 1 *LEN($M12)+1,LEN($M12))) = "", "0", TRIM(MID(SUBSTITUTE($M12,",",REPT(" ",LEN($M12))),1 *LEN($M12)+1,LEN($M12))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M12,",",REPT(" ",LEN($M12))), 2 *LEN($M12)+1,LEN($M12))) = "", "0", TRIM(MID(SUBSTITUTE($M12,",",REPT(" ",LEN($M12))),2 *LEN($M12)+1,LEN($M12))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M12,",",REPT(" ",LEN($M12))), 3 *LEN($M12)+1,LEN($M12))) = "", "0", TRIM(MID(SUBSTITUTE($M12,",",REPT(" ",LEN($M12))),3 *LEN($M12)+1,LEN($M12))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M12,",",REPT(" ",LEN($M12))), 4 *LEN($M12)+1,LEN($M12))) = "", "0", TRIM(MID(SUBSTITUTE($M12,",",REPT(" ",LEN($M12))),4 *LEN($M12)+1,LEN($M12))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M12,",",REPT(" ",LEN($M12))), 5 *LEN($M12)+1,LEN($M12))) = "", "0", TRIM(MID(SUBSTITUTE($M12,",",REPT(" ",LEN($M12))),5 *LEN($M12)+1,LEN($M12))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M12,",",REPT(" ",LEN($M12))), 6 *LEN($M12)+1,LEN($M12))) = "", "0", TRIM(MID(SUBSTITUTE($M12,",",REPT(" ",LEN($M12))),6 *LEN($M12)+1,LEN($M12))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M12,",",REPT(" ",LEN($M12))), 7 *LEN($M12)+1,LEN($M12))) = "", "0", TRIM(MID(SUBSTITUTE($M12,",",REPT(" ",LEN($M12))),7 *LEN($M12)+1,LEN($M12))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M12,",",REPT(" ",LEN($M12))), 8 *LEN($M12)+1,LEN($M12))) = "", "0", TRIM(MID(SUBSTITUTE($M12,",",REPT(" ",LEN($M12))),8 *LEN($M12)+1,LEN($M12))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M12,",",REPT(" ",LEN($M12))), 9 *LEN($M12)+1,LEN($M12))) = "", "0", TRIM(MID(SUBSTITUTE($M12,",",REPT(" ",LEN($M12))),9 *LEN($M12)+1,LEN($M12))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M12,",",REPT(" ",LEN($M12))), 10 *LEN($M12)+1,LEN($M12))) = "", "0", TRIM(MID(SUBSTITUTE($M12,",",REPT(" ",LEN($M12))),10 *LEN($M12)+1,LEN($M12)))))</f>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X12" s="0" t="str">
-        <f aca="true">IF(O12="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S12)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O12="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S12)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -1395,8 +1395,8 @@
         <v/>
       </c>
       <c r="U13" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V13" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M13,",",REPT(" ",LEN($M13))), 0 *LEN($M13)+1,LEN($M13))) = "", "0", TRIM(MID(SUBSTITUTE($M13,",",REPT(" ",LEN($M13))),0 *LEN($M13)+1,LEN($M13))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M13,",",REPT(" ",LEN($M13))), 1 *LEN($M13)+1,LEN($M13))) = "", "0", TRIM(MID(SUBSTITUTE($M13,",",REPT(" ",LEN($M13))),1 *LEN($M13)+1,LEN($M13))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M13,",",REPT(" ",LEN($M13))), 2 *LEN($M13)+1,LEN($M13))) = "", "0", TRIM(MID(SUBSTITUTE($M13,",",REPT(" ",LEN($M13))),2 *LEN($M13)+1,LEN($M13))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M13,",",REPT(" ",LEN($M13))), 3 *LEN($M13)+1,LEN($M13))) = "", "0", TRIM(MID(SUBSTITUTE($M13,",",REPT(" ",LEN($M13))),3 *LEN($M13)+1,LEN($M13))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M13,",",REPT(" ",LEN($M13))), 4 *LEN($M13)+1,LEN($M13))) = "", "0", TRIM(MID(SUBSTITUTE($M13,",",REPT(" ",LEN($M13))),4 *LEN($M13)+1,LEN($M13))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M13,",",REPT(" ",LEN($M13))), 5 *LEN($M13)+1,LEN($M13))) = "", "0", TRIM(MID(SUBSTITUTE($M13,",",REPT(" ",LEN($M13))),5 *LEN($M13)+1,LEN($M13))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M13,",",REPT(" ",LEN($M13))), 6 *LEN($M13)+1,LEN($M13))) = "", "0", TRIM(MID(SUBSTITUTE($M13,",",REPT(" ",LEN($M13))),6 *LEN($M13)+1,LEN($M13))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M13,",",REPT(" ",LEN($M13))), 7 *LEN($M13)+1,LEN($M13))) = "", "0", TRIM(MID(SUBSTITUTE($M13,",",REPT(" ",LEN($M13))),7 *LEN($M13)+1,LEN($M13))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M13,",",REPT(" ",LEN($M13))), 8 *LEN($M13)+1,LEN($M13))) = "", "0", TRIM(MID(SUBSTITUTE($M13,",",REPT(" ",LEN($M13))),8 *LEN($M13)+1,LEN($M13))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M13,",",REPT(" ",LEN($M13))), 9 *LEN($M13)+1,LEN($M13))) = "", "0", TRIM(MID(SUBSTITUTE($M13,",",REPT(" ",LEN($M13))),9 *LEN($M13)+1,LEN($M13))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M13,",",REPT(" ",LEN($M13))), 10 *LEN($M13)+1,LEN($M13))) = "", "0", TRIM(MID(SUBSTITUTE($M13,",",REPT(" ",LEN($M13))),10 *LEN($M13)+1,LEN($M13)))))</f>
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="X13" s="0" t="str">
-        <f aca="true">IF(O13="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S13)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O13="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S13)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -1446,8 +1446,8 @@
         <v/>
       </c>
       <c r="U14" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V14" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M14,",",REPT(" ",LEN($M14))), 0 *LEN($M14)+1,LEN($M14))) = "", "0", TRIM(MID(SUBSTITUTE($M14,",",REPT(" ",LEN($M14))),0 *LEN($M14)+1,LEN($M14))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M14,",",REPT(" ",LEN($M14))), 1 *LEN($M14)+1,LEN($M14))) = "", "0", TRIM(MID(SUBSTITUTE($M14,",",REPT(" ",LEN($M14))),1 *LEN($M14)+1,LEN($M14))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M14,",",REPT(" ",LEN($M14))), 2 *LEN($M14)+1,LEN($M14))) = "", "0", TRIM(MID(SUBSTITUTE($M14,",",REPT(" ",LEN($M14))),2 *LEN($M14)+1,LEN($M14))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M14,",",REPT(" ",LEN($M14))), 3 *LEN($M14)+1,LEN($M14))) = "", "0", TRIM(MID(SUBSTITUTE($M14,",",REPT(" ",LEN($M14))),3 *LEN($M14)+1,LEN($M14))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M14,",",REPT(" ",LEN($M14))), 4 *LEN($M14)+1,LEN($M14))) = "", "0", TRIM(MID(SUBSTITUTE($M14,",",REPT(" ",LEN($M14))),4 *LEN($M14)+1,LEN($M14))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M14,",",REPT(" ",LEN($M14))), 5 *LEN($M14)+1,LEN($M14))) = "", "0", TRIM(MID(SUBSTITUTE($M14,",",REPT(" ",LEN($M14))),5 *LEN($M14)+1,LEN($M14))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M14,",",REPT(" ",LEN($M14))), 6 *LEN($M14)+1,LEN($M14))) = "", "0", TRIM(MID(SUBSTITUTE($M14,",",REPT(" ",LEN($M14))),6 *LEN($M14)+1,LEN($M14))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M14,",",REPT(" ",LEN($M14))), 7 *LEN($M14)+1,LEN($M14))) = "", "0", TRIM(MID(SUBSTITUTE($M14,",",REPT(" ",LEN($M14))),7 *LEN($M14)+1,LEN($M14))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M14,",",REPT(" ",LEN($M14))), 8 *LEN($M14)+1,LEN($M14))) = "", "0", TRIM(MID(SUBSTITUTE($M14,",",REPT(" ",LEN($M14))),8 *LEN($M14)+1,LEN($M14))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M14,",",REPT(" ",LEN($M14))), 9 *LEN($M14)+1,LEN($M14))) = "", "0", TRIM(MID(SUBSTITUTE($M14,",",REPT(" ",LEN($M14))),9 *LEN($M14)+1,LEN($M14))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M14,",",REPT(" ",LEN($M14))), 10 *LEN($M14)+1,LEN($M14))) = "", "0", TRIM(MID(SUBSTITUTE($M14,",",REPT(" ",LEN($M14))),10 *LEN($M14)+1,LEN($M14)))))</f>
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="X14" s="0" t="str">
-        <f aca="true">IF(O14="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S14)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O14="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S14)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -1497,8 +1497,8 @@
         <v/>
       </c>
       <c r="U15" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V15" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M15,",",REPT(" ",LEN($M15))), 0 *LEN($M15)+1,LEN($M15))) = "", "0", TRIM(MID(SUBSTITUTE($M15,",",REPT(" ",LEN($M15))),0 *LEN($M15)+1,LEN($M15))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M15,",",REPT(" ",LEN($M15))), 1 *LEN($M15)+1,LEN($M15))) = "", "0", TRIM(MID(SUBSTITUTE($M15,",",REPT(" ",LEN($M15))),1 *LEN($M15)+1,LEN($M15))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M15,",",REPT(" ",LEN($M15))), 2 *LEN($M15)+1,LEN($M15))) = "", "0", TRIM(MID(SUBSTITUTE($M15,",",REPT(" ",LEN($M15))),2 *LEN($M15)+1,LEN($M15))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M15,",",REPT(" ",LEN($M15))), 3 *LEN($M15)+1,LEN($M15))) = "", "0", TRIM(MID(SUBSTITUTE($M15,",",REPT(" ",LEN($M15))),3 *LEN($M15)+1,LEN($M15))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M15,",",REPT(" ",LEN($M15))), 4 *LEN($M15)+1,LEN($M15))) = "", "0", TRIM(MID(SUBSTITUTE($M15,",",REPT(" ",LEN($M15))),4 *LEN($M15)+1,LEN($M15))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M15,",",REPT(" ",LEN($M15))), 5 *LEN($M15)+1,LEN($M15))) = "", "0", TRIM(MID(SUBSTITUTE($M15,",",REPT(" ",LEN($M15))),5 *LEN($M15)+1,LEN($M15))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M15,",",REPT(" ",LEN($M15))), 6 *LEN($M15)+1,LEN($M15))) = "", "0", TRIM(MID(SUBSTITUTE($M15,",",REPT(" ",LEN($M15))),6 *LEN($M15)+1,LEN($M15))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M15,",",REPT(" ",LEN($M15))), 7 *LEN($M15)+1,LEN($M15))) = "", "0", TRIM(MID(SUBSTITUTE($M15,",",REPT(" ",LEN($M15))),7 *LEN($M15)+1,LEN($M15))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M15,",",REPT(" ",LEN($M15))), 8 *LEN($M15)+1,LEN($M15))) = "", "0", TRIM(MID(SUBSTITUTE($M15,",",REPT(" ",LEN($M15))),8 *LEN($M15)+1,LEN($M15))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M15,",",REPT(" ",LEN($M15))), 9 *LEN($M15)+1,LEN($M15))) = "", "0", TRIM(MID(SUBSTITUTE($M15,",",REPT(" ",LEN($M15))),9 *LEN($M15)+1,LEN($M15))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M15,",",REPT(" ",LEN($M15))), 10 *LEN($M15)+1,LEN($M15))) = "", "0", TRIM(MID(SUBSTITUTE($M15,",",REPT(" ",LEN($M15))),10 *LEN($M15)+1,LEN($M15)))))</f>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="X15" s="0" t="str">
-        <f aca="true">IF(O15="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S15)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O15="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S15)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -1548,8 +1548,8 @@
         <v/>
       </c>
       <c r="U16" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V16" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M16,",",REPT(" ",LEN($M16))), 0 *LEN($M16)+1,LEN($M16))) = "", "0", TRIM(MID(SUBSTITUTE($M16,",",REPT(" ",LEN($M16))),0 *LEN($M16)+1,LEN($M16))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M16,",",REPT(" ",LEN($M16))), 1 *LEN($M16)+1,LEN($M16))) = "", "0", TRIM(MID(SUBSTITUTE($M16,",",REPT(" ",LEN($M16))),1 *LEN($M16)+1,LEN($M16))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M16,",",REPT(" ",LEN($M16))), 2 *LEN($M16)+1,LEN($M16))) = "", "0", TRIM(MID(SUBSTITUTE($M16,",",REPT(" ",LEN($M16))),2 *LEN($M16)+1,LEN($M16))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M16,",",REPT(" ",LEN($M16))), 3 *LEN($M16)+1,LEN($M16))) = "", "0", TRIM(MID(SUBSTITUTE($M16,",",REPT(" ",LEN($M16))),3 *LEN($M16)+1,LEN($M16))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M16,",",REPT(" ",LEN($M16))), 4 *LEN($M16)+1,LEN($M16))) = "", "0", TRIM(MID(SUBSTITUTE($M16,",",REPT(" ",LEN($M16))),4 *LEN($M16)+1,LEN($M16))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M16,",",REPT(" ",LEN($M16))), 5 *LEN($M16)+1,LEN($M16))) = "", "0", TRIM(MID(SUBSTITUTE($M16,",",REPT(" ",LEN($M16))),5 *LEN($M16)+1,LEN($M16))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M16,",",REPT(" ",LEN($M16))), 6 *LEN($M16)+1,LEN($M16))) = "", "0", TRIM(MID(SUBSTITUTE($M16,",",REPT(" ",LEN($M16))),6 *LEN($M16)+1,LEN($M16))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M16,",",REPT(" ",LEN($M16))), 7 *LEN($M16)+1,LEN($M16))) = "", "0", TRIM(MID(SUBSTITUTE($M16,",",REPT(" ",LEN($M16))),7 *LEN($M16)+1,LEN($M16))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M16,",",REPT(" ",LEN($M16))), 8 *LEN($M16)+1,LEN($M16))) = "", "0", TRIM(MID(SUBSTITUTE($M16,",",REPT(" ",LEN($M16))),8 *LEN($M16)+1,LEN($M16))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M16,",",REPT(" ",LEN($M16))), 9 *LEN($M16)+1,LEN($M16))) = "", "0", TRIM(MID(SUBSTITUTE($M16,",",REPT(" ",LEN($M16))),9 *LEN($M16)+1,LEN($M16))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M16,",",REPT(" ",LEN($M16))), 10 *LEN($M16)+1,LEN($M16))) = "", "0", TRIM(MID(SUBSTITUTE($M16,",",REPT(" ",LEN($M16))),10 *LEN($M16)+1,LEN($M16)))))</f>
@@ -1560,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="X16" s="0" t="str">
-        <f aca="true">IF(O16="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S16)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O16="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S16)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -1599,8 +1599,8 @@
         <v/>
       </c>
       <c r="U17" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V17" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M17,",",REPT(" ",LEN($M17))), 0 *LEN($M17)+1,LEN($M17))) = "", "0", TRIM(MID(SUBSTITUTE($M17,",",REPT(" ",LEN($M17))),0 *LEN($M17)+1,LEN($M17))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M17,",",REPT(" ",LEN($M17))), 1 *LEN($M17)+1,LEN($M17))) = "", "0", TRIM(MID(SUBSTITUTE($M17,",",REPT(" ",LEN($M17))),1 *LEN($M17)+1,LEN($M17))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M17,",",REPT(" ",LEN($M17))), 2 *LEN($M17)+1,LEN($M17))) = "", "0", TRIM(MID(SUBSTITUTE($M17,",",REPT(" ",LEN($M17))),2 *LEN($M17)+1,LEN($M17))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M17,",",REPT(" ",LEN($M17))), 3 *LEN($M17)+1,LEN($M17))) = "", "0", TRIM(MID(SUBSTITUTE($M17,",",REPT(" ",LEN($M17))),3 *LEN($M17)+1,LEN($M17))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M17,",",REPT(" ",LEN($M17))), 4 *LEN($M17)+1,LEN($M17))) = "", "0", TRIM(MID(SUBSTITUTE($M17,",",REPT(" ",LEN($M17))),4 *LEN($M17)+1,LEN($M17))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M17,",",REPT(" ",LEN($M17))), 5 *LEN($M17)+1,LEN($M17))) = "", "0", TRIM(MID(SUBSTITUTE($M17,",",REPT(" ",LEN($M17))),5 *LEN($M17)+1,LEN($M17))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M17,",",REPT(" ",LEN($M17))), 6 *LEN($M17)+1,LEN($M17))) = "", "0", TRIM(MID(SUBSTITUTE($M17,",",REPT(" ",LEN($M17))),6 *LEN($M17)+1,LEN($M17))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M17,",",REPT(" ",LEN($M17))), 7 *LEN($M17)+1,LEN($M17))) = "", "0", TRIM(MID(SUBSTITUTE($M17,",",REPT(" ",LEN($M17))),7 *LEN($M17)+1,LEN($M17))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M17,",",REPT(" ",LEN($M17))), 8 *LEN($M17)+1,LEN($M17))) = "", "0", TRIM(MID(SUBSTITUTE($M17,",",REPT(" ",LEN($M17))),8 *LEN($M17)+1,LEN($M17))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M17,",",REPT(" ",LEN($M17))), 9 *LEN($M17)+1,LEN($M17))) = "", "0", TRIM(MID(SUBSTITUTE($M17,",",REPT(" ",LEN($M17))),9 *LEN($M17)+1,LEN($M17))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M17,",",REPT(" ",LEN($M17))), 10 *LEN($M17)+1,LEN($M17))) = "", "0", TRIM(MID(SUBSTITUTE($M17,",",REPT(" ",LEN($M17))),10 *LEN($M17)+1,LEN($M17)))))</f>
@@ -1611,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="X17" s="0" t="str">
-        <f aca="true">IF(O17="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S17)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O17="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S17)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -1650,8 +1650,8 @@
         <v/>
       </c>
       <c r="U18" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V18" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M18,",",REPT(" ",LEN($M18))), 0 *LEN($M18)+1,LEN($M18))) = "", "0", TRIM(MID(SUBSTITUTE($M18,",",REPT(" ",LEN($M18))),0 *LEN($M18)+1,LEN($M18))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M18,",",REPT(" ",LEN($M18))), 1 *LEN($M18)+1,LEN($M18))) = "", "0", TRIM(MID(SUBSTITUTE($M18,",",REPT(" ",LEN($M18))),1 *LEN($M18)+1,LEN($M18))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M18,",",REPT(" ",LEN($M18))), 2 *LEN($M18)+1,LEN($M18))) = "", "0", TRIM(MID(SUBSTITUTE($M18,",",REPT(" ",LEN($M18))),2 *LEN($M18)+1,LEN($M18))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M18,",",REPT(" ",LEN($M18))), 3 *LEN($M18)+1,LEN($M18))) = "", "0", TRIM(MID(SUBSTITUTE($M18,",",REPT(" ",LEN($M18))),3 *LEN($M18)+1,LEN($M18))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M18,",",REPT(" ",LEN($M18))), 4 *LEN($M18)+1,LEN($M18))) = "", "0", TRIM(MID(SUBSTITUTE($M18,",",REPT(" ",LEN($M18))),4 *LEN($M18)+1,LEN($M18))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M18,",",REPT(" ",LEN($M18))), 5 *LEN($M18)+1,LEN($M18))) = "", "0", TRIM(MID(SUBSTITUTE($M18,",",REPT(" ",LEN($M18))),5 *LEN($M18)+1,LEN($M18))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M18,",",REPT(" ",LEN($M18))), 6 *LEN($M18)+1,LEN($M18))) = "", "0", TRIM(MID(SUBSTITUTE($M18,",",REPT(" ",LEN($M18))),6 *LEN($M18)+1,LEN($M18))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M18,",",REPT(" ",LEN($M18))), 7 *LEN($M18)+1,LEN($M18))) = "", "0", TRIM(MID(SUBSTITUTE($M18,",",REPT(" ",LEN($M18))),7 *LEN($M18)+1,LEN($M18))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M18,",",REPT(" ",LEN($M18))), 8 *LEN($M18)+1,LEN($M18))) = "", "0", TRIM(MID(SUBSTITUTE($M18,",",REPT(" ",LEN($M18))),8 *LEN($M18)+1,LEN($M18))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M18,",",REPT(" ",LEN($M18))), 9 *LEN($M18)+1,LEN($M18))) = "", "0", TRIM(MID(SUBSTITUTE($M18,",",REPT(" ",LEN($M18))),9 *LEN($M18)+1,LEN($M18))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M18,",",REPT(" ",LEN($M18))), 10 *LEN($M18)+1,LEN($M18))) = "", "0", TRIM(MID(SUBSTITUTE($M18,",",REPT(" ",LEN($M18))),10 *LEN($M18)+1,LEN($M18)))))</f>
@@ -1662,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="X18" s="0" t="str">
-        <f aca="true">IF(O18="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S18)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O18="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S18)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -1701,8 +1701,8 @@
         <v/>
       </c>
       <c r="U19" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V19" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M19,",",REPT(" ",LEN($M19))), 0 *LEN($M19)+1,LEN($M19))) = "", "0", TRIM(MID(SUBSTITUTE($M19,",",REPT(" ",LEN($M19))),0 *LEN($M19)+1,LEN($M19))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M19,",",REPT(" ",LEN($M19))), 1 *LEN($M19)+1,LEN($M19))) = "", "0", TRIM(MID(SUBSTITUTE($M19,",",REPT(" ",LEN($M19))),1 *LEN($M19)+1,LEN($M19))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M19,",",REPT(" ",LEN($M19))), 2 *LEN($M19)+1,LEN($M19))) = "", "0", TRIM(MID(SUBSTITUTE($M19,",",REPT(" ",LEN($M19))),2 *LEN($M19)+1,LEN($M19))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M19,",",REPT(" ",LEN($M19))), 3 *LEN($M19)+1,LEN($M19))) = "", "0", TRIM(MID(SUBSTITUTE($M19,",",REPT(" ",LEN($M19))),3 *LEN($M19)+1,LEN($M19))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M19,",",REPT(" ",LEN($M19))), 4 *LEN($M19)+1,LEN($M19))) = "", "0", TRIM(MID(SUBSTITUTE($M19,",",REPT(" ",LEN($M19))),4 *LEN($M19)+1,LEN($M19))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M19,",",REPT(" ",LEN($M19))), 5 *LEN($M19)+1,LEN($M19))) = "", "0", TRIM(MID(SUBSTITUTE($M19,",",REPT(" ",LEN($M19))),5 *LEN($M19)+1,LEN($M19))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M19,",",REPT(" ",LEN($M19))), 6 *LEN($M19)+1,LEN($M19))) = "", "0", TRIM(MID(SUBSTITUTE($M19,",",REPT(" ",LEN($M19))),6 *LEN($M19)+1,LEN($M19))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M19,",",REPT(" ",LEN($M19))), 7 *LEN($M19)+1,LEN($M19))) = "", "0", TRIM(MID(SUBSTITUTE($M19,",",REPT(" ",LEN($M19))),7 *LEN($M19)+1,LEN($M19))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M19,",",REPT(" ",LEN($M19))), 8 *LEN($M19)+1,LEN($M19))) = "", "0", TRIM(MID(SUBSTITUTE($M19,",",REPT(" ",LEN($M19))),8 *LEN($M19)+1,LEN($M19))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M19,",",REPT(" ",LEN($M19))), 9 *LEN($M19)+1,LEN($M19))) = "", "0", TRIM(MID(SUBSTITUTE($M19,",",REPT(" ",LEN($M19))),9 *LEN($M19)+1,LEN($M19))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M19,",",REPT(" ",LEN($M19))), 10 *LEN($M19)+1,LEN($M19))) = "", "0", TRIM(MID(SUBSTITUTE($M19,",",REPT(" ",LEN($M19))),10 *LEN($M19)+1,LEN($M19)))))</f>
@@ -1713,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="X19" s="0" t="str">
-        <f aca="true">IF(O19="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S19)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O19="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S19)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -1752,8 +1752,8 @@
         <v/>
       </c>
       <c r="U20" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V20" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))), 0 *LEN($M20)+1,LEN($M20))) = "", "0", TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))),0 *LEN($M20)+1,LEN($M20))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))), 1 *LEN($M20)+1,LEN($M20))) = "", "0", TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))),1 *LEN($M20)+1,LEN($M20))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))), 2 *LEN($M20)+1,LEN($M20))) = "", "0", TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))),2 *LEN($M20)+1,LEN($M20))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))), 3 *LEN($M20)+1,LEN($M20))) = "", "0", TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))),3 *LEN($M20)+1,LEN($M20))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))), 4 *LEN($M20)+1,LEN($M20))) = "", "0", TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))),4 *LEN($M20)+1,LEN($M20))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))), 5 *LEN($M20)+1,LEN($M20))) = "", "0", TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))),5 *LEN($M20)+1,LEN($M20))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))), 6 *LEN($M20)+1,LEN($M20))) = "", "0", TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))),6 *LEN($M20)+1,LEN($M20))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))), 7 *LEN($M20)+1,LEN($M20))) = "", "0", TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))),7 *LEN($M20)+1,LEN($M20))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))), 8 *LEN($M20)+1,LEN($M20))) = "", "0", TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))),8 *LEN($M20)+1,LEN($M20))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))), 9 *LEN($M20)+1,LEN($M20))) = "", "0", TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))),9 *LEN($M20)+1,LEN($M20))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))), 10 *LEN($M20)+1,LEN($M20))) = "", "0", TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))),10 *LEN($M20)+1,LEN($M20)))))</f>
@@ -1764,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="X20" s="0" t="str">
-        <f aca="true">IF(O20="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S20)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O20="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S20)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -1803,8 +1803,8 @@
         <v/>
       </c>
       <c r="U21" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V21" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M21,",",REPT(" ",LEN($M21))), 0 *LEN($M21)+1,LEN($M21))) = "", "0", TRIM(MID(SUBSTITUTE($M21,",",REPT(" ",LEN($M21))),0 *LEN($M21)+1,LEN($M21))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M21,",",REPT(" ",LEN($M21))), 1 *LEN($M21)+1,LEN($M21))) = "", "0", TRIM(MID(SUBSTITUTE($M21,",",REPT(" ",LEN($M21))),1 *LEN($M21)+1,LEN($M21))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M21,",",REPT(" ",LEN($M21))), 2 *LEN($M21)+1,LEN($M21))) = "", "0", TRIM(MID(SUBSTITUTE($M21,",",REPT(" ",LEN($M21))),2 *LEN($M21)+1,LEN($M21))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M21,",",REPT(" ",LEN($M21))), 3 *LEN($M21)+1,LEN($M21))) = "", "0", TRIM(MID(SUBSTITUTE($M21,",",REPT(" ",LEN($M21))),3 *LEN($M21)+1,LEN($M21))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M21,",",REPT(" ",LEN($M21))), 4 *LEN($M21)+1,LEN($M21))) = "", "0", TRIM(MID(SUBSTITUTE($M21,",",REPT(" ",LEN($M21))),4 *LEN($M21)+1,LEN($M21))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M21,",",REPT(" ",LEN($M21))), 5 *LEN($M21)+1,LEN($M21))) = "", "0", TRIM(MID(SUBSTITUTE($M21,",",REPT(" ",LEN($M21))),5 *LEN($M21)+1,LEN($M21))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M21,",",REPT(" ",LEN($M21))), 6 *LEN($M21)+1,LEN($M21))) = "", "0", TRIM(MID(SUBSTITUTE($M21,",",REPT(" ",LEN($M21))),6 *LEN($M21)+1,LEN($M21))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M21,",",REPT(" ",LEN($M21))), 7 *LEN($M21)+1,LEN($M21))) = "", "0", TRIM(MID(SUBSTITUTE($M21,",",REPT(" ",LEN($M21))),7 *LEN($M21)+1,LEN($M21))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M21,",",REPT(" ",LEN($M21))), 8 *LEN($M21)+1,LEN($M21))) = "", "0", TRIM(MID(SUBSTITUTE($M21,",",REPT(" ",LEN($M21))),8 *LEN($M21)+1,LEN($M21))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M21,",",REPT(" ",LEN($M21))), 9 *LEN($M21)+1,LEN($M21))) = "", "0", TRIM(MID(SUBSTITUTE($M21,",",REPT(" ",LEN($M21))),9 *LEN($M21)+1,LEN($M21))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M21,",",REPT(" ",LEN($M21))), 10 *LEN($M21)+1,LEN($M21))) = "", "0", TRIM(MID(SUBSTITUTE($M21,",",REPT(" ",LEN($M21))),10 *LEN($M21)+1,LEN($M21)))))</f>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="X21" s="0" t="str">
-        <f aca="true">IF(O21="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S21)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O21="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S21)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -1854,8 +1854,8 @@
         <v/>
       </c>
       <c r="U22" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V22" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))), 0 *LEN($M22)+1,LEN($M22))) = "", "0", TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))),0 *LEN($M22)+1,LEN($M22))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))), 1 *LEN($M22)+1,LEN($M22))) = "", "0", TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))),1 *LEN($M22)+1,LEN($M22))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))), 2 *LEN($M22)+1,LEN($M22))) = "", "0", TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))),2 *LEN($M22)+1,LEN($M22))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))), 3 *LEN($M22)+1,LEN($M22))) = "", "0", TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))),3 *LEN($M22)+1,LEN($M22))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))), 4 *LEN($M22)+1,LEN($M22))) = "", "0", TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))),4 *LEN($M22)+1,LEN($M22))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))), 5 *LEN($M22)+1,LEN($M22))) = "", "0", TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))),5 *LEN($M22)+1,LEN($M22))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))), 6 *LEN($M22)+1,LEN($M22))) = "", "0", TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))),6 *LEN($M22)+1,LEN($M22))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))), 7 *LEN($M22)+1,LEN($M22))) = "", "0", TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))),7 *LEN($M22)+1,LEN($M22))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))), 8 *LEN($M22)+1,LEN($M22))) = "", "0", TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))),8 *LEN($M22)+1,LEN($M22))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))), 9 *LEN($M22)+1,LEN($M22))) = "", "0", TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))),9 *LEN($M22)+1,LEN($M22))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))), 10 *LEN($M22)+1,LEN($M22))) = "", "0", TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))),10 *LEN($M22)+1,LEN($M22)))))</f>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="X22" s="0" t="str">
-        <f aca="true">IF(O22="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S22)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O22="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S22)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -1905,8 +1905,8 @@
         <v/>
       </c>
       <c r="U23" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V23" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))), 0 *LEN($M23)+1,LEN($M23))) = "", "0", TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))),0 *LEN($M23)+1,LEN($M23))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))), 1 *LEN($M23)+1,LEN($M23))) = "", "0", TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))),1 *LEN($M23)+1,LEN($M23))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))), 2 *LEN($M23)+1,LEN($M23))) = "", "0", TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))),2 *LEN($M23)+1,LEN($M23))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))), 3 *LEN($M23)+1,LEN($M23))) = "", "0", TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))),3 *LEN($M23)+1,LEN($M23))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))), 4 *LEN($M23)+1,LEN($M23))) = "", "0", TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))),4 *LEN($M23)+1,LEN($M23))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))), 5 *LEN($M23)+1,LEN($M23))) = "", "0", TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))),5 *LEN($M23)+1,LEN($M23))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))), 6 *LEN($M23)+1,LEN($M23))) = "", "0", TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))),6 *LEN($M23)+1,LEN($M23))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))), 7 *LEN($M23)+1,LEN($M23))) = "", "0", TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))),7 *LEN($M23)+1,LEN($M23))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))), 8 *LEN($M23)+1,LEN($M23))) = "", "0", TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))),8 *LEN($M23)+1,LEN($M23))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))), 9 *LEN($M23)+1,LEN($M23))) = "", "0", TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))),9 *LEN($M23)+1,LEN($M23))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))), 10 *LEN($M23)+1,LEN($M23))) = "", "0", TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))),10 *LEN($M23)+1,LEN($M23)))))</f>
@@ -1917,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="X23" s="0" t="str">
-        <f aca="true">IF(O23="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S23)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O23="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S23)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -1956,8 +1956,8 @@
         <v/>
       </c>
       <c r="U24" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V24" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M24,",",REPT(" ",LEN($M24))), 0 *LEN($M24)+1,LEN($M24))) = "", "0", TRIM(MID(SUBSTITUTE($M24,",",REPT(" ",LEN($M24))),0 *LEN($M24)+1,LEN($M24))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M24,",",REPT(" ",LEN($M24))), 1 *LEN($M24)+1,LEN($M24))) = "", "0", TRIM(MID(SUBSTITUTE($M24,",",REPT(" ",LEN($M24))),1 *LEN($M24)+1,LEN($M24))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M24,",",REPT(" ",LEN($M24))), 2 *LEN($M24)+1,LEN($M24))) = "", "0", TRIM(MID(SUBSTITUTE($M24,",",REPT(" ",LEN($M24))),2 *LEN($M24)+1,LEN($M24))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M24,",",REPT(" ",LEN($M24))), 3 *LEN($M24)+1,LEN($M24))) = "", "0", TRIM(MID(SUBSTITUTE($M24,",",REPT(" ",LEN($M24))),3 *LEN($M24)+1,LEN($M24))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M24,",",REPT(" ",LEN($M24))), 4 *LEN($M24)+1,LEN($M24))) = "", "0", TRIM(MID(SUBSTITUTE($M24,",",REPT(" ",LEN($M24))),4 *LEN($M24)+1,LEN($M24))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M24,",",REPT(" ",LEN($M24))), 5 *LEN($M24)+1,LEN($M24))) = "", "0", TRIM(MID(SUBSTITUTE($M24,",",REPT(" ",LEN($M24))),5 *LEN($M24)+1,LEN($M24))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M24,",",REPT(" ",LEN($M24))), 6 *LEN($M24)+1,LEN($M24))) = "", "0", TRIM(MID(SUBSTITUTE($M24,",",REPT(" ",LEN($M24))),6 *LEN($M24)+1,LEN($M24))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M24,",",REPT(" ",LEN($M24))), 7 *LEN($M24)+1,LEN($M24))) = "", "0", TRIM(MID(SUBSTITUTE($M24,",",REPT(" ",LEN($M24))),7 *LEN($M24)+1,LEN($M24))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M24,",",REPT(" ",LEN($M24))), 8 *LEN($M24)+1,LEN($M24))) = "", "0", TRIM(MID(SUBSTITUTE($M24,",",REPT(" ",LEN($M24))),8 *LEN($M24)+1,LEN($M24))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M24,",",REPT(" ",LEN($M24))), 9 *LEN($M24)+1,LEN($M24))) = "", "0", TRIM(MID(SUBSTITUTE($M24,",",REPT(" ",LEN($M24))),9 *LEN($M24)+1,LEN($M24))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M24,",",REPT(" ",LEN($M24))), 10 *LEN($M24)+1,LEN($M24))) = "", "0", TRIM(MID(SUBSTITUTE($M24,",",REPT(" ",LEN($M24))),10 *LEN($M24)+1,LEN($M24)))))</f>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="X24" s="0" t="str">
-        <f aca="true">IF(O24="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S24)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O24="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S24)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -2007,8 +2007,8 @@
         <v/>
       </c>
       <c r="U25" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V25" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M25,",",REPT(" ",LEN($M25))), 0 *LEN($M25)+1,LEN($M25))) = "", "0", TRIM(MID(SUBSTITUTE($M25,",",REPT(" ",LEN($M25))),0 *LEN($M25)+1,LEN($M25))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M25,",",REPT(" ",LEN($M25))), 1 *LEN($M25)+1,LEN($M25))) = "", "0", TRIM(MID(SUBSTITUTE($M25,",",REPT(" ",LEN($M25))),1 *LEN($M25)+1,LEN($M25))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M25,",",REPT(" ",LEN($M25))), 2 *LEN($M25)+1,LEN($M25))) = "", "0", TRIM(MID(SUBSTITUTE($M25,",",REPT(" ",LEN($M25))),2 *LEN($M25)+1,LEN($M25))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M25,",",REPT(" ",LEN($M25))), 3 *LEN($M25)+1,LEN($M25))) = "", "0", TRIM(MID(SUBSTITUTE($M25,",",REPT(" ",LEN($M25))),3 *LEN($M25)+1,LEN($M25))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M25,",",REPT(" ",LEN($M25))), 4 *LEN($M25)+1,LEN($M25))) = "", "0", TRIM(MID(SUBSTITUTE($M25,",",REPT(" ",LEN($M25))),4 *LEN($M25)+1,LEN($M25))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M25,",",REPT(" ",LEN($M25))), 5 *LEN($M25)+1,LEN($M25))) = "", "0", TRIM(MID(SUBSTITUTE($M25,",",REPT(" ",LEN($M25))),5 *LEN($M25)+1,LEN($M25))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M25,",",REPT(" ",LEN($M25))), 6 *LEN($M25)+1,LEN($M25))) = "", "0", TRIM(MID(SUBSTITUTE($M25,",",REPT(" ",LEN($M25))),6 *LEN($M25)+1,LEN($M25))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M25,",",REPT(" ",LEN($M25))), 7 *LEN($M25)+1,LEN($M25))) = "", "0", TRIM(MID(SUBSTITUTE($M25,",",REPT(" ",LEN($M25))),7 *LEN($M25)+1,LEN($M25))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M25,",",REPT(" ",LEN($M25))), 8 *LEN($M25)+1,LEN($M25))) = "", "0", TRIM(MID(SUBSTITUTE($M25,",",REPT(" ",LEN($M25))),8 *LEN($M25)+1,LEN($M25))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M25,",",REPT(" ",LEN($M25))), 9 *LEN($M25)+1,LEN($M25))) = "", "0", TRIM(MID(SUBSTITUTE($M25,",",REPT(" ",LEN($M25))),9 *LEN($M25)+1,LEN($M25))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M25,",",REPT(" ",LEN($M25))), 10 *LEN($M25)+1,LEN($M25))) = "", "0", TRIM(MID(SUBSTITUTE($M25,",",REPT(" ",LEN($M25))),10 *LEN($M25)+1,LEN($M25)))))</f>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="X25" s="0" t="str">
-        <f aca="true">IF(O25="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S25)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O25="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S25)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -2058,8 +2058,8 @@
         <v/>
       </c>
       <c r="U26" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V26" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M26,",",REPT(" ",LEN($M26))), 0 *LEN($M26)+1,LEN($M26))) = "", "0", TRIM(MID(SUBSTITUTE($M26,",",REPT(" ",LEN($M26))),0 *LEN($M26)+1,LEN($M26))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M26,",",REPT(" ",LEN($M26))), 1 *LEN($M26)+1,LEN($M26))) = "", "0", TRIM(MID(SUBSTITUTE($M26,",",REPT(" ",LEN($M26))),1 *LEN($M26)+1,LEN($M26))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M26,",",REPT(" ",LEN($M26))), 2 *LEN($M26)+1,LEN($M26))) = "", "0", TRIM(MID(SUBSTITUTE($M26,",",REPT(" ",LEN($M26))),2 *LEN($M26)+1,LEN($M26))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M26,",",REPT(" ",LEN($M26))), 3 *LEN($M26)+1,LEN($M26))) = "", "0", TRIM(MID(SUBSTITUTE($M26,",",REPT(" ",LEN($M26))),3 *LEN($M26)+1,LEN($M26))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M26,",",REPT(" ",LEN($M26))), 4 *LEN($M26)+1,LEN($M26))) = "", "0", TRIM(MID(SUBSTITUTE($M26,",",REPT(" ",LEN($M26))),4 *LEN($M26)+1,LEN($M26))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M26,",",REPT(" ",LEN($M26))), 5 *LEN($M26)+1,LEN($M26))) = "", "0", TRIM(MID(SUBSTITUTE($M26,",",REPT(" ",LEN($M26))),5 *LEN($M26)+1,LEN($M26))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M26,",",REPT(" ",LEN($M26))), 6 *LEN($M26)+1,LEN($M26))) = "", "0", TRIM(MID(SUBSTITUTE($M26,",",REPT(" ",LEN($M26))),6 *LEN($M26)+1,LEN($M26))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M26,",",REPT(" ",LEN($M26))), 7 *LEN($M26)+1,LEN($M26))) = "", "0", TRIM(MID(SUBSTITUTE($M26,",",REPT(" ",LEN($M26))),7 *LEN($M26)+1,LEN($M26))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M26,",",REPT(" ",LEN($M26))), 8 *LEN($M26)+1,LEN($M26))) = "", "0", TRIM(MID(SUBSTITUTE($M26,",",REPT(" ",LEN($M26))),8 *LEN($M26)+1,LEN($M26))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M26,",",REPT(" ",LEN($M26))), 9 *LEN($M26)+1,LEN($M26))) = "", "0", TRIM(MID(SUBSTITUTE($M26,",",REPT(" ",LEN($M26))),9 *LEN($M26)+1,LEN($M26))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M26,",",REPT(" ",LEN($M26))), 10 *LEN($M26)+1,LEN($M26))) = "", "0", TRIM(MID(SUBSTITUTE($M26,",",REPT(" ",LEN($M26))),10 *LEN($M26)+1,LEN($M26)))))</f>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="X26" s="0" t="str">
-        <f aca="true">IF(O26="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S26)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O26="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S26)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -2109,8 +2109,8 @@
         <v/>
       </c>
       <c r="U27" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V27" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M27,",",REPT(" ",LEN($M27))), 0 *LEN($M27)+1,LEN($M27))) = "", "0", TRIM(MID(SUBSTITUTE($M27,",",REPT(" ",LEN($M27))),0 *LEN($M27)+1,LEN($M27))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M27,",",REPT(" ",LEN($M27))), 1 *LEN($M27)+1,LEN($M27))) = "", "0", TRIM(MID(SUBSTITUTE($M27,",",REPT(" ",LEN($M27))),1 *LEN($M27)+1,LEN($M27))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M27,",",REPT(" ",LEN($M27))), 2 *LEN($M27)+1,LEN($M27))) = "", "0", TRIM(MID(SUBSTITUTE($M27,",",REPT(" ",LEN($M27))),2 *LEN($M27)+1,LEN($M27))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M27,",",REPT(" ",LEN($M27))), 3 *LEN($M27)+1,LEN($M27))) = "", "0", TRIM(MID(SUBSTITUTE($M27,",",REPT(" ",LEN($M27))),3 *LEN($M27)+1,LEN($M27))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M27,",",REPT(" ",LEN($M27))), 4 *LEN($M27)+1,LEN($M27))) = "", "0", TRIM(MID(SUBSTITUTE($M27,",",REPT(" ",LEN($M27))),4 *LEN($M27)+1,LEN($M27))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M27,",",REPT(" ",LEN($M27))), 5 *LEN($M27)+1,LEN($M27))) = "", "0", TRIM(MID(SUBSTITUTE($M27,",",REPT(" ",LEN($M27))),5 *LEN($M27)+1,LEN($M27))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M27,",",REPT(" ",LEN($M27))), 6 *LEN($M27)+1,LEN($M27))) = "", "0", TRIM(MID(SUBSTITUTE($M27,",",REPT(" ",LEN($M27))),6 *LEN($M27)+1,LEN($M27))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M27,",",REPT(" ",LEN($M27))), 7 *LEN($M27)+1,LEN($M27))) = "", "0", TRIM(MID(SUBSTITUTE($M27,",",REPT(" ",LEN($M27))),7 *LEN($M27)+1,LEN($M27))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M27,",",REPT(" ",LEN($M27))), 8 *LEN($M27)+1,LEN($M27))) = "", "0", TRIM(MID(SUBSTITUTE($M27,",",REPT(" ",LEN($M27))),8 *LEN($M27)+1,LEN($M27))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M27,",",REPT(" ",LEN($M27))), 9 *LEN($M27)+1,LEN($M27))) = "", "0", TRIM(MID(SUBSTITUTE($M27,",",REPT(" ",LEN($M27))),9 *LEN($M27)+1,LEN($M27))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M27,",",REPT(" ",LEN($M27))), 10 *LEN($M27)+1,LEN($M27))) = "", "0", TRIM(MID(SUBSTITUTE($M27,",",REPT(" ",LEN($M27))),10 *LEN($M27)+1,LEN($M27)))))</f>
@@ -2121,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="X27" s="0" t="str">
-        <f aca="true">IF(O27="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S27)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O27="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S27)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -2160,8 +2160,8 @@
         <v/>
       </c>
       <c r="U28" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V28" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M28,",",REPT(" ",LEN($M28))), 0 *LEN($M28)+1,LEN($M28))) = "", "0", TRIM(MID(SUBSTITUTE($M28,",",REPT(" ",LEN($M28))),0 *LEN($M28)+1,LEN($M28))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M28,",",REPT(" ",LEN($M28))), 1 *LEN($M28)+1,LEN($M28))) = "", "0", TRIM(MID(SUBSTITUTE($M28,",",REPT(" ",LEN($M28))),1 *LEN($M28)+1,LEN($M28))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M28,",",REPT(" ",LEN($M28))), 2 *LEN($M28)+1,LEN($M28))) = "", "0", TRIM(MID(SUBSTITUTE($M28,",",REPT(" ",LEN($M28))),2 *LEN($M28)+1,LEN($M28))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M28,",",REPT(" ",LEN($M28))), 3 *LEN($M28)+1,LEN($M28))) = "", "0", TRIM(MID(SUBSTITUTE($M28,",",REPT(" ",LEN($M28))),3 *LEN($M28)+1,LEN($M28))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M28,",",REPT(" ",LEN($M28))), 4 *LEN($M28)+1,LEN($M28))) = "", "0", TRIM(MID(SUBSTITUTE($M28,",",REPT(" ",LEN($M28))),4 *LEN($M28)+1,LEN($M28))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M28,",",REPT(" ",LEN($M28))), 5 *LEN($M28)+1,LEN($M28))) = "", "0", TRIM(MID(SUBSTITUTE($M28,",",REPT(" ",LEN($M28))),5 *LEN($M28)+1,LEN($M28))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M28,",",REPT(" ",LEN($M28))), 6 *LEN($M28)+1,LEN($M28))) = "", "0", TRIM(MID(SUBSTITUTE($M28,",",REPT(" ",LEN($M28))),6 *LEN($M28)+1,LEN($M28))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M28,",",REPT(" ",LEN($M28))), 7 *LEN($M28)+1,LEN($M28))) = "", "0", TRIM(MID(SUBSTITUTE($M28,",",REPT(" ",LEN($M28))),7 *LEN($M28)+1,LEN($M28))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M28,",",REPT(" ",LEN($M28))), 8 *LEN($M28)+1,LEN($M28))) = "", "0", TRIM(MID(SUBSTITUTE($M28,",",REPT(" ",LEN($M28))),8 *LEN($M28)+1,LEN($M28))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M28,",",REPT(" ",LEN($M28))), 9 *LEN($M28)+1,LEN($M28))) = "", "0", TRIM(MID(SUBSTITUTE($M28,",",REPT(" ",LEN($M28))),9 *LEN($M28)+1,LEN($M28))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M28,",",REPT(" ",LEN($M28))), 10 *LEN($M28)+1,LEN($M28))) = "", "0", TRIM(MID(SUBSTITUTE($M28,",",REPT(" ",LEN($M28))),10 *LEN($M28)+1,LEN($M28)))))</f>
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="X28" s="0" t="str">
-        <f aca="true">IF(O28="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S28)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O28="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S28)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -2211,8 +2211,8 @@
         <v/>
       </c>
       <c r="U29" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V29" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M29,",",REPT(" ",LEN($M29))), 0 *LEN($M29)+1,LEN($M29))) = "", "0", TRIM(MID(SUBSTITUTE($M29,",",REPT(" ",LEN($M29))),0 *LEN($M29)+1,LEN($M29))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M29,",",REPT(" ",LEN($M29))), 1 *LEN($M29)+1,LEN($M29))) = "", "0", TRIM(MID(SUBSTITUTE($M29,",",REPT(" ",LEN($M29))),1 *LEN($M29)+1,LEN($M29))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M29,",",REPT(" ",LEN($M29))), 2 *LEN($M29)+1,LEN($M29))) = "", "0", TRIM(MID(SUBSTITUTE($M29,",",REPT(" ",LEN($M29))),2 *LEN($M29)+1,LEN($M29))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M29,",",REPT(" ",LEN($M29))), 3 *LEN($M29)+1,LEN($M29))) = "", "0", TRIM(MID(SUBSTITUTE($M29,",",REPT(" ",LEN($M29))),3 *LEN($M29)+1,LEN($M29))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M29,",",REPT(" ",LEN($M29))), 4 *LEN($M29)+1,LEN($M29))) = "", "0", TRIM(MID(SUBSTITUTE($M29,",",REPT(" ",LEN($M29))),4 *LEN($M29)+1,LEN($M29))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M29,",",REPT(" ",LEN($M29))), 5 *LEN($M29)+1,LEN($M29))) = "", "0", TRIM(MID(SUBSTITUTE($M29,",",REPT(" ",LEN($M29))),5 *LEN($M29)+1,LEN($M29))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M29,",",REPT(" ",LEN($M29))), 6 *LEN($M29)+1,LEN($M29))) = "", "0", TRIM(MID(SUBSTITUTE($M29,",",REPT(" ",LEN($M29))),6 *LEN($M29)+1,LEN($M29))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M29,",",REPT(" ",LEN($M29))), 7 *LEN($M29)+1,LEN($M29))) = "", "0", TRIM(MID(SUBSTITUTE($M29,",",REPT(" ",LEN($M29))),7 *LEN($M29)+1,LEN($M29))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M29,",",REPT(" ",LEN($M29))), 8 *LEN($M29)+1,LEN($M29))) = "", "0", TRIM(MID(SUBSTITUTE($M29,",",REPT(" ",LEN($M29))),8 *LEN($M29)+1,LEN($M29))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M29,",",REPT(" ",LEN($M29))), 9 *LEN($M29)+1,LEN($M29))) = "", "0", TRIM(MID(SUBSTITUTE($M29,",",REPT(" ",LEN($M29))),9 *LEN($M29)+1,LEN($M29))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M29,",",REPT(" ",LEN($M29))), 10 *LEN($M29)+1,LEN($M29))) = "", "0", TRIM(MID(SUBSTITUTE($M29,",",REPT(" ",LEN($M29))),10 *LEN($M29)+1,LEN($M29)))))</f>
@@ -2223,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="X29" s="0" t="str">
-        <f aca="true">IF(O29="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S29)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O29="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S29)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -2262,8 +2262,8 @@
         <v/>
       </c>
       <c r="U30" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V30" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M30,",",REPT(" ",LEN($M30))), 0 *LEN($M30)+1,LEN($M30))) = "", "0", TRIM(MID(SUBSTITUTE($M30,",",REPT(" ",LEN($M30))),0 *LEN($M30)+1,LEN($M30))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M30,",",REPT(" ",LEN($M30))), 1 *LEN($M30)+1,LEN($M30))) = "", "0", TRIM(MID(SUBSTITUTE($M30,",",REPT(" ",LEN($M30))),1 *LEN($M30)+1,LEN($M30))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M30,",",REPT(" ",LEN($M30))), 2 *LEN($M30)+1,LEN($M30))) = "", "0", TRIM(MID(SUBSTITUTE($M30,",",REPT(" ",LEN($M30))),2 *LEN($M30)+1,LEN($M30))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M30,",",REPT(" ",LEN($M30))), 3 *LEN($M30)+1,LEN($M30))) = "", "0", TRIM(MID(SUBSTITUTE($M30,",",REPT(" ",LEN($M30))),3 *LEN($M30)+1,LEN($M30))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M30,",",REPT(" ",LEN($M30))), 4 *LEN($M30)+1,LEN($M30))) = "", "0", TRIM(MID(SUBSTITUTE($M30,",",REPT(" ",LEN($M30))),4 *LEN($M30)+1,LEN($M30))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M30,",",REPT(" ",LEN($M30))), 5 *LEN($M30)+1,LEN($M30))) = "", "0", TRIM(MID(SUBSTITUTE($M30,",",REPT(" ",LEN($M30))),5 *LEN($M30)+1,LEN($M30))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M30,",",REPT(" ",LEN($M30))), 6 *LEN($M30)+1,LEN($M30))) = "", "0", TRIM(MID(SUBSTITUTE($M30,",",REPT(" ",LEN($M30))),6 *LEN($M30)+1,LEN($M30))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M30,",",REPT(" ",LEN($M30))), 7 *LEN($M30)+1,LEN($M30))) = "", "0", TRIM(MID(SUBSTITUTE($M30,",",REPT(" ",LEN($M30))),7 *LEN($M30)+1,LEN($M30))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M30,",",REPT(" ",LEN($M30))), 8 *LEN($M30)+1,LEN($M30))) = "", "0", TRIM(MID(SUBSTITUTE($M30,",",REPT(" ",LEN($M30))),8 *LEN($M30)+1,LEN($M30))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M30,",",REPT(" ",LEN($M30))), 9 *LEN($M30)+1,LEN($M30))) = "", "0", TRIM(MID(SUBSTITUTE($M30,",",REPT(" ",LEN($M30))),9 *LEN($M30)+1,LEN($M30))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M30,",",REPT(" ",LEN($M30))), 10 *LEN($M30)+1,LEN($M30))) = "", "0", TRIM(MID(SUBSTITUTE($M30,",",REPT(" ",LEN($M30))),10 *LEN($M30)+1,LEN($M30)))))</f>
@@ -2274,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="X30" s="0" t="str">
-        <f aca="true">IF(O30="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S30)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O30="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S30)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -2313,8 +2313,8 @@
         <v/>
       </c>
       <c r="U31" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V31" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M31,",",REPT(" ",LEN($M31))), 0 *LEN($M31)+1,LEN($M31))) = "", "0", TRIM(MID(SUBSTITUTE($M31,",",REPT(" ",LEN($M31))),0 *LEN($M31)+1,LEN($M31))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M31,",",REPT(" ",LEN($M31))), 1 *LEN($M31)+1,LEN($M31))) = "", "0", TRIM(MID(SUBSTITUTE($M31,",",REPT(" ",LEN($M31))),1 *LEN($M31)+1,LEN($M31))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M31,",",REPT(" ",LEN($M31))), 2 *LEN($M31)+1,LEN($M31))) = "", "0", TRIM(MID(SUBSTITUTE($M31,",",REPT(" ",LEN($M31))),2 *LEN($M31)+1,LEN($M31))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M31,",",REPT(" ",LEN($M31))), 3 *LEN($M31)+1,LEN($M31))) = "", "0", TRIM(MID(SUBSTITUTE($M31,",",REPT(" ",LEN($M31))),3 *LEN($M31)+1,LEN($M31))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M31,",",REPT(" ",LEN($M31))), 4 *LEN($M31)+1,LEN($M31))) = "", "0", TRIM(MID(SUBSTITUTE($M31,",",REPT(" ",LEN($M31))),4 *LEN($M31)+1,LEN($M31))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M31,",",REPT(" ",LEN($M31))), 5 *LEN($M31)+1,LEN($M31))) = "", "0", TRIM(MID(SUBSTITUTE($M31,",",REPT(" ",LEN($M31))),5 *LEN($M31)+1,LEN($M31))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M31,",",REPT(" ",LEN($M31))), 6 *LEN($M31)+1,LEN($M31))) = "", "0", TRIM(MID(SUBSTITUTE($M31,",",REPT(" ",LEN($M31))),6 *LEN($M31)+1,LEN($M31))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M31,",",REPT(" ",LEN($M31))), 7 *LEN($M31)+1,LEN($M31))) = "", "0", TRIM(MID(SUBSTITUTE($M31,",",REPT(" ",LEN($M31))),7 *LEN($M31)+1,LEN($M31))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M31,",",REPT(" ",LEN($M31))), 8 *LEN($M31)+1,LEN($M31))) = "", "0", TRIM(MID(SUBSTITUTE($M31,",",REPT(" ",LEN($M31))),8 *LEN($M31)+1,LEN($M31))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M31,",",REPT(" ",LEN($M31))), 9 *LEN($M31)+1,LEN($M31))) = "", "0", TRIM(MID(SUBSTITUTE($M31,",",REPT(" ",LEN($M31))),9 *LEN($M31)+1,LEN($M31))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M31,",",REPT(" ",LEN($M31))), 10 *LEN($M31)+1,LEN($M31))) = "", "0", TRIM(MID(SUBSTITUTE($M31,",",REPT(" ",LEN($M31))),10 *LEN($M31)+1,LEN($M31)))))</f>
@@ -2325,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="X31" s="0" t="str">
-        <f aca="true">IF(O31="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S31)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O31="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S31)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -2364,8 +2364,8 @@
         <v/>
       </c>
       <c r="U32" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V32" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M32,",",REPT(" ",LEN($M32))), 0 *LEN($M32)+1,LEN($M32))) = "", "0", TRIM(MID(SUBSTITUTE($M32,",",REPT(" ",LEN($M32))),0 *LEN($M32)+1,LEN($M32))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M32,",",REPT(" ",LEN($M32))), 1 *LEN($M32)+1,LEN($M32))) = "", "0", TRIM(MID(SUBSTITUTE($M32,",",REPT(" ",LEN($M32))),1 *LEN($M32)+1,LEN($M32))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M32,",",REPT(" ",LEN($M32))), 2 *LEN($M32)+1,LEN($M32))) = "", "0", TRIM(MID(SUBSTITUTE($M32,",",REPT(" ",LEN($M32))),2 *LEN($M32)+1,LEN($M32))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M32,",",REPT(" ",LEN($M32))), 3 *LEN($M32)+1,LEN($M32))) = "", "0", TRIM(MID(SUBSTITUTE($M32,",",REPT(" ",LEN($M32))),3 *LEN($M32)+1,LEN($M32))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M32,",",REPT(" ",LEN($M32))), 4 *LEN($M32)+1,LEN($M32))) = "", "0", TRIM(MID(SUBSTITUTE($M32,",",REPT(" ",LEN($M32))),4 *LEN($M32)+1,LEN($M32))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M32,",",REPT(" ",LEN($M32))), 5 *LEN($M32)+1,LEN($M32))) = "", "0", TRIM(MID(SUBSTITUTE($M32,",",REPT(" ",LEN($M32))),5 *LEN($M32)+1,LEN($M32))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M32,",",REPT(" ",LEN($M32))), 6 *LEN($M32)+1,LEN($M32))) = "", "0", TRIM(MID(SUBSTITUTE($M32,",",REPT(" ",LEN($M32))),6 *LEN($M32)+1,LEN($M32))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M32,",",REPT(" ",LEN($M32))), 7 *LEN($M32)+1,LEN($M32))) = "", "0", TRIM(MID(SUBSTITUTE($M32,",",REPT(" ",LEN($M32))),7 *LEN($M32)+1,LEN($M32))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M32,",",REPT(" ",LEN($M32))), 8 *LEN($M32)+1,LEN($M32))) = "", "0", TRIM(MID(SUBSTITUTE($M32,",",REPT(" ",LEN($M32))),8 *LEN($M32)+1,LEN($M32))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M32,",",REPT(" ",LEN($M32))), 9 *LEN($M32)+1,LEN($M32))) = "", "0", TRIM(MID(SUBSTITUTE($M32,",",REPT(" ",LEN($M32))),9 *LEN($M32)+1,LEN($M32))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M32,",",REPT(" ",LEN($M32))), 10 *LEN($M32)+1,LEN($M32))) = "", "0", TRIM(MID(SUBSTITUTE($M32,",",REPT(" ",LEN($M32))),10 *LEN($M32)+1,LEN($M32)))))</f>
@@ -2376,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="X32" s="0" t="str">
-        <f aca="true">IF(O32="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S32)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O32="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S32)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -2415,8 +2415,8 @@
         <v/>
       </c>
       <c r="U33" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V33" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M33,",",REPT(" ",LEN($M33))), 0 *LEN($M33)+1,LEN($M33))) = "", "0", TRIM(MID(SUBSTITUTE($M33,",",REPT(" ",LEN($M33))),0 *LEN($M33)+1,LEN($M33))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M33,",",REPT(" ",LEN($M33))), 1 *LEN($M33)+1,LEN($M33))) = "", "0", TRIM(MID(SUBSTITUTE($M33,",",REPT(" ",LEN($M33))),1 *LEN($M33)+1,LEN($M33))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M33,",",REPT(" ",LEN($M33))), 2 *LEN($M33)+1,LEN($M33))) = "", "0", TRIM(MID(SUBSTITUTE($M33,",",REPT(" ",LEN($M33))),2 *LEN($M33)+1,LEN($M33))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M33,",",REPT(" ",LEN($M33))), 3 *LEN($M33)+1,LEN($M33))) = "", "0", TRIM(MID(SUBSTITUTE($M33,",",REPT(" ",LEN($M33))),3 *LEN($M33)+1,LEN($M33))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M33,",",REPT(" ",LEN($M33))), 4 *LEN($M33)+1,LEN($M33))) = "", "0", TRIM(MID(SUBSTITUTE($M33,",",REPT(" ",LEN($M33))),4 *LEN($M33)+1,LEN($M33))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M33,",",REPT(" ",LEN($M33))), 5 *LEN($M33)+1,LEN($M33))) = "", "0", TRIM(MID(SUBSTITUTE($M33,",",REPT(" ",LEN($M33))),5 *LEN($M33)+1,LEN($M33))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M33,",",REPT(" ",LEN($M33))), 6 *LEN($M33)+1,LEN($M33))) = "", "0", TRIM(MID(SUBSTITUTE($M33,",",REPT(" ",LEN($M33))),6 *LEN($M33)+1,LEN($M33))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M33,",",REPT(" ",LEN($M33))), 7 *LEN($M33)+1,LEN($M33))) = "", "0", TRIM(MID(SUBSTITUTE($M33,",",REPT(" ",LEN($M33))),7 *LEN($M33)+1,LEN($M33))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M33,",",REPT(" ",LEN($M33))), 8 *LEN($M33)+1,LEN($M33))) = "", "0", TRIM(MID(SUBSTITUTE($M33,",",REPT(" ",LEN($M33))),8 *LEN($M33)+1,LEN($M33))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M33,",",REPT(" ",LEN($M33))), 9 *LEN($M33)+1,LEN($M33))) = "", "0", TRIM(MID(SUBSTITUTE($M33,",",REPT(" ",LEN($M33))),9 *LEN($M33)+1,LEN($M33))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M33,",",REPT(" ",LEN($M33))), 10 *LEN($M33)+1,LEN($M33))) = "", "0", TRIM(MID(SUBSTITUTE($M33,",",REPT(" ",LEN($M33))),10 *LEN($M33)+1,LEN($M33)))))</f>
@@ -2427,7 +2427,7 @@
         <v>0</v>
       </c>
       <c r="X33" s="0" t="str">
-        <f aca="true">IF(O33="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S33)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O33="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S33)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -2466,8 +2466,8 @@
         <v/>
       </c>
       <c r="U34" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V34" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M34,",",REPT(" ",LEN($M34))), 0 *LEN($M34)+1,LEN($M34))) = "", "0", TRIM(MID(SUBSTITUTE($M34,",",REPT(" ",LEN($M34))),0 *LEN($M34)+1,LEN($M34))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M34,",",REPT(" ",LEN($M34))), 1 *LEN($M34)+1,LEN($M34))) = "", "0", TRIM(MID(SUBSTITUTE($M34,",",REPT(" ",LEN($M34))),1 *LEN($M34)+1,LEN($M34))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M34,",",REPT(" ",LEN($M34))), 2 *LEN($M34)+1,LEN($M34))) = "", "0", TRIM(MID(SUBSTITUTE($M34,",",REPT(" ",LEN($M34))),2 *LEN($M34)+1,LEN($M34))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M34,",",REPT(" ",LEN($M34))), 3 *LEN($M34)+1,LEN($M34))) = "", "0", TRIM(MID(SUBSTITUTE($M34,",",REPT(" ",LEN($M34))),3 *LEN($M34)+1,LEN($M34))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M34,",",REPT(" ",LEN($M34))), 4 *LEN($M34)+1,LEN($M34))) = "", "0", TRIM(MID(SUBSTITUTE($M34,",",REPT(" ",LEN($M34))),4 *LEN($M34)+1,LEN($M34))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M34,",",REPT(" ",LEN($M34))), 5 *LEN($M34)+1,LEN($M34))) = "", "0", TRIM(MID(SUBSTITUTE($M34,",",REPT(" ",LEN($M34))),5 *LEN($M34)+1,LEN($M34))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M34,",",REPT(" ",LEN($M34))), 6 *LEN($M34)+1,LEN($M34))) = "", "0", TRIM(MID(SUBSTITUTE($M34,",",REPT(" ",LEN($M34))),6 *LEN($M34)+1,LEN($M34))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M34,",",REPT(" ",LEN($M34))), 7 *LEN($M34)+1,LEN($M34))) = "", "0", TRIM(MID(SUBSTITUTE($M34,",",REPT(" ",LEN($M34))),7 *LEN($M34)+1,LEN($M34))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M34,",",REPT(" ",LEN($M34))), 8 *LEN($M34)+1,LEN($M34))) = "", "0", TRIM(MID(SUBSTITUTE($M34,",",REPT(" ",LEN($M34))),8 *LEN($M34)+1,LEN($M34))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M34,",",REPT(" ",LEN($M34))), 9 *LEN($M34)+1,LEN($M34))) = "", "0", TRIM(MID(SUBSTITUTE($M34,",",REPT(" ",LEN($M34))),9 *LEN($M34)+1,LEN($M34))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M34,",",REPT(" ",LEN($M34))), 10 *LEN($M34)+1,LEN($M34))) = "", "0", TRIM(MID(SUBSTITUTE($M34,",",REPT(" ",LEN($M34))),10 *LEN($M34)+1,LEN($M34)))))</f>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="X34" s="0" t="str">
-        <f aca="true">IF(O34="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S34)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O34="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S34)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -2517,8 +2517,8 @@
         <v/>
       </c>
       <c r="U35" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V35" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M35,",",REPT(" ",LEN($M35))), 0 *LEN($M35)+1,LEN($M35))) = "", "0", TRIM(MID(SUBSTITUTE($M35,",",REPT(" ",LEN($M35))),0 *LEN($M35)+1,LEN($M35))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M35,",",REPT(" ",LEN($M35))), 1 *LEN($M35)+1,LEN($M35))) = "", "0", TRIM(MID(SUBSTITUTE($M35,",",REPT(" ",LEN($M35))),1 *LEN($M35)+1,LEN($M35))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M35,",",REPT(" ",LEN($M35))), 2 *LEN($M35)+1,LEN($M35))) = "", "0", TRIM(MID(SUBSTITUTE($M35,",",REPT(" ",LEN($M35))),2 *LEN($M35)+1,LEN($M35))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M35,",",REPT(" ",LEN($M35))), 3 *LEN($M35)+1,LEN($M35))) = "", "0", TRIM(MID(SUBSTITUTE($M35,",",REPT(" ",LEN($M35))),3 *LEN($M35)+1,LEN($M35))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M35,",",REPT(" ",LEN($M35))), 4 *LEN($M35)+1,LEN($M35))) = "", "0", TRIM(MID(SUBSTITUTE($M35,",",REPT(" ",LEN($M35))),4 *LEN($M35)+1,LEN($M35))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M35,",",REPT(" ",LEN($M35))), 5 *LEN($M35)+1,LEN($M35))) = "", "0", TRIM(MID(SUBSTITUTE($M35,",",REPT(" ",LEN($M35))),5 *LEN($M35)+1,LEN($M35))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M35,",",REPT(" ",LEN($M35))), 6 *LEN($M35)+1,LEN($M35))) = "", "0", TRIM(MID(SUBSTITUTE($M35,",",REPT(" ",LEN($M35))),6 *LEN($M35)+1,LEN($M35))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M35,",",REPT(" ",LEN($M35))), 7 *LEN($M35)+1,LEN($M35))) = "", "0", TRIM(MID(SUBSTITUTE($M35,",",REPT(" ",LEN($M35))),7 *LEN($M35)+1,LEN($M35))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M35,",",REPT(" ",LEN($M35))), 8 *LEN($M35)+1,LEN($M35))) = "", "0", TRIM(MID(SUBSTITUTE($M35,",",REPT(" ",LEN($M35))),8 *LEN($M35)+1,LEN($M35))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M35,",",REPT(" ",LEN($M35))), 9 *LEN($M35)+1,LEN($M35))) = "", "0", TRIM(MID(SUBSTITUTE($M35,",",REPT(" ",LEN($M35))),9 *LEN($M35)+1,LEN($M35))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M35,",",REPT(" ",LEN($M35))), 10 *LEN($M35)+1,LEN($M35))) = "", "0", TRIM(MID(SUBSTITUTE($M35,",",REPT(" ",LEN($M35))),10 *LEN($M35)+1,LEN($M35)))))</f>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="X35" s="0" t="str">
-        <f aca="true">IF(O35="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S35)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O35="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S35)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -2568,8 +2568,8 @@
         <v/>
       </c>
       <c r="U36" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V36" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M36,",",REPT(" ",LEN($M36))), 0 *LEN($M36)+1,LEN($M36))) = "", "0", TRIM(MID(SUBSTITUTE($M36,",",REPT(" ",LEN($M36))),0 *LEN($M36)+1,LEN($M36))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M36,",",REPT(" ",LEN($M36))), 1 *LEN($M36)+1,LEN($M36))) = "", "0", TRIM(MID(SUBSTITUTE($M36,",",REPT(" ",LEN($M36))),1 *LEN($M36)+1,LEN($M36))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M36,",",REPT(" ",LEN($M36))), 2 *LEN($M36)+1,LEN($M36))) = "", "0", TRIM(MID(SUBSTITUTE($M36,",",REPT(" ",LEN($M36))),2 *LEN($M36)+1,LEN($M36))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M36,",",REPT(" ",LEN($M36))), 3 *LEN($M36)+1,LEN($M36))) = "", "0", TRIM(MID(SUBSTITUTE($M36,",",REPT(" ",LEN($M36))),3 *LEN($M36)+1,LEN($M36))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M36,",",REPT(" ",LEN($M36))), 4 *LEN($M36)+1,LEN($M36))) = "", "0", TRIM(MID(SUBSTITUTE($M36,",",REPT(" ",LEN($M36))),4 *LEN($M36)+1,LEN($M36))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M36,",",REPT(" ",LEN($M36))), 5 *LEN($M36)+1,LEN($M36))) = "", "0", TRIM(MID(SUBSTITUTE($M36,",",REPT(" ",LEN($M36))),5 *LEN($M36)+1,LEN($M36))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M36,",",REPT(" ",LEN($M36))), 6 *LEN($M36)+1,LEN($M36))) = "", "0", TRIM(MID(SUBSTITUTE($M36,",",REPT(" ",LEN($M36))),6 *LEN($M36)+1,LEN($M36))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M36,",",REPT(" ",LEN($M36))), 7 *LEN($M36)+1,LEN($M36))) = "", "0", TRIM(MID(SUBSTITUTE($M36,",",REPT(" ",LEN($M36))),7 *LEN($M36)+1,LEN($M36))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M36,",",REPT(" ",LEN($M36))), 8 *LEN($M36)+1,LEN($M36))) = "", "0", TRIM(MID(SUBSTITUTE($M36,",",REPT(" ",LEN($M36))),8 *LEN($M36)+1,LEN($M36))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M36,",",REPT(" ",LEN($M36))), 9 *LEN($M36)+1,LEN($M36))) = "", "0", TRIM(MID(SUBSTITUTE($M36,",",REPT(" ",LEN($M36))),9 *LEN($M36)+1,LEN($M36))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M36,",",REPT(" ",LEN($M36))), 10 *LEN($M36)+1,LEN($M36))) = "", "0", TRIM(MID(SUBSTITUTE($M36,",",REPT(" ",LEN($M36))),10 *LEN($M36)+1,LEN($M36)))))</f>
@@ -2580,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="X36" s="0" t="str">
-        <f aca="true">IF(O36="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S36)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O36="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S36)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -2619,8 +2619,8 @@
         <v/>
       </c>
       <c r="U37" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V37" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M37,",",REPT(" ",LEN($M37))), 0 *LEN($M37)+1,LEN($M37))) = "", "0", TRIM(MID(SUBSTITUTE($M37,",",REPT(" ",LEN($M37))),0 *LEN($M37)+1,LEN($M37))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M37,",",REPT(" ",LEN($M37))), 1 *LEN($M37)+1,LEN($M37))) = "", "0", TRIM(MID(SUBSTITUTE($M37,",",REPT(" ",LEN($M37))),1 *LEN($M37)+1,LEN($M37))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M37,",",REPT(" ",LEN($M37))), 2 *LEN($M37)+1,LEN($M37))) = "", "0", TRIM(MID(SUBSTITUTE($M37,",",REPT(" ",LEN($M37))),2 *LEN($M37)+1,LEN($M37))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M37,",",REPT(" ",LEN($M37))), 3 *LEN($M37)+1,LEN($M37))) = "", "0", TRIM(MID(SUBSTITUTE($M37,",",REPT(" ",LEN($M37))),3 *LEN($M37)+1,LEN($M37))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M37,",",REPT(" ",LEN($M37))), 4 *LEN($M37)+1,LEN($M37))) = "", "0", TRIM(MID(SUBSTITUTE($M37,",",REPT(" ",LEN($M37))),4 *LEN($M37)+1,LEN($M37))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M37,",",REPT(" ",LEN($M37))), 5 *LEN($M37)+1,LEN($M37))) = "", "0", TRIM(MID(SUBSTITUTE($M37,",",REPT(" ",LEN($M37))),5 *LEN($M37)+1,LEN($M37))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M37,",",REPT(" ",LEN($M37))), 6 *LEN($M37)+1,LEN($M37))) = "", "0", TRIM(MID(SUBSTITUTE($M37,",",REPT(" ",LEN($M37))),6 *LEN($M37)+1,LEN($M37))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M37,",",REPT(" ",LEN($M37))), 7 *LEN($M37)+1,LEN($M37))) = "", "0", TRIM(MID(SUBSTITUTE($M37,",",REPT(" ",LEN($M37))),7 *LEN($M37)+1,LEN($M37))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M37,",",REPT(" ",LEN($M37))), 8 *LEN($M37)+1,LEN($M37))) = "", "0", TRIM(MID(SUBSTITUTE($M37,",",REPT(" ",LEN($M37))),8 *LEN($M37)+1,LEN($M37))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M37,",",REPT(" ",LEN($M37))), 9 *LEN($M37)+1,LEN($M37))) = "", "0", TRIM(MID(SUBSTITUTE($M37,",",REPT(" ",LEN($M37))),9 *LEN($M37)+1,LEN($M37))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M37,",",REPT(" ",LEN($M37))), 10 *LEN($M37)+1,LEN($M37))) = "", "0", TRIM(MID(SUBSTITUTE($M37,",",REPT(" ",LEN($M37))),10 *LEN($M37)+1,LEN($M37)))))</f>
@@ -2631,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="X37" s="0" t="str">
-        <f aca="true">IF(O37="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S37)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O37="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S37)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -2670,8 +2670,8 @@
         <v/>
       </c>
       <c r="U38" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V38" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M38,",",REPT(" ",LEN($M38))), 0 *LEN($M38)+1,LEN($M38))) = "", "0", TRIM(MID(SUBSTITUTE($M38,",",REPT(" ",LEN($M38))),0 *LEN($M38)+1,LEN($M38))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M38,",",REPT(" ",LEN($M38))), 1 *LEN($M38)+1,LEN($M38))) = "", "0", TRIM(MID(SUBSTITUTE($M38,",",REPT(" ",LEN($M38))),1 *LEN($M38)+1,LEN($M38))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M38,",",REPT(" ",LEN($M38))), 2 *LEN($M38)+1,LEN($M38))) = "", "0", TRIM(MID(SUBSTITUTE($M38,",",REPT(" ",LEN($M38))),2 *LEN($M38)+1,LEN($M38))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M38,",",REPT(" ",LEN($M38))), 3 *LEN($M38)+1,LEN($M38))) = "", "0", TRIM(MID(SUBSTITUTE($M38,",",REPT(" ",LEN($M38))),3 *LEN($M38)+1,LEN($M38))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M38,",",REPT(" ",LEN($M38))), 4 *LEN($M38)+1,LEN($M38))) = "", "0", TRIM(MID(SUBSTITUTE($M38,",",REPT(" ",LEN($M38))),4 *LEN($M38)+1,LEN($M38))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M38,",",REPT(" ",LEN($M38))), 5 *LEN($M38)+1,LEN($M38))) = "", "0", TRIM(MID(SUBSTITUTE($M38,",",REPT(" ",LEN($M38))),5 *LEN($M38)+1,LEN($M38))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M38,",",REPT(" ",LEN($M38))), 6 *LEN($M38)+1,LEN($M38))) = "", "0", TRIM(MID(SUBSTITUTE($M38,",",REPT(" ",LEN($M38))),6 *LEN($M38)+1,LEN($M38))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M38,",",REPT(" ",LEN($M38))), 7 *LEN($M38)+1,LEN($M38))) = "", "0", TRIM(MID(SUBSTITUTE($M38,",",REPT(" ",LEN($M38))),7 *LEN($M38)+1,LEN($M38))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M38,",",REPT(" ",LEN($M38))), 8 *LEN($M38)+1,LEN($M38))) = "", "0", TRIM(MID(SUBSTITUTE($M38,",",REPT(" ",LEN($M38))),8 *LEN($M38)+1,LEN($M38))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M38,",",REPT(" ",LEN($M38))), 9 *LEN($M38)+1,LEN($M38))) = "", "0", TRIM(MID(SUBSTITUTE($M38,",",REPT(" ",LEN($M38))),9 *LEN($M38)+1,LEN($M38))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M38,",",REPT(" ",LEN($M38))), 10 *LEN($M38)+1,LEN($M38))) = "", "0", TRIM(MID(SUBSTITUTE($M38,",",REPT(" ",LEN($M38))),10 *LEN($M38)+1,LEN($M38)))))</f>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="X38" s="0" t="str">
-        <f aca="true">IF(O38="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S38)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O38="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S38)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -2721,8 +2721,8 @@
         <v/>
       </c>
       <c r="U39" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V39" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M39,",",REPT(" ",LEN($M39))), 0 *LEN($M39)+1,LEN($M39))) = "", "0", TRIM(MID(SUBSTITUTE($M39,",",REPT(" ",LEN($M39))),0 *LEN($M39)+1,LEN($M39))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M39,",",REPT(" ",LEN($M39))), 1 *LEN($M39)+1,LEN($M39))) = "", "0", TRIM(MID(SUBSTITUTE($M39,",",REPT(" ",LEN($M39))),1 *LEN($M39)+1,LEN($M39))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M39,",",REPT(" ",LEN($M39))), 2 *LEN($M39)+1,LEN($M39))) = "", "0", TRIM(MID(SUBSTITUTE($M39,",",REPT(" ",LEN($M39))),2 *LEN($M39)+1,LEN($M39))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M39,",",REPT(" ",LEN($M39))), 3 *LEN($M39)+1,LEN($M39))) = "", "0", TRIM(MID(SUBSTITUTE($M39,",",REPT(" ",LEN($M39))),3 *LEN($M39)+1,LEN($M39))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M39,",",REPT(" ",LEN($M39))), 4 *LEN($M39)+1,LEN($M39))) = "", "0", TRIM(MID(SUBSTITUTE($M39,",",REPT(" ",LEN($M39))),4 *LEN($M39)+1,LEN($M39))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M39,",",REPT(" ",LEN($M39))), 5 *LEN($M39)+1,LEN($M39))) = "", "0", TRIM(MID(SUBSTITUTE($M39,",",REPT(" ",LEN($M39))),5 *LEN($M39)+1,LEN($M39))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M39,",",REPT(" ",LEN($M39))), 6 *LEN($M39)+1,LEN($M39))) = "", "0", TRIM(MID(SUBSTITUTE($M39,",",REPT(" ",LEN($M39))),6 *LEN($M39)+1,LEN($M39))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M39,",",REPT(" ",LEN($M39))), 7 *LEN($M39)+1,LEN($M39))) = "", "0", TRIM(MID(SUBSTITUTE($M39,",",REPT(" ",LEN($M39))),7 *LEN($M39)+1,LEN($M39))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M39,",",REPT(" ",LEN($M39))), 8 *LEN($M39)+1,LEN($M39))) = "", "0", TRIM(MID(SUBSTITUTE($M39,",",REPT(" ",LEN($M39))),8 *LEN($M39)+1,LEN($M39))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M39,",",REPT(" ",LEN($M39))), 9 *LEN($M39)+1,LEN($M39))) = "", "0", TRIM(MID(SUBSTITUTE($M39,",",REPT(" ",LEN($M39))),9 *LEN($M39)+1,LEN($M39))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M39,",",REPT(" ",LEN($M39))), 10 *LEN($M39)+1,LEN($M39))) = "", "0", TRIM(MID(SUBSTITUTE($M39,",",REPT(" ",LEN($M39))),10 *LEN($M39)+1,LEN($M39)))))</f>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="X39" s="0" t="str">
-        <f aca="true">IF(O39="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S39)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O39="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S39)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -2772,8 +2772,8 @@
         <v/>
       </c>
       <c r="U40" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V40" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M40,",",REPT(" ",LEN($M40))), 0 *LEN($M40)+1,LEN($M40))) = "", "0", TRIM(MID(SUBSTITUTE($M40,",",REPT(" ",LEN($M40))),0 *LEN($M40)+1,LEN($M40))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M40,",",REPT(" ",LEN($M40))), 1 *LEN($M40)+1,LEN($M40))) = "", "0", TRIM(MID(SUBSTITUTE($M40,",",REPT(" ",LEN($M40))),1 *LEN($M40)+1,LEN($M40))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M40,",",REPT(" ",LEN($M40))), 2 *LEN($M40)+1,LEN($M40))) = "", "0", TRIM(MID(SUBSTITUTE($M40,",",REPT(" ",LEN($M40))),2 *LEN($M40)+1,LEN($M40))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M40,",",REPT(" ",LEN($M40))), 3 *LEN($M40)+1,LEN($M40))) = "", "0", TRIM(MID(SUBSTITUTE($M40,",",REPT(" ",LEN($M40))),3 *LEN($M40)+1,LEN($M40))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M40,",",REPT(" ",LEN($M40))), 4 *LEN($M40)+1,LEN($M40))) = "", "0", TRIM(MID(SUBSTITUTE($M40,",",REPT(" ",LEN($M40))),4 *LEN($M40)+1,LEN($M40))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M40,",",REPT(" ",LEN($M40))), 5 *LEN($M40)+1,LEN($M40))) = "", "0", TRIM(MID(SUBSTITUTE($M40,",",REPT(" ",LEN($M40))),5 *LEN($M40)+1,LEN($M40))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M40,",",REPT(" ",LEN($M40))), 6 *LEN($M40)+1,LEN($M40))) = "", "0", TRIM(MID(SUBSTITUTE($M40,",",REPT(" ",LEN($M40))),6 *LEN($M40)+1,LEN($M40))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M40,",",REPT(" ",LEN($M40))), 7 *LEN($M40)+1,LEN($M40))) = "", "0", TRIM(MID(SUBSTITUTE($M40,",",REPT(" ",LEN($M40))),7 *LEN($M40)+1,LEN($M40))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M40,",",REPT(" ",LEN($M40))), 8 *LEN($M40)+1,LEN($M40))) = "", "0", TRIM(MID(SUBSTITUTE($M40,",",REPT(" ",LEN($M40))),8 *LEN($M40)+1,LEN($M40))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M40,",",REPT(" ",LEN($M40))), 9 *LEN($M40)+1,LEN($M40))) = "", "0", TRIM(MID(SUBSTITUTE($M40,",",REPT(" ",LEN($M40))),9 *LEN($M40)+1,LEN($M40))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M40,",",REPT(" ",LEN($M40))), 10 *LEN($M40)+1,LEN($M40))) = "", "0", TRIM(MID(SUBSTITUTE($M40,",",REPT(" ",LEN($M40))),10 *LEN($M40)+1,LEN($M40)))))</f>
@@ -2784,7 +2784,7 @@
         <v>0</v>
       </c>
       <c r="X40" s="0" t="str">
-        <f aca="true">IF(O40="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S40)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O40="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S40)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -2823,8 +2823,8 @@
         <v/>
       </c>
       <c r="U41" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V41" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M41,",",REPT(" ",LEN($M41))), 0 *LEN($M41)+1,LEN($M41))) = "", "0", TRIM(MID(SUBSTITUTE($M41,",",REPT(" ",LEN($M41))),0 *LEN($M41)+1,LEN($M41))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M41,",",REPT(" ",LEN($M41))), 1 *LEN($M41)+1,LEN($M41))) = "", "0", TRIM(MID(SUBSTITUTE($M41,",",REPT(" ",LEN($M41))),1 *LEN($M41)+1,LEN($M41))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M41,",",REPT(" ",LEN($M41))), 2 *LEN($M41)+1,LEN($M41))) = "", "0", TRIM(MID(SUBSTITUTE($M41,",",REPT(" ",LEN($M41))),2 *LEN($M41)+1,LEN($M41))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M41,",",REPT(" ",LEN($M41))), 3 *LEN($M41)+1,LEN($M41))) = "", "0", TRIM(MID(SUBSTITUTE($M41,",",REPT(" ",LEN($M41))),3 *LEN($M41)+1,LEN($M41))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M41,",",REPT(" ",LEN($M41))), 4 *LEN($M41)+1,LEN($M41))) = "", "0", TRIM(MID(SUBSTITUTE($M41,",",REPT(" ",LEN($M41))),4 *LEN($M41)+1,LEN($M41))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M41,",",REPT(" ",LEN($M41))), 5 *LEN($M41)+1,LEN($M41))) = "", "0", TRIM(MID(SUBSTITUTE($M41,",",REPT(" ",LEN($M41))),5 *LEN($M41)+1,LEN($M41))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M41,",",REPT(" ",LEN($M41))), 6 *LEN($M41)+1,LEN($M41))) = "", "0", TRIM(MID(SUBSTITUTE($M41,",",REPT(" ",LEN($M41))),6 *LEN($M41)+1,LEN($M41))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M41,",",REPT(" ",LEN($M41))), 7 *LEN($M41)+1,LEN($M41))) = "", "0", TRIM(MID(SUBSTITUTE($M41,",",REPT(" ",LEN($M41))),7 *LEN($M41)+1,LEN($M41))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M41,",",REPT(" ",LEN($M41))), 8 *LEN($M41)+1,LEN($M41))) = "", "0", TRIM(MID(SUBSTITUTE($M41,",",REPT(" ",LEN($M41))),8 *LEN($M41)+1,LEN($M41))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M41,",",REPT(" ",LEN($M41))), 9 *LEN($M41)+1,LEN($M41))) = "", "0", TRIM(MID(SUBSTITUTE($M41,",",REPT(" ",LEN($M41))),9 *LEN($M41)+1,LEN($M41))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M41,",",REPT(" ",LEN($M41))), 10 *LEN($M41)+1,LEN($M41))) = "", "0", TRIM(MID(SUBSTITUTE($M41,",",REPT(" ",LEN($M41))),10 *LEN($M41)+1,LEN($M41)))))</f>
@@ -2835,7 +2835,7 @@
         <v>0</v>
       </c>
       <c r="X41" s="0" t="str">
-        <f aca="true">IF(O41="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S41)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O41="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S41)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -2874,8 +2874,8 @@
         <v/>
       </c>
       <c r="U42" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V42" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M42,",",REPT(" ",LEN($M42))), 0 *LEN($M42)+1,LEN($M42))) = "", "0", TRIM(MID(SUBSTITUTE($M42,",",REPT(" ",LEN($M42))),0 *LEN($M42)+1,LEN($M42))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M42,",",REPT(" ",LEN($M42))), 1 *LEN($M42)+1,LEN($M42))) = "", "0", TRIM(MID(SUBSTITUTE($M42,",",REPT(" ",LEN($M42))),1 *LEN($M42)+1,LEN($M42))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M42,",",REPT(" ",LEN($M42))), 2 *LEN($M42)+1,LEN($M42))) = "", "0", TRIM(MID(SUBSTITUTE($M42,",",REPT(" ",LEN($M42))),2 *LEN($M42)+1,LEN($M42))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M42,",",REPT(" ",LEN($M42))), 3 *LEN($M42)+1,LEN($M42))) = "", "0", TRIM(MID(SUBSTITUTE($M42,",",REPT(" ",LEN($M42))),3 *LEN($M42)+1,LEN($M42))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M42,",",REPT(" ",LEN($M42))), 4 *LEN($M42)+1,LEN($M42))) = "", "0", TRIM(MID(SUBSTITUTE($M42,",",REPT(" ",LEN($M42))),4 *LEN($M42)+1,LEN($M42))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M42,",",REPT(" ",LEN($M42))), 5 *LEN($M42)+1,LEN($M42))) = "", "0", TRIM(MID(SUBSTITUTE($M42,",",REPT(" ",LEN($M42))),5 *LEN($M42)+1,LEN($M42))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M42,",",REPT(" ",LEN($M42))), 6 *LEN($M42)+1,LEN($M42))) = "", "0", TRIM(MID(SUBSTITUTE($M42,",",REPT(" ",LEN($M42))),6 *LEN($M42)+1,LEN($M42))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M42,",",REPT(" ",LEN($M42))), 7 *LEN($M42)+1,LEN($M42))) = "", "0", TRIM(MID(SUBSTITUTE($M42,",",REPT(" ",LEN($M42))),7 *LEN($M42)+1,LEN($M42))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M42,",",REPT(" ",LEN($M42))), 8 *LEN($M42)+1,LEN($M42))) = "", "0", TRIM(MID(SUBSTITUTE($M42,",",REPT(" ",LEN($M42))),8 *LEN($M42)+1,LEN($M42))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M42,",",REPT(" ",LEN($M42))), 9 *LEN($M42)+1,LEN($M42))) = "", "0", TRIM(MID(SUBSTITUTE($M42,",",REPT(" ",LEN($M42))),9 *LEN($M42)+1,LEN($M42))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M42,",",REPT(" ",LEN($M42))), 10 *LEN($M42)+1,LEN($M42))) = "", "0", TRIM(MID(SUBSTITUTE($M42,",",REPT(" ",LEN($M42))),10 *LEN($M42)+1,LEN($M42)))))</f>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="X42" s="0" t="str">
-        <f aca="true">IF(O42="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S42)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O42="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S42)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -2925,8 +2925,8 @@
         <v/>
       </c>
       <c r="U43" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V43" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M43,",",REPT(" ",LEN($M43))), 0 *LEN($M43)+1,LEN($M43))) = "", "0", TRIM(MID(SUBSTITUTE($M43,",",REPT(" ",LEN($M43))),0 *LEN($M43)+1,LEN($M43))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M43,",",REPT(" ",LEN($M43))), 1 *LEN($M43)+1,LEN($M43))) = "", "0", TRIM(MID(SUBSTITUTE($M43,",",REPT(" ",LEN($M43))),1 *LEN($M43)+1,LEN($M43))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M43,",",REPT(" ",LEN($M43))), 2 *LEN($M43)+1,LEN($M43))) = "", "0", TRIM(MID(SUBSTITUTE($M43,",",REPT(" ",LEN($M43))),2 *LEN($M43)+1,LEN($M43))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M43,",",REPT(" ",LEN($M43))), 3 *LEN($M43)+1,LEN($M43))) = "", "0", TRIM(MID(SUBSTITUTE($M43,",",REPT(" ",LEN($M43))),3 *LEN($M43)+1,LEN($M43))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M43,",",REPT(" ",LEN($M43))), 4 *LEN($M43)+1,LEN($M43))) = "", "0", TRIM(MID(SUBSTITUTE($M43,",",REPT(" ",LEN($M43))),4 *LEN($M43)+1,LEN($M43))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M43,",",REPT(" ",LEN($M43))), 5 *LEN($M43)+1,LEN($M43))) = "", "0", TRIM(MID(SUBSTITUTE($M43,",",REPT(" ",LEN($M43))),5 *LEN($M43)+1,LEN($M43))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M43,",",REPT(" ",LEN($M43))), 6 *LEN($M43)+1,LEN($M43))) = "", "0", TRIM(MID(SUBSTITUTE($M43,",",REPT(" ",LEN($M43))),6 *LEN($M43)+1,LEN($M43))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M43,",",REPT(" ",LEN($M43))), 7 *LEN($M43)+1,LEN($M43))) = "", "0", TRIM(MID(SUBSTITUTE($M43,",",REPT(" ",LEN($M43))),7 *LEN($M43)+1,LEN($M43))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M43,",",REPT(" ",LEN($M43))), 8 *LEN($M43)+1,LEN($M43))) = "", "0", TRIM(MID(SUBSTITUTE($M43,",",REPT(" ",LEN($M43))),8 *LEN($M43)+1,LEN($M43))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M43,",",REPT(" ",LEN($M43))), 9 *LEN($M43)+1,LEN($M43))) = "", "0", TRIM(MID(SUBSTITUTE($M43,",",REPT(" ",LEN($M43))),9 *LEN($M43)+1,LEN($M43))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M43,",",REPT(" ",LEN($M43))), 10 *LEN($M43)+1,LEN($M43))) = "", "0", TRIM(MID(SUBSTITUTE($M43,",",REPT(" ",LEN($M43))),10 *LEN($M43)+1,LEN($M43)))))</f>
@@ -2937,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="X43" s="0" t="str">
-        <f aca="true">IF(O43="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S43)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O43="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S43)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -2976,8 +2976,8 @@
         <v/>
       </c>
       <c r="U44" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V44" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M44,",",REPT(" ",LEN($M44))), 0 *LEN($M44)+1,LEN($M44))) = "", "0", TRIM(MID(SUBSTITUTE($M44,",",REPT(" ",LEN($M44))),0 *LEN($M44)+1,LEN($M44))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M44,",",REPT(" ",LEN($M44))), 1 *LEN($M44)+1,LEN($M44))) = "", "0", TRIM(MID(SUBSTITUTE($M44,",",REPT(" ",LEN($M44))),1 *LEN($M44)+1,LEN($M44))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M44,",",REPT(" ",LEN($M44))), 2 *LEN($M44)+1,LEN($M44))) = "", "0", TRIM(MID(SUBSTITUTE($M44,",",REPT(" ",LEN($M44))),2 *LEN($M44)+1,LEN($M44))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M44,",",REPT(" ",LEN($M44))), 3 *LEN($M44)+1,LEN($M44))) = "", "0", TRIM(MID(SUBSTITUTE($M44,",",REPT(" ",LEN($M44))),3 *LEN($M44)+1,LEN($M44))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M44,",",REPT(" ",LEN($M44))), 4 *LEN($M44)+1,LEN($M44))) = "", "0", TRIM(MID(SUBSTITUTE($M44,",",REPT(" ",LEN($M44))),4 *LEN($M44)+1,LEN($M44))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M44,",",REPT(" ",LEN($M44))), 5 *LEN($M44)+1,LEN($M44))) = "", "0", TRIM(MID(SUBSTITUTE($M44,",",REPT(" ",LEN($M44))),5 *LEN($M44)+1,LEN($M44))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M44,",",REPT(" ",LEN($M44))), 6 *LEN($M44)+1,LEN($M44))) = "", "0", TRIM(MID(SUBSTITUTE($M44,",",REPT(" ",LEN($M44))),6 *LEN($M44)+1,LEN($M44))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M44,",",REPT(" ",LEN($M44))), 7 *LEN($M44)+1,LEN($M44))) = "", "0", TRIM(MID(SUBSTITUTE($M44,",",REPT(" ",LEN($M44))),7 *LEN($M44)+1,LEN($M44))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M44,",",REPT(" ",LEN($M44))), 8 *LEN($M44)+1,LEN($M44))) = "", "0", TRIM(MID(SUBSTITUTE($M44,",",REPT(" ",LEN($M44))),8 *LEN($M44)+1,LEN($M44))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M44,",",REPT(" ",LEN($M44))), 9 *LEN($M44)+1,LEN($M44))) = "", "0", TRIM(MID(SUBSTITUTE($M44,",",REPT(" ",LEN($M44))),9 *LEN($M44)+1,LEN($M44))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M44,",",REPT(" ",LEN($M44))), 10 *LEN($M44)+1,LEN($M44))) = "", "0", TRIM(MID(SUBSTITUTE($M44,",",REPT(" ",LEN($M44))),10 *LEN($M44)+1,LEN($M44)))))</f>
@@ -2988,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="X44" s="0" t="str">
-        <f aca="true">IF(O44="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S44)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O44="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S44)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -3027,8 +3027,8 @@
         <v/>
       </c>
       <c r="U45" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V45" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M45,",",REPT(" ",LEN($M45))), 0 *LEN($M45)+1,LEN($M45))) = "", "0", TRIM(MID(SUBSTITUTE($M45,",",REPT(" ",LEN($M45))),0 *LEN($M45)+1,LEN($M45))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M45,",",REPT(" ",LEN($M45))), 1 *LEN($M45)+1,LEN($M45))) = "", "0", TRIM(MID(SUBSTITUTE($M45,",",REPT(" ",LEN($M45))),1 *LEN($M45)+1,LEN($M45))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M45,",",REPT(" ",LEN($M45))), 2 *LEN($M45)+1,LEN($M45))) = "", "0", TRIM(MID(SUBSTITUTE($M45,",",REPT(" ",LEN($M45))),2 *LEN($M45)+1,LEN($M45))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M45,",",REPT(" ",LEN($M45))), 3 *LEN($M45)+1,LEN($M45))) = "", "0", TRIM(MID(SUBSTITUTE($M45,",",REPT(" ",LEN($M45))),3 *LEN($M45)+1,LEN($M45))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M45,",",REPT(" ",LEN($M45))), 4 *LEN($M45)+1,LEN($M45))) = "", "0", TRIM(MID(SUBSTITUTE($M45,",",REPT(" ",LEN($M45))),4 *LEN($M45)+1,LEN($M45))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M45,",",REPT(" ",LEN($M45))), 5 *LEN($M45)+1,LEN($M45))) = "", "0", TRIM(MID(SUBSTITUTE($M45,",",REPT(" ",LEN($M45))),5 *LEN($M45)+1,LEN($M45))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M45,",",REPT(" ",LEN($M45))), 6 *LEN($M45)+1,LEN($M45))) = "", "0", TRIM(MID(SUBSTITUTE($M45,",",REPT(" ",LEN($M45))),6 *LEN($M45)+1,LEN($M45))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M45,",",REPT(" ",LEN($M45))), 7 *LEN($M45)+1,LEN($M45))) = "", "0", TRIM(MID(SUBSTITUTE($M45,",",REPT(" ",LEN($M45))),7 *LEN($M45)+1,LEN($M45))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M45,",",REPT(" ",LEN($M45))), 8 *LEN($M45)+1,LEN($M45))) = "", "0", TRIM(MID(SUBSTITUTE($M45,",",REPT(" ",LEN($M45))),8 *LEN($M45)+1,LEN($M45))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M45,",",REPT(" ",LEN($M45))), 9 *LEN($M45)+1,LEN($M45))) = "", "0", TRIM(MID(SUBSTITUTE($M45,",",REPT(" ",LEN($M45))),9 *LEN($M45)+1,LEN($M45))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M45,",",REPT(" ",LEN($M45))), 10 *LEN($M45)+1,LEN($M45))) = "", "0", TRIM(MID(SUBSTITUTE($M45,",",REPT(" ",LEN($M45))),10 *LEN($M45)+1,LEN($M45)))))</f>
@@ -3039,7 +3039,7 @@
         <v>0</v>
       </c>
       <c r="X45" s="0" t="str">
-        <f aca="true">IF(O45="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S45)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O45="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S45)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -3078,8 +3078,8 @@
         <v/>
       </c>
       <c r="U46" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V46" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M46,",",REPT(" ",LEN($M46))), 0 *LEN($M46)+1,LEN($M46))) = "", "0", TRIM(MID(SUBSTITUTE($M46,",",REPT(" ",LEN($M46))),0 *LEN($M46)+1,LEN($M46))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M46,",",REPT(" ",LEN($M46))), 1 *LEN($M46)+1,LEN($M46))) = "", "0", TRIM(MID(SUBSTITUTE($M46,",",REPT(" ",LEN($M46))),1 *LEN($M46)+1,LEN($M46))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M46,",",REPT(" ",LEN($M46))), 2 *LEN($M46)+1,LEN($M46))) = "", "0", TRIM(MID(SUBSTITUTE($M46,",",REPT(" ",LEN($M46))),2 *LEN($M46)+1,LEN($M46))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M46,",",REPT(" ",LEN($M46))), 3 *LEN($M46)+1,LEN($M46))) = "", "0", TRIM(MID(SUBSTITUTE($M46,",",REPT(" ",LEN($M46))),3 *LEN($M46)+1,LEN($M46))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M46,",",REPT(" ",LEN($M46))), 4 *LEN($M46)+1,LEN($M46))) = "", "0", TRIM(MID(SUBSTITUTE($M46,",",REPT(" ",LEN($M46))),4 *LEN($M46)+1,LEN($M46))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M46,",",REPT(" ",LEN($M46))), 5 *LEN($M46)+1,LEN($M46))) = "", "0", TRIM(MID(SUBSTITUTE($M46,",",REPT(" ",LEN($M46))),5 *LEN($M46)+1,LEN($M46))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M46,",",REPT(" ",LEN($M46))), 6 *LEN($M46)+1,LEN($M46))) = "", "0", TRIM(MID(SUBSTITUTE($M46,",",REPT(" ",LEN($M46))),6 *LEN($M46)+1,LEN($M46))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M46,",",REPT(" ",LEN($M46))), 7 *LEN($M46)+1,LEN($M46))) = "", "0", TRIM(MID(SUBSTITUTE($M46,",",REPT(" ",LEN($M46))),7 *LEN($M46)+1,LEN($M46))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M46,",",REPT(" ",LEN($M46))), 8 *LEN($M46)+1,LEN($M46))) = "", "0", TRIM(MID(SUBSTITUTE($M46,",",REPT(" ",LEN($M46))),8 *LEN($M46)+1,LEN($M46))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M46,",",REPT(" ",LEN($M46))), 9 *LEN($M46)+1,LEN($M46))) = "", "0", TRIM(MID(SUBSTITUTE($M46,",",REPT(" ",LEN($M46))),9 *LEN($M46)+1,LEN($M46))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M46,",",REPT(" ",LEN($M46))), 10 *LEN($M46)+1,LEN($M46))) = "", "0", TRIM(MID(SUBSTITUTE($M46,",",REPT(" ",LEN($M46))),10 *LEN($M46)+1,LEN($M46)))))</f>
@@ -3090,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="X46" s="0" t="str">
-        <f aca="true">IF(O46="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S46)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O46="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S46)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -3129,8 +3129,8 @@
         <v/>
       </c>
       <c r="U47" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V47" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M47,",",REPT(" ",LEN($M47))), 0 *LEN($M47)+1,LEN($M47))) = "", "0", TRIM(MID(SUBSTITUTE($M47,",",REPT(" ",LEN($M47))),0 *LEN($M47)+1,LEN($M47))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M47,",",REPT(" ",LEN($M47))), 1 *LEN($M47)+1,LEN($M47))) = "", "0", TRIM(MID(SUBSTITUTE($M47,",",REPT(" ",LEN($M47))),1 *LEN($M47)+1,LEN($M47))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M47,",",REPT(" ",LEN($M47))), 2 *LEN($M47)+1,LEN($M47))) = "", "0", TRIM(MID(SUBSTITUTE($M47,",",REPT(" ",LEN($M47))),2 *LEN($M47)+1,LEN($M47))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M47,",",REPT(" ",LEN($M47))), 3 *LEN($M47)+1,LEN($M47))) = "", "0", TRIM(MID(SUBSTITUTE($M47,",",REPT(" ",LEN($M47))),3 *LEN($M47)+1,LEN($M47))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M47,",",REPT(" ",LEN($M47))), 4 *LEN($M47)+1,LEN($M47))) = "", "0", TRIM(MID(SUBSTITUTE($M47,",",REPT(" ",LEN($M47))),4 *LEN($M47)+1,LEN($M47))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M47,",",REPT(" ",LEN($M47))), 5 *LEN($M47)+1,LEN($M47))) = "", "0", TRIM(MID(SUBSTITUTE($M47,",",REPT(" ",LEN($M47))),5 *LEN($M47)+1,LEN($M47))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M47,",",REPT(" ",LEN($M47))), 6 *LEN($M47)+1,LEN($M47))) = "", "0", TRIM(MID(SUBSTITUTE($M47,",",REPT(" ",LEN($M47))),6 *LEN($M47)+1,LEN($M47))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M47,",",REPT(" ",LEN($M47))), 7 *LEN($M47)+1,LEN($M47))) = "", "0", TRIM(MID(SUBSTITUTE($M47,",",REPT(" ",LEN($M47))),7 *LEN($M47)+1,LEN($M47))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M47,",",REPT(" ",LEN($M47))), 8 *LEN($M47)+1,LEN($M47))) = "", "0", TRIM(MID(SUBSTITUTE($M47,",",REPT(" ",LEN($M47))),8 *LEN($M47)+1,LEN($M47))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M47,",",REPT(" ",LEN($M47))), 9 *LEN($M47)+1,LEN($M47))) = "", "0", TRIM(MID(SUBSTITUTE($M47,",",REPT(" ",LEN($M47))),9 *LEN($M47)+1,LEN($M47))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M47,",",REPT(" ",LEN($M47))), 10 *LEN($M47)+1,LEN($M47))) = "", "0", TRIM(MID(SUBSTITUTE($M47,",",REPT(" ",LEN($M47))),10 *LEN($M47)+1,LEN($M47)))))</f>
@@ -3141,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="X47" s="0" t="str">
-        <f aca="true">IF(O47="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S47)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O47="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S47)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -3180,8 +3180,8 @@
         <v/>
       </c>
       <c r="U48" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V48" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M48,",",REPT(" ",LEN($M48))), 0 *LEN($M48)+1,LEN($M48))) = "", "0", TRIM(MID(SUBSTITUTE($M48,",",REPT(" ",LEN($M48))),0 *LEN($M48)+1,LEN($M48))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M48,",",REPT(" ",LEN($M48))), 1 *LEN($M48)+1,LEN($M48))) = "", "0", TRIM(MID(SUBSTITUTE($M48,",",REPT(" ",LEN($M48))),1 *LEN($M48)+1,LEN($M48))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M48,",",REPT(" ",LEN($M48))), 2 *LEN($M48)+1,LEN($M48))) = "", "0", TRIM(MID(SUBSTITUTE($M48,",",REPT(" ",LEN($M48))),2 *LEN($M48)+1,LEN($M48))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M48,",",REPT(" ",LEN($M48))), 3 *LEN($M48)+1,LEN($M48))) = "", "0", TRIM(MID(SUBSTITUTE($M48,",",REPT(" ",LEN($M48))),3 *LEN($M48)+1,LEN($M48))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M48,",",REPT(" ",LEN($M48))), 4 *LEN($M48)+1,LEN($M48))) = "", "0", TRIM(MID(SUBSTITUTE($M48,",",REPT(" ",LEN($M48))),4 *LEN($M48)+1,LEN($M48))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M48,",",REPT(" ",LEN($M48))), 5 *LEN($M48)+1,LEN($M48))) = "", "0", TRIM(MID(SUBSTITUTE($M48,",",REPT(" ",LEN($M48))),5 *LEN($M48)+1,LEN($M48))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M48,",",REPT(" ",LEN($M48))), 6 *LEN($M48)+1,LEN($M48))) = "", "0", TRIM(MID(SUBSTITUTE($M48,",",REPT(" ",LEN($M48))),6 *LEN($M48)+1,LEN($M48))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M48,",",REPT(" ",LEN($M48))), 7 *LEN($M48)+1,LEN($M48))) = "", "0", TRIM(MID(SUBSTITUTE($M48,",",REPT(" ",LEN($M48))),7 *LEN($M48)+1,LEN($M48))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M48,",",REPT(" ",LEN($M48))), 8 *LEN($M48)+1,LEN($M48))) = "", "0", TRIM(MID(SUBSTITUTE($M48,",",REPT(" ",LEN($M48))),8 *LEN($M48)+1,LEN($M48))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M48,",",REPT(" ",LEN($M48))), 9 *LEN($M48)+1,LEN($M48))) = "", "0", TRIM(MID(SUBSTITUTE($M48,",",REPT(" ",LEN($M48))),9 *LEN($M48)+1,LEN($M48))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M48,",",REPT(" ",LEN($M48))), 10 *LEN($M48)+1,LEN($M48))) = "", "0", TRIM(MID(SUBSTITUTE($M48,",",REPT(" ",LEN($M48))),10 *LEN($M48)+1,LEN($M48)))))</f>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="X48" s="0" t="str">
-        <f aca="true">IF(O48="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S48)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O48="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S48)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -3231,8 +3231,8 @@
         <v/>
       </c>
       <c r="U49" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V49" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M49,",",REPT(" ",LEN($M49))), 0 *LEN($M49)+1,LEN($M49))) = "", "0", TRIM(MID(SUBSTITUTE($M49,",",REPT(" ",LEN($M49))),0 *LEN($M49)+1,LEN($M49))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M49,",",REPT(" ",LEN($M49))), 1 *LEN($M49)+1,LEN($M49))) = "", "0", TRIM(MID(SUBSTITUTE($M49,",",REPT(" ",LEN($M49))),1 *LEN($M49)+1,LEN($M49))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M49,",",REPT(" ",LEN($M49))), 2 *LEN($M49)+1,LEN($M49))) = "", "0", TRIM(MID(SUBSTITUTE($M49,",",REPT(" ",LEN($M49))),2 *LEN($M49)+1,LEN($M49))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M49,",",REPT(" ",LEN($M49))), 3 *LEN($M49)+1,LEN($M49))) = "", "0", TRIM(MID(SUBSTITUTE($M49,",",REPT(" ",LEN($M49))),3 *LEN($M49)+1,LEN($M49))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M49,",",REPT(" ",LEN($M49))), 4 *LEN($M49)+1,LEN($M49))) = "", "0", TRIM(MID(SUBSTITUTE($M49,",",REPT(" ",LEN($M49))),4 *LEN($M49)+1,LEN($M49))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M49,",",REPT(" ",LEN($M49))), 5 *LEN($M49)+1,LEN($M49))) = "", "0", TRIM(MID(SUBSTITUTE($M49,",",REPT(" ",LEN($M49))),5 *LEN($M49)+1,LEN($M49))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M49,",",REPT(" ",LEN($M49))), 6 *LEN($M49)+1,LEN($M49))) = "", "0", TRIM(MID(SUBSTITUTE($M49,",",REPT(" ",LEN($M49))),6 *LEN($M49)+1,LEN($M49))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M49,",",REPT(" ",LEN($M49))), 7 *LEN($M49)+1,LEN($M49))) = "", "0", TRIM(MID(SUBSTITUTE($M49,",",REPT(" ",LEN($M49))),7 *LEN($M49)+1,LEN($M49))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M49,",",REPT(" ",LEN($M49))), 8 *LEN($M49)+1,LEN($M49))) = "", "0", TRIM(MID(SUBSTITUTE($M49,",",REPT(" ",LEN($M49))),8 *LEN($M49)+1,LEN($M49))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M49,",",REPT(" ",LEN($M49))), 9 *LEN($M49)+1,LEN($M49))) = "", "0", TRIM(MID(SUBSTITUTE($M49,",",REPT(" ",LEN($M49))),9 *LEN($M49)+1,LEN($M49))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M49,",",REPT(" ",LEN($M49))), 10 *LEN($M49)+1,LEN($M49))) = "", "0", TRIM(MID(SUBSTITUTE($M49,",",REPT(" ",LEN($M49))),10 *LEN($M49)+1,LEN($M49)))))</f>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="X49" s="0" t="str">
-        <f aca="true">IF(O49="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S49)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O49="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S49)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -3282,8 +3282,8 @@
         <v/>
       </c>
       <c r="U50" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V50" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M50,",",REPT(" ",LEN($M50))), 0 *LEN($M50)+1,LEN($M50))) = "", "0", TRIM(MID(SUBSTITUTE($M50,",",REPT(" ",LEN($M50))),0 *LEN($M50)+1,LEN($M50))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M50,",",REPT(" ",LEN($M50))), 1 *LEN($M50)+1,LEN($M50))) = "", "0", TRIM(MID(SUBSTITUTE($M50,",",REPT(" ",LEN($M50))),1 *LEN($M50)+1,LEN($M50))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M50,",",REPT(" ",LEN($M50))), 2 *LEN($M50)+1,LEN($M50))) = "", "0", TRIM(MID(SUBSTITUTE($M50,",",REPT(" ",LEN($M50))),2 *LEN($M50)+1,LEN($M50))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M50,",",REPT(" ",LEN($M50))), 3 *LEN($M50)+1,LEN($M50))) = "", "0", TRIM(MID(SUBSTITUTE($M50,",",REPT(" ",LEN($M50))),3 *LEN($M50)+1,LEN($M50))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M50,",",REPT(" ",LEN($M50))), 4 *LEN($M50)+1,LEN($M50))) = "", "0", TRIM(MID(SUBSTITUTE($M50,",",REPT(" ",LEN($M50))),4 *LEN($M50)+1,LEN($M50))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M50,",",REPT(" ",LEN($M50))), 5 *LEN($M50)+1,LEN($M50))) = "", "0", TRIM(MID(SUBSTITUTE($M50,",",REPT(" ",LEN($M50))),5 *LEN($M50)+1,LEN($M50))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M50,",",REPT(" ",LEN($M50))), 6 *LEN($M50)+1,LEN($M50))) = "", "0", TRIM(MID(SUBSTITUTE($M50,",",REPT(" ",LEN($M50))),6 *LEN($M50)+1,LEN($M50))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M50,",",REPT(" ",LEN($M50))), 7 *LEN($M50)+1,LEN($M50))) = "", "0", TRIM(MID(SUBSTITUTE($M50,",",REPT(" ",LEN($M50))),7 *LEN($M50)+1,LEN($M50))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M50,",",REPT(" ",LEN($M50))), 8 *LEN($M50)+1,LEN($M50))) = "", "0", TRIM(MID(SUBSTITUTE($M50,",",REPT(" ",LEN($M50))),8 *LEN($M50)+1,LEN($M50))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M50,",",REPT(" ",LEN($M50))), 9 *LEN($M50)+1,LEN($M50))) = "", "0", TRIM(MID(SUBSTITUTE($M50,",",REPT(" ",LEN($M50))),9 *LEN($M50)+1,LEN($M50))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M50,",",REPT(" ",LEN($M50))), 10 *LEN($M50)+1,LEN($M50))) = "", "0", TRIM(MID(SUBSTITUTE($M50,",",REPT(" ",LEN($M50))),10 *LEN($M50)+1,LEN($M50)))))</f>
@@ -3294,7 +3294,7 @@
         <v>0</v>
       </c>
       <c r="X50" s="0" t="str">
-        <f aca="true">IF(O50="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S50)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O50="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S50)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -3333,8 +3333,8 @@
         <v/>
       </c>
       <c r="U51" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V51" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M51,",",REPT(" ",LEN($M51))), 0 *LEN($M51)+1,LEN($M51))) = "", "0", TRIM(MID(SUBSTITUTE($M51,",",REPT(" ",LEN($M51))),0 *LEN($M51)+1,LEN($M51))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M51,",",REPT(" ",LEN($M51))), 1 *LEN($M51)+1,LEN($M51))) = "", "0", TRIM(MID(SUBSTITUTE($M51,",",REPT(" ",LEN($M51))),1 *LEN($M51)+1,LEN($M51))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M51,",",REPT(" ",LEN($M51))), 2 *LEN($M51)+1,LEN($M51))) = "", "0", TRIM(MID(SUBSTITUTE($M51,",",REPT(" ",LEN($M51))),2 *LEN($M51)+1,LEN($M51))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M51,",",REPT(" ",LEN($M51))), 3 *LEN($M51)+1,LEN($M51))) = "", "0", TRIM(MID(SUBSTITUTE($M51,",",REPT(" ",LEN($M51))),3 *LEN($M51)+1,LEN($M51))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M51,",",REPT(" ",LEN($M51))), 4 *LEN($M51)+1,LEN($M51))) = "", "0", TRIM(MID(SUBSTITUTE($M51,",",REPT(" ",LEN($M51))),4 *LEN($M51)+1,LEN($M51))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M51,",",REPT(" ",LEN($M51))), 5 *LEN($M51)+1,LEN($M51))) = "", "0", TRIM(MID(SUBSTITUTE($M51,",",REPT(" ",LEN($M51))),5 *LEN($M51)+1,LEN($M51))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M51,",",REPT(" ",LEN($M51))), 6 *LEN($M51)+1,LEN($M51))) = "", "0", TRIM(MID(SUBSTITUTE($M51,",",REPT(" ",LEN($M51))),6 *LEN($M51)+1,LEN($M51))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M51,",",REPT(" ",LEN($M51))), 7 *LEN($M51)+1,LEN($M51))) = "", "0", TRIM(MID(SUBSTITUTE($M51,",",REPT(" ",LEN($M51))),7 *LEN($M51)+1,LEN($M51))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M51,",",REPT(" ",LEN($M51))), 8 *LEN($M51)+1,LEN($M51))) = "", "0", TRIM(MID(SUBSTITUTE($M51,",",REPT(" ",LEN($M51))),8 *LEN($M51)+1,LEN($M51))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M51,",",REPT(" ",LEN($M51))), 9 *LEN($M51)+1,LEN($M51))) = "", "0", TRIM(MID(SUBSTITUTE($M51,",",REPT(" ",LEN($M51))),9 *LEN($M51)+1,LEN($M51))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M51,",",REPT(" ",LEN($M51))), 10 *LEN($M51)+1,LEN($M51))) = "", "0", TRIM(MID(SUBSTITUTE($M51,",",REPT(" ",LEN($M51))),10 *LEN($M51)+1,LEN($M51)))))</f>
@@ -3345,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="X51" s="0" t="str">
-        <f aca="true">IF(O51="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S51)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O51="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S51)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -3384,8 +3384,8 @@
         <v/>
       </c>
       <c r="U52" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V52" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M52,",",REPT(" ",LEN($M52))), 0 *LEN($M52)+1,LEN($M52))) = "", "0", TRIM(MID(SUBSTITUTE($M52,",",REPT(" ",LEN($M52))),0 *LEN($M52)+1,LEN($M52))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M52,",",REPT(" ",LEN($M52))), 1 *LEN($M52)+1,LEN($M52))) = "", "0", TRIM(MID(SUBSTITUTE($M52,",",REPT(" ",LEN($M52))),1 *LEN($M52)+1,LEN($M52))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M52,",",REPT(" ",LEN($M52))), 2 *LEN($M52)+1,LEN($M52))) = "", "0", TRIM(MID(SUBSTITUTE($M52,",",REPT(" ",LEN($M52))),2 *LEN($M52)+1,LEN($M52))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M52,",",REPT(" ",LEN($M52))), 3 *LEN($M52)+1,LEN($M52))) = "", "0", TRIM(MID(SUBSTITUTE($M52,",",REPT(" ",LEN($M52))),3 *LEN($M52)+1,LEN($M52))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M52,",",REPT(" ",LEN($M52))), 4 *LEN($M52)+1,LEN($M52))) = "", "0", TRIM(MID(SUBSTITUTE($M52,",",REPT(" ",LEN($M52))),4 *LEN($M52)+1,LEN($M52))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M52,",",REPT(" ",LEN($M52))), 5 *LEN($M52)+1,LEN($M52))) = "", "0", TRIM(MID(SUBSTITUTE($M52,",",REPT(" ",LEN($M52))),5 *LEN($M52)+1,LEN($M52))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M52,",",REPT(" ",LEN($M52))), 6 *LEN($M52)+1,LEN($M52))) = "", "0", TRIM(MID(SUBSTITUTE($M52,",",REPT(" ",LEN($M52))),6 *LEN($M52)+1,LEN($M52))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M52,",",REPT(" ",LEN($M52))), 7 *LEN($M52)+1,LEN($M52))) = "", "0", TRIM(MID(SUBSTITUTE($M52,",",REPT(" ",LEN($M52))),7 *LEN($M52)+1,LEN($M52))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M52,",",REPT(" ",LEN($M52))), 8 *LEN($M52)+1,LEN($M52))) = "", "0", TRIM(MID(SUBSTITUTE($M52,",",REPT(" ",LEN($M52))),8 *LEN($M52)+1,LEN($M52))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M52,",",REPT(" ",LEN($M52))), 9 *LEN($M52)+1,LEN($M52))) = "", "0", TRIM(MID(SUBSTITUTE($M52,",",REPT(" ",LEN($M52))),9 *LEN($M52)+1,LEN($M52))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M52,",",REPT(" ",LEN($M52))), 10 *LEN($M52)+1,LEN($M52))) = "", "0", TRIM(MID(SUBSTITUTE($M52,",",REPT(" ",LEN($M52))),10 *LEN($M52)+1,LEN($M52)))))</f>
@@ -3396,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="X52" s="0" t="str">
-        <f aca="true">IF(O52="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S52)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O52="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S52)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -3435,8 +3435,8 @@
         <v/>
       </c>
       <c r="U53" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V53" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M53,",",REPT(" ",LEN($M53))), 0 *LEN($M53)+1,LEN($M53))) = "", "0", TRIM(MID(SUBSTITUTE($M53,",",REPT(" ",LEN($M53))),0 *LEN($M53)+1,LEN($M53))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M53,",",REPT(" ",LEN($M53))), 1 *LEN($M53)+1,LEN($M53))) = "", "0", TRIM(MID(SUBSTITUTE($M53,",",REPT(" ",LEN($M53))),1 *LEN($M53)+1,LEN($M53))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M53,",",REPT(" ",LEN($M53))), 2 *LEN($M53)+1,LEN($M53))) = "", "0", TRIM(MID(SUBSTITUTE($M53,",",REPT(" ",LEN($M53))),2 *LEN($M53)+1,LEN($M53))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M53,",",REPT(" ",LEN($M53))), 3 *LEN($M53)+1,LEN($M53))) = "", "0", TRIM(MID(SUBSTITUTE($M53,",",REPT(" ",LEN($M53))),3 *LEN($M53)+1,LEN($M53))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M53,",",REPT(" ",LEN($M53))), 4 *LEN($M53)+1,LEN($M53))) = "", "0", TRIM(MID(SUBSTITUTE($M53,",",REPT(" ",LEN($M53))),4 *LEN($M53)+1,LEN($M53))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M53,",",REPT(" ",LEN($M53))), 5 *LEN($M53)+1,LEN($M53))) = "", "0", TRIM(MID(SUBSTITUTE($M53,",",REPT(" ",LEN($M53))),5 *LEN($M53)+1,LEN($M53))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M53,",",REPT(" ",LEN($M53))), 6 *LEN($M53)+1,LEN($M53))) = "", "0", TRIM(MID(SUBSTITUTE($M53,",",REPT(" ",LEN($M53))),6 *LEN($M53)+1,LEN($M53))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M53,",",REPT(" ",LEN($M53))), 7 *LEN($M53)+1,LEN($M53))) = "", "0", TRIM(MID(SUBSTITUTE($M53,",",REPT(" ",LEN($M53))),7 *LEN($M53)+1,LEN($M53))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M53,",",REPT(" ",LEN($M53))), 8 *LEN($M53)+1,LEN($M53))) = "", "0", TRIM(MID(SUBSTITUTE($M53,",",REPT(" ",LEN($M53))),8 *LEN($M53)+1,LEN($M53))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M53,",",REPT(" ",LEN($M53))), 9 *LEN($M53)+1,LEN($M53))) = "", "0", TRIM(MID(SUBSTITUTE($M53,",",REPT(" ",LEN($M53))),9 *LEN($M53)+1,LEN($M53))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M53,",",REPT(" ",LEN($M53))), 10 *LEN($M53)+1,LEN($M53))) = "", "0", TRIM(MID(SUBSTITUTE($M53,",",REPT(" ",LEN($M53))),10 *LEN($M53)+1,LEN($M53)))))</f>
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="X53" s="0" t="str">
-        <f aca="true">IF(O53="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S53)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O53="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S53)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -3486,8 +3486,8 @@
         <v/>
       </c>
       <c r="U54" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V54" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M54,",",REPT(" ",LEN($M54))), 0 *LEN($M54)+1,LEN($M54))) = "", "0", TRIM(MID(SUBSTITUTE($M54,",",REPT(" ",LEN($M54))),0 *LEN($M54)+1,LEN($M54))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M54,",",REPT(" ",LEN($M54))), 1 *LEN($M54)+1,LEN($M54))) = "", "0", TRIM(MID(SUBSTITUTE($M54,",",REPT(" ",LEN($M54))),1 *LEN($M54)+1,LEN($M54))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M54,",",REPT(" ",LEN($M54))), 2 *LEN($M54)+1,LEN($M54))) = "", "0", TRIM(MID(SUBSTITUTE($M54,",",REPT(" ",LEN($M54))),2 *LEN($M54)+1,LEN($M54))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M54,",",REPT(" ",LEN($M54))), 3 *LEN($M54)+1,LEN($M54))) = "", "0", TRIM(MID(SUBSTITUTE($M54,",",REPT(" ",LEN($M54))),3 *LEN($M54)+1,LEN($M54))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M54,",",REPT(" ",LEN($M54))), 4 *LEN($M54)+1,LEN($M54))) = "", "0", TRIM(MID(SUBSTITUTE($M54,",",REPT(" ",LEN($M54))),4 *LEN($M54)+1,LEN($M54))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M54,",",REPT(" ",LEN($M54))), 5 *LEN($M54)+1,LEN($M54))) = "", "0", TRIM(MID(SUBSTITUTE($M54,",",REPT(" ",LEN($M54))),5 *LEN($M54)+1,LEN($M54))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M54,",",REPT(" ",LEN($M54))), 6 *LEN($M54)+1,LEN($M54))) = "", "0", TRIM(MID(SUBSTITUTE($M54,",",REPT(" ",LEN($M54))),6 *LEN($M54)+1,LEN($M54))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M54,",",REPT(" ",LEN($M54))), 7 *LEN($M54)+1,LEN($M54))) = "", "0", TRIM(MID(SUBSTITUTE($M54,",",REPT(" ",LEN($M54))),7 *LEN($M54)+1,LEN($M54))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M54,",",REPT(" ",LEN($M54))), 8 *LEN($M54)+1,LEN($M54))) = "", "0", TRIM(MID(SUBSTITUTE($M54,",",REPT(" ",LEN($M54))),8 *LEN($M54)+1,LEN($M54))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M54,",",REPT(" ",LEN($M54))), 9 *LEN($M54)+1,LEN($M54))) = "", "0", TRIM(MID(SUBSTITUTE($M54,",",REPT(" ",LEN($M54))),9 *LEN($M54)+1,LEN($M54))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M54,",",REPT(" ",LEN($M54))), 10 *LEN($M54)+1,LEN($M54))) = "", "0", TRIM(MID(SUBSTITUTE($M54,",",REPT(" ",LEN($M54))),10 *LEN($M54)+1,LEN($M54)))))</f>
@@ -3498,7 +3498,7 @@
         <v>0</v>
       </c>
       <c r="X54" s="0" t="str">
-        <f aca="true">IF(O54="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S54)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O54="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S54)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -3537,8 +3537,8 @@
         <v/>
       </c>
       <c r="U55" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V55" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M55,",",REPT(" ",LEN($M55))), 0 *LEN($M55)+1,LEN($M55))) = "", "0", TRIM(MID(SUBSTITUTE($M55,",",REPT(" ",LEN($M55))),0 *LEN($M55)+1,LEN($M55))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M55,",",REPT(" ",LEN($M55))), 1 *LEN($M55)+1,LEN($M55))) = "", "0", TRIM(MID(SUBSTITUTE($M55,",",REPT(" ",LEN($M55))),1 *LEN($M55)+1,LEN($M55))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M55,",",REPT(" ",LEN($M55))), 2 *LEN($M55)+1,LEN($M55))) = "", "0", TRIM(MID(SUBSTITUTE($M55,",",REPT(" ",LEN($M55))),2 *LEN($M55)+1,LEN($M55))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M55,",",REPT(" ",LEN($M55))), 3 *LEN($M55)+1,LEN($M55))) = "", "0", TRIM(MID(SUBSTITUTE($M55,",",REPT(" ",LEN($M55))),3 *LEN($M55)+1,LEN($M55))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M55,",",REPT(" ",LEN($M55))), 4 *LEN($M55)+1,LEN($M55))) = "", "0", TRIM(MID(SUBSTITUTE($M55,",",REPT(" ",LEN($M55))),4 *LEN($M55)+1,LEN($M55))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M55,",",REPT(" ",LEN($M55))), 5 *LEN($M55)+1,LEN($M55))) = "", "0", TRIM(MID(SUBSTITUTE($M55,",",REPT(" ",LEN($M55))),5 *LEN($M55)+1,LEN($M55))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M55,",",REPT(" ",LEN($M55))), 6 *LEN($M55)+1,LEN($M55))) = "", "0", TRIM(MID(SUBSTITUTE($M55,",",REPT(" ",LEN($M55))),6 *LEN($M55)+1,LEN($M55))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M55,",",REPT(" ",LEN($M55))), 7 *LEN($M55)+1,LEN($M55))) = "", "0", TRIM(MID(SUBSTITUTE($M55,",",REPT(" ",LEN($M55))),7 *LEN($M55)+1,LEN($M55))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M55,",",REPT(" ",LEN($M55))), 8 *LEN($M55)+1,LEN($M55))) = "", "0", TRIM(MID(SUBSTITUTE($M55,",",REPT(" ",LEN($M55))),8 *LEN($M55)+1,LEN($M55))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M55,",",REPT(" ",LEN($M55))), 9 *LEN($M55)+1,LEN($M55))) = "", "0", TRIM(MID(SUBSTITUTE($M55,",",REPT(" ",LEN($M55))),9 *LEN($M55)+1,LEN($M55))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M55,",",REPT(" ",LEN($M55))), 10 *LEN($M55)+1,LEN($M55))) = "", "0", TRIM(MID(SUBSTITUTE($M55,",",REPT(" ",LEN($M55))),10 *LEN($M55)+1,LEN($M55)))))</f>
@@ -3549,7 +3549,7 @@
         <v>0</v>
       </c>
       <c r="X55" s="0" t="str">
-        <f aca="true">IF(O55="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S55)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O55="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S55)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -3588,8 +3588,8 @@
         <v/>
       </c>
       <c r="U56" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V56" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M56,",",REPT(" ",LEN($M56))), 0 *LEN($M56)+1,LEN($M56))) = "", "0", TRIM(MID(SUBSTITUTE($M56,",",REPT(" ",LEN($M56))),0 *LEN($M56)+1,LEN($M56))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M56,",",REPT(" ",LEN($M56))), 1 *LEN($M56)+1,LEN($M56))) = "", "0", TRIM(MID(SUBSTITUTE($M56,",",REPT(" ",LEN($M56))),1 *LEN($M56)+1,LEN($M56))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M56,",",REPT(" ",LEN($M56))), 2 *LEN($M56)+1,LEN($M56))) = "", "0", TRIM(MID(SUBSTITUTE($M56,",",REPT(" ",LEN($M56))),2 *LEN($M56)+1,LEN($M56))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M56,",",REPT(" ",LEN($M56))), 3 *LEN($M56)+1,LEN($M56))) = "", "0", TRIM(MID(SUBSTITUTE($M56,",",REPT(" ",LEN($M56))),3 *LEN($M56)+1,LEN($M56))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M56,",",REPT(" ",LEN($M56))), 4 *LEN($M56)+1,LEN($M56))) = "", "0", TRIM(MID(SUBSTITUTE($M56,",",REPT(" ",LEN($M56))),4 *LEN($M56)+1,LEN($M56))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M56,",",REPT(" ",LEN($M56))), 5 *LEN($M56)+1,LEN($M56))) = "", "0", TRIM(MID(SUBSTITUTE($M56,",",REPT(" ",LEN($M56))),5 *LEN($M56)+1,LEN($M56))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M56,",",REPT(" ",LEN($M56))), 6 *LEN($M56)+1,LEN($M56))) = "", "0", TRIM(MID(SUBSTITUTE($M56,",",REPT(" ",LEN($M56))),6 *LEN($M56)+1,LEN($M56))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M56,",",REPT(" ",LEN($M56))), 7 *LEN($M56)+1,LEN($M56))) = "", "0", TRIM(MID(SUBSTITUTE($M56,",",REPT(" ",LEN($M56))),7 *LEN($M56)+1,LEN($M56))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M56,",",REPT(" ",LEN($M56))), 8 *LEN($M56)+1,LEN($M56))) = "", "0", TRIM(MID(SUBSTITUTE($M56,",",REPT(" ",LEN($M56))),8 *LEN($M56)+1,LEN($M56))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M56,",",REPT(" ",LEN($M56))), 9 *LEN($M56)+1,LEN($M56))) = "", "0", TRIM(MID(SUBSTITUTE($M56,",",REPT(" ",LEN($M56))),9 *LEN($M56)+1,LEN($M56))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M56,",",REPT(" ",LEN($M56))), 10 *LEN($M56)+1,LEN($M56))) = "", "0", TRIM(MID(SUBSTITUTE($M56,",",REPT(" ",LEN($M56))),10 *LEN($M56)+1,LEN($M56)))))</f>
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="X56" s="0" t="str">
-        <f aca="true">IF(O56="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S56)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O56="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S56)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -3639,8 +3639,8 @@
         <v/>
       </c>
       <c r="U57" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V57" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M57,",",REPT(" ",LEN($M57))), 0 *LEN($M57)+1,LEN($M57))) = "", "0", TRIM(MID(SUBSTITUTE($M57,",",REPT(" ",LEN($M57))),0 *LEN($M57)+1,LEN($M57))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M57,",",REPT(" ",LEN($M57))), 1 *LEN($M57)+1,LEN($M57))) = "", "0", TRIM(MID(SUBSTITUTE($M57,",",REPT(" ",LEN($M57))),1 *LEN($M57)+1,LEN($M57))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M57,",",REPT(" ",LEN($M57))), 2 *LEN($M57)+1,LEN($M57))) = "", "0", TRIM(MID(SUBSTITUTE($M57,",",REPT(" ",LEN($M57))),2 *LEN($M57)+1,LEN($M57))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M57,",",REPT(" ",LEN($M57))), 3 *LEN($M57)+1,LEN($M57))) = "", "0", TRIM(MID(SUBSTITUTE($M57,",",REPT(" ",LEN($M57))),3 *LEN($M57)+1,LEN($M57))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M57,",",REPT(" ",LEN($M57))), 4 *LEN($M57)+1,LEN($M57))) = "", "0", TRIM(MID(SUBSTITUTE($M57,",",REPT(" ",LEN($M57))),4 *LEN($M57)+1,LEN($M57))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M57,",",REPT(" ",LEN($M57))), 5 *LEN($M57)+1,LEN($M57))) = "", "0", TRIM(MID(SUBSTITUTE($M57,",",REPT(" ",LEN($M57))),5 *LEN($M57)+1,LEN($M57))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M57,",",REPT(" ",LEN($M57))), 6 *LEN($M57)+1,LEN($M57))) = "", "0", TRIM(MID(SUBSTITUTE($M57,",",REPT(" ",LEN($M57))),6 *LEN($M57)+1,LEN($M57))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M57,",",REPT(" ",LEN($M57))), 7 *LEN($M57)+1,LEN($M57))) = "", "0", TRIM(MID(SUBSTITUTE($M57,",",REPT(" ",LEN($M57))),7 *LEN($M57)+1,LEN($M57))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M57,",",REPT(" ",LEN($M57))), 8 *LEN($M57)+1,LEN($M57))) = "", "0", TRIM(MID(SUBSTITUTE($M57,",",REPT(" ",LEN($M57))),8 *LEN($M57)+1,LEN($M57))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M57,",",REPT(" ",LEN($M57))), 9 *LEN($M57)+1,LEN($M57))) = "", "0", TRIM(MID(SUBSTITUTE($M57,",",REPT(" ",LEN($M57))),9 *LEN($M57)+1,LEN($M57))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M57,",",REPT(" ",LEN($M57))), 10 *LEN($M57)+1,LEN($M57))) = "", "0", TRIM(MID(SUBSTITUTE($M57,",",REPT(" ",LEN($M57))),10 *LEN($M57)+1,LEN($M57)))))</f>
@@ -3651,7 +3651,7 @@
         <v>0</v>
       </c>
       <c r="X57" s="0" t="str">
-        <f aca="true">IF(O57="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S57)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O57="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S57)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -3690,8 +3690,8 @@
         <v/>
       </c>
       <c r="U58" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V58" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M58,",",REPT(" ",LEN($M58))), 0 *LEN($M58)+1,LEN($M58))) = "", "0", TRIM(MID(SUBSTITUTE($M58,",",REPT(" ",LEN($M58))),0 *LEN($M58)+1,LEN($M58))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M58,",",REPT(" ",LEN($M58))), 1 *LEN($M58)+1,LEN($M58))) = "", "0", TRIM(MID(SUBSTITUTE($M58,",",REPT(" ",LEN($M58))),1 *LEN($M58)+1,LEN($M58))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M58,",",REPT(" ",LEN($M58))), 2 *LEN($M58)+1,LEN($M58))) = "", "0", TRIM(MID(SUBSTITUTE($M58,",",REPT(" ",LEN($M58))),2 *LEN($M58)+1,LEN($M58))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M58,",",REPT(" ",LEN($M58))), 3 *LEN($M58)+1,LEN($M58))) = "", "0", TRIM(MID(SUBSTITUTE($M58,",",REPT(" ",LEN($M58))),3 *LEN($M58)+1,LEN($M58))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M58,",",REPT(" ",LEN($M58))), 4 *LEN($M58)+1,LEN($M58))) = "", "0", TRIM(MID(SUBSTITUTE($M58,",",REPT(" ",LEN($M58))),4 *LEN($M58)+1,LEN($M58))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M58,",",REPT(" ",LEN($M58))), 5 *LEN($M58)+1,LEN($M58))) = "", "0", TRIM(MID(SUBSTITUTE($M58,",",REPT(" ",LEN($M58))),5 *LEN($M58)+1,LEN($M58))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M58,",",REPT(" ",LEN($M58))), 6 *LEN($M58)+1,LEN($M58))) = "", "0", TRIM(MID(SUBSTITUTE($M58,",",REPT(" ",LEN($M58))),6 *LEN($M58)+1,LEN($M58))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M58,",",REPT(" ",LEN($M58))), 7 *LEN($M58)+1,LEN($M58))) = "", "0", TRIM(MID(SUBSTITUTE($M58,",",REPT(" ",LEN($M58))),7 *LEN($M58)+1,LEN($M58))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M58,",",REPT(" ",LEN($M58))), 8 *LEN($M58)+1,LEN($M58))) = "", "0", TRIM(MID(SUBSTITUTE($M58,",",REPT(" ",LEN($M58))),8 *LEN($M58)+1,LEN($M58))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M58,",",REPT(" ",LEN($M58))), 9 *LEN($M58)+1,LEN($M58))) = "", "0", TRIM(MID(SUBSTITUTE($M58,",",REPT(" ",LEN($M58))),9 *LEN($M58)+1,LEN($M58))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M58,",",REPT(" ",LEN($M58))), 10 *LEN($M58)+1,LEN($M58))) = "", "0", TRIM(MID(SUBSTITUTE($M58,",",REPT(" ",LEN($M58))),10 *LEN($M58)+1,LEN($M58)))))</f>
@@ -3702,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="X58" s="0" t="str">
-        <f aca="true">IF(O58="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S58)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O58="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S58)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -3741,8 +3741,8 @@
         <v/>
       </c>
       <c r="U59" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V59" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M59,",",REPT(" ",LEN($M59))), 0 *LEN($M59)+1,LEN($M59))) = "", "0", TRIM(MID(SUBSTITUTE($M59,",",REPT(" ",LEN($M59))),0 *LEN($M59)+1,LEN($M59))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M59,",",REPT(" ",LEN($M59))), 1 *LEN($M59)+1,LEN($M59))) = "", "0", TRIM(MID(SUBSTITUTE($M59,",",REPT(" ",LEN($M59))),1 *LEN($M59)+1,LEN($M59))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M59,",",REPT(" ",LEN($M59))), 2 *LEN($M59)+1,LEN($M59))) = "", "0", TRIM(MID(SUBSTITUTE($M59,",",REPT(" ",LEN($M59))),2 *LEN($M59)+1,LEN($M59))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M59,",",REPT(" ",LEN($M59))), 3 *LEN($M59)+1,LEN($M59))) = "", "0", TRIM(MID(SUBSTITUTE($M59,",",REPT(" ",LEN($M59))),3 *LEN($M59)+1,LEN($M59))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M59,",",REPT(" ",LEN($M59))), 4 *LEN($M59)+1,LEN($M59))) = "", "0", TRIM(MID(SUBSTITUTE($M59,",",REPT(" ",LEN($M59))),4 *LEN($M59)+1,LEN($M59))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M59,",",REPT(" ",LEN($M59))), 5 *LEN($M59)+1,LEN($M59))) = "", "0", TRIM(MID(SUBSTITUTE($M59,",",REPT(" ",LEN($M59))),5 *LEN($M59)+1,LEN($M59))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M59,",",REPT(" ",LEN($M59))), 6 *LEN($M59)+1,LEN($M59))) = "", "0", TRIM(MID(SUBSTITUTE($M59,",",REPT(" ",LEN($M59))),6 *LEN($M59)+1,LEN($M59))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M59,",",REPT(" ",LEN($M59))), 7 *LEN($M59)+1,LEN($M59))) = "", "0", TRIM(MID(SUBSTITUTE($M59,",",REPT(" ",LEN($M59))),7 *LEN($M59)+1,LEN($M59))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M59,",",REPT(" ",LEN($M59))), 8 *LEN($M59)+1,LEN($M59))) = "", "0", TRIM(MID(SUBSTITUTE($M59,",",REPT(" ",LEN($M59))),8 *LEN($M59)+1,LEN($M59))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M59,",",REPT(" ",LEN($M59))), 9 *LEN($M59)+1,LEN($M59))) = "", "0", TRIM(MID(SUBSTITUTE($M59,",",REPT(" ",LEN($M59))),9 *LEN($M59)+1,LEN($M59))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M59,",",REPT(" ",LEN($M59))), 10 *LEN($M59)+1,LEN($M59))) = "", "0", TRIM(MID(SUBSTITUTE($M59,",",REPT(" ",LEN($M59))),10 *LEN($M59)+1,LEN($M59)))))</f>
@@ -3753,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="X59" s="0" t="str">
-        <f aca="true">IF(O59="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S59)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O59="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S59)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -3792,8 +3792,8 @@
         <v/>
       </c>
       <c r="U60" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V60" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M60,",",REPT(" ",LEN($M60))), 0 *LEN($M60)+1,LEN($M60))) = "", "0", TRIM(MID(SUBSTITUTE($M60,",",REPT(" ",LEN($M60))),0 *LEN($M60)+1,LEN($M60))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M60,",",REPT(" ",LEN($M60))), 1 *LEN($M60)+1,LEN($M60))) = "", "0", TRIM(MID(SUBSTITUTE($M60,",",REPT(" ",LEN($M60))),1 *LEN($M60)+1,LEN($M60))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M60,",",REPT(" ",LEN($M60))), 2 *LEN($M60)+1,LEN($M60))) = "", "0", TRIM(MID(SUBSTITUTE($M60,",",REPT(" ",LEN($M60))),2 *LEN($M60)+1,LEN($M60))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M60,",",REPT(" ",LEN($M60))), 3 *LEN($M60)+1,LEN($M60))) = "", "0", TRIM(MID(SUBSTITUTE($M60,",",REPT(" ",LEN($M60))),3 *LEN($M60)+1,LEN($M60))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M60,",",REPT(" ",LEN($M60))), 4 *LEN($M60)+1,LEN($M60))) = "", "0", TRIM(MID(SUBSTITUTE($M60,",",REPT(" ",LEN($M60))),4 *LEN($M60)+1,LEN($M60))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M60,",",REPT(" ",LEN($M60))), 5 *LEN($M60)+1,LEN($M60))) = "", "0", TRIM(MID(SUBSTITUTE($M60,",",REPT(" ",LEN($M60))),5 *LEN($M60)+1,LEN($M60))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M60,",",REPT(" ",LEN($M60))), 6 *LEN($M60)+1,LEN($M60))) = "", "0", TRIM(MID(SUBSTITUTE($M60,",",REPT(" ",LEN($M60))),6 *LEN($M60)+1,LEN($M60))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M60,",",REPT(" ",LEN($M60))), 7 *LEN($M60)+1,LEN($M60))) = "", "0", TRIM(MID(SUBSTITUTE($M60,",",REPT(" ",LEN($M60))),7 *LEN($M60)+1,LEN($M60))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M60,",",REPT(" ",LEN($M60))), 8 *LEN($M60)+1,LEN($M60))) = "", "0", TRIM(MID(SUBSTITUTE($M60,",",REPT(" ",LEN($M60))),8 *LEN($M60)+1,LEN($M60))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M60,",",REPT(" ",LEN($M60))), 9 *LEN($M60)+1,LEN($M60))) = "", "0", TRIM(MID(SUBSTITUTE($M60,",",REPT(" ",LEN($M60))),9 *LEN($M60)+1,LEN($M60))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M60,",",REPT(" ",LEN($M60))), 10 *LEN($M60)+1,LEN($M60))) = "", "0", TRIM(MID(SUBSTITUTE($M60,",",REPT(" ",LEN($M60))),10 *LEN($M60)+1,LEN($M60)))))</f>
@@ -3804,7 +3804,7 @@
         <v>0</v>
       </c>
       <c r="X60" s="0" t="str">
-        <f aca="true">IF(O60="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S60)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O60="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S60)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -3843,8 +3843,8 @@
         <v/>
       </c>
       <c r="U61" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V61" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M61,",",REPT(" ",LEN($M61))), 0 *LEN($M61)+1,LEN($M61))) = "", "0", TRIM(MID(SUBSTITUTE($M61,",",REPT(" ",LEN($M61))),0 *LEN($M61)+1,LEN($M61))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M61,",",REPT(" ",LEN($M61))), 1 *LEN($M61)+1,LEN($M61))) = "", "0", TRIM(MID(SUBSTITUTE($M61,",",REPT(" ",LEN($M61))),1 *LEN($M61)+1,LEN($M61))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M61,",",REPT(" ",LEN($M61))), 2 *LEN($M61)+1,LEN($M61))) = "", "0", TRIM(MID(SUBSTITUTE($M61,",",REPT(" ",LEN($M61))),2 *LEN($M61)+1,LEN($M61))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M61,",",REPT(" ",LEN($M61))), 3 *LEN($M61)+1,LEN($M61))) = "", "0", TRIM(MID(SUBSTITUTE($M61,",",REPT(" ",LEN($M61))),3 *LEN($M61)+1,LEN($M61))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M61,",",REPT(" ",LEN($M61))), 4 *LEN($M61)+1,LEN($M61))) = "", "0", TRIM(MID(SUBSTITUTE($M61,",",REPT(" ",LEN($M61))),4 *LEN($M61)+1,LEN($M61))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M61,",",REPT(" ",LEN($M61))), 5 *LEN($M61)+1,LEN($M61))) = "", "0", TRIM(MID(SUBSTITUTE($M61,",",REPT(" ",LEN($M61))),5 *LEN($M61)+1,LEN($M61))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M61,",",REPT(" ",LEN($M61))), 6 *LEN($M61)+1,LEN($M61))) = "", "0", TRIM(MID(SUBSTITUTE($M61,",",REPT(" ",LEN($M61))),6 *LEN($M61)+1,LEN($M61))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M61,",",REPT(" ",LEN($M61))), 7 *LEN($M61)+1,LEN($M61))) = "", "0", TRIM(MID(SUBSTITUTE($M61,",",REPT(" ",LEN($M61))),7 *LEN($M61)+1,LEN($M61))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M61,",",REPT(" ",LEN($M61))), 8 *LEN($M61)+1,LEN($M61))) = "", "0", TRIM(MID(SUBSTITUTE($M61,",",REPT(" ",LEN($M61))),8 *LEN($M61)+1,LEN($M61))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M61,",",REPT(" ",LEN($M61))), 9 *LEN($M61)+1,LEN($M61))) = "", "0", TRIM(MID(SUBSTITUTE($M61,",",REPT(" ",LEN($M61))),9 *LEN($M61)+1,LEN($M61))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M61,",",REPT(" ",LEN($M61))), 10 *LEN($M61)+1,LEN($M61))) = "", "0", TRIM(MID(SUBSTITUTE($M61,",",REPT(" ",LEN($M61))),10 *LEN($M61)+1,LEN($M61)))))</f>
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="X61" s="0" t="str">
-        <f aca="true">IF(O61="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S61)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O61="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S61)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -3894,8 +3894,8 @@
         <v/>
       </c>
       <c r="U62" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V62" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M62,",",REPT(" ",LEN($M62))), 0 *LEN($M62)+1,LEN($M62))) = "", "0", TRIM(MID(SUBSTITUTE($M62,",",REPT(" ",LEN($M62))),0 *LEN($M62)+1,LEN($M62))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M62,",",REPT(" ",LEN($M62))), 1 *LEN($M62)+1,LEN($M62))) = "", "0", TRIM(MID(SUBSTITUTE($M62,",",REPT(" ",LEN($M62))),1 *LEN($M62)+1,LEN($M62))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M62,",",REPT(" ",LEN($M62))), 2 *LEN($M62)+1,LEN($M62))) = "", "0", TRIM(MID(SUBSTITUTE($M62,",",REPT(" ",LEN($M62))),2 *LEN($M62)+1,LEN($M62))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M62,",",REPT(" ",LEN($M62))), 3 *LEN($M62)+1,LEN($M62))) = "", "0", TRIM(MID(SUBSTITUTE($M62,",",REPT(" ",LEN($M62))),3 *LEN($M62)+1,LEN($M62))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M62,",",REPT(" ",LEN($M62))), 4 *LEN($M62)+1,LEN($M62))) = "", "0", TRIM(MID(SUBSTITUTE($M62,",",REPT(" ",LEN($M62))),4 *LEN($M62)+1,LEN($M62))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M62,",",REPT(" ",LEN($M62))), 5 *LEN($M62)+1,LEN($M62))) = "", "0", TRIM(MID(SUBSTITUTE($M62,",",REPT(" ",LEN($M62))),5 *LEN($M62)+1,LEN($M62))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M62,",",REPT(" ",LEN($M62))), 6 *LEN($M62)+1,LEN($M62))) = "", "0", TRIM(MID(SUBSTITUTE($M62,",",REPT(" ",LEN($M62))),6 *LEN($M62)+1,LEN($M62))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M62,",",REPT(" ",LEN($M62))), 7 *LEN($M62)+1,LEN($M62))) = "", "0", TRIM(MID(SUBSTITUTE($M62,",",REPT(" ",LEN($M62))),7 *LEN($M62)+1,LEN($M62))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M62,",",REPT(" ",LEN($M62))), 8 *LEN($M62)+1,LEN($M62))) = "", "0", TRIM(MID(SUBSTITUTE($M62,",",REPT(" ",LEN($M62))),8 *LEN($M62)+1,LEN($M62))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M62,",",REPT(" ",LEN($M62))), 9 *LEN($M62)+1,LEN($M62))) = "", "0", TRIM(MID(SUBSTITUTE($M62,",",REPT(" ",LEN($M62))),9 *LEN($M62)+1,LEN($M62))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M62,",",REPT(" ",LEN($M62))), 10 *LEN($M62)+1,LEN($M62))) = "", "0", TRIM(MID(SUBSTITUTE($M62,",",REPT(" ",LEN($M62))),10 *LEN($M62)+1,LEN($M62)))))</f>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="X62" s="0" t="str">
-        <f aca="true">IF(O62="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S62)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O62="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S62)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -3945,8 +3945,8 @@
         <v/>
       </c>
       <c r="U63" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V63" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M63,",",REPT(" ",LEN($M63))), 0 *LEN($M63)+1,LEN($M63))) = "", "0", TRIM(MID(SUBSTITUTE($M63,",",REPT(" ",LEN($M63))),0 *LEN($M63)+1,LEN($M63))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M63,",",REPT(" ",LEN($M63))), 1 *LEN($M63)+1,LEN($M63))) = "", "0", TRIM(MID(SUBSTITUTE($M63,",",REPT(" ",LEN($M63))),1 *LEN($M63)+1,LEN($M63))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M63,",",REPT(" ",LEN($M63))), 2 *LEN($M63)+1,LEN($M63))) = "", "0", TRIM(MID(SUBSTITUTE($M63,",",REPT(" ",LEN($M63))),2 *LEN($M63)+1,LEN($M63))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M63,",",REPT(" ",LEN($M63))), 3 *LEN($M63)+1,LEN($M63))) = "", "0", TRIM(MID(SUBSTITUTE($M63,",",REPT(" ",LEN($M63))),3 *LEN($M63)+1,LEN($M63))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M63,",",REPT(" ",LEN($M63))), 4 *LEN($M63)+1,LEN($M63))) = "", "0", TRIM(MID(SUBSTITUTE($M63,",",REPT(" ",LEN($M63))),4 *LEN($M63)+1,LEN($M63))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M63,",",REPT(" ",LEN($M63))), 5 *LEN($M63)+1,LEN($M63))) = "", "0", TRIM(MID(SUBSTITUTE($M63,",",REPT(" ",LEN($M63))),5 *LEN($M63)+1,LEN($M63))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M63,",",REPT(" ",LEN($M63))), 6 *LEN($M63)+1,LEN($M63))) = "", "0", TRIM(MID(SUBSTITUTE($M63,",",REPT(" ",LEN($M63))),6 *LEN($M63)+1,LEN($M63))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M63,",",REPT(" ",LEN($M63))), 7 *LEN($M63)+1,LEN($M63))) = "", "0", TRIM(MID(SUBSTITUTE($M63,",",REPT(" ",LEN($M63))),7 *LEN($M63)+1,LEN($M63))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M63,",",REPT(" ",LEN($M63))), 8 *LEN($M63)+1,LEN($M63))) = "", "0", TRIM(MID(SUBSTITUTE($M63,",",REPT(" ",LEN($M63))),8 *LEN($M63)+1,LEN($M63))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M63,",",REPT(" ",LEN($M63))), 9 *LEN($M63)+1,LEN($M63))) = "", "0", TRIM(MID(SUBSTITUTE($M63,",",REPT(" ",LEN($M63))),9 *LEN($M63)+1,LEN($M63))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M63,",",REPT(" ",LEN($M63))), 10 *LEN($M63)+1,LEN($M63))) = "", "0", TRIM(MID(SUBSTITUTE($M63,",",REPT(" ",LEN($M63))),10 *LEN($M63)+1,LEN($M63)))))</f>
@@ -3957,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="X63" s="0" t="str">
-        <f aca="true">IF(O63="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S63)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O63="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S63)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -3996,8 +3996,8 @@
         <v/>
       </c>
       <c r="U64" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V64" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M64,",",REPT(" ",LEN($M64))), 0 *LEN($M64)+1,LEN($M64))) = "", "0", TRIM(MID(SUBSTITUTE($M64,",",REPT(" ",LEN($M64))),0 *LEN($M64)+1,LEN($M64))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M64,",",REPT(" ",LEN($M64))), 1 *LEN($M64)+1,LEN($M64))) = "", "0", TRIM(MID(SUBSTITUTE($M64,",",REPT(" ",LEN($M64))),1 *LEN($M64)+1,LEN($M64))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M64,",",REPT(" ",LEN($M64))), 2 *LEN($M64)+1,LEN($M64))) = "", "0", TRIM(MID(SUBSTITUTE($M64,",",REPT(" ",LEN($M64))),2 *LEN($M64)+1,LEN($M64))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M64,",",REPT(" ",LEN($M64))), 3 *LEN($M64)+1,LEN($M64))) = "", "0", TRIM(MID(SUBSTITUTE($M64,",",REPT(" ",LEN($M64))),3 *LEN($M64)+1,LEN($M64))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M64,",",REPT(" ",LEN($M64))), 4 *LEN($M64)+1,LEN($M64))) = "", "0", TRIM(MID(SUBSTITUTE($M64,",",REPT(" ",LEN($M64))),4 *LEN($M64)+1,LEN($M64))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M64,",",REPT(" ",LEN($M64))), 5 *LEN($M64)+1,LEN($M64))) = "", "0", TRIM(MID(SUBSTITUTE($M64,",",REPT(" ",LEN($M64))),5 *LEN($M64)+1,LEN($M64))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M64,",",REPT(" ",LEN($M64))), 6 *LEN($M64)+1,LEN($M64))) = "", "0", TRIM(MID(SUBSTITUTE($M64,",",REPT(" ",LEN($M64))),6 *LEN($M64)+1,LEN($M64))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M64,",",REPT(" ",LEN($M64))), 7 *LEN($M64)+1,LEN($M64))) = "", "0", TRIM(MID(SUBSTITUTE($M64,",",REPT(" ",LEN($M64))),7 *LEN($M64)+1,LEN($M64))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M64,",",REPT(" ",LEN($M64))), 8 *LEN($M64)+1,LEN($M64))) = "", "0", TRIM(MID(SUBSTITUTE($M64,",",REPT(" ",LEN($M64))),8 *LEN($M64)+1,LEN($M64))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M64,",",REPT(" ",LEN($M64))), 9 *LEN($M64)+1,LEN($M64))) = "", "0", TRIM(MID(SUBSTITUTE($M64,",",REPT(" ",LEN($M64))),9 *LEN($M64)+1,LEN($M64))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M64,",",REPT(" ",LEN($M64))), 10 *LEN($M64)+1,LEN($M64))) = "", "0", TRIM(MID(SUBSTITUTE($M64,",",REPT(" ",LEN($M64))),10 *LEN($M64)+1,LEN($M64)))))</f>
@@ -4008,7 +4008,7 @@
         <v>0</v>
       </c>
       <c r="X64" s="0" t="str">
-        <f aca="true">IF(O64="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S64)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O64="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S64)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -4047,8 +4047,8 @@
         <v/>
       </c>
       <c r="U65" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V65" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M65,",",REPT(" ",LEN($M65))), 0 *LEN($M65)+1,LEN($M65))) = "", "0", TRIM(MID(SUBSTITUTE($M65,",",REPT(" ",LEN($M65))),0 *LEN($M65)+1,LEN($M65))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M65,",",REPT(" ",LEN($M65))), 1 *LEN($M65)+1,LEN($M65))) = "", "0", TRIM(MID(SUBSTITUTE($M65,",",REPT(" ",LEN($M65))),1 *LEN($M65)+1,LEN($M65))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M65,",",REPT(" ",LEN($M65))), 2 *LEN($M65)+1,LEN($M65))) = "", "0", TRIM(MID(SUBSTITUTE($M65,",",REPT(" ",LEN($M65))),2 *LEN($M65)+1,LEN($M65))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M65,",",REPT(" ",LEN($M65))), 3 *LEN($M65)+1,LEN($M65))) = "", "0", TRIM(MID(SUBSTITUTE($M65,",",REPT(" ",LEN($M65))),3 *LEN($M65)+1,LEN($M65))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M65,",",REPT(" ",LEN($M65))), 4 *LEN($M65)+1,LEN($M65))) = "", "0", TRIM(MID(SUBSTITUTE($M65,",",REPT(" ",LEN($M65))),4 *LEN($M65)+1,LEN($M65))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M65,",",REPT(" ",LEN($M65))), 5 *LEN($M65)+1,LEN($M65))) = "", "0", TRIM(MID(SUBSTITUTE($M65,",",REPT(" ",LEN($M65))),5 *LEN($M65)+1,LEN($M65))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M65,",",REPT(" ",LEN($M65))), 6 *LEN($M65)+1,LEN($M65))) = "", "0", TRIM(MID(SUBSTITUTE($M65,",",REPT(" ",LEN($M65))),6 *LEN($M65)+1,LEN($M65))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M65,",",REPT(" ",LEN($M65))), 7 *LEN($M65)+1,LEN($M65))) = "", "0", TRIM(MID(SUBSTITUTE($M65,",",REPT(" ",LEN($M65))),7 *LEN($M65)+1,LEN($M65))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M65,",",REPT(" ",LEN($M65))), 8 *LEN($M65)+1,LEN($M65))) = "", "0", TRIM(MID(SUBSTITUTE($M65,",",REPT(" ",LEN($M65))),8 *LEN($M65)+1,LEN($M65))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M65,",",REPT(" ",LEN($M65))), 9 *LEN($M65)+1,LEN($M65))) = "", "0", TRIM(MID(SUBSTITUTE($M65,",",REPT(" ",LEN($M65))),9 *LEN($M65)+1,LEN($M65))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M65,",",REPT(" ",LEN($M65))), 10 *LEN($M65)+1,LEN($M65))) = "", "0", TRIM(MID(SUBSTITUTE($M65,",",REPT(" ",LEN($M65))),10 *LEN($M65)+1,LEN($M65)))))</f>
@@ -4059,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="X65" s="0" t="str">
-        <f aca="true">IF(O65="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S65)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O65="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S65)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -4098,8 +4098,8 @@
         <v/>
       </c>
       <c r="U66" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V66" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M66,",",REPT(" ",LEN($M66))), 0 *LEN($M66)+1,LEN($M66))) = "", "0", TRIM(MID(SUBSTITUTE($M66,",",REPT(" ",LEN($M66))),0 *LEN($M66)+1,LEN($M66))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M66,",",REPT(" ",LEN($M66))), 1 *LEN($M66)+1,LEN($M66))) = "", "0", TRIM(MID(SUBSTITUTE($M66,",",REPT(" ",LEN($M66))),1 *LEN($M66)+1,LEN($M66))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M66,",",REPT(" ",LEN($M66))), 2 *LEN($M66)+1,LEN($M66))) = "", "0", TRIM(MID(SUBSTITUTE($M66,",",REPT(" ",LEN($M66))),2 *LEN($M66)+1,LEN($M66))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M66,",",REPT(" ",LEN($M66))), 3 *LEN($M66)+1,LEN($M66))) = "", "0", TRIM(MID(SUBSTITUTE($M66,",",REPT(" ",LEN($M66))),3 *LEN($M66)+1,LEN($M66))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M66,",",REPT(" ",LEN($M66))), 4 *LEN($M66)+1,LEN($M66))) = "", "0", TRIM(MID(SUBSTITUTE($M66,",",REPT(" ",LEN($M66))),4 *LEN($M66)+1,LEN($M66))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M66,",",REPT(" ",LEN($M66))), 5 *LEN($M66)+1,LEN($M66))) = "", "0", TRIM(MID(SUBSTITUTE($M66,",",REPT(" ",LEN($M66))),5 *LEN($M66)+1,LEN($M66))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M66,",",REPT(" ",LEN($M66))), 6 *LEN($M66)+1,LEN($M66))) = "", "0", TRIM(MID(SUBSTITUTE($M66,",",REPT(" ",LEN($M66))),6 *LEN($M66)+1,LEN($M66))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M66,",",REPT(" ",LEN($M66))), 7 *LEN($M66)+1,LEN($M66))) = "", "0", TRIM(MID(SUBSTITUTE($M66,",",REPT(" ",LEN($M66))),7 *LEN($M66)+1,LEN($M66))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M66,",",REPT(" ",LEN($M66))), 8 *LEN($M66)+1,LEN($M66))) = "", "0", TRIM(MID(SUBSTITUTE($M66,",",REPT(" ",LEN($M66))),8 *LEN($M66)+1,LEN($M66))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M66,",",REPT(" ",LEN($M66))), 9 *LEN($M66)+1,LEN($M66))) = "", "0", TRIM(MID(SUBSTITUTE($M66,",",REPT(" ",LEN($M66))),9 *LEN($M66)+1,LEN($M66))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M66,",",REPT(" ",LEN($M66))), 10 *LEN($M66)+1,LEN($M66))) = "", "0", TRIM(MID(SUBSTITUTE($M66,",",REPT(" ",LEN($M66))),10 *LEN($M66)+1,LEN($M66)))))</f>
@@ -4110,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="X66" s="0" t="str">
-        <f aca="true">IF(O66="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S66)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O66="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S66)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -4149,8 +4149,8 @@
         <v/>
       </c>
       <c r="U67" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V67" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M67,",",REPT(" ",LEN($M67))), 0 *LEN($M67)+1,LEN($M67))) = "", "0", TRIM(MID(SUBSTITUTE($M67,",",REPT(" ",LEN($M67))),0 *LEN($M67)+1,LEN($M67))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M67,",",REPT(" ",LEN($M67))), 1 *LEN($M67)+1,LEN($M67))) = "", "0", TRIM(MID(SUBSTITUTE($M67,",",REPT(" ",LEN($M67))),1 *LEN($M67)+1,LEN($M67))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M67,",",REPT(" ",LEN($M67))), 2 *LEN($M67)+1,LEN($M67))) = "", "0", TRIM(MID(SUBSTITUTE($M67,",",REPT(" ",LEN($M67))),2 *LEN($M67)+1,LEN($M67))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M67,",",REPT(" ",LEN($M67))), 3 *LEN($M67)+1,LEN($M67))) = "", "0", TRIM(MID(SUBSTITUTE($M67,",",REPT(" ",LEN($M67))),3 *LEN($M67)+1,LEN($M67))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M67,",",REPT(" ",LEN($M67))), 4 *LEN($M67)+1,LEN($M67))) = "", "0", TRIM(MID(SUBSTITUTE($M67,",",REPT(" ",LEN($M67))),4 *LEN($M67)+1,LEN($M67))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M67,",",REPT(" ",LEN($M67))), 5 *LEN($M67)+1,LEN($M67))) = "", "0", TRIM(MID(SUBSTITUTE($M67,",",REPT(" ",LEN($M67))),5 *LEN($M67)+1,LEN($M67))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M67,",",REPT(" ",LEN($M67))), 6 *LEN($M67)+1,LEN($M67))) = "", "0", TRIM(MID(SUBSTITUTE($M67,",",REPT(" ",LEN($M67))),6 *LEN($M67)+1,LEN($M67))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M67,",",REPT(" ",LEN($M67))), 7 *LEN($M67)+1,LEN($M67))) = "", "0", TRIM(MID(SUBSTITUTE($M67,",",REPT(" ",LEN($M67))),7 *LEN($M67)+1,LEN($M67))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M67,",",REPT(" ",LEN($M67))), 8 *LEN($M67)+1,LEN($M67))) = "", "0", TRIM(MID(SUBSTITUTE($M67,",",REPT(" ",LEN($M67))),8 *LEN($M67)+1,LEN($M67))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M67,",",REPT(" ",LEN($M67))), 9 *LEN($M67)+1,LEN($M67))) = "", "0", TRIM(MID(SUBSTITUTE($M67,",",REPT(" ",LEN($M67))),9 *LEN($M67)+1,LEN($M67))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M67,",",REPT(" ",LEN($M67))), 10 *LEN($M67)+1,LEN($M67))) = "", "0", TRIM(MID(SUBSTITUTE($M67,",",REPT(" ",LEN($M67))),10 *LEN($M67)+1,LEN($M67)))))</f>
@@ -4161,7 +4161,7 @@
         <v>0</v>
       </c>
       <c r="X67" s="0" t="str">
-        <f aca="true">IF(O67="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S67)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O67="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S67)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -4200,8 +4200,8 @@
         <v/>
       </c>
       <c r="U68" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V68" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M68,",",REPT(" ",LEN($M68))), 0 *LEN($M68)+1,LEN($M68))) = "", "0", TRIM(MID(SUBSTITUTE($M68,",",REPT(" ",LEN($M68))),0 *LEN($M68)+1,LEN($M68))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M68,",",REPT(" ",LEN($M68))), 1 *LEN($M68)+1,LEN($M68))) = "", "0", TRIM(MID(SUBSTITUTE($M68,",",REPT(" ",LEN($M68))),1 *LEN($M68)+1,LEN($M68))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M68,",",REPT(" ",LEN($M68))), 2 *LEN($M68)+1,LEN($M68))) = "", "0", TRIM(MID(SUBSTITUTE($M68,",",REPT(" ",LEN($M68))),2 *LEN($M68)+1,LEN($M68))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M68,",",REPT(" ",LEN($M68))), 3 *LEN($M68)+1,LEN($M68))) = "", "0", TRIM(MID(SUBSTITUTE($M68,",",REPT(" ",LEN($M68))),3 *LEN($M68)+1,LEN($M68))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M68,",",REPT(" ",LEN($M68))), 4 *LEN($M68)+1,LEN($M68))) = "", "0", TRIM(MID(SUBSTITUTE($M68,",",REPT(" ",LEN($M68))),4 *LEN($M68)+1,LEN($M68))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M68,",",REPT(" ",LEN($M68))), 5 *LEN($M68)+1,LEN($M68))) = "", "0", TRIM(MID(SUBSTITUTE($M68,",",REPT(" ",LEN($M68))),5 *LEN($M68)+1,LEN($M68))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M68,",",REPT(" ",LEN($M68))), 6 *LEN($M68)+1,LEN($M68))) = "", "0", TRIM(MID(SUBSTITUTE($M68,",",REPT(" ",LEN($M68))),6 *LEN($M68)+1,LEN($M68))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M68,",",REPT(" ",LEN($M68))), 7 *LEN($M68)+1,LEN($M68))) = "", "0", TRIM(MID(SUBSTITUTE($M68,",",REPT(" ",LEN($M68))),7 *LEN($M68)+1,LEN($M68))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M68,",",REPT(" ",LEN($M68))), 8 *LEN($M68)+1,LEN($M68))) = "", "0", TRIM(MID(SUBSTITUTE($M68,",",REPT(" ",LEN($M68))),8 *LEN($M68)+1,LEN($M68))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M68,",",REPT(" ",LEN($M68))), 9 *LEN($M68)+1,LEN($M68))) = "", "0", TRIM(MID(SUBSTITUTE($M68,",",REPT(" ",LEN($M68))),9 *LEN($M68)+1,LEN($M68))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M68,",",REPT(" ",LEN($M68))), 10 *LEN($M68)+1,LEN($M68))) = "", "0", TRIM(MID(SUBSTITUTE($M68,",",REPT(" ",LEN($M68))),10 *LEN($M68)+1,LEN($M68)))))</f>
@@ -4212,7 +4212,7 @@
         <v>0</v>
       </c>
       <c r="X68" s="0" t="str">
-        <f aca="true">IF(O68="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S68)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O68="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S68)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -4251,8 +4251,8 @@
         <v/>
       </c>
       <c r="U69" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V69" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M69,",",REPT(" ",LEN($M69))), 0 *LEN($M69)+1,LEN($M69))) = "", "0", TRIM(MID(SUBSTITUTE($M69,",",REPT(" ",LEN($M69))),0 *LEN($M69)+1,LEN($M69))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M69,",",REPT(" ",LEN($M69))), 1 *LEN($M69)+1,LEN($M69))) = "", "0", TRIM(MID(SUBSTITUTE($M69,",",REPT(" ",LEN($M69))),1 *LEN($M69)+1,LEN($M69))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M69,",",REPT(" ",LEN($M69))), 2 *LEN($M69)+1,LEN($M69))) = "", "0", TRIM(MID(SUBSTITUTE($M69,",",REPT(" ",LEN($M69))),2 *LEN($M69)+1,LEN($M69))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M69,",",REPT(" ",LEN($M69))), 3 *LEN($M69)+1,LEN($M69))) = "", "0", TRIM(MID(SUBSTITUTE($M69,",",REPT(" ",LEN($M69))),3 *LEN($M69)+1,LEN($M69))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M69,",",REPT(" ",LEN($M69))), 4 *LEN($M69)+1,LEN($M69))) = "", "0", TRIM(MID(SUBSTITUTE($M69,",",REPT(" ",LEN($M69))),4 *LEN($M69)+1,LEN($M69))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M69,",",REPT(" ",LEN($M69))), 5 *LEN($M69)+1,LEN($M69))) = "", "0", TRIM(MID(SUBSTITUTE($M69,",",REPT(" ",LEN($M69))),5 *LEN($M69)+1,LEN($M69))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M69,",",REPT(" ",LEN($M69))), 6 *LEN($M69)+1,LEN($M69))) = "", "0", TRIM(MID(SUBSTITUTE($M69,",",REPT(" ",LEN($M69))),6 *LEN($M69)+1,LEN($M69))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M69,",",REPT(" ",LEN($M69))), 7 *LEN($M69)+1,LEN($M69))) = "", "0", TRIM(MID(SUBSTITUTE($M69,",",REPT(" ",LEN($M69))),7 *LEN($M69)+1,LEN($M69))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M69,",",REPT(" ",LEN($M69))), 8 *LEN($M69)+1,LEN($M69))) = "", "0", TRIM(MID(SUBSTITUTE($M69,",",REPT(" ",LEN($M69))),8 *LEN($M69)+1,LEN($M69))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M69,",",REPT(" ",LEN($M69))), 9 *LEN($M69)+1,LEN($M69))) = "", "0", TRIM(MID(SUBSTITUTE($M69,",",REPT(" ",LEN($M69))),9 *LEN($M69)+1,LEN($M69))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M69,",",REPT(" ",LEN($M69))), 10 *LEN($M69)+1,LEN($M69))) = "", "0", TRIM(MID(SUBSTITUTE($M69,",",REPT(" ",LEN($M69))),10 *LEN($M69)+1,LEN($M69)))))</f>
@@ -4263,7 +4263,7 @@
         <v>0</v>
       </c>
       <c r="X69" s="0" t="str">
-        <f aca="true">IF(O69="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S69)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O69="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S69)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -4302,8 +4302,8 @@
         <v/>
       </c>
       <c r="U70" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V70" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M70,",",REPT(" ",LEN($M70))), 0 *LEN($M70)+1,LEN($M70))) = "", "0", TRIM(MID(SUBSTITUTE($M70,",",REPT(" ",LEN($M70))),0 *LEN($M70)+1,LEN($M70))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M70,",",REPT(" ",LEN($M70))), 1 *LEN($M70)+1,LEN($M70))) = "", "0", TRIM(MID(SUBSTITUTE($M70,",",REPT(" ",LEN($M70))),1 *LEN($M70)+1,LEN($M70))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M70,",",REPT(" ",LEN($M70))), 2 *LEN($M70)+1,LEN($M70))) = "", "0", TRIM(MID(SUBSTITUTE($M70,",",REPT(" ",LEN($M70))),2 *LEN($M70)+1,LEN($M70))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M70,",",REPT(" ",LEN($M70))), 3 *LEN($M70)+1,LEN($M70))) = "", "0", TRIM(MID(SUBSTITUTE($M70,",",REPT(" ",LEN($M70))),3 *LEN($M70)+1,LEN($M70))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M70,",",REPT(" ",LEN($M70))), 4 *LEN($M70)+1,LEN($M70))) = "", "0", TRIM(MID(SUBSTITUTE($M70,",",REPT(" ",LEN($M70))),4 *LEN($M70)+1,LEN($M70))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M70,",",REPT(" ",LEN($M70))), 5 *LEN($M70)+1,LEN($M70))) = "", "0", TRIM(MID(SUBSTITUTE($M70,",",REPT(" ",LEN($M70))),5 *LEN($M70)+1,LEN($M70))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M70,",",REPT(" ",LEN($M70))), 6 *LEN($M70)+1,LEN($M70))) = "", "0", TRIM(MID(SUBSTITUTE($M70,",",REPT(" ",LEN($M70))),6 *LEN($M70)+1,LEN($M70))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M70,",",REPT(" ",LEN($M70))), 7 *LEN($M70)+1,LEN($M70))) = "", "0", TRIM(MID(SUBSTITUTE($M70,",",REPT(" ",LEN($M70))),7 *LEN($M70)+1,LEN($M70))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M70,",",REPT(" ",LEN($M70))), 8 *LEN($M70)+1,LEN($M70))) = "", "0", TRIM(MID(SUBSTITUTE($M70,",",REPT(" ",LEN($M70))),8 *LEN($M70)+1,LEN($M70))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M70,",",REPT(" ",LEN($M70))), 9 *LEN($M70)+1,LEN($M70))) = "", "0", TRIM(MID(SUBSTITUTE($M70,",",REPT(" ",LEN($M70))),9 *LEN($M70)+1,LEN($M70))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M70,",",REPT(" ",LEN($M70))), 10 *LEN($M70)+1,LEN($M70))) = "", "0", TRIM(MID(SUBSTITUTE($M70,",",REPT(" ",LEN($M70))),10 *LEN($M70)+1,LEN($M70)))))</f>
@@ -4314,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="X70" s="0" t="str">
-        <f aca="true">IF(O70="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S70)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O70="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S70)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -4353,8 +4353,8 @@
         <v/>
       </c>
       <c r="U71" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V71" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M71,",",REPT(" ",LEN($M71))), 0 *LEN($M71)+1,LEN($M71))) = "", "0", TRIM(MID(SUBSTITUTE($M71,",",REPT(" ",LEN($M71))),0 *LEN($M71)+1,LEN($M71))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M71,",",REPT(" ",LEN($M71))), 1 *LEN($M71)+1,LEN($M71))) = "", "0", TRIM(MID(SUBSTITUTE($M71,",",REPT(" ",LEN($M71))),1 *LEN($M71)+1,LEN($M71))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M71,",",REPT(" ",LEN($M71))), 2 *LEN($M71)+1,LEN($M71))) = "", "0", TRIM(MID(SUBSTITUTE($M71,",",REPT(" ",LEN($M71))),2 *LEN($M71)+1,LEN($M71))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M71,",",REPT(" ",LEN($M71))), 3 *LEN($M71)+1,LEN($M71))) = "", "0", TRIM(MID(SUBSTITUTE($M71,",",REPT(" ",LEN($M71))),3 *LEN($M71)+1,LEN($M71))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M71,",",REPT(" ",LEN($M71))), 4 *LEN($M71)+1,LEN($M71))) = "", "0", TRIM(MID(SUBSTITUTE($M71,",",REPT(" ",LEN($M71))),4 *LEN($M71)+1,LEN($M71))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M71,",",REPT(" ",LEN($M71))), 5 *LEN($M71)+1,LEN($M71))) = "", "0", TRIM(MID(SUBSTITUTE($M71,",",REPT(" ",LEN($M71))),5 *LEN($M71)+1,LEN($M71))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M71,",",REPT(" ",LEN($M71))), 6 *LEN($M71)+1,LEN($M71))) = "", "0", TRIM(MID(SUBSTITUTE($M71,",",REPT(" ",LEN($M71))),6 *LEN($M71)+1,LEN($M71))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M71,",",REPT(" ",LEN($M71))), 7 *LEN($M71)+1,LEN($M71))) = "", "0", TRIM(MID(SUBSTITUTE($M71,",",REPT(" ",LEN($M71))),7 *LEN($M71)+1,LEN($M71))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M71,",",REPT(" ",LEN($M71))), 8 *LEN($M71)+1,LEN($M71))) = "", "0", TRIM(MID(SUBSTITUTE($M71,",",REPT(" ",LEN($M71))),8 *LEN($M71)+1,LEN($M71))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M71,",",REPT(" ",LEN($M71))), 9 *LEN($M71)+1,LEN($M71))) = "", "0", TRIM(MID(SUBSTITUTE($M71,",",REPT(" ",LEN($M71))),9 *LEN($M71)+1,LEN($M71))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M71,",",REPT(" ",LEN($M71))), 10 *LEN($M71)+1,LEN($M71))) = "", "0", TRIM(MID(SUBSTITUTE($M71,",",REPT(" ",LEN($M71))),10 *LEN($M71)+1,LEN($M71)))))</f>
@@ -4365,7 +4365,7 @@
         <v>0</v>
       </c>
       <c r="X71" s="0" t="str">
-        <f aca="true">IF(O71="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S71)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O71="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S71)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -4404,8 +4404,8 @@
         <v/>
       </c>
       <c r="U72" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V72" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M72,",",REPT(" ",LEN($M72))), 0 *LEN($M72)+1,LEN($M72))) = "", "0", TRIM(MID(SUBSTITUTE($M72,",",REPT(" ",LEN($M72))),0 *LEN($M72)+1,LEN($M72))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M72,",",REPT(" ",LEN($M72))), 1 *LEN($M72)+1,LEN($M72))) = "", "0", TRIM(MID(SUBSTITUTE($M72,",",REPT(" ",LEN($M72))),1 *LEN($M72)+1,LEN($M72))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M72,",",REPT(" ",LEN($M72))), 2 *LEN($M72)+1,LEN($M72))) = "", "0", TRIM(MID(SUBSTITUTE($M72,",",REPT(" ",LEN($M72))),2 *LEN($M72)+1,LEN($M72))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M72,",",REPT(" ",LEN($M72))), 3 *LEN($M72)+1,LEN($M72))) = "", "0", TRIM(MID(SUBSTITUTE($M72,",",REPT(" ",LEN($M72))),3 *LEN($M72)+1,LEN($M72))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M72,",",REPT(" ",LEN($M72))), 4 *LEN($M72)+1,LEN($M72))) = "", "0", TRIM(MID(SUBSTITUTE($M72,",",REPT(" ",LEN($M72))),4 *LEN($M72)+1,LEN($M72))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M72,",",REPT(" ",LEN($M72))), 5 *LEN($M72)+1,LEN($M72))) = "", "0", TRIM(MID(SUBSTITUTE($M72,",",REPT(" ",LEN($M72))),5 *LEN($M72)+1,LEN($M72))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M72,",",REPT(" ",LEN($M72))), 6 *LEN($M72)+1,LEN($M72))) = "", "0", TRIM(MID(SUBSTITUTE($M72,",",REPT(" ",LEN($M72))),6 *LEN($M72)+1,LEN($M72))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M72,",",REPT(" ",LEN($M72))), 7 *LEN($M72)+1,LEN($M72))) = "", "0", TRIM(MID(SUBSTITUTE($M72,",",REPT(" ",LEN($M72))),7 *LEN($M72)+1,LEN($M72))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M72,",",REPT(" ",LEN($M72))), 8 *LEN($M72)+1,LEN($M72))) = "", "0", TRIM(MID(SUBSTITUTE($M72,",",REPT(" ",LEN($M72))),8 *LEN($M72)+1,LEN($M72))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M72,",",REPT(" ",LEN($M72))), 9 *LEN($M72)+1,LEN($M72))) = "", "0", TRIM(MID(SUBSTITUTE($M72,",",REPT(" ",LEN($M72))),9 *LEN($M72)+1,LEN($M72))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M72,",",REPT(" ",LEN($M72))), 10 *LEN($M72)+1,LEN($M72))) = "", "0", TRIM(MID(SUBSTITUTE($M72,",",REPT(" ",LEN($M72))),10 *LEN($M72)+1,LEN($M72)))))</f>
@@ -4416,7 +4416,7 @@
         <v>0</v>
       </c>
       <c r="X72" s="0" t="str">
-        <f aca="true">IF(O72="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S72)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O72="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S72)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -4455,8 +4455,8 @@
         <v/>
       </c>
       <c r="U73" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V73" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M73,",",REPT(" ",LEN($M73))), 0 *LEN($M73)+1,LEN($M73))) = "", "0", TRIM(MID(SUBSTITUTE($M73,",",REPT(" ",LEN($M73))),0 *LEN($M73)+1,LEN($M73))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M73,",",REPT(" ",LEN($M73))), 1 *LEN($M73)+1,LEN($M73))) = "", "0", TRIM(MID(SUBSTITUTE($M73,",",REPT(" ",LEN($M73))),1 *LEN($M73)+1,LEN($M73))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M73,",",REPT(" ",LEN($M73))), 2 *LEN($M73)+1,LEN($M73))) = "", "0", TRIM(MID(SUBSTITUTE($M73,",",REPT(" ",LEN($M73))),2 *LEN($M73)+1,LEN($M73))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M73,",",REPT(" ",LEN($M73))), 3 *LEN($M73)+1,LEN($M73))) = "", "0", TRIM(MID(SUBSTITUTE($M73,",",REPT(" ",LEN($M73))),3 *LEN($M73)+1,LEN($M73))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M73,",",REPT(" ",LEN($M73))), 4 *LEN($M73)+1,LEN($M73))) = "", "0", TRIM(MID(SUBSTITUTE($M73,",",REPT(" ",LEN($M73))),4 *LEN($M73)+1,LEN($M73))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M73,",",REPT(" ",LEN($M73))), 5 *LEN($M73)+1,LEN($M73))) = "", "0", TRIM(MID(SUBSTITUTE($M73,",",REPT(" ",LEN($M73))),5 *LEN($M73)+1,LEN($M73))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M73,",",REPT(" ",LEN($M73))), 6 *LEN($M73)+1,LEN($M73))) = "", "0", TRIM(MID(SUBSTITUTE($M73,",",REPT(" ",LEN($M73))),6 *LEN($M73)+1,LEN($M73))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M73,",",REPT(" ",LEN($M73))), 7 *LEN($M73)+1,LEN($M73))) = "", "0", TRIM(MID(SUBSTITUTE($M73,",",REPT(" ",LEN($M73))),7 *LEN($M73)+1,LEN($M73))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M73,",",REPT(" ",LEN($M73))), 8 *LEN($M73)+1,LEN($M73))) = "", "0", TRIM(MID(SUBSTITUTE($M73,",",REPT(" ",LEN($M73))),8 *LEN($M73)+1,LEN($M73))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M73,",",REPT(" ",LEN($M73))), 9 *LEN($M73)+1,LEN($M73))) = "", "0", TRIM(MID(SUBSTITUTE($M73,",",REPT(" ",LEN($M73))),9 *LEN($M73)+1,LEN($M73))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M73,",",REPT(" ",LEN($M73))), 10 *LEN($M73)+1,LEN($M73))) = "", "0", TRIM(MID(SUBSTITUTE($M73,",",REPT(" ",LEN($M73))),10 *LEN($M73)+1,LEN($M73)))))</f>
@@ -4467,7 +4467,7 @@
         <v>0</v>
       </c>
       <c r="X73" s="0" t="str">
-        <f aca="true">IF(O73="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S73)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O73="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S73)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -4506,8 +4506,8 @@
         <v/>
       </c>
       <c r="U74" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V74" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M74,",",REPT(" ",LEN($M74))), 0 *LEN($M74)+1,LEN($M74))) = "", "0", TRIM(MID(SUBSTITUTE($M74,",",REPT(" ",LEN($M74))),0 *LEN($M74)+1,LEN($M74))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M74,",",REPT(" ",LEN($M74))), 1 *LEN($M74)+1,LEN($M74))) = "", "0", TRIM(MID(SUBSTITUTE($M74,",",REPT(" ",LEN($M74))),1 *LEN($M74)+1,LEN($M74))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M74,",",REPT(" ",LEN($M74))), 2 *LEN($M74)+1,LEN($M74))) = "", "0", TRIM(MID(SUBSTITUTE($M74,",",REPT(" ",LEN($M74))),2 *LEN($M74)+1,LEN($M74))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M74,",",REPT(" ",LEN($M74))), 3 *LEN($M74)+1,LEN($M74))) = "", "0", TRIM(MID(SUBSTITUTE($M74,",",REPT(" ",LEN($M74))),3 *LEN($M74)+1,LEN($M74))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M74,",",REPT(" ",LEN($M74))), 4 *LEN($M74)+1,LEN($M74))) = "", "0", TRIM(MID(SUBSTITUTE($M74,",",REPT(" ",LEN($M74))),4 *LEN($M74)+1,LEN($M74))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M74,",",REPT(" ",LEN($M74))), 5 *LEN($M74)+1,LEN($M74))) = "", "0", TRIM(MID(SUBSTITUTE($M74,",",REPT(" ",LEN($M74))),5 *LEN($M74)+1,LEN($M74))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M74,",",REPT(" ",LEN($M74))), 6 *LEN($M74)+1,LEN($M74))) = "", "0", TRIM(MID(SUBSTITUTE($M74,",",REPT(" ",LEN($M74))),6 *LEN($M74)+1,LEN($M74))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M74,",",REPT(" ",LEN($M74))), 7 *LEN($M74)+1,LEN($M74))) = "", "0", TRIM(MID(SUBSTITUTE($M74,",",REPT(" ",LEN($M74))),7 *LEN($M74)+1,LEN($M74))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M74,",",REPT(" ",LEN($M74))), 8 *LEN($M74)+1,LEN($M74))) = "", "0", TRIM(MID(SUBSTITUTE($M74,",",REPT(" ",LEN($M74))),8 *LEN($M74)+1,LEN($M74))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M74,",",REPT(" ",LEN($M74))), 9 *LEN($M74)+1,LEN($M74))) = "", "0", TRIM(MID(SUBSTITUTE($M74,",",REPT(" ",LEN($M74))),9 *LEN($M74)+1,LEN($M74))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M74,",",REPT(" ",LEN($M74))), 10 *LEN($M74)+1,LEN($M74))) = "", "0", TRIM(MID(SUBSTITUTE($M74,",",REPT(" ",LEN($M74))),10 *LEN($M74)+1,LEN($M74)))))</f>
@@ -4518,7 +4518,7 @@
         <v>0</v>
       </c>
       <c r="X74" s="0" t="str">
-        <f aca="true">IF(O74="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S74)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O74="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S74)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -4557,8 +4557,8 @@
         <v/>
       </c>
       <c r="U75" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V75" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M75,",",REPT(" ",LEN($M75))), 0 *LEN($M75)+1,LEN($M75))) = "", "0", TRIM(MID(SUBSTITUTE($M75,",",REPT(" ",LEN($M75))),0 *LEN($M75)+1,LEN($M75))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M75,",",REPT(" ",LEN($M75))), 1 *LEN($M75)+1,LEN($M75))) = "", "0", TRIM(MID(SUBSTITUTE($M75,",",REPT(" ",LEN($M75))),1 *LEN($M75)+1,LEN($M75))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M75,",",REPT(" ",LEN($M75))), 2 *LEN($M75)+1,LEN($M75))) = "", "0", TRIM(MID(SUBSTITUTE($M75,",",REPT(" ",LEN($M75))),2 *LEN($M75)+1,LEN($M75))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M75,",",REPT(" ",LEN($M75))), 3 *LEN($M75)+1,LEN($M75))) = "", "0", TRIM(MID(SUBSTITUTE($M75,",",REPT(" ",LEN($M75))),3 *LEN($M75)+1,LEN($M75))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M75,",",REPT(" ",LEN($M75))), 4 *LEN($M75)+1,LEN($M75))) = "", "0", TRIM(MID(SUBSTITUTE($M75,",",REPT(" ",LEN($M75))),4 *LEN($M75)+1,LEN($M75))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M75,",",REPT(" ",LEN($M75))), 5 *LEN($M75)+1,LEN($M75))) = "", "0", TRIM(MID(SUBSTITUTE($M75,",",REPT(" ",LEN($M75))),5 *LEN($M75)+1,LEN($M75))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M75,",",REPT(" ",LEN($M75))), 6 *LEN($M75)+1,LEN($M75))) = "", "0", TRIM(MID(SUBSTITUTE($M75,",",REPT(" ",LEN($M75))),6 *LEN($M75)+1,LEN($M75))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M75,",",REPT(" ",LEN($M75))), 7 *LEN($M75)+1,LEN($M75))) = "", "0", TRIM(MID(SUBSTITUTE($M75,",",REPT(" ",LEN($M75))),7 *LEN($M75)+1,LEN($M75))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M75,",",REPT(" ",LEN($M75))), 8 *LEN($M75)+1,LEN($M75))) = "", "0", TRIM(MID(SUBSTITUTE($M75,",",REPT(" ",LEN($M75))),8 *LEN($M75)+1,LEN($M75))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M75,",",REPT(" ",LEN($M75))), 9 *LEN($M75)+1,LEN($M75))) = "", "0", TRIM(MID(SUBSTITUTE($M75,",",REPT(" ",LEN($M75))),9 *LEN($M75)+1,LEN($M75))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M75,",",REPT(" ",LEN($M75))), 10 *LEN($M75)+1,LEN($M75))) = "", "0", TRIM(MID(SUBSTITUTE($M75,",",REPT(" ",LEN($M75))),10 *LEN($M75)+1,LEN($M75)))))</f>
@@ -4569,7 +4569,7 @@
         <v>0</v>
       </c>
       <c r="X75" s="0" t="str">
-        <f aca="true">IF(O75="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S75)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O75="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S75)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -4608,8 +4608,8 @@
         <v/>
       </c>
       <c r="U76" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V76" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M76,",",REPT(" ",LEN($M76))), 0 *LEN($M76)+1,LEN($M76))) = "", "0", TRIM(MID(SUBSTITUTE($M76,",",REPT(" ",LEN($M76))),0 *LEN($M76)+1,LEN($M76))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M76,",",REPT(" ",LEN($M76))), 1 *LEN($M76)+1,LEN($M76))) = "", "0", TRIM(MID(SUBSTITUTE($M76,",",REPT(" ",LEN($M76))),1 *LEN($M76)+1,LEN($M76))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M76,",",REPT(" ",LEN($M76))), 2 *LEN($M76)+1,LEN($M76))) = "", "0", TRIM(MID(SUBSTITUTE($M76,",",REPT(" ",LEN($M76))),2 *LEN($M76)+1,LEN($M76))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M76,",",REPT(" ",LEN($M76))), 3 *LEN($M76)+1,LEN($M76))) = "", "0", TRIM(MID(SUBSTITUTE($M76,",",REPT(" ",LEN($M76))),3 *LEN($M76)+1,LEN($M76))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M76,",",REPT(" ",LEN($M76))), 4 *LEN($M76)+1,LEN($M76))) = "", "0", TRIM(MID(SUBSTITUTE($M76,",",REPT(" ",LEN($M76))),4 *LEN($M76)+1,LEN($M76))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M76,",",REPT(" ",LEN($M76))), 5 *LEN($M76)+1,LEN($M76))) = "", "0", TRIM(MID(SUBSTITUTE($M76,",",REPT(" ",LEN($M76))),5 *LEN($M76)+1,LEN($M76))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M76,",",REPT(" ",LEN($M76))), 6 *LEN($M76)+1,LEN($M76))) = "", "0", TRIM(MID(SUBSTITUTE($M76,",",REPT(" ",LEN($M76))),6 *LEN($M76)+1,LEN($M76))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M76,",",REPT(" ",LEN($M76))), 7 *LEN($M76)+1,LEN($M76))) = "", "0", TRIM(MID(SUBSTITUTE($M76,",",REPT(" ",LEN($M76))),7 *LEN($M76)+1,LEN($M76))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M76,",",REPT(" ",LEN($M76))), 8 *LEN($M76)+1,LEN($M76))) = "", "0", TRIM(MID(SUBSTITUTE($M76,",",REPT(" ",LEN($M76))),8 *LEN($M76)+1,LEN($M76))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M76,",",REPT(" ",LEN($M76))), 9 *LEN($M76)+1,LEN($M76))) = "", "0", TRIM(MID(SUBSTITUTE($M76,",",REPT(" ",LEN($M76))),9 *LEN($M76)+1,LEN($M76))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M76,",",REPT(" ",LEN($M76))), 10 *LEN($M76)+1,LEN($M76))) = "", "0", TRIM(MID(SUBSTITUTE($M76,",",REPT(" ",LEN($M76))),10 *LEN($M76)+1,LEN($M76)))))</f>
@@ -4620,7 +4620,7 @@
         <v>0</v>
       </c>
       <c r="X76" s="0" t="str">
-        <f aca="true">IF(O76="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S76)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O76="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S76)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -4659,8 +4659,8 @@
         <v/>
       </c>
       <c r="U77" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V77" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M77,",",REPT(" ",LEN($M77))), 0 *LEN($M77)+1,LEN($M77))) = "", "0", TRIM(MID(SUBSTITUTE($M77,",",REPT(" ",LEN($M77))),0 *LEN($M77)+1,LEN($M77))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M77,",",REPT(" ",LEN($M77))), 1 *LEN($M77)+1,LEN($M77))) = "", "0", TRIM(MID(SUBSTITUTE($M77,",",REPT(" ",LEN($M77))),1 *LEN($M77)+1,LEN($M77))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M77,",",REPT(" ",LEN($M77))), 2 *LEN($M77)+1,LEN($M77))) = "", "0", TRIM(MID(SUBSTITUTE($M77,",",REPT(" ",LEN($M77))),2 *LEN($M77)+1,LEN($M77))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M77,",",REPT(" ",LEN($M77))), 3 *LEN($M77)+1,LEN($M77))) = "", "0", TRIM(MID(SUBSTITUTE($M77,",",REPT(" ",LEN($M77))),3 *LEN($M77)+1,LEN($M77))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M77,",",REPT(" ",LEN($M77))), 4 *LEN($M77)+1,LEN($M77))) = "", "0", TRIM(MID(SUBSTITUTE($M77,",",REPT(" ",LEN($M77))),4 *LEN($M77)+1,LEN($M77))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M77,",",REPT(" ",LEN($M77))), 5 *LEN($M77)+1,LEN($M77))) = "", "0", TRIM(MID(SUBSTITUTE($M77,",",REPT(" ",LEN($M77))),5 *LEN($M77)+1,LEN($M77))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M77,",",REPT(" ",LEN($M77))), 6 *LEN($M77)+1,LEN($M77))) = "", "0", TRIM(MID(SUBSTITUTE($M77,",",REPT(" ",LEN($M77))),6 *LEN($M77)+1,LEN($M77))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M77,",",REPT(" ",LEN($M77))), 7 *LEN($M77)+1,LEN($M77))) = "", "0", TRIM(MID(SUBSTITUTE($M77,",",REPT(" ",LEN($M77))),7 *LEN($M77)+1,LEN($M77))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M77,",",REPT(" ",LEN($M77))), 8 *LEN($M77)+1,LEN($M77))) = "", "0", TRIM(MID(SUBSTITUTE($M77,",",REPT(" ",LEN($M77))),8 *LEN($M77)+1,LEN($M77))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M77,",",REPT(" ",LEN($M77))), 9 *LEN($M77)+1,LEN($M77))) = "", "0", TRIM(MID(SUBSTITUTE($M77,",",REPT(" ",LEN($M77))),9 *LEN($M77)+1,LEN($M77))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M77,",",REPT(" ",LEN($M77))), 10 *LEN($M77)+1,LEN($M77))) = "", "0", TRIM(MID(SUBSTITUTE($M77,",",REPT(" ",LEN($M77))),10 *LEN($M77)+1,LEN($M77)))))</f>
@@ -4671,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="X77" s="0" t="str">
-        <f aca="true">IF(O77="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S77)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O77="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S77)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -4710,8 +4710,8 @@
         <v/>
       </c>
       <c r="U78" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V78" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M78,",",REPT(" ",LEN($M78))), 0 *LEN($M78)+1,LEN($M78))) = "", "0", TRIM(MID(SUBSTITUTE($M78,",",REPT(" ",LEN($M78))),0 *LEN($M78)+1,LEN($M78))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M78,",",REPT(" ",LEN($M78))), 1 *LEN($M78)+1,LEN($M78))) = "", "0", TRIM(MID(SUBSTITUTE($M78,",",REPT(" ",LEN($M78))),1 *LEN($M78)+1,LEN($M78))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M78,",",REPT(" ",LEN($M78))), 2 *LEN($M78)+1,LEN($M78))) = "", "0", TRIM(MID(SUBSTITUTE($M78,",",REPT(" ",LEN($M78))),2 *LEN($M78)+1,LEN($M78))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M78,",",REPT(" ",LEN($M78))), 3 *LEN($M78)+1,LEN($M78))) = "", "0", TRIM(MID(SUBSTITUTE($M78,",",REPT(" ",LEN($M78))),3 *LEN($M78)+1,LEN($M78))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M78,",",REPT(" ",LEN($M78))), 4 *LEN($M78)+1,LEN($M78))) = "", "0", TRIM(MID(SUBSTITUTE($M78,",",REPT(" ",LEN($M78))),4 *LEN($M78)+1,LEN($M78))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M78,",",REPT(" ",LEN($M78))), 5 *LEN($M78)+1,LEN($M78))) = "", "0", TRIM(MID(SUBSTITUTE($M78,",",REPT(" ",LEN($M78))),5 *LEN($M78)+1,LEN($M78))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M78,",",REPT(" ",LEN($M78))), 6 *LEN($M78)+1,LEN($M78))) = "", "0", TRIM(MID(SUBSTITUTE($M78,",",REPT(" ",LEN($M78))),6 *LEN($M78)+1,LEN($M78))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M78,",",REPT(" ",LEN($M78))), 7 *LEN($M78)+1,LEN($M78))) = "", "0", TRIM(MID(SUBSTITUTE($M78,",",REPT(" ",LEN($M78))),7 *LEN($M78)+1,LEN($M78))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M78,",",REPT(" ",LEN($M78))), 8 *LEN($M78)+1,LEN($M78))) = "", "0", TRIM(MID(SUBSTITUTE($M78,",",REPT(" ",LEN($M78))),8 *LEN($M78)+1,LEN($M78))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M78,",",REPT(" ",LEN($M78))), 9 *LEN($M78)+1,LEN($M78))) = "", "0", TRIM(MID(SUBSTITUTE($M78,",",REPT(" ",LEN($M78))),9 *LEN($M78)+1,LEN($M78))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M78,",",REPT(" ",LEN($M78))), 10 *LEN($M78)+1,LEN($M78))) = "", "0", TRIM(MID(SUBSTITUTE($M78,",",REPT(" ",LEN($M78))),10 *LEN($M78)+1,LEN($M78)))))</f>
@@ -4722,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="X78" s="0" t="str">
-        <f aca="true">IF(O78="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S78)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O78="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S78)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -4761,8 +4761,8 @@
         <v/>
       </c>
       <c r="U79" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V79" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M79,",",REPT(" ",LEN($M79))), 0 *LEN($M79)+1,LEN($M79))) = "", "0", TRIM(MID(SUBSTITUTE($M79,",",REPT(" ",LEN($M79))),0 *LEN($M79)+1,LEN($M79))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M79,",",REPT(" ",LEN($M79))), 1 *LEN($M79)+1,LEN($M79))) = "", "0", TRIM(MID(SUBSTITUTE($M79,",",REPT(" ",LEN($M79))),1 *LEN($M79)+1,LEN($M79))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M79,",",REPT(" ",LEN($M79))), 2 *LEN($M79)+1,LEN($M79))) = "", "0", TRIM(MID(SUBSTITUTE($M79,",",REPT(" ",LEN($M79))),2 *LEN($M79)+1,LEN($M79))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M79,",",REPT(" ",LEN($M79))), 3 *LEN($M79)+1,LEN($M79))) = "", "0", TRIM(MID(SUBSTITUTE($M79,",",REPT(" ",LEN($M79))),3 *LEN($M79)+1,LEN($M79))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M79,",",REPT(" ",LEN($M79))), 4 *LEN($M79)+1,LEN($M79))) = "", "0", TRIM(MID(SUBSTITUTE($M79,",",REPT(" ",LEN($M79))),4 *LEN($M79)+1,LEN($M79))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M79,",",REPT(" ",LEN($M79))), 5 *LEN($M79)+1,LEN($M79))) = "", "0", TRIM(MID(SUBSTITUTE($M79,",",REPT(" ",LEN($M79))),5 *LEN($M79)+1,LEN($M79))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M79,",",REPT(" ",LEN($M79))), 6 *LEN($M79)+1,LEN($M79))) = "", "0", TRIM(MID(SUBSTITUTE($M79,",",REPT(" ",LEN($M79))),6 *LEN($M79)+1,LEN($M79))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M79,",",REPT(" ",LEN($M79))), 7 *LEN($M79)+1,LEN($M79))) = "", "0", TRIM(MID(SUBSTITUTE($M79,",",REPT(" ",LEN($M79))),7 *LEN($M79)+1,LEN($M79))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M79,",",REPT(" ",LEN($M79))), 8 *LEN($M79)+1,LEN($M79))) = "", "0", TRIM(MID(SUBSTITUTE($M79,",",REPT(" ",LEN($M79))),8 *LEN($M79)+1,LEN($M79))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M79,",",REPT(" ",LEN($M79))), 9 *LEN($M79)+1,LEN($M79))) = "", "0", TRIM(MID(SUBSTITUTE($M79,",",REPT(" ",LEN($M79))),9 *LEN($M79)+1,LEN($M79))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M79,",",REPT(" ",LEN($M79))), 10 *LEN($M79)+1,LEN($M79))) = "", "0", TRIM(MID(SUBSTITUTE($M79,",",REPT(" ",LEN($M79))),10 *LEN($M79)+1,LEN($M79)))))</f>
@@ -4773,7 +4773,7 @@
         <v>0</v>
       </c>
       <c r="X79" s="0" t="str">
-        <f aca="true">IF(O79="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S79)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O79="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S79)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -4812,8 +4812,8 @@
         <v/>
       </c>
       <c r="U80" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V80" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M80,",",REPT(" ",LEN($M80))), 0 *LEN($M80)+1,LEN($M80))) = "", "0", TRIM(MID(SUBSTITUTE($M80,",",REPT(" ",LEN($M80))),0 *LEN($M80)+1,LEN($M80))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M80,",",REPT(" ",LEN($M80))), 1 *LEN($M80)+1,LEN($M80))) = "", "0", TRIM(MID(SUBSTITUTE($M80,",",REPT(" ",LEN($M80))),1 *LEN($M80)+1,LEN($M80))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M80,",",REPT(" ",LEN($M80))), 2 *LEN($M80)+1,LEN($M80))) = "", "0", TRIM(MID(SUBSTITUTE($M80,",",REPT(" ",LEN($M80))),2 *LEN($M80)+1,LEN($M80))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M80,",",REPT(" ",LEN($M80))), 3 *LEN($M80)+1,LEN($M80))) = "", "0", TRIM(MID(SUBSTITUTE($M80,",",REPT(" ",LEN($M80))),3 *LEN($M80)+1,LEN($M80))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M80,",",REPT(" ",LEN($M80))), 4 *LEN($M80)+1,LEN($M80))) = "", "0", TRIM(MID(SUBSTITUTE($M80,",",REPT(" ",LEN($M80))),4 *LEN($M80)+1,LEN($M80))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M80,",",REPT(" ",LEN($M80))), 5 *LEN($M80)+1,LEN($M80))) = "", "0", TRIM(MID(SUBSTITUTE($M80,",",REPT(" ",LEN($M80))),5 *LEN($M80)+1,LEN($M80))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M80,",",REPT(" ",LEN($M80))), 6 *LEN($M80)+1,LEN($M80))) = "", "0", TRIM(MID(SUBSTITUTE($M80,",",REPT(" ",LEN($M80))),6 *LEN($M80)+1,LEN($M80))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M80,",",REPT(" ",LEN($M80))), 7 *LEN($M80)+1,LEN($M80))) = "", "0", TRIM(MID(SUBSTITUTE($M80,",",REPT(" ",LEN($M80))),7 *LEN($M80)+1,LEN($M80))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M80,",",REPT(" ",LEN($M80))), 8 *LEN($M80)+1,LEN($M80))) = "", "0", TRIM(MID(SUBSTITUTE($M80,",",REPT(" ",LEN($M80))),8 *LEN($M80)+1,LEN($M80))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M80,",",REPT(" ",LEN($M80))), 9 *LEN($M80)+1,LEN($M80))) = "", "0", TRIM(MID(SUBSTITUTE($M80,",",REPT(" ",LEN($M80))),9 *LEN($M80)+1,LEN($M80))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M80,",",REPT(" ",LEN($M80))), 10 *LEN($M80)+1,LEN($M80))) = "", "0", TRIM(MID(SUBSTITUTE($M80,",",REPT(" ",LEN($M80))),10 *LEN($M80)+1,LEN($M80)))))</f>
@@ -4824,7 +4824,7 @@
         <v>0</v>
       </c>
       <c r="X80" s="0" t="str">
-        <f aca="true">IF(O80="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S80)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O80="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S80)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -4863,8 +4863,8 @@
         <v/>
       </c>
       <c r="U81" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V81" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M81,",",REPT(" ",LEN($M81))), 0 *LEN($M81)+1,LEN($M81))) = "", "0", TRIM(MID(SUBSTITUTE($M81,",",REPT(" ",LEN($M81))),0 *LEN($M81)+1,LEN($M81))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M81,",",REPT(" ",LEN($M81))), 1 *LEN($M81)+1,LEN($M81))) = "", "0", TRIM(MID(SUBSTITUTE($M81,",",REPT(" ",LEN($M81))),1 *LEN($M81)+1,LEN($M81))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M81,",",REPT(" ",LEN($M81))), 2 *LEN($M81)+1,LEN($M81))) = "", "0", TRIM(MID(SUBSTITUTE($M81,",",REPT(" ",LEN($M81))),2 *LEN($M81)+1,LEN($M81))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M81,",",REPT(" ",LEN($M81))), 3 *LEN($M81)+1,LEN($M81))) = "", "0", TRIM(MID(SUBSTITUTE($M81,",",REPT(" ",LEN($M81))),3 *LEN($M81)+1,LEN($M81))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M81,",",REPT(" ",LEN($M81))), 4 *LEN($M81)+1,LEN($M81))) = "", "0", TRIM(MID(SUBSTITUTE($M81,",",REPT(" ",LEN($M81))),4 *LEN($M81)+1,LEN($M81))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M81,",",REPT(" ",LEN($M81))), 5 *LEN($M81)+1,LEN($M81))) = "", "0", TRIM(MID(SUBSTITUTE($M81,",",REPT(" ",LEN($M81))),5 *LEN($M81)+1,LEN($M81))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M81,",",REPT(" ",LEN($M81))), 6 *LEN($M81)+1,LEN($M81))) = "", "0", TRIM(MID(SUBSTITUTE($M81,",",REPT(" ",LEN($M81))),6 *LEN($M81)+1,LEN($M81))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M81,",",REPT(" ",LEN($M81))), 7 *LEN($M81)+1,LEN($M81))) = "", "0", TRIM(MID(SUBSTITUTE($M81,",",REPT(" ",LEN($M81))),7 *LEN($M81)+1,LEN($M81))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M81,",",REPT(" ",LEN($M81))), 8 *LEN($M81)+1,LEN($M81))) = "", "0", TRIM(MID(SUBSTITUTE($M81,",",REPT(" ",LEN($M81))),8 *LEN($M81)+1,LEN($M81))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M81,",",REPT(" ",LEN($M81))), 9 *LEN($M81)+1,LEN($M81))) = "", "0", TRIM(MID(SUBSTITUTE($M81,",",REPT(" ",LEN($M81))),9 *LEN($M81)+1,LEN($M81))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M81,",",REPT(" ",LEN($M81))), 10 *LEN($M81)+1,LEN($M81))) = "", "0", TRIM(MID(SUBSTITUTE($M81,",",REPT(" ",LEN($M81))),10 *LEN($M81)+1,LEN($M81)))))</f>
@@ -4875,7 +4875,7 @@
         <v>0</v>
       </c>
       <c r="X81" s="0" t="str">
-        <f aca="true">IF(O81="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S81)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O81="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S81)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -4914,8 +4914,8 @@
         <v/>
       </c>
       <c r="U82" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V82" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M82,",",REPT(" ",LEN($M82))), 0 *LEN($M82)+1,LEN($M82))) = "", "0", TRIM(MID(SUBSTITUTE($M82,",",REPT(" ",LEN($M82))),0 *LEN($M82)+1,LEN($M82))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M82,",",REPT(" ",LEN($M82))), 1 *LEN($M82)+1,LEN($M82))) = "", "0", TRIM(MID(SUBSTITUTE($M82,",",REPT(" ",LEN($M82))),1 *LEN($M82)+1,LEN($M82))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M82,",",REPT(" ",LEN($M82))), 2 *LEN($M82)+1,LEN($M82))) = "", "0", TRIM(MID(SUBSTITUTE($M82,",",REPT(" ",LEN($M82))),2 *LEN($M82)+1,LEN($M82))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M82,",",REPT(" ",LEN($M82))), 3 *LEN($M82)+1,LEN($M82))) = "", "0", TRIM(MID(SUBSTITUTE($M82,",",REPT(" ",LEN($M82))),3 *LEN($M82)+1,LEN($M82))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M82,",",REPT(" ",LEN($M82))), 4 *LEN($M82)+1,LEN($M82))) = "", "0", TRIM(MID(SUBSTITUTE($M82,",",REPT(" ",LEN($M82))),4 *LEN($M82)+1,LEN($M82))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M82,",",REPT(" ",LEN($M82))), 5 *LEN($M82)+1,LEN($M82))) = "", "0", TRIM(MID(SUBSTITUTE($M82,",",REPT(" ",LEN($M82))),5 *LEN($M82)+1,LEN($M82))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M82,",",REPT(" ",LEN($M82))), 6 *LEN($M82)+1,LEN($M82))) = "", "0", TRIM(MID(SUBSTITUTE($M82,",",REPT(" ",LEN($M82))),6 *LEN($M82)+1,LEN($M82))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M82,",",REPT(" ",LEN($M82))), 7 *LEN($M82)+1,LEN($M82))) = "", "0", TRIM(MID(SUBSTITUTE($M82,",",REPT(" ",LEN($M82))),7 *LEN($M82)+1,LEN($M82))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M82,",",REPT(" ",LEN($M82))), 8 *LEN($M82)+1,LEN($M82))) = "", "0", TRIM(MID(SUBSTITUTE($M82,",",REPT(" ",LEN($M82))),8 *LEN($M82)+1,LEN($M82))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M82,",",REPT(" ",LEN($M82))), 9 *LEN($M82)+1,LEN($M82))) = "", "0", TRIM(MID(SUBSTITUTE($M82,",",REPT(" ",LEN($M82))),9 *LEN($M82)+1,LEN($M82))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M82,",",REPT(" ",LEN($M82))), 10 *LEN($M82)+1,LEN($M82))) = "", "0", TRIM(MID(SUBSTITUTE($M82,",",REPT(" ",LEN($M82))),10 *LEN($M82)+1,LEN($M82)))))</f>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="X82" s="0" t="str">
-        <f aca="true">IF(O82="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S82)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O82="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S82)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -4965,8 +4965,8 @@
         <v/>
       </c>
       <c r="U83" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V83" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M83,",",REPT(" ",LEN($M83))), 0 *LEN($M83)+1,LEN($M83))) = "", "0", TRIM(MID(SUBSTITUTE($M83,",",REPT(" ",LEN($M83))),0 *LEN($M83)+1,LEN($M83))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M83,",",REPT(" ",LEN($M83))), 1 *LEN($M83)+1,LEN($M83))) = "", "0", TRIM(MID(SUBSTITUTE($M83,",",REPT(" ",LEN($M83))),1 *LEN($M83)+1,LEN($M83))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M83,",",REPT(" ",LEN($M83))), 2 *LEN($M83)+1,LEN($M83))) = "", "0", TRIM(MID(SUBSTITUTE($M83,",",REPT(" ",LEN($M83))),2 *LEN($M83)+1,LEN($M83))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M83,",",REPT(" ",LEN($M83))), 3 *LEN($M83)+1,LEN($M83))) = "", "0", TRIM(MID(SUBSTITUTE($M83,",",REPT(" ",LEN($M83))),3 *LEN($M83)+1,LEN($M83))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M83,",",REPT(" ",LEN($M83))), 4 *LEN($M83)+1,LEN($M83))) = "", "0", TRIM(MID(SUBSTITUTE($M83,",",REPT(" ",LEN($M83))),4 *LEN($M83)+1,LEN($M83))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M83,",",REPT(" ",LEN($M83))), 5 *LEN($M83)+1,LEN($M83))) = "", "0", TRIM(MID(SUBSTITUTE($M83,",",REPT(" ",LEN($M83))),5 *LEN($M83)+1,LEN($M83))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M83,",",REPT(" ",LEN($M83))), 6 *LEN($M83)+1,LEN($M83))) = "", "0", TRIM(MID(SUBSTITUTE($M83,",",REPT(" ",LEN($M83))),6 *LEN($M83)+1,LEN($M83))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M83,",",REPT(" ",LEN($M83))), 7 *LEN($M83)+1,LEN($M83))) = "", "0", TRIM(MID(SUBSTITUTE($M83,",",REPT(" ",LEN($M83))),7 *LEN($M83)+1,LEN($M83))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M83,",",REPT(" ",LEN($M83))), 8 *LEN($M83)+1,LEN($M83))) = "", "0", TRIM(MID(SUBSTITUTE($M83,",",REPT(" ",LEN($M83))),8 *LEN($M83)+1,LEN($M83))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M83,",",REPT(" ",LEN($M83))), 9 *LEN($M83)+1,LEN($M83))) = "", "0", TRIM(MID(SUBSTITUTE($M83,",",REPT(" ",LEN($M83))),9 *LEN($M83)+1,LEN($M83))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M83,",",REPT(" ",LEN($M83))), 10 *LEN($M83)+1,LEN($M83))) = "", "0", TRIM(MID(SUBSTITUTE($M83,",",REPT(" ",LEN($M83))),10 *LEN($M83)+1,LEN($M83)))))</f>
@@ -4977,7 +4977,7 @@
         <v>0</v>
       </c>
       <c r="X83" s="0" t="str">
-        <f aca="true">IF(O83="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S83)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O83="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S83)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -5016,8 +5016,8 @@
         <v/>
       </c>
       <c r="U84" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V84" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M84,",",REPT(" ",LEN($M84))), 0 *LEN($M84)+1,LEN($M84))) = "", "0", TRIM(MID(SUBSTITUTE($M84,",",REPT(" ",LEN($M84))),0 *LEN($M84)+1,LEN($M84))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M84,",",REPT(" ",LEN($M84))), 1 *LEN($M84)+1,LEN($M84))) = "", "0", TRIM(MID(SUBSTITUTE($M84,",",REPT(" ",LEN($M84))),1 *LEN($M84)+1,LEN($M84))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M84,",",REPT(" ",LEN($M84))), 2 *LEN($M84)+1,LEN($M84))) = "", "0", TRIM(MID(SUBSTITUTE($M84,",",REPT(" ",LEN($M84))),2 *LEN($M84)+1,LEN($M84))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M84,",",REPT(" ",LEN($M84))), 3 *LEN($M84)+1,LEN($M84))) = "", "0", TRIM(MID(SUBSTITUTE($M84,",",REPT(" ",LEN($M84))),3 *LEN($M84)+1,LEN($M84))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M84,",",REPT(" ",LEN($M84))), 4 *LEN($M84)+1,LEN($M84))) = "", "0", TRIM(MID(SUBSTITUTE($M84,",",REPT(" ",LEN($M84))),4 *LEN($M84)+1,LEN($M84))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M84,",",REPT(" ",LEN($M84))), 5 *LEN($M84)+1,LEN($M84))) = "", "0", TRIM(MID(SUBSTITUTE($M84,",",REPT(" ",LEN($M84))),5 *LEN($M84)+1,LEN($M84))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M84,",",REPT(" ",LEN($M84))), 6 *LEN($M84)+1,LEN($M84))) = "", "0", TRIM(MID(SUBSTITUTE($M84,",",REPT(" ",LEN($M84))),6 *LEN($M84)+1,LEN($M84))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M84,",",REPT(" ",LEN($M84))), 7 *LEN($M84)+1,LEN($M84))) = "", "0", TRIM(MID(SUBSTITUTE($M84,",",REPT(" ",LEN($M84))),7 *LEN($M84)+1,LEN($M84))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M84,",",REPT(" ",LEN($M84))), 8 *LEN($M84)+1,LEN($M84))) = "", "0", TRIM(MID(SUBSTITUTE($M84,",",REPT(" ",LEN($M84))),8 *LEN($M84)+1,LEN($M84))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M84,",",REPT(" ",LEN($M84))), 9 *LEN($M84)+1,LEN($M84))) = "", "0", TRIM(MID(SUBSTITUTE($M84,",",REPT(" ",LEN($M84))),9 *LEN($M84)+1,LEN($M84))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M84,",",REPT(" ",LEN($M84))), 10 *LEN($M84)+1,LEN($M84))) = "", "0", TRIM(MID(SUBSTITUTE($M84,",",REPT(" ",LEN($M84))),10 *LEN($M84)+1,LEN($M84)))))</f>
@@ -5028,7 +5028,7 @@
         <v>0</v>
       </c>
       <c r="X84" s="0" t="str">
-        <f aca="true">IF(O84="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S84)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O84="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S84)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -5067,8 +5067,8 @@
         <v/>
       </c>
       <c r="U85" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V85" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M85,",",REPT(" ",LEN($M85))), 0 *LEN($M85)+1,LEN($M85))) = "", "0", TRIM(MID(SUBSTITUTE($M85,",",REPT(" ",LEN($M85))),0 *LEN($M85)+1,LEN($M85))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M85,",",REPT(" ",LEN($M85))), 1 *LEN($M85)+1,LEN($M85))) = "", "0", TRIM(MID(SUBSTITUTE($M85,",",REPT(" ",LEN($M85))),1 *LEN($M85)+1,LEN($M85))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M85,",",REPT(" ",LEN($M85))), 2 *LEN($M85)+1,LEN($M85))) = "", "0", TRIM(MID(SUBSTITUTE($M85,",",REPT(" ",LEN($M85))),2 *LEN($M85)+1,LEN($M85))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M85,",",REPT(" ",LEN($M85))), 3 *LEN($M85)+1,LEN($M85))) = "", "0", TRIM(MID(SUBSTITUTE($M85,",",REPT(" ",LEN($M85))),3 *LEN($M85)+1,LEN($M85))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M85,",",REPT(" ",LEN($M85))), 4 *LEN($M85)+1,LEN($M85))) = "", "0", TRIM(MID(SUBSTITUTE($M85,",",REPT(" ",LEN($M85))),4 *LEN($M85)+1,LEN($M85))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M85,",",REPT(" ",LEN($M85))), 5 *LEN($M85)+1,LEN($M85))) = "", "0", TRIM(MID(SUBSTITUTE($M85,",",REPT(" ",LEN($M85))),5 *LEN($M85)+1,LEN($M85))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M85,",",REPT(" ",LEN($M85))), 6 *LEN($M85)+1,LEN($M85))) = "", "0", TRIM(MID(SUBSTITUTE($M85,",",REPT(" ",LEN($M85))),6 *LEN($M85)+1,LEN($M85))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M85,",",REPT(" ",LEN($M85))), 7 *LEN($M85)+1,LEN($M85))) = "", "0", TRIM(MID(SUBSTITUTE($M85,",",REPT(" ",LEN($M85))),7 *LEN($M85)+1,LEN($M85))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M85,",",REPT(" ",LEN($M85))), 8 *LEN($M85)+1,LEN($M85))) = "", "0", TRIM(MID(SUBSTITUTE($M85,",",REPT(" ",LEN($M85))),8 *LEN($M85)+1,LEN($M85))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M85,",",REPT(" ",LEN($M85))), 9 *LEN($M85)+1,LEN($M85))) = "", "0", TRIM(MID(SUBSTITUTE($M85,",",REPT(" ",LEN($M85))),9 *LEN($M85)+1,LEN($M85))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M85,",",REPT(" ",LEN($M85))), 10 *LEN($M85)+1,LEN($M85))) = "", "0", TRIM(MID(SUBSTITUTE($M85,",",REPT(" ",LEN($M85))),10 *LEN($M85)+1,LEN($M85)))))</f>
@@ -5079,7 +5079,7 @@
         <v>0</v>
       </c>
       <c r="X85" s="0" t="str">
-        <f aca="true">IF(O85="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S85)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O85="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S85)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -5118,8 +5118,8 @@
         <v/>
       </c>
       <c r="U86" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V86" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M86,",",REPT(" ",LEN($M86))), 0 *LEN($M86)+1,LEN($M86))) = "", "0", TRIM(MID(SUBSTITUTE($M86,",",REPT(" ",LEN($M86))),0 *LEN($M86)+1,LEN($M86))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M86,",",REPT(" ",LEN($M86))), 1 *LEN($M86)+1,LEN($M86))) = "", "0", TRIM(MID(SUBSTITUTE($M86,",",REPT(" ",LEN($M86))),1 *LEN($M86)+1,LEN($M86))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M86,",",REPT(" ",LEN($M86))), 2 *LEN($M86)+1,LEN($M86))) = "", "0", TRIM(MID(SUBSTITUTE($M86,",",REPT(" ",LEN($M86))),2 *LEN($M86)+1,LEN($M86))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M86,",",REPT(" ",LEN($M86))), 3 *LEN($M86)+1,LEN($M86))) = "", "0", TRIM(MID(SUBSTITUTE($M86,",",REPT(" ",LEN($M86))),3 *LEN($M86)+1,LEN($M86))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M86,",",REPT(" ",LEN($M86))), 4 *LEN($M86)+1,LEN($M86))) = "", "0", TRIM(MID(SUBSTITUTE($M86,",",REPT(" ",LEN($M86))),4 *LEN($M86)+1,LEN($M86))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M86,",",REPT(" ",LEN($M86))), 5 *LEN($M86)+1,LEN($M86))) = "", "0", TRIM(MID(SUBSTITUTE($M86,",",REPT(" ",LEN($M86))),5 *LEN($M86)+1,LEN($M86))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M86,",",REPT(" ",LEN($M86))), 6 *LEN($M86)+1,LEN($M86))) = "", "0", TRIM(MID(SUBSTITUTE($M86,",",REPT(" ",LEN($M86))),6 *LEN($M86)+1,LEN($M86))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M86,",",REPT(" ",LEN($M86))), 7 *LEN($M86)+1,LEN($M86))) = "", "0", TRIM(MID(SUBSTITUTE($M86,",",REPT(" ",LEN($M86))),7 *LEN($M86)+1,LEN($M86))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M86,",",REPT(" ",LEN($M86))), 8 *LEN($M86)+1,LEN($M86))) = "", "0", TRIM(MID(SUBSTITUTE($M86,",",REPT(" ",LEN($M86))),8 *LEN($M86)+1,LEN($M86))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M86,",",REPT(" ",LEN($M86))), 9 *LEN($M86)+1,LEN($M86))) = "", "0", TRIM(MID(SUBSTITUTE($M86,",",REPT(" ",LEN($M86))),9 *LEN($M86)+1,LEN($M86))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M86,",",REPT(" ",LEN($M86))), 10 *LEN($M86)+1,LEN($M86))) = "", "0", TRIM(MID(SUBSTITUTE($M86,",",REPT(" ",LEN($M86))),10 *LEN($M86)+1,LEN($M86)))))</f>
@@ -5130,7 +5130,7 @@
         <v>0</v>
       </c>
       <c r="X86" s="0" t="str">
-        <f aca="true">IF(O86="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S86)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O86="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S86)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -5169,8 +5169,8 @@
         <v/>
       </c>
       <c r="U87" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V87" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M87,",",REPT(" ",LEN($M87))), 0 *LEN($M87)+1,LEN($M87))) = "", "0", TRIM(MID(SUBSTITUTE($M87,",",REPT(" ",LEN($M87))),0 *LEN($M87)+1,LEN($M87))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M87,",",REPT(" ",LEN($M87))), 1 *LEN($M87)+1,LEN($M87))) = "", "0", TRIM(MID(SUBSTITUTE($M87,",",REPT(" ",LEN($M87))),1 *LEN($M87)+1,LEN($M87))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M87,",",REPT(" ",LEN($M87))), 2 *LEN($M87)+1,LEN($M87))) = "", "0", TRIM(MID(SUBSTITUTE($M87,",",REPT(" ",LEN($M87))),2 *LEN($M87)+1,LEN($M87))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M87,",",REPT(" ",LEN($M87))), 3 *LEN($M87)+1,LEN($M87))) = "", "0", TRIM(MID(SUBSTITUTE($M87,",",REPT(" ",LEN($M87))),3 *LEN($M87)+1,LEN($M87))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M87,",",REPT(" ",LEN($M87))), 4 *LEN($M87)+1,LEN($M87))) = "", "0", TRIM(MID(SUBSTITUTE($M87,",",REPT(" ",LEN($M87))),4 *LEN($M87)+1,LEN($M87))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M87,",",REPT(" ",LEN($M87))), 5 *LEN($M87)+1,LEN($M87))) = "", "0", TRIM(MID(SUBSTITUTE($M87,",",REPT(" ",LEN($M87))),5 *LEN($M87)+1,LEN($M87))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M87,",",REPT(" ",LEN($M87))), 6 *LEN($M87)+1,LEN($M87))) = "", "0", TRIM(MID(SUBSTITUTE($M87,",",REPT(" ",LEN($M87))),6 *LEN($M87)+1,LEN($M87))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M87,",",REPT(" ",LEN($M87))), 7 *LEN($M87)+1,LEN($M87))) = "", "0", TRIM(MID(SUBSTITUTE($M87,",",REPT(" ",LEN($M87))),7 *LEN($M87)+1,LEN($M87))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M87,",",REPT(" ",LEN($M87))), 8 *LEN($M87)+1,LEN($M87))) = "", "0", TRIM(MID(SUBSTITUTE($M87,",",REPT(" ",LEN($M87))),8 *LEN($M87)+1,LEN($M87))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M87,",",REPT(" ",LEN($M87))), 9 *LEN($M87)+1,LEN($M87))) = "", "0", TRIM(MID(SUBSTITUTE($M87,",",REPT(" ",LEN($M87))),9 *LEN($M87)+1,LEN($M87))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M87,",",REPT(" ",LEN($M87))), 10 *LEN($M87)+1,LEN($M87))) = "", "0", TRIM(MID(SUBSTITUTE($M87,",",REPT(" ",LEN($M87))),10 *LEN($M87)+1,LEN($M87)))))</f>
@@ -5181,7 +5181,7 @@
         <v>0</v>
       </c>
       <c r="X87" s="0" t="str">
-        <f aca="true">IF(O87="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S87)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O87="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S87)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -5220,8 +5220,8 @@
         <v/>
       </c>
       <c r="U88" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V88" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M88,",",REPT(" ",LEN($M88))), 0 *LEN($M88)+1,LEN($M88))) = "", "0", TRIM(MID(SUBSTITUTE($M88,",",REPT(" ",LEN($M88))),0 *LEN($M88)+1,LEN($M88))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M88,",",REPT(" ",LEN($M88))), 1 *LEN($M88)+1,LEN($M88))) = "", "0", TRIM(MID(SUBSTITUTE($M88,",",REPT(" ",LEN($M88))),1 *LEN($M88)+1,LEN($M88))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M88,",",REPT(" ",LEN($M88))), 2 *LEN($M88)+1,LEN($M88))) = "", "0", TRIM(MID(SUBSTITUTE($M88,",",REPT(" ",LEN($M88))),2 *LEN($M88)+1,LEN($M88))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M88,",",REPT(" ",LEN($M88))), 3 *LEN($M88)+1,LEN($M88))) = "", "0", TRIM(MID(SUBSTITUTE($M88,",",REPT(" ",LEN($M88))),3 *LEN($M88)+1,LEN($M88))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M88,",",REPT(" ",LEN($M88))), 4 *LEN($M88)+1,LEN($M88))) = "", "0", TRIM(MID(SUBSTITUTE($M88,",",REPT(" ",LEN($M88))),4 *LEN($M88)+1,LEN($M88))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M88,",",REPT(" ",LEN($M88))), 5 *LEN($M88)+1,LEN($M88))) = "", "0", TRIM(MID(SUBSTITUTE($M88,",",REPT(" ",LEN($M88))),5 *LEN($M88)+1,LEN($M88))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M88,",",REPT(" ",LEN($M88))), 6 *LEN($M88)+1,LEN($M88))) = "", "0", TRIM(MID(SUBSTITUTE($M88,",",REPT(" ",LEN($M88))),6 *LEN($M88)+1,LEN($M88))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M88,",",REPT(" ",LEN($M88))), 7 *LEN($M88)+1,LEN($M88))) = "", "0", TRIM(MID(SUBSTITUTE($M88,",",REPT(" ",LEN($M88))),7 *LEN($M88)+1,LEN($M88))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M88,",",REPT(" ",LEN($M88))), 8 *LEN($M88)+1,LEN($M88))) = "", "0", TRIM(MID(SUBSTITUTE($M88,",",REPT(" ",LEN($M88))),8 *LEN($M88)+1,LEN($M88))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M88,",",REPT(" ",LEN($M88))), 9 *LEN($M88)+1,LEN($M88))) = "", "0", TRIM(MID(SUBSTITUTE($M88,",",REPT(" ",LEN($M88))),9 *LEN($M88)+1,LEN($M88))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M88,",",REPT(" ",LEN($M88))), 10 *LEN($M88)+1,LEN($M88))) = "", "0", TRIM(MID(SUBSTITUTE($M88,",",REPT(" ",LEN($M88))),10 *LEN($M88)+1,LEN($M88)))))</f>
@@ -5232,7 +5232,7 @@
         <v>0</v>
       </c>
       <c r="X88" s="0" t="str">
-        <f aca="true">IF(O88="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S88)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O88="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S88)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -5271,8 +5271,8 @@
         <v/>
       </c>
       <c r="U89" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V89" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M89,",",REPT(" ",LEN($M89))), 0 *LEN($M89)+1,LEN($M89))) = "", "0", TRIM(MID(SUBSTITUTE($M89,",",REPT(" ",LEN($M89))),0 *LEN($M89)+1,LEN($M89))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M89,",",REPT(" ",LEN($M89))), 1 *LEN($M89)+1,LEN($M89))) = "", "0", TRIM(MID(SUBSTITUTE($M89,",",REPT(" ",LEN($M89))),1 *LEN($M89)+1,LEN($M89))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M89,",",REPT(" ",LEN($M89))), 2 *LEN($M89)+1,LEN($M89))) = "", "0", TRIM(MID(SUBSTITUTE($M89,",",REPT(" ",LEN($M89))),2 *LEN($M89)+1,LEN($M89))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M89,",",REPT(" ",LEN($M89))), 3 *LEN($M89)+1,LEN($M89))) = "", "0", TRIM(MID(SUBSTITUTE($M89,",",REPT(" ",LEN($M89))),3 *LEN($M89)+1,LEN($M89))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M89,",",REPT(" ",LEN($M89))), 4 *LEN($M89)+1,LEN($M89))) = "", "0", TRIM(MID(SUBSTITUTE($M89,",",REPT(" ",LEN($M89))),4 *LEN($M89)+1,LEN($M89))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M89,",",REPT(" ",LEN($M89))), 5 *LEN($M89)+1,LEN($M89))) = "", "0", TRIM(MID(SUBSTITUTE($M89,",",REPT(" ",LEN($M89))),5 *LEN($M89)+1,LEN($M89))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M89,",",REPT(" ",LEN($M89))), 6 *LEN($M89)+1,LEN($M89))) = "", "0", TRIM(MID(SUBSTITUTE($M89,",",REPT(" ",LEN($M89))),6 *LEN($M89)+1,LEN($M89))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M89,",",REPT(" ",LEN($M89))), 7 *LEN($M89)+1,LEN($M89))) = "", "0", TRIM(MID(SUBSTITUTE($M89,",",REPT(" ",LEN($M89))),7 *LEN($M89)+1,LEN($M89))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M89,",",REPT(" ",LEN($M89))), 8 *LEN($M89)+1,LEN($M89))) = "", "0", TRIM(MID(SUBSTITUTE($M89,",",REPT(" ",LEN($M89))),8 *LEN($M89)+1,LEN($M89))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M89,",",REPT(" ",LEN($M89))), 9 *LEN($M89)+1,LEN($M89))) = "", "0", TRIM(MID(SUBSTITUTE($M89,",",REPT(" ",LEN($M89))),9 *LEN($M89)+1,LEN($M89))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M89,",",REPT(" ",LEN($M89))), 10 *LEN($M89)+1,LEN($M89))) = "", "0", TRIM(MID(SUBSTITUTE($M89,",",REPT(" ",LEN($M89))),10 *LEN($M89)+1,LEN($M89)))))</f>
@@ -5283,7 +5283,7 @@
         <v>0</v>
       </c>
       <c r="X89" s="0" t="str">
-        <f aca="true">IF(O89="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S89)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O89="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S89)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -5322,8 +5322,8 @@
         <v/>
       </c>
       <c r="U90" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V90" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))), 0 *LEN($M90)+1,LEN($M90))) = "", "0", TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))),0 *LEN($M90)+1,LEN($M90))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))), 1 *LEN($M90)+1,LEN($M90))) = "", "0", TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))),1 *LEN($M90)+1,LEN($M90))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))), 2 *LEN($M90)+1,LEN($M90))) = "", "0", TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))),2 *LEN($M90)+1,LEN($M90))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))), 3 *LEN($M90)+1,LEN($M90))) = "", "0", TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))),3 *LEN($M90)+1,LEN($M90))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))), 4 *LEN($M90)+1,LEN($M90))) = "", "0", TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))),4 *LEN($M90)+1,LEN($M90))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))), 5 *LEN($M90)+1,LEN($M90))) = "", "0", TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))),5 *LEN($M90)+1,LEN($M90))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))), 6 *LEN($M90)+1,LEN($M90))) = "", "0", TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))),6 *LEN($M90)+1,LEN($M90))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))), 7 *LEN($M90)+1,LEN($M90))) = "", "0", TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))),7 *LEN($M90)+1,LEN($M90))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))), 8 *LEN($M90)+1,LEN($M90))) = "", "0", TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))),8 *LEN($M90)+1,LEN($M90))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))), 9 *LEN($M90)+1,LEN($M90))) = "", "0", TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))),9 *LEN($M90)+1,LEN($M90))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))), 10 *LEN($M90)+1,LEN($M90))) = "", "0", TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))),10 *LEN($M90)+1,LEN($M90)))))</f>
@@ -5334,7 +5334,7 @@
         <v>0</v>
       </c>
       <c r="X90" s="0" t="str">
-        <f aca="true">IF(O90="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S90)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O90="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S90)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -5373,8 +5373,8 @@
         <v/>
       </c>
       <c r="U91" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V91" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M91,",",REPT(" ",LEN($M91))), 0 *LEN($M91)+1,LEN($M91))) = "", "0", TRIM(MID(SUBSTITUTE($M91,",",REPT(" ",LEN($M91))),0 *LEN($M91)+1,LEN($M91))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M91,",",REPT(" ",LEN($M91))), 1 *LEN($M91)+1,LEN($M91))) = "", "0", TRIM(MID(SUBSTITUTE($M91,",",REPT(" ",LEN($M91))),1 *LEN($M91)+1,LEN($M91))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M91,",",REPT(" ",LEN($M91))), 2 *LEN($M91)+1,LEN($M91))) = "", "0", TRIM(MID(SUBSTITUTE($M91,",",REPT(" ",LEN($M91))),2 *LEN($M91)+1,LEN($M91))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M91,",",REPT(" ",LEN($M91))), 3 *LEN($M91)+1,LEN($M91))) = "", "0", TRIM(MID(SUBSTITUTE($M91,",",REPT(" ",LEN($M91))),3 *LEN($M91)+1,LEN($M91))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M91,",",REPT(" ",LEN($M91))), 4 *LEN($M91)+1,LEN($M91))) = "", "0", TRIM(MID(SUBSTITUTE($M91,",",REPT(" ",LEN($M91))),4 *LEN($M91)+1,LEN($M91))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M91,",",REPT(" ",LEN($M91))), 5 *LEN($M91)+1,LEN($M91))) = "", "0", TRIM(MID(SUBSTITUTE($M91,",",REPT(" ",LEN($M91))),5 *LEN($M91)+1,LEN($M91))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M91,",",REPT(" ",LEN($M91))), 6 *LEN($M91)+1,LEN($M91))) = "", "0", TRIM(MID(SUBSTITUTE($M91,",",REPT(" ",LEN($M91))),6 *LEN($M91)+1,LEN($M91))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M91,",",REPT(" ",LEN($M91))), 7 *LEN($M91)+1,LEN($M91))) = "", "0", TRIM(MID(SUBSTITUTE($M91,",",REPT(" ",LEN($M91))),7 *LEN($M91)+1,LEN($M91))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M91,",",REPT(" ",LEN($M91))), 8 *LEN($M91)+1,LEN($M91))) = "", "0", TRIM(MID(SUBSTITUTE($M91,",",REPT(" ",LEN($M91))),8 *LEN($M91)+1,LEN($M91))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M91,",",REPT(" ",LEN($M91))), 9 *LEN($M91)+1,LEN($M91))) = "", "0", TRIM(MID(SUBSTITUTE($M91,",",REPT(" ",LEN($M91))),9 *LEN($M91)+1,LEN($M91))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M91,",",REPT(" ",LEN($M91))), 10 *LEN($M91)+1,LEN($M91))) = "", "0", TRIM(MID(SUBSTITUTE($M91,",",REPT(" ",LEN($M91))),10 *LEN($M91)+1,LEN($M91)))))</f>
@@ -5385,7 +5385,7 @@
         <v>0</v>
       </c>
       <c r="X91" s="0" t="str">
-        <f aca="true">IF(O91="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S91)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O91="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S91)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -5424,8 +5424,8 @@
         <v/>
       </c>
       <c r="U92" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V92" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M92,",",REPT(" ",LEN($M92))), 0 *LEN($M92)+1,LEN($M92))) = "", "0", TRIM(MID(SUBSTITUTE($M92,",",REPT(" ",LEN($M92))),0 *LEN($M92)+1,LEN($M92))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M92,",",REPT(" ",LEN($M92))), 1 *LEN($M92)+1,LEN($M92))) = "", "0", TRIM(MID(SUBSTITUTE($M92,",",REPT(" ",LEN($M92))),1 *LEN($M92)+1,LEN($M92))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M92,",",REPT(" ",LEN($M92))), 2 *LEN($M92)+1,LEN($M92))) = "", "0", TRIM(MID(SUBSTITUTE($M92,",",REPT(" ",LEN($M92))),2 *LEN($M92)+1,LEN($M92))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M92,",",REPT(" ",LEN($M92))), 3 *LEN($M92)+1,LEN($M92))) = "", "0", TRIM(MID(SUBSTITUTE($M92,",",REPT(" ",LEN($M92))),3 *LEN($M92)+1,LEN($M92))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M92,",",REPT(" ",LEN($M92))), 4 *LEN($M92)+1,LEN($M92))) = "", "0", TRIM(MID(SUBSTITUTE($M92,",",REPT(" ",LEN($M92))),4 *LEN($M92)+1,LEN($M92))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M92,",",REPT(" ",LEN($M92))), 5 *LEN($M92)+1,LEN($M92))) = "", "0", TRIM(MID(SUBSTITUTE($M92,",",REPT(" ",LEN($M92))),5 *LEN($M92)+1,LEN($M92))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M92,",",REPT(" ",LEN($M92))), 6 *LEN($M92)+1,LEN($M92))) = "", "0", TRIM(MID(SUBSTITUTE($M92,",",REPT(" ",LEN($M92))),6 *LEN($M92)+1,LEN($M92))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M92,",",REPT(" ",LEN($M92))), 7 *LEN($M92)+1,LEN($M92))) = "", "0", TRIM(MID(SUBSTITUTE($M92,",",REPT(" ",LEN($M92))),7 *LEN($M92)+1,LEN($M92))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M92,",",REPT(" ",LEN($M92))), 8 *LEN($M92)+1,LEN($M92))) = "", "0", TRIM(MID(SUBSTITUTE($M92,",",REPT(" ",LEN($M92))),8 *LEN($M92)+1,LEN($M92))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M92,",",REPT(" ",LEN($M92))), 9 *LEN($M92)+1,LEN($M92))) = "", "0", TRIM(MID(SUBSTITUTE($M92,",",REPT(" ",LEN($M92))),9 *LEN($M92)+1,LEN($M92))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M92,",",REPT(" ",LEN($M92))), 10 *LEN($M92)+1,LEN($M92))) = "", "0", TRIM(MID(SUBSTITUTE($M92,",",REPT(" ",LEN($M92))),10 *LEN($M92)+1,LEN($M92)))))</f>
@@ -5436,7 +5436,7 @@
         <v>0</v>
       </c>
       <c r="X92" s="0" t="str">
-        <f aca="true">IF(O92="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S92)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O92="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S92)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -5475,8 +5475,8 @@
         <v/>
       </c>
       <c r="U93" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V93" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M93,",",REPT(" ",LEN($M93))), 0 *LEN($M93)+1,LEN($M93))) = "", "0", TRIM(MID(SUBSTITUTE($M93,",",REPT(" ",LEN($M93))),0 *LEN($M93)+1,LEN($M93))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M93,",",REPT(" ",LEN($M93))), 1 *LEN($M93)+1,LEN($M93))) = "", "0", TRIM(MID(SUBSTITUTE($M93,",",REPT(" ",LEN($M93))),1 *LEN($M93)+1,LEN($M93))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M93,",",REPT(" ",LEN($M93))), 2 *LEN($M93)+1,LEN($M93))) = "", "0", TRIM(MID(SUBSTITUTE($M93,",",REPT(" ",LEN($M93))),2 *LEN($M93)+1,LEN($M93))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M93,",",REPT(" ",LEN($M93))), 3 *LEN($M93)+1,LEN($M93))) = "", "0", TRIM(MID(SUBSTITUTE($M93,",",REPT(" ",LEN($M93))),3 *LEN($M93)+1,LEN($M93))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M93,",",REPT(" ",LEN($M93))), 4 *LEN($M93)+1,LEN($M93))) = "", "0", TRIM(MID(SUBSTITUTE($M93,",",REPT(" ",LEN($M93))),4 *LEN($M93)+1,LEN($M93))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M93,",",REPT(" ",LEN($M93))), 5 *LEN($M93)+1,LEN($M93))) = "", "0", TRIM(MID(SUBSTITUTE($M93,",",REPT(" ",LEN($M93))),5 *LEN($M93)+1,LEN($M93))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M93,",",REPT(" ",LEN($M93))), 6 *LEN($M93)+1,LEN($M93))) = "", "0", TRIM(MID(SUBSTITUTE($M93,",",REPT(" ",LEN($M93))),6 *LEN($M93)+1,LEN($M93))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M93,",",REPT(" ",LEN($M93))), 7 *LEN($M93)+1,LEN($M93))) = "", "0", TRIM(MID(SUBSTITUTE($M93,",",REPT(" ",LEN($M93))),7 *LEN($M93)+1,LEN($M93))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M93,",",REPT(" ",LEN($M93))), 8 *LEN($M93)+1,LEN($M93))) = "", "0", TRIM(MID(SUBSTITUTE($M93,",",REPT(" ",LEN($M93))),8 *LEN($M93)+1,LEN($M93))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M93,",",REPT(" ",LEN($M93))), 9 *LEN($M93)+1,LEN($M93))) = "", "0", TRIM(MID(SUBSTITUTE($M93,",",REPT(" ",LEN($M93))),9 *LEN($M93)+1,LEN($M93))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M93,",",REPT(" ",LEN($M93))), 10 *LEN($M93)+1,LEN($M93))) = "", "0", TRIM(MID(SUBSTITUTE($M93,",",REPT(" ",LEN($M93))),10 *LEN($M93)+1,LEN($M93)))))</f>
@@ -5487,7 +5487,7 @@
         <v>0</v>
       </c>
       <c r="X93" s="0" t="str">
-        <f aca="true">IF(O93="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S93)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O93="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S93)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -5526,8 +5526,8 @@
         <v/>
       </c>
       <c r="U94" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V94" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M94,",",REPT(" ",LEN($M94))), 0 *LEN($M94)+1,LEN($M94))) = "", "0", TRIM(MID(SUBSTITUTE($M94,",",REPT(" ",LEN($M94))),0 *LEN($M94)+1,LEN($M94))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M94,",",REPT(" ",LEN($M94))), 1 *LEN($M94)+1,LEN($M94))) = "", "0", TRIM(MID(SUBSTITUTE($M94,",",REPT(" ",LEN($M94))),1 *LEN($M94)+1,LEN($M94))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M94,",",REPT(" ",LEN($M94))), 2 *LEN($M94)+1,LEN($M94))) = "", "0", TRIM(MID(SUBSTITUTE($M94,",",REPT(" ",LEN($M94))),2 *LEN($M94)+1,LEN($M94))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M94,",",REPT(" ",LEN($M94))), 3 *LEN($M94)+1,LEN($M94))) = "", "0", TRIM(MID(SUBSTITUTE($M94,",",REPT(" ",LEN($M94))),3 *LEN($M94)+1,LEN($M94))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M94,",",REPT(" ",LEN($M94))), 4 *LEN($M94)+1,LEN($M94))) = "", "0", TRIM(MID(SUBSTITUTE($M94,",",REPT(" ",LEN($M94))),4 *LEN($M94)+1,LEN($M94))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M94,",",REPT(" ",LEN($M94))), 5 *LEN($M94)+1,LEN($M94))) = "", "0", TRIM(MID(SUBSTITUTE($M94,",",REPT(" ",LEN($M94))),5 *LEN($M94)+1,LEN($M94))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M94,",",REPT(" ",LEN($M94))), 6 *LEN($M94)+1,LEN($M94))) = "", "0", TRIM(MID(SUBSTITUTE($M94,",",REPT(" ",LEN($M94))),6 *LEN($M94)+1,LEN($M94))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M94,",",REPT(" ",LEN($M94))), 7 *LEN($M94)+1,LEN($M94))) = "", "0", TRIM(MID(SUBSTITUTE($M94,",",REPT(" ",LEN($M94))),7 *LEN($M94)+1,LEN($M94))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M94,",",REPT(" ",LEN($M94))), 8 *LEN($M94)+1,LEN($M94))) = "", "0", TRIM(MID(SUBSTITUTE($M94,",",REPT(" ",LEN($M94))),8 *LEN($M94)+1,LEN($M94))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M94,",",REPT(" ",LEN($M94))), 9 *LEN($M94)+1,LEN($M94))) = "", "0", TRIM(MID(SUBSTITUTE($M94,",",REPT(" ",LEN($M94))),9 *LEN($M94)+1,LEN($M94))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M94,",",REPT(" ",LEN($M94))), 10 *LEN($M94)+1,LEN($M94))) = "", "0", TRIM(MID(SUBSTITUTE($M94,",",REPT(" ",LEN($M94))),10 *LEN($M94)+1,LEN($M94)))))</f>
@@ -5538,7 +5538,7 @@
         <v>0</v>
       </c>
       <c r="X94" s="0" t="str">
-        <f aca="true">IF(O94="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S94)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O94="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S94)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -5577,8 +5577,8 @@
         <v/>
       </c>
       <c r="U95" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V95" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M95,",",REPT(" ",LEN($M95))), 0 *LEN($M95)+1,LEN($M95))) = "", "0", TRIM(MID(SUBSTITUTE($M95,",",REPT(" ",LEN($M95))),0 *LEN($M95)+1,LEN($M95))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M95,",",REPT(" ",LEN($M95))), 1 *LEN($M95)+1,LEN($M95))) = "", "0", TRIM(MID(SUBSTITUTE($M95,",",REPT(" ",LEN($M95))),1 *LEN($M95)+1,LEN($M95))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M95,",",REPT(" ",LEN($M95))), 2 *LEN($M95)+1,LEN($M95))) = "", "0", TRIM(MID(SUBSTITUTE($M95,",",REPT(" ",LEN($M95))),2 *LEN($M95)+1,LEN($M95))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M95,",",REPT(" ",LEN($M95))), 3 *LEN($M95)+1,LEN($M95))) = "", "0", TRIM(MID(SUBSTITUTE($M95,",",REPT(" ",LEN($M95))),3 *LEN($M95)+1,LEN($M95))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M95,",",REPT(" ",LEN($M95))), 4 *LEN($M95)+1,LEN($M95))) = "", "0", TRIM(MID(SUBSTITUTE($M95,",",REPT(" ",LEN($M95))),4 *LEN($M95)+1,LEN($M95))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M95,",",REPT(" ",LEN($M95))), 5 *LEN($M95)+1,LEN($M95))) = "", "0", TRIM(MID(SUBSTITUTE($M95,",",REPT(" ",LEN($M95))),5 *LEN($M95)+1,LEN($M95))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M95,",",REPT(" ",LEN($M95))), 6 *LEN($M95)+1,LEN($M95))) = "", "0", TRIM(MID(SUBSTITUTE($M95,",",REPT(" ",LEN($M95))),6 *LEN($M95)+1,LEN($M95))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M95,",",REPT(" ",LEN($M95))), 7 *LEN($M95)+1,LEN($M95))) = "", "0", TRIM(MID(SUBSTITUTE($M95,",",REPT(" ",LEN($M95))),7 *LEN($M95)+1,LEN($M95))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M95,",",REPT(" ",LEN($M95))), 8 *LEN($M95)+1,LEN($M95))) = "", "0", TRIM(MID(SUBSTITUTE($M95,",",REPT(" ",LEN($M95))),8 *LEN($M95)+1,LEN($M95))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M95,",",REPT(" ",LEN($M95))), 9 *LEN($M95)+1,LEN($M95))) = "", "0", TRIM(MID(SUBSTITUTE($M95,",",REPT(" ",LEN($M95))),9 *LEN($M95)+1,LEN($M95))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M95,",",REPT(" ",LEN($M95))), 10 *LEN($M95)+1,LEN($M95))) = "", "0", TRIM(MID(SUBSTITUTE($M95,",",REPT(" ",LEN($M95))),10 *LEN($M95)+1,LEN($M95)))))</f>
@@ -5589,7 +5589,7 @@
         <v>0</v>
       </c>
       <c r="X95" s="0" t="str">
-        <f aca="true">IF(O95="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S95)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O95="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S95)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -5628,8 +5628,8 @@
         <v/>
       </c>
       <c r="U96" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V96" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M96,",",REPT(" ",LEN($M96))), 0 *LEN($M96)+1,LEN($M96))) = "", "0", TRIM(MID(SUBSTITUTE($M96,",",REPT(" ",LEN($M96))),0 *LEN($M96)+1,LEN($M96))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M96,",",REPT(" ",LEN($M96))), 1 *LEN($M96)+1,LEN($M96))) = "", "0", TRIM(MID(SUBSTITUTE($M96,",",REPT(" ",LEN($M96))),1 *LEN($M96)+1,LEN($M96))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M96,",",REPT(" ",LEN($M96))), 2 *LEN($M96)+1,LEN($M96))) = "", "0", TRIM(MID(SUBSTITUTE($M96,",",REPT(" ",LEN($M96))),2 *LEN($M96)+1,LEN($M96))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M96,",",REPT(" ",LEN($M96))), 3 *LEN($M96)+1,LEN($M96))) = "", "0", TRIM(MID(SUBSTITUTE($M96,",",REPT(" ",LEN($M96))),3 *LEN($M96)+1,LEN($M96))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M96,",",REPT(" ",LEN($M96))), 4 *LEN($M96)+1,LEN($M96))) = "", "0", TRIM(MID(SUBSTITUTE($M96,",",REPT(" ",LEN($M96))),4 *LEN($M96)+1,LEN($M96))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M96,",",REPT(" ",LEN($M96))), 5 *LEN($M96)+1,LEN($M96))) = "", "0", TRIM(MID(SUBSTITUTE($M96,",",REPT(" ",LEN($M96))),5 *LEN($M96)+1,LEN($M96))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M96,",",REPT(" ",LEN($M96))), 6 *LEN($M96)+1,LEN($M96))) = "", "0", TRIM(MID(SUBSTITUTE($M96,",",REPT(" ",LEN($M96))),6 *LEN($M96)+1,LEN($M96))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M96,",",REPT(" ",LEN($M96))), 7 *LEN($M96)+1,LEN($M96))) = "", "0", TRIM(MID(SUBSTITUTE($M96,",",REPT(" ",LEN($M96))),7 *LEN($M96)+1,LEN($M96))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M96,",",REPT(" ",LEN($M96))), 8 *LEN($M96)+1,LEN($M96))) = "", "0", TRIM(MID(SUBSTITUTE($M96,",",REPT(" ",LEN($M96))),8 *LEN($M96)+1,LEN($M96))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M96,",",REPT(" ",LEN($M96))), 9 *LEN($M96)+1,LEN($M96))) = "", "0", TRIM(MID(SUBSTITUTE($M96,",",REPT(" ",LEN($M96))),9 *LEN($M96)+1,LEN($M96))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M96,",",REPT(" ",LEN($M96))), 10 *LEN($M96)+1,LEN($M96))) = "", "0", TRIM(MID(SUBSTITUTE($M96,",",REPT(" ",LEN($M96))),10 *LEN($M96)+1,LEN($M96)))))</f>
@@ -5640,7 +5640,7 @@
         <v>0</v>
       </c>
       <c r="X96" s="0" t="str">
-        <f aca="true">IF(O96="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S96)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O96="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S96)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -5679,8 +5679,8 @@
         <v/>
       </c>
       <c r="U97" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V97" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M97,",",REPT(" ",LEN($M97))), 0 *LEN($M97)+1,LEN($M97))) = "", "0", TRIM(MID(SUBSTITUTE($M97,",",REPT(" ",LEN($M97))),0 *LEN($M97)+1,LEN($M97))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M97,",",REPT(" ",LEN($M97))), 1 *LEN($M97)+1,LEN($M97))) = "", "0", TRIM(MID(SUBSTITUTE($M97,",",REPT(" ",LEN($M97))),1 *LEN($M97)+1,LEN($M97))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M97,",",REPT(" ",LEN($M97))), 2 *LEN($M97)+1,LEN($M97))) = "", "0", TRIM(MID(SUBSTITUTE($M97,",",REPT(" ",LEN($M97))),2 *LEN($M97)+1,LEN($M97))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M97,",",REPT(" ",LEN($M97))), 3 *LEN($M97)+1,LEN($M97))) = "", "0", TRIM(MID(SUBSTITUTE($M97,",",REPT(" ",LEN($M97))),3 *LEN($M97)+1,LEN($M97))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M97,",",REPT(" ",LEN($M97))), 4 *LEN($M97)+1,LEN($M97))) = "", "0", TRIM(MID(SUBSTITUTE($M97,",",REPT(" ",LEN($M97))),4 *LEN($M97)+1,LEN($M97))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M97,",",REPT(" ",LEN($M97))), 5 *LEN($M97)+1,LEN($M97))) = "", "0", TRIM(MID(SUBSTITUTE($M97,",",REPT(" ",LEN($M97))),5 *LEN($M97)+1,LEN($M97))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M97,",",REPT(" ",LEN($M97))), 6 *LEN($M97)+1,LEN($M97))) = "", "0", TRIM(MID(SUBSTITUTE($M97,",",REPT(" ",LEN($M97))),6 *LEN($M97)+1,LEN($M97))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M97,",",REPT(" ",LEN($M97))), 7 *LEN($M97)+1,LEN($M97))) = "", "0", TRIM(MID(SUBSTITUTE($M97,",",REPT(" ",LEN($M97))),7 *LEN($M97)+1,LEN($M97))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M97,",",REPT(" ",LEN($M97))), 8 *LEN($M97)+1,LEN($M97))) = "", "0", TRIM(MID(SUBSTITUTE($M97,",",REPT(" ",LEN($M97))),8 *LEN($M97)+1,LEN($M97))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M97,",",REPT(" ",LEN($M97))), 9 *LEN($M97)+1,LEN($M97))) = "", "0", TRIM(MID(SUBSTITUTE($M97,",",REPT(" ",LEN($M97))),9 *LEN($M97)+1,LEN($M97))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M97,",",REPT(" ",LEN($M97))), 10 *LEN($M97)+1,LEN($M97))) = "", "0", TRIM(MID(SUBSTITUTE($M97,",",REPT(" ",LEN($M97))),10 *LEN($M97)+1,LEN($M97)))))</f>
@@ -5691,7 +5691,7 @@
         <v>0</v>
       </c>
       <c r="X97" s="0" t="str">
-        <f aca="true">IF(O97="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S97)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O97="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S97)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -5730,8 +5730,8 @@
         <v/>
       </c>
       <c r="U98" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V98" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M98,",",REPT(" ",LEN($M98))), 0 *LEN($M98)+1,LEN($M98))) = "", "0", TRIM(MID(SUBSTITUTE($M98,",",REPT(" ",LEN($M98))),0 *LEN($M98)+1,LEN($M98))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M98,",",REPT(" ",LEN($M98))), 1 *LEN($M98)+1,LEN($M98))) = "", "0", TRIM(MID(SUBSTITUTE($M98,",",REPT(" ",LEN($M98))),1 *LEN($M98)+1,LEN($M98))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M98,",",REPT(" ",LEN($M98))), 2 *LEN($M98)+1,LEN($M98))) = "", "0", TRIM(MID(SUBSTITUTE($M98,",",REPT(" ",LEN($M98))),2 *LEN($M98)+1,LEN($M98))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M98,",",REPT(" ",LEN($M98))), 3 *LEN($M98)+1,LEN($M98))) = "", "0", TRIM(MID(SUBSTITUTE($M98,",",REPT(" ",LEN($M98))),3 *LEN($M98)+1,LEN($M98))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M98,",",REPT(" ",LEN($M98))), 4 *LEN($M98)+1,LEN($M98))) = "", "0", TRIM(MID(SUBSTITUTE($M98,",",REPT(" ",LEN($M98))),4 *LEN($M98)+1,LEN($M98))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M98,",",REPT(" ",LEN($M98))), 5 *LEN($M98)+1,LEN($M98))) = "", "0", TRIM(MID(SUBSTITUTE($M98,",",REPT(" ",LEN($M98))),5 *LEN($M98)+1,LEN($M98))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M98,",",REPT(" ",LEN($M98))), 6 *LEN($M98)+1,LEN($M98))) = "", "0", TRIM(MID(SUBSTITUTE($M98,",",REPT(" ",LEN($M98))),6 *LEN($M98)+1,LEN($M98))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M98,",",REPT(" ",LEN($M98))), 7 *LEN($M98)+1,LEN($M98))) = "", "0", TRIM(MID(SUBSTITUTE($M98,",",REPT(" ",LEN($M98))),7 *LEN($M98)+1,LEN($M98))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M98,",",REPT(" ",LEN($M98))), 8 *LEN($M98)+1,LEN($M98))) = "", "0", TRIM(MID(SUBSTITUTE($M98,",",REPT(" ",LEN($M98))),8 *LEN($M98)+1,LEN($M98))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M98,",",REPT(" ",LEN($M98))), 9 *LEN($M98)+1,LEN($M98))) = "", "0", TRIM(MID(SUBSTITUTE($M98,",",REPT(" ",LEN($M98))),9 *LEN($M98)+1,LEN($M98))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M98,",",REPT(" ",LEN($M98))), 10 *LEN($M98)+1,LEN($M98))) = "", "0", TRIM(MID(SUBSTITUTE($M98,",",REPT(" ",LEN($M98))),10 *LEN($M98)+1,LEN($M98)))))</f>
@@ -5742,7 +5742,7 @@
         <v>0</v>
       </c>
       <c r="X98" s="0" t="str">
-        <f aca="true">IF(O98="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S98)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O98="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S98)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -5781,8 +5781,8 @@
         <v/>
       </c>
       <c r="U99" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V99" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M99,",",REPT(" ",LEN($M99))), 0 *LEN($M99)+1,LEN($M99))) = "", "0", TRIM(MID(SUBSTITUTE($M99,",",REPT(" ",LEN($M99))),0 *LEN($M99)+1,LEN($M99))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M99,",",REPT(" ",LEN($M99))), 1 *LEN($M99)+1,LEN($M99))) = "", "0", TRIM(MID(SUBSTITUTE($M99,",",REPT(" ",LEN($M99))),1 *LEN($M99)+1,LEN($M99))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M99,",",REPT(" ",LEN($M99))), 2 *LEN($M99)+1,LEN($M99))) = "", "0", TRIM(MID(SUBSTITUTE($M99,",",REPT(" ",LEN($M99))),2 *LEN($M99)+1,LEN($M99))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M99,",",REPT(" ",LEN($M99))), 3 *LEN($M99)+1,LEN($M99))) = "", "0", TRIM(MID(SUBSTITUTE($M99,",",REPT(" ",LEN($M99))),3 *LEN($M99)+1,LEN($M99))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M99,",",REPT(" ",LEN($M99))), 4 *LEN($M99)+1,LEN($M99))) = "", "0", TRIM(MID(SUBSTITUTE($M99,",",REPT(" ",LEN($M99))),4 *LEN($M99)+1,LEN($M99))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M99,",",REPT(" ",LEN($M99))), 5 *LEN($M99)+1,LEN($M99))) = "", "0", TRIM(MID(SUBSTITUTE($M99,",",REPT(" ",LEN($M99))),5 *LEN($M99)+1,LEN($M99))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M99,",",REPT(" ",LEN($M99))), 6 *LEN($M99)+1,LEN($M99))) = "", "0", TRIM(MID(SUBSTITUTE($M99,",",REPT(" ",LEN($M99))),6 *LEN($M99)+1,LEN($M99))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M99,",",REPT(" ",LEN($M99))), 7 *LEN($M99)+1,LEN($M99))) = "", "0", TRIM(MID(SUBSTITUTE($M99,",",REPT(" ",LEN($M99))),7 *LEN($M99)+1,LEN($M99))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M99,",",REPT(" ",LEN($M99))), 8 *LEN($M99)+1,LEN($M99))) = "", "0", TRIM(MID(SUBSTITUTE($M99,",",REPT(" ",LEN($M99))),8 *LEN($M99)+1,LEN($M99))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M99,",",REPT(" ",LEN($M99))), 9 *LEN($M99)+1,LEN($M99))) = "", "0", TRIM(MID(SUBSTITUTE($M99,",",REPT(" ",LEN($M99))),9 *LEN($M99)+1,LEN($M99))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M99,",",REPT(" ",LEN($M99))), 10 *LEN($M99)+1,LEN($M99))) = "", "0", TRIM(MID(SUBSTITUTE($M99,",",REPT(" ",LEN($M99))),10 *LEN($M99)+1,LEN($M99)))))</f>
@@ -5793,7 +5793,7 @@
         <v>0</v>
       </c>
       <c r="X99" s="0" t="str">
-        <f aca="true">IF(O99="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S99)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O99="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S99)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -5832,8 +5832,8 @@
         <v/>
       </c>
       <c r="U100" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V100" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M100,",",REPT(" ",LEN($M100))), 0 *LEN($M100)+1,LEN($M100))) = "", "0", TRIM(MID(SUBSTITUTE($M100,",",REPT(" ",LEN($M100))),0 *LEN($M100)+1,LEN($M100))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M100,",",REPT(" ",LEN($M100))), 1 *LEN($M100)+1,LEN($M100))) = "", "0", TRIM(MID(SUBSTITUTE($M100,",",REPT(" ",LEN($M100))),1 *LEN($M100)+1,LEN($M100))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M100,",",REPT(" ",LEN($M100))), 2 *LEN($M100)+1,LEN($M100))) = "", "0", TRIM(MID(SUBSTITUTE($M100,",",REPT(" ",LEN($M100))),2 *LEN($M100)+1,LEN($M100))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M100,",",REPT(" ",LEN($M100))), 3 *LEN($M100)+1,LEN($M100))) = "", "0", TRIM(MID(SUBSTITUTE($M100,",",REPT(" ",LEN($M100))),3 *LEN($M100)+1,LEN($M100))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M100,",",REPT(" ",LEN($M100))), 4 *LEN($M100)+1,LEN($M100))) = "", "0", TRIM(MID(SUBSTITUTE($M100,",",REPT(" ",LEN($M100))),4 *LEN($M100)+1,LEN($M100))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M100,",",REPT(" ",LEN($M100))), 5 *LEN($M100)+1,LEN($M100))) = "", "0", TRIM(MID(SUBSTITUTE($M100,",",REPT(" ",LEN($M100))),5 *LEN($M100)+1,LEN($M100))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M100,",",REPT(" ",LEN($M100))), 6 *LEN($M100)+1,LEN($M100))) = "", "0", TRIM(MID(SUBSTITUTE($M100,",",REPT(" ",LEN($M100))),6 *LEN($M100)+1,LEN($M100))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M100,",",REPT(" ",LEN($M100))), 7 *LEN($M100)+1,LEN($M100))) = "", "0", TRIM(MID(SUBSTITUTE($M100,",",REPT(" ",LEN($M100))),7 *LEN($M100)+1,LEN($M100))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M100,",",REPT(" ",LEN($M100))), 8 *LEN($M100)+1,LEN($M100))) = "", "0", TRIM(MID(SUBSTITUTE($M100,",",REPT(" ",LEN($M100))),8 *LEN($M100)+1,LEN($M100))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M100,",",REPT(" ",LEN($M100))), 9 *LEN($M100)+1,LEN($M100))) = "", "0", TRIM(MID(SUBSTITUTE($M100,",",REPT(" ",LEN($M100))),9 *LEN($M100)+1,LEN($M100))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M100,",",REPT(" ",LEN($M100))), 10 *LEN($M100)+1,LEN($M100))) = "", "0", TRIM(MID(SUBSTITUTE($M100,",",REPT(" ",LEN($M100))),10 *LEN($M100)+1,LEN($M100)))))</f>
@@ -5844,7 +5844,7 @@
         <v>0</v>
       </c>
       <c r="X100" s="0" t="str">
-        <f aca="true">IF(O100="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S100)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O100="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S100)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -5883,8 +5883,8 @@
         <v/>
       </c>
       <c r="U101" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V101" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M101,",",REPT(" ",LEN($M101))), 0 *LEN($M101)+1,LEN($M101))) = "", "0", TRIM(MID(SUBSTITUTE($M101,",",REPT(" ",LEN($M101))),0 *LEN($M101)+1,LEN($M101))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M101,",",REPT(" ",LEN($M101))), 1 *LEN($M101)+1,LEN($M101))) = "", "0", TRIM(MID(SUBSTITUTE($M101,",",REPT(" ",LEN($M101))),1 *LEN($M101)+1,LEN($M101))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M101,",",REPT(" ",LEN($M101))), 2 *LEN($M101)+1,LEN($M101))) = "", "0", TRIM(MID(SUBSTITUTE($M101,",",REPT(" ",LEN($M101))),2 *LEN($M101)+1,LEN($M101))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M101,",",REPT(" ",LEN($M101))), 3 *LEN($M101)+1,LEN($M101))) = "", "0", TRIM(MID(SUBSTITUTE($M101,",",REPT(" ",LEN($M101))),3 *LEN($M101)+1,LEN($M101))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M101,",",REPT(" ",LEN($M101))), 4 *LEN($M101)+1,LEN($M101))) = "", "0", TRIM(MID(SUBSTITUTE($M101,",",REPT(" ",LEN($M101))),4 *LEN($M101)+1,LEN($M101))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M101,",",REPT(" ",LEN($M101))), 5 *LEN($M101)+1,LEN($M101))) = "", "0", TRIM(MID(SUBSTITUTE($M101,",",REPT(" ",LEN($M101))),5 *LEN($M101)+1,LEN($M101))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M101,",",REPT(" ",LEN($M101))), 6 *LEN($M101)+1,LEN($M101))) = "", "0", TRIM(MID(SUBSTITUTE($M101,",",REPT(" ",LEN($M101))),6 *LEN($M101)+1,LEN($M101))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M101,",",REPT(" ",LEN($M101))), 7 *LEN($M101)+1,LEN($M101))) = "", "0", TRIM(MID(SUBSTITUTE($M101,",",REPT(" ",LEN($M101))),7 *LEN($M101)+1,LEN($M101))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M101,",",REPT(" ",LEN($M101))), 8 *LEN($M101)+1,LEN($M101))) = "", "0", TRIM(MID(SUBSTITUTE($M101,",",REPT(" ",LEN($M101))),8 *LEN($M101)+1,LEN($M101))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M101,",",REPT(" ",LEN($M101))), 9 *LEN($M101)+1,LEN($M101))) = "", "0", TRIM(MID(SUBSTITUTE($M101,",",REPT(" ",LEN($M101))),9 *LEN($M101)+1,LEN($M101))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M101,",",REPT(" ",LEN($M101))), 10 *LEN($M101)+1,LEN($M101))) = "", "0", TRIM(MID(SUBSTITUTE($M101,",",REPT(" ",LEN($M101))),10 *LEN($M101)+1,LEN($M101)))))</f>
@@ -5895,7 +5895,7 @@
         <v>0</v>
       </c>
       <c r="X101" s="0" t="str">
-        <f aca="true">IF(O101="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S101)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O101="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S101)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -5934,8 +5934,8 @@
         <v/>
       </c>
       <c r="U102" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V102" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M102,",",REPT(" ",LEN($M102))), 0 *LEN($M102)+1,LEN($M102))) = "", "0", TRIM(MID(SUBSTITUTE($M102,",",REPT(" ",LEN($M102))),0 *LEN($M102)+1,LEN($M102))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M102,",",REPT(" ",LEN($M102))), 1 *LEN($M102)+1,LEN($M102))) = "", "0", TRIM(MID(SUBSTITUTE($M102,",",REPT(" ",LEN($M102))),1 *LEN($M102)+1,LEN($M102))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M102,",",REPT(" ",LEN($M102))), 2 *LEN($M102)+1,LEN($M102))) = "", "0", TRIM(MID(SUBSTITUTE($M102,",",REPT(" ",LEN($M102))),2 *LEN($M102)+1,LEN($M102))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M102,",",REPT(" ",LEN($M102))), 3 *LEN($M102)+1,LEN($M102))) = "", "0", TRIM(MID(SUBSTITUTE($M102,",",REPT(" ",LEN($M102))),3 *LEN($M102)+1,LEN($M102))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M102,",",REPT(" ",LEN($M102))), 4 *LEN($M102)+1,LEN($M102))) = "", "0", TRIM(MID(SUBSTITUTE($M102,",",REPT(" ",LEN($M102))),4 *LEN($M102)+1,LEN($M102))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M102,",",REPT(" ",LEN($M102))), 5 *LEN($M102)+1,LEN($M102))) = "", "0", TRIM(MID(SUBSTITUTE($M102,",",REPT(" ",LEN($M102))),5 *LEN($M102)+1,LEN($M102))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M102,",",REPT(" ",LEN($M102))), 6 *LEN($M102)+1,LEN($M102))) = "", "0", TRIM(MID(SUBSTITUTE($M102,",",REPT(" ",LEN($M102))),6 *LEN($M102)+1,LEN($M102))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M102,",",REPT(" ",LEN($M102))), 7 *LEN($M102)+1,LEN($M102))) = "", "0", TRIM(MID(SUBSTITUTE($M102,",",REPT(" ",LEN($M102))),7 *LEN($M102)+1,LEN($M102))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M102,",",REPT(" ",LEN($M102))), 8 *LEN($M102)+1,LEN($M102))) = "", "0", TRIM(MID(SUBSTITUTE($M102,",",REPT(" ",LEN($M102))),8 *LEN($M102)+1,LEN($M102))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M102,",",REPT(" ",LEN($M102))), 9 *LEN($M102)+1,LEN($M102))) = "", "0", TRIM(MID(SUBSTITUTE($M102,",",REPT(" ",LEN($M102))),9 *LEN($M102)+1,LEN($M102))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M102,",",REPT(" ",LEN($M102))), 10 *LEN($M102)+1,LEN($M102))) = "", "0", TRIM(MID(SUBSTITUTE($M102,",",REPT(" ",LEN($M102))),10 *LEN($M102)+1,LEN($M102)))))</f>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="X102" s="0" t="str">
-        <f aca="true">IF(O102="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S102)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O102="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S102)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -5985,8 +5985,8 @@
         <v/>
       </c>
       <c r="U103" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V103" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M103,",",REPT(" ",LEN($M103))), 0 *LEN($M103)+1,LEN($M103))) = "", "0", TRIM(MID(SUBSTITUTE($M103,",",REPT(" ",LEN($M103))),0 *LEN($M103)+1,LEN($M103))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M103,",",REPT(" ",LEN($M103))), 1 *LEN($M103)+1,LEN($M103))) = "", "0", TRIM(MID(SUBSTITUTE($M103,",",REPT(" ",LEN($M103))),1 *LEN($M103)+1,LEN($M103))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M103,",",REPT(" ",LEN($M103))), 2 *LEN($M103)+1,LEN($M103))) = "", "0", TRIM(MID(SUBSTITUTE($M103,",",REPT(" ",LEN($M103))),2 *LEN($M103)+1,LEN($M103))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M103,",",REPT(" ",LEN($M103))), 3 *LEN($M103)+1,LEN($M103))) = "", "0", TRIM(MID(SUBSTITUTE($M103,",",REPT(" ",LEN($M103))),3 *LEN($M103)+1,LEN($M103))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M103,",",REPT(" ",LEN($M103))), 4 *LEN($M103)+1,LEN($M103))) = "", "0", TRIM(MID(SUBSTITUTE($M103,",",REPT(" ",LEN($M103))),4 *LEN($M103)+1,LEN($M103))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M103,",",REPT(" ",LEN($M103))), 5 *LEN($M103)+1,LEN($M103))) = "", "0", TRIM(MID(SUBSTITUTE($M103,",",REPT(" ",LEN($M103))),5 *LEN($M103)+1,LEN($M103))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M103,",",REPT(" ",LEN($M103))), 6 *LEN($M103)+1,LEN($M103))) = "", "0", TRIM(MID(SUBSTITUTE($M103,",",REPT(" ",LEN($M103))),6 *LEN($M103)+1,LEN($M103))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M103,",",REPT(" ",LEN($M103))), 7 *LEN($M103)+1,LEN($M103))) = "", "0", TRIM(MID(SUBSTITUTE($M103,",",REPT(" ",LEN($M103))),7 *LEN($M103)+1,LEN($M103))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M103,",",REPT(" ",LEN($M103))), 8 *LEN($M103)+1,LEN($M103))) = "", "0", TRIM(MID(SUBSTITUTE($M103,",",REPT(" ",LEN($M103))),8 *LEN($M103)+1,LEN($M103))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M103,",",REPT(" ",LEN($M103))), 9 *LEN($M103)+1,LEN($M103))) = "", "0", TRIM(MID(SUBSTITUTE($M103,",",REPT(" ",LEN($M103))),9 *LEN($M103)+1,LEN($M103))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M103,",",REPT(" ",LEN($M103))), 10 *LEN($M103)+1,LEN($M103))) = "", "0", TRIM(MID(SUBSTITUTE($M103,",",REPT(" ",LEN($M103))),10 *LEN($M103)+1,LEN($M103)))))</f>
@@ -5997,7 +5997,7 @@
         <v>0</v>
       </c>
       <c r="X103" s="0" t="str">
-        <f aca="true">IF(O103="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S103)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O103="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S103)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -6036,8 +6036,8 @@
         <v/>
       </c>
       <c r="U104" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V104" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M104,",",REPT(" ",LEN($M104))), 0 *LEN($M104)+1,LEN($M104))) = "", "0", TRIM(MID(SUBSTITUTE($M104,",",REPT(" ",LEN($M104))),0 *LEN($M104)+1,LEN($M104))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M104,",",REPT(" ",LEN($M104))), 1 *LEN($M104)+1,LEN($M104))) = "", "0", TRIM(MID(SUBSTITUTE($M104,",",REPT(" ",LEN($M104))),1 *LEN($M104)+1,LEN($M104))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M104,",",REPT(" ",LEN($M104))), 2 *LEN($M104)+1,LEN($M104))) = "", "0", TRIM(MID(SUBSTITUTE($M104,",",REPT(" ",LEN($M104))),2 *LEN($M104)+1,LEN($M104))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M104,",",REPT(" ",LEN($M104))), 3 *LEN($M104)+1,LEN($M104))) = "", "0", TRIM(MID(SUBSTITUTE($M104,",",REPT(" ",LEN($M104))),3 *LEN($M104)+1,LEN($M104))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M104,",",REPT(" ",LEN($M104))), 4 *LEN($M104)+1,LEN($M104))) = "", "0", TRIM(MID(SUBSTITUTE($M104,",",REPT(" ",LEN($M104))),4 *LEN($M104)+1,LEN($M104))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M104,",",REPT(" ",LEN($M104))), 5 *LEN($M104)+1,LEN($M104))) = "", "0", TRIM(MID(SUBSTITUTE($M104,",",REPT(" ",LEN($M104))),5 *LEN($M104)+1,LEN($M104))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M104,",",REPT(" ",LEN($M104))), 6 *LEN($M104)+1,LEN($M104))) = "", "0", TRIM(MID(SUBSTITUTE($M104,",",REPT(" ",LEN($M104))),6 *LEN($M104)+1,LEN($M104))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M104,",",REPT(" ",LEN($M104))), 7 *LEN($M104)+1,LEN($M104))) = "", "0", TRIM(MID(SUBSTITUTE($M104,",",REPT(" ",LEN($M104))),7 *LEN($M104)+1,LEN($M104))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M104,",",REPT(" ",LEN($M104))), 8 *LEN($M104)+1,LEN($M104))) = "", "0", TRIM(MID(SUBSTITUTE($M104,",",REPT(" ",LEN($M104))),8 *LEN($M104)+1,LEN($M104))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M104,",",REPT(" ",LEN($M104))), 9 *LEN($M104)+1,LEN($M104))) = "", "0", TRIM(MID(SUBSTITUTE($M104,",",REPT(" ",LEN($M104))),9 *LEN($M104)+1,LEN($M104))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M104,",",REPT(" ",LEN($M104))), 10 *LEN($M104)+1,LEN($M104))) = "", "0", TRIM(MID(SUBSTITUTE($M104,",",REPT(" ",LEN($M104))),10 *LEN($M104)+1,LEN($M104)))))</f>
@@ -6048,7 +6048,7 @@
         <v>0</v>
       </c>
       <c r="X104" s="0" t="str">
-        <f aca="true">IF(O104="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S104)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O104="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S104)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -6087,8 +6087,8 @@
         <v/>
       </c>
       <c r="U105" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V105" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M105,",",REPT(" ",LEN($M105))), 0 *LEN($M105)+1,LEN($M105))) = "", "0", TRIM(MID(SUBSTITUTE($M105,",",REPT(" ",LEN($M105))),0 *LEN($M105)+1,LEN($M105))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M105,",",REPT(" ",LEN($M105))), 1 *LEN($M105)+1,LEN($M105))) = "", "0", TRIM(MID(SUBSTITUTE($M105,",",REPT(" ",LEN($M105))),1 *LEN($M105)+1,LEN($M105))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M105,",",REPT(" ",LEN($M105))), 2 *LEN($M105)+1,LEN($M105))) = "", "0", TRIM(MID(SUBSTITUTE($M105,",",REPT(" ",LEN($M105))),2 *LEN($M105)+1,LEN($M105))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M105,",",REPT(" ",LEN($M105))), 3 *LEN($M105)+1,LEN($M105))) = "", "0", TRIM(MID(SUBSTITUTE($M105,",",REPT(" ",LEN($M105))),3 *LEN($M105)+1,LEN($M105))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M105,",",REPT(" ",LEN($M105))), 4 *LEN($M105)+1,LEN($M105))) = "", "0", TRIM(MID(SUBSTITUTE($M105,",",REPT(" ",LEN($M105))),4 *LEN($M105)+1,LEN($M105))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M105,",",REPT(" ",LEN($M105))), 5 *LEN($M105)+1,LEN($M105))) = "", "0", TRIM(MID(SUBSTITUTE($M105,",",REPT(" ",LEN($M105))),5 *LEN($M105)+1,LEN($M105))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M105,",",REPT(" ",LEN($M105))), 6 *LEN($M105)+1,LEN($M105))) = "", "0", TRIM(MID(SUBSTITUTE($M105,",",REPT(" ",LEN($M105))),6 *LEN($M105)+1,LEN($M105))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M105,",",REPT(" ",LEN($M105))), 7 *LEN($M105)+1,LEN($M105))) = "", "0", TRIM(MID(SUBSTITUTE($M105,",",REPT(" ",LEN($M105))),7 *LEN($M105)+1,LEN($M105))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M105,",",REPT(" ",LEN($M105))), 8 *LEN($M105)+1,LEN($M105))) = "", "0", TRIM(MID(SUBSTITUTE($M105,",",REPT(" ",LEN($M105))),8 *LEN($M105)+1,LEN($M105))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M105,",",REPT(" ",LEN($M105))), 9 *LEN($M105)+1,LEN($M105))) = "", "0", TRIM(MID(SUBSTITUTE($M105,",",REPT(" ",LEN($M105))),9 *LEN($M105)+1,LEN($M105))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M105,",",REPT(" ",LEN($M105))), 10 *LEN($M105)+1,LEN($M105))) = "", "0", TRIM(MID(SUBSTITUTE($M105,",",REPT(" ",LEN($M105))),10 *LEN($M105)+1,LEN($M105)))))</f>
@@ -6099,7 +6099,7 @@
         <v>0</v>
       </c>
       <c r="X105" s="0" t="str">
-        <f aca="true">IF(O105="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S105)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O105="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S105)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -6138,8 +6138,8 @@
         <v/>
       </c>
       <c r="U106" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V106" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M106,",",REPT(" ",LEN($M106))), 0 *LEN($M106)+1,LEN($M106))) = "", "0", TRIM(MID(SUBSTITUTE($M106,",",REPT(" ",LEN($M106))),0 *LEN($M106)+1,LEN($M106))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M106,",",REPT(" ",LEN($M106))), 1 *LEN($M106)+1,LEN($M106))) = "", "0", TRIM(MID(SUBSTITUTE($M106,",",REPT(" ",LEN($M106))),1 *LEN($M106)+1,LEN($M106))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M106,",",REPT(" ",LEN($M106))), 2 *LEN($M106)+1,LEN($M106))) = "", "0", TRIM(MID(SUBSTITUTE($M106,",",REPT(" ",LEN($M106))),2 *LEN($M106)+1,LEN($M106))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M106,",",REPT(" ",LEN($M106))), 3 *LEN($M106)+1,LEN($M106))) = "", "0", TRIM(MID(SUBSTITUTE($M106,",",REPT(" ",LEN($M106))),3 *LEN($M106)+1,LEN($M106))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M106,",",REPT(" ",LEN($M106))), 4 *LEN($M106)+1,LEN($M106))) = "", "0", TRIM(MID(SUBSTITUTE($M106,",",REPT(" ",LEN($M106))),4 *LEN($M106)+1,LEN($M106))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M106,",",REPT(" ",LEN($M106))), 5 *LEN($M106)+1,LEN($M106))) = "", "0", TRIM(MID(SUBSTITUTE($M106,",",REPT(" ",LEN($M106))),5 *LEN($M106)+1,LEN($M106))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M106,",",REPT(" ",LEN($M106))), 6 *LEN($M106)+1,LEN($M106))) = "", "0", TRIM(MID(SUBSTITUTE($M106,",",REPT(" ",LEN($M106))),6 *LEN($M106)+1,LEN($M106))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M106,",",REPT(" ",LEN($M106))), 7 *LEN($M106)+1,LEN($M106))) = "", "0", TRIM(MID(SUBSTITUTE($M106,",",REPT(" ",LEN($M106))),7 *LEN($M106)+1,LEN($M106))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M106,",",REPT(" ",LEN($M106))), 8 *LEN($M106)+1,LEN($M106))) = "", "0", TRIM(MID(SUBSTITUTE($M106,",",REPT(" ",LEN($M106))),8 *LEN($M106)+1,LEN($M106))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M106,",",REPT(" ",LEN($M106))), 9 *LEN($M106)+1,LEN($M106))) = "", "0", TRIM(MID(SUBSTITUTE($M106,",",REPT(" ",LEN($M106))),9 *LEN($M106)+1,LEN($M106))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M106,",",REPT(" ",LEN($M106))), 10 *LEN($M106)+1,LEN($M106))) = "", "0", TRIM(MID(SUBSTITUTE($M106,",",REPT(" ",LEN($M106))),10 *LEN($M106)+1,LEN($M106)))))</f>
@@ -6150,7 +6150,7 @@
         <v>0</v>
       </c>
       <c r="X106" s="0" t="str">
-        <f aca="true">IF(O106="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S106)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O106="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S106)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -6189,8 +6189,8 @@
         <v/>
       </c>
       <c r="U107" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V107" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M107,",",REPT(" ",LEN($M107))), 0 *LEN($M107)+1,LEN($M107))) = "", "0", TRIM(MID(SUBSTITUTE($M107,",",REPT(" ",LEN($M107))),0 *LEN($M107)+1,LEN($M107))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M107,",",REPT(" ",LEN($M107))), 1 *LEN($M107)+1,LEN($M107))) = "", "0", TRIM(MID(SUBSTITUTE($M107,",",REPT(" ",LEN($M107))),1 *LEN($M107)+1,LEN($M107))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M107,",",REPT(" ",LEN($M107))), 2 *LEN($M107)+1,LEN($M107))) = "", "0", TRIM(MID(SUBSTITUTE($M107,",",REPT(" ",LEN($M107))),2 *LEN($M107)+1,LEN($M107))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M107,",",REPT(" ",LEN($M107))), 3 *LEN($M107)+1,LEN($M107))) = "", "0", TRIM(MID(SUBSTITUTE($M107,",",REPT(" ",LEN($M107))),3 *LEN($M107)+1,LEN($M107))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M107,",",REPT(" ",LEN($M107))), 4 *LEN($M107)+1,LEN($M107))) = "", "0", TRIM(MID(SUBSTITUTE($M107,",",REPT(" ",LEN($M107))),4 *LEN($M107)+1,LEN($M107))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M107,",",REPT(" ",LEN($M107))), 5 *LEN($M107)+1,LEN($M107))) = "", "0", TRIM(MID(SUBSTITUTE($M107,",",REPT(" ",LEN($M107))),5 *LEN($M107)+1,LEN($M107))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M107,",",REPT(" ",LEN($M107))), 6 *LEN($M107)+1,LEN($M107))) = "", "0", TRIM(MID(SUBSTITUTE($M107,",",REPT(" ",LEN($M107))),6 *LEN($M107)+1,LEN($M107))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M107,",",REPT(" ",LEN($M107))), 7 *LEN($M107)+1,LEN($M107))) = "", "0", TRIM(MID(SUBSTITUTE($M107,",",REPT(" ",LEN($M107))),7 *LEN($M107)+1,LEN($M107))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M107,",",REPT(" ",LEN($M107))), 8 *LEN($M107)+1,LEN($M107))) = "", "0", TRIM(MID(SUBSTITUTE($M107,",",REPT(" ",LEN($M107))),8 *LEN($M107)+1,LEN($M107))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M107,",",REPT(" ",LEN($M107))), 9 *LEN($M107)+1,LEN($M107))) = "", "0", TRIM(MID(SUBSTITUTE($M107,",",REPT(" ",LEN($M107))),9 *LEN($M107)+1,LEN($M107))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M107,",",REPT(" ",LEN($M107))), 10 *LEN($M107)+1,LEN($M107))) = "", "0", TRIM(MID(SUBSTITUTE($M107,",",REPT(" ",LEN($M107))),10 *LEN($M107)+1,LEN($M107)))))</f>
@@ -6201,7 +6201,7 @@
         <v>0</v>
       </c>
       <c r="X107" s="0" t="str">
-        <f aca="true">IF(O107="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S107)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O107="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S107)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -6240,8 +6240,8 @@
         <v/>
       </c>
       <c r="U108" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V108" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))), 0 *LEN($M108)+1,LEN($M108))) = "", "0", TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))),0 *LEN($M108)+1,LEN($M108))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))), 1 *LEN($M108)+1,LEN($M108))) = "", "0", TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))),1 *LEN($M108)+1,LEN($M108))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))), 2 *LEN($M108)+1,LEN($M108))) = "", "0", TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))),2 *LEN($M108)+1,LEN($M108))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))), 3 *LEN($M108)+1,LEN($M108))) = "", "0", TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))),3 *LEN($M108)+1,LEN($M108))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))), 4 *LEN($M108)+1,LEN($M108))) = "", "0", TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))),4 *LEN($M108)+1,LEN($M108))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))), 5 *LEN($M108)+1,LEN($M108))) = "", "0", TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))),5 *LEN($M108)+1,LEN($M108))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))), 6 *LEN($M108)+1,LEN($M108))) = "", "0", TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))),6 *LEN($M108)+1,LEN($M108))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))), 7 *LEN($M108)+1,LEN($M108))) = "", "0", TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))),7 *LEN($M108)+1,LEN($M108))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))), 8 *LEN($M108)+1,LEN($M108))) = "", "0", TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))),8 *LEN($M108)+1,LEN($M108))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))), 9 *LEN($M108)+1,LEN($M108))) = "", "0", TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))),9 *LEN($M108)+1,LEN($M108))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))), 10 *LEN($M108)+1,LEN($M108))) = "", "0", TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))),10 *LEN($M108)+1,LEN($M108)))))</f>
@@ -6252,7 +6252,7 @@
         <v>0</v>
       </c>
       <c r="X108" s="0" t="str">
-        <f aca="true">IF(O108="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S108)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O108="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S108)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -6291,8 +6291,8 @@
         <v/>
       </c>
       <c r="U109" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V109" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M109,",",REPT(" ",LEN($M109))), 0 *LEN($M109)+1,LEN($M109))) = "", "0", TRIM(MID(SUBSTITUTE($M109,",",REPT(" ",LEN($M109))),0 *LEN($M109)+1,LEN($M109))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M109,",",REPT(" ",LEN($M109))), 1 *LEN($M109)+1,LEN($M109))) = "", "0", TRIM(MID(SUBSTITUTE($M109,",",REPT(" ",LEN($M109))),1 *LEN($M109)+1,LEN($M109))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M109,",",REPT(" ",LEN($M109))), 2 *LEN($M109)+1,LEN($M109))) = "", "0", TRIM(MID(SUBSTITUTE($M109,",",REPT(" ",LEN($M109))),2 *LEN($M109)+1,LEN($M109))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M109,",",REPT(" ",LEN($M109))), 3 *LEN($M109)+1,LEN($M109))) = "", "0", TRIM(MID(SUBSTITUTE($M109,",",REPT(" ",LEN($M109))),3 *LEN($M109)+1,LEN($M109))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M109,",",REPT(" ",LEN($M109))), 4 *LEN($M109)+1,LEN($M109))) = "", "0", TRIM(MID(SUBSTITUTE($M109,",",REPT(" ",LEN($M109))),4 *LEN($M109)+1,LEN($M109))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M109,",",REPT(" ",LEN($M109))), 5 *LEN($M109)+1,LEN($M109))) = "", "0", TRIM(MID(SUBSTITUTE($M109,",",REPT(" ",LEN($M109))),5 *LEN($M109)+1,LEN($M109))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M109,",",REPT(" ",LEN($M109))), 6 *LEN($M109)+1,LEN($M109))) = "", "0", TRIM(MID(SUBSTITUTE($M109,",",REPT(" ",LEN($M109))),6 *LEN($M109)+1,LEN($M109))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M109,",",REPT(" ",LEN($M109))), 7 *LEN($M109)+1,LEN($M109))) = "", "0", TRIM(MID(SUBSTITUTE($M109,",",REPT(" ",LEN($M109))),7 *LEN($M109)+1,LEN($M109))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M109,",",REPT(" ",LEN($M109))), 8 *LEN($M109)+1,LEN($M109))) = "", "0", TRIM(MID(SUBSTITUTE($M109,",",REPT(" ",LEN($M109))),8 *LEN($M109)+1,LEN($M109))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M109,",",REPT(" ",LEN($M109))), 9 *LEN($M109)+1,LEN($M109))) = "", "0", TRIM(MID(SUBSTITUTE($M109,",",REPT(" ",LEN($M109))),9 *LEN($M109)+1,LEN($M109))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M109,",",REPT(" ",LEN($M109))), 10 *LEN($M109)+1,LEN($M109))) = "", "0", TRIM(MID(SUBSTITUTE($M109,",",REPT(" ",LEN($M109))),10 *LEN($M109)+1,LEN($M109)))))</f>
@@ -6303,7 +6303,7 @@
         <v>0</v>
       </c>
       <c r="X109" s="0" t="str">
-        <f aca="true">IF(O109="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S109)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O109="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S109)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -6342,8 +6342,8 @@
         <v/>
       </c>
       <c r="U110" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V110" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M110,",",REPT(" ",LEN($M110))), 0 *LEN($M110)+1,LEN($M110))) = "", "0", TRIM(MID(SUBSTITUTE($M110,",",REPT(" ",LEN($M110))),0 *LEN($M110)+1,LEN($M110))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M110,",",REPT(" ",LEN($M110))), 1 *LEN($M110)+1,LEN($M110))) = "", "0", TRIM(MID(SUBSTITUTE($M110,",",REPT(" ",LEN($M110))),1 *LEN($M110)+1,LEN($M110))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M110,",",REPT(" ",LEN($M110))), 2 *LEN($M110)+1,LEN($M110))) = "", "0", TRIM(MID(SUBSTITUTE($M110,",",REPT(" ",LEN($M110))),2 *LEN($M110)+1,LEN($M110))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M110,",",REPT(" ",LEN($M110))), 3 *LEN($M110)+1,LEN($M110))) = "", "0", TRIM(MID(SUBSTITUTE($M110,",",REPT(" ",LEN($M110))),3 *LEN($M110)+1,LEN($M110))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M110,",",REPT(" ",LEN($M110))), 4 *LEN($M110)+1,LEN($M110))) = "", "0", TRIM(MID(SUBSTITUTE($M110,",",REPT(" ",LEN($M110))),4 *LEN($M110)+1,LEN($M110))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M110,",",REPT(" ",LEN($M110))), 5 *LEN($M110)+1,LEN($M110))) = "", "0", TRIM(MID(SUBSTITUTE($M110,",",REPT(" ",LEN($M110))),5 *LEN($M110)+1,LEN($M110))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M110,",",REPT(" ",LEN($M110))), 6 *LEN($M110)+1,LEN($M110))) = "", "0", TRIM(MID(SUBSTITUTE($M110,",",REPT(" ",LEN($M110))),6 *LEN($M110)+1,LEN($M110))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M110,",",REPT(" ",LEN($M110))), 7 *LEN($M110)+1,LEN($M110))) = "", "0", TRIM(MID(SUBSTITUTE($M110,",",REPT(" ",LEN($M110))),7 *LEN($M110)+1,LEN($M110))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M110,",",REPT(" ",LEN($M110))), 8 *LEN($M110)+1,LEN($M110))) = "", "0", TRIM(MID(SUBSTITUTE($M110,",",REPT(" ",LEN($M110))),8 *LEN($M110)+1,LEN($M110))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M110,",",REPT(" ",LEN($M110))), 9 *LEN($M110)+1,LEN($M110))) = "", "0", TRIM(MID(SUBSTITUTE($M110,",",REPT(" ",LEN($M110))),9 *LEN($M110)+1,LEN($M110))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M110,",",REPT(" ",LEN($M110))), 10 *LEN($M110)+1,LEN($M110))) = "", "0", TRIM(MID(SUBSTITUTE($M110,",",REPT(" ",LEN($M110))),10 *LEN($M110)+1,LEN($M110)))))</f>
@@ -6354,7 +6354,7 @@
         <v>0</v>
       </c>
       <c r="X110" s="0" t="str">
-        <f aca="true">IF(O110="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S110)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O110="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S110)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -6393,8 +6393,8 @@
         <v/>
       </c>
       <c r="U111" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V111" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M111,",",REPT(" ",LEN($M111))), 0 *LEN($M111)+1,LEN($M111))) = "", "0", TRIM(MID(SUBSTITUTE($M111,",",REPT(" ",LEN($M111))),0 *LEN($M111)+1,LEN($M111))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M111,",",REPT(" ",LEN($M111))), 1 *LEN($M111)+1,LEN($M111))) = "", "0", TRIM(MID(SUBSTITUTE($M111,",",REPT(" ",LEN($M111))),1 *LEN($M111)+1,LEN($M111))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M111,",",REPT(" ",LEN($M111))), 2 *LEN($M111)+1,LEN($M111))) = "", "0", TRIM(MID(SUBSTITUTE($M111,",",REPT(" ",LEN($M111))),2 *LEN($M111)+1,LEN($M111))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M111,",",REPT(" ",LEN($M111))), 3 *LEN($M111)+1,LEN($M111))) = "", "0", TRIM(MID(SUBSTITUTE($M111,",",REPT(" ",LEN($M111))),3 *LEN($M111)+1,LEN($M111))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M111,",",REPT(" ",LEN($M111))), 4 *LEN($M111)+1,LEN($M111))) = "", "0", TRIM(MID(SUBSTITUTE($M111,",",REPT(" ",LEN($M111))),4 *LEN($M111)+1,LEN($M111))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M111,",",REPT(" ",LEN($M111))), 5 *LEN($M111)+1,LEN($M111))) = "", "0", TRIM(MID(SUBSTITUTE($M111,",",REPT(" ",LEN($M111))),5 *LEN($M111)+1,LEN($M111))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M111,",",REPT(" ",LEN($M111))), 6 *LEN($M111)+1,LEN($M111))) = "", "0", TRIM(MID(SUBSTITUTE($M111,",",REPT(" ",LEN($M111))),6 *LEN($M111)+1,LEN($M111))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M111,",",REPT(" ",LEN($M111))), 7 *LEN($M111)+1,LEN($M111))) = "", "0", TRIM(MID(SUBSTITUTE($M111,",",REPT(" ",LEN($M111))),7 *LEN($M111)+1,LEN($M111))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M111,",",REPT(" ",LEN($M111))), 8 *LEN($M111)+1,LEN($M111))) = "", "0", TRIM(MID(SUBSTITUTE($M111,",",REPT(" ",LEN($M111))),8 *LEN($M111)+1,LEN($M111))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M111,",",REPT(" ",LEN($M111))), 9 *LEN($M111)+1,LEN($M111))) = "", "0", TRIM(MID(SUBSTITUTE($M111,",",REPT(" ",LEN($M111))),9 *LEN($M111)+1,LEN($M111))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M111,",",REPT(" ",LEN($M111))), 10 *LEN($M111)+1,LEN($M111))) = "", "0", TRIM(MID(SUBSTITUTE($M111,",",REPT(" ",LEN($M111))),10 *LEN($M111)+1,LEN($M111)))))</f>
@@ -6405,7 +6405,7 @@
         <v>0</v>
       </c>
       <c r="X111" s="0" t="str">
-        <f aca="true">IF(O111="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S111)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O111="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S111)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -6444,8 +6444,8 @@
         <v/>
       </c>
       <c r="U112" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V112" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M112,",",REPT(" ",LEN($M112))), 0 *LEN($M112)+1,LEN($M112))) = "", "0", TRIM(MID(SUBSTITUTE($M112,",",REPT(" ",LEN($M112))),0 *LEN($M112)+1,LEN($M112))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M112,",",REPT(" ",LEN($M112))), 1 *LEN($M112)+1,LEN($M112))) = "", "0", TRIM(MID(SUBSTITUTE($M112,",",REPT(" ",LEN($M112))),1 *LEN($M112)+1,LEN($M112))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M112,",",REPT(" ",LEN($M112))), 2 *LEN($M112)+1,LEN($M112))) = "", "0", TRIM(MID(SUBSTITUTE($M112,",",REPT(" ",LEN($M112))),2 *LEN($M112)+1,LEN($M112))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M112,",",REPT(" ",LEN($M112))), 3 *LEN($M112)+1,LEN($M112))) = "", "0", TRIM(MID(SUBSTITUTE($M112,",",REPT(" ",LEN($M112))),3 *LEN($M112)+1,LEN($M112))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M112,",",REPT(" ",LEN($M112))), 4 *LEN($M112)+1,LEN($M112))) = "", "0", TRIM(MID(SUBSTITUTE($M112,",",REPT(" ",LEN($M112))),4 *LEN($M112)+1,LEN($M112))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M112,",",REPT(" ",LEN($M112))), 5 *LEN($M112)+1,LEN($M112))) = "", "0", TRIM(MID(SUBSTITUTE($M112,",",REPT(" ",LEN($M112))),5 *LEN($M112)+1,LEN($M112))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M112,",",REPT(" ",LEN($M112))), 6 *LEN($M112)+1,LEN($M112))) = "", "0", TRIM(MID(SUBSTITUTE($M112,",",REPT(" ",LEN($M112))),6 *LEN($M112)+1,LEN($M112))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M112,",",REPT(" ",LEN($M112))), 7 *LEN($M112)+1,LEN($M112))) = "", "0", TRIM(MID(SUBSTITUTE($M112,",",REPT(" ",LEN($M112))),7 *LEN($M112)+1,LEN($M112))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M112,",",REPT(" ",LEN($M112))), 8 *LEN($M112)+1,LEN($M112))) = "", "0", TRIM(MID(SUBSTITUTE($M112,",",REPT(" ",LEN($M112))),8 *LEN($M112)+1,LEN($M112))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M112,",",REPT(" ",LEN($M112))), 9 *LEN($M112)+1,LEN($M112))) = "", "0", TRIM(MID(SUBSTITUTE($M112,",",REPT(" ",LEN($M112))),9 *LEN($M112)+1,LEN($M112))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M112,",",REPT(" ",LEN($M112))), 10 *LEN($M112)+1,LEN($M112))) = "", "0", TRIM(MID(SUBSTITUTE($M112,",",REPT(" ",LEN($M112))),10 *LEN($M112)+1,LEN($M112)))))</f>
@@ -6456,7 +6456,7 @@
         <v>0</v>
       </c>
       <c r="X112" s="0" t="str">
-        <f aca="true">IF(O112="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S112)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O112="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S112)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -6495,8 +6495,8 @@
         <v/>
       </c>
       <c r="U113" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V113" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M113,",",REPT(" ",LEN($M113))), 0 *LEN($M113)+1,LEN($M113))) = "", "0", TRIM(MID(SUBSTITUTE($M113,",",REPT(" ",LEN($M113))),0 *LEN($M113)+1,LEN($M113))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M113,",",REPT(" ",LEN($M113))), 1 *LEN($M113)+1,LEN($M113))) = "", "0", TRIM(MID(SUBSTITUTE($M113,",",REPT(" ",LEN($M113))),1 *LEN($M113)+1,LEN($M113))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M113,",",REPT(" ",LEN($M113))), 2 *LEN($M113)+1,LEN($M113))) = "", "0", TRIM(MID(SUBSTITUTE($M113,",",REPT(" ",LEN($M113))),2 *LEN($M113)+1,LEN($M113))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M113,",",REPT(" ",LEN($M113))), 3 *LEN($M113)+1,LEN($M113))) = "", "0", TRIM(MID(SUBSTITUTE($M113,",",REPT(" ",LEN($M113))),3 *LEN($M113)+1,LEN($M113))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M113,",",REPT(" ",LEN($M113))), 4 *LEN($M113)+1,LEN($M113))) = "", "0", TRIM(MID(SUBSTITUTE($M113,",",REPT(" ",LEN($M113))),4 *LEN($M113)+1,LEN($M113))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M113,",",REPT(" ",LEN($M113))), 5 *LEN($M113)+1,LEN($M113))) = "", "0", TRIM(MID(SUBSTITUTE($M113,",",REPT(" ",LEN($M113))),5 *LEN($M113)+1,LEN($M113))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M113,",",REPT(" ",LEN($M113))), 6 *LEN($M113)+1,LEN($M113))) = "", "0", TRIM(MID(SUBSTITUTE($M113,",",REPT(" ",LEN($M113))),6 *LEN($M113)+1,LEN($M113))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M113,",",REPT(" ",LEN($M113))), 7 *LEN($M113)+1,LEN($M113))) = "", "0", TRIM(MID(SUBSTITUTE($M113,",",REPT(" ",LEN($M113))),7 *LEN($M113)+1,LEN($M113))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M113,",",REPT(" ",LEN($M113))), 8 *LEN($M113)+1,LEN($M113))) = "", "0", TRIM(MID(SUBSTITUTE($M113,",",REPT(" ",LEN($M113))),8 *LEN($M113)+1,LEN($M113))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M113,",",REPT(" ",LEN($M113))), 9 *LEN($M113)+1,LEN($M113))) = "", "0", TRIM(MID(SUBSTITUTE($M113,",",REPT(" ",LEN($M113))),9 *LEN($M113)+1,LEN($M113))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M113,",",REPT(" ",LEN($M113))), 10 *LEN($M113)+1,LEN($M113))) = "", "0", TRIM(MID(SUBSTITUTE($M113,",",REPT(" ",LEN($M113))),10 *LEN($M113)+1,LEN($M113)))))</f>
@@ -6507,7 +6507,7 @@
         <v>0</v>
       </c>
       <c r="X113" s="0" t="str">
-        <f aca="true">IF(O113="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S113)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O113="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S113)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -6546,8 +6546,8 @@
         <v/>
       </c>
       <c r="U114" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V114" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M114,",",REPT(" ",LEN($M114))), 0 *LEN($M114)+1,LEN($M114))) = "", "0", TRIM(MID(SUBSTITUTE($M114,",",REPT(" ",LEN($M114))),0 *LEN($M114)+1,LEN($M114))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M114,",",REPT(" ",LEN($M114))), 1 *LEN($M114)+1,LEN($M114))) = "", "0", TRIM(MID(SUBSTITUTE($M114,",",REPT(" ",LEN($M114))),1 *LEN($M114)+1,LEN($M114))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M114,",",REPT(" ",LEN($M114))), 2 *LEN($M114)+1,LEN($M114))) = "", "0", TRIM(MID(SUBSTITUTE($M114,",",REPT(" ",LEN($M114))),2 *LEN($M114)+1,LEN($M114))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M114,",",REPT(" ",LEN($M114))), 3 *LEN($M114)+1,LEN($M114))) = "", "0", TRIM(MID(SUBSTITUTE($M114,",",REPT(" ",LEN($M114))),3 *LEN($M114)+1,LEN($M114))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M114,",",REPT(" ",LEN($M114))), 4 *LEN($M114)+1,LEN($M114))) = "", "0", TRIM(MID(SUBSTITUTE($M114,",",REPT(" ",LEN($M114))),4 *LEN($M114)+1,LEN($M114))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M114,",",REPT(" ",LEN($M114))), 5 *LEN($M114)+1,LEN($M114))) = "", "0", TRIM(MID(SUBSTITUTE($M114,",",REPT(" ",LEN($M114))),5 *LEN($M114)+1,LEN($M114))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M114,",",REPT(" ",LEN($M114))), 6 *LEN($M114)+1,LEN($M114))) = "", "0", TRIM(MID(SUBSTITUTE($M114,",",REPT(" ",LEN($M114))),6 *LEN($M114)+1,LEN($M114))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M114,",",REPT(" ",LEN($M114))), 7 *LEN($M114)+1,LEN($M114))) = "", "0", TRIM(MID(SUBSTITUTE($M114,",",REPT(" ",LEN($M114))),7 *LEN($M114)+1,LEN($M114))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M114,",",REPT(" ",LEN($M114))), 8 *LEN($M114)+1,LEN($M114))) = "", "0", TRIM(MID(SUBSTITUTE($M114,",",REPT(" ",LEN($M114))),8 *LEN($M114)+1,LEN($M114))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M114,",",REPT(" ",LEN($M114))), 9 *LEN($M114)+1,LEN($M114))) = "", "0", TRIM(MID(SUBSTITUTE($M114,",",REPT(" ",LEN($M114))),9 *LEN($M114)+1,LEN($M114))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M114,",",REPT(" ",LEN($M114))), 10 *LEN($M114)+1,LEN($M114))) = "", "0", TRIM(MID(SUBSTITUTE($M114,",",REPT(" ",LEN($M114))),10 *LEN($M114)+1,LEN($M114)))))</f>
@@ -6558,7 +6558,7 @@
         <v>0</v>
       </c>
       <c r="X114" s="0" t="str">
-        <f aca="true">IF(O114="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S114)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O114="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S114)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -6597,8 +6597,8 @@
         <v/>
       </c>
       <c r="U115" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V115" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M115,",",REPT(" ",LEN($M115))), 0 *LEN($M115)+1,LEN($M115))) = "", "0", TRIM(MID(SUBSTITUTE($M115,",",REPT(" ",LEN($M115))),0 *LEN($M115)+1,LEN($M115))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M115,",",REPT(" ",LEN($M115))), 1 *LEN($M115)+1,LEN($M115))) = "", "0", TRIM(MID(SUBSTITUTE($M115,",",REPT(" ",LEN($M115))),1 *LEN($M115)+1,LEN($M115))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M115,",",REPT(" ",LEN($M115))), 2 *LEN($M115)+1,LEN($M115))) = "", "0", TRIM(MID(SUBSTITUTE($M115,",",REPT(" ",LEN($M115))),2 *LEN($M115)+1,LEN($M115))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M115,",",REPT(" ",LEN($M115))), 3 *LEN($M115)+1,LEN($M115))) = "", "0", TRIM(MID(SUBSTITUTE($M115,",",REPT(" ",LEN($M115))),3 *LEN($M115)+1,LEN($M115))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M115,",",REPT(" ",LEN($M115))), 4 *LEN($M115)+1,LEN($M115))) = "", "0", TRIM(MID(SUBSTITUTE($M115,",",REPT(" ",LEN($M115))),4 *LEN($M115)+1,LEN($M115))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M115,",",REPT(" ",LEN($M115))), 5 *LEN($M115)+1,LEN($M115))) = "", "0", TRIM(MID(SUBSTITUTE($M115,",",REPT(" ",LEN($M115))),5 *LEN($M115)+1,LEN($M115))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M115,",",REPT(" ",LEN($M115))), 6 *LEN($M115)+1,LEN($M115))) = "", "0", TRIM(MID(SUBSTITUTE($M115,",",REPT(" ",LEN($M115))),6 *LEN($M115)+1,LEN($M115))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M115,",",REPT(" ",LEN($M115))), 7 *LEN($M115)+1,LEN($M115))) = "", "0", TRIM(MID(SUBSTITUTE($M115,",",REPT(" ",LEN($M115))),7 *LEN($M115)+1,LEN($M115))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M115,",",REPT(" ",LEN($M115))), 8 *LEN($M115)+1,LEN($M115))) = "", "0", TRIM(MID(SUBSTITUTE($M115,",",REPT(" ",LEN($M115))),8 *LEN($M115)+1,LEN($M115))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M115,",",REPT(" ",LEN($M115))), 9 *LEN($M115)+1,LEN($M115))) = "", "0", TRIM(MID(SUBSTITUTE($M115,",",REPT(" ",LEN($M115))),9 *LEN($M115)+1,LEN($M115))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M115,",",REPT(" ",LEN($M115))), 10 *LEN($M115)+1,LEN($M115))) = "", "0", TRIM(MID(SUBSTITUTE($M115,",",REPT(" ",LEN($M115))),10 *LEN($M115)+1,LEN($M115)))))</f>
@@ -6609,7 +6609,7 @@
         <v>0</v>
       </c>
       <c r="X115" s="0" t="str">
-        <f aca="true">IF(O115="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S115)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O115="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S115)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -6648,8 +6648,8 @@
         <v/>
       </c>
       <c r="U116" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V116" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M116,",",REPT(" ",LEN($M116))), 0 *LEN($M116)+1,LEN($M116))) = "", "0", TRIM(MID(SUBSTITUTE($M116,",",REPT(" ",LEN($M116))),0 *LEN($M116)+1,LEN($M116))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M116,",",REPT(" ",LEN($M116))), 1 *LEN($M116)+1,LEN($M116))) = "", "0", TRIM(MID(SUBSTITUTE($M116,",",REPT(" ",LEN($M116))),1 *LEN($M116)+1,LEN($M116))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M116,",",REPT(" ",LEN($M116))), 2 *LEN($M116)+1,LEN($M116))) = "", "0", TRIM(MID(SUBSTITUTE($M116,",",REPT(" ",LEN($M116))),2 *LEN($M116)+1,LEN($M116))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M116,",",REPT(" ",LEN($M116))), 3 *LEN($M116)+1,LEN($M116))) = "", "0", TRIM(MID(SUBSTITUTE($M116,",",REPT(" ",LEN($M116))),3 *LEN($M116)+1,LEN($M116))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M116,",",REPT(" ",LEN($M116))), 4 *LEN($M116)+1,LEN($M116))) = "", "0", TRIM(MID(SUBSTITUTE($M116,",",REPT(" ",LEN($M116))),4 *LEN($M116)+1,LEN($M116))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M116,",",REPT(" ",LEN($M116))), 5 *LEN($M116)+1,LEN($M116))) = "", "0", TRIM(MID(SUBSTITUTE($M116,",",REPT(" ",LEN($M116))),5 *LEN($M116)+1,LEN($M116))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M116,",",REPT(" ",LEN($M116))), 6 *LEN($M116)+1,LEN($M116))) = "", "0", TRIM(MID(SUBSTITUTE($M116,",",REPT(" ",LEN($M116))),6 *LEN($M116)+1,LEN($M116))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M116,",",REPT(" ",LEN($M116))), 7 *LEN($M116)+1,LEN($M116))) = "", "0", TRIM(MID(SUBSTITUTE($M116,",",REPT(" ",LEN($M116))),7 *LEN($M116)+1,LEN($M116))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M116,",",REPT(" ",LEN($M116))), 8 *LEN($M116)+1,LEN($M116))) = "", "0", TRIM(MID(SUBSTITUTE($M116,",",REPT(" ",LEN($M116))),8 *LEN($M116)+1,LEN($M116))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M116,",",REPT(" ",LEN($M116))), 9 *LEN($M116)+1,LEN($M116))) = "", "0", TRIM(MID(SUBSTITUTE($M116,",",REPT(" ",LEN($M116))),9 *LEN($M116)+1,LEN($M116))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M116,",",REPT(" ",LEN($M116))), 10 *LEN($M116)+1,LEN($M116))) = "", "0", TRIM(MID(SUBSTITUTE($M116,",",REPT(" ",LEN($M116))),10 *LEN($M116)+1,LEN($M116)))))</f>
@@ -6660,7 +6660,7 @@
         <v>0</v>
       </c>
       <c r="X116" s="0" t="str">
-        <f aca="true">IF(O116="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S116)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O116="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S116)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -6699,8 +6699,8 @@
         <v/>
       </c>
       <c r="U117" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V117" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M117,",",REPT(" ",LEN($M117))), 0 *LEN($M117)+1,LEN($M117))) = "", "0", TRIM(MID(SUBSTITUTE($M117,",",REPT(" ",LEN($M117))),0 *LEN($M117)+1,LEN($M117))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M117,",",REPT(" ",LEN($M117))), 1 *LEN($M117)+1,LEN($M117))) = "", "0", TRIM(MID(SUBSTITUTE($M117,",",REPT(" ",LEN($M117))),1 *LEN($M117)+1,LEN($M117))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M117,",",REPT(" ",LEN($M117))), 2 *LEN($M117)+1,LEN($M117))) = "", "0", TRIM(MID(SUBSTITUTE($M117,",",REPT(" ",LEN($M117))),2 *LEN($M117)+1,LEN($M117))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M117,",",REPT(" ",LEN($M117))), 3 *LEN($M117)+1,LEN($M117))) = "", "0", TRIM(MID(SUBSTITUTE($M117,",",REPT(" ",LEN($M117))),3 *LEN($M117)+1,LEN($M117))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M117,",",REPT(" ",LEN($M117))), 4 *LEN($M117)+1,LEN($M117))) = "", "0", TRIM(MID(SUBSTITUTE($M117,",",REPT(" ",LEN($M117))),4 *LEN($M117)+1,LEN($M117))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M117,",",REPT(" ",LEN($M117))), 5 *LEN($M117)+1,LEN($M117))) = "", "0", TRIM(MID(SUBSTITUTE($M117,",",REPT(" ",LEN($M117))),5 *LEN($M117)+1,LEN($M117))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M117,",",REPT(" ",LEN($M117))), 6 *LEN($M117)+1,LEN($M117))) = "", "0", TRIM(MID(SUBSTITUTE($M117,",",REPT(" ",LEN($M117))),6 *LEN($M117)+1,LEN($M117))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M117,",",REPT(" ",LEN($M117))), 7 *LEN($M117)+1,LEN($M117))) = "", "0", TRIM(MID(SUBSTITUTE($M117,",",REPT(" ",LEN($M117))),7 *LEN($M117)+1,LEN($M117))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M117,",",REPT(" ",LEN($M117))), 8 *LEN($M117)+1,LEN($M117))) = "", "0", TRIM(MID(SUBSTITUTE($M117,",",REPT(" ",LEN($M117))),8 *LEN($M117)+1,LEN($M117))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M117,",",REPT(" ",LEN($M117))), 9 *LEN($M117)+1,LEN($M117))) = "", "0", TRIM(MID(SUBSTITUTE($M117,",",REPT(" ",LEN($M117))),9 *LEN($M117)+1,LEN($M117))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M117,",",REPT(" ",LEN($M117))), 10 *LEN($M117)+1,LEN($M117))) = "", "0", TRIM(MID(SUBSTITUTE($M117,",",REPT(" ",LEN($M117))),10 *LEN($M117)+1,LEN($M117)))))</f>
@@ -6711,7 +6711,7 @@
         <v>0</v>
       </c>
       <c r="X117" s="0" t="str">
-        <f aca="true">IF(O117="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S117)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O117="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S117)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -6750,8 +6750,8 @@
         <v/>
       </c>
       <c r="U118" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V118" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M118,",",REPT(" ",LEN($M118))), 0 *LEN($M118)+1,LEN($M118))) = "", "0", TRIM(MID(SUBSTITUTE($M118,",",REPT(" ",LEN($M118))),0 *LEN($M118)+1,LEN($M118))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M118,",",REPT(" ",LEN($M118))), 1 *LEN($M118)+1,LEN($M118))) = "", "0", TRIM(MID(SUBSTITUTE($M118,",",REPT(" ",LEN($M118))),1 *LEN($M118)+1,LEN($M118))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M118,",",REPT(" ",LEN($M118))), 2 *LEN($M118)+1,LEN($M118))) = "", "0", TRIM(MID(SUBSTITUTE($M118,",",REPT(" ",LEN($M118))),2 *LEN($M118)+1,LEN($M118))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M118,",",REPT(" ",LEN($M118))), 3 *LEN($M118)+1,LEN($M118))) = "", "0", TRIM(MID(SUBSTITUTE($M118,",",REPT(" ",LEN($M118))),3 *LEN($M118)+1,LEN($M118))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M118,",",REPT(" ",LEN($M118))), 4 *LEN($M118)+1,LEN($M118))) = "", "0", TRIM(MID(SUBSTITUTE($M118,",",REPT(" ",LEN($M118))),4 *LEN($M118)+1,LEN($M118))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M118,",",REPT(" ",LEN($M118))), 5 *LEN($M118)+1,LEN($M118))) = "", "0", TRIM(MID(SUBSTITUTE($M118,",",REPT(" ",LEN($M118))),5 *LEN($M118)+1,LEN($M118))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M118,",",REPT(" ",LEN($M118))), 6 *LEN($M118)+1,LEN($M118))) = "", "0", TRIM(MID(SUBSTITUTE($M118,",",REPT(" ",LEN($M118))),6 *LEN($M118)+1,LEN($M118))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M118,",",REPT(" ",LEN($M118))), 7 *LEN($M118)+1,LEN($M118))) = "", "0", TRIM(MID(SUBSTITUTE($M118,",",REPT(" ",LEN($M118))),7 *LEN($M118)+1,LEN($M118))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M118,",",REPT(" ",LEN($M118))), 8 *LEN($M118)+1,LEN($M118))) = "", "0", TRIM(MID(SUBSTITUTE($M118,",",REPT(" ",LEN($M118))),8 *LEN($M118)+1,LEN($M118))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M118,",",REPT(" ",LEN($M118))), 9 *LEN($M118)+1,LEN($M118))) = "", "0", TRIM(MID(SUBSTITUTE($M118,",",REPT(" ",LEN($M118))),9 *LEN($M118)+1,LEN($M118))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M118,",",REPT(" ",LEN($M118))), 10 *LEN($M118)+1,LEN($M118))) = "", "0", TRIM(MID(SUBSTITUTE($M118,",",REPT(" ",LEN($M118))),10 *LEN($M118)+1,LEN($M118)))))</f>
@@ -6762,7 +6762,7 @@
         <v>0</v>
       </c>
       <c r="X118" s="0" t="str">
-        <f aca="true">IF(O118="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S118)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O118="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S118)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -6801,8 +6801,8 @@
         <v/>
       </c>
       <c r="U119" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V119" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M119,",",REPT(" ",LEN($M119))), 0 *LEN($M119)+1,LEN($M119))) = "", "0", TRIM(MID(SUBSTITUTE($M119,",",REPT(" ",LEN($M119))),0 *LEN($M119)+1,LEN($M119))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M119,",",REPT(" ",LEN($M119))), 1 *LEN($M119)+1,LEN($M119))) = "", "0", TRIM(MID(SUBSTITUTE($M119,",",REPT(" ",LEN($M119))),1 *LEN($M119)+1,LEN($M119))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M119,",",REPT(" ",LEN($M119))), 2 *LEN($M119)+1,LEN($M119))) = "", "0", TRIM(MID(SUBSTITUTE($M119,",",REPT(" ",LEN($M119))),2 *LEN($M119)+1,LEN($M119))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M119,",",REPT(" ",LEN($M119))), 3 *LEN($M119)+1,LEN($M119))) = "", "0", TRIM(MID(SUBSTITUTE($M119,",",REPT(" ",LEN($M119))),3 *LEN($M119)+1,LEN($M119))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M119,",",REPT(" ",LEN($M119))), 4 *LEN($M119)+1,LEN($M119))) = "", "0", TRIM(MID(SUBSTITUTE($M119,",",REPT(" ",LEN($M119))),4 *LEN($M119)+1,LEN($M119))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M119,",",REPT(" ",LEN($M119))), 5 *LEN($M119)+1,LEN($M119))) = "", "0", TRIM(MID(SUBSTITUTE($M119,",",REPT(" ",LEN($M119))),5 *LEN($M119)+1,LEN($M119))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M119,",",REPT(" ",LEN($M119))), 6 *LEN($M119)+1,LEN($M119))) = "", "0", TRIM(MID(SUBSTITUTE($M119,",",REPT(" ",LEN($M119))),6 *LEN($M119)+1,LEN($M119))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M119,",",REPT(" ",LEN($M119))), 7 *LEN($M119)+1,LEN($M119))) = "", "0", TRIM(MID(SUBSTITUTE($M119,",",REPT(" ",LEN($M119))),7 *LEN($M119)+1,LEN($M119))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M119,",",REPT(" ",LEN($M119))), 8 *LEN($M119)+1,LEN($M119))) = "", "0", TRIM(MID(SUBSTITUTE($M119,",",REPT(" ",LEN($M119))),8 *LEN($M119)+1,LEN($M119))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M119,",",REPT(" ",LEN($M119))), 9 *LEN($M119)+1,LEN($M119))) = "", "0", TRIM(MID(SUBSTITUTE($M119,",",REPT(" ",LEN($M119))),9 *LEN($M119)+1,LEN($M119))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M119,",",REPT(" ",LEN($M119))), 10 *LEN($M119)+1,LEN($M119))) = "", "0", TRIM(MID(SUBSTITUTE($M119,",",REPT(" ",LEN($M119))),10 *LEN($M119)+1,LEN($M119)))))</f>
@@ -6813,7 +6813,7 @@
         <v>0</v>
       </c>
       <c r="X119" s="0" t="str">
-        <f aca="true">IF(O119="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S119)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O119="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S119)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -6852,8 +6852,8 @@
         <v/>
       </c>
       <c r="U120" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V120" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M120,",",REPT(" ",LEN($M120))), 0 *LEN($M120)+1,LEN($M120))) = "", "0", TRIM(MID(SUBSTITUTE($M120,",",REPT(" ",LEN($M120))),0 *LEN($M120)+1,LEN($M120))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M120,",",REPT(" ",LEN($M120))), 1 *LEN($M120)+1,LEN($M120))) = "", "0", TRIM(MID(SUBSTITUTE($M120,",",REPT(" ",LEN($M120))),1 *LEN($M120)+1,LEN($M120))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M120,",",REPT(" ",LEN($M120))), 2 *LEN($M120)+1,LEN($M120))) = "", "0", TRIM(MID(SUBSTITUTE($M120,",",REPT(" ",LEN($M120))),2 *LEN($M120)+1,LEN($M120))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M120,",",REPT(" ",LEN($M120))), 3 *LEN($M120)+1,LEN($M120))) = "", "0", TRIM(MID(SUBSTITUTE($M120,",",REPT(" ",LEN($M120))),3 *LEN($M120)+1,LEN($M120))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M120,",",REPT(" ",LEN($M120))), 4 *LEN($M120)+1,LEN($M120))) = "", "0", TRIM(MID(SUBSTITUTE($M120,",",REPT(" ",LEN($M120))),4 *LEN($M120)+1,LEN($M120))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M120,",",REPT(" ",LEN($M120))), 5 *LEN($M120)+1,LEN($M120))) = "", "0", TRIM(MID(SUBSTITUTE($M120,",",REPT(" ",LEN($M120))),5 *LEN($M120)+1,LEN($M120))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M120,",",REPT(" ",LEN($M120))), 6 *LEN($M120)+1,LEN($M120))) = "", "0", TRIM(MID(SUBSTITUTE($M120,",",REPT(" ",LEN($M120))),6 *LEN($M120)+1,LEN($M120))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M120,",",REPT(" ",LEN($M120))), 7 *LEN($M120)+1,LEN($M120))) = "", "0", TRIM(MID(SUBSTITUTE($M120,",",REPT(" ",LEN($M120))),7 *LEN($M120)+1,LEN($M120))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M120,",",REPT(" ",LEN($M120))), 8 *LEN($M120)+1,LEN($M120))) = "", "0", TRIM(MID(SUBSTITUTE($M120,",",REPT(" ",LEN($M120))),8 *LEN($M120)+1,LEN($M120))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M120,",",REPT(" ",LEN($M120))), 9 *LEN($M120)+1,LEN($M120))) = "", "0", TRIM(MID(SUBSTITUTE($M120,",",REPT(" ",LEN($M120))),9 *LEN($M120)+1,LEN($M120))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M120,",",REPT(" ",LEN($M120))), 10 *LEN($M120)+1,LEN($M120))) = "", "0", TRIM(MID(SUBSTITUTE($M120,",",REPT(" ",LEN($M120))),10 *LEN($M120)+1,LEN($M120)))))</f>
@@ -6864,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="X120" s="0" t="str">
-        <f aca="true">IF(O120="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S120)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O120="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S120)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -6903,8 +6903,8 @@
         <v/>
       </c>
       <c r="U121" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V121" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M121,",",REPT(" ",LEN($M121))), 0 *LEN($M121)+1,LEN($M121))) = "", "0", TRIM(MID(SUBSTITUTE($M121,",",REPT(" ",LEN($M121))),0 *LEN($M121)+1,LEN($M121))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M121,",",REPT(" ",LEN($M121))), 1 *LEN($M121)+1,LEN($M121))) = "", "0", TRIM(MID(SUBSTITUTE($M121,",",REPT(" ",LEN($M121))),1 *LEN($M121)+1,LEN($M121))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M121,",",REPT(" ",LEN($M121))), 2 *LEN($M121)+1,LEN($M121))) = "", "0", TRIM(MID(SUBSTITUTE($M121,",",REPT(" ",LEN($M121))),2 *LEN($M121)+1,LEN($M121))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M121,",",REPT(" ",LEN($M121))), 3 *LEN($M121)+1,LEN($M121))) = "", "0", TRIM(MID(SUBSTITUTE($M121,",",REPT(" ",LEN($M121))),3 *LEN($M121)+1,LEN($M121))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M121,",",REPT(" ",LEN($M121))), 4 *LEN($M121)+1,LEN($M121))) = "", "0", TRIM(MID(SUBSTITUTE($M121,",",REPT(" ",LEN($M121))),4 *LEN($M121)+1,LEN($M121))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M121,",",REPT(" ",LEN($M121))), 5 *LEN($M121)+1,LEN($M121))) = "", "0", TRIM(MID(SUBSTITUTE($M121,",",REPT(" ",LEN($M121))),5 *LEN($M121)+1,LEN($M121))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M121,",",REPT(" ",LEN($M121))), 6 *LEN($M121)+1,LEN($M121))) = "", "0", TRIM(MID(SUBSTITUTE($M121,",",REPT(" ",LEN($M121))),6 *LEN($M121)+1,LEN($M121))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M121,",",REPT(" ",LEN($M121))), 7 *LEN($M121)+1,LEN($M121))) = "", "0", TRIM(MID(SUBSTITUTE($M121,",",REPT(" ",LEN($M121))),7 *LEN($M121)+1,LEN($M121))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M121,",",REPT(" ",LEN($M121))), 8 *LEN($M121)+1,LEN($M121))) = "", "0", TRIM(MID(SUBSTITUTE($M121,",",REPT(" ",LEN($M121))),8 *LEN($M121)+1,LEN($M121))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M121,",",REPT(" ",LEN($M121))), 9 *LEN($M121)+1,LEN($M121))) = "", "0", TRIM(MID(SUBSTITUTE($M121,",",REPT(" ",LEN($M121))),9 *LEN($M121)+1,LEN($M121))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M121,",",REPT(" ",LEN($M121))), 10 *LEN($M121)+1,LEN($M121))) = "", "0", TRIM(MID(SUBSTITUTE($M121,",",REPT(" ",LEN($M121))),10 *LEN($M121)+1,LEN($M121)))))</f>
@@ -6915,7 +6915,7 @@
         <v>0</v>
       </c>
       <c r="X121" s="0" t="str">
-        <f aca="true">IF(O121="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S121)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O121="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S121)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -6954,8 +6954,8 @@
         <v/>
       </c>
       <c r="U122" s="0" t="n">
-        <f aca="false">8000/1000</f>
-        <v>8</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V122" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M122,",",REPT(" ",LEN($M122))), 0 *LEN($M122)+1,LEN($M122))) = "", "0", TRIM(MID(SUBSTITUTE($M122,",",REPT(" ",LEN($M122))),0 *LEN($M122)+1,LEN($M122))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M122,",",REPT(" ",LEN($M122))), 1 *LEN($M122)+1,LEN($M122))) = "", "0", TRIM(MID(SUBSTITUTE($M122,",",REPT(" ",LEN($M122))),1 *LEN($M122)+1,LEN($M122))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M122,",",REPT(" ",LEN($M122))), 2 *LEN($M122)+1,LEN($M122))) = "", "0", TRIM(MID(SUBSTITUTE($M122,",",REPT(" ",LEN($M122))),2 *LEN($M122)+1,LEN($M122))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M122,",",REPT(" ",LEN($M122))), 3 *LEN($M122)+1,LEN($M122))) = "", "0", TRIM(MID(SUBSTITUTE($M122,",",REPT(" ",LEN($M122))),3 *LEN($M122)+1,LEN($M122))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M122,",",REPT(" ",LEN($M122))), 4 *LEN($M122)+1,LEN($M122))) = "", "0", TRIM(MID(SUBSTITUTE($M122,",",REPT(" ",LEN($M122))),4 *LEN($M122)+1,LEN($M122))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M122,",",REPT(" ",LEN($M122))), 5 *LEN($M122)+1,LEN($M122))) = "", "0", TRIM(MID(SUBSTITUTE($M122,",",REPT(" ",LEN($M122))),5 *LEN($M122)+1,LEN($M122))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M122,",",REPT(" ",LEN($M122))), 6 *LEN($M122)+1,LEN($M122))) = "", "0", TRIM(MID(SUBSTITUTE($M122,",",REPT(" ",LEN($M122))),6 *LEN($M122)+1,LEN($M122))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M122,",",REPT(" ",LEN($M122))), 7 *LEN($M122)+1,LEN($M122))) = "", "0", TRIM(MID(SUBSTITUTE($M122,",",REPT(" ",LEN($M122))),7 *LEN($M122)+1,LEN($M122))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M122,",",REPT(" ",LEN($M122))), 8 *LEN($M122)+1,LEN($M122))) = "", "0", TRIM(MID(SUBSTITUTE($M122,",",REPT(" ",LEN($M122))),8 *LEN($M122)+1,LEN($M122))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M122,",",REPT(" ",LEN($M122))), 9 *LEN($M122)+1,LEN($M122))) = "", "0", TRIM(MID(SUBSTITUTE($M122,",",REPT(" ",LEN($M122))),9 *LEN($M122)+1,LEN($M122))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M122,",",REPT(" ",LEN($M122))), 10 *LEN($M122)+1,LEN($M122))) = "", "0", TRIM(MID(SUBSTITUTE($M122,",",REPT(" ",LEN($M122))),10 *LEN($M122)+1,LEN($M122)))))</f>
@@ -6966,7 +6966,7 @@
         <v>0</v>
       </c>
       <c r="X122" s="0" t="str">
-        <f aca="true">IF(O122="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S122)/1000, 0), 1) * 1000)</f>
+        <f aca="true">IF(O122="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S122)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -7621,10 +7621,10 @@
   </sheetPr>
   <dimension ref="A1:X287"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7759,8 +7759,8 @@
         <v/>
       </c>
       <c r="U2" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V2" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M2,",",REPT(" ",LEN($M2))), 0 *LEN($M2)+1,LEN($M2))) = "", "0", TRIM(MID(SUBSTITUTE($M2,",",REPT(" ",LEN($M2))),0 *LEN($M2)+1,LEN($M2))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M2,",",REPT(" ",LEN($M2))), 1 *LEN($M2)+1,LEN($M2))) = "", "0", TRIM(MID(SUBSTITUTE($M2,",",REPT(" ",LEN($M2))),1 *LEN($M2)+1,LEN($M2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M2,",",REPT(" ",LEN($M2))), 2 *LEN($M2)+1,LEN($M2))) = "", "0", TRIM(MID(SUBSTITUTE($M2,",",REPT(" ",LEN($M2))),2 *LEN($M2)+1,LEN($M2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M2,",",REPT(" ",LEN($M2))), 3 *LEN($M2)+1,LEN($M2))) = "", "0", TRIM(MID(SUBSTITUTE($M2,",",REPT(" ",LEN($M2))),3 *LEN($M2)+1,LEN($M2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M2,",",REPT(" ",LEN($M2))), 4 *LEN($M2)+1,LEN($M2))) = "", "0", TRIM(MID(SUBSTITUTE($M2,",",REPT(" ",LEN($M2))),4 *LEN($M2)+1,LEN($M2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M2,",",REPT(" ",LEN($M2))), 5 *LEN($M2)+1,LEN($M2))) = "", "0", TRIM(MID(SUBSTITUTE($M2,",",REPT(" ",LEN($M2))),5 *LEN($M2)+1,LEN($M2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M2,",",REPT(" ",LEN($M2))), 6 *LEN($M2)+1,LEN($M2))) = "", "0", TRIM(MID(SUBSTITUTE($M2,",",REPT(" ",LEN($M2))),6 *LEN($M2)+1,LEN($M2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M2,",",REPT(" ",LEN($M2))), 7 *LEN($M2)+1,LEN($M2))) = "", "0", TRIM(MID(SUBSTITUTE($M2,",",REPT(" ",LEN($M2))),7 *LEN($M2)+1,LEN($M2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M2,",",REPT(" ",LEN($M2))), 8 *LEN($M2)+1,LEN($M2))) = "", "0", TRIM(MID(SUBSTITUTE($M2,",",REPT(" ",LEN($M2))),8 *LEN($M2)+1,LEN($M2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M2,",",REPT(" ",LEN($M2))), 9 *LEN($M2)+1,LEN($M2))) = "", "0", TRIM(MID(SUBSTITUTE($M2,",",REPT(" ",LEN($M2))),9 *LEN($M2)+1,LEN($M2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M2,",",REPT(" ",LEN($M2))), 10 *LEN($M2)+1,LEN($M2))) = "", "0", TRIM(MID(SUBSTITUTE($M2,",",REPT(" ",LEN($M2))),10 *LEN($M2)+1,LEN($M2)))))</f>
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="X2" s="0" t="str">
-        <f aca="true">IF(O2="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S2)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O2="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S2)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -7810,8 +7810,8 @@
         <v/>
       </c>
       <c r="U3" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V3" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M3,",",REPT(" ",LEN($M3))), 0 *LEN($M3)+1,LEN($M3))) = "", "0", TRIM(MID(SUBSTITUTE($M3,",",REPT(" ",LEN($M3))),0 *LEN($M3)+1,LEN($M3))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M3,",",REPT(" ",LEN($M3))), 1 *LEN($M3)+1,LEN($M3))) = "", "0", TRIM(MID(SUBSTITUTE($M3,",",REPT(" ",LEN($M3))),1 *LEN($M3)+1,LEN($M3))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M3,",",REPT(" ",LEN($M3))), 2 *LEN($M3)+1,LEN($M3))) = "", "0", TRIM(MID(SUBSTITUTE($M3,",",REPT(" ",LEN($M3))),2 *LEN($M3)+1,LEN($M3))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M3,",",REPT(" ",LEN($M3))), 3 *LEN($M3)+1,LEN($M3))) = "", "0", TRIM(MID(SUBSTITUTE($M3,",",REPT(" ",LEN($M3))),3 *LEN($M3)+1,LEN($M3))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M3,",",REPT(" ",LEN($M3))), 4 *LEN($M3)+1,LEN($M3))) = "", "0", TRIM(MID(SUBSTITUTE($M3,",",REPT(" ",LEN($M3))),4 *LEN($M3)+1,LEN($M3))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M3,",",REPT(" ",LEN($M3))), 5 *LEN($M3)+1,LEN($M3))) = "", "0", TRIM(MID(SUBSTITUTE($M3,",",REPT(" ",LEN($M3))),5 *LEN($M3)+1,LEN($M3))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M3,",",REPT(" ",LEN($M3))), 6 *LEN($M3)+1,LEN($M3))) = "", "0", TRIM(MID(SUBSTITUTE($M3,",",REPT(" ",LEN($M3))),6 *LEN($M3)+1,LEN($M3))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M3,",",REPT(" ",LEN($M3))), 7 *LEN($M3)+1,LEN($M3))) = "", "0", TRIM(MID(SUBSTITUTE($M3,",",REPT(" ",LEN($M3))),7 *LEN($M3)+1,LEN($M3))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M3,",",REPT(" ",LEN($M3))), 8 *LEN($M3)+1,LEN($M3))) = "", "0", TRIM(MID(SUBSTITUTE($M3,",",REPT(" ",LEN($M3))),8 *LEN($M3)+1,LEN($M3))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M3,",",REPT(" ",LEN($M3))), 9 *LEN($M3)+1,LEN($M3))) = "", "0", TRIM(MID(SUBSTITUTE($M3,",",REPT(" ",LEN($M3))),9 *LEN($M3)+1,LEN($M3))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M3,",",REPT(" ",LEN($M3))), 10 *LEN($M3)+1,LEN($M3))) = "", "0", TRIM(MID(SUBSTITUTE($M3,",",REPT(" ",LEN($M3))),10 *LEN($M3)+1,LEN($M3)))))</f>
@@ -7822,7 +7822,7 @@
         <v>0</v>
       </c>
       <c r="X3" s="0" t="str">
-        <f aca="true">IF(O3="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S3)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O3="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S3)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -7861,8 +7861,8 @@
         <v/>
       </c>
       <c r="U4" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V4" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M4,",",REPT(" ",LEN($M4))), 0 *LEN($M4)+1,LEN($M4))) = "", "0", TRIM(MID(SUBSTITUTE($M4,",",REPT(" ",LEN($M4))),0 *LEN($M4)+1,LEN($M4))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M4,",",REPT(" ",LEN($M4))), 1 *LEN($M4)+1,LEN($M4))) = "", "0", TRIM(MID(SUBSTITUTE($M4,",",REPT(" ",LEN($M4))),1 *LEN($M4)+1,LEN($M4))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M4,",",REPT(" ",LEN($M4))), 2 *LEN($M4)+1,LEN($M4))) = "", "0", TRIM(MID(SUBSTITUTE($M4,",",REPT(" ",LEN($M4))),2 *LEN($M4)+1,LEN($M4))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M4,",",REPT(" ",LEN($M4))), 3 *LEN($M4)+1,LEN($M4))) = "", "0", TRIM(MID(SUBSTITUTE($M4,",",REPT(" ",LEN($M4))),3 *LEN($M4)+1,LEN($M4))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M4,",",REPT(" ",LEN($M4))), 4 *LEN($M4)+1,LEN($M4))) = "", "0", TRIM(MID(SUBSTITUTE($M4,",",REPT(" ",LEN($M4))),4 *LEN($M4)+1,LEN($M4))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M4,",",REPT(" ",LEN($M4))), 5 *LEN($M4)+1,LEN($M4))) = "", "0", TRIM(MID(SUBSTITUTE($M4,",",REPT(" ",LEN($M4))),5 *LEN($M4)+1,LEN($M4))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M4,",",REPT(" ",LEN($M4))), 6 *LEN($M4)+1,LEN($M4))) = "", "0", TRIM(MID(SUBSTITUTE($M4,",",REPT(" ",LEN($M4))),6 *LEN($M4)+1,LEN($M4))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M4,",",REPT(" ",LEN($M4))), 7 *LEN($M4)+1,LEN($M4))) = "", "0", TRIM(MID(SUBSTITUTE($M4,",",REPT(" ",LEN($M4))),7 *LEN($M4)+1,LEN($M4))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M4,",",REPT(" ",LEN($M4))), 8 *LEN($M4)+1,LEN($M4))) = "", "0", TRIM(MID(SUBSTITUTE($M4,",",REPT(" ",LEN($M4))),8 *LEN($M4)+1,LEN($M4))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M4,",",REPT(" ",LEN($M4))), 9 *LEN($M4)+1,LEN($M4))) = "", "0", TRIM(MID(SUBSTITUTE($M4,",",REPT(" ",LEN($M4))),9 *LEN($M4)+1,LEN($M4))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M4,",",REPT(" ",LEN($M4))), 10 *LEN($M4)+1,LEN($M4))) = "", "0", TRIM(MID(SUBSTITUTE($M4,",",REPT(" ",LEN($M4))),10 *LEN($M4)+1,LEN($M4)))))</f>
@@ -7873,7 +7873,7 @@
         <v>0</v>
       </c>
       <c r="X4" s="0" t="str">
-        <f aca="true">IF(O4="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S4)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O4="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S4)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -7912,8 +7912,8 @@
         <v/>
       </c>
       <c r="U5" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V5" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M5,",",REPT(" ",LEN($M5))), 0 *LEN($M5)+1,LEN($M5))) = "", "0", TRIM(MID(SUBSTITUTE($M5,",",REPT(" ",LEN($M5))),0 *LEN($M5)+1,LEN($M5))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M5,",",REPT(" ",LEN($M5))), 1 *LEN($M5)+1,LEN($M5))) = "", "0", TRIM(MID(SUBSTITUTE($M5,",",REPT(" ",LEN($M5))),1 *LEN($M5)+1,LEN($M5))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M5,",",REPT(" ",LEN($M5))), 2 *LEN($M5)+1,LEN($M5))) = "", "0", TRIM(MID(SUBSTITUTE($M5,",",REPT(" ",LEN($M5))),2 *LEN($M5)+1,LEN($M5))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M5,",",REPT(" ",LEN($M5))), 3 *LEN($M5)+1,LEN($M5))) = "", "0", TRIM(MID(SUBSTITUTE($M5,",",REPT(" ",LEN($M5))),3 *LEN($M5)+1,LEN($M5))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M5,",",REPT(" ",LEN($M5))), 4 *LEN($M5)+1,LEN($M5))) = "", "0", TRIM(MID(SUBSTITUTE($M5,",",REPT(" ",LEN($M5))),4 *LEN($M5)+1,LEN($M5))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M5,",",REPT(" ",LEN($M5))), 5 *LEN($M5)+1,LEN($M5))) = "", "0", TRIM(MID(SUBSTITUTE($M5,",",REPT(" ",LEN($M5))),5 *LEN($M5)+1,LEN($M5))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M5,",",REPT(" ",LEN($M5))), 6 *LEN($M5)+1,LEN($M5))) = "", "0", TRIM(MID(SUBSTITUTE($M5,",",REPT(" ",LEN($M5))),6 *LEN($M5)+1,LEN($M5))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M5,",",REPT(" ",LEN($M5))), 7 *LEN($M5)+1,LEN($M5))) = "", "0", TRIM(MID(SUBSTITUTE($M5,",",REPT(" ",LEN($M5))),7 *LEN($M5)+1,LEN($M5))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M5,",",REPT(" ",LEN($M5))), 8 *LEN($M5)+1,LEN($M5))) = "", "0", TRIM(MID(SUBSTITUTE($M5,",",REPT(" ",LEN($M5))),8 *LEN($M5)+1,LEN($M5))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M5,",",REPT(" ",LEN($M5))), 9 *LEN($M5)+1,LEN($M5))) = "", "0", TRIM(MID(SUBSTITUTE($M5,",",REPT(" ",LEN($M5))),9 *LEN($M5)+1,LEN($M5))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M5,",",REPT(" ",LEN($M5))), 10 *LEN($M5)+1,LEN($M5))) = "", "0", TRIM(MID(SUBSTITUTE($M5,",",REPT(" ",LEN($M5))),10 *LEN($M5)+1,LEN($M5)))))</f>
@@ -7924,7 +7924,7 @@
         <v>0</v>
       </c>
       <c r="X5" s="0" t="str">
-        <f aca="true">IF(O5="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S5)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O5="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S5)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -7963,8 +7963,8 @@
         <v/>
       </c>
       <c r="U6" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V6" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M6,",",REPT(" ",LEN($M6))), 0 *LEN($M6)+1,LEN($M6))) = "", "0", TRIM(MID(SUBSTITUTE($M6,",",REPT(" ",LEN($M6))),0 *LEN($M6)+1,LEN($M6))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M6,",",REPT(" ",LEN($M6))), 1 *LEN($M6)+1,LEN($M6))) = "", "0", TRIM(MID(SUBSTITUTE($M6,",",REPT(" ",LEN($M6))),1 *LEN($M6)+1,LEN($M6))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M6,",",REPT(" ",LEN($M6))), 2 *LEN($M6)+1,LEN($M6))) = "", "0", TRIM(MID(SUBSTITUTE($M6,",",REPT(" ",LEN($M6))),2 *LEN($M6)+1,LEN($M6))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M6,",",REPT(" ",LEN($M6))), 3 *LEN($M6)+1,LEN($M6))) = "", "0", TRIM(MID(SUBSTITUTE($M6,",",REPT(" ",LEN($M6))),3 *LEN($M6)+1,LEN($M6))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M6,",",REPT(" ",LEN($M6))), 4 *LEN($M6)+1,LEN($M6))) = "", "0", TRIM(MID(SUBSTITUTE($M6,",",REPT(" ",LEN($M6))),4 *LEN($M6)+1,LEN($M6))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M6,",",REPT(" ",LEN($M6))), 5 *LEN($M6)+1,LEN($M6))) = "", "0", TRIM(MID(SUBSTITUTE($M6,",",REPT(" ",LEN($M6))),5 *LEN($M6)+1,LEN($M6))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M6,",",REPT(" ",LEN($M6))), 6 *LEN($M6)+1,LEN($M6))) = "", "0", TRIM(MID(SUBSTITUTE($M6,",",REPT(" ",LEN($M6))),6 *LEN($M6)+1,LEN($M6))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M6,",",REPT(" ",LEN($M6))), 7 *LEN($M6)+1,LEN($M6))) = "", "0", TRIM(MID(SUBSTITUTE($M6,",",REPT(" ",LEN($M6))),7 *LEN($M6)+1,LEN($M6))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M6,",",REPT(" ",LEN($M6))), 8 *LEN($M6)+1,LEN($M6))) = "", "0", TRIM(MID(SUBSTITUTE($M6,",",REPT(" ",LEN($M6))),8 *LEN($M6)+1,LEN($M6))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M6,",",REPT(" ",LEN($M6))), 9 *LEN($M6)+1,LEN($M6))) = "", "0", TRIM(MID(SUBSTITUTE($M6,",",REPT(" ",LEN($M6))),9 *LEN($M6)+1,LEN($M6))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M6,",",REPT(" ",LEN($M6))), 10 *LEN($M6)+1,LEN($M6))) = "", "0", TRIM(MID(SUBSTITUTE($M6,",",REPT(" ",LEN($M6))),10 *LEN($M6)+1,LEN($M6)))))</f>
@@ -7975,7 +7975,7 @@
         <v>0</v>
       </c>
       <c r="X6" s="0" t="str">
-        <f aca="true">IF(O6="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S6)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O6="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S6)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -8014,8 +8014,8 @@
         <v/>
       </c>
       <c r="U7" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V7" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))), 0 *LEN($M7)+1,LEN($M7))) = "", "0", TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))),0 *LEN($M7)+1,LEN($M7))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))), 1 *LEN($M7)+1,LEN($M7))) = "", "0", TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))),1 *LEN($M7)+1,LEN($M7))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))), 2 *LEN($M7)+1,LEN($M7))) = "", "0", TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))),2 *LEN($M7)+1,LEN($M7))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))), 3 *LEN($M7)+1,LEN($M7))) = "", "0", TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))),3 *LEN($M7)+1,LEN($M7))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))), 4 *LEN($M7)+1,LEN($M7))) = "", "0", TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))),4 *LEN($M7)+1,LEN($M7))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))), 5 *LEN($M7)+1,LEN($M7))) = "", "0", TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))),5 *LEN($M7)+1,LEN($M7))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))), 6 *LEN($M7)+1,LEN($M7))) = "", "0", TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))),6 *LEN($M7)+1,LEN($M7))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))), 7 *LEN($M7)+1,LEN($M7))) = "", "0", TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))),7 *LEN($M7)+1,LEN($M7))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))), 8 *LEN($M7)+1,LEN($M7))) = "", "0", TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))),8 *LEN($M7)+1,LEN($M7))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))), 9 *LEN($M7)+1,LEN($M7))) = "", "0", TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))),9 *LEN($M7)+1,LEN($M7))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))), 10 *LEN($M7)+1,LEN($M7))) = "", "0", TRIM(MID(SUBSTITUTE($M7,",",REPT(" ",LEN($M7))),10 *LEN($M7)+1,LEN($M7)))))</f>
@@ -8026,7 +8026,7 @@
         <v>0</v>
       </c>
       <c r="X7" s="0" t="str">
-        <f aca="true">IF(O7="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S7)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O7="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S7)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -8065,8 +8065,8 @@
         <v/>
       </c>
       <c r="U8" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V8" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))), 0 *LEN($M8)+1,LEN($M8))) = "", "0", TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))),0 *LEN($M8)+1,LEN($M8))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))), 1 *LEN($M8)+1,LEN($M8))) = "", "0", TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))),1 *LEN($M8)+1,LEN($M8))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))), 2 *LEN($M8)+1,LEN($M8))) = "", "0", TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))),2 *LEN($M8)+1,LEN($M8))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))), 3 *LEN($M8)+1,LEN($M8))) = "", "0", TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))),3 *LEN($M8)+1,LEN($M8))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))), 4 *LEN($M8)+1,LEN($M8))) = "", "0", TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))),4 *LEN($M8)+1,LEN($M8))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))), 5 *LEN($M8)+1,LEN($M8))) = "", "0", TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))),5 *LEN($M8)+1,LEN($M8))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))), 6 *LEN($M8)+1,LEN($M8))) = "", "0", TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))),6 *LEN($M8)+1,LEN($M8))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))), 7 *LEN($M8)+1,LEN($M8))) = "", "0", TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))),7 *LEN($M8)+1,LEN($M8))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))), 8 *LEN($M8)+1,LEN($M8))) = "", "0", TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))),8 *LEN($M8)+1,LEN($M8))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))), 9 *LEN($M8)+1,LEN($M8))) = "", "0", TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))),9 *LEN($M8)+1,LEN($M8))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))), 10 *LEN($M8)+1,LEN($M8))) = "", "0", TRIM(MID(SUBSTITUTE($M8,",",REPT(" ",LEN($M8))),10 *LEN($M8)+1,LEN($M8)))))</f>
@@ -8077,7 +8077,7 @@
         <v>0</v>
       </c>
       <c r="X8" s="0" t="str">
-        <f aca="true">IF(O8="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S8)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O8="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S8)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -8116,8 +8116,8 @@
         <v/>
       </c>
       <c r="U9" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V9" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))), 0 *LEN($M9)+1,LEN($M9))) = "", "0", TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))),0 *LEN($M9)+1,LEN($M9))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))), 1 *LEN($M9)+1,LEN($M9))) = "", "0", TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))),1 *LEN($M9)+1,LEN($M9))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))), 2 *LEN($M9)+1,LEN($M9))) = "", "0", TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))),2 *LEN($M9)+1,LEN($M9))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))), 3 *LEN($M9)+1,LEN($M9))) = "", "0", TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))),3 *LEN($M9)+1,LEN($M9))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))), 4 *LEN($M9)+1,LEN($M9))) = "", "0", TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))),4 *LEN($M9)+1,LEN($M9))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))), 5 *LEN($M9)+1,LEN($M9))) = "", "0", TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))),5 *LEN($M9)+1,LEN($M9))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))), 6 *LEN($M9)+1,LEN($M9))) = "", "0", TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))),6 *LEN($M9)+1,LEN($M9))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))), 7 *LEN($M9)+1,LEN($M9))) = "", "0", TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))),7 *LEN($M9)+1,LEN($M9))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))), 8 *LEN($M9)+1,LEN($M9))) = "", "0", TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))),8 *LEN($M9)+1,LEN($M9))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))), 9 *LEN($M9)+1,LEN($M9))) = "", "0", TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))),9 *LEN($M9)+1,LEN($M9))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))), 10 *LEN($M9)+1,LEN($M9))) = "", "0", TRIM(MID(SUBSTITUTE($M9,",",REPT(" ",LEN($M9))),10 *LEN($M9)+1,LEN($M9)))))</f>
@@ -8128,7 +8128,7 @@
         <v>0</v>
       </c>
       <c r="X9" s="0" t="str">
-        <f aca="true">IF(O9="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S9)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O9="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S9)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -8167,8 +8167,8 @@
         <v/>
       </c>
       <c r="U10" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V10" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M10,",",REPT(" ",LEN($M10))), 0 *LEN($M10)+1,LEN($M10))) = "", "0", TRIM(MID(SUBSTITUTE($M10,",",REPT(" ",LEN($M10))),0 *LEN($M10)+1,LEN($M10))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M10,",",REPT(" ",LEN($M10))), 1 *LEN($M10)+1,LEN($M10))) = "", "0", TRIM(MID(SUBSTITUTE($M10,",",REPT(" ",LEN($M10))),1 *LEN($M10)+1,LEN($M10))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M10,",",REPT(" ",LEN($M10))), 2 *LEN($M10)+1,LEN($M10))) = "", "0", TRIM(MID(SUBSTITUTE($M10,",",REPT(" ",LEN($M10))),2 *LEN($M10)+1,LEN($M10))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M10,",",REPT(" ",LEN($M10))), 3 *LEN($M10)+1,LEN($M10))) = "", "0", TRIM(MID(SUBSTITUTE($M10,",",REPT(" ",LEN($M10))),3 *LEN($M10)+1,LEN($M10))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M10,",",REPT(" ",LEN($M10))), 4 *LEN($M10)+1,LEN($M10))) = "", "0", TRIM(MID(SUBSTITUTE($M10,",",REPT(" ",LEN($M10))),4 *LEN($M10)+1,LEN($M10))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M10,",",REPT(" ",LEN($M10))), 5 *LEN($M10)+1,LEN($M10))) = "", "0", TRIM(MID(SUBSTITUTE($M10,",",REPT(" ",LEN($M10))),5 *LEN($M10)+1,LEN($M10))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M10,",",REPT(" ",LEN($M10))), 6 *LEN($M10)+1,LEN($M10))) = "", "0", TRIM(MID(SUBSTITUTE($M10,",",REPT(" ",LEN($M10))),6 *LEN($M10)+1,LEN($M10))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M10,",",REPT(" ",LEN($M10))), 7 *LEN($M10)+1,LEN($M10))) = "", "0", TRIM(MID(SUBSTITUTE($M10,",",REPT(" ",LEN($M10))),7 *LEN($M10)+1,LEN($M10))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M10,",",REPT(" ",LEN($M10))), 8 *LEN($M10)+1,LEN($M10))) = "", "0", TRIM(MID(SUBSTITUTE($M10,",",REPT(" ",LEN($M10))),8 *LEN($M10)+1,LEN($M10))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M10,",",REPT(" ",LEN($M10))), 9 *LEN($M10)+1,LEN($M10))) = "", "0", TRIM(MID(SUBSTITUTE($M10,",",REPT(" ",LEN($M10))),9 *LEN($M10)+1,LEN($M10))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M10,",",REPT(" ",LEN($M10))), 10 *LEN($M10)+1,LEN($M10))) = "", "0", TRIM(MID(SUBSTITUTE($M10,",",REPT(" ",LEN($M10))),10 *LEN($M10)+1,LEN($M10)))))</f>
@@ -8179,7 +8179,7 @@
         <v>0</v>
       </c>
       <c r="X10" s="0" t="str">
-        <f aca="true">IF(O10="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S10)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O10="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S10)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -8218,8 +8218,8 @@
         <v/>
       </c>
       <c r="U11" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V11" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M11,",",REPT(" ",LEN($M11))), 0 *LEN($M11)+1,LEN($M11))) = "", "0", TRIM(MID(SUBSTITUTE($M11,",",REPT(" ",LEN($M11))),0 *LEN($M11)+1,LEN($M11))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M11,",",REPT(" ",LEN($M11))), 1 *LEN($M11)+1,LEN($M11))) = "", "0", TRIM(MID(SUBSTITUTE($M11,",",REPT(" ",LEN($M11))),1 *LEN($M11)+1,LEN($M11))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M11,",",REPT(" ",LEN($M11))), 2 *LEN($M11)+1,LEN($M11))) = "", "0", TRIM(MID(SUBSTITUTE($M11,",",REPT(" ",LEN($M11))),2 *LEN($M11)+1,LEN($M11))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M11,",",REPT(" ",LEN($M11))), 3 *LEN($M11)+1,LEN($M11))) = "", "0", TRIM(MID(SUBSTITUTE($M11,",",REPT(" ",LEN($M11))),3 *LEN($M11)+1,LEN($M11))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M11,",",REPT(" ",LEN($M11))), 4 *LEN($M11)+1,LEN($M11))) = "", "0", TRIM(MID(SUBSTITUTE($M11,",",REPT(" ",LEN($M11))),4 *LEN($M11)+1,LEN($M11))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M11,",",REPT(" ",LEN($M11))), 5 *LEN($M11)+1,LEN($M11))) = "", "0", TRIM(MID(SUBSTITUTE($M11,",",REPT(" ",LEN($M11))),5 *LEN($M11)+1,LEN($M11))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M11,",",REPT(" ",LEN($M11))), 6 *LEN($M11)+1,LEN($M11))) = "", "0", TRIM(MID(SUBSTITUTE($M11,",",REPT(" ",LEN($M11))),6 *LEN($M11)+1,LEN($M11))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M11,",",REPT(" ",LEN($M11))), 7 *LEN($M11)+1,LEN($M11))) = "", "0", TRIM(MID(SUBSTITUTE($M11,",",REPT(" ",LEN($M11))),7 *LEN($M11)+1,LEN($M11))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M11,",",REPT(" ",LEN($M11))), 8 *LEN($M11)+1,LEN($M11))) = "", "0", TRIM(MID(SUBSTITUTE($M11,",",REPT(" ",LEN($M11))),8 *LEN($M11)+1,LEN($M11))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M11,",",REPT(" ",LEN($M11))), 9 *LEN($M11)+1,LEN($M11))) = "", "0", TRIM(MID(SUBSTITUTE($M11,",",REPT(" ",LEN($M11))),9 *LEN($M11)+1,LEN($M11))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M11,",",REPT(" ",LEN($M11))), 10 *LEN($M11)+1,LEN($M11))) = "", "0", TRIM(MID(SUBSTITUTE($M11,",",REPT(" ",LEN($M11))),10 *LEN($M11)+1,LEN($M11)))))</f>
@@ -8230,7 +8230,7 @@
         <v>0</v>
       </c>
       <c r="X11" s="0" t="str">
-        <f aca="true">IF(O11="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S11)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O11="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S11)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -8269,8 +8269,8 @@
         <v/>
       </c>
       <c r="U12" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V12" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M12,",",REPT(" ",LEN($M12))), 0 *LEN($M12)+1,LEN($M12))) = "", "0", TRIM(MID(SUBSTITUTE($M12,",",REPT(" ",LEN($M12))),0 *LEN($M12)+1,LEN($M12))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M12,",",REPT(" ",LEN($M12))), 1 *LEN($M12)+1,LEN($M12))) = "", "0", TRIM(MID(SUBSTITUTE($M12,",",REPT(" ",LEN($M12))),1 *LEN($M12)+1,LEN($M12))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M12,",",REPT(" ",LEN($M12))), 2 *LEN($M12)+1,LEN($M12))) = "", "0", TRIM(MID(SUBSTITUTE($M12,",",REPT(" ",LEN($M12))),2 *LEN($M12)+1,LEN($M12))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M12,",",REPT(" ",LEN($M12))), 3 *LEN($M12)+1,LEN($M12))) = "", "0", TRIM(MID(SUBSTITUTE($M12,",",REPT(" ",LEN($M12))),3 *LEN($M12)+1,LEN($M12))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M12,",",REPT(" ",LEN($M12))), 4 *LEN($M12)+1,LEN($M12))) = "", "0", TRIM(MID(SUBSTITUTE($M12,",",REPT(" ",LEN($M12))),4 *LEN($M12)+1,LEN($M12))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M12,",",REPT(" ",LEN($M12))), 5 *LEN($M12)+1,LEN($M12))) = "", "0", TRIM(MID(SUBSTITUTE($M12,",",REPT(" ",LEN($M12))),5 *LEN($M12)+1,LEN($M12))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M12,",",REPT(" ",LEN($M12))), 6 *LEN($M12)+1,LEN($M12))) = "", "0", TRIM(MID(SUBSTITUTE($M12,",",REPT(" ",LEN($M12))),6 *LEN($M12)+1,LEN($M12))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M12,",",REPT(" ",LEN($M12))), 7 *LEN($M12)+1,LEN($M12))) = "", "0", TRIM(MID(SUBSTITUTE($M12,",",REPT(" ",LEN($M12))),7 *LEN($M12)+1,LEN($M12))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M12,",",REPT(" ",LEN($M12))), 8 *LEN($M12)+1,LEN($M12))) = "", "0", TRIM(MID(SUBSTITUTE($M12,",",REPT(" ",LEN($M12))),8 *LEN($M12)+1,LEN($M12))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M12,",",REPT(" ",LEN($M12))), 9 *LEN($M12)+1,LEN($M12))) = "", "0", TRIM(MID(SUBSTITUTE($M12,",",REPT(" ",LEN($M12))),9 *LEN($M12)+1,LEN($M12))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M12,",",REPT(" ",LEN($M12))), 10 *LEN($M12)+1,LEN($M12))) = "", "0", TRIM(MID(SUBSTITUTE($M12,",",REPT(" ",LEN($M12))),10 *LEN($M12)+1,LEN($M12)))))</f>
@@ -8281,7 +8281,7 @@
         <v>0</v>
       </c>
       <c r="X12" s="0" t="str">
-        <f aca="true">IF(O12="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S12)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O12="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S12)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -8320,8 +8320,8 @@
         <v/>
       </c>
       <c r="U13" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V13" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M13,",",REPT(" ",LEN($M13))), 0 *LEN($M13)+1,LEN($M13))) = "", "0", TRIM(MID(SUBSTITUTE($M13,",",REPT(" ",LEN($M13))),0 *LEN($M13)+1,LEN($M13))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M13,",",REPT(" ",LEN($M13))), 1 *LEN($M13)+1,LEN($M13))) = "", "0", TRIM(MID(SUBSTITUTE($M13,",",REPT(" ",LEN($M13))),1 *LEN($M13)+1,LEN($M13))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M13,",",REPT(" ",LEN($M13))), 2 *LEN($M13)+1,LEN($M13))) = "", "0", TRIM(MID(SUBSTITUTE($M13,",",REPT(" ",LEN($M13))),2 *LEN($M13)+1,LEN($M13))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M13,",",REPT(" ",LEN($M13))), 3 *LEN($M13)+1,LEN($M13))) = "", "0", TRIM(MID(SUBSTITUTE($M13,",",REPT(" ",LEN($M13))),3 *LEN($M13)+1,LEN($M13))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M13,",",REPT(" ",LEN($M13))), 4 *LEN($M13)+1,LEN($M13))) = "", "0", TRIM(MID(SUBSTITUTE($M13,",",REPT(" ",LEN($M13))),4 *LEN($M13)+1,LEN($M13))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M13,",",REPT(" ",LEN($M13))), 5 *LEN($M13)+1,LEN($M13))) = "", "0", TRIM(MID(SUBSTITUTE($M13,",",REPT(" ",LEN($M13))),5 *LEN($M13)+1,LEN($M13))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M13,",",REPT(" ",LEN($M13))), 6 *LEN($M13)+1,LEN($M13))) = "", "0", TRIM(MID(SUBSTITUTE($M13,",",REPT(" ",LEN($M13))),6 *LEN($M13)+1,LEN($M13))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M13,",",REPT(" ",LEN($M13))), 7 *LEN($M13)+1,LEN($M13))) = "", "0", TRIM(MID(SUBSTITUTE($M13,",",REPT(" ",LEN($M13))),7 *LEN($M13)+1,LEN($M13))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M13,",",REPT(" ",LEN($M13))), 8 *LEN($M13)+1,LEN($M13))) = "", "0", TRIM(MID(SUBSTITUTE($M13,",",REPT(" ",LEN($M13))),8 *LEN($M13)+1,LEN($M13))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M13,",",REPT(" ",LEN($M13))), 9 *LEN($M13)+1,LEN($M13))) = "", "0", TRIM(MID(SUBSTITUTE($M13,",",REPT(" ",LEN($M13))),9 *LEN($M13)+1,LEN($M13))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M13,",",REPT(" ",LEN($M13))), 10 *LEN($M13)+1,LEN($M13))) = "", "0", TRIM(MID(SUBSTITUTE($M13,",",REPT(" ",LEN($M13))),10 *LEN($M13)+1,LEN($M13)))))</f>
@@ -8332,7 +8332,7 @@
         <v>0</v>
       </c>
       <c r="X13" s="0" t="str">
-        <f aca="true">IF(O13="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S13)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O13="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S13)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -8371,8 +8371,8 @@
         <v/>
       </c>
       <c r="U14" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V14" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M14,",",REPT(" ",LEN($M14))), 0 *LEN($M14)+1,LEN($M14))) = "", "0", TRIM(MID(SUBSTITUTE($M14,",",REPT(" ",LEN($M14))),0 *LEN($M14)+1,LEN($M14))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M14,",",REPT(" ",LEN($M14))), 1 *LEN($M14)+1,LEN($M14))) = "", "0", TRIM(MID(SUBSTITUTE($M14,",",REPT(" ",LEN($M14))),1 *LEN($M14)+1,LEN($M14))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M14,",",REPT(" ",LEN($M14))), 2 *LEN($M14)+1,LEN($M14))) = "", "0", TRIM(MID(SUBSTITUTE($M14,",",REPT(" ",LEN($M14))),2 *LEN($M14)+1,LEN($M14))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M14,",",REPT(" ",LEN($M14))), 3 *LEN($M14)+1,LEN($M14))) = "", "0", TRIM(MID(SUBSTITUTE($M14,",",REPT(" ",LEN($M14))),3 *LEN($M14)+1,LEN($M14))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M14,",",REPT(" ",LEN($M14))), 4 *LEN($M14)+1,LEN($M14))) = "", "0", TRIM(MID(SUBSTITUTE($M14,",",REPT(" ",LEN($M14))),4 *LEN($M14)+1,LEN($M14))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M14,",",REPT(" ",LEN($M14))), 5 *LEN($M14)+1,LEN($M14))) = "", "0", TRIM(MID(SUBSTITUTE($M14,",",REPT(" ",LEN($M14))),5 *LEN($M14)+1,LEN($M14))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M14,",",REPT(" ",LEN($M14))), 6 *LEN($M14)+1,LEN($M14))) = "", "0", TRIM(MID(SUBSTITUTE($M14,",",REPT(" ",LEN($M14))),6 *LEN($M14)+1,LEN($M14))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M14,",",REPT(" ",LEN($M14))), 7 *LEN($M14)+1,LEN($M14))) = "", "0", TRIM(MID(SUBSTITUTE($M14,",",REPT(" ",LEN($M14))),7 *LEN($M14)+1,LEN($M14))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M14,",",REPT(" ",LEN($M14))), 8 *LEN($M14)+1,LEN($M14))) = "", "0", TRIM(MID(SUBSTITUTE($M14,",",REPT(" ",LEN($M14))),8 *LEN($M14)+1,LEN($M14))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M14,",",REPT(" ",LEN($M14))), 9 *LEN($M14)+1,LEN($M14))) = "", "0", TRIM(MID(SUBSTITUTE($M14,",",REPT(" ",LEN($M14))),9 *LEN($M14)+1,LEN($M14))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M14,",",REPT(" ",LEN($M14))), 10 *LEN($M14)+1,LEN($M14))) = "", "0", TRIM(MID(SUBSTITUTE($M14,",",REPT(" ",LEN($M14))),10 *LEN($M14)+1,LEN($M14)))))</f>
@@ -8383,7 +8383,7 @@
         <v>0</v>
       </c>
       <c r="X14" s="0" t="str">
-        <f aca="true">IF(O14="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S14)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O14="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S14)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -8422,8 +8422,8 @@
         <v/>
       </c>
       <c r="U15" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V15" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M15,",",REPT(" ",LEN($M15))), 0 *LEN($M15)+1,LEN($M15))) = "", "0", TRIM(MID(SUBSTITUTE($M15,",",REPT(" ",LEN($M15))),0 *LEN($M15)+1,LEN($M15))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M15,",",REPT(" ",LEN($M15))), 1 *LEN($M15)+1,LEN($M15))) = "", "0", TRIM(MID(SUBSTITUTE($M15,",",REPT(" ",LEN($M15))),1 *LEN($M15)+1,LEN($M15))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M15,",",REPT(" ",LEN($M15))), 2 *LEN($M15)+1,LEN($M15))) = "", "0", TRIM(MID(SUBSTITUTE($M15,",",REPT(" ",LEN($M15))),2 *LEN($M15)+1,LEN($M15))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M15,",",REPT(" ",LEN($M15))), 3 *LEN($M15)+1,LEN($M15))) = "", "0", TRIM(MID(SUBSTITUTE($M15,",",REPT(" ",LEN($M15))),3 *LEN($M15)+1,LEN($M15))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M15,",",REPT(" ",LEN($M15))), 4 *LEN($M15)+1,LEN($M15))) = "", "0", TRIM(MID(SUBSTITUTE($M15,",",REPT(" ",LEN($M15))),4 *LEN($M15)+1,LEN($M15))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M15,",",REPT(" ",LEN($M15))), 5 *LEN($M15)+1,LEN($M15))) = "", "0", TRIM(MID(SUBSTITUTE($M15,",",REPT(" ",LEN($M15))),5 *LEN($M15)+1,LEN($M15))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M15,",",REPT(" ",LEN($M15))), 6 *LEN($M15)+1,LEN($M15))) = "", "0", TRIM(MID(SUBSTITUTE($M15,",",REPT(" ",LEN($M15))),6 *LEN($M15)+1,LEN($M15))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M15,",",REPT(" ",LEN($M15))), 7 *LEN($M15)+1,LEN($M15))) = "", "0", TRIM(MID(SUBSTITUTE($M15,",",REPT(" ",LEN($M15))),7 *LEN($M15)+1,LEN($M15))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M15,",",REPT(" ",LEN($M15))), 8 *LEN($M15)+1,LEN($M15))) = "", "0", TRIM(MID(SUBSTITUTE($M15,",",REPT(" ",LEN($M15))),8 *LEN($M15)+1,LEN($M15))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M15,",",REPT(" ",LEN($M15))), 9 *LEN($M15)+1,LEN($M15))) = "", "0", TRIM(MID(SUBSTITUTE($M15,",",REPT(" ",LEN($M15))),9 *LEN($M15)+1,LEN($M15))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M15,",",REPT(" ",LEN($M15))), 10 *LEN($M15)+1,LEN($M15))) = "", "0", TRIM(MID(SUBSTITUTE($M15,",",REPT(" ",LEN($M15))),10 *LEN($M15)+1,LEN($M15)))))</f>
@@ -8434,7 +8434,7 @@
         <v>0</v>
       </c>
       <c r="X15" s="0" t="str">
-        <f aca="true">IF(O15="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S15)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O15="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S15)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -8473,8 +8473,8 @@
         <v/>
       </c>
       <c r="U16" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V16" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M16,",",REPT(" ",LEN($M16))), 0 *LEN($M16)+1,LEN($M16))) = "", "0", TRIM(MID(SUBSTITUTE($M16,",",REPT(" ",LEN($M16))),0 *LEN($M16)+1,LEN($M16))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M16,",",REPT(" ",LEN($M16))), 1 *LEN($M16)+1,LEN($M16))) = "", "0", TRIM(MID(SUBSTITUTE($M16,",",REPT(" ",LEN($M16))),1 *LEN($M16)+1,LEN($M16))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M16,",",REPT(" ",LEN($M16))), 2 *LEN($M16)+1,LEN($M16))) = "", "0", TRIM(MID(SUBSTITUTE($M16,",",REPT(" ",LEN($M16))),2 *LEN($M16)+1,LEN($M16))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M16,",",REPT(" ",LEN($M16))), 3 *LEN($M16)+1,LEN($M16))) = "", "0", TRIM(MID(SUBSTITUTE($M16,",",REPT(" ",LEN($M16))),3 *LEN($M16)+1,LEN($M16))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M16,",",REPT(" ",LEN($M16))), 4 *LEN($M16)+1,LEN($M16))) = "", "0", TRIM(MID(SUBSTITUTE($M16,",",REPT(" ",LEN($M16))),4 *LEN($M16)+1,LEN($M16))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M16,",",REPT(" ",LEN($M16))), 5 *LEN($M16)+1,LEN($M16))) = "", "0", TRIM(MID(SUBSTITUTE($M16,",",REPT(" ",LEN($M16))),5 *LEN($M16)+1,LEN($M16))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M16,",",REPT(" ",LEN($M16))), 6 *LEN($M16)+1,LEN($M16))) = "", "0", TRIM(MID(SUBSTITUTE($M16,",",REPT(" ",LEN($M16))),6 *LEN($M16)+1,LEN($M16))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M16,",",REPT(" ",LEN($M16))), 7 *LEN($M16)+1,LEN($M16))) = "", "0", TRIM(MID(SUBSTITUTE($M16,",",REPT(" ",LEN($M16))),7 *LEN($M16)+1,LEN($M16))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M16,",",REPT(" ",LEN($M16))), 8 *LEN($M16)+1,LEN($M16))) = "", "0", TRIM(MID(SUBSTITUTE($M16,",",REPT(" ",LEN($M16))),8 *LEN($M16)+1,LEN($M16))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M16,",",REPT(" ",LEN($M16))), 9 *LEN($M16)+1,LEN($M16))) = "", "0", TRIM(MID(SUBSTITUTE($M16,",",REPT(" ",LEN($M16))),9 *LEN($M16)+1,LEN($M16))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M16,",",REPT(" ",LEN($M16))), 10 *LEN($M16)+1,LEN($M16))) = "", "0", TRIM(MID(SUBSTITUTE($M16,",",REPT(" ",LEN($M16))),10 *LEN($M16)+1,LEN($M16)))))</f>
@@ -8485,7 +8485,7 @@
         <v>0</v>
       </c>
       <c r="X16" s="0" t="str">
-        <f aca="true">IF(O16="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S16)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O16="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S16)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -8524,8 +8524,8 @@
         <v/>
       </c>
       <c r="U17" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V17" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M17,",",REPT(" ",LEN($M17))), 0 *LEN($M17)+1,LEN($M17))) = "", "0", TRIM(MID(SUBSTITUTE($M17,",",REPT(" ",LEN($M17))),0 *LEN($M17)+1,LEN($M17))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M17,",",REPT(" ",LEN($M17))), 1 *LEN($M17)+1,LEN($M17))) = "", "0", TRIM(MID(SUBSTITUTE($M17,",",REPT(" ",LEN($M17))),1 *LEN($M17)+1,LEN($M17))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M17,",",REPT(" ",LEN($M17))), 2 *LEN($M17)+1,LEN($M17))) = "", "0", TRIM(MID(SUBSTITUTE($M17,",",REPT(" ",LEN($M17))),2 *LEN($M17)+1,LEN($M17))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M17,",",REPT(" ",LEN($M17))), 3 *LEN($M17)+1,LEN($M17))) = "", "0", TRIM(MID(SUBSTITUTE($M17,",",REPT(" ",LEN($M17))),3 *LEN($M17)+1,LEN($M17))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M17,",",REPT(" ",LEN($M17))), 4 *LEN($M17)+1,LEN($M17))) = "", "0", TRIM(MID(SUBSTITUTE($M17,",",REPT(" ",LEN($M17))),4 *LEN($M17)+1,LEN($M17))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M17,",",REPT(" ",LEN($M17))), 5 *LEN($M17)+1,LEN($M17))) = "", "0", TRIM(MID(SUBSTITUTE($M17,",",REPT(" ",LEN($M17))),5 *LEN($M17)+1,LEN($M17))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M17,",",REPT(" ",LEN($M17))), 6 *LEN($M17)+1,LEN($M17))) = "", "0", TRIM(MID(SUBSTITUTE($M17,",",REPT(" ",LEN($M17))),6 *LEN($M17)+1,LEN($M17))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M17,",",REPT(" ",LEN($M17))), 7 *LEN($M17)+1,LEN($M17))) = "", "0", TRIM(MID(SUBSTITUTE($M17,",",REPT(" ",LEN($M17))),7 *LEN($M17)+1,LEN($M17))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M17,",",REPT(" ",LEN($M17))), 8 *LEN($M17)+1,LEN($M17))) = "", "0", TRIM(MID(SUBSTITUTE($M17,",",REPT(" ",LEN($M17))),8 *LEN($M17)+1,LEN($M17))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M17,",",REPT(" ",LEN($M17))), 9 *LEN($M17)+1,LEN($M17))) = "", "0", TRIM(MID(SUBSTITUTE($M17,",",REPT(" ",LEN($M17))),9 *LEN($M17)+1,LEN($M17))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M17,",",REPT(" ",LEN($M17))), 10 *LEN($M17)+1,LEN($M17))) = "", "0", TRIM(MID(SUBSTITUTE($M17,",",REPT(" ",LEN($M17))),10 *LEN($M17)+1,LEN($M17)))))</f>
@@ -8536,7 +8536,7 @@
         <v>0</v>
       </c>
       <c r="X17" s="0" t="str">
-        <f aca="true">IF(O17="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S17)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O17="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S17)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -8575,8 +8575,8 @@
         <v/>
       </c>
       <c r="U18" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V18" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M18,",",REPT(" ",LEN($M18))), 0 *LEN($M18)+1,LEN($M18))) = "", "0", TRIM(MID(SUBSTITUTE($M18,",",REPT(" ",LEN($M18))),0 *LEN($M18)+1,LEN($M18))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M18,",",REPT(" ",LEN($M18))), 1 *LEN($M18)+1,LEN($M18))) = "", "0", TRIM(MID(SUBSTITUTE($M18,",",REPT(" ",LEN($M18))),1 *LEN($M18)+1,LEN($M18))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M18,",",REPT(" ",LEN($M18))), 2 *LEN($M18)+1,LEN($M18))) = "", "0", TRIM(MID(SUBSTITUTE($M18,",",REPT(" ",LEN($M18))),2 *LEN($M18)+1,LEN($M18))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M18,",",REPT(" ",LEN($M18))), 3 *LEN($M18)+1,LEN($M18))) = "", "0", TRIM(MID(SUBSTITUTE($M18,",",REPT(" ",LEN($M18))),3 *LEN($M18)+1,LEN($M18))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M18,",",REPT(" ",LEN($M18))), 4 *LEN($M18)+1,LEN($M18))) = "", "0", TRIM(MID(SUBSTITUTE($M18,",",REPT(" ",LEN($M18))),4 *LEN($M18)+1,LEN($M18))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M18,",",REPT(" ",LEN($M18))), 5 *LEN($M18)+1,LEN($M18))) = "", "0", TRIM(MID(SUBSTITUTE($M18,",",REPT(" ",LEN($M18))),5 *LEN($M18)+1,LEN($M18))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M18,",",REPT(" ",LEN($M18))), 6 *LEN($M18)+1,LEN($M18))) = "", "0", TRIM(MID(SUBSTITUTE($M18,",",REPT(" ",LEN($M18))),6 *LEN($M18)+1,LEN($M18))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M18,",",REPT(" ",LEN($M18))), 7 *LEN($M18)+1,LEN($M18))) = "", "0", TRIM(MID(SUBSTITUTE($M18,",",REPT(" ",LEN($M18))),7 *LEN($M18)+1,LEN($M18))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M18,",",REPT(" ",LEN($M18))), 8 *LEN($M18)+1,LEN($M18))) = "", "0", TRIM(MID(SUBSTITUTE($M18,",",REPT(" ",LEN($M18))),8 *LEN($M18)+1,LEN($M18))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M18,",",REPT(" ",LEN($M18))), 9 *LEN($M18)+1,LEN($M18))) = "", "0", TRIM(MID(SUBSTITUTE($M18,",",REPT(" ",LEN($M18))),9 *LEN($M18)+1,LEN($M18))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M18,",",REPT(" ",LEN($M18))), 10 *LEN($M18)+1,LEN($M18))) = "", "0", TRIM(MID(SUBSTITUTE($M18,",",REPT(" ",LEN($M18))),10 *LEN($M18)+1,LEN($M18)))))</f>
@@ -8587,7 +8587,7 @@
         <v>0</v>
       </c>
       <c r="X18" s="0" t="str">
-        <f aca="true">IF(O18="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S18)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O18="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S18)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -8626,8 +8626,8 @@
         <v/>
       </c>
       <c r="U19" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V19" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M19,",",REPT(" ",LEN($M19))), 0 *LEN($M19)+1,LEN($M19))) = "", "0", TRIM(MID(SUBSTITUTE($M19,",",REPT(" ",LEN($M19))),0 *LEN($M19)+1,LEN($M19))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M19,",",REPT(" ",LEN($M19))), 1 *LEN($M19)+1,LEN($M19))) = "", "0", TRIM(MID(SUBSTITUTE($M19,",",REPT(" ",LEN($M19))),1 *LEN($M19)+1,LEN($M19))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M19,",",REPT(" ",LEN($M19))), 2 *LEN($M19)+1,LEN($M19))) = "", "0", TRIM(MID(SUBSTITUTE($M19,",",REPT(" ",LEN($M19))),2 *LEN($M19)+1,LEN($M19))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M19,",",REPT(" ",LEN($M19))), 3 *LEN($M19)+1,LEN($M19))) = "", "0", TRIM(MID(SUBSTITUTE($M19,",",REPT(" ",LEN($M19))),3 *LEN($M19)+1,LEN($M19))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M19,",",REPT(" ",LEN($M19))), 4 *LEN($M19)+1,LEN($M19))) = "", "0", TRIM(MID(SUBSTITUTE($M19,",",REPT(" ",LEN($M19))),4 *LEN($M19)+1,LEN($M19))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M19,",",REPT(" ",LEN($M19))), 5 *LEN($M19)+1,LEN($M19))) = "", "0", TRIM(MID(SUBSTITUTE($M19,",",REPT(" ",LEN($M19))),5 *LEN($M19)+1,LEN($M19))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M19,",",REPT(" ",LEN($M19))), 6 *LEN($M19)+1,LEN($M19))) = "", "0", TRIM(MID(SUBSTITUTE($M19,",",REPT(" ",LEN($M19))),6 *LEN($M19)+1,LEN($M19))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M19,",",REPT(" ",LEN($M19))), 7 *LEN($M19)+1,LEN($M19))) = "", "0", TRIM(MID(SUBSTITUTE($M19,",",REPT(" ",LEN($M19))),7 *LEN($M19)+1,LEN($M19))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M19,",",REPT(" ",LEN($M19))), 8 *LEN($M19)+1,LEN($M19))) = "", "0", TRIM(MID(SUBSTITUTE($M19,",",REPT(" ",LEN($M19))),8 *LEN($M19)+1,LEN($M19))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M19,",",REPT(" ",LEN($M19))), 9 *LEN($M19)+1,LEN($M19))) = "", "0", TRIM(MID(SUBSTITUTE($M19,",",REPT(" ",LEN($M19))),9 *LEN($M19)+1,LEN($M19))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M19,",",REPT(" ",LEN($M19))), 10 *LEN($M19)+1,LEN($M19))) = "", "0", TRIM(MID(SUBSTITUTE($M19,",",REPT(" ",LEN($M19))),10 *LEN($M19)+1,LEN($M19)))))</f>
@@ -8638,7 +8638,7 @@
         <v>0</v>
       </c>
       <c r="X19" s="0" t="str">
-        <f aca="true">IF(O19="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S19)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O19="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S19)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -8677,8 +8677,8 @@
         <v/>
       </c>
       <c r="U20" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V20" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))), 0 *LEN($M20)+1,LEN($M20))) = "", "0", TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))),0 *LEN($M20)+1,LEN($M20))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))), 1 *LEN($M20)+1,LEN($M20))) = "", "0", TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))),1 *LEN($M20)+1,LEN($M20))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))), 2 *LEN($M20)+1,LEN($M20))) = "", "0", TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))),2 *LEN($M20)+1,LEN($M20))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))), 3 *LEN($M20)+1,LEN($M20))) = "", "0", TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))),3 *LEN($M20)+1,LEN($M20))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))), 4 *LEN($M20)+1,LEN($M20))) = "", "0", TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))),4 *LEN($M20)+1,LEN($M20))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))), 5 *LEN($M20)+1,LEN($M20))) = "", "0", TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))),5 *LEN($M20)+1,LEN($M20))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))), 6 *LEN($M20)+1,LEN($M20))) = "", "0", TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))),6 *LEN($M20)+1,LEN($M20))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))), 7 *LEN($M20)+1,LEN($M20))) = "", "0", TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))),7 *LEN($M20)+1,LEN($M20))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))), 8 *LEN($M20)+1,LEN($M20))) = "", "0", TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))),8 *LEN($M20)+1,LEN($M20))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))), 9 *LEN($M20)+1,LEN($M20))) = "", "0", TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))),9 *LEN($M20)+1,LEN($M20))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))), 10 *LEN($M20)+1,LEN($M20))) = "", "0", TRIM(MID(SUBSTITUTE($M20,",",REPT(" ",LEN($M20))),10 *LEN($M20)+1,LEN($M20)))))</f>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="X20" s="0" t="str">
-        <f aca="true">IF(O20="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S20)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O20="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S20)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -8728,8 +8728,8 @@
         <v/>
       </c>
       <c r="U21" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V21" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M21,",",REPT(" ",LEN($M21))), 0 *LEN($M21)+1,LEN($M21))) = "", "0", TRIM(MID(SUBSTITUTE($M21,",",REPT(" ",LEN($M21))),0 *LEN($M21)+1,LEN($M21))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M21,",",REPT(" ",LEN($M21))), 1 *LEN($M21)+1,LEN($M21))) = "", "0", TRIM(MID(SUBSTITUTE($M21,",",REPT(" ",LEN($M21))),1 *LEN($M21)+1,LEN($M21))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M21,",",REPT(" ",LEN($M21))), 2 *LEN($M21)+1,LEN($M21))) = "", "0", TRIM(MID(SUBSTITUTE($M21,",",REPT(" ",LEN($M21))),2 *LEN($M21)+1,LEN($M21))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M21,",",REPT(" ",LEN($M21))), 3 *LEN($M21)+1,LEN($M21))) = "", "0", TRIM(MID(SUBSTITUTE($M21,",",REPT(" ",LEN($M21))),3 *LEN($M21)+1,LEN($M21))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M21,",",REPT(" ",LEN($M21))), 4 *LEN($M21)+1,LEN($M21))) = "", "0", TRIM(MID(SUBSTITUTE($M21,",",REPT(" ",LEN($M21))),4 *LEN($M21)+1,LEN($M21))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M21,",",REPT(" ",LEN($M21))), 5 *LEN($M21)+1,LEN($M21))) = "", "0", TRIM(MID(SUBSTITUTE($M21,",",REPT(" ",LEN($M21))),5 *LEN($M21)+1,LEN($M21))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M21,",",REPT(" ",LEN($M21))), 6 *LEN($M21)+1,LEN($M21))) = "", "0", TRIM(MID(SUBSTITUTE($M21,",",REPT(" ",LEN($M21))),6 *LEN($M21)+1,LEN($M21))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M21,",",REPT(" ",LEN($M21))), 7 *LEN($M21)+1,LEN($M21))) = "", "0", TRIM(MID(SUBSTITUTE($M21,",",REPT(" ",LEN($M21))),7 *LEN($M21)+1,LEN($M21))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M21,",",REPT(" ",LEN($M21))), 8 *LEN($M21)+1,LEN($M21))) = "", "0", TRIM(MID(SUBSTITUTE($M21,",",REPT(" ",LEN($M21))),8 *LEN($M21)+1,LEN($M21))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M21,",",REPT(" ",LEN($M21))), 9 *LEN($M21)+1,LEN($M21))) = "", "0", TRIM(MID(SUBSTITUTE($M21,",",REPT(" ",LEN($M21))),9 *LEN($M21)+1,LEN($M21))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M21,",",REPT(" ",LEN($M21))), 10 *LEN($M21)+1,LEN($M21))) = "", "0", TRIM(MID(SUBSTITUTE($M21,",",REPT(" ",LEN($M21))),10 *LEN($M21)+1,LEN($M21)))))</f>
@@ -8740,7 +8740,7 @@
         <v>0</v>
       </c>
       <c r="X21" s="0" t="str">
-        <f aca="true">IF(O21="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S21)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O21="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S21)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -8779,8 +8779,8 @@
         <v/>
       </c>
       <c r="U22" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V22" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))), 0 *LEN($M22)+1,LEN($M22))) = "", "0", TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))),0 *LEN($M22)+1,LEN($M22))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))), 1 *LEN($M22)+1,LEN($M22))) = "", "0", TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))),1 *LEN($M22)+1,LEN($M22))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))), 2 *LEN($M22)+1,LEN($M22))) = "", "0", TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))),2 *LEN($M22)+1,LEN($M22))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))), 3 *LEN($M22)+1,LEN($M22))) = "", "0", TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))),3 *LEN($M22)+1,LEN($M22))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))), 4 *LEN($M22)+1,LEN($M22))) = "", "0", TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))),4 *LEN($M22)+1,LEN($M22))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))), 5 *LEN($M22)+1,LEN($M22))) = "", "0", TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))),5 *LEN($M22)+1,LEN($M22))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))), 6 *LEN($M22)+1,LEN($M22))) = "", "0", TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))),6 *LEN($M22)+1,LEN($M22))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))), 7 *LEN($M22)+1,LEN($M22))) = "", "0", TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))),7 *LEN($M22)+1,LEN($M22))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))), 8 *LEN($M22)+1,LEN($M22))) = "", "0", TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))),8 *LEN($M22)+1,LEN($M22))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))), 9 *LEN($M22)+1,LEN($M22))) = "", "0", TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))),9 *LEN($M22)+1,LEN($M22))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))), 10 *LEN($M22)+1,LEN($M22))) = "", "0", TRIM(MID(SUBSTITUTE($M22,",",REPT(" ",LEN($M22))),10 *LEN($M22)+1,LEN($M22)))))</f>
@@ -8791,7 +8791,7 @@
         <v>0</v>
       </c>
       <c r="X22" s="0" t="str">
-        <f aca="true">IF(O22="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S22)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O22="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S22)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -8830,8 +8830,8 @@
         <v/>
       </c>
       <c r="U23" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V23" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))), 0 *LEN($M23)+1,LEN($M23))) = "", "0", TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))),0 *LEN($M23)+1,LEN($M23))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))), 1 *LEN($M23)+1,LEN($M23))) = "", "0", TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))),1 *LEN($M23)+1,LEN($M23))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))), 2 *LEN($M23)+1,LEN($M23))) = "", "0", TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))),2 *LEN($M23)+1,LEN($M23))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))), 3 *LEN($M23)+1,LEN($M23))) = "", "0", TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))),3 *LEN($M23)+1,LEN($M23))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))), 4 *LEN($M23)+1,LEN($M23))) = "", "0", TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))),4 *LEN($M23)+1,LEN($M23))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))), 5 *LEN($M23)+1,LEN($M23))) = "", "0", TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))),5 *LEN($M23)+1,LEN($M23))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))), 6 *LEN($M23)+1,LEN($M23))) = "", "0", TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))),6 *LEN($M23)+1,LEN($M23))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))), 7 *LEN($M23)+1,LEN($M23))) = "", "0", TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))),7 *LEN($M23)+1,LEN($M23))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))), 8 *LEN($M23)+1,LEN($M23))) = "", "0", TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))),8 *LEN($M23)+1,LEN($M23))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))), 9 *LEN($M23)+1,LEN($M23))) = "", "0", TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))),9 *LEN($M23)+1,LEN($M23))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))), 10 *LEN($M23)+1,LEN($M23))) = "", "0", TRIM(MID(SUBSTITUTE($M23,",",REPT(" ",LEN($M23))),10 *LEN($M23)+1,LEN($M23)))))</f>
@@ -8842,7 +8842,7 @@
         <v>0</v>
       </c>
       <c r="X23" s="0" t="str">
-        <f aca="true">IF(O23="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S23)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O23="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S23)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -8881,8 +8881,8 @@
         <v/>
       </c>
       <c r="U24" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V24" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M24,",",REPT(" ",LEN($M24))), 0 *LEN($M24)+1,LEN($M24))) = "", "0", TRIM(MID(SUBSTITUTE($M24,",",REPT(" ",LEN($M24))),0 *LEN($M24)+1,LEN($M24))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M24,",",REPT(" ",LEN($M24))), 1 *LEN($M24)+1,LEN($M24))) = "", "0", TRIM(MID(SUBSTITUTE($M24,",",REPT(" ",LEN($M24))),1 *LEN($M24)+1,LEN($M24))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M24,",",REPT(" ",LEN($M24))), 2 *LEN($M24)+1,LEN($M24))) = "", "0", TRIM(MID(SUBSTITUTE($M24,",",REPT(" ",LEN($M24))),2 *LEN($M24)+1,LEN($M24))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M24,",",REPT(" ",LEN($M24))), 3 *LEN($M24)+1,LEN($M24))) = "", "0", TRIM(MID(SUBSTITUTE($M24,",",REPT(" ",LEN($M24))),3 *LEN($M24)+1,LEN($M24))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M24,",",REPT(" ",LEN($M24))), 4 *LEN($M24)+1,LEN($M24))) = "", "0", TRIM(MID(SUBSTITUTE($M24,",",REPT(" ",LEN($M24))),4 *LEN($M24)+1,LEN($M24))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M24,",",REPT(" ",LEN($M24))), 5 *LEN($M24)+1,LEN($M24))) = "", "0", TRIM(MID(SUBSTITUTE($M24,",",REPT(" ",LEN($M24))),5 *LEN($M24)+1,LEN($M24))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M24,",",REPT(" ",LEN($M24))), 6 *LEN($M24)+1,LEN($M24))) = "", "0", TRIM(MID(SUBSTITUTE($M24,",",REPT(" ",LEN($M24))),6 *LEN($M24)+1,LEN($M24))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M24,",",REPT(" ",LEN($M24))), 7 *LEN($M24)+1,LEN($M24))) = "", "0", TRIM(MID(SUBSTITUTE($M24,",",REPT(" ",LEN($M24))),7 *LEN($M24)+1,LEN($M24))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M24,",",REPT(" ",LEN($M24))), 8 *LEN($M24)+1,LEN($M24))) = "", "0", TRIM(MID(SUBSTITUTE($M24,",",REPT(" ",LEN($M24))),8 *LEN($M24)+1,LEN($M24))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M24,",",REPT(" ",LEN($M24))), 9 *LEN($M24)+1,LEN($M24))) = "", "0", TRIM(MID(SUBSTITUTE($M24,",",REPT(" ",LEN($M24))),9 *LEN($M24)+1,LEN($M24))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M24,",",REPT(" ",LEN($M24))), 10 *LEN($M24)+1,LEN($M24))) = "", "0", TRIM(MID(SUBSTITUTE($M24,",",REPT(" ",LEN($M24))),10 *LEN($M24)+1,LEN($M24)))))</f>
@@ -8893,7 +8893,7 @@
         <v>0</v>
       </c>
       <c r="X24" s="0" t="str">
-        <f aca="true">IF(O24="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S24)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O24="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S24)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -8932,8 +8932,8 @@
         <v/>
       </c>
       <c r="U25" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V25" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M25,",",REPT(" ",LEN($M25))), 0 *LEN($M25)+1,LEN($M25))) = "", "0", TRIM(MID(SUBSTITUTE($M25,",",REPT(" ",LEN($M25))),0 *LEN($M25)+1,LEN($M25))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M25,",",REPT(" ",LEN($M25))), 1 *LEN($M25)+1,LEN($M25))) = "", "0", TRIM(MID(SUBSTITUTE($M25,",",REPT(" ",LEN($M25))),1 *LEN($M25)+1,LEN($M25))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M25,",",REPT(" ",LEN($M25))), 2 *LEN($M25)+1,LEN($M25))) = "", "0", TRIM(MID(SUBSTITUTE($M25,",",REPT(" ",LEN($M25))),2 *LEN($M25)+1,LEN($M25))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M25,",",REPT(" ",LEN($M25))), 3 *LEN($M25)+1,LEN($M25))) = "", "0", TRIM(MID(SUBSTITUTE($M25,",",REPT(" ",LEN($M25))),3 *LEN($M25)+1,LEN($M25))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M25,",",REPT(" ",LEN($M25))), 4 *LEN($M25)+1,LEN($M25))) = "", "0", TRIM(MID(SUBSTITUTE($M25,",",REPT(" ",LEN($M25))),4 *LEN($M25)+1,LEN($M25))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M25,",",REPT(" ",LEN($M25))), 5 *LEN($M25)+1,LEN($M25))) = "", "0", TRIM(MID(SUBSTITUTE($M25,",",REPT(" ",LEN($M25))),5 *LEN($M25)+1,LEN($M25))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M25,",",REPT(" ",LEN($M25))), 6 *LEN($M25)+1,LEN($M25))) = "", "0", TRIM(MID(SUBSTITUTE($M25,",",REPT(" ",LEN($M25))),6 *LEN($M25)+1,LEN($M25))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M25,",",REPT(" ",LEN($M25))), 7 *LEN($M25)+1,LEN($M25))) = "", "0", TRIM(MID(SUBSTITUTE($M25,",",REPT(" ",LEN($M25))),7 *LEN($M25)+1,LEN($M25))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M25,",",REPT(" ",LEN($M25))), 8 *LEN($M25)+1,LEN($M25))) = "", "0", TRIM(MID(SUBSTITUTE($M25,",",REPT(" ",LEN($M25))),8 *LEN($M25)+1,LEN($M25))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M25,",",REPT(" ",LEN($M25))), 9 *LEN($M25)+1,LEN($M25))) = "", "0", TRIM(MID(SUBSTITUTE($M25,",",REPT(" ",LEN($M25))),9 *LEN($M25)+1,LEN($M25))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M25,",",REPT(" ",LEN($M25))), 10 *LEN($M25)+1,LEN($M25))) = "", "0", TRIM(MID(SUBSTITUTE($M25,",",REPT(" ",LEN($M25))),10 *LEN($M25)+1,LEN($M25)))))</f>
@@ -8944,7 +8944,7 @@
         <v>0</v>
       </c>
       <c r="X25" s="0" t="str">
-        <f aca="true">IF(O25="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S25)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O25="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S25)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -8983,8 +8983,8 @@
         <v/>
       </c>
       <c r="U26" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V26" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M26,",",REPT(" ",LEN($M26))), 0 *LEN($M26)+1,LEN($M26))) = "", "0", TRIM(MID(SUBSTITUTE($M26,",",REPT(" ",LEN($M26))),0 *LEN($M26)+1,LEN($M26))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M26,",",REPT(" ",LEN($M26))), 1 *LEN($M26)+1,LEN($M26))) = "", "0", TRIM(MID(SUBSTITUTE($M26,",",REPT(" ",LEN($M26))),1 *LEN($M26)+1,LEN($M26))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M26,",",REPT(" ",LEN($M26))), 2 *LEN($M26)+1,LEN($M26))) = "", "0", TRIM(MID(SUBSTITUTE($M26,",",REPT(" ",LEN($M26))),2 *LEN($M26)+1,LEN($M26))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M26,",",REPT(" ",LEN($M26))), 3 *LEN($M26)+1,LEN($M26))) = "", "0", TRIM(MID(SUBSTITUTE($M26,",",REPT(" ",LEN($M26))),3 *LEN($M26)+1,LEN($M26))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M26,",",REPT(" ",LEN($M26))), 4 *LEN($M26)+1,LEN($M26))) = "", "0", TRIM(MID(SUBSTITUTE($M26,",",REPT(" ",LEN($M26))),4 *LEN($M26)+1,LEN($M26))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M26,",",REPT(" ",LEN($M26))), 5 *LEN($M26)+1,LEN($M26))) = "", "0", TRIM(MID(SUBSTITUTE($M26,",",REPT(" ",LEN($M26))),5 *LEN($M26)+1,LEN($M26))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M26,",",REPT(" ",LEN($M26))), 6 *LEN($M26)+1,LEN($M26))) = "", "0", TRIM(MID(SUBSTITUTE($M26,",",REPT(" ",LEN($M26))),6 *LEN($M26)+1,LEN($M26))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M26,",",REPT(" ",LEN($M26))), 7 *LEN($M26)+1,LEN($M26))) = "", "0", TRIM(MID(SUBSTITUTE($M26,",",REPT(" ",LEN($M26))),7 *LEN($M26)+1,LEN($M26))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M26,",",REPT(" ",LEN($M26))), 8 *LEN($M26)+1,LEN($M26))) = "", "0", TRIM(MID(SUBSTITUTE($M26,",",REPT(" ",LEN($M26))),8 *LEN($M26)+1,LEN($M26))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M26,",",REPT(" ",LEN($M26))), 9 *LEN($M26)+1,LEN($M26))) = "", "0", TRIM(MID(SUBSTITUTE($M26,",",REPT(" ",LEN($M26))),9 *LEN($M26)+1,LEN($M26))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M26,",",REPT(" ",LEN($M26))), 10 *LEN($M26)+1,LEN($M26))) = "", "0", TRIM(MID(SUBSTITUTE($M26,",",REPT(" ",LEN($M26))),10 *LEN($M26)+1,LEN($M26)))))</f>
@@ -8995,7 +8995,7 @@
         <v>0</v>
       </c>
       <c r="X26" s="0" t="str">
-        <f aca="true">IF(O26="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S26)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O26="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S26)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -9034,8 +9034,8 @@
         <v/>
       </c>
       <c r="U27" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V27" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M27,",",REPT(" ",LEN($M27))), 0 *LEN($M27)+1,LEN($M27))) = "", "0", TRIM(MID(SUBSTITUTE($M27,",",REPT(" ",LEN($M27))),0 *LEN($M27)+1,LEN($M27))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M27,",",REPT(" ",LEN($M27))), 1 *LEN($M27)+1,LEN($M27))) = "", "0", TRIM(MID(SUBSTITUTE($M27,",",REPT(" ",LEN($M27))),1 *LEN($M27)+1,LEN($M27))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M27,",",REPT(" ",LEN($M27))), 2 *LEN($M27)+1,LEN($M27))) = "", "0", TRIM(MID(SUBSTITUTE($M27,",",REPT(" ",LEN($M27))),2 *LEN($M27)+1,LEN($M27))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M27,",",REPT(" ",LEN($M27))), 3 *LEN($M27)+1,LEN($M27))) = "", "0", TRIM(MID(SUBSTITUTE($M27,",",REPT(" ",LEN($M27))),3 *LEN($M27)+1,LEN($M27))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M27,",",REPT(" ",LEN($M27))), 4 *LEN($M27)+1,LEN($M27))) = "", "0", TRIM(MID(SUBSTITUTE($M27,",",REPT(" ",LEN($M27))),4 *LEN($M27)+1,LEN($M27))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M27,",",REPT(" ",LEN($M27))), 5 *LEN($M27)+1,LEN($M27))) = "", "0", TRIM(MID(SUBSTITUTE($M27,",",REPT(" ",LEN($M27))),5 *LEN($M27)+1,LEN($M27))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M27,",",REPT(" ",LEN($M27))), 6 *LEN($M27)+1,LEN($M27))) = "", "0", TRIM(MID(SUBSTITUTE($M27,",",REPT(" ",LEN($M27))),6 *LEN($M27)+1,LEN($M27))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M27,",",REPT(" ",LEN($M27))), 7 *LEN($M27)+1,LEN($M27))) = "", "0", TRIM(MID(SUBSTITUTE($M27,",",REPT(" ",LEN($M27))),7 *LEN($M27)+1,LEN($M27))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M27,",",REPT(" ",LEN($M27))), 8 *LEN($M27)+1,LEN($M27))) = "", "0", TRIM(MID(SUBSTITUTE($M27,",",REPT(" ",LEN($M27))),8 *LEN($M27)+1,LEN($M27))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M27,",",REPT(" ",LEN($M27))), 9 *LEN($M27)+1,LEN($M27))) = "", "0", TRIM(MID(SUBSTITUTE($M27,",",REPT(" ",LEN($M27))),9 *LEN($M27)+1,LEN($M27))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M27,",",REPT(" ",LEN($M27))), 10 *LEN($M27)+1,LEN($M27))) = "", "0", TRIM(MID(SUBSTITUTE($M27,",",REPT(" ",LEN($M27))),10 *LEN($M27)+1,LEN($M27)))))</f>
@@ -9046,7 +9046,7 @@
         <v>0</v>
       </c>
       <c r="X27" s="0" t="str">
-        <f aca="true">IF(O27="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S27)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O27="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S27)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -9085,8 +9085,8 @@
         <v/>
       </c>
       <c r="U28" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V28" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M28,",",REPT(" ",LEN($M28))), 0 *LEN($M28)+1,LEN($M28))) = "", "0", TRIM(MID(SUBSTITUTE($M28,",",REPT(" ",LEN($M28))),0 *LEN($M28)+1,LEN($M28))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M28,",",REPT(" ",LEN($M28))), 1 *LEN($M28)+1,LEN($M28))) = "", "0", TRIM(MID(SUBSTITUTE($M28,",",REPT(" ",LEN($M28))),1 *LEN($M28)+1,LEN($M28))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M28,",",REPT(" ",LEN($M28))), 2 *LEN($M28)+1,LEN($M28))) = "", "0", TRIM(MID(SUBSTITUTE($M28,",",REPT(" ",LEN($M28))),2 *LEN($M28)+1,LEN($M28))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M28,",",REPT(" ",LEN($M28))), 3 *LEN($M28)+1,LEN($M28))) = "", "0", TRIM(MID(SUBSTITUTE($M28,",",REPT(" ",LEN($M28))),3 *LEN($M28)+1,LEN($M28))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M28,",",REPT(" ",LEN($M28))), 4 *LEN($M28)+1,LEN($M28))) = "", "0", TRIM(MID(SUBSTITUTE($M28,",",REPT(" ",LEN($M28))),4 *LEN($M28)+1,LEN($M28))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M28,",",REPT(" ",LEN($M28))), 5 *LEN($M28)+1,LEN($M28))) = "", "0", TRIM(MID(SUBSTITUTE($M28,",",REPT(" ",LEN($M28))),5 *LEN($M28)+1,LEN($M28))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M28,",",REPT(" ",LEN($M28))), 6 *LEN($M28)+1,LEN($M28))) = "", "0", TRIM(MID(SUBSTITUTE($M28,",",REPT(" ",LEN($M28))),6 *LEN($M28)+1,LEN($M28))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M28,",",REPT(" ",LEN($M28))), 7 *LEN($M28)+1,LEN($M28))) = "", "0", TRIM(MID(SUBSTITUTE($M28,",",REPT(" ",LEN($M28))),7 *LEN($M28)+1,LEN($M28))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M28,",",REPT(" ",LEN($M28))), 8 *LEN($M28)+1,LEN($M28))) = "", "0", TRIM(MID(SUBSTITUTE($M28,",",REPT(" ",LEN($M28))),8 *LEN($M28)+1,LEN($M28))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M28,",",REPT(" ",LEN($M28))), 9 *LEN($M28)+1,LEN($M28))) = "", "0", TRIM(MID(SUBSTITUTE($M28,",",REPT(" ",LEN($M28))),9 *LEN($M28)+1,LEN($M28))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M28,",",REPT(" ",LEN($M28))), 10 *LEN($M28)+1,LEN($M28))) = "", "0", TRIM(MID(SUBSTITUTE($M28,",",REPT(" ",LEN($M28))),10 *LEN($M28)+1,LEN($M28)))))</f>
@@ -9097,7 +9097,7 @@
         <v>0</v>
       </c>
       <c r="X28" s="0" t="str">
-        <f aca="true">IF(O28="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S28)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O28="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S28)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -9136,8 +9136,8 @@
         <v/>
       </c>
       <c r="U29" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V29" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M29,",",REPT(" ",LEN($M29))), 0 *LEN($M29)+1,LEN($M29))) = "", "0", TRIM(MID(SUBSTITUTE($M29,",",REPT(" ",LEN($M29))),0 *LEN($M29)+1,LEN($M29))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M29,",",REPT(" ",LEN($M29))), 1 *LEN($M29)+1,LEN($M29))) = "", "0", TRIM(MID(SUBSTITUTE($M29,",",REPT(" ",LEN($M29))),1 *LEN($M29)+1,LEN($M29))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M29,",",REPT(" ",LEN($M29))), 2 *LEN($M29)+1,LEN($M29))) = "", "0", TRIM(MID(SUBSTITUTE($M29,",",REPT(" ",LEN($M29))),2 *LEN($M29)+1,LEN($M29))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M29,",",REPT(" ",LEN($M29))), 3 *LEN($M29)+1,LEN($M29))) = "", "0", TRIM(MID(SUBSTITUTE($M29,",",REPT(" ",LEN($M29))),3 *LEN($M29)+1,LEN($M29))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M29,",",REPT(" ",LEN($M29))), 4 *LEN($M29)+1,LEN($M29))) = "", "0", TRIM(MID(SUBSTITUTE($M29,",",REPT(" ",LEN($M29))),4 *LEN($M29)+1,LEN($M29))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M29,",",REPT(" ",LEN($M29))), 5 *LEN($M29)+1,LEN($M29))) = "", "0", TRIM(MID(SUBSTITUTE($M29,",",REPT(" ",LEN($M29))),5 *LEN($M29)+1,LEN($M29))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M29,",",REPT(" ",LEN($M29))), 6 *LEN($M29)+1,LEN($M29))) = "", "0", TRIM(MID(SUBSTITUTE($M29,",",REPT(" ",LEN($M29))),6 *LEN($M29)+1,LEN($M29))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M29,",",REPT(" ",LEN($M29))), 7 *LEN($M29)+1,LEN($M29))) = "", "0", TRIM(MID(SUBSTITUTE($M29,",",REPT(" ",LEN($M29))),7 *LEN($M29)+1,LEN($M29))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M29,",",REPT(" ",LEN($M29))), 8 *LEN($M29)+1,LEN($M29))) = "", "0", TRIM(MID(SUBSTITUTE($M29,",",REPT(" ",LEN($M29))),8 *LEN($M29)+1,LEN($M29))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M29,",",REPT(" ",LEN($M29))), 9 *LEN($M29)+1,LEN($M29))) = "", "0", TRIM(MID(SUBSTITUTE($M29,",",REPT(" ",LEN($M29))),9 *LEN($M29)+1,LEN($M29))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M29,",",REPT(" ",LEN($M29))), 10 *LEN($M29)+1,LEN($M29))) = "", "0", TRIM(MID(SUBSTITUTE($M29,",",REPT(" ",LEN($M29))),10 *LEN($M29)+1,LEN($M29)))))</f>
@@ -9148,7 +9148,7 @@
         <v>0</v>
       </c>
       <c r="X29" s="0" t="str">
-        <f aca="true">IF(O29="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S29)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O29="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S29)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -9187,8 +9187,8 @@
         <v/>
       </c>
       <c r="U30" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V30" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M30,",",REPT(" ",LEN($M30))), 0 *LEN($M30)+1,LEN($M30))) = "", "0", TRIM(MID(SUBSTITUTE($M30,",",REPT(" ",LEN($M30))),0 *LEN($M30)+1,LEN($M30))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M30,",",REPT(" ",LEN($M30))), 1 *LEN($M30)+1,LEN($M30))) = "", "0", TRIM(MID(SUBSTITUTE($M30,",",REPT(" ",LEN($M30))),1 *LEN($M30)+1,LEN($M30))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M30,",",REPT(" ",LEN($M30))), 2 *LEN($M30)+1,LEN($M30))) = "", "0", TRIM(MID(SUBSTITUTE($M30,",",REPT(" ",LEN($M30))),2 *LEN($M30)+1,LEN($M30))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M30,",",REPT(" ",LEN($M30))), 3 *LEN($M30)+1,LEN($M30))) = "", "0", TRIM(MID(SUBSTITUTE($M30,",",REPT(" ",LEN($M30))),3 *LEN($M30)+1,LEN($M30))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M30,",",REPT(" ",LEN($M30))), 4 *LEN($M30)+1,LEN($M30))) = "", "0", TRIM(MID(SUBSTITUTE($M30,",",REPT(" ",LEN($M30))),4 *LEN($M30)+1,LEN($M30))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M30,",",REPT(" ",LEN($M30))), 5 *LEN($M30)+1,LEN($M30))) = "", "0", TRIM(MID(SUBSTITUTE($M30,",",REPT(" ",LEN($M30))),5 *LEN($M30)+1,LEN($M30))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M30,",",REPT(" ",LEN($M30))), 6 *LEN($M30)+1,LEN($M30))) = "", "0", TRIM(MID(SUBSTITUTE($M30,",",REPT(" ",LEN($M30))),6 *LEN($M30)+1,LEN($M30))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M30,",",REPT(" ",LEN($M30))), 7 *LEN($M30)+1,LEN($M30))) = "", "0", TRIM(MID(SUBSTITUTE($M30,",",REPT(" ",LEN($M30))),7 *LEN($M30)+1,LEN($M30))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M30,",",REPT(" ",LEN($M30))), 8 *LEN($M30)+1,LEN($M30))) = "", "0", TRIM(MID(SUBSTITUTE($M30,",",REPT(" ",LEN($M30))),8 *LEN($M30)+1,LEN($M30))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M30,",",REPT(" ",LEN($M30))), 9 *LEN($M30)+1,LEN($M30))) = "", "0", TRIM(MID(SUBSTITUTE($M30,",",REPT(" ",LEN($M30))),9 *LEN($M30)+1,LEN($M30))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M30,",",REPT(" ",LEN($M30))), 10 *LEN($M30)+1,LEN($M30))) = "", "0", TRIM(MID(SUBSTITUTE($M30,",",REPT(" ",LEN($M30))),10 *LEN($M30)+1,LEN($M30)))))</f>
@@ -9199,7 +9199,7 @@
         <v>0</v>
       </c>
       <c r="X30" s="0" t="str">
-        <f aca="true">IF(O30="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S30)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O30="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S30)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -9238,8 +9238,8 @@
         <v/>
       </c>
       <c r="U31" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V31" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M31,",",REPT(" ",LEN($M31))), 0 *LEN($M31)+1,LEN($M31))) = "", "0", TRIM(MID(SUBSTITUTE($M31,",",REPT(" ",LEN($M31))),0 *LEN($M31)+1,LEN($M31))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M31,",",REPT(" ",LEN($M31))), 1 *LEN($M31)+1,LEN($M31))) = "", "0", TRIM(MID(SUBSTITUTE($M31,",",REPT(" ",LEN($M31))),1 *LEN($M31)+1,LEN($M31))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M31,",",REPT(" ",LEN($M31))), 2 *LEN($M31)+1,LEN($M31))) = "", "0", TRIM(MID(SUBSTITUTE($M31,",",REPT(" ",LEN($M31))),2 *LEN($M31)+1,LEN($M31))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M31,",",REPT(" ",LEN($M31))), 3 *LEN($M31)+1,LEN($M31))) = "", "0", TRIM(MID(SUBSTITUTE($M31,",",REPT(" ",LEN($M31))),3 *LEN($M31)+1,LEN($M31))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M31,",",REPT(" ",LEN($M31))), 4 *LEN($M31)+1,LEN($M31))) = "", "0", TRIM(MID(SUBSTITUTE($M31,",",REPT(" ",LEN($M31))),4 *LEN($M31)+1,LEN($M31))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M31,",",REPT(" ",LEN($M31))), 5 *LEN($M31)+1,LEN($M31))) = "", "0", TRIM(MID(SUBSTITUTE($M31,",",REPT(" ",LEN($M31))),5 *LEN($M31)+1,LEN($M31))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M31,",",REPT(" ",LEN($M31))), 6 *LEN($M31)+1,LEN($M31))) = "", "0", TRIM(MID(SUBSTITUTE($M31,",",REPT(" ",LEN($M31))),6 *LEN($M31)+1,LEN($M31))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M31,",",REPT(" ",LEN($M31))), 7 *LEN($M31)+1,LEN($M31))) = "", "0", TRIM(MID(SUBSTITUTE($M31,",",REPT(" ",LEN($M31))),7 *LEN($M31)+1,LEN($M31))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M31,",",REPT(" ",LEN($M31))), 8 *LEN($M31)+1,LEN($M31))) = "", "0", TRIM(MID(SUBSTITUTE($M31,",",REPT(" ",LEN($M31))),8 *LEN($M31)+1,LEN($M31))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M31,",",REPT(" ",LEN($M31))), 9 *LEN($M31)+1,LEN($M31))) = "", "0", TRIM(MID(SUBSTITUTE($M31,",",REPT(" ",LEN($M31))),9 *LEN($M31)+1,LEN($M31))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M31,",",REPT(" ",LEN($M31))), 10 *LEN($M31)+1,LEN($M31))) = "", "0", TRIM(MID(SUBSTITUTE($M31,",",REPT(" ",LEN($M31))),10 *LEN($M31)+1,LEN($M31)))))</f>
@@ -9250,7 +9250,7 @@
         <v>0</v>
       </c>
       <c r="X31" s="0" t="str">
-        <f aca="true">IF(O31="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S31)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O31="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S31)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -9289,8 +9289,8 @@
         <v/>
       </c>
       <c r="U32" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V32" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M32,",",REPT(" ",LEN($M32))), 0 *LEN($M32)+1,LEN($M32))) = "", "0", TRIM(MID(SUBSTITUTE($M32,",",REPT(" ",LEN($M32))),0 *LEN($M32)+1,LEN($M32))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M32,",",REPT(" ",LEN($M32))), 1 *LEN($M32)+1,LEN($M32))) = "", "0", TRIM(MID(SUBSTITUTE($M32,",",REPT(" ",LEN($M32))),1 *LEN($M32)+1,LEN($M32))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M32,",",REPT(" ",LEN($M32))), 2 *LEN($M32)+1,LEN($M32))) = "", "0", TRIM(MID(SUBSTITUTE($M32,",",REPT(" ",LEN($M32))),2 *LEN($M32)+1,LEN($M32))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M32,",",REPT(" ",LEN($M32))), 3 *LEN($M32)+1,LEN($M32))) = "", "0", TRIM(MID(SUBSTITUTE($M32,",",REPT(" ",LEN($M32))),3 *LEN($M32)+1,LEN($M32))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M32,",",REPT(" ",LEN($M32))), 4 *LEN($M32)+1,LEN($M32))) = "", "0", TRIM(MID(SUBSTITUTE($M32,",",REPT(" ",LEN($M32))),4 *LEN($M32)+1,LEN($M32))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M32,",",REPT(" ",LEN($M32))), 5 *LEN($M32)+1,LEN($M32))) = "", "0", TRIM(MID(SUBSTITUTE($M32,",",REPT(" ",LEN($M32))),5 *LEN($M32)+1,LEN($M32))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M32,",",REPT(" ",LEN($M32))), 6 *LEN($M32)+1,LEN($M32))) = "", "0", TRIM(MID(SUBSTITUTE($M32,",",REPT(" ",LEN($M32))),6 *LEN($M32)+1,LEN($M32))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M32,",",REPT(" ",LEN($M32))), 7 *LEN($M32)+1,LEN($M32))) = "", "0", TRIM(MID(SUBSTITUTE($M32,",",REPT(" ",LEN($M32))),7 *LEN($M32)+1,LEN($M32))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M32,",",REPT(" ",LEN($M32))), 8 *LEN($M32)+1,LEN($M32))) = "", "0", TRIM(MID(SUBSTITUTE($M32,",",REPT(" ",LEN($M32))),8 *LEN($M32)+1,LEN($M32))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M32,",",REPT(" ",LEN($M32))), 9 *LEN($M32)+1,LEN($M32))) = "", "0", TRIM(MID(SUBSTITUTE($M32,",",REPT(" ",LEN($M32))),9 *LEN($M32)+1,LEN($M32))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M32,",",REPT(" ",LEN($M32))), 10 *LEN($M32)+1,LEN($M32))) = "", "0", TRIM(MID(SUBSTITUTE($M32,",",REPT(" ",LEN($M32))),10 *LEN($M32)+1,LEN($M32)))))</f>
@@ -9301,7 +9301,7 @@
         <v>0</v>
       </c>
       <c r="X32" s="0" t="str">
-        <f aca="true">IF(O32="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S32)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O32="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S32)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -9340,8 +9340,8 @@
         <v/>
       </c>
       <c r="U33" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V33" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M33,",",REPT(" ",LEN($M33))), 0 *LEN($M33)+1,LEN($M33))) = "", "0", TRIM(MID(SUBSTITUTE($M33,",",REPT(" ",LEN($M33))),0 *LEN($M33)+1,LEN($M33))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M33,",",REPT(" ",LEN($M33))), 1 *LEN($M33)+1,LEN($M33))) = "", "0", TRIM(MID(SUBSTITUTE($M33,",",REPT(" ",LEN($M33))),1 *LEN($M33)+1,LEN($M33))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M33,",",REPT(" ",LEN($M33))), 2 *LEN($M33)+1,LEN($M33))) = "", "0", TRIM(MID(SUBSTITUTE($M33,",",REPT(" ",LEN($M33))),2 *LEN($M33)+1,LEN($M33))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M33,",",REPT(" ",LEN($M33))), 3 *LEN($M33)+1,LEN($M33))) = "", "0", TRIM(MID(SUBSTITUTE($M33,",",REPT(" ",LEN($M33))),3 *LEN($M33)+1,LEN($M33))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M33,",",REPT(" ",LEN($M33))), 4 *LEN($M33)+1,LEN($M33))) = "", "0", TRIM(MID(SUBSTITUTE($M33,",",REPT(" ",LEN($M33))),4 *LEN($M33)+1,LEN($M33))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M33,",",REPT(" ",LEN($M33))), 5 *LEN($M33)+1,LEN($M33))) = "", "0", TRIM(MID(SUBSTITUTE($M33,",",REPT(" ",LEN($M33))),5 *LEN($M33)+1,LEN($M33))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M33,",",REPT(" ",LEN($M33))), 6 *LEN($M33)+1,LEN($M33))) = "", "0", TRIM(MID(SUBSTITUTE($M33,",",REPT(" ",LEN($M33))),6 *LEN($M33)+1,LEN($M33))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M33,",",REPT(" ",LEN($M33))), 7 *LEN($M33)+1,LEN($M33))) = "", "0", TRIM(MID(SUBSTITUTE($M33,",",REPT(" ",LEN($M33))),7 *LEN($M33)+1,LEN($M33))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M33,",",REPT(" ",LEN($M33))), 8 *LEN($M33)+1,LEN($M33))) = "", "0", TRIM(MID(SUBSTITUTE($M33,",",REPT(" ",LEN($M33))),8 *LEN($M33)+1,LEN($M33))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M33,",",REPT(" ",LEN($M33))), 9 *LEN($M33)+1,LEN($M33))) = "", "0", TRIM(MID(SUBSTITUTE($M33,",",REPT(" ",LEN($M33))),9 *LEN($M33)+1,LEN($M33))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M33,",",REPT(" ",LEN($M33))), 10 *LEN($M33)+1,LEN($M33))) = "", "0", TRIM(MID(SUBSTITUTE($M33,",",REPT(" ",LEN($M33))),10 *LEN($M33)+1,LEN($M33)))))</f>
@@ -9352,7 +9352,7 @@
         <v>0</v>
       </c>
       <c r="X33" s="0" t="str">
-        <f aca="true">IF(O33="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S33)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O33="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S33)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -9391,8 +9391,8 @@
         <v/>
       </c>
       <c r="U34" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V34" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M34,",",REPT(" ",LEN($M34))), 0 *LEN($M34)+1,LEN($M34))) = "", "0", TRIM(MID(SUBSTITUTE($M34,",",REPT(" ",LEN($M34))),0 *LEN($M34)+1,LEN($M34))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M34,",",REPT(" ",LEN($M34))), 1 *LEN($M34)+1,LEN($M34))) = "", "0", TRIM(MID(SUBSTITUTE($M34,",",REPT(" ",LEN($M34))),1 *LEN($M34)+1,LEN($M34))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M34,",",REPT(" ",LEN($M34))), 2 *LEN($M34)+1,LEN($M34))) = "", "0", TRIM(MID(SUBSTITUTE($M34,",",REPT(" ",LEN($M34))),2 *LEN($M34)+1,LEN($M34))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M34,",",REPT(" ",LEN($M34))), 3 *LEN($M34)+1,LEN($M34))) = "", "0", TRIM(MID(SUBSTITUTE($M34,",",REPT(" ",LEN($M34))),3 *LEN($M34)+1,LEN($M34))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M34,",",REPT(" ",LEN($M34))), 4 *LEN($M34)+1,LEN($M34))) = "", "0", TRIM(MID(SUBSTITUTE($M34,",",REPT(" ",LEN($M34))),4 *LEN($M34)+1,LEN($M34))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M34,",",REPT(" ",LEN($M34))), 5 *LEN($M34)+1,LEN($M34))) = "", "0", TRIM(MID(SUBSTITUTE($M34,",",REPT(" ",LEN($M34))),5 *LEN($M34)+1,LEN($M34))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M34,",",REPT(" ",LEN($M34))), 6 *LEN($M34)+1,LEN($M34))) = "", "0", TRIM(MID(SUBSTITUTE($M34,",",REPT(" ",LEN($M34))),6 *LEN($M34)+1,LEN($M34))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M34,",",REPT(" ",LEN($M34))), 7 *LEN($M34)+1,LEN($M34))) = "", "0", TRIM(MID(SUBSTITUTE($M34,",",REPT(" ",LEN($M34))),7 *LEN($M34)+1,LEN($M34))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M34,",",REPT(" ",LEN($M34))), 8 *LEN($M34)+1,LEN($M34))) = "", "0", TRIM(MID(SUBSTITUTE($M34,",",REPT(" ",LEN($M34))),8 *LEN($M34)+1,LEN($M34))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M34,",",REPT(" ",LEN($M34))), 9 *LEN($M34)+1,LEN($M34))) = "", "0", TRIM(MID(SUBSTITUTE($M34,",",REPT(" ",LEN($M34))),9 *LEN($M34)+1,LEN($M34))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M34,",",REPT(" ",LEN($M34))), 10 *LEN($M34)+1,LEN($M34))) = "", "0", TRIM(MID(SUBSTITUTE($M34,",",REPT(" ",LEN($M34))),10 *LEN($M34)+1,LEN($M34)))))</f>
@@ -9403,7 +9403,7 @@
         <v>0</v>
       </c>
       <c r="X34" s="0" t="str">
-        <f aca="true">IF(O34="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S34)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O34="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S34)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -9442,8 +9442,8 @@
         <v/>
       </c>
       <c r="U35" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V35" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M35,",",REPT(" ",LEN($M35))), 0 *LEN($M35)+1,LEN($M35))) = "", "0", TRIM(MID(SUBSTITUTE($M35,",",REPT(" ",LEN($M35))),0 *LEN($M35)+1,LEN($M35))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M35,",",REPT(" ",LEN($M35))), 1 *LEN($M35)+1,LEN($M35))) = "", "0", TRIM(MID(SUBSTITUTE($M35,",",REPT(" ",LEN($M35))),1 *LEN($M35)+1,LEN($M35))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M35,",",REPT(" ",LEN($M35))), 2 *LEN($M35)+1,LEN($M35))) = "", "0", TRIM(MID(SUBSTITUTE($M35,",",REPT(" ",LEN($M35))),2 *LEN($M35)+1,LEN($M35))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M35,",",REPT(" ",LEN($M35))), 3 *LEN($M35)+1,LEN($M35))) = "", "0", TRIM(MID(SUBSTITUTE($M35,",",REPT(" ",LEN($M35))),3 *LEN($M35)+1,LEN($M35))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M35,",",REPT(" ",LEN($M35))), 4 *LEN($M35)+1,LEN($M35))) = "", "0", TRIM(MID(SUBSTITUTE($M35,",",REPT(" ",LEN($M35))),4 *LEN($M35)+1,LEN($M35))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M35,",",REPT(" ",LEN($M35))), 5 *LEN($M35)+1,LEN($M35))) = "", "0", TRIM(MID(SUBSTITUTE($M35,",",REPT(" ",LEN($M35))),5 *LEN($M35)+1,LEN($M35))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M35,",",REPT(" ",LEN($M35))), 6 *LEN($M35)+1,LEN($M35))) = "", "0", TRIM(MID(SUBSTITUTE($M35,",",REPT(" ",LEN($M35))),6 *LEN($M35)+1,LEN($M35))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M35,",",REPT(" ",LEN($M35))), 7 *LEN($M35)+1,LEN($M35))) = "", "0", TRIM(MID(SUBSTITUTE($M35,",",REPT(" ",LEN($M35))),7 *LEN($M35)+1,LEN($M35))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M35,",",REPT(" ",LEN($M35))), 8 *LEN($M35)+1,LEN($M35))) = "", "0", TRIM(MID(SUBSTITUTE($M35,",",REPT(" ",LEN($M35))),8 *LEN($M35)+1,LEN($M35))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M35,",",REPT(" ",LEN($M35))), 9 *LEN($M35)+1,LEN($M35))) = "", "0", TRIM(MID(SUBSTITUTE($M35,",",REPT(" ",LEN($M35))),9 *LEN($M35)+1,LEN($M35))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M35,",",REPT(" ",LEN($M35))), 10 *LEN($M35)+1,LEN($M35))) = "", "0", TRIM(MID(SUBSTITUTE($M35,",",REPT(" ",LEN($M35))),10 *LEN($M35)+1,LEN($M35)))))</f>
@@ -9454,7 +9454,7 @@
         <v>0</v>
       </c>
       <c r="X35" s="0" t="str">
-        <f aca="true">IF(O35="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S35)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O35="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S35)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -9493,8 +9493,8 @@
         <v/>
       </c>
       <c r="U36" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V36" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M36,",",REPT(" ",LEN($M36))), 0 *LEN($M36)+1,LEN($M36))) = "", "0", TRIM(MID(SUBSTITUTE($M36,",",REPT(" ",LEN($M36))),0 *LEN($M36)+1,LEN($M36))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M36,",",REPT(" ",LEN($M36))), 1 *LEN($M36)+1,LEN($M36))) = "", "0", TRIM(MID(SUBSTITUTE($M36,",",REPT(" ",LEN($M36))),1 *LEN($M36)+1,LEN($M36))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M36,",",REPT(" ",LEN($M36))), 2 *LEN($M36)+1,LEN($M36))) = "", "0", TRIM(MID(SUBSTITUTE($M36,",",REPT(" ",LEN($M36))),2 *LEN($M36)+1,LEN($M36))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M36,",",REPT(" ",LEN($M36))), 3 *LEN($M36)+1,LEN($M36))) = "", "0", TRIM(MID(SUBSTITUTE($M36,",",REPT(" ",LEN($M36))),3 *LEN($M36)+1,LEN($M36))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M36,",",REPT(" ",LEN($M36))), 4 *LEN($M36)+1,LEN($M36))) = "", "0", TRIM(MID(SUBSTITUTE($M36,",",REPT(" ",LEN($M36))),4 *LEN($M36)+1,LEN($M36))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M36,",",REPT(" ",LEN($M36))), 5 *LEN($M36)+1,LEN($M36))) = "", "0", TRIM(MID(SUBSTITUTE($M36,",",REPT(" ",LEN($M36))),5 *LEN($M36)+1,LEN($M36))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M36,",",REPT(" ",LEN($M36))), 6 *LEN($M36)+1,LEN($M36))) = "", "0", TRIM(MID(SUBSTITUTE($M36,",",REPT(" ",LEN($M36))),6 *LEN($M36)+1,LEN($M36))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M36,",",REPT(" ",LEN($M36))), 7 *LEN($M36)+1,LEN($M36))) = "", "0", TRIM(MID(SUBSTITUTE($M36,",",REPT(" ",LEN($M36))),7 *LEN($M36)+1,LEN($M36))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M36,",",REPT(" ",LEN($M36))), 8 *LEN($M36)+1,LEN($M36))) = "", "0", TRIM(MID(SUBSTITUTE($M36,",",REPT(" ",LEN($M36))),8 *LEN($M36)+1,LEN($M36))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M36,",",REPT(" ",LEN($M36))), 9 *LEN($M36)+1,LEN($M36))) = "", "0", TRIM(MID(SUBSTITUTE($M36,",",REPT(" ",LEN($M36))),9 *LEN($M36)+1,LEN($M36))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M36,",",REPT(" ",LEN($M36))), 10 *LEN($M36)+1,LEN($M36))) = "", "0", TRIM(MID(SUBSTITUTE($M36,",",REPT(" ",LEN($M36))),10 *LEN($M36)+1,LEN($M36)))))</f>
@@ -9505,7 +9505,7 @@
         <v>0</v>
       </c>
       <c r="X36" s="0" t="str">
-        <f aca="true">IF(O36="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S36)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O36="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S36)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -9544,8 +9544,8 @@
         <v/>
       </c>
       <c r="U37" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V37" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M37,",",REPT(" ",LEN($M37))), 0 *LEN($M37)+1,LEN($M37))) = "", "0", TRIM(MID(SUBSTITUTE($M37,",",REPT(" ",LEN($M37))),0 *LEN($M37)+1,LEN($M37))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M37,",",REPT(" ",LEN($M37))), 1 *LEN($M37)+1,LEN($M37))) = "", "0", TRIM(MID(SUBSTITUTE($M37,",",REPT(" ",LEN($M37))),1 *LEN($M37)+1,LEN($M37))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M37,",",REPT(" ",LEN($M37))), 2 *LEN($M37)+1,LEN($M37))) = "", "0", TRIM(MID(SUBSTITUTE($M37,",",REPT(" ",LEN($M37))),2 *LEN($M37)+1,LEN($M37))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M37,",",REPT(" ",LEN($M37))), 3 *LEN($M37)+1,LEN($M37))) = "", "0", TRIM(MID(SUBSTITUTE($M37,",",REPT(" ",LEN($M37))),3 *LEN($M37)+1,LEN($M37))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M37,",",REPT(" ",LEN($M37))), 4 *LEN($M37)+1,LEN($M37))) = "", "0", TRIM(MID(SUBSTITUTE($M37,",",REPT(" ",LEN($M37))),4 *LEN($M37)+1,LEN($M37))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M37,",",REPT(" ",LEN($M37))), 5 *LEN($M37)+1,LEN($M37))) = "", "0", TRIM(MID(SUBSTITUTE($M37,",",REPT(" ",LEN($M37))),5 *LEN($M37)+1,LEN($M37))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M37,",",REPT(" ",LEN($M37))), 6 *LEN($M37)+1,LEN($M37))) = "", "0", TRIM(MID(SUBSTITUTE($M37,",",REPT(" ",LEN($M37))),6 *LEN($M37)+1,LEN($M37))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M37,",",REPT(" ",LEN($M37))), 7 *LEN($M37)+1,LEN($M37))) = "", "0", TRIM(MID(SUBSTITUTE($M37,",",REPT(" ",LEN($M37))),7 *LEN($M37)+1,LEN($M37))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M37,",",REPT(" ",LEN($M37))), 8 *LEN($M37)+1,LEN($M37))) = "", "0", TRIM(MID(SUBSTITUTE($M37,",",REPT(" ",LEN($M37))),8 *LEN($M37)+1,LEN($M37))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M37,",",REPT(" ",LEN($M37))), 9 *LEN($M37)+1,LEN($M37))) = "", "0", TRIM(MID(SUBSTITUTE($M37,",",REPT(" ",LEN($M37))),9 *LEN($M37)+1,LEN($M37))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M37,",",REPT(" ",LEN($M37))), 10 *LEN($M37)+1,LEN($M37))) = "", "0", TRIM(MID(SUBSTITUTE($M37,",",REPT(" ",LEN($M37))),10 *LEN($M37)+1,LEN($M37)))))</f>
@@ -9556,7 +9556,7 @@
         <v>0</v>
       </c>
       <c r="X37" s="0" t="str">
-        <f aca="true">IF(O37="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S37)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O37="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S37)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -9595,8 +9595,8 @@
         <v/>
       </c>
       <c r="U38" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V38" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M38,",",REPT(" ",LEN($M38))), 0 *LEN($M38)+1,LEN($M38))) = "", "0", TRIM(MID(SUBSTITUTE($M38,",",REPT(" ",LEN($M38))),0 *LEN($M38)+1,LEN($M38))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M38,",",REPT(" ",LEN($M38))), 1 *LEN($M38)+1,LEN($M38))) = "", "0", TRIM(MID(SUBSTITUTE($M38,",",REPT(" ",LEN($M38))),1 *LEN($M38)+1,LEN($M38))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M38,",",REPT(" ",LEN($M38))), 2 *LEN($M38)+1,LEN($M38))) = "", "0", TRIM(MID(SUBSTITUTE($M38,",",REPT(" ",LEN($M38))),2 *LEN($M38)+1,LEN($M38))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M38,",",REPT(" ",LEN($M38))), 3 *LEN($M38)+1,LEN($M38))) = "", "0", TRIM(MID(SUBSTITUTE($M38,",",REPT(" ",LEN($M38))),3 *LEN($M38)+1,LEN($M38))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M38,",",REPT(" ",LEN($M38))), 4 *LEN($M38)+1,LEN($M38))) = "", "0", TRIM(MID(SUBSTITUTE($M38,",",REPT(" ",LEN($M38))),4 *LEN($M38)+1,LEN($M38))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M38,",",REPT(" ",LEN($M38))), 5 *LEN($M38)+1,LEN($M38))) = "", "0", TRIM(MID(SUBSTITUTE($M38,",",REPT(" ",LEN($M38))),5 *LEN($M38)+1,LEN($M38))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M38,",",REPT(" ",LEN($M38))), 6 *LEN($M38)+1,LEN($M38))) = "", "0", TRIM(MID(SUBSTITUTE($M38,",",REPT(" ",LEN($M38))),6 *LEN($M38)+1,LEN($M38))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M38,",",REPT(" ",LEN($M38))), 7 *LEN($M38)+1,LEN($M38))) = "", "0", TRIM(MID(SUBSTITUTE($M38,",",REPT(" ",LEN($M38))),7 *LEN($M38)+1,LEN($M38))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M38,",",REPT(" ",LEN($M38))), 8 *LEN($M38)+1,LEN($M38))) = "", "0", TRIM(MID(SUBSTITUTE($M38,",",REPT(" ",LEN($M38))),8 *LEN($M38)+1,LEN($M38))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M38,",",REPT(" ",LEN($M38))), 9 *LEN($M38)+1,LEN($M38))) = "", "0", TRIM(MID(SUBSTITUTE($M38,",",REPT(" ",LEN($M38))),9 *LEN($M38)+1,LEN($M38))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M38,",",REPT(" ",LEN($M38))), 10 *LEN($M38)+1,LEN($M38))) = "", "0", TRIM(MID(SUBSTITUTE($M38,",",REPT(" ",LEN($M38))),10 *LEN($M38)+1,LEN($M38)))))</f>
@@ -9607,7 +9607,7 @@
         <v>0</v>
       </c>
       <c r="X38" s="0" t="str">
-        <f aca="true">IF(O38="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S38)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O38="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S38)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -9646,8 +9646,8 @@
         <v/>
       </c>
       <c r="U39" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V39" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M39,",",REPT(" ",LEN($M39))), 0 *LEN($M39)+1,LEN($M39))) = "", "0", TRIM(MID(SUBSTITUTE($M39,",",REPT(" ",LEN($M39))),0 *LEN($M39)+1,LEN($M39))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M39,",",REPT(" ",LEN($M39))), 1 *LEN($M39)+1,LEN($M39))) = "", "0", TRIM(MID(SUBSTITUTE($M39,",",REPT(" ",LEN($M39))),1 *LEN($M39)+1,LEN($M39))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M39,",",REPT(" ",LEN($M39))), 2 *LEN($M39)+1,LEN($M39))) = "", "0", TRIM(MID(SUBSTITUTE($M39,",",REPT(" ",LEN($M39))),2 *LEN($M39)+1,LEN($M39))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M39,",",REPT(" ",LEN($M39))), 3 *LEN($M39)+1,LEN($M39))) = "", "0", TRIM(MID(SUBSTITUTE($M39,",",REPT(" ",LEN($M39))),3 *LEN($M39)+1,LEN($M39))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M39,",",REPT(" ",LEN($M39))), 4 *LEN($M39)+1,LEN($M39))) = "", "0", TRIM(MID(SUBSTITUTE($M39,",",REPT(" ",LEN($M39))),4 *LEN($M39)+1,LEN($M39))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M39,",",REPT(" ",LEN($M39))), 5 *LEN($M39)+1,LEN($M39))) = "", "0", TRIM(MID(SUBSTITUTE($M39,",",REPT(" ",LEN($M39))),5 *LEN($M39)+1,LEN($M39))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M39,",",REPT(" ",LEN($M39))), 6 *LEN($M39)+1,LEN($M39))) = "", "0", TRIM(MID(SUBSTITUTE($M39,",",REPT(" ",LEN($M39))),6 *LEN($M39)+1,LEN($M39))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M39,",",REPT(" ",LEN($M39))), 7 *LEN($M39)+1,LEN($M39))) = "", "0", TRIM(MID(SUBSTITUTE($M39,",",REPT(" ",LEN($M39))),7 *LEN($M39)+1,LEN($M39))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M39,",",REPT(" ",LEN($M39))), 8 *LEN($M39)+1,LEN($M39))) = "", "0", TRIM(MID(SUBSTITUTE($M39,",",REPT(" ",LEN($M39))),8 *LEN($M39)+1,LEN($M39))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M39,",",REPT(" ",LEN($M39))), 9 *LEN($M39)+1,LEN($M39))) = "", "0", TRIM(MID(SUBSTITUTE($M39,",",REPT(" ",LEN($M39))),9 *LEN($M39)+1,LEN($M39))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M39,",",REPT(" ",LEN($M39))), 10 *LEN($M39)+1,LEN($M39))) = "", "0", TRIM(MID(SUBSTITUTE($M39,",",REPT(" ",LEN($M39))),10 *LEN($M39)+1,LEN($M39)))))</f>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="X39" s="0" t="str">
-        <f aca="true">IF(O39="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S39)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O39="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S39)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -9697,8 +9697,8 @@
         <v/>
       </c>
       <c r="U40" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V40" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M40,",",REPT(" ",LEN($M40))), 0 *LEN($M40)+1,LEN($M40))) = "", "0", TRIM(MID(SUBSTITUTE($M40,",",REPT(" ",LEN($M40))),0 *LEN($M40)+1,LEN($M40))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M40,",",REPT(" ",LEN($M40))), 1 *LEN($M40)+1,LEN($M40))) = "", "0", TRIM(MID(SUBSTITUTE($M40,",",REPT(" ",LEN($M40))),1 *LEN($M40)+1,LEN($M40))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M40,",",REPT(" ",LEN($M40))), 2 *LEN($M40)+1,LEN($M40))) = "", "0", TRIM(MID(SUBSTITUTE($M40,",",REPT(" ",LEN($M40))),2 *LEN($M40)+1,LEN($M40))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M40,",",REPT(" ",LEN($M40))), 3 *LEN($M40)+1,LEN($M40))) = "", "0", TRIM(MID(SUBSTITUTE($M40,",",REPT(" ",LEN($M40))),3 *LEN($M40)+1,LEN($M40))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M40,",",REPT(" ",LEN($M40))), 4 *LEN($M40)+1,LEN($M40))) = "", "0", TRIM(MID(SUBSTITUTE($M40,",",REPT(" ",LEN($M40))),4 *LEN($M40)+1,LEN($M40))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M40,",",REPT(" ",LEN($M40))), 5 *LEN($M40)+1,LEN($M40))) = "", "0", TRIM(MID(SUBSTITUTE($M40,",",REPT(" ",LEN($M40))),5 *LEN($M40)+1,LEN($M40))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M40,",",REPT(" ",LEN($M40))), 6 *LEN($M40)+1,LEN($M40))) = "", "0", TRIM(MID(SUBSTITUTE($M40,",",REPT(" ",LEN($M40))),6 *LEN($M40)+1,LEN($M40))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M40,",",REPT(" ",LEN($M40))), 7 *LEN($M40)+1,LEN($M40))) = "", "0", TRIM(MID(SUBSTITUTE($M40,",",REPT(" ",LEN($M40))),7 *LEN($M40)+1,LEN($M40))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M40,",",REPT(" ",LEN($M40))), 8 *LEN($M40)+1,LEN($M40))) = "", "0", TRIM(MID(SUBSTITUTE($M40,",",REPT(" ",LEN($M40))),8 *LEN($M40)+1,LEN($M40))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M40,",",REPT(" ",LEN($M40))), 9 *LEN($M40)+1,LEN($M40))) = "", "0", TRIM(MID(SUBSTITUTE($M40,",",REPT(" ",LEN($M40))),9 *LEN($M40)+1,LEN($M40))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M40,",",REPT(" ",LEN($M40))), 10 *LEN($M40)+1,LEN($M40))) = "", "0", TRIM(MID(SUBSTITUTE($M40,",",REPT(" ",LEN($M40))),10 *LEN($M40)+1,LEN($M40)))))</f>
@@ -9709,7 +9709,7 @@
         <v>0</v>
       </c>
       <c r="X40" s="0" t="str">
-        <f aca="true">IF(O40="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S40)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O40="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S40)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -9748,8 +9748,8 @@
         <v/>
       </c>
       <c r="U41" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V41" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M41,",",REPT(" ",LEN($M41))), 0 *LEN($M41)+1,LEN($M41))) = "", "0", TRIM(MID(SUBSTITUTE($M41,",",REPT(" ",LEN($M41))),0 *LEN($M41)+1,LEN($M41))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M41,",",REPT(" ",LEN($M41))), 1 *LEN($M41)+1,LEN($M41))) = "", "0", TRIM(MID(SUBSTITUTE($M41,",",REPT(" ",LEN($M41))),1 *LEN($M41)+1,LEN($M41))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M41,",",REPT(" ",LEN($M41))), 2 *LEN($M41)+1,LEN($M41))) = "", "0", TRIM(MID(SUBSTITUTE($M41,",",REPT(" ",LEN($M41))),2 *LEN($M41)+1,LEN($M41))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M41,",",REPT(" ",LEN($M41))), 3 *LEN($M41)+1,LEN($M41))) = "", "0", TRIM(MID(SUBSTITUTE($M41,",",REPT(" ",LEN($M41))),3 *LEN($M41)+1,LEN($M41))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M41,",",REPT(" ",LEN($M41))), 4 *LEN($M41)+1,LEN($M41))) = "", "0", TRIM(MID(SUBSTITUTE($M41,",",REPT(" ",LEN($M41))),4 *LEN($M41)+1,LEN($M41))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M41,",",REPT(" ",LEN($M41))), 5 *LEN($M41)+1,LEN($M41))) = "", "0", TRIM(MID(SUBSTITUTE($M41,",",REPT(" ",LEN($M41))),5 *LEN($M41)+1,LEN($M41))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M41,",",REPT(" ",LEN($M41))), 6 *LEN($M41)+1,LEN($M41))) = "", "0", TRIM(MID(SUBSTITUTE($M41,",",REPT(" ",LEN($M41))),6 *LEN($M41)+1,LEN($M41))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M41,",",REPT(" ",LEN($M41))), 7 *LEN($M41)+1,LEN($M41))) = "", "0", TRIM(MID(SUBSTITUTE($M41,",",REPT(" ",LEN($M41))),7 *LEN($M41)+1,LEN($M41))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M41,",",REPT(" ",LEN($M41))), 8 *LEN($M41)+1,LEN($M41))) = "", "0", TRIM(MID(SUBSTITUTE($M41,",",REPT(" ",LEN($M41))),8 *LEN($M41)+1,LEN($M41))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M41,",",REPT(" ",LEN($M41))), 9 *LEN($M41)+1,LEN($M41))) = "", "0", TRIM(MID(SUBSTITUTE($M41,",",REPT(" ",LEN($M41))),9 *LEN($M41)+1,LEN($M41))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M41,",",REPT(" ",LEN($M41))), 10 *LEN($M41)+1,LEN($M41))) = "", "0", TRIM(MID(SUBSTITUTE($M41,",",REPT(" ",LEN($M41))),10 *LEN($M41)+1,LEN($M41)))))</f>
@@ -9760,7 +9760,7 @@
         <v>0</v>
       </c>
       <c r="X41" s="0" t="str">
-        <f aca="true">IF(O41="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S41)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O41="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S41)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -9799,8 +9799,8 @@
         <v/>
       </c>
       <c r="U42" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V42" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M42,",",REPT(" ",LEN($M42))), 0 *LEN($M42)+1,LEN($M42))) = "", "0", TRIM(MID(SUBSTITUTE($M42,",",REPT(" ",LEN($M42))),0 *LEN($M42)+1,LEN($M42))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M42,",",REPT(" ",LEN($M42))), 1 *LEN($M42)+1,LEN($M42))) = "", "0", TRIM(MID(SUBSTITUTE($M42,",",REPT(" ",LEN($M42))),1 *LEN($M42)+1,LEN($M42))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M42,",",REPT(" ",LEN($M42))), 2 *LEN($M42)+1,LEN($M42))) = "", "0", TRIM(MID(SUBSTITUTE($M42,",",REPT(" ",LEN($M42))),2 *LEN($M42)+1,LEN($M42))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M42,",",REPT(" ",LEN($M42))), 3 *LEN($M42)+1,LEN($M42))) = "", "0", TRIM(MID(SUBSTITUTE($M42,",",REPT(" ",LEN($M42))),3 *LEN($M42)+1,LEN($M42))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M42,",",REPT(" ",LEN($M42))), 4 *LEN($M42)+1,LEN($M42))) = "", "0", TRIM(MID(SUBSTITUTE($M42,",",REPT(" ",LEN($M42))),4 *LEN($M42)+1,LEN($M42))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M42,",",REPT(" ",LEN($M42))), 5 *LEN($M42)+1,LEN($M42))) = "", "0", TRIM(MID(SUBSTITUTE($M42,",",REPT(" ",LEN($M42))),5 *LEN($M42)+1,LEN($M42))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M42,",",REPT(" ",LEN($M42))), 6 *LEN($M42)+1,LEN($M42))) = "", "0", TRIM(MID(SUBSTITUTE($M42,",",REPT(" ",LEN($M42))),6 *LEN($M42)+1,LEN($M42))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M42,",",REPT(" ",LEN($M42))), 7 *LEN($M42)+1,LEN($M42))) = "", "0", TRIM(MID(SUBSTITUTE($M42,",",REPT(" ",LEN($M42))),7 *LEN($M42)+1,LEN($M42))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M42,",",REPT(" ",LEN($M42))), 8 *LEN($M42)+1,LEN($M42))) = "", "0", TRIM(MID(SUBSTITUTE($M42,",",REPT(" ",LEN($M42))),8 *LEN($M42)+1,LEN($M42))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M42,",",REPT(" ",LEN($M42))), 9 *LEN($M42)+1,LEN($M42))) = "", "0", TRIM(MID(SUBSTITUTE($M42,",",REPT(" ",LEN($M42))),9 *LEN($M42)+1,LEN($M42))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M42,",",REPT(" ",LEN($M42))), 10 *LEN($M42)+1,LEN($M42))) = "", "0", TRIM(MID(SUBSTITUTE($M42,",",REPT(" ",LEN($M42))),10 *LEN($M42)+1,LEN($M42)))))</f>
@@ -9811,7 +9811,7 @@
         <v>0</v>
       </c>
       <c r="X42" s="0" t="str">
-        <f aca="true">IF(O42="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S42)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O42="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S42)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -9850,8 +9850,8 @@
         <v/>
       </c>
       <c r="U43" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V43" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M43,",",REPT(" ",LEN($M43))), 0 *LEN($M43)+1,LEN($M43))) = "", "0", TRIM(MID(SUBSTITUTE($M43,",",REPT(" ",LEN($M43))),0 *LEN($M43)+1,LEN($M43))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M43,",",REPT(" ",LEN($M43))), 1 *LEN($M43)+1,LEN($M43))) = "", "0", TRIM(MID(SUBSTITUTE($M43,",",REPT(" ",LEN($M43))),1 *LEN($M43)+1,LEN($M43))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M43,",",REPT(" ",LEN($M43))), 2 *LEN($M43)+1,LEN($M43))) = "", "0", TRIM(MID(SUBSTITUTE($M43,",",REPT(" ",LEN($M43))),2 *LEN($M43)+1,LEN($M43))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M43,",",REPT(" ",LEN($M43))), 3 *LEN($M43)+1,LEN($M43))) = "", "0", TRIM(MID(SUBSTITUTE($M43,",",REPT(" ",LEN($M43))),3 *LEN($M43)+1,LEN($M43))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M43,",",REPT(" ",LEN($M43))), 4 *LEN($M43)+1,LEN($M43))) = "", "0", TRIM(MID(SUBSTITUTE($M43,",",REPT(" ",LEN($M43))),4 *LEN($M43)+1,LEN($M43))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M43,",",REPT(" ",LEN($M43))), 5 *LEN($M43)+1,LEN($M43))) = "", "0", TRIM(MID(SUBSTITUTE($M43,",",REPT(" ",LEN($M43))),5 *LEN($M43)+1,LEN($M43))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M43,",",REPT(" ",LEN($M43))), 6 *LEN($M43)+1,LEN($M43))) = "", "0", TRIM(MID(SUBSTITUTE($M43,",",REPT(" ",LEN($M43))),6 *LEN($M43)+1,LEN($M43))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M43,",",REPT(" ",LEN($M43))), 7 *LEN($M43)+1,LEN($M43))) = "", "0", TRIM(MID(SUBSTITUTE($M43,",",REPT(" ",LEN($M43))),7 *LEN($M43)+1,LEN($M43))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M43,",",REPT(" ",LEN($M43))), 8 *LEN($M43)+1,LEN($M43))) = "", "0", TRIM(MID(SUBSTITUTE($M43,",",REPT(" ",LEN($M43))),8 *LEN($M43)+1,LEN($M43))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M43,",",REPT(" ",LEN($M43))), 9 *LEN($M43)+1,LEN($M43))) = "", "0", TRIM(MID(SUBSTITUTE($M43,",",REPT(" ",LEN($M43))),9 *LEN($M43)+1,LEN($M43))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M43,",",REPT(" ",LEN($M43))), 10 *LEN($M43)+1,LEN($M43))) = "", "0", TRIM(MID(SUBSTITUTE($M43,",",REPT(" ",LEN($M43))),10 *LEN($M43)+1,LEN($M43)))))</f>
@@ -9862,7 +9862,7 @@
         <v>0</v>
       </c>
       <c r="X43" s="0" t="str">
-        <f aca="true">IF(O43="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S43)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O43="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S43)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -9901,8 +9901,8 @@
         <v/>
       </c>
       <c r="U44" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V44" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M44,",",REPT(" ",LEN($M44))), 0 *LEN($M44)+1,LEN($M44))) = "", "0", TRIM(MID(SUBSTITUTE($M44,",",REPT(" ",LEN($M44))),0 *LEN($M44)+1,LEN($M44))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M44,",",REPT(" ",LEN($M44))), 1 *LEN($M44)+1,LEN($M44))) = "", "0", TRIM(MID(SUBSTITUTE($M44,",",REPT(" ",LEN($M44))),1 *LEN($M44)+1,LEN($M44))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M44,",",REPT(" ",LEN($M44))), 2 *LEN($M44)+1,LEN($M44))) = "", "0", TRIM(MID(SUBSTITUTE($M44,",",REPT(" ",LEN($M44))),2 *LEN($M44)+1,LEN($M44))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M44,",",REPT(" ",LEN($M44))), 3 *LEN($M44)+1,LEN($M44))) = "", "0", TRIM(MID(SUBSTITUTE($M44,",",REPT(" ",LEN($M44))),3 *LEN($M44)+1,LEN($M44))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M44,",",REPT(" ",LEN($M44))), 4 *LEN($M44)+1,LEN($M44))) = "", "0", TRIM(MID(SUBSTITUTE($M44,",",REPT(" ",LEN($M44))),4 *LEN($M44)+1,LEN($M44))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M44,",",REPT(" ",LEN($M44))), 5 *LEN($M44)+1,LEN($M44))) = "", "0", TRIM(MID(SUBSTITUTE($M44,",",REPT(" ",LEN($M44))),5 *LEN($M44)+1,LEN($M44))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M44,",",REPT(" ",LEN($M44))), 6 *LEN($M44)+1,LEN($M44))) = "", "0", TRIM(MID(SUBSTITUTE($M44,",",REPT(" ",LEN($M44))),6 *LEN($M44)+1,LEN($M44))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M44,",",REPT(" ",LEN($M44))), 7 *LEN($M44)+1,LEN($M44))) = "", "0", TRIM(MID(SUBSTITUTE($M44,",",REPT(" ",LEN($M44))),7 *LEN($M44)+1,LEN($M44))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M44,",",REPT(" ",LEN($M44))), 8 *LEN($M44)+1,LEN($M44))) = "", "0", TRIM(MID(SUBSTITUTE($M44,",",REPT(" ",LEN($M44))),8 *LEN($M44)+1,LEN($M44))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M44,",",REPT(" ",LEN($M44))), 9 *LEN($M44)+1,LEN($M44))) = "", "0", TRIM(MID(SUBSTITUTE($M44,",",REPT(" ",LEN($M44))),9 *LEN($M44)+1,LEN($M44))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M44,",",REPT(" ",LEN($M44))), 10 *LEN($M44)+1,LEN($M44))) = "", "0", TRIM(MID(SUBSTITUTE($M44,",",REPT(" ",LEN($M44))),10 *LEN($M44)+1,LEN($M44)))))</f>
@@ -9913,7 +9913,7 @@
         <v>0</v>
       </c>
       <c r="X44" s="0" t="str">
-        <f aca="true">IF(O44="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S44)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O44="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S44)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -9952,8 +9952,8 @@
         <v/>
       </c>
       <c r="U45" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V45" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M45,",",REPT(" ",LEN($M45))), 0 *LEN($M45)+1,LEN($M45))) = "", "0", TRIM(MID(SUBSTITUTE($M45,",",REPT(" ",LEN($M45))),0 *LEN($M45)+1,LEN($M45))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M45,",",REPT(" ",LEN($M45))), 1 *LEN($M45)+1,LEN($M45))) = "", "0", TRIM(MID(SUBSTITUTE($M45,",",REPT(" ",LEN($M45))),1 *LEN($M45)+1,LEN($M45))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M45,",",REPT(" ",LEN($M45))), 2 *LEN($M45)+1,LEN($M45))) = "", "0", TRIM(MID(SUBSTITUTE($M45,",",REPT(" ",LEN($M45))),2 *LEN($M45)+1,LEN($M45))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M45,",",REPT(" ",LEN($M45))), 3 *LEN($M45)+1,LEN($M45))) = "", "0", TRIM(MID(SUBSTITUTE($M45,",",REPT(" ",LEN($M45))),3 *LEN($M45)+1,LEN($M45))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M45,",",REPT(" ",LEN($M45))), 4 *LEN($M45)+1,LEN($M45))) = "", "0", TRIM(MID(SUBSTITUTE($M45,",",REPT(" ",LEN($M45))),4 *LEN($M45)+1,LEN($M45))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M45,",",REPT(" ",LEN($M45))), 5 *LEN($M45)+1,LEN($M45))) = "", "0", TRIM(MID(SUBSTITUTE($M45,",",REPT(" ",LEN($M45))),5 *LEN($M45)+1,LEN($M45))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M45,",",REPT(" ",LEN($M45))), 6 *LEN($M45)+1,LEN($M45))) = "", "0", TRIM(MID(SUBSTITUTE($M45,",",REPT(" ",LEN($M45))),6 *LEN($M45)+1,LEN($M45))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M45,",",REPT(" ",LEN($M45))), 7 *LEN($M45)+1,LEN($M45))) = "", "0", TRIM(MID(SUBSTITUTE($M45,",",REPT(" ",LEN($M45))),7 *LEN($M45)+1,LEN($M45))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M45,",",REPT(" ",LEN($M45))), 8 *LEN($M45)+1,LEN($M45))) = "", "0", TRIM(MID(SUBSTITUTE($M45,",",REPT(" ",LEN($M45))),8 *LEN($M45)+1,LEN($M45))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M45,",",REPT(" ",LEN($M45))), 9 *LEN($M45)+1,LEN($M45))) = "", "0", TRIM(MID(SUBSTITUTE($M45,",",REPT(" ",LEN($M45))),9 *LEN($M45)+1,LEN($M45))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M45,",",REPT(" ",LEN($M45))), 10 *LEN($M45)+1,LEN($M45))) = "", "0", TRIM(MID(SUBSTITUTE($M45,",",REPT(" ",LEN($M45))),10 *LEN($M45)+1,LEN($M45)))))</f>
@@ -9964,7 +9964,7 @@
         <v>0</v>
       </c>
       <c r="X45" s="0" t="str">
-        <f aca="true">IF(O45="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S45)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O45="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S45)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -10003,8 +10003,8 @@
         <v/>
       </c>
       <c r="U46" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V46" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M46,",",REPT(" ",LEN($M46))), 0 *LEN($M46)+1,LEN($M46))) = "", "0", TRIM(MID(SUBSTITUTE($M46,",",REPT(" ",LEN($M46))),0 *LEN($M46)+1,LEN($M46))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M46,",",REPT(" ",LEN($M46))), 1 *LEN($M46)+1,LEN($M46))) = "", "0", TRIM(MID(SUBSTITUTE($M46,",",REPT(" ",LEN($M46))),1 *LEN($M46)+1,LEN($M46))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M46,",",REPT(" ",LEN($M46))), 2 *LEN($M46)+1,LEN($M46))) = "", "0", TRIM(MID(SUBSTITUTE($M46,",",REPT(" ",LEN($M46))),2 *LEN($M46)+1,LEN($M46))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M46,",",REPT(" ",LEN($M46))), 3 *LEN($M46)+1,LEN($M46))) = "", "0", TRIM(MID(SUBSTITUTE($M46,",",REPT(" ",LEN($M46))),3 *LEN($M46)+1,LEN($M46))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M46,",",REPT(" ",LEN($M46))), 4 *LEN($M46)+1,LEN($M46))) = "", "0", TRIM(MID(SUBSTITUTE($M46,",",REPT(" ",LEN($M46))),4 *LEN($M46)+1,LEN($M46))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M46,",",REPT(" ",LEN($M46))), 5 *LEN($M46)+1,LEN($M46))) = "", "0", TRIM(MID(SUBSTITUTE($M46,",",REPT(" ",LEN($M46))),5 *LEN($M46)+1,LEN($M46))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M46,",",REPT(" ",LEN($M46))), 6 *LEN($M46)+1,LEN($M46))) = "", "0", TRIM(MID(SUBSTITUTE($M46,",",REPT(" ",LEN($M46))),6 *LEN($M46)+1,LEN($M46))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M46,",",REPT(" ",LEN($M46))), 7 *LEN($M46)+1,LEN($M46))) = "", "0", TRIM(MID(SUBSTITUTE($M46,",",REPT(" ",LEN($M46))),7 *LEN($M46)+1,LEN($M46))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M46,",",REPT(" ",LEN($M46))), 8 *LEN($M46)+1,LEN($M46))) = "", "0", TRIM(MID(SUBSTITUTE($M46,",",REPT(" ",LEN($M46))),8 *LEN($M46)+1,LEN($M46))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M46,",",REPT(" ",LEN($M46))), 9 *LEN($M46)+1,LEN($M46))) = "", "0", TRIM(MID(SUBSTITUTE($M46,",",REPT(" ",LEN($M46))),9 *LEN($M46)+1,LEN($M46))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M46,",",REPT(" ",LEN($M46))), 10 *LEN($M46)+1,LEN($M46))) = "", "0", TRIM(MID(SUBSTITUTE($M46,",",REPT(" ",LEN($M46))),10 *LEN($M46)+1,LEN($M46)))))</f>
@@ -10015,7 +10015,7 @@
         <v>0</v>
       </c>
       <c r="X46" s="0" t="str">
-        <f aca="true">IF(O46="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S46)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O46="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S46)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -10054,8 +10054,8 @@
         <v/>
       </c>
       <c r="U47" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V47" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M47,",",REPT(" ",LEN($M47))), 0 *LEN($M47)+1,LEN($M47))) = "", "0", TRIM(MID(SUBSTITUTE($M47,",",REPT(" ",LEN($M47))),0 *LEN($M47)+1,LEN($M47))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M47,",",REPT(" ",LEN($M47))), 1 *LEN($M47)+1,LEN($M47))) = "", "0", TRIM(MID(SUBSTITUTE($M47,",",REPT(" ",LEN($M47))),1 *LEN($M47)+1,LEN($M47))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M47,",",REPT(" ",LEN($M47))), 2 *LEN($M47)+1,LEN($M47))) = "", "0", TRIM(MID(SUBSTITUTE($M47,",",REPT(" ",LEN($M47))),2 *LEN($M47)+1,LEN($M47))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M47,",",REPT(" ",LEN($M47))), 3 *LEN($M47)+1,LEN($M47))) = "", "0", TRIM(MID(SUBSTITUTE($M47,",",REPT(" ",LEN($M47))),3 *LEN($M47)+1,LEN($M47))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M47,",",REPT(" ",LEN($M47))), 4 *LEN($M47)+1,LEN($M47))) = "", "0", TRIM(MID(SUBSTITUTE($M47,",",REPT(" ",LEN($M47))),4 *LEN($M47)+1,LEN($M47))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M47,",",REPT(" ",LEN($M47))), 5 *LEN($M47)+1,LEN($M47))) = "", "0", TRIM(MID(SUBSTITUTE($M47,",",REPT(" ",LEN($M47))),5 *LEN($M47)+1,LEN($M47))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M47,",",REPT(" ",LEN($M47))), 6 *LEN($M47)+1,LEN($M47))) = "", "0", TRIM(MID(SUBSTITUTE($M47,",",REPT(" ",LEN($M47))),6 *LEN($M47)+1,LEN($M47))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M47,",",REPT(" ",LEN($M47))), 7 *LEN($M47)+1,LEN($M47))) = "", "0", TRIM(MID(SUBSTITUTE($M47,",",REPT(" ",LEN($M47))),7 *LEN($M47)+1,LEN($M47))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M47,",",REPT(" ",LEN($M47))), 8 *LEN($M47)+1,LEN($M47))) = "", "0", TRIM(MID(SUBSTITUTE($M47,",",REPT(" ",LEN($M47))),8 *LEN($M47)+1,LEN($M47))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M47,",",REPT(" ",LEN($M47))), 9 *LEN($M47)+1,LEN($M47))) = "", "0", TRIM(MID(SUBSTITUTE($M47,",",REPT(" ",LEN($M47))),9 *LEN($M47)+1,LEN($M47))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M47,",",REPT(" ",LEN($M47))), 10 *LEN($M47)+1,LEN($M47))) = "", "0", TRIM(MID(SUBSTITUTE($M47,",",REPT(" ",LEN($M47))),10 *LEN($M47)+1,LEN($M47)))))</f>
@@ -10066,7 +10066,7 @@
         <v>0</v>
       </c>
       <c r="X47" s="0" t="str">
-        <f aca="true">IF(O47="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S47)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O47="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S47)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -10105,8 +10105,8 @@
         <v/>
       </c>
       <c r="U48" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V48" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M48,",",REPT(" ",LEN($M48))), 0 *LEN($M48)+1,LEN($M48))) = "", "0", TRIM(MID(SUBSTITUTE($M48,",",REPT(" ",LEN($M48))),0 *LEN($M48)+1,LEN($M48))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M48,",",REPT(" ",LEN($M48))), 1 *LEN($M48)+1,LEN($M48))) = "", "0", TRIM(MID(SUBSTITUTE($M48,",",REPT(" ",LEN($M48))),1 *LEN($M48)+1,LEN($M48))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M48,",",REPT(" ",LEN($M48))), 2 *LEN($M48)+1,LEN($M48))) = "", "0", TRIM(MID(SUBSTITUTE($M48,",",REPT(" ",LEN($M48))),2 *LEN($M48)+1,LEN($M48))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M48,",",REPT(" ",LEN($M48))), 3 *LEN($M48)+1,LEN($M48))) = "", "0", TRIM(MID(SUBSTITUTE($M48,",",REPT(" ",LEN($M48))),3 *LEN($M48)+1,LEN($M48))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M48,",",REPT(" ",LEN($M48))), 4 *LEN($M48)+1,LEN($M48))) = "", "0", TRIM(MID(SUBSTITUTE($M48,",",REPT(" ",LEN($M48))),4 *LEN($M48)+1,LEN($M48))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M48,",",REPT(" ",LEN($M48))), 5 *LEN($M48)+1,LEN($M48))) = "", "0", TRIM(MID(SUBSTITUTE($M48,",",REPT(" ",LEN($M48))),5 *LEN($M48)+1,LEN($M48))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M48,",",REPT(" ",LEN($M48))), 6 *LEN($M48)+1,LEN($M48))) = "", "0", TRIM(MID(SUBSTITUTE($M48,",",REPT(" ",LEN($M48))),6 *LEN($M48)+1,LEN($M48))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M48,",",REPT(" ",LEN($M48))), 7 *LEN($M48)+1,LEN($M48))) = "", "0", TRIM(MID(SUBSTITUTE($M48,",",REPT(" ",LEN($M48))),7 *LEN($M48)+1,LEN($M48))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M48,",",REPT(" ",LEN($M48))), 8 *LEN($M48)+1,LEN($M48))) = "", "0", TRIM(MID(SUBSTITUTE($M48,",",REPT(" ",LEN($M48))),8 *LEN($M48)+1,LEN($M48))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M48,",",REPT(" ",LEN($M48))), 9 *LEN($M48)+1,LEN($M48))) = "", "0", TRIM(MID(SUBSTITUTE($M48,",",REPT(" ",LEN($M48))),9 *LEN($M48)+1,LEN($M48))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M48,",",REPT(" ",LEN($M48))), 10 *LEN($M48)+1,LEN($M48))) = "", "0", TRIM(MID(SUBSTITUTE($M48,",",REPT(" ",LEN($M48))),10 *LEN($M48)+1,LEN($M48)))))</f>
@@ -10117,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="X48" s="0" t="str">
-        <f aca="true">IF(O48="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S48)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O48="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S48)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -10156,8 +10156,8 @@
         <v/>
       </c>
       <c r="U49" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V49" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M49,",",REPT(" ",LEN($M49))), 0 *LEN($M49)+1,LEN($M49))) = "", "0", TRIM(MID(SUBSTITUTE($M49,",",REPT(" ",LEN($M49))),0 *LEN($M49)+1,LEN($M49))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M49,",",REPT(" ",LEN($M49))), 1 *LEN($M49)+1,LEN($M49))) = "", "0", TRIM(MID(SUBSTITUTE($M49,",",REPT(" ",LEN($M49))),1 *LEN($M49)+1,LEN($M49))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M49,",",REPT(" ",LEN($M49))), 2 *LEN($M49)+1,LEN($M49))) = "", "0", TRIM(MID(SUBSTITUTE($M49,",",REPT(" ",LEN($M49))),2 *LEN($M49)+1,LEN($M49))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M49,",",REPT(" ",LEN($M49))), 3 *LEN($M49)+1,LEN($M49))) = "", "0", TRIM(MID(SUBSTITUTE($M49,",",REPT(" ",LEN($M49))),3 *LEN($M49)+1,LEN($M49))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M49,",",REPT(" ",LEN($M49))), 4 *LEN($M49)+1,LEN($M49))) = "", "0", TRIM(MID(SUBSTITUTE($M49,",",REPT(" ",LEN($M49))),4 *LEN($M49)+1,LEN($M49))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M49,",",REPT(" ",LEN($M49))), 5 *LEN($M49)+1,LEN($M49))) = "", "0", TRIM(MID(SUBSTITUTE($M49,",",REPT(" ",LEN($M49))),5 *LEN($M49)+1,LEN($M49))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M49,",",REPT(" ",LEN($M49))), 6 *LEN($M49)+1,LEN($M49))) = "", "0", TRIM(MID(SUBSTITUTE($M49,",",REPT(" ",LEN($M49))),6 *LEN($M49)+1,LEN($M49))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M49,",",REPT(" ",LEN($M49))), 7 *LEN($M49)+1,LEN($M49))) = "", "0", TRIM(MID(SUBSTITUTE($M49,",",REPT(" ",LEN($M49))),7 *LEN($M49)+1,LEN($M49))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M49,",",REPT(" ",LEN($M49))), 8 *LEN($M49)+1,LEN($M49))) = "", "0", TRIM(MID(SUBSTITUTE($M49,",",REPT(" ",LEN($M49))),8 *LEN($M49)+1,LEN($M49))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M49,",",REPT(" ",LEN($M49))), 9 *LEN($M49)+1,LEN($M49))) = "", "0", TRIM(MID(SUBSTITUTE($M49,",",REPT(" ",LEN($M49))),9 *LEN($M49)+1,LEN($M49))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M49,",",REPT(" ",LEN($M49))), 10 *LEN($M49)+1,LEN($M49))) = "", "0", TRIM(MID(SUBSTITUTE($M49,",",REPT(" ",LEN($M49))),10 *LEN($M49)+1,LEN($M49)))))</f>
@@ -10168,7 +10168,7 @@
         <v>0</v>
       </c>
       <c r="X49" s="0" t="str">
-        <f aca="true">IF(O49="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S49)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O49="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S49)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -10207,8 +10207,8 @@
         <v/>
       </c>
       <c r="U50" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V50" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M50,",",REPT(" ",LEN($M50))), 0 *LEN($M50)+1,LEN($M50))) = "", "0", TRIM(MID(SUBSTITUTE($M50,",",REPT(" ",LEN($M50))),0 *LEN($M50)+1,LEN($M50))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M50,",",REPT(" ",LEN($M50))), 1 *LEN($M50)+1,LEN($M50))) = "", "0", TRIM(MID(SUBSTITUTE($M50,",",REPT(" ",LEN($M50))),1 *LEN($M50)+1,LEN($M50))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M50,",",REPT(" ",LEN($M50))), 2 *LEN($M50)+1,LEN($M50))) = "", "0", TRIM(MID(SUBSTITUTE($M50,",",REPT(" ",LEN($M50))),2 *LEN($M50)+1,LEN($M50))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M50,",",REPT(" ",LEN($M50))), 3 *LEN($M50)+1,LEN($M50))) = "", "0", TRIM(MID(SUBSTITUTE($M50,",",REPT(" ",LEN($M50))),3 *LEN($M50)+1,LEN($M50))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M50,",",REPT(" ",LEN($M50))), 4 *LEN($M50)+1,LEN($M50))) = "", "0", TRIM(MID(SUBSTITUTE($M50,",",REPT(" ",LEN($M50))),4 *LEN($M50)+1,LEN($M50))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M50,",",REPT(" ",LEN($M50))), 5 *LEN($M50)+1,LEN($M50))) = "", "0", TRIM(MID(SUBSTITUTE($M50,",",REPT(" ",LEN($M50))),5 *LEN($M50)+1,LEN($M50))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M50,",",REPT(" ",LEN($M50))), 6 *LEN($M50)+1,LEN($M50))) = "", "0", TRIM(MID(SUBSTITUTE($M50,",",REPT(" ",LEN($M50))),6 *LEN($M50)+1,LEN($M50))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M50,",",REPT(" ",LEN($M50))), 7 *LEN($M50)+1,LEN($M50))) = "", "0", TRIM(MID(SUBSTITUTE($M50,",",REPT(" ",LEN($M50))),7 *LEN($M50)+1,LEN($M50))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M50,",",REPT(" ",LEN($M50))), 8 *LEN($M50)+1,LEN($M50))) = "", "0", TRIM(MID(SUBSTITUTE($M50,",",REPT(" ",LEN($M50))),8 *LEN($M50)+1,LEN($M50))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M50,",",REPT(" ",LEN($M50))), 9 *LEN($M50)+1,LEN($M50))) = "", "0", TRIM(MID(SUBSTITUTE($M50,",",REPT(" ",LEN($M50))),9 *LEN($M50)+1,LEN($M50))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M50,",",REPT(" ",LEN($M50))), 10 *LEN($M50)+1,LEN($M50))) = "", "0", TRIM(MID(SUBSTITUTE($M50,",",REPT(" ",LEN($M50))),10 *LEN($M50)+1,LEN($M50)))))</f>
@@ -10219,7 +10219,7 @@
         <v>0</v>
       </c>
       <c r="X50" s="0" t="str">
-        <f aca="true">IF(O50="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S50)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O50="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S50)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -10258,8 +10258,8 @@
         <v/>
       </c>
       <c r="U51" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V51" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M51,",",REPT(" ",LEN($M51))), 0 *LEN($M51)+1,LEN($M51))) = "", "0", TRIM(MID(SUBSTITUTE($M51,",",REPT(" ",LEN($M51))),0 *LEN($M51)+1,LEN($M51))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M51,",",REPT(" ",LEN($M51))), 1 *LEN($M51)+1,LEN($M51))) = "", "0", TRIM(MID(SUBSTITUTE($M51,",",REPT(" ",LEN($M51))),1 *LEN($M51)+1,LEN($M51))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M51,",",REPT(" ",LEN($M51))), 2 *LEN($M51)+1,LEN($M51))) = "", "0", TRIM(MID(SUBSTITUTE($M51,",",REPT(" ",LEN($M51))),2 *LEN($M51)+1,LEN($M51))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M51,",",REPT(" ",LEN($M51))), 3 *LEN($M51)+1,LEN($M51))) = "", "0", TRIM(MID(SUBSTITUTE($M51,",",REPT(" ",LEN($M51))),3 *LEN($M51)+1,LEN($M51))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M51,",",REPT(" ",LEN($M51))), 4 *LEN($M51)+1,LEN($M51))) = "", "0", TRIM(MID(SUBSTITUTE($M51,",",REPT(" ",LEN($M51))),4 *LEN($M51)+1,LEN($M51))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M51,",",REPT(" ",LEN($M51))), 5 *LEN($M51)+1,LEN($M51))) = "", "0", TRIM(MID(SUBSTITUTE($M51,",",REPT(" ",LEN($M51))),5 *LEN($M51)+1,LEN($M51))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M51,",",REPT(" ",LEN($M51))), 6 *LEN($M51)+1,LEN($M51))) = "", "0", TRIM(MID(SUBSTITUTE($M51,",",REPT(" ",LEN($M51))),6 *LEN($M51)+1,LEN($M51))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M51,",",REPT(" ",LEN($M51))), 7 *LEN($M51)+1,LEN($M51))) = "", "0", TRIM(MID(SUBSTITUTE($M51,",",REPT(" ",LEN($M51))),7 *LEN($M51)+1,LEN($M51))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M51,",",REPT(" ",LEN($M51))), 8 *LEN($M51)+1,LEN($M51))) = "", "0", TRIM(MID(SUBSTITUTE($M51,",",REPT(" ",LEN($M51))),8 *LEN($M51)+1,LEN($M51))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M51,",",REPT(" ",LEN($M51))), 9 *LEN($M51)+1,LEN($M51))) = "", "0", TRIM(MID(SUBSTITUTE($M51,",",REPT(" ",LEN($M51))),9 *LEN($M51)+1,LEN($M51))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M51,",",REPT(" ",LEN($M51))), 10 *LEN($M51)+1,LEN($M51))) = "", "0", TRIM(MID(SUBSTITUTE($M51,",",REPT(" ",LEN($M51))),10 *LEN($M51)+1,LEN($M51)))))</f>
@@ -10270,7 +10270,7 @@
         <v>0</v>
       </c>
       <c r="X51" s="0" t="str">
-        <f aca="true">IF(O51="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S51)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O51="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S51)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -10309,8 +10309,8 @@
         <v/>
       </c>
       <c r="U52" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V52" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M52,",",REPT(" ",LEN($M52))), 0 *LEN($M52)+1,LEN($M52))) = "", "0", TRIM(MID(SUBSTITUTE($M52,",",REPT(" ",LEN($M52))),0 *LEN($M52)+1,LEN($M52))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M52,",",REPT(" ",LEN($M52))), 1 *LEN($M52)+1,LEN($M52))) = "", "0", TRIM(MID(SUBSTITUTE($M52,",",REPT(" ",LEN($M52))),1 *LEN($M52)+1,LEN($M52))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M52,",",REPT(" ",LEN($M52))), 2 *LEN($M52)+1,LEN($M52))) = "", "0", TRIM(MID(SUBSTITUTE($M52,",",REPT(" ",LEN($M52))),2 *LEN($M52)+1,LEN($M52))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M52,",",REPT(" ",LEN($M52))), 3 *LEN($M52)+1,LEN($M52))) = "", "0", TRIM(MID(SUBSTITUTE($M52,",",REPT(" ",LEN($M52))),3 *LEN($M52)+1,LEN($M52))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M52,",",REPT(" ",LEN($M52))), 4 *LEN($M52)+1,LEN($M52))) = "", "0", TRIM(MID(SUBSTITUTE($M52,",",REPT(" ",LEN($M52))),4 *LEN($M52)+1,LEN($M52))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M52,",",REPT(" ",LEN($M52))), 5 *LEN($M52)+1,LEN($M52))) = "", "0", TRIM(MID(SUBSTITUTE($M52,",",REPT(" ",LEN($M52))),5 *LEN($M52)+1,LEN($M52))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M52,",",REPT(" ",LEN($M52))), 6 *LEN($M52)+1,LEN($M52))) = "", "0", TRIM(MID(SUBSTITUTE($M52,",",REPT(" ",LEN($M52))),6 *LEN($M52)+1,LEN($M52))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M52,",",REPT(" ",LEN($M52))), 7 *LEN($M52)+1,LEN($M52))) = "", "0", TRIM(MID(SUBSTITUTE($M52,",",REPT(" ",LEN($M52))),7 *LEN($M52)+1,LEN($M52))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M52,",",REPT(" ",LEN($M52))), 8 *LEN($M52)+1,LEN($M52))) = "", "0", TRIM(MID(SUBSTITUTE($M52,",",REPT(" ",LEN($M52))),8 *LEN($M52)+1,LEN($M52))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M52,",",REPT(" ",LEN($M52))), 9 *LEN($M52)+1,LEN($M52))) = "", "0", TRIM(MID(SUBSTITUTE($M52,",",REPT(" ",LEN($M52))),9 *LEN($M52)+1,LEN($M52))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M52,",",REPT(" ",LEN($M52))), 10 *LEN($M52)+1,LEN($M52))) = "", "0", TRIM(MID(SUBSTITUTE($M52,",",REPT(" ",LEN($M52))),10 *LEN($M52)+1,LEN($M52)))))</f>
@@ -10321,7 +10321,7 @@
         <v>0</v>
       </c>
       <c r="X52" s="0" t="str">
-        <f aca="true">IF(O52="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S52)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O52="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S52)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -10360,8 +10360,8 @@
         <v/>
       </c>
       <c r="U53" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V53" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M53,",",REPT(" ",LEN($M53))), 0 *LEN($M53)+1,LEN($M53))) = "", "0", TRIM(MID(SUBSTITUTE($M53,",",REPT(" ",LEN($M53))),0 *LEN($M53)+1,LEN($M53))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M53,",",REPT(" ",LEN($M53))), 1 *LEN($M53)+1,LEN($M53))) = "", "0", TRIM(MID(SUBSTITUTE($M53,",",REPT(" ",LEN($M53))),1 *LEN($M53)+1,LEN($M53))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M53,",",REPT(" ",LEN($M53))), 2 *LEN($M53)+1,LEN($M53))) = "", "0", TRIM(MID(SUBSTITUTE($M53,",",REPT(" ",LEN($M53))),2 *LEN($M53)+1,LEN($M53))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M53,",",REPT(" ",LEN($M53))), 3 *LEN($M53)+1,LEN($M53))) = "", "0", TRIM(MID(SUBSTITUTE($M53,",",REPT(" ",LEN($M53))),3 *LEN($M53)+1,LEN($M53))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M53,",",REPT(" ",LEN($M53))), 4 *LEN($M53)+1,LEN($M53))) = "", "0", TRIM(MID(SUBSTITUTE($M53,",",REPT(" ",LEN($M53))),4 *LEN($M53)+1,LEN($M53))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M53,",",REPT(" ",LEN($M53))), 5 *LEN($M53)+1,LEN($M53))) = "", "0", TRIM(MID(SUBSTITUTE($M53,",",REPT(" ",LEN($M53))),5 *LEN($M53)+1,LEN($M53))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M53,",",REPT(" ",LEN($M53))), 6 *LEN($M53)+1,LEN($M53))) = "", "0", TRIM(MID(SUBSTITUTE($M53,",",REPT(" ",LEN($M53))),6 *LEN($M53)+1,LEN($M53))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M53,",",REPT(" ",LEN($M53))), 7 *LEN($M53)+1,LEN($M53))) = "", "0", TRIM(MID(SUBSTITUTE($M53,",",REPT(" ",LEN($M53))),7 *LEN($M53)+1,LEN($M53))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M53,",",REPT(" ",LEN($M53))), 8 *LEN($M53)+1,LEN($M53))) = "", "0", TRIM(MID(SUBSTITUTE($M53,",",REPT(" ",LEN($M53))),8 *LEN($M53)+1,LEN($M53))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M53,",",REPT(" ",LEN($M53))), 9 *LEN($M53)+1,LEN($M53))) = "", "0", TRIM(MID(SUBSTITUTE($M53,",",REPT(" ",LEN($M53))),9 *LEN($M53)+1,LEN($M53))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M53,",",REPT(" ",LEN($M53))), 10 *LEN($M53)+1,LEN($M53))) = "", "0", TRIM(MID(SUBSTITUTE($M53,",",REPT(" ",LEN($M53))),10 *LEN($M53)+1,LEN($M53)))))</f>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="X53" s="0" t="str">
-        <f aca="true">IF(O53="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S53)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O53="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S53)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -10411,8 +10411,8 @@
         <v/>
       </c>
       <c r="U54" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V54" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M54,",",REPT(" ",LEN($M54))), 0 *LEN($M54)+1,LEN($M54))) = "", "0", TRIM(MID(SUBSTITUTE($M54,",",REPT(" ",LEN($M54))),0 *LEN($M54)+1,LEN($M54))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M54,",",REPT(" ",LEN($M54))), 1 *LEN($M54)+1,LEN($M54))) = "", "0", TRIM(MID(SUBSTITUTE($M54,",",REPT(" ",LEN($M54))),1 *LEN($M54)+1,LEN($M54))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M54,",",REPT(" ",LEN($M54))), 2 *LEN($M54)+1,LEN($M54))) = "", "0", TRIM(MID(SUBSTITUTE($M54,",",REPT(" ",LEN($M54))),2 *LEN($M54)+1,LEN($M54))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M54,",",REPT(" ",LEN($M54))), 3 *LEN($M54)+1,LEN($M54))) = "", "0", TRIM(MID(SUBSTITUTE($M54,",",REPT(" ",LEN($M54))),3 *LEN($M54)+1,LEN($M54))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M54,",",REPT(" ",LEN($M54))), 4 *LEN($M54)+1,LEN($M54))) = "", "0", TRIM(MID(SUBSTITUTE($M54,",",REPT(" ",LEN($M54))),4 *LEN($M54)+1,LEN($M54))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M54,",",REPT(" ",LEN($M54))), 5 *LEN($M54)+1,LEN($M54))) = "", "0", TRIM(MID(SUBSTITUTE($M54,",",REPT(" ",LEN($M54))),5 *LEN($M54)+1,LEN($M54))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M54,",",REPT(" ",LEN($M54))), 6 *LEN($M54)+1,LEN($M54))) = "", "0", TRIM(MID(SUBSTITUTE($M54,",",REPT(" ",LEN($M54))),6 *LEN($M54)+1,LEN($M54))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M54,",",REPT(" ",LEN($M54))), 7 *LEN($M54)+1,LEN($M54))) = "", "0", TRIM(MID(SUBSTITUTE($M54,",",REPT(" ",LEN($M54))),7 *LEN($M54)+1,LEN($M54))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M54,",",REPT(" ",LEN($M54))), 8 *LEN($M54)+1,LEN($M54))) = "", "0", TRIM(MID(SUBSTITUTE($M54,",",REPT(" ",LEN($M54))),8 *LEN($M54)+1,LEN($M54))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M54,",",REPT(" ",LEN($M54))), 9 *LEN($M54)+1,LEN($M54))) = "", "0", TRIM(MID(SUBSTITUTE($M54,",",REPT(" ",LEN($M54))),9 *LEN($M54)+1,LEN($M54))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M54,",",REPT(" ",LEN($M54))), 10 *LEN($M54)+1,LEN($M54))) = "", "0", TRIM(MID(SUBSTITUTE($M54,",",REPT(" ",LEN($M54))),10 *LEN($M54)+1,LEN($M54)))))</f>
@@ -10423,7 +10423,7 @@
         <v>0</v>
       </c>
       <c r="X54" s="0" t="str">
-        <f aca="true">IF(O54="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S54)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O54="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S54)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -10462,8 +10462,8 @@
         <v/>
       </c>
       <c r="U55" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V55" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M55,",",REPT(" ",LEN($M55))), 0 *LEN($M55)+1,LEN($M55))) = "", "0", TRIM(MID(SUBSTITUTE($M55,",",REPT(" ",LEN($M55))),0 *LEN($M55)+1,LEN($M55))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M55,",",REPT(" ",LEN($M55))), 1 *LEN($M55)+1,LEN($M55))) = "", "0", TRIM(MID(SUBSTITUTE($M55,",",REPT(" ",LEN($M55))),1 *LEN($M55)+1,LEN($M55))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M55,",",REPT(" ",LEN($M55))), 2 *LEN($M55)+1,LEN($M55))) = "", "0", TRIM(MID(SUBSTITUTE($M55,",",REPT(" ",LEN($M55))),2 *LEN($M55)+1,LEN($M55))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M55,",",REPT(" ",LEN($M55))), 3 *LEN($M55)+1,LEN($M55))) = "", "0", TRIM(MID(SUBSTITUTE($M55,",",REPT(" ",LEN($M55))),3 *LEN($M55)+1,LEN($M55))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M55,",",REPT(" ",LEN($M55))), 4 *LEN($M55)+1,LEN($M55))) = "", "0", TRIM(MID(SUBSTITUTE($M55,",",REPT(" ",LEN($M55))),4 *LEN($M55)+1,LEN($M55))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M55,",",REPT(" ",LEN($M55))), 5 *LEN($M55)+1,LEN($M55))) = "", "0", TRIM(MID(SUBSTITUTE($M55,",",REPT(" ",LEN($M55))),5 *LEN($M55)+1,LEN($M55))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M55,",",REPT(" ",LEN($M55))), 6 *LEN($M55)+1,LEN($M55))) = "", "0", TRIM(MID(SUBSTITUTE($M55,",",REPT(" ",LEN($M55))),6 *LEN($M55)+1,LEN($M55))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M55,",",REPT(" ",LEN($M55))), 7 *LEN($M55)+1,LEN($M55))) = "", "0", TRIM(MID(SUBSTITUTE($M55,",",REPT(" ",LEN($M55))),7 *LEN($M55)+1,LEN($M55))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M55,",",REPT(" ",LEN($M55))), 8 *LEN($M55)+1,LEN($M55))) = "", "0", TRIM(MID(SUBSTITUTE($M55,",",REPT(" ",LEN($M55))),8 *LEN($M55)+1,LEN($M55))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M55,",",REPT(" ",LEN($M55))), 9 *LEN($M55)+1,LEN($M55))) = "", "0", TRIM(MID(SUBSTITUTE($M55,",",REPT(" ",LEN($M55))),9 *LEN($M55)+1,LEN($M55))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M55,",",REPT(" ",LEN($M55))), 10 *LEN($M55)+1,LEN($M55))) = "", "0", TRIM(MID(SUBSTITUTE($M55,",",REPT(" ",LEN($M55))),10 *LEN($M55)+1,LEN($M55)))))</f>
@@ -10474,7 +10474,7 @@
         <v>0</v>
       </c>
       <c r="X55" s="0" t="str">
-        <f aca="true">IF(O55="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S55)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O55="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S55)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -10513,8 +10513,8 @@
         <v/>
       </c>
       <c r="U56" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V56" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M56,",",REPT(" ",LEN($M56))), 0 *LEN($M56)+1,LEN($M56))) = "", "0", TRIM(MID(SUBSTITUTE($M56,",",REPT(" ",LEN($M56))),0 *LEN($M56)+1,LEN($M56))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M56,",",REPT(" ",LEN($M56))), 1 *LEN($M56)+1,LEN($M56))) = "", "0", TRIM(MID(SUBSTITUTE($M56,",",REPT(" ",LEN($M56))),1 *LEN($M56)+1,LEN($M56))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M56,",",REPT(" ",LEN($M56))), 2 *LEN($M56)+1,LEN($M56))) = "", "0", TRIM(MID(SUBSTITUTE($M56,",",REPT(" ",LEN($M56))),2 *LEN($M56)+1,LEN($M56))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M56,",",REPT(" ",LEN($M56))), 3 *LEN($M56)+1,LEN($M56))) = "", "0", TRIM(MID(SUBSTITUTE($M56,",",REPT(" ",LEN($M56))),3 *LEN($M56)+1,LEN($M56))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M56,",",REPT(" ",LEN($M56))), 4 *LEN($M56)+1,LEN($M56))) = "", "0", TRIM(MID(SUBSTITUTE($M56,",",REPT(" ",LEN($M56))),4 *LEN($M56)+1,LEN($M56))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M56,",",REPT(" ",LEN($M56))), 5 *LEN($M56)+1,LEN($M56))) = "", "0", TRIM(MID(SUBSTITUTE($M56,",",REPT(" ",LEN($M56))),5 *LEN($M56)+1,LEN($M56))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M56,",",REPT(" ",LEN($M56))), 6 *LEN($M56)+1,LEN($M56))) = "", "0", TRIM(MID(SUBSTITUTE($M56,",",REPT(" ",LEN($M56))),6 *LEN($M56)+1,LEN($M56))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M56,",",REPT(" ",LEN($M56))), 7 *LEN($M56)+1,LEN($M56))) = "", "0", TRIM(MID(SUBSTITUTE($M56,",",REPT(" ",LEN($M56))),7 *LEN($M56)+1,LEN($M56))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M56,",",REPT(" ",LEN($M56))), 8 *LEN($M56)+1,LEN($M56))) = "", "0", TRIM(MID(SUBSTITUTE($M56,",",REPT(" ",LEN($M56))),8 *LEN($M56)+1,LEN($M56))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M56,",",REPT(" ",LEN($M56))), 9 *LEN($M56)+1,LEN($M56))) = "", "0", TRIM(MID(SUBSTITUTE($M56,",",REPT(" ",LEN($M56))),9 *LEN($M56)+1,LEN($M56))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M56,",",REPT(" ",LEN($M56))), 10 *LEN($M56)+1,LEN($M56))) = "", "0", TRIM(MID(SUBSTITUTE($M56,",",REPT(" ",LEN($M56))),10 *LEN($M56)+1,LEN($M56)))))</f>
@@ -10525,7 +10525,7 @@
         <v>0</v>
       </c>
       <c r="X56" s="0" t="str">
-        <f aca="true">IF(O56="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S56)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O56="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S56)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -10564,8 +10564,8 @@
         <v/>
       </c>
       <c r="U57" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V57" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M57,",",REPT(" ",LEN($M57))), 0 *LEN($M57)+1,LEN($M57))) = "", "0", TRIM(MID(SUBSTITUTE($M57,",",REPT(" ",LEN($M57))),0 *LEN($M57)+1,LEN($M57))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M57,",",REPT(" ",LEN($M57))), 1 *LEN($M57)+1,LEN($M57))) = "", "0", TRIM(MID(SUBSTITUTE($M57,",",REPT(" ",LEN($M57))),1 *LEN($M57)+1,LEN($M57))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M57,",",REPT(" ",LEN($M57))), 2 *LEN($M57)+1,LEN($M57))) = "", "0", TRIM(MID(SUBSTITUTE($M57,",",REPT(" ",LEN($M57))),2 *LEN($M57)+1,LEN($M57))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M57,",",REPT(" ",LEN($M57))), 3 *LEN($M57)+1,LEN($M57))) = "", "0", TRIM(MID(SUBSTITUTE($M57,",",REPT(" ",LEN($M57))),3 *LEN($M57)+1,LEN($M57))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M57,",",REPT(" ",LEN($M57))), 4 *LEN($M57)+1,LEN($M57))) = "", "0", TRIM(MID(SUBSTITUTE($M57,",",REPT(" ",LEN($M57))),4 *LEN($M57)+1,LEN($M57))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M57,",",REPT(" ",LEN($M57))), 5 *LEN($M57)+1,LEN($M57))) = "", "0", TRIM(MID(SUBSTITUTE($M57,",",REPT(" ",LEN($M57))),5 *LEN($M57)+1,LEN($M57))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M57,",",REPT(" ",LEN($M57))), 6 *LEN($M57)+1,LEN($M57))) = "", "0", TRIM(MID(SUBSTITUTE($M57,",",REPT(" ",LEN($M57))),6 *LEN($M57)+1,LEN($M57))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M57,",",REPT(" ",LEN($M57))), 7 *LEN($M57)+1,LEN($M57))) = "", "0", TRIM(MID(SUBSTITUTE($M57,",",REPT(" ",LEN($M57))),7 *LEN($M57)+1,LEN($M57))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M57,",",REPT(" ",LEN($M57))), 8 *LEN($M57)+1,LEN($M57))) = "", "0", TRIM(MID(SUBSTITUTE($M57,",",REPT(" ",LEN($M57))),8 *LEN($M57)+1,LEN($M57))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M57,",",REPT(" ",LEN($M57))), 9 *LEN($M57)+1,LEN($M57))) = "", "0", TRIM(MID(SUBSTITUTE($M57,",",REPT(" ",LEN($M57))),9 *LEN($M57)+1,LEN($M57))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M57,",",REPT(" ",LEN($M57))), 10 *LEN($M57)+1,LEN($M57))) = "", "0", TRIM(MID(SUBSTITUTE($M57,",",REPT(" ",LEN($M57))),10 *LEN($M57)+1,LEN($M57)))))</f>
@@ -10576,7 +10576,7 @@
         <v>0</v>
       </c>
       <c r="X57" s="0" t="str">
-        <f aca="true">IF(O57="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S57)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O57="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S57)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -10615,8 +10615,8 @@
         <v/>
       </c>
       <c r="U58" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V58" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M58,",",REPT(" ",LEN($M58))), 0 *LEN($M58)+1,LEN($M58))) = "", "0", TRIM(MID(SUBSTITUTE($M58,",",REPT(" ",LEN($M58))),0 *LEN($M58)+1,LEN($M58))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M58,",",REPT(" ",LEN($M58))), 1 *LEN($M58)+1,LEN($M58))) = "", "0", TRIM(MID(SUBSTITUTE($M58,",",REPT(" ",LEN($M58))),1 *LEN($M58)+1,LEN($M58))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M58,",",REPT(" ",LEN($M58))), 2 *LEN($M58)+1,LEN($M58))) = "", "0", TRIM(MID(SUBSTITUTE($M58,",",REPT(" ",LEN($M58))),2 *LEN($M58)+1,LEN($M58))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M58,",",REPT(" ",LEN($M58))), 3 *LEN($M58)+1,LEN($M58))) = "", "0", TRIM(MID(SUBSTITUTE($M58,",",REPT(" ",LEN($M58))),3 *LEN($M58)+1,LEN($M58))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M58,",",REPT(" ",LEN($M58))), 4 *LEN($M58)+1,LEN($M58))) = "", "0", TRIM(MID(SUBSTITUTE($M58,",",REPT(" ",LEN($M58))),4 *LEN($M58)+1,LEN($M58))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M58,",",REPT(" ",LEN($M58))), 5 *LEN($M58)+1,LEN($M58))) = "", "0", TRIM(MID(SUBSTITUTE($M58,",",REPT(" ",LEN($M58))),5 *LEN($M58)+1,LEN($M58))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M58,",",REPT(" ",LEN($M58))), 6 *LEN($M58)+1,LEN($M58))) = "", "0", TRIM(MID(SUBSTITUTE($M58,",",REPT(" ",LEN($M58))),6 *LEN($M58)+1,LEN($M58))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M58,",",REPT(" ",LEN($M58))), 7 *LEN($M58)+1,LEN($M58))) = "", "0", TRIM(MID(SUBSTITUTE($M58,",",REPT(" ",LEN($M58))),7 *LEN($M58)+1,LEN($M58))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M58,",",REPT(" ",LEN($M58))), 8 *LEN($M58)+1,LEN($M58))) = "", "0", TRIM(MID(SUBSTITUTE($M58,",",REPT(" ",LEN($M58))),8 *LEN($M58)+1,LEN($M58))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M58,",",REPT(" ",LEN($M58))), 9 *LEN($M58)+1,LEN($M58))) = "", "0", TRIM(MID(SUBSTITUTE($M58,",",REPT(" ",LEN($M58))),9 *LEN($M58)+1,LEN($M58))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M58,",",REPT(" ",LEN($M58))), 10 *LEN($M58)+1,LEN($M58))) = "", "0", TRIM(MID(SUBSTITUTE($M58,",",REPT(" ",LEN($M58))),10 *LEN($M58)+1,LEN($M58)))))</f>
@@ -10627,7 +10627,7 @@
         <v>0</v>
       </c>
       <c r="X58" s="0" t="str">
-        <f aca="true">IF(O58="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S58)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O58="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S58)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -10666,8 +10666,8 @@
         <v/>
       </c>
       <c r="U59" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V59" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M59,",",REPT(" ",LEN($M59))), 0 *LEN($M59)+1,LEN($M59))) = "", "0", TRIM(MID(SUBSTITUTE($M59,",",REPT(" ",LEN($M59))),0 *LEN($M59)+1,LEN($M59))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M59,",",REPT(" ",LEN($M59))), 1 *LEN($M59)+1,LEN($M59))) = "", "0", TRIM(MID(SUBSTITUTE($M59,",",REPT(" ",LEN($M59))),1 *LEN($M59)+1,LEN($M59))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M59,",",REPT(" ",LEN($M59))), 2 *LEN($M59)+1,LEN($M59))) = "", "0", TRIM(MID(SUBSTITUTE($M59,",",REPT(" ",LEN($M59))),2 *LEN($M59)+1,LEN($M59))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M59,",",REPT(" ",LEN($M59))), 3 *LEN($M59)+1,LEN($M59))) = "", "0", TRIM(MID(SUBSTITUTE($M59,",",REPT(" ",LEN($M59))),3 *LEN($M59)+1,LEN($M59))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M59,",",REPT(" ",LEN($M59))), 4 *LEN($M59)+1,LEN($M59))) = "", "0", TRIM(MID(SUBSTITUTE($M59,",",REPT(" ",LEN($M59))),4 *LEN($M59)+1,LEN($M59))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M59,",",REPT(" ",LEN($M59))), 5 *LEN($M59)+1,LEN($M59))) = "", "0", TRIM(MID(SUBSTITUTE($M59,",",REPT(" ",LEN($M59))),5 *LEN($M59)+1,LEN($M59))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M59,",",REPT(" ",LEN($M59))), 6 *LEN($M59)+1,LEN($M59))) = "", "0", TRIM(MID(SUBSTITUTE($M59,",",REPT(" ",LEN($M59))),6 *LEN($M59)+1,LEN($M59))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M59,",",REPT(" ",LEN($M59))), 7 *LEN($M59)+1,LEN($M59))) = "", "0", TRIM(MID(SUBSTITUTE($M59,",",REPT(" ",LEN($M59))),7 *LEN($M59)+1,LEN($M59))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M59,",",REPT(" ",LEN($M59))), 8 *LEN($M59)+1,LEN($M59))) = "", "0", TRIM(MID(SUBSTITUTE($M59,",",REPT(" ",LEN($M59))),8 *LEN($M59)+1,LEN($M59))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M59,",",REPT(" ",LEN($M59))), 9 *LEN($M59)+1,LEN($M59))) = "", "0", TRIM(MID(SUBSTITUTE($M59,",",REPT(" ",LEN($M59))),9 *LEN($M59)+1,LEN($M59))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M59,",",REPT(" ",LEN($M59))), 10 *LEN($M59)+1,LEN($M59))) = "", "0", TRIM(MID(SUBSTITUTE($M59,",",REPT(" ",LEN($M59))),10 *LEN($M59)+1,LEN($M59)))))</f>
@@ -10678,7 +10678,7 @@
         <v>0</v>
       </c>
       <c r="X59" s="0" t="str">
-        <f aca="true">IF(O59="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S59)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O59="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S59)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -10717,8 +10717,8 @@
         <v/>
       </c>
       <c r="U60" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V60" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M60,",",REPT(" ",LEN($M60))), 0 *LEN($M60)+1,LEN($M60))) = "", "0", TRIM(MID(SUBSTITUTE($M60,",",REPT(" ",LEN($M60))),0 *LEN($M60)+1,LEN($M60))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M60,",",REPT(" ",LEN($M60))), 1 *LEN($M60)+1,LEN($M60))) = "", "0", TRIM(MID(SUBSTITUTE($M60,",",REPT(" ",LEN($M60))),1 *LEN($M60)+1,LEN($M60))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M60,",",REPT(" ",LEN($M60))), 2 *LEN($M60)+1,LEN($M60))) = "", "0", TRIM(MID(SUBSTITUTE($M60,",",REPT(" ",LEN($M60))),2 *LEN($M60)+1,LEN($M60))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M60,",",REPT(" ",LEN($M60))), 3 *LEN($M60)+1,LEN($M60))) = "", "0", TRIM(MID(SUBSTITUTE($M60,",",REPT(" ",LEN($M60))),3 *LEN($M60)+1,LEN($M60))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M60,",",REPT(" ",LEN($M60))), 4 *LEN($M60)+1,LEN($M60))) = "", "0", TRIM(MID(SUBSTITUTE($M60,",",REPT(" ",LEN($M60))),4 *LEN($M60)+1,LEN($M60))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M60,",",REPT(" ",LEN($M60))), 5 *LEN($M60)+1,LEN($M60))) = "", "0", TRIM(MID(SUBSTITUTE($M60,",",REPT(" ",LEN($M60))),5 *LEN($M60)+1,LEN($M60))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M60,",",REPT(" ",LEN($M60))), 6 *LEN($M60)+1,LEN($M60))) = "", "0", TRIM(MID(SUBSTITUTE($M60,",",REPT(" ",LEN($M60))),6 *LEN($M60)+1,LEN($M60))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M60,",",REPT(" ",LEN($M60))), 7 *LEN($M60)+1,LEN($M60))) = "", "0", TRIM(MID(SUBSTITUTE($M60,",",REPT(" ",LEN($M60))),7 *LEN($M60)+1,LEN($M60))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M60,",",REPT(" ",LEN($M60))), 8 *LEN($M60)+1,LEN($M60))) = "", "0", TRIM(MID(SUBSTITUTE($M60,",",REPT(" ",LEN($M60))),8 *LEN($M60)+1,LEN($M60))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M60,",",REPT(" ",LEN($M60))), 9 *LEN($M60)+1,LEN($M60))) = "", "0", TRIM(MID(SUBSTITUTE($M60,",",REPT(" ",LEN($M60))),9 *LEN($M60)+1,LEN($M60))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M60,",",REPT(" ",LEN($M60))), 10 *LEN($M60)+1,LEN($M60))) = "", "0", TRIM(MID(SUBSTITUTE($M60,",",REPT(" ",LEN($M60))),10 *LEN($M60)+1,LEN($M60)))))</f>
@@ -10729,7 +10729,7 @@
         <v>0</v>
       </c>
       <c r="X60" s="0" t="str">
-        <f aca="true">IF(O60="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S60)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O60="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S60)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -10768,8 +10768,8 @@
         <v/>
       </c>
       <c r="U61" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V61" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M61,",",REPT(" ",LEN($M61))), 0 *LEN($M61)+1,LEN($M61))) = "", "0", TRIM(MID(SUBSTITUTE($M61,",",REPT(" ",LEN($M61))),0 *LEN($M61)+1,LEN($M61))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M61,",",REPT(" ",LEN($M61))), 1 *LEN($M61)+1,LEN($M61))) = "", "0", TRIM(MID(SUBSTITUTE($M61,",",REPT(" ",LEN($M61))),1 *LEN($M61)+1,LEN($M61))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M61,",",REPT(" ",LEN($M61))), 2 *LEN($M61)+1,LEN($M61))) = "", "0", TRIM(MID(SUBSTITUTE($M61,",",REPT(" ",LEN($M61))),2 *LEN($M61)+1,LEN($M61))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M61,",",REPT(" ",LEN($M61))), 3 *LEN($M61)+1,LEN($M61))) = "", "0", TRIM(MID(SUBSTITUTE($M61,",",REPT(" ",LEN($M61))),3 *LEN($M61)+1,LEN($M61))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M61,",",REPT(" ",LEN($M61))), 4 *LEN($M61)+1,LEN($M61))) = "", "0", TRIM(MID(SUBSTITUTE($M61,",",REPT(" ",LEN($M61))),4 *LEN($M61)+1,LEN($M61))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M61,",",REPT(" ",LEN($M61))), 5 *LEN($M61)+1,LEN($M61))) = "", "0", TRIM(MID(SUBSTITUTE($M61,",",REPT(" ",LEN($M61))),5 *LEN($M61)+1,LEN($M61))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M61,",",REPT(" ",LEN($M61))), 6 *LEN($M61)+1,LEN($M61))) = "", "0", TRIM(MID(SUBSTITUTE($M61,",",REPT(" ",LEN($M61))),6 *LEN($M61)+1,LEN($M61))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M61,",",REPT(" ",LEN($M61))), 7 *LEN($M61)+1,LEN($M61))) = "", "0", TRIM(MID(SUBSTITUTE($M61,",",REPT(" ",LEN($M61))),7 *LEN($M61)+1,LEN($M61))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M61,",",REPT(" ",LEN($M61))), 8 *LEN($M61)+1,LEN($M61))) = "", "0", TRIM(MID(SUBSTITUTE($M61,",",REPT(" ",LEN($M61))),8 *LEN($M61)+1,LEN($M61))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M61,",",REPT(" ",LEN($M61))), 9 *LEN($M61)+1,LEN($M61))) = "", "0", TRIM(MID(SUBSTITUTE($M61,",",REPT(" ",LEN($M61))),9 *LEN($M61)+1,LEN($M61))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M61,",",REPT(" ",LEN($M61))), 10 *LEN($M61)+1,LEN($M61))) = "", "0", TRIM(MID(SUBSTITUTE($M61,",",REPT(" ",LEN($M61))),10 *LEN($M61)+1,LEN($M61)))))</f>
@@ -10780,7 +10780,7 @@
         <v>0</v>
       </c>
       <c r="X61" s="0" t="str">
-        <f aca="true">IF(O61="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S61)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O61="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S61)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -10819,8 +10819,8 @@
         <v/>
       </c>
       <c r="U62" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V62" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M62,",",REPT(" ",LEN($M62))), 0 *LEN($M62)+1,LEN($M62))) = "", "0", TRIM(MID(SUBSTITUTE($M62,",",REPT(" ",LEN($M62))),0 *LEN($M62)+1,LEN($M62))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M62,",",REPT(" ",LEN($M62))), 1 *LEN($M62)+1,LEN($M62))) = "", "0", TRIM(MID(SUBSTITUTE($M62,",",REPT(" ",LEN($M62))),1 *LEN($M62)+1,LEN($M62))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M62,",",REPT(" ",LEN($M62))), 2 *LEN($M62)+1,LEN($M62))) = "", "0", TRIM(MID(SUBSTITUTE($M62,",",REPT(" ",LEN($M62))),2 *LEN($M62)+1,LEN($M62))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M62,",",REPT(" ",LEN($M62))), 3 *LEN($M62)+1,LEN($M62))) = "", "0", TRIM(MID(SUBSTITUTE($M62,",",REPT(" ",LEN($M62))),3 *LEN($M62)+1,LEN($M62))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M62,",",REPT(" ",LEN($M62))), 4 *LEN($M62)+1,LEN($M62))) = "", "0", TRIM(MID(SUBSTITUTE($M62,",",REPT(" ",LEN($M62))),4 *LEN($M62)+1,LEN($M62))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M62,",",REPT(" ",LEN($M62))), 5 *LEN($M62)+1,LEN($M62))) = "", "0", TRIM(MID(SUBSTITUTE($M62,",",REPT(" ",LEN($M62))),5 *LEN($M62)+1,LEN($M62))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M62,",",REPT(" ",LEN($M62))), 6 *LEN($M62)+1,LEN($M62))) = "", "0", TRIM(MID(SUBSTITUTE($M62,",",REPT(" ",LEN($M62))),6 *LEN($M62)+1,LEN($M62))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M62,",",REPT(" ",LEN($M62))), 7 *LEN($M62)+1,LEN($M62))) = "", "0", TRIM(MID(SUBSTITUTE($M62,",",REPT(" ",LEN($M62))),7 *LEN($M62)+1,LEN($M62))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M62,",",REPT(" ",LEN($M62))), 8 *LEN($M62)+1,LEN($M62))) = "", "0", TRIM(MID(SUBSTITUTE($M62,",",REPT(" ",LEN($M62))),8 *LEN($M62)+1,LEN($M62))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M62,",",REPT(" ",LEN($M62))), 9 *LEN($M62)+1,LEN($M62))) = "", "0", TRIM(MID(SUBSTITUTE($M62,",",REPT(" ",LEN($M62))),9 *LEN($M62)+1,LEN($M62))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M62,",",REPT(" ",LEN($M62))), 10 *LEN($M62)+1,LEN($M62))) = "", "0", TRIM(MID(SUBSTITUTE($M62,",",REPT(" ",LEN($M62))),10 *LEN($M62)+1,LEN($M62)))))</f>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="X62" s="0" t="str">
-        <f aca="true">IF(O62="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S62)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O62="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S62)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -10870,8 +10870,8 @@
         <v/>
       </c>
       <c r="U63" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V63" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M63,",",REPT(" ",LEN($M63))), 0 *LEN($M63)+1,LEN($M63))) = "", "0", TRIM(MID(SUBSTITUTE($M63,",",REPT(" ",LEN($M63))),0 *LEN($M63)+1,LEN($M63))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M63,",",REPT(" ",LEN($M63))), 1 *LEN($M63)+1,LEN($M63))) = "", "0", TRIM(MID(SUBSTITUTE($M63,",",REPT(" ",LEN($M63))),1 *LEN($M63)+1,LEN($M63))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M63,",",REPT(" ",LEN($M63))), 2 *LEN($M63)+1,LEN($M63))) = "", "0", TRIM(MID(SUBSTITUTE($M63,",",REPT(" ",LEN($M63))),2 *LEN($M63)+1,LEN($M63))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M63,",",REPT(" ",LEN($M63))), 3 *LEN($M63)+1,LEN($M63))) = "", "0", TRIM(MID(SUBSTITUTE($M63,",",REPT(" ",LEN($M63))),3 *LEN($M63)+1,LEN($M63))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M63,",",REPT(" ",LEN($M63))), 4 *LEN($M63)+1,LEN($M63))) = "", "0", TRIM(MID(SUBSTITUTE($M63,",",REPT(" ",LEN($M63))),4 *LEN($M63)+1,LEN($M63))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M63,",",REPT(" ",LEN($M63))), 5 *LEN($M63)+1,LEN($M63))) = "", "0", TRIM(MID(SUBSTITUTE($M63,",",REPT(" ",LEN($M63))),5 *LEN($M63)+1,LEN($M63))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M63,",",REPT(" ",LEN($M63))), 6 *LEN($M63)+1,LEN($M63))) = "", "0", TRIM(MID(SUBSTITUTE($M63,",",REPT(" ",LEN($M63))),6 *LEN($M63)+1,LEN($M63))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M63,",",REPT(" ",LEN($M63))), 7 *LEN($M63)+1,LEN($M63))) = "", "0", TRIM(MID(SUBSTITUTE($M63,",",REPT(" ",LEN($M63))),7 *LEN($M63)+1,LEN($M63))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M63,",",REPT(" ",LEN($M63))), 8 *LEN($M63)+1,LEN($M63))) = "", "0", TRIM(MID(SUBSTITUTE($M63,",",REPT(" ",LEN($M63))),8 *LEN($M63)+1,LEN($M63))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M63,",",REPT(" ",LEN($M63))), 9 *LEN($M63)+1,LEN($M63))) = "", "0", TRIM(MID(SUBSTITUTE($M63,",",REPT(" ",LEN($M63))),9 *LEN($M63)+1,LEN($M63))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M63,",",REPT(" ",LEN($M63))), 10 *LEN($M63)+1,LEN($M63))) = "", "0", TRIM(MID(SUBSTITUTE($M63,",",REPT(" ",LEN($M63))),10 *LEN($M63)+1,LEN($M63)))))</f>
@@ -10882,7 +10882,7 @@
         <v>0</v>
       </c>
       <c r="X63" s="0" t="str">
-        <f aca="true">IF(O63="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S63)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O63="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S63)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -10921,8 +10921,8 @@
         <v/>
       </c>
       <c r="U64" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V64" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M64,",",REPT(" ",LEN($M64))), 0 *LEN($M64)+1,LEN($M64))) = "", "0", TRIM(MID(SUBSTITUTE($M64,",",REPT(" ",LEN($M64))),0 *LEN($M64)+1,LEN($M64))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M64,",",REPT(" ",LEN($M64))), 1 *LEN($M64)+1,LEN($M64))) = "", "0", TRIM(MID(SUBSTITUTE($M64,",",REPT(" ",LEN($M64))),1 *LEN($M64)+1,LEN($M64))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M64,",",REPT(" ",LEN($M64))), 2 *LEN($M64)+1,LEN($M64))) = "", "0", TRIM(MID(SUBSTITUTE($M64,",",REPT(" ",LEN($M64))),2 *LEN($M64)+1,LEN($M64))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M64,",",REPT(" ",LEN($M64))), 3 *LEN($M64)+1,LEN($M64))) = "", "0", TRIM(MID(SUBSTITUTE($M64,",",REPT(" ",LEN($M64))),3 *LEN($M64)+1,LEN($M64))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M64,",",REPT(" ",LEN($M64))), 4 *LEN($M64)+1,LEN($M64))) = "", "0", TRIM(MID(SUBSTITUTE($M64,",",REPT(" ",LEN($M64))),4 *LEN($M64)+1,LEN($M64))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M64,",",REPT(" ",LEN($M64))), 5 *LEN($M64)+1,LEN($M64))) = "", "0", TRIM(MID(SUBSTITUTE($M64,",",REPT(" ",LEN($M64))),5 *LEN($M64)+1,LEN($M64))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M64,",",REPT(" ",LEN($M64))), 6 *LEN($M64)+1,LEN($M64))) = "", "0", TRIM(MID(SUBSTITUTE($M64,",",REPT(" ",LEN($M64))),6 *LEN($M64)+1,LEN($M64))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M64,",",REPT(" ",LEN($M64))), 7 *LEN($M64)+1,LEN($M64))) = "", "0", TRIM(MID(SUBSTITUTE($M64,",",REPT(" ",LEN($M64))),7 *LEN($M64)+1,LEN($M64))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M64,",",REPT(" ",LEN($M64))), 8 *LEN($M64)+1,LEN($M64))) = "", "0", TRIM(MID(SUBSTITUTE($M64,",",REPT(" ",LEN($M64))),8 *LEN($M64)+1,LEN($M64))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M64,",",REPT(" ",LEN($M64))), 9 *LEN($M64)+1,LEN($M64))) = "", "0", TRIM(MID(SUBSTITUTE($M64,",",REPT(" ",LEN($M64))),9 *LEN($M64)+1,LEN($M64))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M64,",",REPT(" ",LEN($M64))), 10 *LEN($M64)+1,LEN($M64))) = "", "0", TRIM(MID(SUBSTITUTE($M64,",",REPT(" ",LEN($M64))),10 *LEN($M64)+1,LEN($M64)))))</f>
@@ -10933,7 +10933,7 @@
         <v>0</v>
       </c>
       <c r="X64" s="0" t="str">
-        <f aca="true">IF(O64="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S64)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O64="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S64)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -10972,8 +10972,8 @@
         <v/>
       </c>
       <c r="U65" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V65" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M65,",",REPT(" ",LEN($M65))), 0 *LEN($M65)+1,LEN($M65))) = "", "0", TRIM(MID(SUBSTITUTE($M65,",",REPT(" ",LEN($M65))),0 *LEN($M65)+1,LEN($M65))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M65,",",REPT(" ",LEN($M65))), 1 *LEN($M65)+1,LEN($M65))) = "", "0", TRIM(MID(SUBSTITUTE($M65,",",REPT(" ",LEN($M65))),1 *LEN($M65)+1,LEN($M65))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M65,",",REPT(" ",LEN($M65))), 2 *LEN($M65)+1,LEN($M65))) = "", "0", TRIM(MID(SUBSTITUTE($M65,",",REPT(" ",LEN($M65))),2 *LEN($M65)+1,LEN($M65))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M65,",",REPT(" ",LEN($M65))), 3 *LEN($M65)+1,LEN($M65))) = "", "0", TRIM(MID(SUBSTITUTE($M65,",",REPT(" ",LEN($M65))),3 *LEN($M65)+1,LEN($M65))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M65,",",REPT(" ",LEN($M65))), 4 *LEN($M65)+1,LEN($M65))) = "", "0", TRIM(MID(SUBSTITUTE($M65,",",REPT(" ",LEN($M65))),4 *LEN($M65)+1,LEN($M65))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M65,",",REPT(" ",LEN($M65))), 5 *LEN($M65)+1,LEN($M65))) = "", "0", TRIM(MID(SUBSTITUTE($M65,",",REPT(" ",LEN($M65))),5 *LEN($M65)+1,LEN($M65))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M65,",",REPT(" ",LEN($M65))), 6 *LEN($M65)+1,LEN($M65))) = "", "0", TRIM(MID(SUBSTITUTE($M65,",",REPT(" ",LEN($M65))),6 *LEN($M65)+1,LEN($M65))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M65,",",REPT(" ",LEN($M65))), 7 *LEN($M65)+1,LEN($M65))) = "", "0", TRIM(MID(SUBSTITUTE($M65,",",REPT(" ",LEN($M65))),7 *LEN($M65)+1,LEN($M65))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M65,",",REPT(" ",LEN($M65))), 8 *LEN($M65)+1,LEN($M65))) = "", "0", TRIM(MID(SUBSTITUTE($M65,",",REPT(" ",LEN($M65))),8 *LEN($M65)+1,LEN($M65))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M65,",",REPT(" ",LEN($M65))), 9 *LEN($M65)+1,LEN($M65))) = "", "0", TRIM(MID(SUBSTITUTE($M65,",",REPT(" ",LEN($M65))),9 *LEN($M65)+1,LEN($M65))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M65,",",REPT(" ",LEN($M65))), 10 *LEN($M65)+1,LEN($M65))) = "", "0", TRIM(MID(SUBSTITUTE($M65,",",REPT(" ",LEN($M65))),10 *LEN($M65)+1,LEN($M65)))))</f>
@@ -10984,7 +10984,7 @@
         <v>0</v>
       </c>
       <c r="X65" s="0" t="str">
-        <f aca="true">IF(O65="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S65)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O65="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S65)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -11023,8 +11023,8 @@
         <v/>
       </c>
       <c r="U66" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V66" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M66,",",REPT(" ",LEN($M66))), 0 *LEN($M66)+1,LEN($M66))) = "", "0", TRIM(MID(SUBSTITUTE($M66,",",REPT(" ",LEN($M66))),0 *LEN($M66)+1,LEN($M66))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M66,",",REPT(" ",LEN($M66))), 1 *LEN($M66)+1,LEN($M66))) = "", "0", TRIM(MID(SUBSTITUTE($M66,",",REPT(" ",LEN($M66))),1 *LEN($M66)+1,LEN($M66))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M66,",",REPT(" ",LEN($M66))), 2 *LEN($M66)+1,LEN($M66))) = "", "0", TRIM(MID(SUBSTITUTE($M66,",",REPT(" ",LEN($M66))),2 *LEN($M66)+1,LEN($M66))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M66,",",REPT(" ",LEN($M66))), 3 *LEN($M66)+1,LEN($M66))) = "", "0", TRIM(MID(SUBSTITUTE($M66,",",REPT(" ",LEN($M66))),3 *LEN($M66)+1,LEN($M66))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M66,",",REPT(" ",LEN($M66))), 4 *LEN($M66)+1,LEN($M66))) = "", "0", TRIM(MID(SUBSTITUTE($M66,",",REPT(" ",LEN($M66))),4 *LEN($M66)+1,LEN($M66))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M66,",",REPT(" ",LEN($M66))), 5 *LEN($M66)+1,LEN($M66))) = "", "0", TRIM(MID(SUBSTITUTE($M66,",",REPT(" ",LEN($M66))),5 *LEN($M66)+1,LEN($M66))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M66,",",REPT(" ",LEN($M66))), 6 *LEN($M66)+1,LEN($M66))) = "", "0", TRIM(MID(SUBSTITUTE($M66,",",REPT(" ",LEN($M66))),6 *LEN($M66)+1,LEN($M66))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M66,",",REPT(" ",LEN($M66))), 7 *LEN($M66)+1,LEN($M66))) = "", "0", TRIM(MID(SUBSTITUTE($M66,",",REPT(" ",LEN($M66))),7 *LEN($M66)+1,LEN($M66))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M66,",",REPT(" ",LEN($M66))), 8 *LEN($M66)+1,LEN($M66))) = "", "0", TRIM(MID(SUBSTITUTE($M66,",",REPT(" ",LEN($M66))),8 *LEN($M66)+1,LEN($M66))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M66,",",REPT(" ",LEN($M66))), 9 *LEN($M66)+1,LEN($M66))) = "", "0", TRIM(MID(SUBSTITUTE($M66,",",REPT(" ",LEN($M66))),9 *LEN($M66)+1,LEN($M66))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M66,",",REPT(" ",LEN($M66))), 10 *LEN($M66)+1,LEN($M66))) = "", "0", TRIM(MID(SUBSTITUTE($M66,",",REPT(" ",LEN($M66))),10 *LEN($M66)+1,LEN($M66)))))</f>
@@ -11035,7 +11035,7 @@
         <v>0</v>
       </c>
       <c r="X66" s="0" t="str">
-        <f aca="true">IF(O66="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S66)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O66="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S66)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -11074,8 +11074,8 @@
         <v/>
       </c>
       <c r="U67" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V67" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M67,",",REPT(" ",LEN($M67))), 0 *LEN($M67)+1,LEN($M67))) = "", "0", TRIM(MID(SUBSTITUTE($M67,",",REPT(" ",LEN($M67))),0 *LEN($M67)+1,LEN($M67))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M67,",",REPT(" ",LEN($M67))), 1 *LEN($M67)+1,LEN($M67))) = "", "0", TRIM(MID(SUBSTITUTE($M67,",",REPT(" ",LEN($M67))),1 *LEN($M67)+1,LEN($M67))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M67,",",REPT(" ",LEN($M67))), 2 *LEN($M67)+1,LEN($M67))) = "", "0", TRIM(MID(SUBSTITUTE($M67,",",REPT(" ",LEN($M67))),2 *LEN($M67)+1,LEN($M67))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M67,",",REPT(" ",LEN($M67))), 3 *LEN($M67)+1,LEN($M67))) = "", "0", TRIM(MID(SUBSTITUTE($M67,",",REPT(" ",LEN($M67))),3 *LEN($M67)+1,LEN($M67))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M67,",",REPT(" ",LEN($M67))), 4 *LEN($M67)+1,LEN($M67))) = "", "0", TRIM(MID(SUBSTITUTE($M67,",",REPT(" ",LEN($M67))),4 *LEN($M67)+1,LEN($M67))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M67,",",REPT(" ",LEN($M67))), 5 *LEN($M67)+1,LEN($M67))) = "", "0", TRIM(MID(SUBSTITUTE($M67,",",REPT(" ",LEN($M67))),5 *LEN($M67)+1,LEN($M67))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M67,",",REPT(" ",LEN($M67))), 6 *LEN($M67)+1,LEN($M67))) = "", "0", TRIM(MID(SUBSTITUTE($M67,",",REPT(" ",LEN($M67))),6 *LEN($M67)+1,LEN($M67))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M67,",",REPT(" ",LEN($M67))), 7 *LEN($M67)+1,LEN($M67))) = "", "0", TRIM(MID(SUBSTITUTE($M67,",",REPT(" ",LEN($M67))),7 *LEN($M67)+1,LEN($M67))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M67,",",REPT(" ",LEN($M67))), 8 *LEN($M67)+1,LEN($M67))) = "", "0", TRIM(MID(SUBSTITUTE($M67,",",REPT(" ",LEN($M67))),8 *LEN($M67)+1,LEN($M67))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M67,",",REPT(" ",LEN($M67))), 9 *LEN($M67)+1,LEN($M67))) = "", "0", TRIM(MID(SUBSTITUTE($M67,",",REPT(" ",LEN($M67))),9 *LEN($M67)+1,LEN($M67))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M67,",",REPT(" ",LEN($M67))), 10 *LEN($M67)+1,LEN($M67))) = "", "0", TRIM(MID(SUBSTITUTE($M67,",",REPT(" ",LEN($M67))),10 *LEN($M67)+1,LEN($M67)))))</f>
@@ -11086,7 +11086,7 @@
         <v>0</v>
       </c>
       <c r="X67" s="0" t="str">
-        <f aca="true">IF(O67="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S67)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O67="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S67)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -11125,8 +11125,8 @@
         <v/>
       </c>
       <c r="U68" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V68" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M68,",",REPT(" ",LEN($M68))), 0 *LEN($M68)+1,LEN($M68))) = "", "0", TRIM(MID(SUBSTITUTE($M68,",",REPT(" ",LEN($M68))),0 *LEN($M68)+1,LEN($M68))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M68,",",REPT(" ",LEN($M68))), 1 *LEN($M68)+1,LEN($M68))) = "", "0", TRIM(MID(SUBSTITUTE($M68,",",REPT(" ",LEN($M68))),1 *LEN($M68)+1,LEN($M68))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M68,",",REPT(" ",LEN($M68))), 2 *LEN($M68)+1,LEN($M68))) = "", "0", TRIM(MID(SUBSTITUTE($M68,",",REPT(" ",LEN($M68))),2 *LEN($M68)+1,LEN($M68))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M68,",",REPT(" ",LEN($M68))), 3 *LEN($M68)+1,LEN($M68))) = "", "0", TRIM(MID(SUBSTITUTE($M68,",",REPT(" ",LEN($M68))),3 *LEN($M68)+1,LEN($M68))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M68,",",REPT(" ",LEN($M68))), 4 *LEN($M68)+1,LEN($M68))) = "", "0", TRIM(MID(SUBSTITUTE($M68,",",REPT(" ",LEN($M68))),4 *LEN($M68)+1,LEN($M68))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M68,",",REPT(" ",LEN($M68))), 5 *LEN($M68)+1,LEN($M68))) = "", "0", TRIM(MID(SUBSTITUTE($M68,",",REPT(" ",LEN($M68))),5 *LEN($M68)+1,LEN($M68))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M68,",",REPT(" ",LEN($M68))), 6 *LEN($M68)+1,LEN($M68))) = "", "0", TRIM(MID(SUBSTITUTE($M68,",",REPT(" ",LEN($M68))),6 *LEN($M68)+1,LEN($M68))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M68,",",REPT(" ",LEN($M68))), 7 *LEN($M68)+1,LEN($M68))) = "", "0", TRIM(MID(SUBSTITUTE($M68,",",REPT(" ",LEN($M68))),7 *LEN($M68)+1,LEN($M68))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M68,",",REPT(" ",LEN($M68))), 8 *LEN($M68)+1,LEN($M68))) = "", "0", TRIM(MID(SUBSTITUTE($M68,",",REPT(" ",LEN($M68))),8 *LEN($M68)+1,LEN($M68))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M68,",",REPT(" ",LEN($M68))), 9 *LEN($M68)+1,LEN($M68))) = "", "0", TRIM(MID(SUBSTITUTE($M68,",",REPT(" ",LEN($M68))),9 *LEN($M68)+1,LEN($M68))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M68,",",REPT(" ",LEN($M68))), 10 *LEN($M68)+1,LEN($M68))) = "", "0", TRIM(MID(SUBSTITUTE($M68,",",REPT(" ",LEN($M68))),10 *LEN($M68)+1,LEN($M68)))))</f>
@@ -11137,7 +11137,7 @@
         <v>0</v>
       </c>
       <c r="X68" s="0" t="str">
-        <f aca="true">IF(O68="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S68)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O68="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S68)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -11176,8 +11176,8 @@
         <v/>
       </c>
       <c r="U69" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V69" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M69,",",REPT(" ",LEN($M69))), 0 *LEN($M69)+1,LEN($M69))) = "", "0", TRIM(MID(SUBSTITUTE($M69,",",REPT(" ",LEN($M69))),0 *LEN($M69)+1,LEN($M69))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M69,",",REPT(" ",LEN($M69))), 1 *LEN($M69)+1,LEN($M69))) = "", "0", TRIM(MID(SUBSTITUTE($M69,",",REPT(" ",LEN($M69))),1 *LEN($M69)+1,LEN($M69))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M69,",",REPT(" ",LEN($M69))), 2 *LEN($M69)+1,LEN($M69))) = "", "0", TRIM(MID(SUBSTITUTE($M69,",",REPT(" ",LEN($M69))),2 *LEN($M69)+1,LEN($M69))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M69,",",REPT(" ",LEN($M69))), 3 *LEN($M69)+1,LEN($M69))) = "", "0", TRIM(MID(SUBSTITUTE($M69,",",REPT(" ",LEN($M69))),3 *LEN($M69)+1,LEN($M69))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M69,",",REPT(" ",LEN($M69))), 4 *LEN($M69)+1,LEN($M69))) = "", "0", TRIM(MID(SUBSTITUTE($M69,",",REPT(" ",LEN($M69))),4 *LEN($M69)+1,LEN($M69))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M69,",",REPT(" ",LEN($M69))), 5 *LEN($M69)+1,LEN($M69))) = "", "0", TRIM(MID(SUBSTITUTE($M69,",",REPT(" ",LEN($M69))),5 *LEN($M69)+1,LEN($M69))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M69,",",REPT(" ",LEN($M69))), 6 *LEN($M69)+1,LEN($M69))) = "", "0", TRIM(MID(SUBSTITUTE($M69,",",REPT(" ",LEN($M69))),6 *LEN($M69)+1,LEN($M69))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M69,",",REPT(" ",LEN($M69))), 7 *LEN($M69)+1,LEN($M69))) = "", "0", TRIM(MID(SUBSTITUTE($M69,",",REPT(" ",LEN($M69))),7 *LEN($M69)+1,LEN($M69))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M69,",",REPT(" ",LEN($M69))), 8 *LEN($M69)+1,LEN($M69))) = "", "0", TRIM(MID(SUBSTITUTE($M69,",",REPT(" ",LEN($M69))),8 *LEN($M69)+1,LEN($M69))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M69,",",REPT(" ",LEN($M69))), 9 *LEN($M69)+1,LEN($M69))) = "", "0", TRIM(MID(SUBSTITUTE($M69,",",REPT(" ",LEN($M69))),9 *LEN($M69)+1,LEN($M69))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M69,",",REPT(" ",LEN($M69))), 10 *LEN($M69)+1,LEN($M69))) = "", "0", TRIM(MID(SUBSTITUTE($M69,",",REPT(" ",LEN($M69))),10 *LEN($M69)+1,LEN($M69)))))</f>
@@ -11188,7 +11188,7 @@
         <v>0</v>
       </c>
       <c r="X69" s="0" t="str">
-        <f aca="true">IF(O69="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S69)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O69="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S69)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -11227,8 +11227,8 @@
         <v/>
       </c>
       <c r="U70" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V70" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M70,",",REPT(" ",LEN($M70))), 0 *LEN($M70)+1,LEN($M70))) = "", "0", TRIM(MID(SUBSTITUTE($M70,",",REPT(" ",LEN($M70))),0 *LEN($M70)+1,LEN($M70))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M70,",",REPT(" ",LEN($M70))), 1 *LEN($M70)+1,LEN($M70))) = "", "0", TRIM(MID(SUBSTITUTE($M70,",",REPT(" ",LEN($M70))),1 *LEN($M70)+1,LEN($M70))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M70,",",REPT(" ",LEN($M70))), 2 *LEN($M70)+1,LEN($M70))) = "", "0", TRIM(MID(SUBSTITUTE($M70,",",REPT(" ",LEN($M70))),2 *LEN($M70)+1,LEN($M70))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M70,",",REPT(" ",LEN($M70))), 3 *LEN($M70)+1,LEN($M70))) = "", "0", TRIM(MID(SUBSTITUTE($M70,",",REPT(" ",LEN($M70))),3 *LEN($M70)+1,LEN($M70))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M70,",",REPT(" ",LEN($M70))), 4 *LEN($M70)+1,LEN($M70))) = "", "0", TRIM(MID(SUBSTITUTE($M70,",",REPT(" ",LEN($M70))),4 *LEN($M70)+1,LEN($M70))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M70,",",REPT(" ",LEN($M70))), 5 *LEN($M70)+1,LEN($M70))) = "", "0", TRIM(MID(SUBSTITUTE($M70,",",REPT(" ",LEN($M70))),5 *LEN($M70)+1,LEN($M70))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M70,",",REPT(" ",LEN($M70))), 6 *LEN($M70)+1,LEN($M70))) = "", "0", TRIM(MID(SUBSTITUTE($M70,",",REPT(" ",LEN($M70))),6 *LEN($M70)+1,LEN($M70))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M70,",",REPT(" ",LEN($M70))), 7 *LEN($M70)+1,LEN($M70))) = "", "0", TRIM(MID(SUBSTITUTE($M70,",",REPT(" ",LEN($M70))),7 *LEN($M70)+1,LEN($M70))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M70,",",REPT(" ",LEN($M70))), 8 *LEN($M70)+1,LEN($M70))) = "", "0", TRIM(MID(SUBSTITUTE($M70,",",REPT(" ",LEN($M70))),8 *LEN($M70)+1,LEN($M70))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M70,",",REPT(" ",LEN($M70))), 9 *LEN($M70)+1,LEN($M70))) = "", "0", TRIM(MID(SUBSTITUTE($M70,",",REPT(" ",LEN($M70))),9 *LEN($M70)+1,LEN($M70))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M70,",",REPT(" ",LEN($M70))), 10 *LEN($M70)+1,LEN($M70))) = "", "0", TRIM(MID(SUBSTITUTE($M70,",",REPT(" ",LEN($M70))),10 *LEN($M70)+1,LEN($M70)))))</f>
@@ -11239,7 +11239,7 @@
         <v>0</v>
       </c>
       <c r="X70" s="0" t="str">
-        <f aca="true">IF(O70="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S70)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O70="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S70)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -11278,8 +11278,8 @@
         <v/>
       </c>
       <c r="U71" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V71" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M71,",",REPT(" ",LEN($M71))), 0 *LEN($M71)+1,LEN($M71))) = "", "0", TRIM(MID(SUBSTITUTE($M71,",",REPT(" ",LEN($M71))),0 *LEN($M71)+1,LEN($M71))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M71,",",REPT(" ",LEN($M71))), 1 *LEN($M71)+1,LEN($M71))) = "", "0", TRIM(MID(SUBSTITUTE($M71,",",REPT(" ",LEN($M71))),1 *LEN($M71)+1,LEN($M71))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M71,",",REPT(" ",LEN($M71))), 2 *LEN($M71)+1,LEN($M71))) = "", "0", TRIM(MID(SUBSTITUTE($M71,",",REPT(" ",LEN($M71))),2 *LEN($M71)+1,LEN($M71))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M71,",",REPT(" ",LEN($M71))), 3 *LEN($M71)+1,LEN($M71))) = "", "0", TRIM(MID(SUBSTITUTE($M71,",",REPT(" ",LEN($M71))),3 *LEN($M71)+1,LEN($M71))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M71,",",REPT(" ",LEN($M71))), 4 *LEN($M71)+1,LEN($M71))) = "", "0", TRIM(MID(SUBSTITUTE($M71,",",REPT(" ",LEN($M71))),4 *LEN($M71)+1,LEN($M71))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M71,",",REPT(" ",LEN($M71))), 5 *LEN($M71)+1,LEN($M71))) = "", "0", TRIM(MID(SUBSTITUTE($M71,",",REPT(" ",LEN($M71))),5 *LEN($M71)+1,LEN($M71))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M71,",",REPT(" ",LEN($M71))), 6 *LEN($M71)+1,LEN($M71))) = "", "0", TRIM(MID(SUBSTITUTE($M71,",",REPT(" ",LEN($M71))),6 *LEN($M71)+1,LEN($M71))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M71,",",REPT(" ",LEN($M71))), 7 *LEN($M71)+1,LEN($M71))) = "", "0", TRIM(MID(SUBSTITUTE($M71,",",REPT(" ",LEN($M71))),7 *LEN($M71)+1,LEN($M71))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M71,",",REPT(" ",LEN($M71))), 8 *LEN($M71)+1,LEN($M71))) = "", "0", TRIM(MID(SUBSTITUTE($M71,",",REPT(" ",LEN($M71))),8 *LEN($M71)+1,LEN($M71))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M71,",",REPT(" ",LEN($M71))), 9 *LEN($M71)+1,LEN($M71))) = "", "0", TRIM(MID(SUBSTITUTE($M71,",",REPT(" ",LEN($M71))),9 *LEN($M71)+1,LEN($M71))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M71,",",REPT(" ",LEN($M71))), 10 *LEN($M71)+1,LEN($M71))) = "", "0", TRIM(MID(SUBSTITUTE($M71,",",REPT(" ",LEN($M71))),10 *LEN($M71)+1,LEN($M71)))))</f>
@@ -11290,7 +11290,7 @@
         <v>0</v>
       </c>
       <c r="X71" s="0" t="str">
-        <f aca="true">IF(O71="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S71)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O71="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S71)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -11329,8 +11329,8 @@
         <v/>
       </c>
       <c r="U72" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V72" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M72,",",REPT(" ",LEN($M72))), 0 *LEN($M72)+1,LEN($M72))) = "", "0", TRIM(MID(SUBSTITUTE($M72,",",REPT(" ",LEN($M72))),0 *LEN($M72)+1,LEN($M72))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M72,",",REPT(" ",LEN($M72))), 1 *LEN($M72)+1,LEN($M72))) = "", "0", TRIM(MID(SUBSTITUTE($M72,",",REPT(" ",LEN($M72))),1 *LEN($M72)+1,LEN($M72))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M72,",",REPT(" ",LEN($M72))), 2 *LEN($M72)+1,LEN($M72))) = "", "0", TRIM(MID(SUBSTITUTE($M72,",",REPT(" ",LEN($M72))),2 *LEN($M72)+1,LEN($M72))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M72,",",REPT(" ",LEN($M72))), 3 *LEN($M72)+1,LEN($M72))) = "", "0", TRIM(MID(SUBSTITUTE($M72,",",REPT(" ",LEN($M72))),3 *LEN($M72)+1,LEN($M72))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M72,",",REPT(" ",LEN($M72))), 4 *LEN($M72)+1,LEN($M72))) = "", "0", TRIM(MID(SUBSTITUTE($M72,",",REPT(" ",LEN($M72))),4 *LEN($M72)+1,LEN($M72))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M72,",",REPT(" ",LEN($M72))), 5 *LEN($M72)+1,LEN($M72))) = "", "0", TRIM(MID(SUBSTITUTE($M72,",",REPT(" ",LEN($M72))),5 *LEN($M72)+1,LEN($M72))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M72,",",REPT(" ",LEN($M72))), 6 *LEN($M72)+1,LEN($M72))) = "", "0", TRIM(MID(SUBSTITUTE($M72,",",REPT(" ",LEN($M72))),6 *LEN($M72)+1,LEN($M72))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M72,",",REPT(" ",LEN($M72))), 7 *LEN($M72)+1,LEN($M72))) = "", "0", TRIM(MID(SUBSTITUTE($M72,",",REPT(" ",LEN($M72))),7 *LEN($M72)+1,LEN($M72))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M72,",",REPT(" ",LEN($M72))), 8 *LEN($M72)+1,LEN($M72))) = "", "0", TRIM(MID(SUBSTITUTE($M72,",",REPT(" ",LEN($M72))),8 *LEN($M72)+1,LEN($M72))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M72,",",REPT(" ",LEN($M72))), 9 *LEN($M72)+1,LEN($M72))) = "", "0", TRIM(MID(SUBSTITUTE($M72,",",REPT(" ",LEN($M72))),9 *LEN($M72)+1,LEN($M72))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M72,",",REPT(" ",LEN($M72))), 10 *LEN($M72)+1,LEN($M72))) = "", "0", TRIM(MID(SUBSTITUTE($M72,",",REPT(" ",LEN($M72))),10 *LEN($M72)+1,LEN($M72)))))</f>
@@ -11341,7 +11341,7 @@
         <v>0</v>
       </c>
       <c r="X72" s="0" t="str">
-        <f aca="true">IF(O72="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S72)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O72="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S72)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -11380,8 +11380,8 @@
         <v/>
       </c>
       <c r="U73" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V73" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M73,",",REPT(" ",LEN($M73))), 0 *LEN($M73)+1,LEN($M73))) = "", "0", TRIM(MID(SUBSTITUTE($M73,",",REPT(" ",LEN($M73))),0 *LEN($M73)+1,LEN($M73))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M73,",",REPT(" ",LEN($M73))), 1 *LEN($M73)+1,LEN($M73))) = "", "0", TRIM(MID(SUBSTITUTE($M73,",",REPT(" ",LEN($M73))),1 *LEN($M73)+1,LEN($M73))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M73,",",REPT(" ",LEN($M73))), 2 *LEN($M73)+1,LEN($M73))) = "", "0", TRIM(MID(SUBSTITUTE($M73,",",REPT(" ",LEN($M73))),2 *LEN($M73)+1,LEN($M73))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M73,",",REPT(" ",LEN($M73))), 3 *LEN($M73)+1,LEN($M73))) = "", "0", TRIM(MID(SUBSTITUTE($M73,",",REPT(" ",LEN($M73))),3 *LEN($M73)+1,LEN($M73))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M73,",",REPT(" ",LEN($M73))), 4 *LEN($M73)+1,LEN($M73))) = "", "0", TRIM(MID(SUBSTITUTE($M73,",",REPT(" ",LEN($M73))),4 *LEN($M73)+1,LEN($M73))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M73,",",REPT(" ",LEN($M73))), 5 *LEN($M73)+1,LEN($M73))) = "", "0", TRIM(MID(SUBSTITUTE($M73,",",REPT(" ",LEN($M73))),5 *LEN($M73)+1,LEN($M73))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M73,",",REPT(" ",LEN($M73))), 6 *LEN($M73)+1,LEN($M73))) = "", "0", TRIM(MID(SUBSTITUTE($M73,",",REPT(" ",LEN($M73))),6 *LEN($M73)+1,LEN($M73))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M73,",",REPT(" ",LEN($M73))), 7 *LEN($M73)+1,LEN($M73))) = "", "0", TRIM(MID(SUBSTITUTE($M73,",",REPT(" ",LEN($M73))),7 *LEN($M73)+1,LEN($M73))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M73,",",REPT(" ",LEN($M73))), 8 *LEN($M73)+1,LEN($M73))) = "", "0", TRIM(MID(SUBSTITUTE($M73,",",REPT(" ",LEN($M73))),8 *LEN($M73)+1,LEN($M73))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M73,",",REPT(" ",LEN($M73))), 9 *LEN($M73)+1,LEN($M73))) = "", "0", TRIM(MID(SUBSTITUTE($M73,",",REPT(" ",LEN($M73))),9 *LEN($M73)+1,LEN($M73))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M73,",",REPT(" ",LEN($M73))), 10 *LEN($M73)+1,LEN($M73))) = "", "0", TRIM(MID(SUBSTITUTE($M73,",",REPT(" ",LEN($M73))),10 *LEN($M73)+1,LEN($M73)))))</f>
@@ -11392,7 +11392,7 @@
         <v>0</v>
       </c>
       <c r="X73" s="0" t="str">
-        <f aca="true">IF(O73="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S73)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O73="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S73)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -11431,8 +11431,8 @@
         <v/>
       </c>
       <c r="U74" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V74" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M74,",",REPT(" ",LEN($M74))), 0 *LEN($M74)+1,LEN($M74))) = "", "0", TRIM(MID(SUBSTITUTE($M74,",",REPT(" ",LEN($M74))),0 *LEN($M74)+1,LEN($M74))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M74,",",REPT(" ",LEN($M74))), 1 *LEN($M74)+1,LEN($M74))) = "", "0", TRIM(MID(SUBSTITUTE($M74,",",REPT(" ",LEN($M74))),1 *LEN($M74)+1,LEN($M74))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M74,",",REPT(" ",LEN($M74))), 2 *LEN($M74)+1,LEN($M74))) = "", "0", TRIM(MID(SUBSTITUTE($M74,",",REPT(" ",LEN($M74))),2 *LEN($M74)+1,LEN($M74))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M74,",",REPT(" ",LEN($M74))), 3 *LEN($M74)+1,LEN($M74))) = "", "0", TRIM(MID(SUBSTITUTE($M74,",",REPT(" ",LEN($M74))),3 *LEN($M74)+1,LEN($M74))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M74,",",REPT(" ",LEN($M74))), 4 *LEN($M74)+1,LEN($M74))) = "", "0", TRIM(MID(SUBSTITUTE($M74,",",REPT(" ",LEN($M74))),4 *LEN($M74)+1,LEN($M74))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M74,",",REPT(" ",LEN($M74))), 5 *LEN($M74)+1,LEN($M74))) = "", "0", TRIM(MID(SUBSTITUTE($M74,",",REPT(" ",LEN($M74))),5 *LEN($M74)+1,LEN($M74))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M74,",",REPT(" ",LEN($M74))), 6 *LEN($M74)+1,LEN($M74))) = "", "0", TRIM(MID(SUBSTITUTE($M74,",",REPT(" ",LEN($M74))),6 *LEN($M74)+1,LEN($M74))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M74,",",REPT(" ",LEN($M74))), 7 *LEN($M74)+1,LEN($M74))) = "", "0", TRIM(MID(SUBSTITUTE($M74,",",REPT(" ",LEN($M74))),7 *LEN($M74)+1,LEN($M74))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M74,",",REPT(" ",LEN($M74))), 8 *LEN($M74)+1,LEN($M74))) = "", "0", TRIM(MID(SUBSTITUTE($M74,",",REPT(" ",LEN($M74))),8 *LEN($M74)+1,LEN($M74))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M74,",",REPT(" ",LEN($M74))), 9 *LEN($M74)+1,LEN($M74))) = "", "0", TRIM(MID(SUBSTITUTE($M74,",",REPT(" ",LEN($M74))),9 *LEN($M74)+1,LEN($M74))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M74,",",REPT(" ",LEN($M74))), 10 *LEN($M74)+1,LEN($M74))) = "", "0", TRIM(MID(SUBSTITUTE($M74,",",REPT(" ",LEN($M74))),10 *LEN($M74)+1,LEN($M74)))))</f>
@@ -11443,7 +11443,7 @@
         <v>0</v>
       </c>
       <c r="X74" s="0" t="str">
-        <f aca="true">IF(O74="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S74)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O74="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S74)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -11482,8 +11482,8 @@
         <v/>
       </c>
       <c r="U75" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V75" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M75,",",REPT(" ",LEN($M75))), 0 *LEN($M75)+1,LEN($M75))) = "", "0", TRIM(MID(SUBSTITUTE($M75,",",REPT(" ",LEN($M75))),0 *LEN($M75)+1,LEN($M75))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M75,",",REPT(" ",LEN($M75))), 1 *LEN($M75)+1,LEN($M75))) = "", "0", TRIM(MID(SUBSTITUTE($M75,",",REPT(" ",LEN($M75))),1 *LEN($M75)+1,LEN($M75))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M75,",",REPT(" ",LEN($M75))), 2 *LEN($M75)+1,LEN($M75))) = "", "0", TRIM(MID(SUBSTITUTE($M75,",",REPT(" ",LEN($M75))),2 *LEN($M75)+1,LEN($M75))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M75,",",REPT(" ",LEN($M75))), 3 *LEN($M75)+1,LEN($M75))) = "", "0", TRIM(MID(SUBSTITUTE($M75,",",REPT(" ",LEN($M75))),3 *LEN($M75)+1,LEN($M75))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M75,",",REPT(" ",LEN($M75))), 4 *LEN($M75)+1,LEN($M75))) = "", "0", TRIM(MID(SUBSTITUTE($M75,",",REPT(" ",LEN($M75))),4 *LEN($M75)+1,LEN($M75))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M75,",",REPT(" ",LEN($M75))), 5 *LEN($M75)+1,LEN($M75))) = "", "0", TRIM(MID(SUBSTITUTE($M75,",",REPT(" ",LEN($M75))),5 *LEN($M75)+1,LEN($M75))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M75,",",REPT(" ",LEN($M75))), 6 *LEN($M75)+1,LEN($M75))) = "", "0", TRIM(MID(SUBSTITUTE($M75,",",REPT(" ",LEN($M75))),6 *LEN($M75)+1,LEN($M75))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M75,",",REPT(" ",LEN($M75))), 7 *LEN($M75)+1,LEN($M75))) = "", "0", TRIM(MID(SUBSTITUTE($M75,",",REPT(" ",LEN($M75))),7 *LEN($M75)+1,LEN($M75))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M75,",",REPT(" ",LEN($M75))), 8 *LEN($M75)+1,LEN($M75))) = "", "0", TRIM(MID(SUBSTITUTE($M75,",",REPT(" ",LEN($M75))),8 *LEN($M75)+1,LEN($M75))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M75,",",REPT(" ",LEN($M75))), 9 *LEN($M75)+1,LEN($M75))) = "", "0", TRIM(MID(SUBSTITUTE($M75,",",REPT(" ",LEN($M75))),9 *LEN($M75)+1,LEN($M75))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M75,",",REPT(" ",LEN($M75))), 10 *LEN($M75)+1,LEN($M75))) = "", "0", TRIM(MID(SUBSTITUTE($M75,",",REPT(" ",LEN($M75))),10 *LEN($M75)+1,LEN($M75)))))</f>
@@ -11494,7 +11494,7 @@
         <v>0</v>
       </c>
       <c r="X75" s="0" t="str">
-        <f aca="true">IF(O75="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S75)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O75="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S75)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -11533,8 +11533,8 @@
         <v/>
       </c>
       <c r="U76" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V76" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M76,",",REPT(" ",LEN($M76))), 0 *LEN($M76)+1,LEN($M76))) = "", "0", TRIM(MID(SUBSTITUTE($M76,",",REPT(" ",LEN($M76))),0 *LEN($M76)+1,LEN($M76))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M76,",",REPT(" ",LEN($M76))), 1 *LEN($M76)+1,LEN($M76))) = "", "0", TRIM(MID(SUBSTITUTE($M76,",",REPT(" ",LEN($M76))),1 *LEN($M76)+1,LEN($M76))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M76,",",REPT(" ",LEN($M76))), 2 *LEN($M76)+1,LEN($M76))) = "", "0", TRIM(MID(SUBSTITUTE($M76,",",REPT(" ",LEN($M76))),2 *LEN($M76)+1,LEN($M76))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M76,",",REPT(" ",LEN($M76))), 3 *LEN($M76)+1,LEN($M76))) = "", "0", TRIM(MID(SUBSTITUTE($M76,",",REPT(" ",LEN($M76))),3 *LEN($M76)+1,LEN($M76))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M76,",",REPT(" ",LEN($M76))), 4 *LEN($M76)+1,LEN($M76))) = "", "0", TRIM(MID(SUBSTITUTE($M76,",",REPT(" ",LEN($M76))),4 *LEN($M76)+1,LEN($M76))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M76,",",REPT(" ",LEN($M76))), 5 *LEN($M76)+1,LEN($M76))) = "", "0", TRIM(MID(SUBSTITUTE($M76,",",REPT(" ",LEN($M76))),5 *LEN($M76)+1,LEN($M76))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M76,",",REPT(" ",LEN($M76))), 6 *LEN($M76)+1,LEN($M76))) = "", "0", TRIM(MID(SUBSTITUTE($M76,",",REPT(" ",LEN($M76))),6 *LEN($M76)+1,LEN($M76))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M76,",",REPT(" ",LEN($M76))), 7 *LEN($M76)+1,LEN($M76))) = "", "0", TRIM(MID(SUBSTITUTE($M76,",",REPT(" ",LEN($M76))),7 *LEN($M76)+1,LEN($M76))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M76,",",REPT(" ",LEN($M76))), 8 *LEN($M76)+1,LEN($M76))) = "", "0", TRIM(MID(SUBSTITUTE($M76,",",REPT(" ",LEN($M76))),8 *LEN($M76)+1,LEN($M76))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M76,",",REPT(" ",LEN($M76))), 9 *LEN($M76)+1,LEN($M76))) = "", "0", TRIM(MID(SUBSTITUTE($M76,",",REPT(" ",LEN($M76))),9 *LEN($M76)+1,LEN($M76))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M76,",",REPT(" ",LEN($M76))), 10 *LEN($M76)+1,LEN($M76))) = "", "0", TRIM(MID(SUBSTITUTE($M76,",",REPT(" ",LEN($M76))),10 *LEN($M76)+1,LEN($M76)))))</f>
@@ -11545,7 +11545,7 @@
         <v>0</v>
       </c>
       <c r="X76" s="0" t="str">
-        <f aca="true">IF(O76="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S76)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O76="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S76)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -11584,8 +11584,8 @@
         <v/>
       </c>
       <c r="U77" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V77" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M77,",",REPT(" ",LEN($M77))), 0 *LEN($M77)+1,LEN($M77))) = "", "0", TRIM(MID(SUBSTITUTE($M77,",",REPT(" ",LEN($M77))),0 *LEN($M77)+1,LEN($M77))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M77,",",REPT(" ",LEN($M77))), 1 *LEN($M77)+1,LEN($M77))) = "", "0", TRIM(MID(SUBSTITUTE($M77,",",REPT(" ",LEN($M77))),1 *LEN($M77)+1,LEN($M77))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M77,",",REPT(" ",LEN($M77))), 2 *LEN($M77)+1,LEN($M77))) = "", "0", TRIM(MID(SUBSTITUTE($M77,",",REPT(" ",LEN($M77))),2 *LEN($M77)+1,LEN($M77))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M77,",",REPT(" ",LEN($M77))), 3 *LEN($M77)+1,LEN($M77))) = "", "0", TRIM(MID(SUBSTITUTE($M77,",",REPT(" ",LEN($M77))),3 *LEN($M77)+1,LEN($M77))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M77,",",REPT(" ",LEN($M77))), 4 *LEN($M77)+1,LEN($M77))) = "", "0", TRIM(MID(SUBSTITUTE($M77,",",REPT(" ",LEN($M77))),4 *LEN($M77)+1,LEN($M77))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M77,",",REPT(" ",LEN($M77))), 5 *LEN($M77)+1,LEN($M77))) = "", "0", TRIM(MID(SUBSTITUTE($M77,",",REPT(" ",LEN($M77))),5 *LEN($M77)+1,LEN($M77))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M77,",",REPT(" ",LEN($M77))), 6 *LEN($M77)+1,LEN($M77))) = "", "0", TRIM(MID(SUBSTITUTE($M77,",",REPT(" ",LEN($M77))),6 *LEN($M77)+1,LEN($M77))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M77,",",REPT(" ",LEN($M77))), 7 *LEN($M77)+1,LEN($M77))) = "", "0", TRIM(MID(SUBSTITUTE($M77,",",REPT(" ",LEN($M77))),7 *LEN($M77)+1,LEN($M77))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M77,",",REPT(" ",LEN($M77))), 8 *LEN($M77)+1,LEN($M77))) = "", "0", TRIM(MID(SUBSTITUTE($M77,",",REPT(" ",LEN($M77))),8 *LEN($M77)+1,LEN($M77))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M77,",",REPT(" ",LEN($M77))), 9 *LEN($M77)+1,LEN($M77))) = "", "0", TRIM(MID(SUBSTITUTE($M77,",",REPT(" ",LEN($M77))),9 *LEN($M77)+1,LEN($M77))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M77,",",REPT(" ",LEN($M77))), 10 *LEN($M77)+1,LEN($M77))) = "", "0", TRIM(MID(SUBSTITUTE($M77,",",REPT(" ",LEN($M77))),10 *LEN($M77)+1,LEN($M77)))))</f>
@@ -11596,7 +11596,7 @@
         <v>0</v>
       </c>
       <c r="X77" s="0" t="str">
-        <f aca="true">IF(O77="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S77)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O77="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S77)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -11635,8 +11635,8 @@
         <v/>
       </c>
       <c r="U78" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V78" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M78,",",REPT(" ",LEN($M78))), 0 *LEN($M78)+1,LEN($M78))) = "", "0", TRIM(MID(SUBSTITUTE($M78,",",REPT(" ",LEN($M78))),0 *LEN($M78)+1,LEN($M78))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M78,",",REPT(" ",LEN($M78))), 1 *LEN($M78)+1,LEN($M78))) = "", "0", TRIM(MID(SUBSTITUTE($M78,",",REPT(" ",LEN($M78))),1 *LEN($M78)+1,LEN($M78))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M78,",",REPT(" ",LEN($M78))), 2 *LEN($M78)+1,LEN($M78))) = "", "0", TRIM(MID(SUBSTITUTE($M78,",",REPT(" ",LEN($M78))),2 *LEN($M78)+1,LEN($M78))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M78,",",REPT(" ",LEN($M78))), 3 *LEN($M78)+1,LEN($M78))) = "", "0", TRIM(MID(SUBSTITUTE($M78,",",REPT(" ",LEN($M78))),3 *LEN($M78)+1,LEN($M78))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M78,",",REPT(" ",LEN($M78))), 4 *LEN($M78)+1,LEN($M78))) = "", "0", TRIM(MID(SUBSTITUTE($M78,",",REPT(" ",LEN($M78))),4 *LEN($M78)+1,LEN($M78))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M78,",",REPT(" ",LEN($M78))), 5 *LEN($M78)+1,LEN($M78))) = "", "0", TRIM(MID(SUBSTITUTE($M78,",",REPT(" ",LEN($M78))),5 *LEN($M78)+1,LEN($M78))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M78,",",REPT(" ",LEN($M78))), 6 *LEN($M78)+1,LEN($M78))) = "", "0", TRIM(MID(SUBSTITUTE($M78,",",REPT(" ",LEN($M78))),6 *LEN($M78)+1,LEN($M78))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M78,",",REPT(" ",LEN($M78))), 7 *LEN($M78)+1,LEN($M78))) = "", "0", TRIM(MID(SUBSTITUTE($M78,",",REPT(" ",LEN($M78))),7 *LEN($M78)+1,LEN($M78))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M78,",",REPT(" ",LEN($M78))), 8 *LEN($M78)+1,LEN($M78))) = "", "0", TRIM(MID(SUBSTITUTE($M78,",",REPT(" ",LEN($M78))),8 *LEN($M78)+1,LEN($M78))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M78,",",REPT(" ",LEN($M78))), 9 *LEN($M78)+1,LEN($M78))) = "", "0", TRIM(MID(SUBSTITUTE($M78,",",REPT(" ",LEN($M78))),9 *LEN($M78)+1,LEN($M78))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M78,",",REPT(" ",LEN($M78))), 10 *LEN($M78)+1,LEN($M78))) = "", "0", TRIM(MID(SUBSTITUTE($M78,",",REPT(" ",LEN($M78))),10 *LEN($M78)+1,LEN($M78)))))</f>
@@ -11647,7 +11647,7 @@
         <v>0</v>
       </c>
       <c r="X78" s="0" t="str">
-        <f aca="true">IF(O78="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S78)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O78="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S78)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -11686,8 +11686,8 @@
         <v/>
       </c>
       <c r="U79" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V79" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M79,",",REPT(" ",LEN($M79))), 0 *LEN($M79)+1,LEN($M79))) = "", "0", TRIM(MID(SUBSTITUTE($M79,",",REPT(" ",LEN($M79))),0 *LEN($M79)+1,LEN($M79))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M79,",",REPT(" ",LEN($M79))), 1 *LEN($M79)+1,LEN($M79))) = "", "0", TRIM(MID(SUBSTITUTE($M79,",",REPT(" ",LEN($M79))),1 *LEN($M79)+1,LEN($M79))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M79,",",REPT(" ",LEN($M79))), 2 *LEN($M79)+1,LEN($M79))) = "", "0", TRIM(MID(SUBSTITUTE($M79,",",REPT(" ",LEN($M79))),2 *LEN($M79)+1,LEN($M79))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M79,",",REPT(" ",LEN($M79))), 3 *LEN($M79)+1,LEN($M79))) = "", "0", TRIM(MID(SUBSTITUTE($M79,",",REPT(" ",LEN($M79))),3 *LEN($M79)+1,LEN($M79))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M79,",",REPT(" ",LEN($M79))), 4 *LEN($M79)+1,LEN($M79))) = "", "0", TRIM(MID(SUBSTITUTE($M79,",",REPT(" ",LEN($M79))),4 *LEN($M79)+1,LEN($M79))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M79,",",REPT(" ",LEN($M79))), 5 *LEN($M79)+1,LEN($M79))) = "", "0", TRIM(MID(SUBSTITUTE($M79,",",REPT(" ",LEN($M79))),5 *LEN($M79)+1,LEN($M79))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M79,",",REPT(" ",LEN($M79))), 6 *LEN($M79)+1,LEN($M79))) = "", "0", TRIM(MID(SUBSTITUTE($M79,",",REPT(" ",LEN($M79))),6 *LEN($M79)+1,LEN($M79))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M79,",",REPT(" ",LEN($M79))), 7 *LEN($M79)+1,LEN($M79))) = "", "0", TRIM(MID(SUBSTITUTE($M79,",",REPT(" ",LEN($M79))),7 *LEN($M79)+1,LEN($M79))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M79,",",REPT(" ",LEN($M79))), 8 *LEN($M79)+1,LEN($M79))) = "", "0", TRIM(MID(SUBSTITUTE($M79,",",REPT(" ",LEN($M79))),8 *LEN($M79)+1,LEN($M79))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M79,",",REPT(" ",LEN($M79))), 9 *LEN($M79)+1,LEN($M79))) = "", "0", TRIM(MID(SUBSTITUTE($M79,",",REPT(" ",LEN($M79))),9 *LEN($M79)+1,LEN($M79))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M79,",",REPT(" ",LEN($M79))), 10 *LEN($M79)+1,LEN($M79))) = "", "0", TRIM(MID(SUBSTITUTE($M79,",",REPT(" ",LEN($M79))),10 *LEN($M79)+1,LEN($M79)))))</f>
@@ -11698,7 +11698,7 @@
         <v>0</v>
       </c>
       <c r="X79" s="0" t="str">
-        <f aca="true">IF(O79="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S79)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O79="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S79)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -11737,8 +11737,8 @@
         <v/>
       </c>
       <c r="U80" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V80" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M80,",",REPT(" ",LEN($M80))), 0 *LEN($M80)+1,LEN($M80))) = "", "0", TRIM(MID(SUBSTITUTE($M80,",",REPT(" ",LEN($M80))),0 *LEN($M80)+1,LEN($M80))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M80,",",REPT(" ",LEN($M80))), 1 *LEN($M80)+1,LEN($M80))) = "", "0", TRIM(MID(SUBSTITUTE($M80,",",REPT(" ",LEN($M80))),1 *LEN($M80)+1,LEN($M80))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M80,",",REPT(" ",LEN($M80))), 2 *LEN($M80)+1,LEN($M80))) = "", "0", TRIM(MID(SUBSTITUTE($M80,",",REPT(" ",LEN($M80))),2 *LEN($M80)+1,LEN($M80))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M80,",",REPT(" ",LEN($M80))), 3 *LEN($M80)+1,LEN($M80))) = "", "0", TRIM(MID(SUBSTITUTE($M80,",",REPT(" ",LEN($M80))),3 *LEN($M80)+1,LEN($M80))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M80,",",REPT(" ",LEN($M80))), 4 *LEN($M80)+1,LEN($M80))) = "", "0", TRIM(MID(SUBSTITUTE($M80,",",REPT(" ",LEN($M80))),4 *LEN($M80)+1,LEN($M80))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M80,",",REPT(" ",LEN($M80))), 5 *LEN($M80)+1,LEN($M80))) = "", "0", TRIM(MID(SUBSTITUTE($M80,",",REPT(" ",LEN($M80))),5 *LEN($M80)+1,LEN($M80))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M80,",",REPT(" ",LEN($M80))), 6 *LEN($M80)+1,LEN($M80))) = "", "0", TRIM(MID(SUBSTITUTE($M80,",",REPT(" ",LEN($M80))),6 *LEN($M80)+1,LEN($M80))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M80,",",REPT(" ",LEN($M80))), 7 *LEN($M80)+1,LEN($M80))) = "", "0", TRIM(MID(SUBSTITUTE($M80,",",REPT(" ",LEN($M80))),7 *LEN($M80)+1,LEN($M80))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M80,",",REPT(" ",LEN($M80))), 8 *LEN($M80)+1,LEN($M80))) = "", "0", TRIM(MID(SUBSTITUTE($M80,",",REPT(" ",LEN($M80))),8 *LEN($M80)+1,LEN($M80))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M80,",",REPT(" ",LEN($M80))), 9 *LEN($M80)+1,LEN($M80))) = "", "0", TRIM(MID(SUBSTITUTE($M80,",",REPT(" ",LEN($M80))),9 *LEN($M80)+1,LEN($M80))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M80,",",REPT(" ",LEN($M80))), 10 *LEN($M80)+1,LEN($M80))) = "", "0", TRIM(MID(SUBSTITUTE($M80,",",REPT(" ",LEN($M80))),10 *LEN($M80)+1,LEN($M80)))))</f>
@@ -11749,7 +11749,7 @@
         <v>0</v>
       </c>
       <c r="X80" s="0" t="str">
-        <f aca="true">IF(O80="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S80)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O80="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S80)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -11788,8 +11788,8 @@
         <v/>
       </c>
       <c r="U81" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V81" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M81,",",REPT(" ",LEN($M81))), 0 *LEN($M81)+1,LEN($M81))) = "", "0", TRIM(MID(SUBSTITUTE($M81,",",REPT(" ",LEN($M81))),0 *LEN($M81)+1,LEN($M81))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M81,",",REPT(" ",LEN($M81))), 1 *LEN($M81)+1,LEN($M81))) = "", "0", TRIM(MID(SUBSTITUTE($M81,",",REPT(" ",LEN($M81))),1 *LEN($M81)+1,LEN($M81))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M81,",",REPT(" ",LEN($M81))), 2 *LEN($M81)+1,LEN($M81))) = "", "0", TRIM(MID(SUBSTITUTE($M81,",",REPT(" ",LEN($M81))),2 *LEN($M81)+1,LEN($M81))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M81,",",REPT(" ",LEN($M81))), 3 *LEN($M81)+1,LEN($M81))) = "", "0", TRIM(MID(SUBSTITUTE($M81,",",REPT(" ",LEN($M81))),3 *LEN($M81)+1,LEN($M81))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M81,",",REPT(" ",LEN($M81))), 4 *LEN($M81)+1,LEN($M81))) = "", "0", TRIM(MID(SUBSTITUTE($M81,",",REPT(" ",LEN($M81))),4 *LEN($M81)+1,LEN($M81))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M81,",",REPT(" ",LEN($M81))), 5 *LEN($M81)+1,LEN($M81))) = "", "0", TRIM(MID(SUBSTITUTE($M81,",",REPT(" ",LEN($M81))),5 *LEN($M81)+1,LEN($M81))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M81,",",REPT(" ",LEN($M81))), 6 *LEN($M81)+1,LEN($M81))) = "", "0", TRIM(MID(SUBSTITUTE($M81,",",REPT(" ",LEN($M81))),6 *LEN($M81)+1,LEN($M81))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M81,",",REPT(" ",LEN($M81))), 7 *LEN($M81)+1,LEN($M81))) = "", "0", TRIM(MID(SUBSTITUTE($M81,",",REPT(" ",LEN($M81))),7 *LEN($M81)+1,LEN($M81))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M81,",",REPT(" ",LEN($M81))), 8 *LEN($M81)+1,LEN($M81))) = "", "0", TRIM(MID(SUBSTITUTE($M81,",",REPT(" ",LEN($M81))),8 *LEN($M81)+1,LEN($M81))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M81,",",REPT(" ",LEN($M81))), 9 *LEN($M81)+1,LEN($M81))) = "", "0", TRIM(MID(SUBSTITUTE($M81,",",REPT(" ",LEN($M81))),9 *LEN($M81)+1,LEN($M81))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M81,",",REPT(" ",LEN($M81))), 10 *LEN($M81)+1,LEN($M81))) = "", "0", TRIM(MID(SUBSTITUTE($M81,",",REPT(" ",LEN($M81))),10 *LEN($M81)+1,LEN($M81)))))</f>
@@ -11800,7 +11800,7 @@
         <v>0</v>
       </c>
       <c r="X81" s="0" t="str">
-        <f aca="true">IF(O81="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S81)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O81="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S81)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -11839,8 +11839,8 @@
         <v/>
       </c>
       <c r="U82" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V82" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M82,",",REPT(" ",LEN($M82))), 0 *LEN($M82)+1,LEN($M82))) = "", "0", TRIM(MID(SUBSTITUTE($M82,",",REPT(" ",LEN($M82))),0 *LEN($M82)+1,LEN($M82))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M82,",",REPT(" ",LEN($M82))), 1 *LEN($M82)+1,LEN($M82))) = "", "0", TRIM(MID(SUBSTITUTE($M82,",",REPT(" ",LEN($M82))),1 *LEN($M82)+1,LEN($M82))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M82,",",REPT(" ",LEN($M82))), 2 *LEN($M82)+1,LEN($M82))) = "", "0", TRIM(MID(SUBSTITUTE($M82,",",REPT(" ",LEN($M82))),2 *LEN($M82)+1,LEN($M82))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M82,",",REPT(" ",LEN($M82))), 3 *LEN($M82)+1,LEN($M82))) = "", "0", TRIM(MID(SUBSTITUTE($M82,",",REPT(" ",LEN($M82))),3 *LEN($M82)+1,LEN($M82))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M82,",",REPT(" ",LEN($M82))), 4 *LEN($M82)+1,LEN($M82))) = "", "0", TRIM(MID(SUBSTITUTE($M82,",",REPT(" ",LEN($M82))),4 *LEN($M82)+1,LEN($M82))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M82,",",REPT(" ",LEN($M82))), 5 *LEN($M82)+1,LEN($M82))) = "", "0", TRIM(MID(SUBSTITUTE($M82,",",REPT(" ",LEN($M82))),5 *LEN($M82)+1,LEN($M82))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M82,",",REPT(" ",LEN($M82))), 6 *LEN($M82)+1,LEN($M82))) = "", "0", TRIM(MID(SUBSTITUTE($M82,",",REPT(" ",LEN($M82))),6 *LEN($M82)+1,LEN($M82))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M82,",",REPT(" ",LEN($M82))), 7 *LEN($M82)+1,LEN($M82))) = "", "0", TRIM(MID(SUBSTITUTE($M82,",",REPT(" ",LEN($M82))),7 *LEN($M82)+1,LEN($M82))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M82,",",REPT(" ",LEN($M82))), 8 *LEN($M82)+1,LEN($M82))) = "", "0", TRIM(MID(SUBSTITUTE($M82,",",REPT(" ",LEN($M82))),8 *LEN($M82)+1,LEN($M82))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M82,",",REPT(" ",LEN($M82))), 9 *LEN($M82)+1,LEN($M82))) = "", "0", TRIM(MID(SUBSTITUTE($M82,",",REPT(" ",LEN($M82))),9 *LEN($M82)+1,LEN($M82))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M82,",",REPT(" ",LEN($M82))), 10 *LEN($M82)+1,LEN($M82))) = "", "0", TRIM(MID(SUBSTITUTE($M82,",",REPT(" ",LEN($M82))),10 *LEN($M82)+1,LEN($M82)))))</f>
@@ -11851,7 +11851,7 @@
         <v>0</v>
       </c>
       <c r="X82" s="0" t="str">
-        <f aca="true">IF(O82="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S82)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O82="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S82)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -11890,8 +11890,8 @@
         <v/>
       </c>
       <c r="U83" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V83" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M83,",",REPT(" ",LEN($M83))), 0 *LEN($M83)+1,LEN($M83))) = "", "0", TRIM(MID(SUBSTITUTE($M83,",",REPT(" ",LEN($M83))),0 *LEN($M83)+1,LEN($M83))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M83,",",REPT(" ",LEN($M83))), 1 *LEN($M83)+1,LEN($M83))) = "", "0", TRIM(MID(SUBSTITUTE($M83,",",REPT(" ",LEN($M83))),1 *LEN($M83)+1,LEN($M83))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M83,",",REPT(" ",LEN($M83))), 2 *LEN($M83)+1,LEN($M83))) = "", "0", TRIM(MID(SUBSTITUTE($M83,",",REPT(" ",LEN($M83))),2 *LEN($M83)+1,LEN($M83))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M83,",",REPT(" ",LEN($M83))), 3 *LEN($M83)+1,LEN($M83))) = "", "0", TRIM(MID(SUBSTITUTE($M83,",",REPT(" ",LEN($M83))),3 *LEN($M83)+1,LEN($M83))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M83,",",REPT(" ",LEN($M83))), 4 *LEN($M83)+1,LEN($M83))) = "", "0", TRIM(MID(SUBSTITUTE($M83,",",REPT(" ",LEN($M83))),4 *LEN($M83)+1,LEN($M83))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M83,",",REPT(" ",LEN($M83))), 5 *LEN($M83)+1,LEN($M83))) = "", "0", TRIM(MID(SUBSTITUTE($M83,",",REPT(" ",LEN($M83))),5 *LEN($M83)+1,LEN($M83))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M83,",",REPT(" ",LEN($M83))), 6 *LEN($M83)+1,LEN($M83))) = "", "0", TRIM(MID(SUBSTITUTE($M83,",",REPT(" ",LEN($M83))),6 *LEN($M83)+1,LEN($M83))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M83,",",REPT(" ",LEN($M83))), 7 *LEN($M83)+1,LEN($M83))) = "", "0", TRIM(MID(SUBSTITUTE($M83,",",REPT(" ",LEN($M83))),7 *LEN($M83)+1,LEN($M83))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M83,",",REPT(" ",LEN($M83))), 8 *LEN($M83)+1,LEN($M83))) = "", "0", TRIM(MID(SUBSTITUTE($M83,",",REPT(" ",LEN($M83))),8 *LEN($M83)+1,LEN($M83))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M83,",",REPT(" ",LEN($M83))), 9 *LEN($M83)+1,LEN($M83))) = "", "0", TRIM(MID(SUBSTITUTE($M83,",",REPT(" ",LEN($M83))),9 *LEN($M83)+1,LEN($M83))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M83,",",REPT(" ",LEN($M83))), 10 *LEN($M83)+1,LEN($M83))) = "", "0", TRIM(MID(SUBSTITUTE($M83,",",REPT(" ",LEN($M83))),10 *LEN($M83)+1,LEN($M83)))))</f>
@@ -11902,7 +11902,7 @@
         <v>0</v>
       </c>
       <c r="X83" s="0" t="str">
-        <f aca="true">IF(O83="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S83)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O83="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S83)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -11941,8 +11941,8 @@
         <v/>
       </c>
       <c r="U84" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V84" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M84,",",REPT(" ",LEN($M84))), 0 *LEN($M84)+1,LEN($M84))) = "", "0", TRIM(MID(SUBSTITUTE($M84,",",REPT(" ",LEN($M84))),0 *LEN($M84)+1,LEN($M84))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M84,",",REPT(" ",LEN($M84))), 1 *LEN($M84)+1,LEN($M84))) = "", "0", TRIM(MID(SUBSTITUTE($M84,",",REPT(" ",LEN($M84))),1 *LEN($M84)+1,LEN($M84))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M84,",",REPT(" ",LEN($M84))), 2 *LEN($M84)+1,LEN($M84))) = "", "0", TRIM(MID(SUBSTITUTE($M84,",",REPT(" ",LEN($M84))),2 *LEN($M84)+1,LEN($M84))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M84,",",REPT(" ",LEN($M84))), 3 *LEN($M84)+1,LEN($M84))) = "", "0", TRIM(MID(SUBSTITUTE($M84,",",REPT(" ",LEN($M84))),3 *LEN($M84)+1,LEN($M84))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M84,",",REPT(" ",LEN($M84))), 4 *LEN($M84)+1,LEN($M84))) = "", "0", TRIM(MID(SUBSTITUTE($M84,",",REPT(" ",LEN($M84))),4 *LEN($M84)+1,LEN($M84))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M84,",",REPT(" ",LEN($M84))), 5 *LEN($M84)+1,LEN($M84))) = "", "0", TRIM(MID(SUBSTITUTE($M84,",",REPT(" ",LEN($M84))),5 *LEN($M84)+1,LEN($M84))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M84,",",REPT(" ",LEN($M84))), 6 *LEN($M84)+1,LEN($M84))) = "", "0", TRIM(MID(SUBSTITUTE($M84,",",REPT(" ",LEN($M84))),6 *LEN($M84)+1,LEN($M84))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M84,",",REPT(" ",LEN($M84))), 7 *LEN($M84)+1,LEN($M84))) = "", "0", TRIM(MID(SUBSTITUTE($M84,",",REPT(" ",LEN($M84))),7 *LEN($M84)+1,LEN($M84))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M84,",",REPT(" ",LEN($M84))), 8 *LEN($M84)+1,LEN($M84))) = "", "0", TRIM(MID(SUBSTITUTE($M84,",",REPT(" ",LEN($M84))),8 *LEN($M84)+1,LEN($M84))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M84,",",REPT(" ",LEN($M84))), 9 *LEN($M84)+1,LEN($M84))) = "", "0", TRIM(MID(SUBSTITUTE($M84,",",REPT(" ",LEN($M84))),9 *LEN($M84)+1,LEN($M84))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M84,",",REPT(" ",LEN($M84))), 10 *LEN($M84)+1,LEN($M84))) = "", "0", TRIM(MID(SUBSTITUTE($M84,",",REPT(" ",LEN($M84))),10 *LEN($M84)+1,LEN($M84)))))</f>
@@ -11953,7 +11953,7 @@
         <v>0</v>
       </c>
       <c r="X84" s="0" t="str">
-        <f aca="true">IF(O84="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S84)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O84="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S84)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -11992,8 +11992,8 @@
         <v/>
       </c>
       <c r="U85" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V85" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M85,",",REPT(" ",LEN($M85))), 0 *LEN($M85)+1,LEN($M85))) = "", "0", TRIM(MID(SUBSTITUTE($M85,",",REPT(" ",LEN($M85))),0 *LEN($M85)+1,LEN($M85))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M85,",",REPT(" ",LEN($M85))), 1 *LEN($M85)+1,LEN($M85))) = "", "0", TRIM(MID(SUBSTITUTE($M85,",",REPT(" ",LEN($M85))),1 *LEN($M85)+1,LEN($M85))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M85,",",REPT(" ",LEN($M85))), 2 *LEN($M85)+1,LEN($M85))) = "", "0", TRIM(MID(SUBSTITUTE($M85,",",REPT(" ",LEN($M85))),2 *LEN($M85)+1,LEN($M85))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M85,",",REPT(" ",LEN($M85))), 3 *LEN($M85)+1,LEN($M85))) = "", "0", TRIM(MID(SUBSTITUTE($M85,",",REPT(" ",LEN($M85))),3 *LEN($M85)+1,LEN($M85))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M85,",",REPT(" ",LEN($M85))), 4 *LEN($M85)+1,LEN($M85))) = "", "0", TRIM(MID(SUBSTITUTE($M85,",",REPT(" ",LEN($M85))),4 *LEN($M85)+1,LEN($M85))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M85,",",REPT(" ",LEN($M85))), 5 *LEN($M85)+1,LEN($M85))) = "", "0", TRIM(MID(SUBSTITUTE($M85,",",REPT(" ",LEN($M85))),5 *LEN($M85)+1,LEN($M85))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M85,",",REPT(" ",LEN($M85))), 6 *LEN($M85)+1,LEN($M85))) = "", "0", TRIM(MID(SUBSTITUTE($M85,",",REPT(" ",LEN($M85))),6 *LEN($M85)+1,LEN($M85))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M85,",",REPT(" ",LEN($M85))), 7 *LEN($M85)+1,LEN($M85))) = "", "0", TRIM(MID(SUBSTITUTE($M85,",",REPT(" ",LEN($M85))),7 *LEN($M85)+1,LEN($M85))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M85,",",REPT(" ",LEN($M85))), 8 *LEN($M85)+1,LEN($M85))) = "", "0", TRIM(MID(SUBSTITUTE($M85,",",REPT(" ",LEN($M85))),8 *LEN($M85)+1,LEN($M85))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M85,",",REPT(" ",LEN($M85))), 9 *LEN($M85)+1,LEN($M85))) = "", "0", TRIM(MID(SUBSTITUTE($M85,",",REPT(" ",LEN($M85))),9 *LEN($M85)+1,LEN($M85))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M85,",",REPT(" ",LEN($M85))), 10 *LEN($M85)+1,LEN($M85))) = "", "0", TRIM(MID(SUBSTITUTE($M85,",",REPT(" ",LEN($M85))),10 *LEN($M85)+1,LEN($M85)))))</f>
@@ -12004,7 +12004,7 @@
         <v>0</v>
       </c>
       <c r="X85" s="0" t="str">
-        <f aca="true">IF(O85="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S85)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O85="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S85)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -12043,8 +12043,8 @@
         <v/>
       </c>
       <c r="U86" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V86" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M86,",",REPT(" ",LEN($M86))), 0 *LEN($M86)+1,LEN($M86))) = "", "0", TRIM(MID(SUBSTITUTE($M86,",",REPT(" ",LEN($M86))),0 *LEN($M86)+1,LEN($M86))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M86,",",REPT(" ",LEN($M86))), 1 *LEN($M86)+1,LEN($M86))) = "", "0", TRIM(MID(SUBSTITUTE($M86,",",REPT(" ",LEN($M86))),1 *LEN($M86)+1,LEN($M86))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M86,",",REPT(" ",LEN($M86))), 2 *LEN($M86)+1,LEN($M86))) = "", "0", TRIM(MID(SUBSTITUTE($M86,",",REPT(" ",LEN($M86))),2 *LEN($M86)+1,LEN($M86))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M86,",",REPT(" ",LEN($M86))), 3 *LEN($M86)+1,LEN($M86))) = "", "0", TRIM(MID(SUBSTITUTE($M86,",",REPT(" ",LEN($M86))),3 *LEN($M86)+1,LEN($M86))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M86,",",REPT(" ",LEN($M86))), 4 *LEN($M86)+1,LEN($M86))) = "", "0", TRIM(MID(SUBSTITUTE($M86,",",REPT(" ",LEN($M86))),4 *LEN($M86)+1,LEN($M86))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M86,",",REPT(" ",LEN($M86))), 5 *LEN($M86)+1,LEN($M86))) = "", "0", TRIM(MID(SUBSTITUTE($M86,",",REPT(" ",LEN($M86))),5 *LEN($M86)+1,LEN($M86))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M86,",",REPT(" ",LEN($M86))), 6 *LEN($M86)+1,LEN($M86))) = "", "0", TRIM(MID(SUBSTITUTE($M86,",",REPT(" ",LEN($M86))),6 *LEN($M86)+1,LEN($M86))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M86,",",REPT(" ",LEN($M86))), 7 *LEN($M86)+1,LEN($M86))) = "", "0", TRIM(MID(SUBSTITUTE($M86,",",REPT(" ",LEN($M86))),7 *LEN($M86)+1,LEN($M86))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M86,",",REPT(" ",LEN($M86))), 8 *LEN($M86)+1,LEN($M86))) = "", "0", TRIM(MID(SUBSTITUTE($M86,",",REPT(" ",LEN($M86))),8 *LEN($M86)+1,LEN($M86))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M86,",",REPT(" ",LEN($M86))), 9 *LEN($M86)+1,LEN($M86))) = "", "0", TRIM(MID(SUBSTITUTE($M86,",",REPT(" ",LEN($M86))),9 *LEN($M86)+1,LEN($M86))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M86,",",REPT(" ",LEN($M86))), 10 *LEN($M86)+1,LEN($M86))) = "", "0", TRIM(MID(SUBSTITUTE($M86,",",REPT(" ",LEN($M86))),10 *LEN($M86)+1,LEN($M86)))))</f>
@@ -12055,7 +12055,7 @@
         <v>0</v>
       </c>
       <c r="X86" s="0" t="str">
-        <f aca="true">IF(O86="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S86)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O86="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S86)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -12094,8 +12094,8 @@
         <v/>
       </c>
       <c r="U87" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V87" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M87,",",REPT(" ",LEN($M87))), 0 *LEN($M87)+1,LEN($M87))) = "", "0", TRIM(MID(SUBSTITUTE($M87,",",REPT(" ",LEN($M87))),0 *LEN($M87)+1,LEN($M87))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M87,",",REPT(" ",LEN($M87))), 1 *LEN($M87)+1,LEN($M87))) = "", "0", TRIM(MID(SUBSTITUTE($M87,",",REPT(" ",LEN($M87))),1 *LEN($M87)+1,LEN($M87))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M87,",",REPT(" ",LEN($M87))), 2 *LEN($M87)+1,LEN($M87))) = "", "0", TRIM(MID(SUBSTITUTE($M87,",",REPT(" ",LEN($M87))),2 *LEN($M87)+1,LEN($M87))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M87,",",REPT(" ",LEN($M87))), 3 *LEN($M87)+1,LEN($M87))) = "", "0", TRIM(MID(SUBSTITUTE($M87,",",REPT(" ",LEN($M87))),3 *LEN($M87)+1,LEN($M87))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M87,",",REPT(" ",LEN($M87))), 4 *LEN($M87)+1,LEN($M87))) = "", "0", TRIM(MID(SUBSTITUTE($M87,",",REPT(" ",LEN($M87))),4 *LEN($M87)+1,LEN($M87))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M87,",",REPT(" ",LEN($M87))), 5 *LEN($M87)+1,LEN($M87))) = "", "0", TRIM(MID(SUBSTITUTE($M87,",",REPT(" ",LEN($M87))),5 *LEN($M87)+1,LEN($M87))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M87,",",REPT(" ",LEN($M87))), 6 *LEN($M87)+1,LEN($M87))) = "", "0", TRIM(MID(SUBSTITUTE($M87,",",REPT(" ",LEN($M87))),6 *LEN($M87)+1,LEN($M87))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M87,",",REPT(" ",LEN($M87))), 7 *LEN($M87)+1,LEN($M87))) = "", "0", TRIM(MID(SUBSTITUTE($M87,",",REPT(" ",LEN($M87))),7 *LEN($M87)+1,LEN($M87))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M87,",",REPT(" ",LEN($M87))), 8 *LEN($M87)+1,LEN($M87))) = "", "0", TRIM(MID(SUBSTITUTE($M87,",",REPT(" ",LEN($M87))),8 *LEN($M87)+1,LEN($M87))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M87,",",REPT(" ",LEN($M87))), 9 *LEN($M87)+1,LEN($M87))) = "", "0", TRIM(MID(SUBSTITUTE($M87,",",REPT(" ",LEN($M87))),9 *LEN($M87)+1,LEN($M87))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M87,",",REPT(" ",LEN($M87))), 10 *LEN($M87)+1,LEN($M87))) = "", "0", TRIM(MID(SUBSTITUTE($M87,",",REPT(" ",LEN($M87))),10 *LEN($M87)+1,LEN($M87)))))</f>
@@ -12106,7 +12106,7 @@
         <v>0</v>
       </c>
       <c r="X87" s="0" t="str">
-        <f aca="true">IF(O87="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S87)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O87="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S87)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -12145,8 +12145,8 @@
         <v/>
       </c>
       <c r="U88" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V88" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M88,",",REPT(" ",LEN($M88))), 0 *LEN($M88)+1,LEN($M88))) = "", "0", TRIM(MID(SUBSTITUTE($M88,",",REPT(" ",LEN($M88))),0 *LEN($M88)+1,LEN($M88))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M88,",",REPT(" ",LEN($M88))), 1 *LEN($M88)+1,LEN($M88))) = "", "0", TRIM(MID(SUBSTITUTE($M88,",",REPT(" ",LEN($M88))),1 *LEN($M88)+1,LEN($M88))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M88,",",REPT(" ",LEN($M88))), 2 *LEN($M88)+1,LEN($M88))) = "", "0", TRIM(MID(SUBSTITUTE($M88,",",REPT(" ",LEN($M88))),2 *LEN($M88)+1,LEN($M88))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M88,",",REPT(" ",LEN($M88))), 3 *LEN($M88)+1,LEN($M88))) = "", "0", TRIM(MID(SUBSTITUTE($M88,",",REPT(" ",LEN($M88))),3 *LEN($M88)+1,LEN($M88))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M88,",",REPT(" ",LEN($M88))), 4 *LEN($M88)+1,LEN($M88))) = "", "0", TRIM(MID(SUBSTITUTE($M88,",",REPT(" ",LEN($M88))),4 *LEN($M88)+1,LEN($M88))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M88,",",REPT(" ",LEN($M88))), 5 *LEN($M88)+1,LEN($M88))) = "", "0", TRIM(MID(SUBSTITUTE($M88,",",REPT(" ",LEN($M88))),5 *LEN($M88)+1,LEN($M88))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M88,",",REPT(" ",LEN($M88))), 6 *LEN($M88)+1,LEN($M88))) = "", "0", TRIM(MID(SUBSTITUTE($M88,",",REPT(" ",LEN($M88))),6 *LEN($M88)+1,LEN($M88))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M88,",",REPT(" ",LEN($M88))), 7 *LEN($M88)+1,LEN($M88))) = "", "0", TRIM(MID(SUBSTITUTE($M88,",",REPT(" ",LEN($M88))),7 *LEN($M88)+1,LEN($M88))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M88,",",REPT(" ",LEN($M88))), 8 *LEN($M88)+1,LEN($M88))) = "", "0", TRIM(MID(SUBSTITUTE($M88,",",REPT(" ",LEN($M88))),8 *LEN($M88)+1,LEN($M88))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M88,",",REPT(" ",LEN($M88))), 9 *LEN($M88)+1,LEN($M88))) = "", "0", TRIM(MID(SUBSTITUTE($M88,",",REPT(" ",LEN($M88))),9 *LEN($M88)+1,LEN($M88))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M88,",",REPT(" ",LEN($M88))), 10 *LEN($M88)+1,LEN($M88))) = "", "0", TRIM(MID(SUBSTITUTE($M88,",",REPT(" ",LEN($M88))),10 *LEN($M88)+1,LEN($M88)))))</f>
@@ -12157,7 +12157,7 @@
         <v>0</v>
       </c>
       <c r="X88" s="0" t="str">
-        <f aca="true">IF(O88="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S88)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O88="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S88)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -12196,8 +12196,8 @@
         <v/>
       </c>
       <c r="U89" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V89" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M89,",",REPT(" ",LEN($M89))), 0 *LEN($M89)+1,LEN($M89))) = "", "0", TRIM(MID(SUBSTITUTE($M89,",",REPT(" ",LEN($M89))),0 *LEN($M89)+1,LEN($M89))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M89,",",REPT(" ",LEN($M89))), 1 *LEN($M89)+1,LEN($M89))) = "", "0", TRIM(MID(SUBSTITUTE($M89,",",REPT(" ",LEN($M89))),1 *LEN($M89)+1,LEN($M89))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M89,",",REPT(" ",LEN($M89))), 2 *LEN($M89)+1,LEN($M89))) = "", "0", TRIM(MID(SUBSTITUTE($M89,",",REPT(" ",LEN($M89))),2 *LEN($M89)+1,LEN($M89))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M89,",",REPT(" ",LEN($M89))), 3 *LEN($M89)+1,LEN($M89))) = "", "0", TRIM(MID(SUBSTITUTE($M89,",",REPT(" ",LEN($M89))),3 *LEN($M89)+1,LEN($M89))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M89,",",REPT(" ",LEN($M89))), 4 *LEN($M89)+1,LEN($M89))) = "", "0", TRIM(MID(SUBSTITUTE($M89,",",REPT(" ",LEN($M89))),4 *LEN($M89)+1,LEN($M89))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M89,",",REPT(" ",LEN($M89))), 5 *LEN($M89)+1,LEN($M89))) = "", "0", TRIM(MID(SUBSTITUTE($M89,",",REPT(" ",LEN($M89))),5 *LEN($M89)+1,LEN($M89))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M89,",",REPT(" ",LEN($M89))), 6 *LEN($M89)+1,LEN($M89))) = "", "0", TRIM(MID(SUBSTITUTE($M89,",",REPT(" ",LEN($M89))),6 *LEN($M89)+1,LEN($M89))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M89,",",REPT(" ",LEN($M89))), 7 *LEN($M89)+1,LEN($M89))) = "", "0", TRIM(MID(SUBSTITUTE($M89,",",REPT(" ",LEN($M89))),7 *LEN($M89)+1,LEN($M89))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M89,",",REPT(" ",LEN($M89))), 8 *LEN($M89)+1,LEN($M89))) = "", "0", TRIM(MID(SUBSTITUTE($M89,",",REPT(" ",LEN($M89))),8 *LEN($M89)+1,LEN($M89))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M89,",",REPT(" ",LEN($M89))), 9 *LEN($M89)+1,LEN($M89))) = "", "0", TRIM(MID(SUBSTITUTE($M89,",",REPT(" ",LEN($M89))),9 *LEN($M89)+1,LEN($M89))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M89,",",REPT(" ",LEN($M89))), 10 *LEN($M89)+1,LEN($M89))) = "", "0", TRIM(MID(SUBSTITUTE($M89,",",REPT(" ",LEN($M89))),10 *LEN($M89)+1,LEN($M89)))))</f>
@@ -12208,7 +12208,7 @@
         <v>0</v>
       </c>
       <c r="X89" s="0" t="str">
-        <f aca="true">IF(O89="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S89)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O89="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S89)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -12247,8 +12247,8 @@
         <v/>
       </c>
       <c r="U90" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V90" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))), 0 *LEN($M90)+1,LEN($M90))) = "", "0", TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))),0 *LEN($M90)+1,LEN($M90))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))), 1 *LEN($M90)+1,LEN($M90))) = "", "0", TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))),1 *LEN($M90)+1,LEN($M90))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))), 2 *LEN($M90)+1,LEN($M90))) = "", "0", TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))),2 *LEN($M90)+1,LEN($M90))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))), 3 *LEN($M90)+1,LEN($M90))) = "", "0", TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))),3 *LEN($M90)+1,LEN($M90))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))), 4 *LEN($M90)+1,LEN($M90))) = "", "0", TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))),4 *LEN($M90)+1,LEN($M90))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))), 5 *LEN($M90)+1,LEN($M90))) = "", "0", TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))),5 *LEN($M90)+1,LEN($M90))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))), 6 *LEN($M90)+1,LEN($M90))) = "", "0", TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))),6 *LEN($M90)+1,LEN($M90))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))), 7 *LEN($M90)+1,LEN($M90))) = "", "0", TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))),7 *LEN($M90)+1,LEN($M90))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))), 8 *LEN($M90)+1,LEN($M90))) = "", "0", TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))),8 *LEN($M90)+1,LEN($M90))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))), 9 *LEN($M90)+1,LEN($M90))) = "", "0", TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))),9 *LEN($M90)+1,LEN($M90))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))), 10 *LEN($M90)+1,LEN($M90))) = "", "0", TRIM(MID(SUBSTITUTE($M90,",",REPT(" ",LEN($M90))),10 *LEN($M90)+1,LEN($M90)))))</f>
@@ -12259,7 +12259,7 @@
         <v>0</v>
       </c>
       <c r="X90" s="0" t="str">
-        <f aca="true">IF(O90="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S90)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O90="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S90)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -12298,8 +12298,8 @@
         <v/>
       </c>
       <c r="U91" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V91" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M91,",",REPT(" ",LEN($M91))), 0 *LEN($M91)+1,LEN($M91))) = "", "0", TRIM(MID(SUBSTITUTE($M91,",",REPT(" ",LEN($M91))),0 *LEN($M91)+1,LEN($M91))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M91,",",REPT(" ",LEN($M91))), 1 *LEN($M91)+1,LEN($M91))) = "", "0", TRIM(MID(SUBSTITUTE($M91,",",REPT(" ",LEN($M91))),1 *LEN($M91)+1,LEN($M91))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M91,",",REPT(" ",LEN($M91))), 2 *LEN($M91)+1,LEN($M91))) = "", "0", TRIM(MID(SUBSTITUTE($M91,",",REPT(" ",LEN($M91))),2 *LEN($M91)+1,LEN($M91))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M91,",",REPT(" ",LEN($M91))), 3 *LEN($M91)+1,LEN($M91))) = "", "0", TRIM(MID(SUBSTITUTE($M91,",",REPT(" ",LEN($M91))),3 *LEN($M91)+1,LEN($M91))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M91,",",REPT(" ",LEN($M91))), 4 *LEN($M91)+1,LEN($M91))) = "", "0", TRIM(MID(SUBSTITUTE($M91,",",REPT(" ",LEN($M91))),4 *LEN($M91)+1,LEN($M91))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M91,",",REPT(" ",LEN($M91))), 5 *LEN($M91)+1,LEN($M91))) = "", "0", TRIM(MID(SUBSTITUTE($M91,",",REPT(" ",LEN($M91))),5 *LEN($M91)+1,LEN($M91))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M91,",",REPT(" ",LEN($M91))), 6 *LEN($M91)+1,LEN($M91))) = "", "0", TRIM(MID(SUBSTITUTE($M91,",",REPT(" ",LEN($M91))),6 *LEN($M91)+1,LEN($M91))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M91,",",REPT(" ",LEN($M91))), 7 *LEN($M91)+1,LEN($M91))) = "", "0", TRIM(MID(SUBSTITUTE($M91,",",REPT(" ",LEN($M91))),7 *LEN($M91)+1,LEN($M91))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M91,",",REPT(" ",LEN($M91))), 8 *LEN($M91)+1,LEN($M91))) = "", "0", TRIM(MID(SUBSTITUTE($M91,",",REPT(" ",LEN($M91))),8 *LEN($M91)+1,LEN($M91))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M91,",",REPT(" ",LEN($M91))), 9 *LEN($M91)+1,LEN($M91))) = "", "0", TRIM(MID(SUBSTITUTE($M91,",",REPT(" ",LEN($M91))),9 *LEN($M91)+1,LEN($M91))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M91,",",REPT(" ",LEN($M91))), 10 *LEN($M91)+1,LEN($M91))) = "", "0", TRIM(MID(SUBSTITUTE($M91,",",REPT(" ",LEN($M91))),10 *LEN($M91)+1,LEN($M91)))))</f>
@@ -12310,7 +12310,7 @@
         <v>0</v>
       </c>
       <c r="X91" s="0" t="str">
-        <f aca="true">IF(O91="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S91)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O91="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S91)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -12349,8 +12349,8 @@
         <v/>
       </c>
       <c r="U92" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V92" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M92,",",REPT(" ",LEN($M92))), 0 *LEN($M92)+1,LEN($M92))) = "", "0", TRIM(MID(SUBSTITUTE($M92,",",REPT(" ",LEN($M92))),0 *LEN($M92)+1,LEN($M92))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M92,",",REPT(" ",LEN($M92))), 1 *LEN($M92)+1,LEN($M92))) = "", "0", TRIM(MID(SUBSTITUTE($M92,",",REPT(" ",LEN($M92))),1 *LEN($M92)+1,LEN($M92))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M92,",",REPT(" ",LEN($M92))), 2 *LEN($M92)+1,LEN($M92))) = "", "0", TRIM(MID(SUBSTITUTE($M92,",",REPT(" ",LEN($M92))),2 *LEN($M92)+1,LEN($M92))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M92,",",REPT(" ",LEN($M92))), 3 *LEN($M92)+1,LEN($M92))) = "", "0", TRIM(MID(SUBSTITUTE($M92,",",REPT(" ",LEN($M92))),3 *LEN($M92)+1,LEN($M92))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M92,",",REPT(" ",LEN($M92))), 4 *LEN($M92)+1,LEN($M92))) = "", "0", TRIM(MID(SUBSTITUTE($M92,",",REPT(" ",LEN($M92))),4 *LEN($M92)+1,LEN($M92))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M92,",",REPT(" ",LEN($M92))), 5 *LEN($M92)+1,LEN($M92))) = "", "0", TRIM(MID(SUBSTITUTE($M92,",",REPT(" ",LEN($M92))),5 *LEN($M92)+1,LEN($M92))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M92,",",REPT(" ",LEN($M92))), 6 *LEN($M92)+1,LEN($M92))) = "", "0", TRIM(MID(SUBSTITUTE($M92,",",REPT(" ",LEN($M92))),6 *LEN($M92)+1,LEN($M92))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M92,",",REPT(" ",LEN($M92))), 7 *LEN($M92)+1,LEN($M92))) = "", "0", TRIM(MID(SUBSTITUTE($M92,",",REPT(" ",LEN($M92))),7 *LEN($M92)+1,LEN($M92))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M92,",",REPT(" ",LEN($M92))), 8 *LEN($M92)+1,LEN($M92))) = "", "0", TRIM(MID(SUBSTITUTE($M92,",",REPT(" ",LEN($M92))),8 *LEN($M92)+1,LEN($M92))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M92,",",REPT(" ",LEN($M92))), 9 *LEN($M92)+1,LEN($M92))) = "", "0", TRIM(MID(SUBSTITUTE($M92,",",REPT(" ",LEN($M92))),9 *LEN($M92)+1,LEN($M92))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M92,",",REPT(" ",LEN($M92))), 10 *LEN($M92)+1,LEN($M92))) = "", "0", TRIM(MID(SUBSTITUTE($M92,",",REPT(" ",LEN($M92))),10 *LEN($M92)+1,LEN($M92)))))</f>
@@ -12361,7 +12361,7 @@
         <v>0</v>
       </c>
       <c r="X92" s="0" t="str">
-        <f aca="true">IF(O92="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S92)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O92="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S92)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -12400,8 +12400,8 @@
         <v/>
       </c>
       <c r="U93" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V93" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M93,",",REPT(" ",LEN($M93))), 0 *LEN($M93)+1,LEN($M93))) = "", "0", TRIM(MID(SUBSTITUTE($M93,",",REPT(" ",LEN($M93))),0 *LEN($M93)+1,LEN($M93))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M93,",",REPT(" ",LEN($M93))), 1 *LEN($M93)+1,LEN($M93))) = "", "0", TRIM(MID(SUBSTITUTE($M93,",",REPT(" ",LEN($M93))),1 *LEN($M93)+1,LEN($M93))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M93,",",REPT(" ",LEN($M93))), 2 *LEN($M93)+1,LEN($M93))) = "", "0", TRIM(MID(SUBSTITUTE($M93,",",REPT(" ",LEN($M93))),2 *LEN($M93)+1,LEN($M93))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M93,",",REPT(" ",LEN($M93))), 3 *LEN($M93)+1,LEN($M93))) = "", "0", TRIM(MID(SUBSTITUTE($M93,",",REPT(" ",LEN($M93))),3 *LEN($M93)+1,LEN($M93))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M93,",",REPT(" ",LEN($M93))), 4 *LEN($M93)+1,LEN($M93))) = "", "0", TRIM(MID(SUBSTITUTE($M93,",",REPT(" ",LEN($M93))),4 *LEN($M93)+1,LEN($M93))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M93,",",REPT(" ",LEN($M93))), 5 *LEN($M93)+1,LEN($M93))) = "", "0", TRIM(MID(SUBSTITUTE($M93,",",REPT(" ",LEN($M93))),5 *LEN($M93)+1,LEN($M93))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M93,",",REPT(" ",LEN($M93))), 6 *LEN($M93)+1,LEN($M93))) = "", "0", TRIM(MID(SUBSTITUTE($M93,",",REPT(" ",LEN($M93))),6 *LEN($M93)+1,LEN($M93))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M93,",",REPT(" ",LEN($M93))), 7 *LEN($M93)+1,LEN($M93))) = "", "0", TRIM(MID(SUBSTITUTE($M93,",",REPT(" ",LEN($M93))),7 *LEN($M93)+1,LEN($M93))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M93,",",REPT(" ",LEN($M93))), 8 *LEN($M93)+1,LEN($M93))) = "", "0", TRIM(MID(SUBSTITUTE($M93,",",REPT(" ",LEN($M93))),8 *LEN($M93)+1,LEN($M93))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M93,",",REPT(" ",LEN($M93))), 9 *LEN($M93)+1,LEN($M93))) = "", "0", TRIM(MID(SUBSTITUTE($M93,",",REPT(" ",LEN($M93))),9 *LEN($M93)+1,LEN($M93))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M93,",",REPT(" ",LEN($M93))), 10 *LEN($M93)+1,LEN($M93))) = "", "0", TRIM(MID(SUBSTITUTE($M93,",",REPT(" ",LEN($M93))),10 *LEN($M93)+1,LEN($M93)))))</f>
@@ -12412,7 +12412,7 @@
         <v>0</v>
       </c>
       <c r="X93" s="0" t="str">
-        <f aca="true">IF(O93="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S93)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O93="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S93)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -12451,8 +12451,8 @@
         <v/>
       </c>
       <c r="U94" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V94" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M94,",",REPT(" ",LEN($M94))), 0 *LEN($M94)+1,LEN($M94))) = "", "0", TRIM(MID(SUBSTITUTE($M94,",",REPT(" ",LEN($M94))),0 *LEN($M94)+1,LEN($M94))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M94,",",REPT(" ",LEN($M94))), 1 *LEN($M94)+1,LEN($M94))) = "", "0", TRIM(MID(SUBSTITUTE($M94,",",REPT(" ",LEN($M94))),1 *LEN($M94)+1,LEN($M94))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M94,",",REPT(" ",LEN($M94))), 2 *LEN($M94)+1,LEN($M94))) = "", "0", TRIM(MID(SUBSTITUTE($M94,",",REPT(" ",LEN($M94))),2 *LEN($M94)+1,LEN($M94))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M94,",",REPT(" ",LEN($M94))), 3 *LEN($M94)+1,LEN($M94))) = "", "0", TRIM(MID(SUBSTITUTE($M94,",",REPT(" ",LEN($M94))),3 *LEN($M94)+1,LEN($M94))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M94,",",REPT(" ",LEN($M94))), 4 *LEN($M94)+1,LEN($M94))) = "", "0", TRIM(MID(SUBSTITUTE($M94,",",REPT(" ",LEN($M94))),4 *LEN($M94)+1,LEN($M94))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M94,",",REPT(" ",LEN($M94))), 5 *LEN($M94)+1,LEN($M94))) = "", "0", TRIM(MID(SUBSTITUTE($M94,",",REPT(" ",LEN($M94))),5 *LEN($M94)+1,LEN($M94))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M94,",",REPT(" ",LEN($M94))), 6 *LEN($M94)+1,LEN($M94))) = "", "0", TRIM(MID(SUBSTITUTE($M94,",",REPT(" ",LEN($M94))),6 *LEN($M94)+1,LEN($M94))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M94,",",REPT(" ",LEN($M94))), 7 *LEN($M94)+1,LEN($M94))) = "", "0", TRIM(MID(SUBSTITUTE($M94,",",REPT(" ",LEN($M94))),7 *LEN($M94)+1,LEN($M94))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M94,",",REPT(" ",LEN($M94))), 8 *LEN($M94)+1,LEN($M94))) = "", "0", TRIM(MID(SUBSTITUTE($M94,",",REPT(" ",LEN($M94))),8 *LEN($M94)+1,LEN($M94))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M94,",",REPT(" ",LEN($M94))), 9 *LEN($M94)+1,LEN($M94))) = "", "0", TRIM(MID(SUBSTITUTE($M94,",",REPT(" ",LEN($M94))),9 *LEN($M94)+1,LEN($M94))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M94,",",REPT(" ",LEN($M94))), 10 *LEN($M94)+1,LEN($M94))) = "", "0", TRIM(MID(SUBSTITUTE($M94,",",REPT(" ",LEN($M94))),10 *LEN($M94)+1,LEN($M94)))))</f>
@@ -12463,7 +12463,7 @@
         <v>0</v>
       </c>
       <c r="X94" s="0" t="str">
-        <f aca="true">IF(O94="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S94)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O94="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S94)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -12502,8 +12502,8 @@
         <v/>
       </c>
       <c r="U95" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V95" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M95,",",REPT(" ",LEN($M95))), 0 *LEN($M95)+1,LEN($M95))) = "", "0", TRIM(MID(SUBSTITUTE($M95,",",REPT(" ",LEN($M95))),0 *LEN($M95)+1,LEN($M95))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M95,",",REPT(" ",LEN($M95))), 1 *LEN($M95)+1,LEN($M95))) = "", "0", TRIM(MID(SUBSTITUTE($M95,",",REPT(" ",LEN($M95))),1 *LEN($M95)+1,LEN($M95))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M95,",",REPT(" ",LEN($M95))), 2 *LEN($M95)+1,LEN($M95))) = "", "0", TRIM(MID(SUBSTITUTE($M95,",",REPT(" ",LEN($M95))),2 *LEN($M95)+1,LEN($M95))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M95,",",REPT(" ",LEN($M95))), 3 *LEN($M95)+1,LEN($M95))) = "", "0", TRIM(MID(SUBSTITUTE($M95,",",REPT(" ",LEN($M95))),3 *LEN($M95)+1,LEN($M95))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M95,",",REPT(" ",LEN($M95))), 4 *LEN($M95)+1,LEN($M95))) = "", "0", TRIM(MID(SUBSTITUTE($M95,",",REPT(" ",LEN($M95))),4 *LEN($M95)+1,LEN($M95))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M95,",",REPT(" ",LEN($M95))), 5 *LEN($M95)+1,LEN($M95))) = "", "0", TRIM(MID(SUBSTITUTE($M95,",",REPT(" ",LEN($M95))),5 *LEN($M95)+1,LEN($M95))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M95,",",REPT(" ",LEN($M95))), 6 *LEN($M95)+1,LEN($M95))) = "", "0", TRIM(MID(SUBSTITUTE($M95,",",REPT(" ",LEN($M95))),6 *LEN($M95)+1,LEN($M95))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M95,",",REPT(" ",LEN($M95))), 7 *LEN($M95)+1,LEN($M95))) = "", "0", TRIM(MID(SUBSTITUTE($M95,",",REPT(" ",LEN($M95))),7 *LEN($M95)+1,LEN($M95))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M95,",",REPT(" ",LEN($M95))), 8 *LEN($M95)+1,LEN($M95))) = "", "0", TRIM(MID(SUBSTITUTE($M95,",",REPT(" ",LEN($M95))),8 *LEN($M95)+1,LEN($M95))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M95,",",REPT(" ",LEN($M95))), 9 *LEN($M95)+1,LEN($M95))) = "", "0", TRIM(MID(SUBSTITUTE($M95,",",REPT(" ",LEN($M95))),9 *LEN($M95)+1,LEN($M95))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M95,",",REPT(" ",LEN($M95))), 10 *LEN($M95)+1,LEN($M95))) = "", "0", TRIM(MID(SUBSTITUTE($M95,",",REPT(" ",LEN($M95))),10 *LEN($M95)+1,LEN($M95)))))</f>
@@ -12514,7 +12514,7 @@
         <v>0</v>
       </c>
       <c r="X95" s="0" t="str">
-        <f aca="true">IF(O95="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S95)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O95="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S95)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -12553,8 +12553,8 @@
         <v/>
       </c>
       <c r="U96" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V96" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M96,",",REPT(" ",LEN($M96))), 0 *LEN($M96)+1,LEN($M96))) = "", "0", TRIM(MID(SUBSTITUTE($M96,",",REPT(" ",LEN($M96))),0 *LEN($M96)+1,LEN($M96))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M96,",",REPT(" ",LEN($M96))), 1 *LEN($M96)+1,LEN($M96))) = "", "0", TRIM(MID(SUBSTITUTE($M96,",",REPT(" ",LEN($M96))),1 *LEN($M96)+1,LEN($M96))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M96,",",REPT(" ",LEN($M96))), 2 *LEN($M96)+1,LEN($M96))) = "", "0", TRIM(MID(SUBSTITUTE($M96,",",REPT(" ",LEN($M96))),2 *LEN($M96)+1,LEN($M96))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M96,",",REPT(" ",LEN($M96))), 3 *LEN($M96)+1,LEN($M96))) = "", "0", TRIM(MID(SUBSTITUTE($M96,",",REPT(" ",LEN($M96))),3 *LEN($M96)+1,LEN($M96))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M96,",",REPT(" ",LEN($M96))), 4 *LEN($M96)+1,LEN($M96))) = "", "0", TRIM(MID(SUBSTITUTE($M96,",",REPT(" ",LEN($M96))),4 *LEN($M96)+1,LEN($M96))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M96,",",REPT(" ",LEN($M96))), 5 *LEN($M96)+1,LEN($M96))) = "", "0", TRIM(MID(SUBSTITUTE($M96,",",REPT(" ",LEN($M96))),5 *LEN($M96)+1,LEN($M96))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M96,",",REPT(" ",LEN($M96))), 6 *LEN($M96)+1,LEN($M96))) = "", "0", TRIM(MID(SUBSTITUTE($M96,",",REPT(" ",LEN($M96))),6 *LEN($M96)+1,LEN($M96))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M96,",",REPT(" ",LEN($M96))), 7 *LEN($M96)+1,LEN($M96))) = "", "0", TRIM(MID(SUBSTITUTE($M96,",",REPT(" ",LEN($M96))),7 *LEN($M96)+1,LEN($M96))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M96,",",REPT(" ",LEN($M96))), 8 *LEN($M96)+1,LEN($M96))) = "", "0", TRIM(MID(SUBSTITUTE($M96,",",REPT(" ",LEN($M96))),8 *LEN($M96)+1,LEN($M96))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M96,",",REPT(" ",LEN($M96))), 9 *LEN($M96)+1,LEN($M96))) = "", "0", TRIM(MID(SUBSTITUTE($M96,",",REPT(" ",LEN($M96))),9 *LEN($M96)+1,LEN($M96))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M96,",",REPT(" ",LEN($M96))), 10 *LEN($M96)+1,LEN($M96))) = "", "0", TRIM(MID(SUBSTITUTE($M96,",",REPT(" ",LEN($M96))),10 *LEN($M96)+1,LEN($M96)))))</f>
@@ -12565,7 +12565,7 @@
         <v>0</v>
       </c>
       <c r="X96" s="0" t="str">
-        <f aca="true">IF(O96="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S96)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O96="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S96)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -12604,8 +12604,8 @@
         <v/>
       </c>
       <c r="U97" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V97" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M97,",",REPT(" ",LEN($M97))), 0 *LEN($M97)+1,LEN($M97))) = "", "0", TRIM(MID(SUBSTITUTE($M97,",",REPT(" ",LEN($M97))),0 *LEN($M97)+1,LEN($M97))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M97,",",REPT(" ",LEN($M97))), 1 *LEN($M97)+1,LEN($M97))) = "", "0", TRIM(MID(SUBSTITUTE($M97,",",REPT(" ",LEN($M97))),1 *LEN($M97)+1,LEN($M97))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M97,",",REPT(" ",LEN($M97))), 2 *LEN($M97)+1,LEN($M97))) = "", "0", TRIM(MID(SUBSTITUTE($M97,",",REPT(" ",LEN($M97))),2 *LEN($M97)+1,LEN($M97))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M97,",",REPT(" ",LEN($M97))), 3 *LEN($M97)+1,LEN($M97))) = "", "0", TRIM(MID(SUBSTITUTE($M97,",",REPT(" ",LEN($M97))),3 *LEN($M97)+1,LEN($M97))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M97,",",REPT(" ",LEN($M97))), 4 *LEN($M97)+1,LEN($M97))) = "", "0", TRIM(MID(SUBSTITUTE($M97,",",REPT(" ",LEN($M97))),4 *LEN($M97)+1,LEN($M97))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M97,",",REPT(" ",LEN($M97))), 5 *LEN($M97)+1,LEN($M97))) = "", "0", TRIM(MID(SUBSTITUTE($M97,",",REPT(" ",LEN($M97))),5 *LEN($M97)+1,LEN($M97))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M97,",",REPT(" ",LEN($M97))), 6 *LEN($M97)+1,LEN($M97))) = "", "0", TRIM(MID(SUBSTITUTE($M97,",",REPT(" ",LEN($M97))),6 *LEN($M97)+1,LEN($M97))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M97,",",REPT(" ",LEN($M97))), 7 *LEN($M97)+1,LEN($M97))) = "", "0", TRIM(MID(SUBSTITUTE($M97,",",REPT(" ",LEN($M97))),7 *LEN($M97)+1,LEN($M97))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M97,",",REPT(" ",LEN($M97))), 8 *LEN($M97)+1,LEN($M97))) = "", "0", TRIM(MID(SUBSTITUTE($M97,",",REPT(" ",LEN($M97))),8 *LEN($M97)+1,LEN($M97))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M97,",",REPT(" ",LEN($M97))), 9 *LEN($M97)+1,LEN($M97))) = "", "0", TRIM(MID(SUBSTITUTE($M97,",",REPT(" ",LEN($M97))),9 *LEN($M97)+1,LEN($M97))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M97,",",REPT(" ",LEN($M97))), 10 *LEN($M97)+1,LEN($M97))) = "", "0", TRIM(MID(SUBSTITUTE($M97,",",REPT(" ",LEN($M97))),10 *LEN($M97)+1,LEN($M97)))))</f>
@@ -12616,7 +12616,7 @@
         <v>0</v>
       </c>
       <c r="X97" s="0" t="str">
-        <f aca="true">IF(O97="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S97)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O97="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S97)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -12655,8 +12655,8 @@
         <v/>
       </c>
       <c r="U98" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V98" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M98,",",REPT(" ",LEN($M98))), 0 *LEN($M98)+1,LEN($M98))) = "", "0", TRIM(MID(SUBSTITUTE($M98,",",REPT(" ",LEN($M98))),0 *LEN($M98)+1,LEN($M98))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M98,",",REPT(" ",LEN($M98))), 1 *LEN($M98)+1,LEN($M98))) = "", "0", TRIM(MID(SUBSTITUTE($M98,",",REPT(" ",LEN($M98))),1 *LEN($M98)+1,LEN($M98))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M98,",",REPT(" ",LEN($M98))), 2 *LEN($M98)+1,LEN($M98))) = "", "0", TRIM(MID(SUBSTITUTE($M98,",",REPT(" ",LEN($M98))),2 *LEN($M98)+1,LEN($M98))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M98,",",REPT(" ",LEN($M98))), 3 *LEN($M98)+1,LEN($M98))) = "", "0", TRIM(MID(SUBSTITUTE($M98,",",REPT(" ",LEN($M98))),3 *LEN($M98)+1,LEN($M98))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M98,",",REPT(" ",LEN($M98))), 4 *LEN($M98)+1,LEN($M98))) = "", "0", TRIM(MID(SUBSTITUTE($M98,",",REPT(" ",LEN($M98))),4 *LEN($M98)+1,LEN($M98))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M98,",",REPT(" ",LEN($M98))), 5 *LEN($M98)+1,LEN($M98))) = "", "0", TRIM(MID(SUBSTITUTE($M98,",",REPT(" ",LEN($M98))),5 *LEN($M98)+1,LEN($M98))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M98,",",REPT(" ",LEN($M98))), 6 *LEN($M98)+1,LEN($M98))) = "", "0", TRIM(MID(SUBSTITUTE($M98,",",REPT(" ",LEN($M98))),6 *LEN($M98)+1,LEN($M98))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M98,",",REPT(" ",LEN($M98))), 7 *LEN($M98)+1,LEN($M98))) = "", "0", TRIM(MID(SUBSTITUTE($M98,",",REPT(" ",LEN($M98))),7 *LEN($M98)+1,LEN($M98))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M98,",",REPT(" ",LEN($M98))), 8 *LEN($M98)+1,LEN($M98))) = "", "0", TRIM(MID(SUBSTITUTE($M98,",",REPT(" ",LEN($M98))),8 *LEN($M98)+1,LEN($M98))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M98,",",REPT(" ",LEN($M98))), 9 *LEN($M98)+1,LEN($M98))) = "", "0", TRIM(MID(SUBSTITUTE($M98,",",REPT(" ",LEN($M98))),9 *LEN($M98)+1,LEN($M98))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M98,",",REPT(" ",LEN($M98))), 10 *LEN($M98)+1,LEN($M98))) = "", "0", TRIM(MID(SUBSTITUTE($M98,",",REPT(" ",LEN($M98))),10 *LEN($M98)+1,LEN($M98)))))</f>
@@ -12667,7 +12667,7 @@
         <v>0</v>
       </c>
       <c r="X98" s="0" t="str">
-        <f aca="true">IF(O98="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S98)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O98="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S98)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -12706,8 +12706,8 @@
         <v/>
       </c>
       <c r="U99" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V99" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M99,",",REPT(" ",LEN($M99))), 0 *LEN($M99)+1,LEN($M99))) = "", "0", TRIM(MID(SUBSTITUTE($M99,",",REPT(" ",LEN($M99))),0 *LEN($M99)+1,LEN($M99))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M99,",",REPT(" ",LEN($M99))), 1 *LEN($M99)+1,LEN($M99))) = "", "0", TRIM(MID(SUBSTITUTE($M99,",",REPT(" ",LEN($M99))),1 *LEN($M99)+1,LEN($M99))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M99,",",REPT(" ",LEN($M99))), 2 *LEN($M99)+1,LEN($M99))) = "", "0", TRIM(MID(SUBSTITUTE($M99,",",REPT(" ",LEN($M99))),2 *LEN($M99)+1,LEN($M99))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M99,",",REPT(" ",LEN($M99))), 3 *LEN($M99)+1,LEN($M99))) = "", "0", TRIM(MID(SUBSTITUTE($M99,",",REPT(" ",LEN($M99))),3 *LEN($M99)+1,LEN($M99))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M99,",",REPT(" ",LEN($M99))), 4 *LEN($M99)+1,LEN($M99))) = "", "0", TRIM(MID(SUBSTITUTE($M99,",",REPT(" ",LEN($M99))),4 *LEN($M99)+1,LEN($M99))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M99,",",REPT(" ",LEN($M99))), 5 *LEN($M99)+1,LEN($M99))) = "", "0", TRIM(MID(SUBSTITUTE($M99,",",REPT(" ",LEN($M99))),5 *LEN($M99)+1,LEN($M99))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M99,",",REPT(" ",LEN($M99))), 6 *LEN($M99)+1,LEN($M99))) = "", "0", TRIM(MID(SUBSTITUTE($M99,",",REPT(" ",LEN($M99))),6 *LEN($M99)+1,LEN($M99))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M99,",",REPT(" ",LEN($M99))), 7 *LEN($M99)+1,LEN($M99))) = "", "0", TRIM(MID(SUBSTITUTE($M99,",",REPT(" ",LEN($M99))),7 *LEN($M99)+1,LEN($M99))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M99,",",REPT(" ",LEN($M99))), 8 *LEN($M99)+1,LEN($M99))) = "", "0", TRIM(MID(SUBSTITUTE($M99,",",REPT(" ",LEN($M99))),8 *LEN($M99)+1,LEN($M99))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M99,",",REPT(" ",LEN($M99))), 9 *LEN($M99)+1,LEN($M99))) = "", "0", TRIM(MID(SUBSTITUTE($M99,",",REPT(" ",LEN($M99))),9 *LEN($M99)+1,LEN($M99))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M99,",",REPT(" ",LEN($M99))), 10 *LEN($M99)+1,LEN($M99))) = "", "0", TRIM(MID(SUBSTITUTE($M99,",",REPT(" ",LEN($M99))),10 *LEN($M99)+1,LEN($M99)))))</f>
@@ -12718,7 +12718,7 @@
         <v>0</v>
       </c>
       <c r="X99" s="0" t="str">
-        <f aca="true">IF(O99="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S99)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O99="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S99)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -12757,8 +12757,8 @@
         <v/>
       </c>
       <c r="U100" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V100" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M100,",",REPT(" ",LEN($M100))), 0 *LEN($M100)+1,LEN($M100))) = "", "0", TRIM(MID(SUBSTITUTE($M100,",",REPT(" ",LEN($M100))),0 *LEN($M100)+1,LEN($M100))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M100,",",REPT(" ",LEN($M100))), 1 *LEN($M100)+1,LEN($M100))) = "", "0", TRIM(MID(SUBSTITUTE($M100,",",REPT(" ",LEN($M100))),1 *LEN($M100)+1,LEN($M100))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M100,",",REPT(" ",LEN($M100))), 2 *LEN($M100)+1,LEN($M100))) = "", "0", TRIM(MID(SUBSTITUTE($M100,",",REPT(" ",LEN($M100))),2 *LEN($M100)+1,LEN($M100))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M100,",",REPT(" ",LEN($M100))), 3 *LEN($M100)+1,LEN($M100))) = "", "0", TRIM(MID(SUBSTITUTE($M100,",",REPT(" ",LEN($M100))),3 *LEN($M100)+1,LEN($M100))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M100,",",REPT(" ",LEN($M100))), 4 *LEN($M100)+1,LEN($M100))) = "", "0", TRIM(MID(SUBSTITUTE($M100,",",REPT(" ",LEN($M100))),4 *LEN($M100)+1,LEN($M100))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M100,",",REPT(" ",LEN($M100))), 5 *LEN($M100)+1,LEN($M100))) = "", "0", TRIM(MID(SUBSTITUTE($M100,",",REPT(" ",LEN($M100))),5 *LEN($M100)+1,LEN($M100))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M100,",",REPT(" ",LEN($M100))), 6 *LEN($M100)+1,LEN($M100))) = "", "0", TRIM(MID(SUBSTITUTE($M100,",",REPT(" ",LEN($M100))),6 *LEN($M100)+1,LEN($M100))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M100,",",REPT(" ",LEN($M100))), 7 *LEN($M100)+1,LEN($M100))) = "", "0", TRIM(MID(SUBSTITUTE($M100,",",REPT(" ",LEN($M100))),7 *LEN($M100)+1,LEN($M100))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M100,",",REPT(" ",LEN($M100))), 8 *LEN($M100)+1,LEN($M100))) = "", "0", TRIM(MID(SUBSTITUTE($M100,",",REPT(" ",LEN($M100))),8 *LEN($M100)+1,LEN($M100))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M100,",",REPT(" ",LEN($M100))), 9 *LEN($M100)+1,LEN($M100))) = "", "0", TRIM(MID(SUBSTITUTE($M100,",",REPT(" ",LEN($M100))),9 *LEN($M100)+1,LEN($M100))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M100,",",REPT(" ",LEN($M100))), 10 *LEN($M100)+1,LEN($M100))) = "", "0", TRIM(MID(SUBSTITUTE($M100,",",REPT(" ",LEN($M100))),10 *LEN($M100)+1,LEN($M100)))))</f>
@@ -12769,7 +12769,7 @@
         <v>0</v>
       </c>
       <c r="X100" s="0" t="str">
-        <f aca="true">IF(O100="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S100)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O100="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S100)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -12808,8 +12808,8 @@
         <v/>
       </c>
       <c r="U101" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V101" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M101,",",REPT(" ",LEN($M101))), 0 *LEN($M101)+1,LEN($M101))) = "", "0", TRIM(MID(SUBSTITUTE($M101,",",REPT(" ",LEN($M101))),0 *LEN($M101)+1,LEN($M101))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M101,",",REPT(" ",LEN($M101))), 1 *LEN($M101)+1,LEN($M101))) = "", "0", TRIM(MID(SUBSTITUTE($M101,",",REPT(" ",LEN($M101))),1 *LEN($M101)+1,LEN($M101))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M101,",",REPT(" ",LEN($M101))), 2 *LEN($M101)+1,LEN($M101))) = "", "0", TRIM(MID(SUBSTITUTE($M101,",",REPT(" ",LEN($M101))),2 *LEN($M101)+1,LEN($M101))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M101,",",REPT(" ",LEN($M101))), 3 *LEN($M101)+1,LEN($M101))) = "", "0", TRIM(MID(SUBSTITUTE($M101,",",REPT(" ",LEN($M101))),3 *LEN($M101)+1,LEN($M101))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M101,",",REPT(" ",LEN($M101))), 4 *LEN($M101)+1,LEN($M101))) = "", "0", TRIM(MID(SUBSTITUTE($M101,",",REPT(" ",LEN($M101))),4 *LEN($M101)+1,LEN($M101))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M101,",",REPT(" ",LEN($M101))), 5 *LEN($M101)+1,LEN($M101))) = "", "0", TRIM(MID(SUBSTITUTE($M101,",",REPT(" ",LEN($M101))),5 *LEN($M101)+1,LEN($M101))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M101,",",REPT(" ",LEN($M101))), 6 *LEN($M101)+1,LEN($M101))) = "", "0", TRIM(MID(SUBSTITUTE($M101,",",REPT(" ",LEN($M101))),6 *LEN($M101)+1,LEN($M101))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M101,",",REPT(" ",LEN($M101))), 7 *LEN($M101)+1,LEN($M101))) = "", "0", TRIM(MID(SUBSTITUTE($M101,",",REPT(" ",LEN($M101))),7 *LEN($M101)+1,LEN($M101))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M101,",",REPT(" ",LEN($M101))), 8 *LEN($M101)+1,LEN($M101))) = "", "0", TRIM(MID(SUBSTITUTE($M101,",",REPT(" ",LEN($M101))),8 *LEN($M101)+1,LEN($M101))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M101,",",REPT(" ",LEN($M101))), 9 *LEN($M101)+1,LEN($M101))) = "", "0", TRIM(MID(SUBSTITUTE($M101,",",REPT(" ",LEN($M101))),9 *LEN($M101)+1,LEN($M101))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M101,",",REPT(" ",LEN($M101))), 10 *LEN($M101)+1,LEN($M101))) = "", "0", TRIM(MID(SUBSTITUTE($M101,",",REPT(" ",LEN($M101))),10 *LEN($M101)+1,LEN($M101)))))</f>
@@ -12820,7 +12820,7 @@
         <v>0</v>
       </c>
       <c r="X101" s="0" t="str">
-        <f aca="true">IF(O101="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S101)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O101="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S101)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -12859,8 +12859,8 @@
         <v/>
       </c>
       <c r="U102" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V102" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M102,",",REPT(" ",LEN($M102))), 0 *LEN($M102)+1,LEN($M102))) = "", "0", TRIM(MID(SUBSTITUTE($M102,",",REPT(" ",LEN($M102))),0 *LEN($M102)+1,LEN($M102))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M102,",",REPT(" ",LEN($M102))), 1 *LEN($M102)+1,LEN($M102))) = "", "0", TRIM(MID(SUBSTITUTE($M102,",",REPT(" ",LEN($M102))),1 *LEN($M102)+1,LEN($M102))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M102,",",REPT(" ",LEN($M102))), 2 *LEN($M102)+1,LEN($M102))) = "", "0", TRIM(MID(SUBSTITUTE($M102,",",REPT(" ",LEN($M102))),2 *LEN($M102)+1,LEN($M102))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M102,",",REPT(" ",LEN($M102))), 3 *LEN($M102)+1,LEN($M102))) = "", "0", TRIM(MID(SUBSTITUTE($M102,",",REPT(" ",LEN($M102))),3 *LEN($M102)+1,LEN($M102))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M102,",",REPT(" ",LEN($M102))), 4 *LEN($M102)+1,LEN($M102))) = "", "0", TRIM(MID(SUBSTITUTE($M102,",",REPT(" ",LEN($M102))),4 *LEN($M102)+1,LEN($M102))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M102,",",REPT(" ",LEN($M102))), 5 *LEN($M102)+1,LEN($M102))) = "", "0", TRIM(MID(SUBSTITUTE($M102,",",REPT(" ",LEN($M102))),5 *LEN($M102)+1,LEN($M102))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M102,",",REPT(" ",LEN($M102))), 6 *LEN($M102)+1,LEN($M102))) = "", "0", TRIM(MID(SUBSTITUTE($M102,",",REPT(" ",LEN($M102))),6 *LEN($M102)+1,LEN($M102))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M102,",",REPT(" ",LEN($M102))), 7 *LEN($M102)+1,LEN($M102))) = "", "0", TRIM(MID(SUBSTITUTE($M102,",",REPT(" ",LEN($M102))),7 *LEN($M102)+1,LEN($M102))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M102,",",REPT(" ",LEN($M102))), 8 *LEN($M102)+1,LEN($M102))) = "", "0", TRIM(MID(SUBSTITUTE($M102,",",REPT(" ",LEN($M102))),8 *LEN($M102)+1,LEN($M102))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M102,",",REPT(" ",LEN($M102))), 9 *LEN($M102)+1,LEN($M102))) = "", "0", TRIM(MID(SUBSTITUTE($M102,",",REPT(" ",LEN($M102))),9 *LEN($M102)+1,LEN($M102))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M102,",",REPT(" ",LEN($M102))), 10 *LEN($M102)+1,LEN($M102))) = "", "0", TRIM(MID(SUBSTITUTE($M102,",",REPT(" ",LEN($M102))),10 *LEN($M102)+1,LEN($M102)))))</f>
@@ -12871,7 +12871,7 @@
         <v>0</v>
       </c>
       <c r="X102" s="0" t="str">
-        <f aca="true">IF(O102="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S102)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O102="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S102)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -12910,8 +12910,8 @@
         <v/>
       </c>
       <c r="U103" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V103" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M103,",",REPT(" ",LEN($M103))), 0 *LEN($M103)+1,LEN($M103))) = "", "0", TRIM(MID(SUBSTITUTE($M103,",",REPT(" ",LEN($M103))),0 *LEN($M103)+1,LEN($M103))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M103,",",REPT(" ",LEN($M103))), 1 *LEN($M103)+1,LEN($M103))) = "", "0", TRIM(MID(SUBSTITUTE($M103,",",REPT(" ",LEN($M103))),1 *LEN($M103)+1,LEN($M103))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M103,",",REPT(" ",LEN($M103))), 2 *LEN($M103)+1,LEN($M103))) = "", "0", TRIM(MID(SUBSTITUTE($M103,",",REPT(" ",LEN($M103))),2 *LEN($M103)+1,LEN($M103))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M103,",",REPT(" ",LEN($M103))), 3 *LEN($M103)+1,LEN($M103))) = "", "0", TRIM(MID(SUBSTITUTE($M103,",",REPT(" ",LEN($M103))),3 *LEN($M103)+1,LEN($M103))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M103,",",REPT(" ",LEN($M103))), 4 *LEN($M103)+1,LEN($M103))) = "", "0", TRIM(MID(SUBSTITUTE($M103,",",REPT(" ",LEN($M103))),4 *LEN($M103)+1,LEN($M103))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M103,",",REPT(" ",LEN($M103))), 5 *LEN($M103)+1,LEN($M103))) = "", "0", TRIM(MID(SUBSTITUTE($M103,",",REPT(" ",LEN($M103))),5 *LEN($M103)+1,LEN($M103))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M103,",",REPT(" ",LEN($M103))), 6 *LEN($M103)+1,LEN($M103))) = "", "0", TRIM(MID(SUBSTITUTE($M103,",",REPT(" ",LEN($M103))),6 *LEN($M103)+1,LEN($M103))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M103,",",REPT(" ",LEN($M103))), 7 *LEN($M103)+1,LEN($M103))) = "", "0", TRIM(MID(SUBSTITUTE($M103,",",REPT(" ",LEN($M103))),7 *LEN($M103)+1,LEN($M103))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M103,",",REPT(" ",LEN($M103))), 8 *LEN($M103)+1,LEN($M103))) = "", "0", TRIM(MID(SUBSTITUTE($M103,",",REPT(" ",LEN($M103))),8 *LEN($M103)+1,LEN($M103))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M103,",",REPT(" ",LEN($M103))), 9 *LEN($M103)+1,LEN($M103))) = "", "0", TRIM(MID(SUBSTITUTE($M103,",",REPT(" ",LEN($M103))),9 *LEN($M103)+1,LEN($M103))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M103,",",REPT(" ",LEN($M103))), 10 *LEN($M103)+1,LEN($M103))) = "", "0", TRIM(MID(SUBSTITUTE($M103,",",REPT(" ",LEN($M103))),10 *LEN($M103)+1,LEN($M103)))))</f>
@@ -12922,7 +12922,7 @@
         <v>0</v>
       </c>
       <c r="X103" s="0" t="str">
-        <f aca="true">IF(O103="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S103)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O103="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S103)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -12961,8 +12961,8 @@
         <v/>
       </c>
       <c r="U104" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V104" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M104,",",REPT(" ",LEN($M104))), 0 *LEN($M104)+1,LEN($M104))) = "", "0", TRIM(MID(SUBSTITUTE($M104,",",REPT(" ",LEN($M104))),0 *LEN($M104)+1,LEN($M104))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M104,",",REPT(" ",LEN($M104))), 1 *LEN($M104)+1,LEN($M104))) = "", "0", TRIM(MID(SUBSTITUTE($M104,",",REPT(" ",LEN($M104))),1 *LEN($M104)+1,LEN($M104))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M104,",",REPT(" ",LEN($M104))), 2 *LEN($M104)+1,LEN($M104))) = "", "0", TRIM(MID(SUBSTITUTE($M104,",",REPT(" ",LEN($M104))),2 *LEN($M104)+1,LEN($M104))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M104,",",REPT(" ",LEN($M104))), 3 *LEN($M104)+1,LEN($M104))) = "", "0", TRIM(MID(SUBSTITUTE($M104,",",REPT(" ",LEN($M104))),3 *LEN($M104)+1,LEN($M104))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M104,",",REPT(" ",LEN($M104))), 4 *LEN($M104)+1,LEN($M104))) = "", "0", TRIM(MID(SUBSTITUTE($M104,",",REPT(" ",LEN($M104))),4 *LEN($M104)+1,LEN($M104))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M104,",",REPT(" ",LEN($M104))), 5 *LEN($M104)+1,LEN($M104))) = "", "0", TRIM(MID(SUBSTITUTE($M104,",",REPT(" ",LEN($M104))),5 *LEN($M104)+1,LEN($M104))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M104,",",REPT(" ",LEN($M104))), 6 *LEN($M104)+1,LEN($M104))) = "", "0", TRIM(MID(SUBSTITUTE($M104,",",REPT(" ",LEN($M104))),6 *LEN($M104)+1,LEN($M104))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M104,",",REPT(" ",LEN($M104))), 7 *LEN($M104)+1,LEN($M104))) = "", "0", TRIM(MID(SUBSTITUTE($M104,",",REPT(" ",LEN($M104))),7 *LEN($M104)+1,LEN($M104))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M104,",",REPT(" ",LEN($M104))), 8 *LEN($M104)+1,LEN($M104))) = "", "0", TRIM(MID(SUBSTITUTE($M104,",",REPT(" ",LEN($M104))),8 *LEN($M104)+1,LEN($M104))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M104,",",REPT(" ",LEN($M104))), 9 *LEN($M104)+1,LEN($M104))) = "", "0", TRIM(MID(SUBSTITUTE($M104,",",REPT(" ",LEN($M104))),9 *LEN($M104)+1,LEN($M104))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M104,",",REPT(" ",LEN($M104))), 10 *LEN($M104)+1,LEN($M104))) = "", "0", TRIM(MID(SUBSTITUTE($M104,",",REPT(" ",LEN($M104))),10 *LEN($M104)+1,LEN($M104)))))</f>
@@ -12973,7 +12973,7 @@
         <v>0</v>
       </c>
       <c r="X104" s="0" t="str">
-        <f aca="true">IF(O104="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S104)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O104="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S104)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -13012,8 +13012,8 @@
         <v/>
       </c>
       <c r="U105" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V105" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M105,",",REPT(" ",LEN($M105))), 0 *LEN($M105)+1,LEN($M105))) = "", "0", TRIM(MID(SUBSTITUTE($M105,",",REPT(" ",LEN($M105))),0 *LEN($M105)+1,LEN($M105))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M105,",",REPT(" ",LEN($M105))), 1 *LEN($M105)+1,LEN($M105))) = "", "0", TRIM(MID(SUBSTITUTE($M105,",",REPT(" ",LEN($M105))),1 *LEN($M105)+1,LEN($M105))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M105,",",REPT(" ",LEN($M105))), 2 *LEN($M105)+1,LEN($M105))) = "", "0", TRIM(MID(SUBSTITUTE($M105,",",REPT(" ",LEN($M105))),2 *LEN($M105)+1,LEN($M105))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M105,",",REPT(" ",LEN($M105))), 3 *LEN($M105)+1,LEN($M105))) = "", "0", TRIM(MID(SUBSTITUTE($M105,",",REPT(" ",LEN($M105))),3 *LEN($M105)+1,LEN($M105))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M105,",",REPT(" ",LEN($M105))), 4 *LEN($M105)+1,LEN($M105))) = "", "0", TRIM(MID(SUBSTITUTE($M105,",",REPT(" ",LEN($M105))),4 *LEN($M105)+1,LEN($M105))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M105,",",REPT(" ",LEN($M105))), 5 *LEN($M105)+1,LEN($M105))) = "", "0", TRIM(MID(SUBSTITUTE($M105,",",REPT(" ",LEN($M105))),5 *LEN($M105)+1,LEN($M105))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M105,",",REPT(" ",LEN($M105))), 6 *LEN($M105)+1,LEN($M105))) = "", "0", TRIM(MID(SUBSTITUTE($M105,",",REPT(" ",LEN($M105))),6 *LEN($M105)+1,LEN($M105))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M105,",",REPT(" ",LEN($M105))), 7 *LEN($M105)+1,LEN($M105))) = "", "0", TRIM(MID(SUBSTITUTE($M105,",",REPT(" ",LEN($M105))),7 *LEN($M105)+1,LEN($M105))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M105,",",REPT(" ",LEN($M105))), 8 *LEN($M105)+1,LEN($M105))) = "", "0", TRIM(MID(SUBSTITUTE($M105,",",REPT(" ",LEN($M105))),8 *LEN($M105)+1,LEN($M105))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M105,",",REPT(" ",LEN($M105))), 9 *LEN($M105)+1,LEN($M105))) = "", "0", TRIM(MID(SUBSTITUTE($M105,",",REPT(" ",LEN($M105))),9 *LEN($M105)+1,LEN($M105))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M105,",",REPT(" ",LEN($M105))), 10 *LEN($M105)+1,LEN($M105))) = "", "0", TRIM(MID(SUBSTITUTE($M105,",",REPT(" ",LEN($M105))),10 *LEN($M105)+1,LEN($M105)))))</f>
@@ -13024,7 +13024,7 @@
         <v>0</v>
       </c>
       <c r="X105" s="0" t="str">
-        <f aca="true">IF(O105="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S105)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O105="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S105)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -13063,8 +13063,8 @@
         <v/>
       </c>
       <c r="U106" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V106" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M106,",",REPT(" ",LEN($M106))), 0 *LEN($M106)+1,LEN($M106))) = "", "0", TRIM(MID(SUBSTITUTE($M106,",",REPT(" ",LEN($M106))),0 *LEN($M106)+1,LEN($M106))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M106,",",REPT(" ",LEN($M106))), 1 *LEN($M106)+1,LEN($M106))) = "", "0", TRIM(MID(SUBSTITUTE($M106,",",REPT(" ",LEN($M106))),1 *LEN($M106)+1,LEN($M106))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M106,",",REPT(" ",LEN($M106))), 2 *LEN($M106)+1,LEN($M106))) = "", "0", TRIM(MID(SUBSTITUTE($M106,",",REPT(" ",LEN($M106))),2 *LEN($M106)+1,LEN($M106))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M106,",",REPT(" ",LEN($M106))), 3 *LEN($M106)+1,LEN($M106))) = "", "0", TRIM(MID(SUBSTITUTE($M106,",",REPT(" ",LEN($M106))),3 *LEN($M106)+1,LEN($M106))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M106,",",REPT(" ",LEN($M106))), 4 *LEN($M106)+1,LEN($M106))) = "", "0", TRIM(MID(SUBSTITUTE($M106,",",REPT(" ",LEN($M106))),4 *LEN($M106)+1,LEN($M106))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M106,",",REPT(" ",LEN($M106))), 5 *LEN($M106)+1,LEN($M106))) = "", "0", TRIM(MID(SUBSTITUTE($M106,",",REPT(" ",LEN($M106))),5 *LEN($M106)+1,LEN($M106))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M106,",",REPT(" ",LEN($M106))), 6 *LEN($M106)+1,LEN($M106))) = "", "0", TRIM(MID(SUBSTITUTE($M106,",",REPT(" ",LEN($M106))),6 *LEN($M106)+1,LEN($M106))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M106,",",REPT(" ",LEN($M106))), 7 *LEN($M106)+1,LEN($M106))) = "", "0", TRIM(MID(SUBSTITUTE($M106,",",REPT(" ",LEN($M106))),7 *LEN($M106)+1,LEN($M106))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M106,",",REPT(" ",LEN($M106))), 8 *LEN($M106)+1,LEN($M106))) = "", "0", TRIM(MID(SUBSTITUTE($M106,",",REPT(" ",LEN($M106))),8 *LEN($M106)+1,LEN($M106))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M106,",",REPT(" ",LEN($M106))), 9 *LEN($M106)+1,LEN($M106))) = "", "0", TRIM(MID(SUBSTITUTE($M106,",",REPT(" ",LEN($M106))),9 *LEN($M106)+1,LEN($M106))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M106,",",REPT(" ",LEN($M106))), 10 *LEN($M106)+1,LEN($M106))) = "", "0", TRIM(MID(SUBSTITUTE($M106,",",REPT(" ",LEN($M106))),10 *LEN($M106)+1,LEN($M106)))))</f>
@@ -13075,7 +13075,7 @@
         <v>0</v>
       </c>
       <c r="X106" s="0" t="str">
-        <f aca="true">IF(O106="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S106)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O106="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S106)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -13114,8 +13114,8 @@
         <v/>
       </c>
       <c r="U107" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V107" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M107,",",REPT(" ",LEN($M107))), 0 *LEN($M107)+1,LEN($M107))) = "", "0", TRIM(MID(SUBSTITUTE($M107,",",REPT(" ",LEN($M107))),0 *LEN($M107)+1,LEN($M107))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M107,",",REPT(" ",LEN($M107))), 1 *LEN($M107)+1,LEN($M107))) = "", "0", TRIM(MID(SUBSTITUTE($M107,",",REPT(" ",LEN($M107))),1 *LEN($M107)+1,LEN($M107))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M107,",",REPT(" ",LEN($M107))), 2 *LEN($M107)+1,LEN($M107))) = "", "0", TRIM(MID(SUBSTITUTE($M107,",",REPT(" ",LEN($M107))),2 *LEN($M107)+1,LEN($M107))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M107,",",REPT(" ",LEN($M107))), 3 *LEN($M107)+1,LEN($M107))) = "", "0", TRIM(MID(SUBSTITUTE($M107,",",REPT(" ",LEN($M107))),3 *LEN($M107)+1,LEN($M107))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M107,",",REPT(" ",LEN($M107))), 4 *LEN($M107)+1,LEN($M107))) = "", "0", TRIM(MID(SUBSTITUTE($M107,",",REPT(" ",LEN($M107))),4 *LEN($M107)+1,LEN($M107))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M107,",",REPT(" ",LEN($M107))), 5 *LEN($M107)+1,LEN($M107))) = "", "0", TRIM(MID(SUBSTITUTE($M107,",",REPT(" ",LEN($M107))),5 *LEN($M107)+1,LEN($M107))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M107,",",REPT(" ",LEN($M107))), 6 *LEN($M107)+1,LEN($M107))) = "", "0", TRIM(MID(SUBSTITUTE($M107,",",REPT(" ",LEN($M107))),6 *LEN($M107)+1,LEN($M107))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M107,",",REPT(" ",LEN($M107))), 7 *LEN($M107)+1,LEN($M107))) = "", "0", TRIM(MID(SUBSTITUTE($M107,",",REPT(" ",LEN($M107))),7 *LEN($M107)+1,LEN($M107))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M107,",",REPT(" ",LEN($M107))), 8 *LEN($M107)+1,LEN($M107))) = "", "0", TRIM(MID(SUBSTITUTE($M107,",",REPT(" ",LEN($M107))),8 *LEN($M107)+1,LEN($M107))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M107,",",REPT(" ",LEN($M107))), 9 *LEN($M107)+1,LEN($M107))) = "", "0", TRIM(MID(SUBSTITUTE($M107,",",REPT(" ",LEN($M107))),9 *LEN($M107)+1,LEN($M107))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M107,",",REPT(" ",LEN($M107))), 10 *LEN($M107)+1,LEN($M107))) = "", "0", TRIM(MID(SUBSTITUTE($M107,",",REPT(" ",LEN($M107))),10 *LEN($M107)+1,LEN($M107)))))</f>
@@ -13126,7 +13126,7 @@
         <v>0</v>
       </c>
       <c r="X107" s="0" t="str">
-        <f aca="true">IF(O107="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S107)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O107="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S107)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -13165,8 +13165,8 @@
         <v/>
       </c>
       <c r="U108" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V108" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))), 0 *LEN($M108)+1,LEN($M108))) = "", "0", TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))),0 *LEN($M108)+1,LEN($M108))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))), 1 *LEN($M108)+1,LEN($M108))) = "", "0", TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))),1 *LEN($M108)+1,LEN($M108))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))), 2 *LEN($M108)+1,LEN($M108))) = "", "0", TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))),2 *LEN($M108)+1,LEN($M108))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))), 3 *LEN($M108)+1,LEN($M108))) = "", "0", TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))),3 *LEN($M108)+1,LEN($M108))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))), 4 *LEN($M108)+1,LEN($M108))) = "", "0", TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))),4 *LEN($M108)+1,LEN($M108))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))), 5 *LEN($M108)+1,LEN($M108))) = "", "0", TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))),5 *LEN($M108)+1,LEN($M108))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))), 6 *LEN($M108)+1,LEN($M108))) = "", "0", TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))),6 *LEN($M108)+1,LEN($M108))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))), 7 *LEN($M108)+1,LEN($M108))) = "", "0", TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))),7 *LEN($M108)+1,LEN($M108))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))), 8 *LEN($M108)+1,LEN($M108))) = "", "0", TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))),8 *LEN($M108)+1,LEN($M108))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))), 9 *LEN($M108)+1,LEN($M108))) = "", "0", TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))),9 *LEN($M108)+1,LEN($M108))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))), 10 *LEN($M108)+1,LEN($M108))) = "", "0", TRIM(MID(SUBSTITUTE($M108,",",REPT(" ",LEN($M108))),10 *LEN($M108)+1,LEN($M108)))))</f>
@@ -13177,7 +13177,7 @@
         <v>0</v>
       </c>
       <c r="X108" s="0" t="str">
-        <f aca="true">IF(O108="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S108)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O108="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S108)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -13216,8 +13216,8 @@
         <v/>
       </c>
       <c r="U109" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V109" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M109,",",REPT(" ",LEN($M109))), 0 *LEN($M109)+1,LEN($M109))) = "", "0", TRIM(MID(SUBSTITUTE($M109,",",REPT(" ",LEN($M109))),0 *LEN($M109)+1,LEN($M109))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M109,",",REPT(" ",LEN($M109))), 1 *LEN($M109)+1,LEN($M109))) = "", "0", TRIM(MID(SUBSTITUTE($M109,",",REPT(" ",LEN($M109))),1 *LEN($M109)+1,LEN($M109))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M109,",",REPT(" ",LEN($M109))), 2 *LEN($M109)+1,LEN($M109))) = "", "0", TRIM(MID(SUBSTITUTE($M109,",",REPT(" ",LEN($M109))),2 *LEN($M109)+1,LEN($M109))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M109,",",REPT(" ",LEN($M109))), 3 *LEN($M109)+1,LEN($M109))) = "", "0", TRIM(MID(SUBSTITUTE($M109,",",REPT(" ",LEN($M109))),3 *LEN($M109)+1,LEN($M109))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M109,",",REPT(" ",LEN($M109))), 4 *LEN($M109)+1,LEN($M109))) = "", "0", TRIM(MID(SUBSTITUTE($M109,",",REPT(" ",LEN($M109))),4 *LEN($M109)+1,LEN($M109))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M109,",",REPT(" ",LEN($M109))), 5 *LEN($M109)+1,LEN($M109))) = "", "0", TRIM(MID(SUBSTITUTE($M109,",",REPT(" ",LEN($M109))),5 *LEN($M109)+1,LEN($M109))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M109,",",REPT(" ",LEN($M109))), 6 *LEN($M109)+1,LEN($M109))) = "", "0", TRIM(MID(SUBSTITUTE($M109,",",REPT(" ",LEN($M109))),6 *LEN($M109)+1,LEN($M109))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M109,",",REPT(" ",LEN($M109))), 7 *LEN($M109)+1,LEN($M109))) = "", "0", TRIM(MID(SUBSTITUTE($M109,",",REPT(" ",LEN($M109))),7 *LEN($M109)+1,LEN($M109))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M109,",",REPT(" ",LEN($M109))), 8 *LEN($M109)+1,LEN($M109))) = "", "0", TRIM(MID(SUBSTITUTE($M109,",",REPT(" ",LEN($M109))),8 *LEN($M109)+1,LEN($M109))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M109,",",REPT(" ",LEN($M109))), 9 *LEN($M109)+1,LEN($M109))) = "", "0", TRIM(MID(SUBSTITUTE($M109,",",REPT(" ",LEN($M109))),9 *LEN($M109)+1,LEN($M109))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M109,",",REPT(" ",LEN($M109))), 10 *LEN($M109)+1,LEN($M109))) = "", "0", TRIM(MID(SUBSTITUTE($M109,",",REPT(" ",LEN($M109))),10 *LEN($M109)+1,LEN($M109)))))</f>
@@ -13228,7 +13228,7 @@
         <v>0</v>
       </c>
       <c r="X109" s="0" t="str">
-        <f aca="true">IF(O109="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S109)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O109="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S109)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -13267,8 +13267,8 @@
         <v/>
       </c>
       <c r="U110" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V110" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M110,",",REPT(" ",LEN($M110))), 0 *LEN($M110)+1,LEN($M110))) = "", "0", TRIM(MID(SUBSTITUTE($M110,",",REPT(" ",LEN($M110))),0 *LEN($M110)+1,LEN($M110))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M110,",",REPT(" ",LEN($M110))), 1 *LEN($M110)+1,LEN($M110))) = "", "0", TRIM(MID(SUBSTITUTE($M110,",",REPT(" ",LEN($M110))),1 *LEN($M110)+1,LEN($M110))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M110,",",REPT(" ",LEN($M110))), 2 *LEN($M110)+1,LEN($M110))) = "", "0", TRIM(MID(SUBSTITUTE($M110,",",REPT(" ",LEN($M110))),2 *LEN($M110)+1,LEN($M110))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M110,",",REPT(" ",LEN($M110))), 3 *LEN($M110)+1,LEN($M110))) = "", "0", TRIM(MID(SUBSTITUTE($M110,",",REPT(" ",LEN($M110))),3 *LEN($M110)+1,LEN($M110))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M110,",",REPT(" ",LEN($M110))), 4 *LEN($M110)+1,LEN($M110))) = "", "0", TRIM(MID(SUBSTITUTE($M110,",",REPT(" ",LEN($M110))),4 *LEN($M110)+1,LEN($M110))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M110,",",REPT(" ",LEN($M110))), 5 *LEN($M110)+1,LEN($M110))) = "", "0", TRIM(MID(SUBSTITUTE($M110,",",REPT(" ",LEN($M110))),5 *LEN($M110)+1,LEN($M110))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M110,",",REPT(" ",LEN($M110))), 6 *LEN($M110)+1,LEN($M110))) = "", "0", TRIM(MID(SUBSTITUTE($M110,",",REPT(" ",LEN($M110))),6 *LEN($M110)+1,LEN($M110))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M110,",",REPT(" ",LEN($M110))), 7 *LEN($M110)+1,LEN($M110))) = "", "0", TRIM(MID(SUBSTITUTE($M110,",",REPT(" ",LEN($M110))),7 *LEN($M110)+1,LEN($M110))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M110,",",REPT(" ",LEN($M110))), 8 *LEN($M110)+1,LEN($M110))) = "", "0", TRIM(MID(SUBSTITUTE($M110,",",REPT(" ",LEN($M110))),8 *LEN($M110)+1,LEN($M110))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M110,",",REPT(" ",LEN($M110))), 9 *LEN($M110)+1,LEN($M110))) = "", "0", TRIM(MID(SUBSTITUTE($M110,",",REPT(" ",LEN($M110))),9 *LEN($M110)+1,LEN($M110))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M110,",",REPT(" ",LEN($M110))), 10 *LEN($M110)+1,LEN($M110))) = "", "0", TRIM(MID(SUBSTITUTE($M110,",",REPT(" ",LEN($M110))),10 *LEN($M110)+1,LEN($M110)))))</f>
@@ -13279,7 +13279,7 @@
         <v>0</v>
       </c>
       <c r="X110" s="0" t="str">
-        <f aca="true">IF(O110="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S110)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O110="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S110)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -13318,8 +13318,8 @@
         <v/>
       </c>
       <c r="U111" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V111" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M111,",",REPT(" ",LEN($M111))), 0 *LEN($M111)+1,LEN($M111))) = "", "0", TRIM(MID(SUBSTITUTE($M111,",",REPT(" ",LEN($M111))),0 *LEN($M111)+1,LEN($M111))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M111,",",REPT(" ",LEN($M111))), 1 *LEN($M111)+1,LEN($M111))) = "", "0", TRIM(MID(SUBSTITUTE($M111,",",REPT(" ",LEN($M111))),1 *LEN($M111)+1,LEN($M111))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M111,",",REPT(" ",LEN($M111))), 2 *LEN($M111)+1,LEN($M111))) = "", "0", TRIM(MID(SUBSTITUTE($M111,",",REPT(" ",LEN($M111))),2 *LEN($M111)+1,LEN($M111))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M111,",",REPT(" ",LEN($M111))), 3 *LEN($M111)+1,LEN($M111))) = "", "0", TRIM(MID(SUBSTITUTE($M111,",",REPT(" ",LEN($M111))),3 *LEN($M111)+1,LEN($M111))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M111,",",REPT(" ",LEN($M111))), 4 *LEN($M111)+1,LEN($M111))) = "", "0", TRIM(MID(SUBSTITUTE($M111,",",REPT(" ",LEN($M111))),4 *LEN($M111)+1,LEN($M111))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M111,",",REPT(" ",LEN($M111))), 5 *LEN($M111)+1,LEN($M111))) = "", "0", TRIM(MID(SUBSTITUTE($M111,",",REPT(" ",LEN($M111))),5 *LEN($M111)+1,LEN($M111))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M111,",",REPT(" ",LEN($M111))), 6 *LEN($M111)+1,LEN($M111))) = "", "0", TRIM(MID(SUBSTITUTE($M111,",",REPT(" ",LEN($M111))),6 *LEN($M111)+1,LEN($M111))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M111,",",REPT(" ",LEN($M111))), 7 *LEN($M111)+1,LEN($M111))) = "", "0", TRIM(MID(SUBSTITUTE($M111,",",REPT(" ",LEN($M111))),7 *LEN($M111)+1,LEN($M111))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M111,",",REPT(" ",LEN($M111))), 8 *LEN($M111)+1,LEN($M111))) = "", "0", TRIM(MID(SUBSTITUTE($M111,",",REPT(" ",LEN($M111))),8 *LEN($M111)+1,LEN($M111))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M111,",",REPT(" ",LEN($M111))), 9 *LEN($M111)+1,LEN($M111))) = "", "0", TRIM(MID(SUBSTITUTE($M111,",",REPT(" ",LEN($M111))),9 *LEN($M111)+1,LEN($M111))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M111,",",REPT(" ",LEN($M111))), 10 *LEN($M111)+1,LEN($M111))) = "", "0", TRIM(MID(SUBSTITUTE($M111,",",REPT(" ",LEN($M111))),10 *LEN($M111)+1,LEN($M111)))))</f>
@@ -13330,7 +13330,7 @@
         <v>0</v>
       </c>
       <c r="X111" s="0" t="str">
-        <f aca="true">IF(O111="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S111)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O111="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S111)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -13369,8 +13369,8 @@
         <v/>
       </c>
       <c r="U112" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V112" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M112,",",REPT(" ",LEN($M112))), 0 *LEN($M112)+1,LEN($M112))) = "", "0", TRIM(MID(SUBSTITUTE($M112,",",REPT(" ",LEN($M112))),0 *LEN($M112)+1,LEN($M112))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M112,",",REPT(" ",LEN($M112))), 1 *LEN($M112)+1,LEN($M112))) = "", "0", TRIM(MID(SUBSTITUTE($M112,",",REPT(" ",LEN($M112))),1 *LEN($M112)+1,LEN($M112))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M112,",",REPT(" ",LEN($M112))), 2 *LEN($M112)+1,LEN($M112))) = "", "0", TRIM(MID(SUBSTITUTE($M112,",",REPT(" ",LEN($M112))),2 *LEN($M112)+1,LEN($M112))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M112,",",REPT(" ",LEN($M112))), 3 *LEN($M112)+1,LEN($M112))) = "", "0", TRIM(MID(SUBSTITUTE($M112,",",REPT(" ",LEN($M112))),3 *LEN($M112)+1,LEN($M112))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M112,",",REPT(" ",LEN($M112))), 4 *LEN($M112)+1,LEN($M112))) = "", "0", TRIM(MID(SUBSTITUTE($M112,",",REPT(" ",LEN($M112))),4 *LEN($M112)+1,LEN($M112))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M112,",",REPT(" ",LEN($M112))), 5 *LEN($M112)+1,LEN($M112))) = "", "0", TRIM(MID(SUBSTITUTE($M112,",",REPT(" ",LEN($M112))),5 *LEN($M112)+1,LEN($M112))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M112,",",REPT(" ",LEN($M112))), 6 *LEN($M112)+1,LEN($M112))) = "", "0", TRIM(MID(SUBSTITUTE($M112,",",REPT(" ",LEN($M112))),6 *LEN($M112)+1,LEN($M112))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M112,",",REPT(" ",LEN($M112))), 7 *LEN($M112)+1,LEN($M112))) = "", "0", TRIM(MID(SUBSTITUTE($M112,",",REPT(" ",LEN($M112))),7 *LEN($M112)+1,LEN($M112))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M112,",",REPT(" ",LEN($M112))), 8 *LEN($M112)+1,LEN($M112))) = "", "0", TRIM(MID(SUBSTITUTE($M112,",",REPT(" ",LEN($M112))),8 *LEN($M112)+1,LEN($M112))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M112,",",REPT(" ",LEN($M112))), 9 *LEN($M112)+1,LEN($M112))) = "", "0", TRIM(MID(SUBSTITUTE($M112,",",REPT(" ",LEN($M112))),9 *LEN($M112)+1,LEN($M112))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M112,",",REPT(" ",LEN($M112))), 10 *LEN($M112)+1,LEN($M112))) = "", "0", TRIM(MID(SUBSTITUTE($M112,",",REPT(" ",LEN($M112))),10 *LEN($M112)+1,LEN($M112)))))</f>
@@ -13381,7 +13381,7 @@
         <v>0</v>
       </c>
       <c r="X112" s="0" t="str">
-        <f aca="true">IF(O112="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S112)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O112="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S112)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -13420,8 +13420,8 @@
         <v/>
       </c>
       <c r="U113" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V113" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M113,",",REPT(" ",LEN($M113))), 0 *LEN($M113)+1,LEN($M113))) = "", "0", TRIM(MID(SUBSTITUTE($M113,",",REPT(" ",LEN($M113))),0 *LEN($M113)+1,LEN($M113))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M113,",",REPT(" ",LEN($M113))), 1 *LEN($M113)+1,LEN($M113))) = "", "0", TRIM(MID(SUBSTITUTE($M113,",",REPT(" ",LEN($M113))),1 *LEN($M113)+1,LEN($M113))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M113,",",REPT(" ",LEN($M113))), 2 *LEN($M113)+1,LEN($M113))) = "", "0", TRIM(MID(SUBSTITUTE($M113,",",REPT(" ",LEN($M113))),2 *LEN($M113)+1,LEN($M113))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M113,",",REPT(" ",LEN($M113))), 3 *LEN($M113)+1,LEN($M113))) = "", "0", TRIM(MID(SUBSTITUTE($M113,",",REPT(" ",LEN($M113))),3 *LEN($M113)+1,LEN($M113))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M113,",",REPT(" ",LEN($M113))), 4 *LEN($M113)+1,LEN($M113))) = "", "0", TRIM(MID(SUBSTITUTE($M113,",",REPT(" ",LEN($M113))),4 *LEN($M113)+1,LEN($M113))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M113,",",REPT(" ",LEN($M113))), 5 *LEN($M113)+1,LEN($M113))) = "", "0", TRIM(MID(SUBSTITUTE($M113,",",REPT(" ",LEN($M113))),5 *LEN($M113)+1,LEN($M113))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M113,",",REPT(" ",LEN($M113))), 6 *LEN($M113)+1,LEN($M113))) = "", "0", TRIM(MID(SUBSTITUTE($M113,",",REPT(" ",LEN($M113))),6 *LEN($M113)+1,LEN($M113))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M113,",",REPT(" ",LEN($M113))), 7 *LEN($M113)+1,LEN($M113))) = "", "0", TRIM(MID(SUBSTITUTE($M113,",",REPT(" ",LEN($M113))),7 *LEN($M113)+1,LEN($M113))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M113,",",REPT(" ",LEN($M113))), 8 *LEN($M113)+1,LEN($M113))) = "", "0", TRIM(MID(SUBSTITUTE($M113,",",REPT(" ",LEN($M113))),8 *LEN($M113)+1,LEN($M113))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M113,",",REPT(" ",LEN($M113))), 9 *LEN($M113)+1,LEN($M113))) = "", "0", TRIM(MID(SUBSTITUTE($M113,",",REPT(" ",LEN($M113))),9 *LEN($M113)+1,LEN($M113))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M113,",",REPT(" ",LEN($M113))), 10 *LEN($M113)+1,LEN($M113))) = "", "0", TRIM(MID(SUBSTITUTE($M113,",",REPT(" ",LEN($M113))),10 *LEN($M113)+1,LEN($M113)))))</f>
@@ -13432,7 +13432,7 @@
         <v>0</v>
       </c>
       <c r="X113" s="0" t="str">
-        <f aca="true">IF(O113="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S113)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O113="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S113)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -13471,8 +13471,8 @@
         <v/>
       </c>
       <c r="U114" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V114" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M114,",",REPT(" ",LEN($M114))), 0 *LEN($M114)+1,LEN($M114))) = "", "0", TRIM(MID(SUBSTITUTE($M114,",",REPT(" ",LEN($M114))),0 *LEN($M114)+1,LEN($M114))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M114,",",REPT(" ",LEN($M114))), 1 *LEN($M114)+1,LEN($M114))) = "", "0", TRIM(MID(SUBSTITUTE($M114,",",REPT(" ",LEN($M114))),1 *LEN($M114)+1,LEN($M114))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M114,",",REPT(" ",LEN($M114))), 2 *LEN($M114)+1,LEN($M114))) = "", "0", TRIM(MID(SUBSTITUTE($M114,",",REPT(" ",LEN($M114))),2 *LEN($M114)+1,LEN($M114))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M114,",",REPT(" ",LEN($M114))), 3 *LEN($M114)+1,LEN($M114))) = "", "0", TRIM(MID(SUBSTITUTE($M114,",",REPT(" ",LEN($M114))),3 *LEN($M114)+1,LEN($M114))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M114,",",REPT(" ",LEN($M114))), 4 *LEN($M114)+1,LEN($M114))) = "", "0", TRIM(MID(SUBSTITUTE($M114,",",REPT(" ",LEN($M114))),4 *LEN($M114)+1,LEN($M114))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M114,",",REPT(" ",LEN($M114))), 5 *LEN($M114)+1,LEN($M114))) = "", "0", TRIM(MID(SUBSTITUTE($M114,",",REPT(" ",LEN($M114))),5 *LEN($M114)+1,LEN($M114))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M114,",",REPT(" ",LEN($M114))), 6 *LEN($M114)+1,LEN($M114))) = "", "0", TRIM(MID(SUBSTITUTE($M114,",",REPT(" ",LEN($M114))),6 *LEN($M114)+1,LEN($M114))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M114,",",REPT(" ",LEN($M114))), 7 *LEN($M114)+1,LEN($M114))) = "", "0", TRIM(MID(SUBSTITUTE($M114,",",REPT(" ",LEN($M114))),7 *LEN($M114)+1,LEN($M114))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M114,",",REPT(" ",LEN($M114))), 8 *LEN($M114)+1,LEN($M114))) = "", "0", TRIM(MID(SUBSTITUTE($M114,",",REPT(" ",LEN($M114))),8 *LEN($M114)+1,LEN($M114))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M114,",",REPT(" ",LEN($M114))), 9 *LEN($M114)+1,LEN($M114))) = "", "0", TRIM(MID(SUBSTITUTE($M114,",",REPT(" ",LEN($M114))),9 *LEN($M114)+1,LEN($M114))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M114,",",REPT(" ",LEN($M114))), 10 *LEN($M114)+1,LEN($M114))) = "", "0", TRIM(MID(SUBSTITUTE($M114,",",REPT(" ",LEN($M114))),10 *LEN($M114)+1,LEN($M114)))))</f>
@@ -13483,7 +13483,7 @@
         <v>0</v>
       </c>
       <c r="X114" s="0" t="str">
-        <f aca="true">IF(O114="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S114)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O114="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S114)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -13522,8 +13522,8 @@
         <v/>
       </c>
       <c r="U115" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V115" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M115,",",REPT(" ",LEN($M115))), 0 *LEN($M115)+1,LEN($M115))) = "", "0", TRIM(MID(SUBSTITUTE($M115,",",REPT(" ",LEN($M115))),0 *LEN($M115)+1,LEN($M115))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M115,",",REPT(" ",LEN($M115))), 1 *LEN($M115)+1,LEN($M115))) = "", "0", TRIM(MID(SUBSTITUTE($M115,",",REPT(" ",LEN($M115))),1 *LEN($M115)+1,LEN($M115))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M115,",",REPT(" ",LEN($M115))), 2 *LEN($M115)+1,LEN($M115))) = "", "0", TRIM(MID(SUBSTITUTE($M115,",",REPT(" ",LEN($M115))),2 *LEN($M115)+1,LEN($M115))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M115,",",REPT(" ",LEN($M115))), 3 *LEN($M115)+1,LEN($M115))) = "", "0", TRIM(MID(SUBSTITUTE($M115,",",REPT(" ",LEN($M115))),3 *LEN($M115)+1,LEN($M115))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M115,",",REPT(" ",LEN($M115))), 4 *LEN($M115)+1,LEN($M115))) = "", "0", TRIM(MID(SUBSTITUTE($M115,",",REPT(" ",LEN($M115))),4 *LEN($M115)+1,LEN($M115))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M115,",",REPT(" ",LEN($M115))), 5 *LEN($M115)+1,LEN($M115))) = "", "0", TRIM(MID(SUBSTITUTE($M115,",",REPT(" ",LEN($M115))),5 *LEN($M115)+1,LEN($M115))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M115,",",REPT(" ",LEN($M115))), 6 *LEN($M115)+1,LEN($M115))) = "", "0", TRIM(MID(SUBSTITUTE($M115,",",REPT(" ",LEN($M115))),6 *LEN($M115)+1,LEN($M115))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M115,",",REPT(" ",LEN($M115))), 7 *LEN($M115)+1,LEN($M115))) = "", "0", TRIM(MID(SUBSTITUTE($M115,",",REPT(" ",LEN($M115))),7 *LEN($M115)+1,LEN($M115))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M115,",",REPT(" ",LEN($M115))), 8 *LEN($M115)+1,LEN($M115))) = "", "0", TRIM(MID(SUBSTITUTE($M115,",",REPT(" ",LEN($M115))),8 *LEN($M115)+1,LEN($M115))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M115,",",REPT(" ",LEN($M115))), 9 *LEN($M115)+1,LEN($M115))) = "", "0", TRIM(MID(SUBSTITUTE($M115,",",REPT(" ",LEN($M115))),9 *LEN($M115)+1,LEN($M115))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M115,",",REPT(" ",LEN($M115))), 10 *LEN($M115)+1,LEN($M115))) = "", "0", TRIM(MID(SUBSTITUTE($M115,",",REPT(" ",LEN($M115))),10 *LEN($M115)+1,LEN($M115)))))</f>
@@ -13534,7 +13534,7 @@
         <v>0</v>
       </c>
       <c r="X115" s="0" t="str">
-        <f aca="true">IF(O115="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S115)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O115="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S115)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -13573,8 +13573,8 @@
         <v/>
       </c>
       <c r="U116" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V116" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M116,",",REPT(" ",LEN($M116))), 0 *LEN($M116)+1,LEN($M116))) = "", "0", TRIM(MID(SUBSTITUTE($M116,",",REPT(" ",LEN($M116))),0 *LEN($M116)+1,LEN($M116))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M116,",",REPT(" ",LEN($M116))), 1 *LEN($M116)+1,LEN($M116))) = "", "0", TRIM(MID(SUBSTITUTE($M116,",",REPT(" ",LEN($M116))),1 *LEN($M116)+1,LEN($M116))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M116,",",REPT(" ",LEN($M116))), 2 *LEN($M116)+1,LEN($M116))) = "", "0", TRIM(MID(SUBSTITUTE($M116,",",REPT(" ",LEN($M116))),2 *LEN($M116)+1,LEN($M116))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M116,",",REPT(" ",LEN($M116))), 3 *LEN($M116)+1,LEN($M116))) = "", "0", TRIM(MID(SUBSTITUTE($M116,",",REPT(" ",LEN($M116))),3 *LEN($M116)+1,LEN($M116))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M116,",",REPT(" ",LEN($M116))), 4 *LEN($M116)+1,LEN($M116))) = "", "0", TRIM(MID(SUBSTITUTE($M116,",",REPT(" ",LEN($M116))),4 *LEN($M116)+1,LEN($M116))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M116,",",REPT(" ",LEN($M116))), 5 *LEN($M116)+1,LEN($M116))) = "", "0", TRIM(MID(SUBSTITUTE($M116,",",REPT(" ",LEN($M116))),5 *LEN($M116)+1,LEN($M116))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M116,",",REPT(" ",LEN($M116))), 6 *LEN($M116)+1,LEN($M116))) = "", "0", TRIM(MID(SUBSTITUTE($M116,",",REPT(" ",LEN($M116))),6 *LEN($M116)+1,LEN($M116))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M116,",",REPT(" ",LEN($M116))), 7 *LEN($M116)+1,LEN($M116))) = "", "0", TRIM(MID(SUBSTITUTE($M116,",",REPT(" ",LEN($M116))),7 *LEN($M116)+1,LEN($M116))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M116,",",REPT(" ",LEN($M116))), 8 *LEN($M116)+1,LEN($M116))) = "", "0", TRIM(MID(SUBSTITUTE($M116,",",REPT(" ",LEN($M116))),8 *LEN($M116)+1,LEN($M116))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M116,",",REPT(" ",LEN($M116))), 9 *LEN($M116)+1,LEN($M116))) = "", "0", TRIM(MID(SUBSTITUTE($M116,",",REPT(" ",LEN($M116))),9 *LEN($M116)+1,LEN($M116))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M116,",",REPT(" ",LEN($M116))), 10 *LEN($M116)+1,LEN($M116))) = "", "0", TRIM(MID(SUBSTITUTE($M116,",",REPT(" ",LEN($M116))),10 *LEN($M116)+1,LEN($M116)))))</f>
@@ -13585,7 +13585,7 @@
         <v>0</v>
       </c>
       <c r="X116" s="0" t="str">
-        <f aca="true">IF(O116="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S116)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O116="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S116)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -13624,8 +13624,8 @@
         <v/>
       </c>
       <c r="U117" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V117" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M117,",",REPT(" ",LEN($M117))), 0 *LEN($M117)+1,LEN($M117))) = "", "0", TRIM(MID(SUBSTITUTE($M117,",",REPT(" ",LEN($M117))),0 *LEN($M117)+1,LEN($M117))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M117,",",REPT(" ",LEN($M117))), 1 *LEN($M117)+1,LEN($M117))) = "", "0", TRIM(MID(SUBSTITUTE($M117,",",REPT(" ",LEN($M117))),1 *LEN($M117)+1,LEN($M117))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M117,",",REPT(" ",LEN($M117))), 2 *LEN($M117)+1,LEN($M117))) = "", "0", TRIM(MID(SUBSTITUTE($M117,",",REPT(" ",LEN($M117))),2 *LEN($M117)+1,LEN($M117))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M117,",",REPT(" ",LEN($M117))), 3 *LEN($M117)+1,LEN($M117))) = "", "0", TRIM(MID(SUBSTITUTE($M117,",",REPT(" ",LEN($M117))),3 *LEN($M117)+1,LEN($M117))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M117,",",REPT(" ",LEN($M117))), 4 *LEN($M117)+1,LEN($M117))) = "", "0", TRIM(MID(SUBSTITUTE($M117,",",REPT(" ",LEN($M117))),4 *LEN($M117)+1,LEN($M117))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M117,",",REPT(" ",LEN($M117))), 5 *LEN($M117)+1,LEN($M117))) = "", "0", TRIM(MID(SUBSTITUTE($M117,",",REPT(" ",LEN($M117))),5 *LEN($M117)+1,LEN($M117))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M117,",",REPT(" ",LEN($M117))), 6 *LEN($M117)+1,LEN($M117))) = "", "0", TRIM(MID(SUBSTITUTE($M117,",",REPT(" ",LEN($M117))),6 *LEN($M117)+1,LEN($M117))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M117,",",REPT(" ",LEN($M117))), 7 *LEN($M117)+1,LEN($M117))) = "", "0", TRIM(MID(SUBSTITUTE($M117,",",REPT(" ",LEN($M117))),7 *LEN($M117)+1,LEN($M117))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M117,",",REPT(" ",LEN($M117))), 8 *LEN($M117)+1,LEN($M117))) = "", "0", TRIM(MID(SUBSTITUTE($M117,",",REPT(" ",LEN($M117))),8 *LEN($M117)+1,LEN($M117))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M117,",",REPT(" ",LEN($M117))), 9 *LEN($M117)+1,LEN($M117))) = "", "0", TRIM(MID(SUBSTITUTE($M117,",",REPT(" ",LEN($M117))),9 *LEN($M117)+1,LEN($M117))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M117,",",REPT(" ",LEN($M117))), 10 *LEN($M117)+1,LEN($M117))) = "", "0", TRIM(MID(SUBSTITUTE($M117,",",REPT(" ",LEN($M117))),10 *LEN($M117)+1,LEN($M117)))))</f>
@@ -13636,7 +13636,7 @@
         <v>0</v>
       </c>
       <c r="X117" s="0" t="str">
-        <f aca="true">IF(O117="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S117)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O117="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S117)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -13675,8 +13675,8 @@
         <v/>
       </c>
       <c r="U118" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V118" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M118,",",REPT(" ",LEN($M118))), 0 *LEN($M118)+1,LEN($M118))) = "", "0", TRIM(MID(SUBSTITUTE($M118,",",REPT(" ",LEN($M118))),0 *LEN($M118)+1,LEN($M118))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M118,",",REPT(" ",LEN($M118))), 1 *LEN($M118)+1,LEN($M118))) = "", "0", TRIM(MID(SUBSTITUTE($M118,",",REPT(" ",LEN($M118))),1 *LEN($M118)+1,LEN($M118))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M118,",",REPT(" ",LEN($M118))), 2 *LEN($M118)+1,LEN($M118))) = "", "0", TRIM(MID(SUBSTITUTE($M118,",",REPT(" ",LEN($M118))),2 *LEN($M118)+1,LEN($M118))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M118,",",REPT(" ",LEN($M118))), 3 *LEN($M118)+1,LEN($M118))) = "", "0", TRIM(MID(SUBSTITUTE($M118,",",REPT(" ",LEN($M118))),3 *LEN($M118)+1,LEN($M118))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M118,",",REPT(" ",LEN($M118))), 4 *LEN($M118)+1,LEN($M118))) = "", "0", TRIM(MID(SUBSTITUTE($M118,",",REPT(" ",LEN($M118))),4 *LEN($M118)+1,LEN($M118))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M118,",",REPT(" ",LEN($M118))), 5 *LEN($M118)+1,LEN($M118))) = "", "0", TRIM(MID(SUBSTITUTE($M118,",",REPT(" ",LEN($M118))),5 *LEN($M118)+1,LEN($M118))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M118,",",REPT(" ",LEN($M118))), 6 *LEN($M118)+1,LEN($M118))) = "", "0", TRIM(MID(SUBSTITUTE($M118,",",REPT(" ",LEN($M118))),6 *LEN($M118)+1,LEN($M118))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M118,",",REPT(" ",LEN($M118))), 7 *LEN($M118)+1,LEN($M118))) = "", "0", TRIM(MID(SUBSTITUTE($M118,",",REPT(" ",LEN($M118))),7 *LEN($M118)+1,LEN($M118))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M118,",",REPT(" ",LEN($M118))), 8 *LEN($M118)+1,LEN($M118))) = "", "0", TRIM(MID(SUBSTITUTE($M118,",",REPT(" ",LEN($M118))),8 *LEN($M118)+1,LEN($M118))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M118,",",REPT(" ",LEN($M118))), 9 *LEN($M118)+1,LEN($M118))) = "", "0", TRIM(MID(SUBSTITUTE($M118,",",REPT(" ",LEN($M118))),9 *LEN($M118)+1,LEN($M118))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M118,",",REPT(" ",LEN($M118))), 10 *LEN($M118)+1,LEN($M118))) = "", "0", TRIM(MID(SUBSTITUTE($M118,",",REPT(" ",LEN($M118))),10 *LEN($M118)+1,LEN($M118)))))</f>
@@ -13687,7 +13687,7 @@
         <v>0</v>
       </c>
       <c r="X118" s="0" t="str">
-        <f aca="true">IF(O118="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S118)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O118="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S118)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -13726,8 +13726,8 @@
         <v/>
       </c>
       <c r="U119" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V119" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M119,",",REPT(" ",LEN($M119))), 0 *LEN($M119)+1,LEN($M119))) = "", "0", TRIM(MID(SUBSTITUTE($M119,",",REPT(" ",LEN($M119))),0 *LEN($M119)+1,LEN($M119))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M119,",",REPT(" ",LEN($M119))), 1 *LEN($M119)+1,LEN($M119))) = "", "0", TRIM(MID(SUBSTITUTE($M119,",",REPT(" ",LEN($M119))),1 *LEN($M119)+1,LEN($M119))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M119,",",REPT(" ",LEN($M119))), 2 *LEN($M119)+1,LEN($M119))) = "", "0", TRIM(MID(SUBSTITUTE($M119,",",REPT(" ",LEN($M119))),2 *LEN($M119)+1,LEN($M119))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M119,",",REPT(" ",LEN($M119))), 3 *LEN($M119)+1,LEN($M119))) = "", "0", TRIM(MID(SUBSTITUTE($M119,",",REPT(" ",LEN($M119))),3 *LEN($M119)+1,LEN($M119))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M119,",",REPT(" ",LEN($M119))), 4 *LEN($M119)+1,LEN($M119))) = "", "0", TRIM(MID(SUBSTITUTE($M119,",",REPT(" ",LEN($M119))),4 *LEN($M119)+1,LEN($M119))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M119,",",REPT(" ",LEN($M119))), 5 *LEN($M119)+1,LEN($M119))) = "", "0", TRIM(MID(SUBSTITUTE($M119,",",REPT(" ",LEN($M119))),5 *LEN($M119)+1,LEN($M119))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M119,",",REPT(" ",LEN($M119))), 6 *LEN($M119)+1,LEN($M119))) = "", "0", TRIM(MID(SUBSTITUTE($M119,",",REPT(" ",LEN($M119))),6 *LEN($M119)+1,LEN($M119))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M119,",",REPT(" ",LEN($M119))), 7 *LEN($M119)+1,LEN($M119))) = "", "0", TRIM(MID(SUBSTITUTE($M119,",",REPT(" ",LEN($M119))),7 *LEN($M119)+1,LEN($M119))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M119,",",REPT(" ",LEN($M119))), 8 *LEN($M119)+1,LEN($M119))) = "", "0", TRIM(MID(SUBSTITUTE($M119,",",REPT(" ",LEN($M119))),8 *LEN($M119)+1,LEN($M119))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M119,",",REPT(" ",LEN($M119))), 9 *LEN($M119)+1,LEN($M119))) = "", "0", TRIM(MID(SUBSTITUTE($M119,",",REPT(" ",LEN($M119))),9 *LEN($M119)+1,LEN($M119))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M119,",",REPT(" ",LEN($M119))), 10 *LEN($M119)+1,LEN($M119))) = "", "0", TRIM(MID(SUBSTITUTE($M119,",",REPT(" ",LEN($M119))),10 *LEN($M119)+1,LEN($M119)))))</f>
@@ -13738,7 +13738,7 @@
         <v>0</v>
       </c>
       <c r="X119" s="0" t="str">
-        <f aca="true">IF(O119="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S119)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O119="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S119)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -13777,8 +13777,8 @@
         <v/>
       </c>
       <c r="U120" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V120" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M120,",",REPT(" ",LEN($M120))), 0 *LEN($M120)+1,LEN($M120))) = "", "0", TRIM(MID(SUBSTITUTE($M120,",",REPT(" ",LEN($M120))),0 *LEN($M120)+1,LEN($M120))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M120,",",REPT(" ",LEN($M120))), 1 *LEN($M120)+1,LEN($M120))) = "", "0", TRIM(MID(SUBSTITUTE($M120,",",REPT(" ",LEN($M120))),1 *LEN($M120)+1,LEN($M120))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M120,",",REPT(" ",LEN($M120))), 2 *LEN($M120)+1,LEN($M120))) = "", "0", TRIM(MID(SUBSTITUTE($M120,",",REPT(" ",LEN($M120))),2 *LEN($M120)+1,LEN($M120))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M120,",",REPT(" ",LEN($M120))), 3 *LEN($M120)+1,LEN($M120))) = "", "0", TRIM(MID(SUBSTITUTE($M120,",",REPT(" ",LEN($M120))),3 *LEN($M120)+1,LEN($M120))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M120,",",REPT(" ",LEN($M120))), 4 *LEN($M120)+1,LEN($M120))) = "", "0", TRIM(MID(SUBSTITUTE($M120,",",REPT(" ",LEN($M120))),4 *LEN($M120)+1,LEN($M120))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M120,",",REPT(" ",LEN($M120))), 5 *LEN($M120)+1,LEN($M120))) = "", "0", TRIM(MID(SUBSTITUTE($M120,",",REPT(" ",LEN($M120))),5 *LEN($M120)+1,LEN($M120))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M120,",",REPT(" ",LEN($M120))), 6 *LEN($M120)+1,LEN($M120))) = "", "0", TRIM(MID(SUBSTITUTE($M120,",",REPT(" ",LEN($M120))),6 *LEN($M120)+1,LEN($M120))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M120,",",REPT(" ",LEN($M120))), 7 *LEN($M120)+1,LEN($M120))) = "", "0", TRIM(MID(SUBSTITUTE($M120,",",REPT(" ",LEN($M120))),7 *LEN($M120)+1,LEN($M120))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M120,",",REPT(" ",LEN($M120))), 8 *LEN($M120)+1,LEN($M120))) = "", "0", TRIM(MID(SUBSTITUTE($M120,",",REPT(" ",LEN($M120))),8 *LEN($M120)+1,LEN($M120))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M120,",",REPT(" ",LEN($M120))), 9 *LEN($M120)+1,LEN($M120))) = "", "0", TRIM(MID(SUBSTITUTE($M120,",",REPT(" ",LEN($M120))),9 *LEN($M120)+1,LEN($M120))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M120,",",REPT(" ",LEN($M120))), 10 *LEN($M120)+1,LEN($M120))) = "", "0", TRIM(MID(SUBSTITUTE($M120,",",REPT(" ",LEN($M120))),10 *LEN($M120)+1,LEN($M120)))))</f>
@@ -13789,7 +13789,7 @@
         <v>0</v>
       </c>
       <c r="X120" s="0" t="str">
-        <f aca="true">IF(O120="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S120)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O120="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S120)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -13828,8 +13828,8 @@
         <v/>
       </c>
       <c r="U121" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V121" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M121,",",REPT(" ",LEN($M121))), 0 *LEN($M121)+1,LEN($M121))) = "", "0", TRIM(MID(SUBSTITUTE($M121,",",REPT(" ",LEN($M121))),0 *LEN($M121)+1,LEN($M121))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M121,",",REPT(" ",LEN($M121))), 1 *LEN($M121)+1,LEN($M121))) = "", "0", TRIM(MID(SUBSTITUTE($M121,",",REPT(" ",LEN($M121))),1 *LEN($M121)+1,LEN($M121))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M121,",",REPT(" ",LEN($M121))), 2 *LEN($M121)+1,LEN($M121))) = "", "0", TRIM(MID(SUBSTITUTE($M121,",",REPT(" ",LEN($M121))),2 *LEN($M121)+1,LEN($M121))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M121,",",REPT(" ",LEN($M121))), 3 *LEN($M121)+1,LEN($M121))) = "", "0", TRIM(MID(SUBSTITUTE($M121,",",REPT(" ",LEN($M121))),3 *LEN($M121)+1,LEN($M121))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M121,",",REPT(" ",LEN($M121))), 4 *LEN($M121)+1,LEN($M121))) = "", "0", TRIM(MID(SUBSTITUTE($M121,",",REPT(" ",LEN($M121))),4 *LEN($M121)+1,LEN($M121))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M121,",",REPT(" ",LEN($M121))), 5 *LEN($M121)+1,LEN($M121))) = "", "0", TRIM(MID(SUBSTITUTE($M121,",",REPT(" ",LEN($M121))),5 *LEN($M121)+1,LEN($M121))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M121,",",REPT(" ",LEN($M121))), 6 *LEN($M121)+1,LEN($M121))) = "", "0", TRIM(MID(SUBSTITUTE($M121,",",REPT(" ",LEN($M121))),6 *LEN($M121)+1,LEN($M121))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M121,",",REPT(" ",LEN($M121))), 7 *LEN($M121)+1,LEN($M121))) = "", "0", TRIM(MID(SUBSTITUTE($M121,",",REPT(" ",LEN($M121))),7 *LEN($M121)+1,LEN($M121))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M121,",",REPT(" ",LEN($M121))), 8 *LEN($M121)+1,LEN($M121))) = "", "0", TRIM(MID(SUBSTITUTE($M121,",",REPT(" ",LEN($M121))),8 *LEN($M121)+1,LEN($M121))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M121,",",REPT(" ",LEN($M121))), 9 *LEN($M121)+1,LEN($M121))) = "", "0", TRIM(MID(SUBSTITUTE($M121,",",REPT(" ",LEN($M121))),9 *LEN($M121)+1,LEN($M121))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M121,",",REPT(" ",LEN($M121))), 10 *LEN($M121)+1,LEN($M121))) = "", "0", TRIM(MID(SUBSTITUTE($M121,",",REPT(" ",LEN($M121))),10 *LEN($M121)+1,LEN($M121)))))</f>
@@ -13840,7 +13840,7 @@
         <v>0</v>
       </c>
       <c r="X121" s="0" t="str">
-        <f aca="true">IF(O121="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S121)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O121="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S121)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>
@@ -13879,8 +13879,8 @@
         <v/>
       </c>
       <c r="U122" s="0" t="n">
-        <f aca="false">8000/850</f>
-        <v>9.41176470588235</v>
+        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <v>1</v>
       </c>
       <c r="V122" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($M122,",",REPT(" ",LEN($M122))), 0 *LEN($M122)+1,LEN($M122))) = "", "0", TRIM(MID(SUBSTITUTE($M122,",",REPT(" ",LEN($M122))),0 *LEN($M122)+1,LEN($M122))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($M122,",",REPT(" ",LEN($M122))), 1 *LEN($M122)+1,LEN($M122))) = "", "0", TRIM(MID(SUBSTITUTE($M122,",",REPT(" ",LEN($M122))),1 *LEN($M122)+1,LEN($M122))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M122,",",REPT(" ",LEN($M122))), 2 *LEN($M122)+1,LEN($M122))) = "", "0", TRIM(MID(SUBSTITUTE($M122,",",REPT(" ",LEN($M122))),2 *LEN($M122)+1,LEN($M122))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M122,",",REPT(" ",LEN($M122))), 3 *LEN($M122)+1,LEN($M122))) = "", "0", TRIM(MID(SUBSTITUTE($M122,",",REPT(" ",LEN($M122))),3 *LEN($M122)+1,LEN($M122))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M122,",",REPT(" ",LEN($M122))), 4 *LEN($M122)+1,LEN($M122))) = "", "0", TRIM(MID(SUBSTITUTE($M122,",",REPT(" ",LEN($M122))),4 *LEN($M122)+1,LEN($M122))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M122,",",REPT(" ",LEN($M122))), 5 *LEN($M122)+1,LEN($M122))) = "", "0", TRIM(MID(SUBSTITUTE($M122,",",REPT(" ",LEN($M122))),5 *LEN($M122)+1,LEN($M122))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M122,",",REPT(" ",LEN($M122))), 6 *LEN($M122)+1,LEN($M122))) = "", "0", TRIM(MID(SUBSTITUTE($M122,",",REPT(" ",LEN($M122))),6 *LEN($M122)+1,LEN($M122))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M122,",",REPT(" ",LEN($M122))), 7 *LEN($M122)+1,LEN($M122))) = "", "0", TRIM(MID(SUBSTITUTE($M122,",",REPT(" ",LEN($M122))),7 *LEN($M122)+1,LEN($M122))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M122,",",REPT(" ",LEN($M122))), 8 *LEN($M122)+1,LEN($M122))) = "", "0", TRIM(MID(SUBSTITUTE($M122,",",REPT(" ",LEN($M122))),8 *LEN($M122)+1,LEN($M122))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M122,",",REPT(" ",LEN($M122))), 9 *LEN($M122)+1,LEN($M122))) = "", "0", TRIM(MID(SUBSTITUTE($M122,",",REPT(" ",LEN($M122))),9 *LEN($M122)+1,LEN($M122))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($M122,",",REPT(" ",LEN($M122))), 10 *LEN($M122)+1,LEN($M122))) = "", "0", TRIM(MID(SUBSTITUTE($M122,",",REPT(" ",LEN($M122))),10 *LEN($M122)+1,LEN($M122)))))</f>
@@ -13891,7 +13891,7 @@
         <v>0</v>
       </c>
       <c r="X122" s="0" t="str">
-        <f aca="true">IF(O122="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S122)/850, 0), 1) * 850)</f>
+        <f aca="true">IF(O122="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S122)/$C$2, 0), 1) * $C$2)</f>
         <v/>
       </c>
     </row>

--- a/app/data/static/templates/constructor_mozzarella.xlsx
+++ b/app/data/static/templates/constructor_mozzarella.xlsx
@@ -834,7 +834,7 @@
         <v/>
       </c>
       <c r="U2" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V2" s="0" t="n">
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="X2" s="0" t="str">
-        <f aca="true">IF(O2="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S2)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O2="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S2)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -885,7 +885,7 @@
         <v/>
       </c>
       <c r="U3" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V3" s="0" t="n">
@@ -897,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="X3" s="0" t="str">
-        <f aca="true">IF(O3="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S3)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O3="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S3)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -936,7 +936,7 @@
         <v/>
       </c>
       <c r="U4" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V4" s="0" t="n">
@@ -948,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="X4" s="0" t="str">
-        <f aca="true">IF(O4="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S4)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O4="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S4)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -987,7 +987,7 @@
         <v/>
       </c>
       <c r="U5" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V5" s="0" t="n">
@@ -999,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="X5" s="0" t="str">
-        <f aca="true">IF(O5="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S5)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O5="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S5)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -1038,7 +1038,7 @@
         <v/>
       </c>
       <c r="U6" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V6" s="0" t="n">
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="X6" s="0" t="str">
-        <f aca="true">IF(O6="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S6)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O6="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S6)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
         <v/>
       </c>
       <c r="U7" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V7" s="0" t="n">
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="X7" s="0" t="str">
-        <f aca="true">IF(O7="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S7)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O7="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S7)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -1140,7 +1140,7 @@
         <v/>
       </c>
       <c r="U8" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V8" s="0" t="n">
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="X8" s="0" t="str">
-        <f aca="true">IF(O8="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S8)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O8="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S8)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
         <v/>
       </c>
       <c r="U9" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V9" s="0" t="n">
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="X9" s="0" t="str">
-        <f aca="true">IF(O9="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S9)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O9="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S9)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -1242,7 +1242,7 @@
         <v/>
       </c>
       <c r="U10" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V10" s="0" t="n">
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="X10" s="0" t="str">
-        <f aca="true">IF(O10="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S10)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O10="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S10)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
         <v/>
       </c>
       <c r="U11" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V11" s="0" t="n">
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="X11" s="0" t="str">
-        <f aca="true">IF(O11="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S11)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O11="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S11)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -1344,7 +1344,7 @@
         <v/>
       </c>
       <c r="U12" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V12" s="0" t="n">
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X12" s="0" t="str">
-        <f aca="true">IF(O12="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S12)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O12="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S12)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -1395,7 +1395,7 @@
         <v/>
       </c>
       <c r="U13" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V13" s="0" t="n">
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="X13" s="0" t="str">
-        <f aca="true">IF(O13="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S13)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O13="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S13)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -1446,7 +1446,7 @@
         <v/>
       </c>
       <c r="U14" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V14" s="0" t="n">
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="X14" s="0" t="str">
-        <f aca="true">IF(O14="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S14)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O14="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S14)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
         <v/>
       </c>
       <c r="U15" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V15" s="0" t="n">
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="X15" s="0" t="str">
-        <f aca="true">IF(O15="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S15)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O15="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S15)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -1548,7 +1548,7 @@
         <v/>
       </c>
       <c r="U16" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V16" s="0" t="n">
@@ -1560,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="X16" s="0" t="str">
-        <f aca="true">IF(O16="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S16)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O16="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S16)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -1599,7 +1599,7 @@
         <v/>
       </c>
       <c r="U17" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V17" s="0" t="n">
@@ -1611,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="X17" s="0" t="str">
-        <f aca="true">IF(O17="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S17)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O17="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S17)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -1650,7 +1650,7 @@
         <v/>
       </c>
       <c r="U18" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V18" s="0" t="n">
@@ -1662,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="X18" s="0" t="str">
-        <f aca="true">IF(O18="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S18)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O18="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S18)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
         <v/>
       </c>
       <c r="U19" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V19" s="0" t="n">
@@ -1713,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="X19" s="0" t="str">
-        <f aca="true">IF(O19="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S19)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O19="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S19)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -1752,7 +1752,7 @@
         <v/>
       </c>
       <c r="U20" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V20" s="0" t="n">
@@ -1764,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="X20" s="0" t="str">
-        <f aca="true">IF(O20="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S20)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O20="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S20)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -1803,7 +1803,7 @@
         <v/>
       </c>
       <c r="U21" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V21" s="0" t="n">
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="X21" s="0" t="str">
-        <f aca="true">IF(O21="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S21)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O21="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S21)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -1854,7 +1854,7 @@
         <v/>
       </c>
       <c r="U22" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V22" s="0" t="n">
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="X22" s="0" t="str">
-        <f aca="true">IF(O22="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S22)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O22="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S22)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -1905,7 +1905,7 @@
         <v/>
       </c>
       <c r="U23" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V23" s="0" t="n">
@@ -1917,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="X23" s="0" t="str">
-        <f aca="true">IF(O23="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S23)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O23="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S23)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
         <v/>
       </c>
       <c r="U24" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V24" s="0" t="n">
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="X24" s="0" t="str">
-        <f aca="true">IF(O24="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S24)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O24="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S24)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -2007,7 +2007,7 @@
         <v/>
       </c>
       <c r="U25" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V25" s="0" t="n">
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="X25" s="0" t="str">
-        <f aca="true">IF(O25="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S25)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O25="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S25)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -2058,7 +2058,7 @@
         <v/>
       </c>
       <c r="U26" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V26" s="0" t="n">
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="X26" s="0" t="str">
-        <f aca="true">IF(O26="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S26)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O26="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S26)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
         <v/>
       </c>
       <c r="U27" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V27" s="0" t="n">
@@ -2121,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="X27" s="0" t="str">
-        <f aca="true">IF(O27="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S27)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O27="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S27)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -2160,7 +2160,7 @@
         <v/>
       </c>
       <c r="U28" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V28" s="0" t="n">
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="X28" s="0" t="str">
-        <f aca="true">IF(O28="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S28)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O28="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S28)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
         <v/>
       </c>
       <c r="U29" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V29" s="0" t="n">
@@ -2223,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="X29" s="0" t="str">
-        <f aca="true">IF(O29="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S29)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O29="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S29)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -2262,7 +2262,7 @@
         <v/>
       </c>
       <c r="U30" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V30" s="0" t="n">
@@ -2274,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="X30" s="0" t="str">
-        <f aca="true">IF(O30="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S30)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O30="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S30)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
         <v/>
       </c>
       <c r="U31" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V31" s="0" t="n">
@@ -2325,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="X31" s="0" t="str">
-        <f aca="true">IF(O31="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S31)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O31="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S31)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -2364,7 +2364,7 @@
         <v/>
       </c>
       <c r="U32" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V32" s="0" t="n">
@@ -2376,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="X32" s="0" t="str">
-        <f aca="true">IF(O32="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S32)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O32="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S32)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -2415,7 +2415,7 @@
         <v/>
       </c>
       <c r="U33" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V33" s="0" t="n">
@@ -2427,7 +2427,7 @@
         <v>0</v>
       </c>
       <c r="X33" s="0" t="str">
-        <f aca="true">IF(O33="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S33)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O33="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S33)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -2466,7 +2466,7 @@
         <v/>
       </c>
       <c r="U34" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V34" s="0" t="n">
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="X34" s="0" t="str">
-        <f aca="true">IF(O34="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S34)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O34="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S34)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -2517,7 +2517,7 @@
         <v/>
       </c>
       <c r="U35" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V35" s="0" t="n">
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="X35" s="0" t="str">
-        <f aca="true">IF(O35="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S35)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O35="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S35)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -2568,7 +2568,7 @@
         <v/>
       </c>
       <c r="U36" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V36" s="0" t="n">
@@ -2580,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="X36" s="0" t="str">
-        <f aca="true">IF(O36="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S36)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O36="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S36)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -2619,7 +2619,7 @@
         <v/>
       </c>
       <c r="U37" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V37" s="0" t="n">
@@ -2631,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="X37" s="0" t="str">
-        <f aca="true">IF(O37="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S37)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O37="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S37)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -2670,7 +2670,7 @@
         <v/>
       </c>
       <c r="U38" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V38" s="0" t="n">
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="X38" s="0" t="str">
-        <f aca="true">IF(O38="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S38)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O38="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S38)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
         <v/>
       </c>
       <c r="U39" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V39" s="0" t="n">
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="X39" s="0" t="str">
-        <f aca="true">IF(O39="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S39)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O39="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S39)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -2772,7 +2772,7 @@
         <v/>
       </c>
       <c r="U40" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V40" s="0" t="n">
@@ -2784,7 +2784,7 @@
         <v>0</v>
       </c>
       <c r="X40" s="0" t="str">
-        <f aca="true">IF(O40="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S40)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O40="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S40)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -2823,7 +2823,7 @@
         <v/>
       </c>
       <c r="U41" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V41" s="0" t="n">
@@ -2835,7 +2835,7 @@
         <v>0</v>
       </c>
       <c r="X41" s="0" t="str">
-        <f aca="true">IF(O41="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S41)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O41="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S41)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -2874,7 +2874,7 @@
         <v/>
       </c>
       <c r="U42" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V42" s="0" t="n">
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="X42" s="0" t="str">
-        <f aca="true">IF(O42="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S42)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O42="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S42)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -2925,7 +2925,7 @@
         <v/>
       </c>
       <c r="U43" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V43" s="0" t="n">
@@ -2937,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="X43" s="0" t="str">
-        <f aca="true">IF(O43="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S43)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O43="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S43)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -2976,7 +2976,7 @@
         <v/>
       </c>
       <c r="U44" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V44" s="0" t="n">
@@ -2988,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="X44" s="0" t="str">
-        <f aca="true">IF(O44="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S44)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O44="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S44)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -3027,7 +3027,7 @@
         <v/>
       </c>
       <c r="U45" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V45" s="0" t="n">
@@ -3039,7 +3039,7 @@
         <v>0</v>
       </c>
       <c r="X45" s="0" t="str">
-        <f aca="true">IF(O45="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S45)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O45="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S45)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -3078,7 +3078,7 @@
         <v/>
       </c>
       <c r="U46" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V46" s="0" t="n">
@@ -3090,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="X46" s="0" t="str">
-        <f aca="true">IF(O46="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S46)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O46="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S46)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -3129,7 +3129,7 @@
         <v/>
       </c>
       <c r="U47" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V47" s="0" t="n">
@@ -3141,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="X47" s="0" t="str">
-        <f aca="true">IF(O47="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S47)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O47="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S47)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -3180,7 +3180,7 @@
         <v/>
       </c>
       <c r="U48" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V48" s="0" t="n">
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="X48" s="0" t="str">
-        <f aca="true">IF(O48="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S48)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O48="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S48)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -3231,7 +3231,7 @@
         <v/>
       </c>
       <c r="U49" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V49" s="0" t="n">
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="X49" s="0" t="str">
-        <f aca="true">IF(O49="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S49)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O49="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S49)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -3282,7 +3282,7 @@
         <v/>
       </c>
       <c r="U50" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V50" s="0" t="n">
@@ -3294,7 +3294,7 @@
         <v>0</v>
       </c>
       <c r="X50" s="0" t="str">
-        <f aca="true">IF(O50="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S50)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O50="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S50)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -3333,7 +3333,7 @@
         <v/>
       </c>
       <c r="U51" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V51" s="0" t="n">
@@ -3345,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="X51" s="0" t="str">
-        <f aca="true">IF(O51="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S51)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O51="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S51)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -3384,7 +3384,7 @@
         <v/>
       </c>
       <c r="U52" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V52" s="0" t="n">
@@ -3396,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="X52" s="0" t="str">
-        <f aca="true">IF(O52="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S52)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O52="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S52)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -3435,7 +3435,7 @@
         <v/>
       </c>
       <c r="U53" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V53" s="0" t="n">
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="X53" s="0" t="str">
-        <f aca="true">IF(O53="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S53)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O53="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S53)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -3486,7 +3486,7 @@
         <v/>
       </c>
       <c r="U54" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V54" s="0" t="n">
@@ -3498,7 +3498,7 @@
         <v>0</v>
       </c>
       <c r="X54" s="0" t="str">
-        <f aca="true">IF(O54="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S54)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O54="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S54)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -3537,7 +3537,7 @@
         <v/>
       </c>
       <c r="U55" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V55" s="0" t="n">
@@ -3549,7 +3549,7 @@
         <v>0</v>
       </c>
       <c r="X55" s="0" t="str">
-        <f aca="true">IF(O55="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S55)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O55="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S55)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -3588,7 +3588,7 @@
         <v/>
       </c>
       <c r="U56" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V56" s="0" t="n">
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="X56" s="0" t="str">
-        <f aca="true">IF(O56="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S56)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O56="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S56)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -3639,7 +3639,7 @@
         <v/>
       </c>
       <c r="U57" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V57" s="0" t="n">
@@ -3651,7 +3651,7 @@
         <v>0</v>
       </c>
       <c r="X57" s="0" t="str">
-        <f aca="true">IF(O57="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S57)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O57="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S57)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -3690,7 +3690,7 @@
         <v/>
       </c>
       <c r="U58" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V58" s="0" t="n">
@@ -3702,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="X58" s="0" t="str">
-        <f aca="true">IF(O58="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S58)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O58="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S58)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -3741,7 +3741,7 @@
         <v/>
       </c>
       <c r="U59" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V59" s="0" t="n">
@@ -3753,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="X59" s="0" t="str">
-        <f aca="true">IF(O59="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S59)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O59="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S59)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -3792,7 +3792,7 @@
         <v/>
       </c>
       <c r="U60" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V60" s="0" t="n">
@@ -3804,7 +3804,7 @@
         <v>0</v>
       </c>
       <c r="X60" s="0" t="str">
-        <f aca="true">IF(O60="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S60)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O60="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S60)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -3843,7 +3843,7 @@
         <v/>
       </c>
       <c r="U61" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V61" s="0" t="n">
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="X61" s="0" t="str">
-        <f aca="true">IF(O61="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S61)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O61="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S61)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -3894,7 +3894,7 @@
         <v/>
       </c>
       <c r="U62" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V62" s="0" t="n">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="X62" s="0" t="str">
-        <f aca="true">IF(O62="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S62)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O62="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S62)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -3945,7 +3945,7 @@
         <v/>
       </c>
       <c r="U63" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V63" s="0" t="n">
@@ -3957,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="X63" s="0" t="str">
-        <f aca="true">IF(O63="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S63)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O63="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S63)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -3996,7 +3996,7 @@
         <v/>
       </c>
       <c r="U64" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V64" s="0" t="n">
@@ -4008,7 +4008,7 @@
         <v>0</v>
       </c>
       <c r="X64" s="0" t="str">
-        <f aca="true">IF(O64="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S64)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O64="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S64)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -4047,7 +4047,7 @@
         <v/>
       </c>
       <c r="U65" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V65" s="0" t="n">
@@ -4059,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="X65" s="0" t="str">
-        <f aca="true">IF(O65="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S65)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O65="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S65)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -4098,7 +4098,7 @@
         <v/>
       </c>
       <c r="U66" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V66" s="0" t="n">
@@ -4110,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="X66" s="0" t="str">
-        <f aca="true">IF(O66="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S66)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O66="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S66)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -4149,7 +4149,7 @@
         <v/>
       </c>
       <c r="U67" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V67" s="0" t="n">
@@ -4161,7 +4161,7 @@
         <v>0</v>
       </c>
       <c r="X67" s="0" t="str">
-        <f aca="true">IF(O67="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S67)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O67="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S67)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -4200,7 +4200,7 @@
         <v/>
       </c>
       <c r="U68" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V68" s="0" t="n">
@@ -4212,7 +4212,7 @@
         <v>0</v>
       </c>
       <c r="X68" s="0" t="str">
-        <f aca="true">IF(O68="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S68)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O68="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S68)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -4251,7 +4251,7 @@
         <v/>
       </c>
       <c r="U69" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V69" s="0" t="n">
@@ -4263,7 +4263,7 @@
         <v>0</v>
       </c>
       <c r="X69" s="0" t="str">
-        <f aca="true">IF(O69="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S69)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O69="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S69)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -4302,7 +4302,7 @@
         <v/>
       </c>
       <c r="U70" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V70" s="0" t="n">
@@ -4314,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="X70" s="0" t="str">
-        <f aca="true">IF(O70="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S70)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O70="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S70)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -4353,7 +4353,7 @@
         <v/>
       </c>
       <c r="U71" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V71" s="0" t="n">
@@ -4365,7 +4365,7 @@
         <v>0</v>
       </c>
       <c r="X71" s="0" t="str">
-        <f aca="true">IF(O71="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S71)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O71="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S71)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -4404,7 +4404,7 @@
         <v/>
       </c>
       <c r="U72" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V72" s="0" t="n">
@@ -4416,7 +4416,7 @@
         <v>0</v>
       </c>
       <c r="X72" s="0" t="str">
-        <f aca="true">IF(O72="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S72)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O72="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S72)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -4455,7 +4455,7 @@
         <v/>
       </c>
       <c r="U73" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V73" s="0" t="n">
@@ -4467,7 +4467,7 @@
         <v>0</v>
       </c>
       <c r="X73" s="0" t="str">
-        <f aca="true">IF(O73="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S73)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O73="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S73)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -4506,7 +4506,7 @@
         <v/>
       </c>
       <c r="U74" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V74" s="0" t="n">
@@ -4518,7 +4518,7 @@
         <v>0</v>
       </c>
       <c r="X74" s="0" t="str">
-        <f aca="true">IF(O74="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S74)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O74="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S74)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -4557,7 +4557,7 @@
         <v/>
       </c>
       <c r="U75" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V75" s="0" t="n">
@@ -4569,7 +4569,7 @@
         <v>0</v>
       </c>
       <c r="X75" s="0" t="str">
-        <f aca="true">IF(O75="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S75)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O75="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S75)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -4608,7 +4608,7 @@
         <v/>
       </c>
       <c r="U76" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V76" s="0" t="n">
@@ -4620,7 +4620,7 @@
         <v>0</v>
       </c>
       <c r="X76" s="0" t="str">
-        <f aca="true">IF(O76="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S76)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O76="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S76)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -4659,7 +4659,7 @@
         <v/>
       </c>
       <c r="U77" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V77" s="0" t="n">
@@ -4671,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="X77" s="0" t="str">
-        <f aca="true">IF(O77="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S77)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O77="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S77)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -4710,7 +4710,7 @@
         <v/>
       </c>
       <c r="U78" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V78" s="0" t="n">
@@ -4722,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="X78" s="0" t="str">
-        <f aca="true">IF(O78="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S78)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O78="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S78)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -4761,7 +4761,7 @@
         <v/>
       </c>
       <c r="U79" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V79" s="0" t="n">
@@ -4773,7 +4773,7 @@
         <v>0</v>
       </c>
       <c r="X79" s="0" t="str">
-        <f aca="true">IF(O79="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S79)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O79="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S79)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -4812,7 +4812,7 @@
         <v/>
       </c>
       <c r="U80" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V80" s="0" t="n">
@@ -4824,7 +4824,7 @@
         <v>0</v>
       </c>
       <c r="X80" s="0" t="str">
-        <f aca="true">IF(O80="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S80)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O80="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S80)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -4863,7 +4863,7 @@
         <v/>
       </c>
       <c r="U81" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V81" s="0" t="n">
@@ -4875,7 +4875,7 @@
         <v>0</v>
       </c>
       <c r="X81" s="0" t="str">
-        <f aca="true">IF(O81="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S81)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O81="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S81)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -4914,7 +4914,7 @@
         <v/>
       </c>
       <c r="U82" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V82" s="0" t="n">
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="X82" s="0" t="str">
-        <f aca="true">IF(O82="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S82)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O82="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S82)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -4965,7 +4965,7 @@
         <v/>
       </c>
       <c r="U83" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V83" s="0" t="n">
@@ -4977,7 +4977,7 @@
         <v>0</v>
       </c>
       <c r="X83" s="0" t="str">
-        <f aca="true">IF(O83="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S83)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O83="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S83)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -5016,7 +5016,7 @@
         <v/>
       </c>
       <c r="U84" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V84" s="0" t="n">
@@ -5028,7 +5028,7 @@
         <v>0</v>
       </c>
       <c r="X84" s="0" t="str">
-        <f aca="true">IF(O84="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S84)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O84="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S84)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -5067,7 +5067,7 @@
         <v/>
       </c>
       <c r="U85" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V85" s="0" t="n">
@@ -5079,7 +5079,7 @@
         <v>0</v>
       </c>
       <c r="X85" s="0" t="str">
-        <f aca="true">IF(O85="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S85)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O85="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S85)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -5118,7 +5118,7 @@
         <v/>
       </c>
       <c r="U86" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V86" s="0" t="n">
@@ -5130,7 +5130,7 @@
         <v>0</v>
       </c>
       <c r="X86" s="0" t="str">
-        <f aca="true">IF(O86="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S86)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O86="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S86)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -5169,7 +5169,7 @@
         <v/>
       </c>
       <c r="U87" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V87" s="0" t="n">
@@ -5181,7 +5181,7 @@
         <v>0</v>
       </c>
       <c r="X87" s="0" t="str">
-        <f aca="true">IF(O87="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S87)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O87="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S87)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -5220,7 +5220,7 @@
         <v/>
       </c>
       <c r="U88" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V88" s="0" t="n">
@@ -5232,7 +5232,7 @@
         <v>0</v>
       </c>
       <c r="X88" s="0" t="str">
-        <f aca="true">IF(O88="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S88)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O88="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S88)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -5271,7 +5271,7 @@
         <v/>
       </c>
       <c r="U89" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V89" s="0" t="n">
@@ -5283,7 +5283,7 @@
         <v>0</v>
       </c>
       <c r="X89" s="0" t="str">
-        <f aca="true">IF(O89="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S89)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O89="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S89)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -5322,7 +5322,7 @@
         <v/>
       </c>
       <c r="U90" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V90" s="0" t="n">
@@ -5334,7 +5334,7 @@
         <v>0</v>
       </c>
       <c r="X90" s="0" t="str">
-        <f aca="true">IF(O90="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S90)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O90="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S90)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -5373,7 +5373,7 @@
         <v/>
       </c>
       <c r="U91" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V91" s="0" t="n">
@@ -5385,7 +5385,7 @@
         <v>0</v>
       </c>
       <c r="X91" s="0" t="str">
-        <f aca="true">IF(O91="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S91)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O91="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S91)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -5424,7 +5424,7 @@
         <v/>
       </c>
       <c r="U92" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V92" s="0" t="n">
@@ -5436,7 +5436,7 @@
         <v>0</v>
       </c>
       <c r="X92" s="0" t="str">
-        <f aca="true">IF(O92="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S92)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O92="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S92)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -5475,7 +5475,7 @@
         <v/>
       </c>
       <c r="U93" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V93" s="0" t="n">
@@ -5487,7 +5487,7 @@
         <v>0</v>
       </c>
       <c r="X93" s="0" t="str">
-        <f aca="true">IF(O93="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S93)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O93="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S93)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -5526,7 +5526,7 @@
         <v/>
       </c>
       <c r="U94" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V94" s="0" t="n">
@@ -5538,7 +5538,7 @@
         <v>0</v>
       </c>
       <c r="X94" s="0" t="str">
-        <f aca="true">IF(O94="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S94)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O94="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S94)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -5577,7 +5577,7 @@
         <v/>
       </c>
       <c r="U95" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V95" s="0" t="n">
@@ -5589,7 +5589,7 @@
         <v>0</v>
       </c>
       <c r="X95" s="0" t="str">
-        <f aca="true">IF(O95="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S95)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O95="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S95)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -5628,7 +5628,7 @@
         <v/>
       </c>
       <c r="U96" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V96" s="0" t="n">
@@ -5640,7 +5640,7 @@
         <v>0</v>
       </c>
       <c r="X96" s="0" t="str">
-        <f aca="true">IF(O96="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S96)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O96="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S96)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -5679,7 +5679,7 @@
         <v/>
       </c>
       <c r="U97" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V97" s="0" t="n">
@@ -5691,7 +5691,7 @@
         <v>0</v>
       </c>
       <c r="X97" s="0" t="str">
-        <f aca="true">IF(O97="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S97)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O97="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S97)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -5730,7 +5730,7 @@
         <v/>
       </c>
       <c r="U98" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V98" s="0" t="n">
@@ -5742,7 +5742,7 @@
         <v>0</v>
       </c>
       <c r="X98" s="0" t="str">
-        <f aca="true">IF(O98="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S98)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O98="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S98)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -5781,7 +5781,7 @@
         <v/>
       </c>
       <c r="U99" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V99" s="0" t="n">
@@ -5793,7 +5793,7 @@
         <v>0</v>
       </c>
       <c r="X99" s="0" t="str">
-        <f aca="true">IF(O99="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S99)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O99="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S99)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -5832,7 +5832,7 @@
         <v/>
       </c>
       <c r="U100" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V100" s="0" t="n">
@@ -5844,7 +5844,7 @@
         <v>0</v>
       </c>
       <c r="X100" s="0" t="str">
-        <f aca="true">IF(O100="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S100)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O100="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S100)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -5883,7 +5883,7 @@
         <v/>
       </c>
       <c r="U101" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V101" s="0" t="n">
@@ -5895,7 +5895,7 @@
         <v>0</v>
       </c>
       <c r="X101" s="0" t="str">
-        <f aca="true">IF(O101="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S101)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O101="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S101)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -5934,7 +5934,7 @@
         <v/>
       </c>
       <c r="U102" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V102" s="0" t="n">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="X102" s="0" t="str">
-        <f aca="true">IF(O102="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S102)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O102="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S102)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -5985,7 +5985,7 @@
         <v/>
       </c>
       <c r="U103" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V103" s="0" t="n">
@@ -5997,7 +5997,7 @@
         <v>0</v>
       </c>
       <c r="X103" s="0" t="str">
-        <f aca="true">IF(O103="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S103)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O103="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S103)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -6036,7 +6036,7 @@
         <v/>
       </c>
       <c r="U104" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V104" s="0" t="n">
@@ -6048,7 +6048,7 @@
         <v>0</v>
       </c>
       <c r="X104" s="0" t="str">
-        <f aca="true">IF(O104="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S104)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O104="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S104)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -6087,7 +6087,7 @@
         <v/>
       </c>
       <c r="U105" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V105" s="0" t="n">
@@ -6099,7 +6099,7 @@
         <v>0</v>
       </c>
       <c r="X105" s="0" t="str">
-        <f aca="true">IF(O105="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S105)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O105="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S105)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -6138,7 +6138,7 @@
         <v/>
       </c>
       <c r="U106" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V106" s="0" t="n">
@@ -6150,7 +6150,7 @@
         <v>0</v>
       </c>
       <c r="X106" s="0" t="str">
-        <f aca="true">IF(O106="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S106)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O106="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S106)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -6189,7 +6189,7 @@
         <v/>
       </c>
       <c r="U107" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V107" s="0" t="n">
@@ -6201,7 +6201,7 @@
         <v>0</v>
       </c>
       <c r="X107" s="0" t="str">
-        <f aca="true">IF(O107="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S107)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O107="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S107)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -6240,7 +6240,7 @@
         <v/>
       </c>
       <c r="U108" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V108" s="0" t="n">
@@ -6252,7 +6252,7 @@
         <v>0</v>
       </c>
       <c r="X108" s="0" t="str">
-        <f aca="true">IF(O108="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S108)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O108="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S108)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -6291,7 +6291,7 @@
         <v/>
       </c>
       <c r="U109" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V109" s="0" t="n">
@@ -6303,7 +6303,7 @@
         <v>0</v>
       </c>
       <c r="X109" s="0" t="str">
-        <f aca="true">IF(O109="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S109)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O109="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S109)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -6342,7 +6342,7 @@
         <v/>
       </c>
       <c r="U110" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V110" s="0" t="n">
@@ -6354,7 +6354,7 @@
         <v>0</v>
       </c>
       <c r="X110" s="0" t="str">
-        <f aca="true">IF(O110="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S110)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O110="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S110)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -6393,7 +6393,7 @@
         <v/>
       </c>
       <c r="U111" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V111" s="0" t="n">
@@ -6405,7 +6405,7 @@
         <v>0</v>
       </c>
       <c r="X111" s="0" t="str">
-        <f aca="true">IF(O111="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S111)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O111="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S111)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -6444,7 +6444,7 @@
         <v/>
       </c>
       <c r="U112" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V112" s="0" t="n">
@@ -6456,7 +6456,7 @@
         <v>0</v>
       </c>
       <c r="X112" s="0" t="str">
-        <f aca="true">IF(O112="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S112)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O112="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S112)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -6495,7 +6495,7 @@
         <v/>
       </c>
       <c r="U113" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V113" s="0" t="n">
@@ -6507,7 +6507,7 @@
         <v>0</v>
       </c>
       <c r="X113" s="0" t="str">
-        <f aca="true">IF(O113="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S113)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O113="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S113)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -6546,7 +6546,7 @@
         <v/>
       </c>
       <c r="U114" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V114" s="0" t="n">
@@ -6558,7 +6558,7 @@
         <v>0</v>
       </c>
       <c r="X114" s="0" t="str">
-        <f aca="true">IF(O114="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S114)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O114="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S114)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -6597,7 +6597,7 @@
         <v/>
       </c>
       <c r="U115" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V115" s="0" t="n">
@@ -6609,7 +6609,7 @@
         <v>0</v>
       </c>
       <c r="X115" s="0" t="str">
-        <f aca="true">IF(O115="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S115)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O115="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S115)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -6648,7 +6648,7 @@
         <v/>
       </c>
       <c r="U116" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V116" s="0" t="n">
@@ -6660,7 +6660,7 @@
         <v>0</v>
       </c>
       <c r="X116" s="0" t="str">
-        <f aca="true">IF(O116="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S116)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O116="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S116)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -6699,7 +6699,7 @@
         <v/>
       </c>
       <c r="U117" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V117" s="0" t="n">
@@ -6711,7 +6711,7 @@
         <v>0</v>
       </c>
       <c r="X117" s="0" t="str">
-        <f aca="true">IF(O117="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S117)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O117="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S117)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -6750,7 +6750,7 @@
         <v/>
       </c>
       <c r="U118" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V118" s="0" t="n">
@@ -6762,7 +6762,7 @@
         <v>0</v>
       </c>
       <c r="X118" s="0" t="str">
-        <f aca="true">IF(O118="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S118)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O118="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S118)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -6801,7 +6801,7 @@
         <v/>
       </c>
       <c r="U119" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V119" s="0" t="n">
@@ -6813,7 +6813,7 @@
         <v>0</v>
       </c>
       <c r="X119" s="0" t="str">
-        <f aca="true">IF(O119="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S119)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O119="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S119)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -6852,7 +6852,7 @@
         <v/>
       </c>
       <c r="U120" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V120" s="0" t="n">
@@ -6864,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="X120" s="0" t="str">
-        <f aca="true">IF(O120="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S120)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O120="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S120)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -6903,7 +6903,7 @@
         <v/>
       </c>
       <c r="U121" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V121" s="0" t="n">
@@ -6915,7 +6915,7 @@
         <v>0</v>
       </c>
       <c r="X121" s="0" t="str">
-        <f aca="true">IF(O121="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S121)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O121="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S121)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -6954,7 +6954,7 @@
         <v/>
       </c>
       <c r="U122" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V122" s="0" t="n">
@@ -6966,7 +6966,7 @@
         <v>0</v>
       </c>
       <c r="X122" s="0" t="str">
-        <f aca="true">IF(O122="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S122)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O122="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S122)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -7621,10 +7621,10 @@
   </sheetPr>
   <dimension ref="A1:X287"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7759,7 +7759,7 @@
         <v/>
       </c>
       <c r="U2" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V2" s="0" t="n">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="X2" s="0" t="str">
-        <f aca="true">IF(O2="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S2)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O2="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S2)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -7810,7 +7810,7 @@
         <v/>
       </c>
       <c r="U3" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V3" s="0" t="n">
@@ -7822,7 +7822,7 @@
         <v>0</v>
       </c>
       <c r="X3" s="0" t="str">
-        <f aca="true">IF(O3="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S3)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O3="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S3)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -7861,7 +7861,7 @@
         <v/>
       </c>
       <c r="U4" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V4" s="0" t="n">
@@ -7873,7 +7873,7 @@
         <v>0</v>
       </c>
       <c r="X4" s="0" t="str">
-        <f aca="true">IF(O4="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S4)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O4="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S4)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -7912,7 +7912,7 @@
         <v/>
       </c>
       <c r="U5" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V5" s="0" t="n">
@@ -7924,7 +7924,7 @@
         <v>0</v>
       </c>
       <c r="X5" s="0" t="str">
-        <f aca="true">IF(O5="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S5)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O5="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S5)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -7963,7 +7963,7 @@
         <v/>
       </c>
       <c r="U6" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V6" s="0" t="n">
@@ -7975,7 +7975,7 @@
         <v>0</v>
       </c>
       <c r="X6" s="0" t="str">
-        <f aca="true">IF(O6="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S6)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O6="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S6)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -8014,7 +8014,7 @@
         <v/>
       </c>
       <c r="U7" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V7" s="0" t="n">
@@ -8026,7 +8026,7 @@
         <v>0</v>
       </c>
       <c r="X7" s="0" t="str">
-        <f aca="true">IF(O7="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S7)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O7="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S7)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -8065,7 +8065,7 @@
         <v/>
       </c>
       <c r="U8" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V8" s="0" t="n">
@@ -8077,7 +8077,7 @@
         <v>0</v>
       </c>
       <c r="X8" s="0" t="str">
-        <f aca="true">IF(O8="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S8)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O8="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S8)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -8116,7 +8116,7 @@
         <v/>
       </c>
       <c r="U9" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V9" s="0" t="n">
@@ -8128,7 +8128,7 @@
         <v>0</v>
       </c>
       <c r="X9" s="0" t="str">
-        <f aca="true">IF(O9="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S9)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O9="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S9)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -8167,7 +8167,7 @@
         <v/>
       </c>
       <c r="U10" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V10" s="0" t="n">
@@ -8179,7 +8179,7 @@
         <v>0</v>
       </c>
       <c r="X10" s="0" t="str">
-        <f aca="true">IF(O10="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S10)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O10="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S10)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -8218,7 +8218,7 @@
         <v/>
       </c>
       <c r="U11" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V11" s="0" t="n">
@@ -8230,7 +8230,7 @@
         <v>0</v>
       </c>
       <c r="X11" s="0" t="str">
-        <f aca="true">IF(O11="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S11)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O11="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S11)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -8269,7 +8269,7 @@
         <v/>
       </c>
       <c r="U12" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V12" s="0" t="n">
@@ -8281,7 +8281,7 @@
         <v>0</v>
       </c>
       <c r="X12" s="0" t="str">
-        <f aca="true">IF(O12="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S12)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O12="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S12)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -8320,7 +8320,7 @@
         <v/>
       </c>
       <c r="U13" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V13" s="0" t="n">
@@ -8332,7 +8332,7 @@
         <v>0</v>
       </c>
       <c r="X13" s="0" t="str">
-        <f aca="true">IF(O13="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S13)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O13="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S13)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -8371,7 +8371,7 @@
         <v/>
       </c>
       <c r="U14" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V14" s="0" t="n">
@@ -8383,7 +8383,7 @@
         <v>0</v>
       </c>
       <c r="X14" s="0" t="str">
-        <f aca="true">IF(O14="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S14)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O14="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S14)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -8422,7 +8422,7 @@
         <v/>
       </c>
       <c r="U15" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V15" s="0" t="n">
@@ -8434,7 +8434,7 @@
         <v>0</v>
       </c>
       <c r="X15" s="0" t="str">
-        <f aca="true">IF(O15="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S15)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O15="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S15)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -8473,7 +8473,7 @@
         <v/>
       </c>
       <c r="U16" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V16" s="0" t="n">
@@ -8485,7 +8485,7 @@
         <v>0</v>
       </c>
       <c r="X16" s="0" t="str">
-        <f aca="true">IF(O16="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S16)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O16="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S16)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -8524,7 +8524,7 @@
         <v/>
       </c>
       <c r="U17" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V17" s="0" t="n">
@@ -8536,7 +8536,7 @@
         <v>0</v>
       </c>
       <c r="X17" s="0" t="str">
-        <f aca="true">IF(O17="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S17)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O17="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S17)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -8575,7 +8575,7 @@
         <v/>
       </c>
       <c r="U18" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V18" s="0" t="n">
@@ -8587,7 +8587,7 @@
         <v>0</v>
       </c>
       <c r="X18" s="0" t="str">
-        <f aca="true">IF(O18="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S18)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O18="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S18)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -8626,7 +8626,7 @@
         <v/>
       </c>
       <c r="U19" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V19" s="0" t="n">
@@ -8638,7 +8638,7 @@
         <v>0</v>
       </c>
       <c r="X19" s="0" t="str">
-        <f aca="true">IF(O19="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S19)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O19="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S19)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -8677,7 +8677,7 @@
         <v/>
       </c>
       <c r="U20" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V20" s="0" t="n">
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="X20" s="0" t="str">
-        <f aca="true">IF(O20="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S20)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O20="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S20)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -8728,7 +8728,7 @@
         <v/>
       </c>
       <c r="U21" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V21" s="0" t="n">
@@ -8740,7 +8740,7 @@
         <v>0</v>
       </c>
       <c r="X21" s="0" t="str">
-        <f aca="true">IF(O21="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S21)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O21="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S21)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -8779,7 +8779,7 @@
         <v/>
       </c>
       <c r="U22" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V22" s="0" t="n">
@@ -8791,7 +8791,7 @@
         <v>0</v>
       </c>
       <c r="X22" s="0" t="str">
-        <f aca="true">IF(O22="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S22)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O22="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S22)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -8830,7 +8830,7 @@
         <v/>
       </c>
       <c r="U23" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V23" s="0" t="n">
@@ -8842,7 +8842,7 @@
         <v>0</v>
       </c>
       <c r="X23" s="0" t="str">
-        <f aca="true">IF(O23="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S23)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O23="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S23)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -8881,7 +8881,7 @@
         <v/>
       </c>
       <c r="U24" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V24" s="0" t="n">
@@ -8893,7 +8893,7 @@
         <v>0</v>
       </c>
       <c r="X24" s="0" t="str">
-        <f aca="true">IF(O24="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S24)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O24="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S24)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -8932,7 +8932,7 @@
         <v/>
       </c>
       <c r="U25" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V25" s="0" t="n">
@@ -8944,7 +8944,7 @@
         <v>0</v>
       </c>
       <c r="X25" s="0" t="str">
-        <f aca="true">IF(O25="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S25)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O25="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S25)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -8983,7 +8983,7 @@
         <v/>
       </c>
       <c r="U26" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V26" s="0" t="n">
@@ -8995,7 +8995,7 @@
         <v>0</v>
       </c>
       <c r="X26" s="0" t="str">
-        <f aca="true">IF(O26="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S26)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O26="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S26)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -9034,7 +9034,7 @@
         <v/>
       </c>
       <c r="U27" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V27" s="0" t="n">
@@ -9046,7 +9046,7 @@
         <v>0</v>
       </c>
       <c r="X27" s="0" t="str">
-        <f aca="true">IF(O27="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S27)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O27="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S27)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -9085,7 +9085,7 @@
         <v/>
       </c>
       <c r="U28" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V28" s="0" t="n">
@@ -9097,7 +9097,7 @@
         <v>0</v>
       </c>
       <c r="X28" s="0" t="str">
-        <f aca="true">IF(O28="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S28)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O28="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S28)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -9136,7 +9136,7 @@
         <v/>
       </c>
       <c r="U29" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V29" s="0" t="n">
@@ -9148,7 +9148,7 @@
         <v>0</v>
       </c>
       <c r="X29" s="0" t="str">
-        <f aca="true">IF(O29="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S29)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O29="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S29)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -9187,7 +9187,7 @@
         <v/>
       </c>
       <c r="U30" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V30" s="0" t="n">
@@ -9199,7 +9199,7 @@
         <v>0</v>
       </c>
       <c r="X30" s="0" t="str">
-        <f aca="true">IF(O30="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S30)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O30="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S30)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -9238,7 +9238,7 @@
         <v/>
       </c>
       <c r="U31" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V31" s="0" t="n">
@@ -9250,7 +9250,7 @@
         <v>0</v>
       </c>
       <c r="X31" s="0" t="str">
-        <f aca="true">IF(O31="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S31)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O31="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S31)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -9289,7 +9289,7 @@
         <v/>
       </c>
       <c r="U32" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V32" s="0" t="n">
@@ -9301,7 +9301,7 @@
         <v>0</v>
       </c>
       <c r="X32" s="0" t="str">
-        <f aca="true">IF(O32="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S32)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O32="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S32)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -9340,7 +9340,7 @@
         <v/>
       </c>
       <c r="U33" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V33" s="0" t="n">
@@ -9352,7 +9352,7 @@
         <v>0</v>
       </c>
       <c r="X33" s="0" t="str">
-        <f aca="true">IF(O33="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S33)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O33="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S33)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -9391,7 +9391,7 @@
         <v/>
       </c>
       <c r="U34" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V34" s="0" t="n">
@@ -9403,7 +9403,7 @@
         <v>0</v>
       </c>
       <c r="X34" s="0" t="str">
-        <f aca="true">IF(O34="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S34)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O34="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S34)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -9442,7 +9442,7 @@
         <v/>
       </c>
       <c r="U35" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V35" s="0" t="n">
@@ -9454,7 +9454,7 @@
         <v>0</v>
       </c>
       <c r="X35" s="0" t="str">
-        <f aca="true">IF(O35="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S35)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O35="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S35)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -9493,7 +9493,7 @@
         <v/>
       </c>
       <c r="U36" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V36" s="0" t="n">
@@ -9505,7 +9505,7 @@
         <v>0</v>
       </c>
       <c r="X36" s="0" t="str">
-        <f aca="true">IF(O36="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S36)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O36="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S36)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -9544,7 +9544,7 @@
         <v/>
       </c>
       <c r="U37" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V37" s="0" t="n">
@@ -9556,7 +9556,7 @@
         <v>0</v>
       </c>
       <c r="X37" s="0" t="str">
-        <f aca="true">IF(O37="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S37)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O37="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S37)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -9595,7 +9595,7 @@
         <v/>
       </c>
       <c r="U38" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V38" s="0" t="n">
@@ -9607,7 +9607,7 @@
         <v>0</v>
       </c>
       <c r="X38" s="0" t="str">
-        <f aca="true">IF(O38="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S38)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O38="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S38)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -9646,7 +9646,7 @@
         <v/>
       </c>
       <c r="U39" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V39" s="0" t="n">
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="X39" s="0" t="str">
-        <f aca="true">IF(O39="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S39)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O39="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S39)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -9697,7 +9697,7 @@
         <v/>
       </c>
       <c r="U40" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V40" s="0" t="n">
@@ -9709,7 +9709,7 @@
         <v>0</v>
       </c>
       <c r="X40" s="0" t="str">
-        <f aca="true">IF(O40="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S40)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O40="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S40)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -9748,7 +9748,7 @@
         <v/>
       </c>
       <c r="U41" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V41" s="0" t="n">
@@ -9760,7 +9760,7 @@
         <v>0</v>
       </c>
       <c r="X41" s="0" t="str">
-        <f aca="true">IF(O41="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S41)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O41="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S41)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -9799,7 +9799,7 @@
         <v/>
       </c>
       <c r="U42" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V42" s="0" t="n">
@@ -9811,7 +9811,7 @@
         <v>0</v>
       </c>
       <c r="X42" s="0" t="str">
-        <f aca="true">IF(O42="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S42)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O42="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S42)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -9850,7 +9850,7 @@
         <v/>
       </c>
       <c r="U43" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V43" s="0" t="n">
@@ -9862,7 +9862,7 @@
         <v>0</v>
       </c>
       <c r="X43" s="0" t="str">
-        <f aca="true">IF(O43="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S43)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O43="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S43)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -9901,7 +9901,7 @@
         <v/>
       </c>
       <c r="U44" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V44" s="0" t="n">
@@ -9913,7 +9913,7 @@
         <v>0</v>
       </c>
       <c r="X44" s="0" t="str">
-        <f aca="true">IF(O44="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S44)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O44="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S44)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -9952,7 +9952,7 @@
         <v/>
       </c>
       <c r="U45" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V45" s="0" t="n">
@@ -9964,7 +9964,7 @@
         <v>0</v>
       </c>
       <c r="X45" s="0" t="str">
-        <f aca="true">IF(O45="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S45)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O45="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S45)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -10003,7 +10003,7 @@
         <v/>
       </c>
       <c r="U46" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V46" s="0" t="n">
@@ -10015,7 +10015,7 @@
         <v>0</v>
       </c>
       <c r="X46" s="0" t="str">
-        <f aca="true">IF(O46="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S46)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O46="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S46)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -10054,7 +10054,7 @@
         <v/>
       </c>
       <c r="U47" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V47" s="0" t="n">
@@ -10066,7 +10066,7 @@
         <v>0</v>
       </c>
       <c r="X47" s="0" t="str">
-        <f aca="true">IF(O47="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S47)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O47="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S47)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -10105,7 +10105,7 @@
         <v/>
       </c>
       <c r="U48" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V48" s="0" t="n">
@@ -10117,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="X48" s="0" t="str">
-        <f aca="true">IF(O48="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S48)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O48="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S48)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -10156,7 +10156,7 @@
         <v/>
       </c>
       <c r="U49" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V49" s="0" t="n">
@@ -10168,7 +10168,7 @@
         <v>0</v>
       </c>
       <c r="X49" s="0" t="str">
-        <f aca="true">IF(O49="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S49)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O49="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S49)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -10207,7 +10207,7 @@
         <v/>
       </c>
       <c r="U50" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V50" s="0" t="n">
@@ -10219,7 +10219,7 @@
         <v>0</v>
       </c>
       <c r="X50" s="0" t="str">
-        <f aca="true">IF(O50="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S50)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O50="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S50)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -10258,7 +10258,7 @@
         <v/>
       </c>
       <c r="U51" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V51" s="0" t="n">
@@ -10270,7 +10270,7 @@
         <v>0</v>
       </c>
       <c r="X51" s="0" t="str">
-        <f aca="true">IF(O51="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S51)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O51="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S51)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -10309,7 +10309,7 @@
         <v/>
       </c>
       <c r="U52" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V52" s="0" t="n">
@@ -10321,7 +10321,7 @@
         <v>0</v>
       </c>
       <c r="X52" s="0" t="str">
-        <f aca="true">IF(O52="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S52)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O52="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S52)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -10360,7 +10360,7 @@
         <v/>
       </c>
       <c r="U53" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V53" s="0" t="n">
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="X53" s="0" t="str">
-        <f aca="true">IF(O53="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S53)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O53="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S53)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -10411,7 +10411,7 @@
         <v/>
       </c>
       <c r="U54" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V54" s="0" t="n">
@@ -10423,7 +10423,7 @@
         <v>0</v>
       </c>
       <c r="X54" s="0" t="str">
-        <f aca="true">IF(O54="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S54)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O54="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S54)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -10462,7 +10462,7 @@
         <v/>
       </c>
       <c r="U55" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V55" s="0" t="n">
@@ -10474,7 +10474,7 @@
         <v>0</v>
       </c>
       <c r="X55" s="0" t="str">
-        <f aca="true">IF(O55="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S55)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O55="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S55)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -10513,7 +10513,7 @@
         <v/>
       </c>
       <c r="U56" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V56" s="0" t="n">
@@ -10525,7 +10525,7 @@
         <v>0</v>
       </c>
       <c r="X56" s="0" t="str">
-        <f aca="true">IF(O56="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S56)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O56="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S56)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -10564,7 +10564,7 @@
         <v/>
       </c>
       <c r="U57" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V57" s="0" t="n">
@@ -10576,7 +10576,7 @@
         <v>0</v>
       </c>
       <c r="X57" s="0" t="str">
-        <f aca="true">IF(O57="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S57)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O57="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S57)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -10615,7 +10615,7 @@
         <v/>
       </c>
       <c r="U58" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V58" s="0" t="n">
@@ -10627,7 +10627,7 @@
         <v>0</v>
       </c>
       <c r="X58" s="0" t="str">
-        <f aca="true">IF(O58="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S58)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O58="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S58)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -10666,7 +10666,7 @@
         <v/>
       </c>
       <c r="U59" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V59" s="0" t="n">
@@ -10678,7 +10678,7 @@
         <v>0</v>
       </c>
       <c r="X59" s="0" t="str">
-        <f aca="true">IF(O59="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S59)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O59="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S59)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -10717,7 +10717,7 @@
         <v/>
       </c>
       <c r="U60" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V60" s="0" t="n">
@@ -10729,7 +10729,7 @@
         <v>0</v>
       </c>
       <c r="X60" s="0" t="str">
-        <f aca="true">IF(O60="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S60)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O60="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S60)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -10768,7 +10768,7 @@
         <v/>
       </c>
       <c r="U61" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V61" s="0" t="n">
@@ -10780,7 +10780,7 @@
         <v>0</v>
       </c>
       <c r="X61" s="0" t="str">
-        <f aca="true">IF(O61="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S61)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O61="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S61)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -10819,7 +10819,7 @@
         <v/>
       </c>
       <c r="U62" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V62" s="0" t="n">
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="X62" s="0" t="str">
-        <f aca="true">IF(O62="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S62)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O62="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S62)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -10870,7 +10870,7 @@
         <v/>
       </c>
       <c r="U63" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V63" s="0" t="n">
@@ -10882,7 +10882,7 @@
         <v>0</v>
       </c>
       <c r="X63" s="0" t="str">
-        <f aca="true">IF(O63="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S63)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O63="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S63)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -10921,7 +10921,7 @@
         <v/>
       </c>
       <c r="U64" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V64" s="0" t="n">
@@ -10933,7 +10933,7 @@
         <v>0</v>
       </c>
       <c r="X64" s="0" t="str">
-        <f aca="true">IF(O64="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S64)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O64="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S64)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -10972,7 +10972,7 @@
         <v/>
       </c>
       <c r="U65" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V65" s="0" t="n">
@@ -10984,7 +10984,7 @@
         <v>0</v>
       </c>
       <c r="X65" s="0" t="str">
-        <f aca="true">IF(O65="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S65)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O65="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S65)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -11023,7 +11023,7 @@
         <v/>
       </c>
       <c r="U66" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V66" s="0" t="n">
@@ -11035,7 +11035,7 @@
         <v>0</v>
       </c>
       <c r="X66" s="0" t="str">
-        <f aca="true">IF(O66="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S66)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O66="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S66)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -11074,7 +11074,7 @@
         <v/>
       </c>
       <c r="U67" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V67" s="0" t="n">
@@ -11086,7 +11086,7 @@
         <v>0</v>
       </c>
       <c r="X67" s="0" t="str">
-        <f aca="true">IF(O67="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S67)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O67="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S67)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -11125,7 +11125,7 @@
         <v/>
       </c>
       <c r="U68" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V68" s="0" t="n">
@@ -11137,7 +11137,7 @@
         <v>0</v>
       </c>
       <c r="X68" s="0" t="str">
-        <f aca="true">IF(O68="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S68)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O68="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S68)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -11176,7 +11176,7 @@
         <v/>
       </c>
       <c r="U69" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V69" s="0" t="n">
@@ -11188,7 +11188,7 @@
         <v>0</v>
       </c>
       <c r="X69" s="0" t="str">
-        <f aca="true">IF(O69="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S69)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O69="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S69)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -11227,7 +11227,7 @@
         <v/>
       </c>
       <c r="U70" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V70" s="0" t="n">
@@ -11239,7 +11239,7 @@
         <v>0</v>
       </c>
       <c r="X70" s="0" t="str">
-        <f aca="true">IF(O70="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S70)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O70="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S70)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -11278,7 +11278,7 @@
         <v/>
       </c>
       <c r="U71" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V71" s="0" t="n">
@@ -11290,7 +11290,7 @@
         <v>0</v>
       </c>
       <c r="X71" s="0" t="str">
-        <f aca="true">IF(O71="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S71)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O71="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S71)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -11329,7 +11329,7 @@
         <v/>
       </c>
       <c r="U72" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V72" s="0" t="n">
@@ -11341,7 +11341,7 @@
         <v>0</v>
       </c>
       <c r="X72" s="0" t="str">
-        <f aca="true">IF(O72="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S72)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O72="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S72)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -11380,7 +11380,7 @@
         <v/>
       </c>
       <c r="U73" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V73" s="0" t="n">
@@ -11392,7 +11392,7 @@
         <v>0</v>
       </c>
       <c r="X73" s="0" t="str">
-        <f aca="true">IF(O73="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S73)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O73="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S73)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -11431,7 +11431,7 @@
         <v/>
       </c>
       <c r="U74" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V74" s="0" t="n">
@@ -11443,7 +11443,7 @@
         <v>0</v>
       </c>
       <c r="X74" s="0" t="str">
-        <f aca="true">IF(O74="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S74)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O74="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S74)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -11482,7 +11482,7 @@
         <v/>
       </c>
       <c r="U75" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V75" s="0" t="n">
@@ -11494,7 +11494,7 @@
         <v>0</v>
       </c>
       <c r="X75" s="0" t="str">
-        <f aca="true">IF(O75="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S75)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O75="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S75)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -11533,7 +11533,7 @@
         <v/>
       </c>
       <c r="U76" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V76" s="0" t="n">
@@ -11545,7 +11545,7 @@
         <v>0</v>
       </c>
       <c r="X76" s="0" t="str">
-        <f aca="true">IF(O76="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S76)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O76="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S76)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -11584,7 +11584,7 @@
         <v/>
       </c>
       <c r="U77" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V77" s="0" t="n">
@@ -11596,7 +11596,7 @@
         <v>0</v>
       </c>
       <c r="X77" s="0" t="str">
-        <f aca="true">IF(O77="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S77)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O77="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S77)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -11635,7 +11635,7 @@
         <v/>
       </c>
       <c r="U78" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V78" s="0" t="n">
@@ -11647,7 +11647,7 @@
         <v>0</v>
       </c>
       <c r="X78" s="0" t="str">
-        <f aca="true">IF(O78="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S78)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O78="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S78)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -11686,7 +11686,7 @@
         <v/>
       </c>
       <c r="U79" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V79" s="0" t="n">
@@ -11698,7 +11698,7 @@
         <v>0</v>
       </c>
       <c r="X79" s="0" t="str">
-        <f aca="true">IF(O79="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S79)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O79="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S79)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -11737,7 +11737,7 @@
         <v/>
       </c>
       <c r="U80" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V80" s="0" t="n">
@@ -11749,7 +11749,7 @@
         <v>0</v>
       </c>
       <c r="X80" s="0" t="str">
-        <f aca="true">IF(O80="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S80)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O80="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S80)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -11788,7 +11788,7 @@
         <v/>
       </c>
       <c r="U81" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V81" s="0" t="n">
@@ -11800,7 +11800,7 @@
         <v>0</v>
       </c>
       <c r="X81" s="0" t="str">
-        <f aca="true">IF(O81="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S81)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O81="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S81)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -11839,7 +11839,7 @@
         <v/>
       </c>
       <c r="U82" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V82" s="0" t="n">
@@ -11851,7 +11851,7 @@
         <v>0</v>
       </c>
       <c r="X82" s="0" t="str">
-        <f aca="true">IF(O82="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S82)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O82="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S82)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -11890,7 +11890,7 @@
         <v/>
       </c>
       <c r="U83" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V83" s="0" t="n">
@@ -11902,7 +11902,7 @@
         <v>0</v>
       </c>
       <c r="X83" s="0" t="str">
-        <f aca="true">IF(O83="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S83)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O83="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S83)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -11941,7 +11941,7 @@
         <v/>
       </c>
       <c r="U84" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V84" s="0" t="n">
@@ -11953,7 +11953,7 @@
         <v>0</v>
       </c>
       <c r="X84" s="0" t="str">
-        <f aca="true">IF(O84="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S84)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O84="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S84)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -11992,7 +11992,7 @@
         <v/>
       </c>
       <c r="U85" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V85" s="0" t="n">
@@ -12004,7 +12004,7 @@
         <v>0</v>
       </c>
       <c r="X85" s="0" t="str">
-        <f aca="true">IF(O85="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S85)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O85="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S85)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -12043,7 +12043,7 @@
         <v/>
       </c>
       <c r="U86" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V86" s="0" t="n">
@@ -12055,7 +12055,7 @@
         <v>0</v>
       </c>
       <c r="X86" s="0" t="str">
-        <f aca="true">IF(O86="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S86)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O86="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S86)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -12094,7 +12094,7 @@
         <v/>
       </c>
       <c r="U87" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V87" s="0" t="n">
@@ -12106,7 +12106,7 @@
         <v>0</v>
       </c>
       <c r="X87" s="0" t="str">
-        <f aca="true">IF(O87="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S87)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O87="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S87)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -12145,7 +12145,7 @@
         <v/>
       </c>
       <c r="U88" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V88" s="0" t="n">
@@ -12157,7 +12157,7 @@
         <v>0</v>
       </c>
       <c r="X88" s="0" t="str">
-        <f aca="true">IF(O88="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S88)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O88="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S88)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -12196,7 +12196,7 @@
         <v/>
       </c>
       <c r="U89" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V89" s="0" t="n">
@@ -12208,7 +12208,7 @@
         <v>0</v>
       </c>
       <c r="X89" s="0" t="str">
-        <f aca="true">IF(O89="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S89)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O89="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S89)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -12247,7 +12247,7 @@
         <v/>
       </c>
       <c r="U90" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V90" s="0" t="n">
@@ -12259,7 +12259,7 @@
         <v>0</v>
       </c>
       <c r="X90" s="0" t="str">
-        <f aca="true">IF(O90="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S90)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O90="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S90)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -12298,7 +12298,7 @@
         <v/>
       </c>
       <c r="U91" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V91" s="0" t="n">
@@ -12310,7 +12310,7 @@
         <v>0</v>
       </c>
       <c r="X91" s="0" t="str">
-        <f aca="true">IF(O91="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S91)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O91="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S91)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -12349,7 +12349,7 @@
         <v/>
       </c>
       <c r="U92" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V92" s="0" t="n">
@@ -12361,7 +12361,7 @@
         <v>0</v>
       </c>
       <c r="X92" s="0" t="str">
-        <f aca="true">IF(O92="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S92)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O92="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S92)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -12400,7 +12400,7 @@
         <v/>
       </c>
       <c r="U93" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V93" s="0" t="n">
@@ -12412,7 +12412,7 @@
         <v>0</v>
       </c>
       <c r="X93" s="0" t="str">
-        <f aca="true">IF(O93="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S93)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O93="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S93)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -12451,7 +12451,7 @@
         <v/>
       </c>
       <c r="U94" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V94" s="0" t="n">
@@ -12463,7 +12463,7 @@
         <v>0</v>
       </c>
       <c r="X94" s="0" t="str">
-        <f aca="true">IF(O94="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S94)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O94="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S94)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -12502,7 +12502,7 @@
         <v/>
       </c>
       <c r="U95" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V95" s="0" t="n">
@@ -12514,7 +12514,7 @@
         <v>0</v>
       </c>
       <c r="X95" s="0" t="str">
-        <f aca="true">IF(O95="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S95)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O95="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S95)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -12553,7 +12553,7 @@
         <v/>
       </c>
       <c r="U96" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V96" s="0" t="n">
@@ -12565,7 +12565,7 @@
         <v>0</v>
       </c>
       <c r="X96" s="0" t="str">
-        <f aca="true">IF(O96="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S96)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O96="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S96)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -12604,7 +12604,7 @@
         <v/>
       </c>
       <c r="U97" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V97" s="0" t="n">
@@ -12616,7 +12616,7 @@
         <v>0</v>
       </c>
       <c r="X97" s="0" t="str">
-        <f aca="true">IF(O97="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S97)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O97="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S97)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -12655,7 +12655,7 @@
         <v/>
       </c>
       <c r="U98" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V98" s="0" t="n">
@@ -12667,7 +12667,7 @@
         <v>0</v>
       </c>
       <c r="X98" s="0" t="str">
-        <f aca="true">IF(O98="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S98)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O98="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S98)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -12706,7 +12706,7 @@
         <v/>
       </c>
       <c r="U99" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V99" s="0" t="n">
@@ -12718,7 +12718,7 @@
         <v>0</v>
       </c>
       <c r="X99" s="0" t="str">
-        <f aca="true">IF(O99="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S99)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O99="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S99)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -12757,7 +12757,7 @@
         <v/>
       </c>
       <c r="U100" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V100" s="0" t="n">
@@ -12769,7 +12769,7 @@
         <v>0</v>
       </c>
       <c r="X100" s="0" t="str">
-        <f aca="true">IF(O100="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S100)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O100="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S100)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -12808,7 +12808,7 @@
         <v/>
       </c>
       <c r="U101" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V101" s="0" t="n">
@@ -12820,7 +12820,7 @@
         <v>0</v>
       </c>
       <c r="X101" s="0" t="str">
-        <f aca="true">IF(O101="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S101)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O101="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S101)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -12859,7 +12859,7 @@
         <v/>
       </c>
       <c r="U102" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V102" s="0" t="n">
@@ -12871,7 +12871,7 @@
         <v>0</v>
       </c>
       <c r="X102" s="0" t="str">
-        <f aca="true">IF(O102="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S102)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O102="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S102)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -12910,7 +12910,7 @@
         <v/>
       </c>
       <c r="U103" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V103" s="0" t="n">
@@ -12922,7 +12922,7 @@
         <v>0</v>
       </c>
       <c r="X103" s="0" t="str">
-        <f aca="true">IF(O103="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S103)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O103="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S103)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -12961,7 +12961,7 @@
         <v/>
       </c>
       <c r="U104" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V104" s="0" t="n">
@@ -12973,7 +12973,7 @@
         <v>0</v>
       </c>
       <c r="X104" s="0" t="str">
-        <f aca="true">IF(O104="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S104)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O104="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S104)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -13012,7 +13012,7 @@
         <v/>
       </c>
       <c r="U105" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V105" s="0" t="n">
@@ -13024,7 +13024,7 @@
         <v>0</v>
       </c>
       <c r="X105" s="0" t="str">
-        <f aca="true">IF(O105="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S105)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O105="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S105)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -13063,7 +13063,7 @@
         <v/>
       </c>
       <c r="U106" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V106" s="0" t="n">
@@ -13075,7 +13075,7 @@
         <v>0</v>
       </c>
       <c r="X106" s="0" t="str">
-        <f aca="true">IF(O106="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S106)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O106="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S106)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -13114,7 +13114,7 @@
         <v/>
       </c>
       <c r="U107" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V107" s="0" t="n">
@@ -13126,7 +13126,7 @@
         <v>0</v>
       </c>
       <c r="X107" s="0" t="str">
-        <f aca="true">IF(O107="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S107)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O107="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S107)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -13165,7 +13165,7 @@
         <v/>
       </c>
       <c r="U108" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V108" s="0" t="n">
@@ -13177,7 +13177,7 @@
         <v>0</v>
       </c>
       <c r="X108" s="0" t="str">
-        <f aca="true">IF(O108="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S108)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O108="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S108)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -13216,7 +13216,7 @@
         <v/>
       </c>
       <c r="U109" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V109" s="0" t="n">
@@ -13228,7 +13228,7 @@
         <v>0</v>
       </c>
       <c r="X109" s="0" t="str">
-        <f aca="true">IF(O109="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S109)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O109="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S109)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -13267,7 +13267,7 @@
         <v/>
       </c>
       <c r="U110" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V110" s="0" t="n">
@@ -13279,7 +13279,7 @@
         <v>0</v>
       </c>
       <c r="X110" s="0" t="str">
-        <f aca="true">IF(O110="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S110)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O110="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S110)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -13318,7 +13318,7 @@
         <v/>
       </c>
       <c r="U111" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V111" s="0" t="n">
@@ -13330,7 +13330,7 @@
         <v>0</v>
       </c>
       <c r="X111" s="0" t="str">
-        <f aca="true">IF(O111="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S111)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O111="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S111)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -13369,7 +13369,7 @@
         <v/>
       </c>
       <c r="U112" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V112" s="0" t="n">
@@ -13381,7 +13381,7 @@
         <v>0</v>
       </c>
       <c r="X112" s="0" t="str">
-        <f aca="true">IF(O112="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S112)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O112="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S112)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -13420,7 +13420,7 @@
         <v/>
       </c>
       <c r="U113" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V113" s="0" t="n">
@@ -13432,7 +13432,7 @@
         <v>0</v>
       </c>
       <c r="X113" s="0" t="str">
-        <f aca="true">IF(O113="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S113)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O113="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S113)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -13471,7 +13471,7 @@
         <v/>
       </c>
       <c r="U114" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V114" s="0" t="n">
@@ -13483,7 +13483,7 @@
         <v>0</v>
       </c>
       <c r="X114" s="0" t="str">
-        <f aca="true">IF(O114="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S114)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O114="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S114)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -13522,7 +13522,7 @@
         <v/>
       </c>
       <c r="U115" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V115" s="0" t="n">
@@ -13534,7 +13534,7 @@
         <v>0</v>
       </c>
       <c r="X115" s="0" t="str">
-        <f aca="true">IF(O115="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S115)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O115="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S115)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -13573,7 +13573,7 @@
         <v/>
       </c>
       <c r="U116" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V116" s="0" t="n">
@@ -13585,7 +13585,7 @@
         <v>0</v>
       </c>
       <c r="X116" s="0" t="str">
-        <f aca="true">IF(O116="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S116)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O116="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S116)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -13624,7 +13624,7 @@
         <v/>
       </c>
       <c r="U117" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V117" s="0" t="n">
@@ -13636,7 +13636,7 @@
         <v>0</v>
       </c>
       <c r="X117" s="0" t="str">
-        <f aca="true">IF(O117="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S117)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O117="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S117)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -13675,7 +13675,7 @@
         <v/>
       </c>
       <c r="U118" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V118" s="0" t="n">
@@ -13687,7 +13687,7 @@
         <v>0</v>
       </c>
       <c r="X118" s="0" t="str">
-        <f aca="true">IF(O118="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S118)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O118="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S118)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -13726,7 +13726,7 @@
         <v/>
       </c>
       <c r="U119" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V119" s="0" t="n">
@@ -13738,7 +13738,7 @@
         <v>0</v>
       </c>
       <c r="X119" s="0" t="str">
-        <f aca="true">IF(O119="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S119)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O119="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S119)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -13777,7 +13777,7 @@
         <v/>
       </c>
       <c r="U120" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V120" s="0" t="n">
@@ -13789,7 +13789,7 @@
         <v>0</v>
       </c>
       <c r="X120" s="0" t="str">
-        <f aca="true">IF(O120="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S120)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O120="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S120)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -13828,7 +13828,7 @@
         <v/>
       </c>
       <c r="U121" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V121" s="0" t="n">
@@ -13840,7 +13840,7 @@
         <v>0</v>
       </c>
       <c r="X121" s="0" t="str">
-        <f aca="true">IF(O121="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S121)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O121="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S121)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>
@@ -13879,7 +13879,7 @@
         <v/>
       </c>
       <c r="U122" s="0" t="n">
-        <f aca="false">IF($C$2="", 1, 8000/$C$2)</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V122" s="0" t="n">
@@ -13891,7 +13891,7 @@
         <v>0</v>
       </c>
       <c r="X122" s="0" t="str">
-        <f aca="true">IF(O122="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S122)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(O122="", "", MAX(ROUND(-(INDIRECT("S" &amp; ROW() - 1) - S122)/OFFSET($C$1, 1, 0), 0), 1) * OFFSET($C$1, 1, 0))</f>
         <v/>
       </c>
     </row>

--- a/app/data/static/templates/constructor_mozzarella.xlsx
+++ b/app/data/static/templates/constructor_mozzarella.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="файл остатки" sheetId="1" state="visible" r:id="rId2"/>
@@ -235,12 +235,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -269,7 +276,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -364,6 +371,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -693,7 +704,7 @@
   </sheetPr>
   <dimension ref="A1:X220"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="16" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="Q1" activeCellId="0" sqref="Q1"/>
@@ -15014,13 +15025,13 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N10" activeCellId="0" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="24" width="9.09"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/app/data/static/templates/constructor_mozzarella.xlsx
+++ b/app/data/static/templates/constructor_mozzarella.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krokh\Desktop\umalat\app\data\static\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arsenijkadaner/Downloads/umalat-old/app/data/static/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDF1589-CD09-9C4D-A38D-CB5E46F3FA72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="файл остатки" sheetId="1" r:id="rId1"/>
     <sheet name="планирование суточное" sheetId="2" r:id="rId2"/>
     <sheet name="Вода" sheetId="3" r:id="rId3"/>
     <sheet name="Соль" sheetId="4" r:id="rId4"/>
-    <sheet name="Мойки" sheetId="5" state="hidden" r:id="rId5"/>
+    <sheet name="Мойки" sheetId="5" r:id="rId5"/>
     <sheet name="Дополнительная фасовка" sheetId="6" r:id="rId6"/>
-    <sheet name="Расписание" sheetId="7" r:id="rId7"/>
+    <sheet name="Расписание" sheetId="7" state="hidden" r:id="rId7"/>
     <sheet name="Форм фактор плавления" sheetId="8" state="hidden" r:id="rId8"/>
     <sheet name="Вода SKU" sheetId="9" state="hidden" r:id="rId9"/>
     <sheet name="Соль SKU" sheetId="10" state="hidden" r:id="rId10"/>
@@ -27,8 +28,17 @@
   <definedNames>
     <definedName name="Water_SKU">'Вода SKU'!$A$1:$A$100</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -153,7 +163,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -302,13 +312,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
     <dxf>
       <font>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <charset val="1"/>
       </font>
       <fill>
         <patternFill>
@@ -320,6 +331,7 @@
       <font>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <charset val="1"/>
       </font>
       <fill>
         <patternFill>
@@ -331,6 +343,7 @@
       <font>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <charset val="1"/>
       </font>
       <fill>
         <patternFill>
@@ -342,6 +355,7 @@
       <font>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <charset val="1"/>
       </font>
       <fill>
         <patternFill>
@@ -353,6 +367,7 @@
       <font>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <charset val="1"/>
       </font>
       <fill>
         <patternFill>
@@ -385,6 +400,7 @@
       <font>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <charset val="1"/>
       </font>
       <fill>
         <patternFill>
@@ -396,6 +412,7 @@
       <font>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <charset val="1"/>
       </font>
       <fill>
         <patternFill>
@@ -407,6 +424,7 @@
       <font>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <charset val="1"/>
       </font>
       <fill>
         <patternFill>
@@ -418,6 +436,7 @@
       <font>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <charset val="1"/>
       </font>
       <fill>
         <patternFill>
@@ -429,6 +448,7 @@
       <font>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <charset val="1"/>
       </font>
       <fill>
         <patternFill>
@@ -454,6 +474,7 @@
       <font>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <charset val="1"/>
       </font>
     </dxf>
     <dxf>
@@ -545,9 +566,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -561,7 +582,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -573,7 +594,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -585,7 +606,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -620,6 +641,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -655,9 +693,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -806,16 +861,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="9.08984375" customWidth="1"/>
+    <col min="1" max="1025" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -828,17 +883,17 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.7265625" customWidth="1"/>
-    <col min="2" max="1025" width="8.54296875" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" customWidth="1"/>
+    <col min="2" max="1025" width="8.5" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -847,17 +902,17 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="69.81640625" customWidth="1"/>
-    <col min="2" max="1025" width="8.54296875" customWidth="1"/>
+    <col min="1" max="1" width="69.83203125" customWidth="1"/>
+    <col min="2" max="1025" width="8.5" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -866,7 +921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -874,25 +929,25 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.08984375" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" customWidth="1"/>
-    <col min="4" max="4" width="62.1796875" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" customWidth="1"/>
-    <col min="6" max="8" width="10.26953125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.26953125" customWidth="1"/>
-    <col min="10" max="10" width="18.1796875" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" customWidth="1"/>
-    <col min="12" max="12" width="9.08984375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.08984375" style="2" customWidth="1"/>
-    <col min="14" max="17" width="9.08984375" customWidth="1"/>
-    <col min="18" max="23" width="9.08984375" hidden="1" customWidth="1"/>
-    <col min="24" max="1025" width="9.08984375" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" customWidth="1"/>
+    <col min="4" max="4" width="62.1640625" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="6" max="8" width="10.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
+    <col min="10" max="10" width="18.1640625" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" style="2" customWidth="1"/>
+    <col min="14" max="17" width="9.1640625" customWidth="1"/>
+    <col min="18" max="23" width="9.1640625" hidden="1" customWidth="1"/>
+    <col min="24" max="1025" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -937,7 +992,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="P2" s="8" t="s">
         <v>14</v>
       </c>
@@ -953,43 +1008,40 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X220"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="16" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.54296875" customWidth="1"/>
+    <col min="1" max="1" width="8.5" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" customWidth="1"/>
-    <col min="4" max="5" width="10.36328125" customWidth="1"/>
-    <col min="6" max="7" width="10.26953125" customWidth="1"/>
-    <col min="8" max="8" width="43.1796875" customWidth="1"/>
-    <col min="9" max="9" width="10.26953125" customWidth="1"/>
-    <col min="10" max="11" width="8.7265625" customWidth="1"/>
-    <col min="12" max="12" width="8.7265625" style="9" customWidth="1"/>
-    <col min="13" max="13" width="8.7265625" style="10" customWidth="1"/>
-    <col min="14" max="14" width="8.7265625" style="11" customWidth="1"/>
-    <col min="15" max="15" width="1.81640625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="5.54296875" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="5.453125" hidden="1" customWidth="1"/>
+    <col min="3" max="7" width="10.33203125" customWidth="1"/>
+    <col min="8" max="8" width="43.1640625" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
+    <col min="10" max="11" width="8.6640625" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="9" customWidth="1"/>
+    <col min="13" max="13" width="8.6640625" style="10" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" style="11" customWidth="1"/>
+    <col min="15" max="15" width="1.83203125" hidden="1" customWidth="1"/>
+    <col min="16" max="17" width="5.5" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="5" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="7.54296875" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="3.1796875" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="4.54296875" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="6.7265625" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="8.81640625" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="8.54296875" hidden="1" customWidth="1"/>
-    <col min="25" max="1025" width="8.54296875" customWidth="1"/>
+    <col min="19" max="19" width="7.5" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="3.1640625" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="4.5" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="6.6640625" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="8.83203125" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="8.5" hidden="1" customWidth="1"/>
+    <col min="25" max="1025" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>15</v>
       </c>
@@ -1060,14 +1112,14 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B2" s="16"/>
       <c r="J2" s="9" t="str">
         <f t="shared" ref="J2:J33" ca="1" si="0">IF(M2="", IF(O2="","",X2+(INDIRECT("S" &amp; ROW() - 1) - S2)),IF(O2="", "", INDIRECT("S" &amp; ROW() - 1) - S2))</f>
         <v/>
       </c>
       <c r="K2" s="17" t="str">
-        <f>IF(H2="", "", IF(H2="-","",VLOOKUP(H2, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H2="", "", IF(H2="-","",VLOOKUP(H2, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M2" s="18"/>
@@ -1112,13 +1164,13 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="J3" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K3" s="17" t="str">
-        <f>IF(H3="", "", IF(H3="-","",VLOOKUP(H3, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H3="", "", IF(H3="-","",VLOOKUP(H3, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M3" s="19"/>
@@ -1163,13 +1215,13 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="J4" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K4" s="17" t="str">
-        <f>IF(H4="", "", IF(H4="-","",VLOOKUP(H4, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H4="", "", IF(H4="-","",VLOOKUP(H4, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M4" s="19"/>
@@ -1214,13 +1266,13 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="J5" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K5" s="17" t="str">
-        <f>IF(H5="", "", IF(H5="-","",VLOOKUP(H5, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H5="", "", IF(H5="-","",VLOOKUP(H5, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M5" s="19"/>
@@ -1265,13 +1317,13 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="J6" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K6" s="17" t="str">
-        <f>IF(H6="", "", IF(H6="-","",VLOOKUP(H6, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H6="", "", IF(H6="-","",VLOOKUP(H6, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M6" s="19"/>
@@ -1316,13 +1368,13 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="J7" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K7" s="17" t="str">
-        <f>IF(H7="", "", IF(H7="-","",VLOOKUP(H7, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H7="", "", IF(H7="-","",VLOOKUP(H7, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M7" s="19"/>
@@ -1367,13 +1419,13 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="J8" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K8" s="17" t="str">
-        <f>IF(H8="", "", IF(H8="-","",VLOOKUP(H8, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H8="", "", IF(H8="-","",VLOOKUP(H8, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M8" s="19"/>
@@ -1418,13 +1470,13 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="J9" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K9" s="17" t="str">
-        <f>IF(H9="", "", IF(H9="-","",VLOOKUP(H9, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H9="", "", IF(H9="-","",VLOOKUP(H9, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M9" s="19"/>
@@ -1469,13 +1521,13 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="J10" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K10" s="17" t="str">
-        <f>IF(H10="", "", IF(H10="-","",VLOOKUP(H10, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H10="", "", IF(H10="-","",VLOOKUP(H10, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M10" s="19"/>
@@ -1520,13 +1572,13 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="J11" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K11" s="17" t="str">
-        <f>IF(H11="", "", IF(H11="-","",VLOOKUP(H11, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H11="", "", IF(H11="-","",VLOOKUP(H11, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M11" s="19"/>
@@ -1571,13 +1623,13 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="J12" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K12" s="17" t="str">
-        <f>IF(H12="", "", IF(H12="-","",VLOOKUP(H12, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H12="", "", IF(H12="-","",VLOOKUP(H12, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M12" s="19"/>
@@ -1622,13 +1674,13 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="J13" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K13" s="17" t="str">
-        <f>IF(H13="", "", IF(H13="-","",VLOOKUP(H13, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H13="", "", IF(H13="-","",VLOOKUP(H13, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M13" s="19"/>
@@ -1673,13 +1725,13 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="J14" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K14" s="17" t="str">
-        <f>IF(H14="", "", IF(H14="-","",VLOOKUP(H14, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H14="", "", IF(H14="-","",VLOOKUP(H14, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M14" s="19"/>
@@ -1724,13 +1776,13 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="J15" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K15" s="17" t="str">
-        <f>IF(H15="", "", IF(H15="-","",VLOOKUP(H15, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H15="", "", IF(H15="-","",VLOOKUP(H15, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M15" s="19"/>
@@ -1775,13 +1827,13 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="J16" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K16" s="17" t="str">
-        <f>IF(H16="", "", IF(H16="-","",VLOOKUP(H16, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H16="", "", IF(H16="-","",VLOOKUP(H16, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M16" s="19"/>
@@ -1826,13 +1878,13 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="17" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J17" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K17" s="17" t="str">
-        <f>IF(H17="", "", IF(H17="-","",VLOOKUP(H17, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H17="", "", IF(H17="-","",VLOOKUP(H17, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M17" s="19"/>
@@ -1877,13 +1929,13 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="18" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J18" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K18" s="17" t="str">
-        <f>IF(H18="", "", IF(H18="-","",VLOOKUP(H18, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H18="", "", IF(H18="-","",VLOOKUP(H18, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M18" s="19"/>
@@ -1928,13 +1980,13 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="19" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J19" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K19" s="17" t="str">
-        <f>IF(H19="", "", IF(H19="-","",VLOOKUP(H19, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H19="", "", IF(H19="-","",VLOOKUP(H19, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M19" s="19"/>
@@ -1979,13 +2031,13 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="20" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J20" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K20" s="17" t="str">
-        <f>IF(H20="", "", IF(H20="-","",VLOOKUP(H20, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H20="", "", IF(H20="-","",VLOOKUP(H20, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M20" s="19"/>
@@ -2030,13 +2082,13 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="21" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J21" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K21" s="17" t="str">
-        <f>IF(H21="", "", IF(H21="-","",VLOOKUP(H21, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H21="", "", IF(H21="-","",VLOOKUP(H21, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M21" s="19"/>
@@ -2081,13 +2133,13 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="22" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J22" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K22" s="17" t="str">
-        <f>IF(H22="", "", IF(H22="-","",VLOOKUP(H22, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H22="", "", IF(H22="-","",VLOOKUP(H22, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M22" s="19"/>
@@ -2132,13 +2184,13 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="23" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J23" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K23" s="17" t="str">
-        <f>IF(H23="", "", IF(H23="-","",VLOOKUP(H23, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H23="", "", IF(H23="-","",VLOOKUP(H23, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M23" s="19"/>
@@ -2183,13 +2235,13 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="24" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J24" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K24" s="17" t="str">
-        <f>IF(H24="", "", IF(H24="-","",VLOOKUP(H24, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H24="", "", IF(H24="-","",VLOOKUP(H24, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M24" s="19"/>
@@ -2234,13 +2286,13 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="25" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J25" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K25" s="17" t="str">
-        <f>IF(H25="", "", IF(H25="-","",VLOOKUP(H25, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H25="", "", IF(H25="-","",VLOOKUP(H25, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M25" s="19"/>
@@ -2285,13 +2337,13 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="26" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J26" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K26" s="17" t="str">
-        <f>IF(H26="", "", IF(H26="-","",VLOOKUP(H26, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H26="", "", IF(H26="-","",VLOOKUP(H26, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M26" s="19"/>
@@ -2336,13 +2388,13 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="27" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J27" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K27" s="17" t="str">
-        <f>IF(H27="", "", IF(H27="-","",VLOOKUP(H27, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H27="", "", IF(H27="-","",VLOOKUP(H27, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M27" s="19"/>
@@ -2387,13 +2439,13 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="28" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J28" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K28" s="17" t="str">
-        <f>IF(H28="", "", IF(H28="-","",VLOOKUP(H28, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H28="", "", IF(H28="-","",VLOOKUP(H28, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M28" s="19"/>
@@ -2438,13 +2490,13 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="29" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J29" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K29" s="17" t="str">
-        <f>IF(H29="", "", IF(H29="-","",VLOOKUP(H29, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H29="", "", IF(H29="-","",VLOOKUP(H29, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M29" s="19"/>
@@ -2489,13 +2541,13 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="30" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J30" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K30" s="17" t="str">
-        <f>IF(H30="", "", IF(H30="-","",VLOOKUP(H30, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H30="", "", IF(H30="-","",VLOOKUP(H30, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M30" s="19"/>
@@ -2540,13 +2592,13 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="31" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J31" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K31" s="17" t="str">
-        <f>IF(H31="", "", IF(H31="-","",VLOOKUP(H31, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H31="", "", IF(H31="-","",VLOOKUP(H31, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M31" s="19"/>
@@ -2591,13 +2643,13 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="32" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J32" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K32" s="17" t="str">
-        <f>IF(H32="", "", IF(H32="-","",VLOOKUP(H32, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H32="", "", IF(H32="-","",VLOOKUP(H32, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M32" s="19"/>
@@ -2642,13 +2694,13 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="33" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J33" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K33" s="17" t="str">
-        <f>IF(H33="", "", IF(H33="-","",VLOOKUP(H33, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H33="", "", IF(H33="-","",VLOOKUP(H33, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M33" s="19"/>
@@ -2693,13 +2745,13 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="34" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J34" s="9" t="str">
         <f t="shared" ref="J34:J65" ca="1" si="10">IF(M34="", IF(O34="","",X34+(INDIRECT("S" &amp; ROW() - 1) - S34)),IF(O34="", "", INDIRECT("S" &amp; ROW() - 1) - S34))</f>
         <v/>
       </c>
       <c r="K34" s="17" t="str">
-        <f>IF(H34="", "", IF(H34="-","",VLOOKUP(H34, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H34="", "", IF(H34="-","",VLOOKUP(H34, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M34" s="19"/>
@@ -2744,13 +2796,13 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="35" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J35" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K35" s="17" t="str">
-        <f>IF(H35="", "", IF(H35="-","",VLOOKUP(H35, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H35="", "", IF(H35="-","",VLOOKUP(H35, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M35" s="19"/>
@@ -2795,13 +2847,13 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="36" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J36" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K36" s="17" t="str">
-        <f>IF(H36="", "", IF(H36="-","",VLOOKUP(H36, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H36="", "", IF(H36="-","",VLOOKUP(H36, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M36" s="19"/>
@@ -2846,13 +2898,13 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="37" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J37" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K37" s="17" t="str">
-        <f>IF(H37="", "", IF(H37="-","",VLOOKUP(H37, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H37="", "", IF(H37="-","",VLOOKUP(H37, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M37" s="19"/>
@@ -2897,13 +2949,13 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="38" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J38" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K38" s="17" t="str">
-        <f>IF(H38="", "", IF(H38="-","",VLOOKUP(H38, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H38="", "", IF(H38="-","",VLOOKUP(H38, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M38" s="19"/>
@@ -2948,13 +3000,13 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="39" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J39" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K39" s="17" t="str">
-        <f>IF(H39="", "", IF(H39="-","",VLOOKUP(H39, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H39="", "", IF(H39="-","",VLOOKUP(H39, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M39" s="19"/>
@@ -2999,13 +3051,13 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="40" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J40" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K40" s="17" t="str">
-        <f>IF(H40="", "", IF(H40="-","",VLOOKUP(H40, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H40="", "", IF(H40="-","",VLOOKUP(H40, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M40" s="19"/>
@@ -3050,13 +3102,13 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="41" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J41" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K41" s="17" t="str">
-        <f>IF(H41="", "", IF(H41="-","",VLOOKUP(H41, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H41="", "", IF(H41="-","",VLOOKUP(H41, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M41" s="19"/>
@@ -3101,13 +3153,13 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="42" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J42" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K42" s="17" t="str">
-        <f>IF(H42="", "", IF(H42="-","",VLOOKUP(H42, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H42="", "", IF(H42="-","",VLOOKUP(H42, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M42" s="19"/>
@@ -3152,13 +3204,13 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="43" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J43" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K43" s="17" t="str">
-        <f>IF(H43="", "", IF(H43="-","",VLOOKUP(H43, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H43="", "", IF(H43="-","",VLOOKUP(H43, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M43" s="19"/>
@@ -3203,13 +3255,13 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="44" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J44" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K44" s="17" t="str">
-        <f>IF(H44="", "", IF(H44="-","",VLOOKUP(H44, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H44="", "", IF(H44="-","",VLOOKUP(H44, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M44" s="19"/>
@@ -3254,13 +3306,13 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="45" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J45" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K45" s="17" t="str">
-        <f>IF(H45="", "", IF(H45="-","",VLOOKUP(H45, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H45="", "", IF(H45="-","",VLOOKUP(H45, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M45" s="19"/>
@@ -3305,13 +3357,13 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="46" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J46" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K46" s="17" t="str">
-        <f>IF(H46="", "", IF(H46="-","",VLOOKUP(H46, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H46="", "", IF(H46="-","",VLOOKUP(H46, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M46" s="19"/>
@@ -3356,13 +3408,13 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="47" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J47" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K47" s="17" t="str">
-        <f>IF(H47="", "", IF(H47="-","",VLOOKUP(H47, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H47="", "", IF(H47="-","",VLOOKUP(H47, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M47" s="19"/>
@@ -3407,13 +3459,13 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="48" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J48" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K48" s="17" t="str">
-        <f>IF(H48="", "", IF(H48="-","",VLOOKUP(H48, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H48="", "", IF(H48="-","",VLOOKUP(H48, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M48" s="19"/>
@@ -3458,13 +3510,13 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="49" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J49" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K49" s="17" t="str">
-        <f>IF(H49="", "", IF(H49="-","",VLOOKUP(H49, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H49="", "", IF(H49="-","",VLOOKUP(H49, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M49" s="19"/>
@@ -3509,13 +3561,13 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="50" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J50" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K50" s="17" t="str">
-        <f>IF(H50="", "", IF(H50="-","",VLOOKUP(H50, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H50="", "", IF(H50="-","",VLOOKUP(H50, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M50" s="19"/>
@@ -3560,13 +3612,13 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="51" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J51" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K51" s="17" t="str">
-        <f>IF(H51="", "", IF(H51="-","",VLOOKUP(H51, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H51="", "", IF(H51="-","",VLOOKUP(H51, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M51" s="19"/>
@@ -3611,13 +3663,13 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="52" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J52" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K52" s="17" t="str">
-        <f>IF(H52="", "", IF(H52="-","",VLOOKUP(H52, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H52="", "", IF(H52="-","",VLOOKUP(H52, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M52" s="19"/>
@@ -3662,13 +3714,13 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="53" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J53" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K53" s="17" t="str">
-        <f>IF(H53="", "", IF(H53="-","",VLOOKUP(H53, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H53="", "", IF(H53="-","",VLOOKUP(H53, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M53" s="19"/>
@@ -3713,13 +3765,13 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="54" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J54" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K54" s="17" t="str">
-        <f>IF(H54="", "", IF(H54="-","",VLOOKUP(H54, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H54="", "", IF(H54="-","",VLOOKUP(H54, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M54" s="19"/>
@@ -3764,13 +3816,13 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="55" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J55" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K55" s="17" t="str">
-        <f>IF(H55="", "", IF(H55="-","",VLOOKUP(H55, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H55="", "", IF(H55="-","",VLOOKUP(H55, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M55" s="19"/>
@@ -3815,13 +3867,13 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="56" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J56" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K56" s="17" t="str">
-        <f>IF(H56="", "", IF(H56="-","",VLOOKUP(H56, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H56="", "", IF(H56="-","",VLOOKUP(H56, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M56" s="19"/>
@@ -3866,13 +3918,13 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="57" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J57" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K57" s="17" t="str">
-        <f>IF(H57="", "", IF(H57="-","",VLOOKUP(H57, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H57="", "", IF(H57="-","",VLOOKUP(H57, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M57" s="19"/>
@@ -3917,13 +3969,13 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="58" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J58" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K58" s="17" t="str">
-        <f>IF(H58="", "", IF(H58="-","",VLOOKUP(H58, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H58="", "", IF(H58="-","",VLOOKUP(H58, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M58" s="19"/>
@@ -3968,13 +4020,13 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="59" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J59" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K59" s="17" t="str">
-        <f>IF(H59="", "", IF(H59="-","",VLOOKUP(H59, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H59="", "", IF(H59="-","",VLOOKUP(H59, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M59" s="18"/>
@@ -4019,13 +4071,13 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="60" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J60" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K60" s="17" t="str">
-        <f>IF(H60="", "", IF(H60="-","",VLOOKUP(H60, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H60="", "", IF(H60="-","",VLOOKUP(H60, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M60" s="19"/>
@@ -4070,13 +4122,13 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="61" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J61" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K61" s="17" t="str">
-        <f>IF(H61="", "", IF(H61="-","",VLOOKUP(H61, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H61="", "", IF(H61="-","",VLOOKUP(H61, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M61" s="19"/>
@@ -4121,13 +4173,13 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="62" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J62" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K62" s="17" t="str">
-        <f>IF(H62="", "", IF(H62="-","",VLOOKUP(H62, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H62="", "", IF(H62="-","",VLOOKUP(H62, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M62" s="19"/>
@@ -4172,13 +4224,13 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="63" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J63" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K63" s="17" t="str">
-        <f>IF(H63="", "", IF(H63="-","",VLOOKUP(H63, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H63="", "", IF(H63="-","",VLOOKUP(H63, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M63" s="19"/>
@@ -4223,13 +4275,13 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="64" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J64" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K64" s="17" t="str">
-        <f>IF(H64="", "", IF(H64="-","",VLOOKUP(H64, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H64="", "", IF(H64="-","",VLOOKUP(H64, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M64" s="19"/>
@@ -4274,13 +4326,13 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="65" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J65" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K65" s="17" t="str">
-        <f>IF(H65="", "", IF(H65="-","",VLOOKUP(H65, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H65="", "", IF(H65="-","",VLOOKUP(H65, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M65" s="19"/>
@@ -4325,13 +4377,13 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="66" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J66" s="9" t="str">
         <f t="shared" ref="J66:J97" ca="1" si="20">IF(M66="", IF(O66="","",X66+(INDIRECT("S" &amp; ROW() - 1) - S66)),IF(O66="", "", INDIRECT("S" &amp; ROW() - 1) - S66))</f>
         <v/>
       </c>
       <c r="K66" s="17" t="str">
-        <f>IF(H66="", "", IF(H66="-","",VLOOKUP(H66, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H66="", "", IF(H66="-","",VLOOKUP(H66, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M66" s="19"/>
@@ -4376,13 +4428,13 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="67" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J67" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K67" s="17" t="str">
-        <f>IF(H67="", "", IF(H67="-","",VLOOKUP(H67, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H67="", "", IF(H67="-","",VLOOKUP(H67, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M67" s="19"/>
@@ -4427,13 +4479,13 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="68" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J68" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K68" s="17" t="str">
-        <f>IF(H68="", "", IF(H68="-","",VLOOKUP(H68, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H68="", "", IF(H68="-","",VLOOKUP(H68, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M68" s="19"/>
@@ -4478,13 +4530,13 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="69" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J69" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K69" s="17" t="str">
-        <f>IF(H69="", "", IF(H69="-","",VLOOKUP(H69, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H69="", "", IF(H69="-","",VLOOKUP(H69, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M69" s="19"/>
@@ -4529,13 +4581,13 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="70" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J70" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K70" s="17" t="str">
-        <f>IF(H70="", "", IF(H70="-","",VLOOKUP(H70, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H70="", "", IF(H70="-","",VLOOKUP(H70, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M70" s="19"/>
@@ -4580,13 +4632,13 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="71" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J71" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K71" s="17" t="str">
-        <f>IF(H71="", "", IF(H71="-","",VLOOKUP(H71, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H71="", "", IF(H71="-","",VLOOKUP(H71, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M71" s="19"/>
@@ -4631,13 +4683,13 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="72" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J72" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K72" s="17" t="str">
-        <f>IF(H72="", "", IF(H72="-","",VLOOKUP(H72, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H72="", "", IF(H72="-","",VLOOKUP(H72, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M72" s="19"/>
@@ -4682,13 +4734,13 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="73" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J73" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K73" s="17" t="str">
-        <f>IF(H73="", "", IF(H73="-","",VLOOKUP(H73, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H73="", "", IF(H73="-","",VLOOKUP(H73, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M73" s="19"/>
@@ -4733,13 +4785,13 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="74" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J74" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K74" s="17" t="str">
-        <f>IF(H74="", "", IF(H74="-","",VLOOKUP(H74, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H74="", "", IF(H74="-","",VLOOKUP(H74, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M74" s="19"/>
@@ -4784,13 +4836,13 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="75" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J75" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K75" s="17" t="str">
-        <f>IF(H75="", "", IF(H75="-","",VLOOKUP(H75, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H75="", "", IF(H75="-","",VLOOKUP(H75, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M75" s="19"/>
@@ -4835,13 +4887,13 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="76" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J76" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K76" s="17" t="str">
-        <f>IF(H76="", "", IF(H76="-","",VLOOKUP(H76, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H76="", "", IF(H76="-","",VLOOKUP(H76, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M76" s="19"/>
@@ -4886,13 +4938,13 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="77" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J77" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K77" s="17" t="str">
-        <f>IF(H77="", "", IF(H77="-","",VLOOKUP(H77, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H77="", "", IF(H77="-","",VLOOKUP(H77, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M77" s="19"/>
@@ -4937,13 +4989,13 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="78" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J78" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K78" s="17" t="str">
-        <f>IF(H78="", "", IF(H78="-","",VLOOKUP(H78, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H78="", "", IF(H78="-","",VLOOKUP(H78, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M78" s="19"/>
@@ -4988,13 +5040,13 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="79" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J79" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K79" s="17" t="str">
-        <f>IF(H79="", "", IF(H79="-","",VLOOKUP(H79, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H79="", "", IF(H79="-","",VLOOKUP(H79, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M79" s="19"/>
@@ -5039,13 +5091,13 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="80" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J80" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K80" s="17" t="str">
-        <f>IF(H80="", "", IF(H80="-","",VLOOKUP(H80, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H80="", "", IF(H80="-","",VLOOKUP(H80, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M80" s="19"/>
@@ -5090,13 +5142,13 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="81" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J81" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K81" s="17" t="str">
-        <f>IF(H81="", "", IF(H81="-","",VLOOKUP(H81, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H81="", "", IF(H81="-","",VLOOKUP(H81, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M81" s="19"/>
@@ -5141,13 +5193,13 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="82" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J82" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K82" s="17" t="str">
-        <f>IF(H82="", "", IF(H82="-","",VLOOKUP(H82, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H82="", "", IF(H82="-","",VLOOKUP(H82, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M82" s="19"/>
@@ -5192,13 +5244,13 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="83" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J83" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K83" s="17" t="str">
-        <f>IF(H83="", "", IF(H83="-","",VLOOKUP(H83, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H83="", "", IF(H83="-","",VLOOKUP(H83, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M83" s="19"/>
@@ -5243,13 +5295,13 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="84" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J84" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K84" s="17" t="str">
-        <f>IF(H84="", "", IF(H84="-","",VLOOKUP(H84, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H84="", "", IF(H84="-","",VLOOKUP(H84, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M84" s="19"/>
@@ -5294,13 +5346,13 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="85" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J85" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K85" s="17" t="str">
-        <f>IF(H85="", "", IF(H85="-","",VLOOKUP(H85, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H85="", "", IF(H85="-","",VLOOKUP(H85, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M85" s="19"/>
@@ -5345,13 +5397,13 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="86" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J86" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K86" s="17" t="str">
-        <f>IF(H86="", "", IF(H86="-","",VLOOKUP(H86, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H86="", "", IF(H86="-","",VLOOKUP(H86, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M86" s="19"/>
@@ -5396,13 +5448,13 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="87" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J87" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K87" s="17" t="str">
-        <f>IF(H87="", "", IF(H87="-","",VLOOKUP(H87, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H87="", "", IF(H87="-","",VLOOKUP(H87, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M87" s="19"/>
@@ -5447,13 +5499,13 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="88" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J88" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K88" s="17" t="str">
-        <f>IF(H88="", "", IF(H88="-","",VLOOKUP(H88, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H88="", "", IF(H88="-","",VLOOKUP(H88, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M88" s="19"/>
@@ -5498,13 +5550,13 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="89" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J89" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K89" s="17" t="str">
-        <f>IF(H89="", "", IF(H89="-","",VLOOKUP(H89, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H89="", "", IF(H89="-","",VLOOKUP(H89, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M89" s="19"/>
@@ -5549,13 +5601,13 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="90" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J90" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K90" s="17" t="str">
-        <f>IF(H90="", "", IF(H90="-","",VLOOKUP(H90, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H90="", "", IF(H90="-","",VLOOKUP(H90, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M90" s="19"/>
@@ -5600,13 +5652,13 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="91" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J91" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K91" s="17" t="str">
-        <f>IF(H91="", "", IF(H91="-","",VLOOKUP(H91, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H91="", "", IF(H91="-","",VLOOKUP(H91, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M91" s="19"/>
@@ -5651,13 +5703,13 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="92" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J92" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K92" s="17" t="str">
-        <f>IF(H92="", "", IF(H92="-","",VLOOKUP(H92, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H92="", "", IF(H92="-","",VLOOKUP(H92, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M92" s="19"/>
@@ -5702,13 +5754,13 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="93" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J93" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K93" s="17" t="str">
-        <f>IF(H93="", "", IF(H93="-","",VLOOKUP(H93, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H93="", "", IF(H93="-","",VLOOKUP(H93, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M93" s="19"/>
@@ -5753,13 +5805,13 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="94" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J94" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K94" s="17" t="str">
-        <f>IF(H94="", "", IF(H94="-","",VLOOKUP(H94, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H94="", "", IF(H94="-","",VLOOKUP(H94, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M94" s="19"/>
@@ -5804,13 +5856,13 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="95" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J95" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K95" s="17" t="str">
-        <f>IF(H95="", "", IF(H95="-","",VLOOKUP(H95, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H95="", "", IF(H95="-","",VLOOKUP(H95, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M95" s="19"/>
@@ -5855,13 +5907,13 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="96" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J96" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K96" s="17" t="str">
-        <f>IF(H96="", "", IF(H96="-","",VLOOKUP(H96, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H96="", "", IF(H96="-","",VLOOKUP(H96, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M96" s="19"/>
@@ -5906,13 +5958,13 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="97" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J97" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K97" s="17" t="str">
-        <f>IF(H97="", "", IF(H97="-","",VLOOKUP(H97, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H97="", "", IF(H97="-","",VLOOKUP(H97, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M97" s="19"/>
@@ -5957,13 +6009,13 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="98" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J98" s="9" t="str">
         <f t="shared" ref="J98:J122" ca="1" si="31">IF(M98="", IF(O98="","",X98+(INDIRECT("S" &amp; ROW() - 1) - S98)),IF(O98="", "", INDIRECT("S" &amp; ROW() - 1) - S98))</f>
         <v/>
       </c>
       <c r="K98" s="17" t="str">
-        <f>IF(H98="", "", IF(H98="-","",VLOOKUP(H98, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H98="", "", IF(H98="-","",VLOOKUP(H98, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M98" s="19"/>
@@ -6008,13 +6060,13 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="99" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J99" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="K99" s="17" t="str">
-        <f>IF(H99="", "", IF(H99="-","",VLOOKUP(H99, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H99="", "", IF(H99="-","",VLOOKUP(H99, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M99" s="19"/>
@@ -6059,13 +6111,13 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="100" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J100" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="K100" s="17" t="str">
-        <f>IF(H100="", "", IF(H100="-","",VLOOKUP(H100, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H100="", "", IF(H100="-","",VLOOKUP(H100, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M100" s="19"/>
@@ -6110,13 +6162,13 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="101" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J101" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="K101" s="17" t="str">
-        <f>IF(H101="", "", IF(H101="-","",VLOOKUP(H101, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H101="", "", IF(H101="-","",VLOOKUP(H101, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M101" s="19"/>
@@ -6161,13 +6213,13 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="102" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J102" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="K102" s="17" t="str">
-        <f>IF(H102="", "", IF(H102="-","",VLOOKUP(H102, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H102="", "", IF(H102="-","",VLOOKUP(H102, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M102" s="19"/>
@@ -6212,13 +6264,13 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="103" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J103" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="K103" s="17" t="str">
-        <f>IF(H103="", "", IF(H103="-","",VLOOKUP(H103, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H103="", "", IF(H103="-","",VLOOKUP(H103, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M103" s="19"/>
@@ -6263,13 +6315,13 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="104" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J104" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="K104" s="17" t="str">
-        <f>IF(H104="", "", IF(H104="-","",VLOOKUP(H104, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H104="", "", IF(H104="-","",VLOOKUP(H104, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M104" s="19"/>
@@ -6314,13 +6366,13 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="105" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J105" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="K105" s="17" t="str">
-        <f>IF(H105="", "", IF(H105="-","",VLOOKUP(H105, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H105="", "", IF(H105="-","",VLOOKUP(H105, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M105" s="19"/>
@@ -6365,13 +6417,13 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="106" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J106" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="K106" s="17" t="str">
-        <f>IF(H106="", "", IF(H106="-","",VLOOKUP(H106, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H106="", "", IF(H106="-","",VLOOKUP(H106, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M106" s="19"/>
@@ -6416,13 +6468,13 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="107" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J107" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="K107" s="17" t="str">
-        <f>IF(H107="", "", IF(H107="-","",VLOOKUP(H107, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H107="", "", IF(H107="-","",VLOOKUP(H107, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M107" s="19"/>
@@ -6467,13 +6519,13 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="108" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J108" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="K108" s="17" t="str">
-        <f>IF(H108="", "", IF(H108="-","",VLOOKUP(H108, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H108="", "", IF(H108="-","",VLOOKUP(H108, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M108" s="19"/>
@@ -6518,13 +6570,13 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="109" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J109" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="K109" s="17" t="str">
-        <f>IF(H109="", "", IF(H109="-","",VLOOKUP(H109, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H109="", "", IF(H109="-","",VLOOKUP(H109, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M109" s="19"/>
@@ -6569,13 +6621,13 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="110" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J110" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="K110" s="17" t="str">
-        <f>IF(H110="", "", IF(H110="-","",VLOOKUP(H110, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H110="", "", IF(H110="-","",VLOOKUP(H110, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M110" s="19"/>
@@ -6620,13 +6672,13 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="111" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J111" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="K111" s="17" t="str">
-        <f>IF(H111="", "", IF(H111="-","",VLOOKUP(H111, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H111="", "", IF(H111="-","",VLOOKUP(H111, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M111" s="19"/>
@@ -6671,13 +6723,13 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="112" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J112" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="K112" s="17" t="str">
-        <f>IF(H112="", "", IF(H112="-","",VLOOKUP(H112, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H112="", "", IF(H112="-","",VLOOKUP(H112, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M112" s="19"/>
@@ -6722,13 +6774,13 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="113" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J113" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="K113" s="17" t="str">
-        <f>IF(H113="", "", IF(H113="-","",VLOOKUP(H113, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H113="", "", IF(H113="-","",VLOOKUP(H113, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M113" s="19"/>
@@ -6773,13 +6825,13 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="114" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J114" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="K114" s="17" t="str">
-        <f>IF(H114="", "", IF(H114="-","",VLOOKUP(H114, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H114="", "", IF(H114="-","",VLOOKUP(H114, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M114" s="19"/>
@@ -6824,13 +6876,13 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="115" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J115" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="K115" s="17" t="str">
-        <f>IF(H115="", "", IF(H115="-","",VLOOKUP(H115, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H115="", "", IF(H115="-","",VLOOKUP(H115, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M115" s="19"/>
@@ -6875,13 +6927,13 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="116" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J116" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="K116" s="17" t="str">
-        <f>IF(H116="", "", IF(H116="-","",VLOOKUP(H116, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H116="", "", IF(H116="-","",VLOOKUP(H116, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M116" s="19"/>
@@ -6926,13 +6978,13 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="117" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J117" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="K117" s="17" t="str">
-        <f>IF(H117="", "", IF(H117="-","",VLOOKUP(H117, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H117="", "", IF(H117="-","",VLOOKUP(H117, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M117" s="19"/>
@@ -6977,13 +7029,13 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="118" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J118" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="K118" s="17" t="str">
-        <f>IF(H118="", "", IF(H118="-","",VLOOKUP(H118, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H118="", "", IF(H118="-","",VLOOKUP(H118, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M118" s="19"/>
@@ -7028,13 +7080,13 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="119" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J119" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="K119" s="17" t="str">
-        <f>IF(H119="", "", IF(H119="-","",VLOOKUP(H119, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H119="", "", IF(H119="-","",VLOOKUP(H119, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M119" s="19"/>
@@ -7079,13 +7131,13 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="120" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J120" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="K120" s="17" t="str">
-        <f>IF(H120="", "", IF(H120="-","",VLOOKUP(H120, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H120="", "", IF(H120="-","",VLOOKUP(H120, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M120" s="19"/>
@@ -7130,13 +7182,13 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="121" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J121" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="K121" s="17" t="str">
-        <f>IF(H121="", "", IF(H121="-","",VLOOKUP(H121, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H121="", "", IF(H121="-","",VLOOKUP(H121, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M121" s="19"/>
@@ -7181,13 +7233,13 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="122" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J122" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="K122" s="17" t="str">
-        <f>IF(H122="", "", IF(H122="-","",VLOOKUP(H122, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H122="", "", IF(H122="-","",VLOOKUP(H122, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M122" s="19"/>
@@ -7232,591 +7284,591 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="123" spans="10:24" x14ac:dyDescent="0.2">
       <c r="K123" s="17" t="str">
-        <f>IF(H123="", "", IF(H123="-","",VLOOKUP(H123, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="124" spans="10:24" x14ac:dyDescent="0.35">
+        <f>IF(H123="", "", IF(H123="-","",VLOOKUP(H123, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="10:24" x14ac:dyDescent="0.2">
       <c r="K124" s="17" t="str">
-        <f>IF(H124="", "", IF(H124="-","",VLOOKUP(H124, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="125" spans="10:24" x14ac:dyDescent="0.35">
+        <f>IF(H124="", "", IF(H124="-","",VLOOKUP(H124, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="10:24" x14ac:dyDescent="0.2">
       <c r="K125" s="17" t="str">
-        <f>IF(H125="", "", IF(H125="-","",VLOOKUP(H125, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="126" spans="10:24" x14ac:dyDescent="0.35">
+        <f>IF(H125="", "", IF(H125="-","",VLOOKUP(H125, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="10:24" x14ac:dyDescent="0.2">
       <c r="K126" s="17" t="str">
-        <f>IF(H126="", "", IF(H126="-","",VLOOKUP(H126, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="127" spans="10:24" x14ac:dyDescent="0.35">
+        <f>IF(H126="", "", IF(H126="-","",VLOOKUP(H126, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="10:24" x14ac:dyDescent="0.2">
       <c r="K127" s="17" t="str">
-        <f>IF(H127="", "", IF(H127="-","",VLOOKUP(H127, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="128" spans="10:24" x14ac:dyDescent="0.35">
+        <f>IF(H127="", "", IF(H127="-","",VLOOKUP(H127, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="10:24" x14ac:dyDescent="0.2">
       <c r="K128" s="17" t="str">
-        <f>IF(H128="", "", IF(H128="-","",VLOOKUP(H128, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="129" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H128="", "", IF(H128="-","",VLOOKUP(H128, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K129" s="17" t="str">
-        <f>IF(H129="", "", IF(H129="-","",VLOOKUP(H129, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="130" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H129="", "", IF(H129="-","",VLOOKUP(H129, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K130" s="17" t="str">
-        <f>IF(H130="", "", IF(H130="-","",VLOOKUP(H130, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="131" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H130="", "", IF(H130="-","",VLOOKUP(H130, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K131" s="17" t="str">
-        <f>IF(H131="", "", IF(H131="-","",VLOOKUP(H131, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="132" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H131="", "", IF(H131="-","",VLOOKUP(H131, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K132" s="17" t="str">
-        <f>IF(H132="", "", IF(H132="-","",VLOOKUP(H132, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="133" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H132="", "", IF(H132="-","",VLOOKUP(H132, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K133" s="17" t="str">
-        <f>IF(H133="", "", IF(H133="-","",VLOOKUP(H133, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="134" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H133="", "", IF(H133="-","",VLOOKUP(H133, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K134" s="17" t="str">
-        <f>IF(H134="", "", IF(H134="-","",VLOOKUP(H134, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="135" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H134="", "", IF(H134="-","",VLOOKUP(H134, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K135" s="17" t="str">
-        <f>IF(H135="", "", IF(H135="-","",VLOOKUP(H135, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="136" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H135="", "", IF(H135="-","",VLOOKUP(H135, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K136" s="17" t="str">
-        <f>IF(H136="", "", IF(H136="-","",VLOOKUP(H136, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="137" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H136="", "", IF(H136="-","",VLOOKUP(H136, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K137" s="17" t="str">
-        <f>IF(H137="", "", IF(H137="-","",VLOOKUP(H137, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="138" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H137="", "", IF(H137="-","",VLOOKUP(H137, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K138" s="17" t="str">
-        <f>IF(H138="", "", IF(H138="-","",VLOOKUP(H138, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="139" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H138="", "", IF(H138="-","",VLOOKUP(H138, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K139" s="17" t="str">
-        <f>IF(H139="", "", IF(H139="-","",VLOOKUP(H139, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="140" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H139="", "", IF(H139="-","",VLOOKUP(H139, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K140" s="17" t="str">
-        <f>IF(H140="", "", IF(H140="-","",VLOOKUP(H140, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="141" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H140="", "", IF(H140="-","",VLOOKUP(H140, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K141" s="17" t="str">
-        <f>IF(H141="", "", IF(H141="-","",VLOOKUP(H141, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="142" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H141="", "", IF(H141="-","",VLOOKUP(H141, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K142" s="17" t="str">
-        <f>IF(H142="", "", IF(H142="-","",VLOOKUP(H142, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="143" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H142="", "", IF(H142="-","",VLOOKUP(H142, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K143" s="17" t="str">
-        <f>IF(H143="", "", IF(H143="-","",VLOOKUP(H143, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="144" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H143="", "", IF(H143="-","",VLOOKUP(H143, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K144" s="17" t="str">
-        <f>IF(H144="", "", IF(H144="-","",VLOOKUP(H144, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="145" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H144="", "", IF(H144="-","",VLOOKUP(H144, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K145" s="17" t="str">
-        <f>IF(H145="", "", IF(H145="-","",VLOOKUP(H145, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="146" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H145="", "", IF(H145="-","",VLOOKUP(H145, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K146" s="17" t="str">
-        <f>IF(H146="", "", IF(H146="-","",VLOOKUP(H146, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="147" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H146="", "", IF(H146="-","",VLOOKUP(H146, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K147" s="17" t="str">
-        <f>IF(H147="", "", IF(H147="-","",VLOOKUP(H147, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="148" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H147="", "", IF(H147="-","",VLOOKUP(H147, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K148" s="17" t="str">
-        <f>IF(H148="", "", IF(H148="-","",VLOOKUP(H148, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="149" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H148="", "", IF(H148="-","",VLOOKUP(H148, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K149" s="17" t="str">
-        <f>IF(H149="", "", IF(H149="-","",VLOOKUP(H149, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="150" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H149="", "", IF(H149="-","",VLOOKUP(H149, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K150" s="17" t="str">
-        <f>IF(H150="", "", IF(H150="-","",VLOOKUP(H150, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="151" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H150="", "", IF(H150="-","",VLOOKUP(H150, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K151" s="17" t="str">
-        <f>IF(H151="", "", IF(H151="-","",VLOOKUP(H151, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="152" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H151="", "", IF(H151="-","",VLOOKUP(H151, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K152" s="17" t="str">
-        <f>IF(H152="", "", IF(H152="-","",VLOOKUP(H152, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="153" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H152="", "", IF(H152="-","",VLOOKUP(H152, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K153" s="17" t="str">
-        <f>IF(H153="", "", IF(H153="-","",VLOOKUP(H153, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="154" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H153="", "", IF(H153="-","",VLOOKUP(H153, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K154" s="17" t="str">
-        <f>IF(H154="", "", IF(H154="-","",VLOOKUP(H154, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="155" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H154="", "", IF(H154="-","",VLOOKUP(H154, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K155" s="17" t="str">
-        <f>IF(H155="", "", IF(H155="-","",VLOOKUP(H155, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="156" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H155="", "", IF(H155="-","",VLOOKUP(H155, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K156" s="17" t="str">
-        <f>IF(H156="", "", IF(H156="-","",VLOOKUP(H156, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="157" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H156="", "", IF(H156="-","",VLOOKUP(H156, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K157" s="17" t="str">
-        <f>IF(H157="", "", IF(H157="-","",VLOOKUP(H157, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="158" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H157="", "", IF(H157="-","",VLOOKUP(H157, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K158" s="17" t="str">
-        <f>IF(H158="", "", IF(H158="-","",VLOOKUP(H158, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="159" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H158="", "", IF(H158="-","",VLOOKUP(H158, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K159" s="17" t="str">
-        <f>IF(H159="", "", IF(H159="-","",VLOOKUP(H159, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="160" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H159="", "", IF(H159="-","",VLOOKUP(H159, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K160" s="17" t="str">
-        <f>IF(H160="", "", IF(H160="-","",VLOOKUP(H160, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="161" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H160="", "", IF(H160="-","",VLOOKUP(H160, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K161" s="17" t="str">
-        <f>IF(H161="", "", IF(H161="-","",VLOOKUP(H161, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="162" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H161="", "", IF(H161="-","",VLOOKUP(H161, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K162" s="17" t="str">
-        <f>IF(H162="", "", IF(H162="-","",VLOOKUP(H162, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="163" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H162="", "", IF(H162="-","",VLOOKUP(H162, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K163" s="17" t="str">
-        <f>IF(H163="", "", IF(H163="-","",VLOOKUP(H163, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="164" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H163="", "", IF(H163="-","",VLOOKUP(H163, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K164" s="17" t="str">
-        <f>IF(H164="", "", IF(H164="-","",VLOOKUP(H164, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="165" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H164="", "", IF(H164="-","",VLOOKUP(H164, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K165" s="17" t="str">
-        <f>IF(H165="", "", IF(H165="-","",VLOOKUP(H165, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="166" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H165="", "", IF(H165="-","",VLOOKUP(H165, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K166" s="17" t="str">
-        <f>IF(H166="", "", IF(H166="-","",VLOOKUP(H166, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="167" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H166="", "", IF(H166="-","",VLOOKUP(H166, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K167" s="17" t="str">
-        <f>IF(H167="", "", IF(H167="-","",VLOOKUP(H167, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="168" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H167="", "", IF(H167="-","",VLOOKUP(H167, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K168" s="17" t="str">
-        <f>IF(H168="", "", IF(H168="-","",VLOOKUP(H168, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="169" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H168="", "", IF(H168="-","",VLOOKUP(H168, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K169" s="17" t="str">
-        <f>IF(H169="", "", IF(H169="-","",VLOOKUP(H169, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="170" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H169="", "", IF(H169="-","",VLOOKUP(H169, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K170" s="17" t="str">
-        <f>IF(H170="", "", IF(H170="-","",VLOOKUP(H170, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="171" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H170="", "", IF(H170="-","",VLOOKUP(H170, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K171" s="17" t="str">
-        <f>IF(H171="", "", IF(H171="-","",VLOOKUP(H171, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="172" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H171="", "", IF(H171="-","",VLOOKUP(H171, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K172" s="17" t="str">
-        <f>IF(H172="", "", IF(H172="-","",VLOOKUP(H172, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="173" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H172="", "", IF(H172="-","",VLOOKUP(H172, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K173" s="17" t="str">
-        <f>IF(H173="", "", IF(H173="-","",VLOOKUP(H173, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="174" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H173="", "", IF(H173="-","",VLOOKUP(H173, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K174" s="17" t="str">
-        <f>IF(H174="", "", IF(H174="-","",VLOOKUP(H174, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="175" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H174="", "", IF(H174="-","",VLOOKUP(H174, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K175" s="17" t="str">
-        <f>IF(H175="", "", IF(H175="-","",VLOOKUP(H175, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="176" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H175="", "", IF(H175="-","",VLOOKUP(H175, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K176" s="17" t="str">
-        <f>IF(H176="", "", IF(H176="-","",VLOOKUP(H176, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="177" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H176="", "", IF(H176="-","",VLOOKUP(H176, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K177" s="17" t="str">
-        <f>IF(H177="", "", IF(H177="-","",VLOOKUP(H177, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="178" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H177="", "", IF(H177="-","",VLOOKUP(H177, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K178" s="17" t="str">
-        <f>IF(H178="", "", IF(H178="-","",VLOOKUP(H178, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="179" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H178="", "", IF(H178="-","",VLOOKUP(H178, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K179" s="17" t="str">
-        <f>IF(H179="", "", IF(H179="-","",VLOOKUP(H179, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="180" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H179="", "", IF(H179="-","",VLOOKUP(H179, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K180" s="17" t="str">
-        <f>IF(H180="", "", IF(H180="-","",VLOOKUP(H180, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="181" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H180="", "", IF(H180="-","",VLOOKUP(H180, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K181" s="17" t="str">
-        <f>IF(H181="", "", IF(H181="-","",VLOOKUP(H181, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="182" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H181="", "", IF(H181="-","",VLOOKUP(H181, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K182" s="17" t="str">
-        <f>IF(H182="", "", IF(H182="-","",VLOOKUP(H182, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="183" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H182="", "", IF(H182="-","",VLOOKUP(H182, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K183" s="17" t="str">
-        <f>IF(H183="", "", IF(H183="-","",VLOOKUP(H183, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="184" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H183="", "", IF(H183="-","",VLOOKUP(H183, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K184" s="17" t="str">
-        <f>IF(H184="", "", IF(H184="-","",VLOOKUP(H184, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="185" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H184="", "", IF(H184="-","",VLOOKUP(H184, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K185" s="17" t="str">
-        <f>IF(H185="", "", IF(H185="-","",VLOOKUP(H185, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="186" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H185="", "", IF(H185="-","",VLOOKUP(H185, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K186" s="17" t="str">
-        <f>IF(H186="", "", IF(H186="-","",VLOOKUP(H186, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="187" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H186="", "", IF(H186="-","",VLOOKUP(H186, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K187" s="17" t="str">
-        <f>IF(H187="", "", IF(H187="-","",VLOOKUP(H187, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="188" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H187="", "", IF(H187="-","",VLOOKUP(H187, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K188" s="17" t="str">
-        <f>IF(H188="", "", IF(H188="-","",VLOOKUP(H188, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="189" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H188="", "", IF(H188="-","",VLOOKUP(H188, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K189" s="17" t="str">
-        <f>IF(H189="", "", IF(H189="-","",VLOOKUP(H189, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="190" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H189="", "", IF(H189="-","",VLOOKUP(H189, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K190" s="17" t="str">
-        <f>IF(H190="", "", IF(H190="-","",VLOOKUP(H190, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="191" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H190="", "", IF(H190="-","",VLOOKUP(H190, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K191" s="17" t="str">
-        <f>IF(H191="", "", IF(H191="-","",VLOOKUP(H191, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="192" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H191="", "", IF(H191="-","",VLOOKUP(H191, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K192" s="17" t="str">
-        <f>IF(H192="", "", IF(H192="-","",VLOOKUP(H192, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="193" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H192="", "", IF(H192="-","",VLOOKUP(H192, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K193" s="17" t="str">
-        <f>IF(H193="", "", IF(H193="-","",VLOOKUP(H193, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="194" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H193="", "", IF(H193="-","",VLOOKUP(H193, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K194" s="17" t="str">
-        <f>IF(H194="", "", IF(H194="-","",VLOOKUP(H194, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="195" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H194="", "", IF(H194="-","",VLOOKUP(H194, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K195" s="17" t="str">
-        <f>IF(H195="", "", IF(H195="-","",VLOOKUP(H195, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="196" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H195="", "", IF(H195="-","",VLOOKUP(H195, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K196" s="17" t="str">
-        <f>IF(H196="", "", IF(H196="-","",VLOOKUP(H196, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="197" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H196="", "", IF(H196="-","",VLOOKUP(H196, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K197" s="17" t="str">
-        <f>IF(H197="", "", IF(H197="-","",VLOOKUP(H197, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="198" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H197="", "", IF(H197="-","",VLOOKUP(H197, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K198" s="17" t="str">
-        <f>IF(H198="", "", IF(H198="-","",VLOOKUP(H198, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="199" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H198="", "", IF(H198="-","",VLOOKUP(H198, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K199" s="17" t="str">
-        <f>IF(H199="", "", IF(H199="-","",VLOOKUP(H199, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="200" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H199="", "", IF(H199="-","",VLOOKUP(H199, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K200" s="17" t="str">
-        <f>IF(H200="", "", IF(H200="-","",VLOOKUP(H200, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="201" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H200="", "", IF(H200="-","",VLOOKUP(H200, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K201" s="17" t="str">
-        <f>IF(H201="", "", IF(H201="-","",VLOOKUP(H201, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="202" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H201="", "", IF(H201="-","",VLOOKUP(H201, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="202" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K202" s="17" t="str">
-        <f>IF(H202="", "", IF(H202="-","",VLOOKUP(H202, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="203" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H202="", "", IF(H202="-","",VLOOKUP(H202, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K203" s="17" t="str">
-        <f>IF(H203="", "", IF(H203="-","",VLOOKUP(H203, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="204" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H203="", "", IF(H203="-","",VLOOKUP(H203, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="204" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K204" s="17" t="str">
-        <f>IF(H204="", "", IF(H204="-","",VLOOKUP(H204, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="205" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H204="", "", IF(H204="-","",VLOOKUP(H204, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="205" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K205" s="17" t="str">
-        <f>IF(H205="", "", IF(H205="-","",VLOOKUP(H205, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="206" spans="11:11" x14ac:dyDescent="0.35">
-      <c r="K206" s="9" t="str">
-        <f>IF(H206="", "", IF(H206="-","",VLOOKUP(H206, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="207" spans="11:11" x14ac:dyDescent="0.35">
-      <c r="K207" s="9" t="str">
-        <f>IF(H207="", "", IF(H207="-","",VLOOKUP(H207, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="208" spans="11:11" x14ac:dyDescent="0.35">
-      <c r="K208" s="9" t="str">
-        <f>IF(H208="", "", IF(H208="-","",VLOOKUP(H208, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="209" spans="11:11" x14ac:dyDescent="0.35">
-      <c r="K209" s="9" t="str">
-        <f>IF(H209="", "", IF(H209="-","",VLOOKUP(H209, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="210" spans="11:11" x14ac:dyDescent="0.35">
-      <c r="K210" s="9" t="str">
-        <f>IF(H210="", "", IF(H210="-","",VLOOKUP(H210, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="211" spans="11:11" x14ac:dyDescent="0.35">
-      <c r="K211" s="9" t="str">
-        <f>IF(H211="", "", IF(H211="-","",VLOOKUP(H211, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="212" spans="11:11" x14ac:dyDescent="0.35">
-      <c r="K212" s="9" t="str">
-        <f>IF(H212="", "", IF(H212="-","",VLOOKUP(H212, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="213" spans="11:11" x14ac:dyDescent="0.35">
-      <c r="K213" s="9" t="str">
-        <f>IF(H213="", "", IF(H213="-","",VLOOKUP(H213, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="214" spans="11:11" x14ac:dyDescent="0.35">
-      <c r="K214" s="9" t="str">
-        <f>IF(H214="", "", IF(H214="-","",VLOOKUP(H214, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="215" spans="11:11" x14ac:dyDescent="0.35">
-      <c r="K215" s="9" t="str">
-        <f>IF(H215="", "", IF(H215="-","",VLOOKUP(H215, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="216" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H205="", "", IF(H205="-","",VLOOKUP(H205, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K206" s="17" t="str">
+        <f>IF(H206="", "", IF(H206="-","",VLOOKUP(H206, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="207" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K207" s="17" t="str">
+        <f>IF(H207="", "", IF(H207="-","",VLOOKUP(H207, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="208" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K208" s="17" t="str">
+        <f>IF(H208="", "", IF(H208="-","",VLOOKUP(H208, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K209" s="17" t="str">
+        <f>IF(H209="", "", IF(H209="-","",VLOOKUP(H209, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="210" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K210" s="17" t="str">
+        <f>IF(H210="", "", IF(H210="-","",VLOOKUP(H210, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K211" s="17" t="str">
+        <f>IF(H211="", "", IF(H211="-","",VLOOKUP(H211, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="212" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K212" s="17" t="str">
+        <f>IF(H212="", "", IF(H212="-","",VLOOKUP(H212, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K213" s="17" t="str">
+        <f>IF(H213="", "", IF(H213="-","",VLOOKUP(H213, 'Вода SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="214" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K214" s="17" t="str">
+        <f>IF(H214="", "", IF(H214="-","",VLOOKUP(H214, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K215" s="17" t="str">
+        <f>IF(H215="", "", IF(H215="-","",VLOOKUP(H215, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K216" s="9" t="str">
         <f>IF(H216="", "", IF(H216="-","",VLOOKUP(H216, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="217" spans="11:11" x14ac:dyDescent="0.35">
+    <row r="217" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K217" s="9" t="str">
         <f>IF(H217="", "", IF(H217="-","",VLOOKUP(H217, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="218" spans="11:11" x14ac:dyDescent="0.35">
+    <row r="218" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K218" s="9" t="str">
         <f>IF(H218="", "", IF(H218="-","",VLOOKUP(H218, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="219" spans="11:11" x14ac:dyDescent="0.35">
+    <row r="219" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K219" s="9" t="str">
         <f>IF(H219="", "", IF(H219="-","",VLOOKUP(H219, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="220" spans="11:11" x14ac:dyDescent="0.35">
-      <c r="K220" s="9" t="str">
-        <f>IF(H220="", "", IF(H220="-","",VLOOKUP(H220, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+    <row r="220" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K220" s="17" t="str">
+        <f>IF(H195="", "", IF(H195="-","",VLOOKUP(H195, 'Вода SKU'!$A$1:$C$100, 3, 0)))</f>
         <v/>
       </c>
     </row>
@@ -7853,7 +7905,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
           <x14:formula1>
             <xm:f>'Типы варок'!$A$1:$A$102</xm:f>
           </x14:formula1>
@@ -7862,7 +7914,7 @@
           </x14:formula2>
           <xm:sqref>B2:B122</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
             <xm:f>'Форм фактор плавления'!$A$1:$A$25</xm:f>
           </x14:formula1>
@@ -7871,7 +7923,7 @@
           </x14:formula2>
           <xm:sqref>E2:F122</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
           <x14:formula1>
             <xm:f>Мойки!$A$1:$A$3</xm:f>
           </x14:formula1>
@@ -7880,7 +7932,7 @@
           </x14:formula2>
           <xm:sqref>L1:L122</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000003000000}">
           <x14:formula1>
             <xm:f>'Вода SKU'!$A$1:$A$137</xm:f>
           </x14:formula1>
@@ -7896,41 +7948,38 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X287"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.54296875" customWidth="1"/>
+    <col min="1" max="1" width="8.5" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" customWidth="1"/>
-    <col min="4" max="5" width="10.36328125" customWidth="1"/>
-    <col min="6" max="7" width="10.26953125" customWidth="1"/>
-    <col min="8" max="8" width="43.1796875" customWidth="1"/>
-    <col min="9" max="9" width="10.26953125" customWidth="1"/>
-    <col min="10" max="11" width="8.7265625" customWidth="1"/>
-    <col min="12" max="12" width="8.7265625" style="9" customWidth="1"/>
-    <col min="13" max="13" width="8.7265625" style="20" customWidth="1"/>
-    <col min="14" max="14" width="8.7265625" style="21" customWidth="1"/>
-    <col min="15" max="15" width="1.81640625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="5.54296875" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="5.453125" hidden="1" customWidth="1"/>
+    <col min="3" max="7" width="10.33203125" customWidth="1"/>
+    <col min="8" max="8" width="43.1640625" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
+    <col min="10" max="11" width="8.6640625" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="9" customWidth="1"/>
+    <col min="13" max="13" width="8.6640625" style="20" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" style="21" customWidth="1"/>
+    <col min="15" max="15" width="1.83203125" hidden="1" customWidth="1"/>
+    <col min="16" max="17" width="5.5" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="5" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="7.54296875" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="3.1796875" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="6.6328125" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="14.54296875" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="3.1640625" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="6.6640625" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="12" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="8.54296875" hidden="1" customWidth="1"/>
-    <col min="25" max="1025" width="8.54296875" customWidth="1"/>
+    <col min="24" max="24" width="8.5" hidden="1" customWidth="1"/>
+    <col min="25" max="1025" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>15</v>
       </c>
@@ -8001,13 +8050,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="J2" s="9" t="str">
         <f t="shared" ref="J2:J33" ca="1" si="0">IF(M2="", IF(O2="","",X2+(INDIRECT("S" &amp; ROW() - 1) - S2)),IF(O2="", "", INDIRECT("S" &amp; ROW() - 1) - S2))</f>
         <v/>
       </c>
       <c r="K2" s="17" t="str">
-        <f>IF(H2="", "", IF(H2="-","",VLOOKUP(H2, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H2="", "", IF(H2="-","",VLOOKUP(H2, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M2" s="18"/>
@@ -8052,13 +8101,13 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="J3" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K3" s="17" t="str">
-        <f>IF(H3="", "", IF(H3="-","",VLOOKUP(H3, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H3="", "", IF(H3="-","",VLOOKUP(H3, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M3" s="19"/>
@@ -8103,13 +8152,13 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="J4" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K4" s="17" t="str">
-        <f>IF(H4="", "", IF(H4="-","",VLOOKUP(H4, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H4="", "", IF(H4="-","",VLOOKUP(H4, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M4" s="19"/>
@@ -8154,13 +8203,13 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="J5" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K5" s="17" t="str">
-        <f>IF(H5="", "", IF(H5="-","",VLOOKUP(H5, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H5="", "", IF(H5="-","",VLOOKUP(H5, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M5" s="19"/>
@@ -8205,13 +8254,13 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="J6" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K6" s="17" t="str">
-        <f>IF(H6="", "", IF(H6="-","",VLOOKUP(H6, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H6="", "", IF(H6="-","",VLOOKUP(H6, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M6" s="19"/>
@@ -8256,13 +8305,13 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="J7" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K7" s="17" t="str">
-        <f>IF(H7="", "", IF(H7="-","",VLOOKUP(H7, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H7="", "", IF(H7="-","",VLOOKUP(H7, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M7" s="19"/>
@@ -8307,13 +8356,13 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="J8" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K8" s="17" t="str">
-        <f>IF(H8="", "", IF(H8="-","",VLOOKUP(H8, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H8="", "", IF(H8="-","",VLOOKUP(H8, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M8" s="19"/>
@@ -8358,13 +8407,13 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="J9" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K9" s="17" t="str">
-        <f>IF(H9="", "", IF(H9="-","",VLOOKUP(H9, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H9="", "", IF(H9="-","",VLOOKUP(H9, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M9" s="19"/>
@@ -8409,13 +8458,13 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="J10" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K10" s="17" t="str">
-        <f>IF(H10="", "", IF(H10="-","",VLOOKUP(H10, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H10="", "", IF(H10="-","",VLOOKUP(H10, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M10" s="19"/>
@@ -8460,13 +8509,13 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="J11" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K11" s="17" t="str">
-        <f>IF(H11="", "", IF(H11="-","",VLOOKUP(H11, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H11="", "", IF(H11="-","",VLOOKUP(H11, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M11" s="19"/>
@@ -8511,13 +8560,13 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="J12" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K12" s="17" t="str">
-        <f>IF(H12="", "", IF(H12="-","",VLOOKUP(H12, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H12="", "", IF(H12="-","",VLOOKUP(H12, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M12" s="19"/>
@@ -8562,13 +8611,13 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="J13" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K13" s="17" t="str">
-        <f>IF(H13="", "", IF(H13="-","",VLOOKUP(H13, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H13="", "", IF(H13="-","",VLOOKUP(H13, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M13" s="19"/>
@@ -8613,13 +8662,13 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="J14" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K14" s="17" t="str">
-        <f>IF(H14="", "", IF(H14="-","",VLOOKUP(H14, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H14="", "", IF(H14="-","",VLOOKUP(H14, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M14" s="19"/>
@@ -8664,13 +8713,13 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="J15" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K15" s="17" t="str">
-        <f>IF(H15="", "", IF(H15="-","",VLOOKUP(H15, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H15="", "", IF(H15="-","",VLOOKUP(H15, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M15" s="19"/>
@@ -8715,13 +8764,13 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="J16" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K16" s="17" t="str">
-        <f>IF(H16="", "", IF(H16="-","",VLOOKUP(H16, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H16="", "", IF(H16="-","",VLOOKUP(H16, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M16" s="19"/>
@@ -8766,13 +8815,13 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="17" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J17" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K17" s="17" t="str">
-        <f>IF(H17="", "", IF(H17="-","",VLOOKUP(H17, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H17="", "", IF(H17="-","",VLOOKUP(H17, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M17" s="19"/>
@@ -8817,13 +8866,13 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="18" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J18" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K18" s="17" t="str">
-        <f>IF(H18="", "", IF(H18="-","",VLOOKUP(H18, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H18="", "", IF(H18="-","",VLOOKUP(H18, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M18" s="19"/>
@@ -8868,13 +8917,13 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="19" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J19" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K19" s="17" t="str">
-        <f>IF(H19="", "", IF(H19="-","",VLOOKUP(H19, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H19="", "", IF(H19="-","",VLOOKUP(H19, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M19" s="19"/>
@@ -8919,13 +8968,13 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="20" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J20" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K20" s="17" t="str">
-        <f>IF(H20="", "", IF(H20="-","",VLOOKUP(H20, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H20="", "", IF(H20="-","",VLOOKUP(H20, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M20" s="19"/>
@@ -8970,13 +9019,13 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="21" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J21" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K21" s="17" t="str">
-        <f>IF(H21="", "", IF(H21="-","",VLOOKUP(H21, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H21="", "", IF(H21="-","",VLOOKUP(H21, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M21" s="19"/>
@@ -9021,13 +9070,13 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="22" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J22" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K22" s="17" t="str">
-        <f>IF(H22="", "", IF(H22="-","",VLOOKUP(H22, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H22="", "", IF(H22="-","",VLOOKUP(H22, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M22" s="19"/>
@@ -9072,13 +9121,13 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="23" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J23" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K23" s="17" t="str">
-        <f>IF(H23="", "", IF(H23="-","",VLOOKUP(H23, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H23="", "", IF(H23="-","",VLOOKUP(H23, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M23" s="19"/>
@@ -9123,13 +9172,13 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="24" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J24" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K24" s="17" t="str">
-        <f>IF(H24="", "", IF(H24="-","",VLOOKUP(H24, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H24="", "", IF(H24="-","",VLOOKUP(H24, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M24" s="19"/>
@@ -9174,13 +9223,13 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="25" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J25" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K25" s="17" t="str">
-        <f>IF(H25="", "", IF(H25="-","",VLOOKUP(H25, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H25="", "", IF(H25="-","",VLOOKUP(H25, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M25" s="19"/>
@@ -9225,13 +9274,13 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="26" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J26" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K26" s="17" t="str">
-        <f>IF(H26="", "", IF(H26="-","",VLOOKUP(H26, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H26="", "", IF(H26="-","",VLOOKUP(H26, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M26" s="19"/>
@@ -9276,13 +9325,13 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="27" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J27" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K27" s="17" t="str">
-        <f>IF(H27="", "", IF(H27="-","",VLOOKUP(H27, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H27="", "", IF(H27="-","",VLOOKUP(H27, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M27" s="19"/>
@@ -9327,13 +9376,13 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="28" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J28" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K28" s="17" t="str">
-        <f>IF(H28="", "", IF(H28="-","",VLOOKUP(H28, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H28="", "", IF(H28="-","",VLOOKUP(H28, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M28" s="19"/>
@@ -9378,13 +9427,13 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="29" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J29" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K29" s="17" t="str">
-        <f>IF(H29="", "", IF(H29="-","",VLOOKUP(H29, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H29="", "", IF(H29="-","",VLOOKUP(H29, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M29" s="19"/>
@@ -9429,13 +9478,13 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="30" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J30" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K30" s="17" t="str">
-        <f>IF(H30="", "", IF(H30="-","",VLOOKUP(H30, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H30="", "", IF(H30="-","",VLOOKUP(H30, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M30" s="19"/>
@@ -9480,13 +9529,13 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="31" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J31" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K31" s="17" t="str">
-        <f>IF(H31="", "", IF(H31="-","",VLOOKUP(H31, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H31="", "", IF(H31="-","",VLOOKUP(H31, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M31" s="19"/>
@@ -9531,13 +9580,13 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="32" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J32" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K32" s="17" t="str">
-        <f>IF(H32="", "", IF(H32="-","",VLOOKUP(H32, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H32="", "", IF(H32="-","",VLOOKUP(H32, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M32" s="19"/>
@@ -9582,13 +9631,13 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="33" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J33" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K33" s="17" t="str">
-        <f>IF(H33="", "", IF(H33="-","",VLOOKUP(H33, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H33="", "", IF(H33="-","",VLOOKUP(H33, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M33" s="19"/>
@@ -9633,13 +9682,13 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="34" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J34" s="9" t="str">
         <f t="shared" ref="J34:J65" ca="1" si="10">IF(M34="", IF(O34="","",X34+(INDIRECT("S" &amp; ROW() - 1) - S34)),IF(O34="", "", INDIRECT("S" &amp; ROW() - 1) - S34))</f>
         <v/>
       </c>
       <c r="K34" s="17" t="str">
-        <f>IF(H34="", "", IF(H34="-","",VLOOKUP(H34, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H34="", "", IF(H34="-","",VLOOKUP(H34, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M34" s="19"/>
@@ -9684,13 +9733,13 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="35" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J35" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K35" s="17" t="str">
-        <f>IF(H35="", "", IF(H35="-","",VLOOKUP(H35, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H35="", "", IF(H35="-","",VLOOKUP(H35, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M35" s="19"/>
@@ -9735,13 +9784,13 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="36" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J36" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K36" s="17" t="str">
-        <f>IF(H36="", "", IF(H36="-","",VLOOKUP(H36, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H36="", "", IF(H36="-","",VLOOKUP(H36, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M36" s="19"/>
@@ -9786,13 +9835,13 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="37" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J37" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K37" s="17" t="str">
-        <f>IF(H37="", "", IF(H37="-","",VLOOKUP(H37, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H37="", "", IF(H37="-","",VLOOKUP(H37, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M37" s="19"/>
@@ -9837,13 +9886,13 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="38" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J38" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K38" s="17" t="str">
-        <f>IF(H38="", "", IF(H38="-","",VLOOKUP(H38, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H38="", "", IF(H38="-","",VLOOKUP(H38, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M38" s="19"/>
@@ -9888,13 +9937,13 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="39" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J39" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K39" s="17" t="str">
-        <f>IF(H39="", "", IF(H39="-","",VLOOKUP(H39, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H39="", "", IF(H39="-","",VLOOKUP(H39, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M39" s="19"/>
@@ -9939,13 +9988,13 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="40" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J40" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K40" s="17" t="str">
-        <f>IF(H40="", "", IF(H40="-","",VLOOKUP(H40, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H40="", "", IF(H40="-","",VLOOKUP(H40, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M40" s="19"/>
@@ -9990,13 +10039,13 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="41" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J41" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K41" s="17" t="str">
-        <f>IF(H41="", "", IF(H41="-","",VLOOKUP(H41, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H41="", "", IF(H41="-","",VLOOKUP(H41, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M41" s="19"/>
@@ -10041,13 +10090,13 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="42" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J42" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K42" s="17" t="str">
-        <f>IF(H42="", "", IF(H42="-","",VLOOKUP(H42, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H42="", "", IF(H42="-","",VLOOKUP(H42, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M42" s="19"/>
@@ -10092,13 +10141,13 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="43" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J43" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K43" s="17" t="str">
-        <f>IF(H43="", "", IF(H43="-","",VLOOKUP(H43, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H43="", "", IF(H43="-","",VLOOKUP(H43, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M43" s="19"/>
@@ -10143,13 +10192,13 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="44" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J44" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K44" s="17" t="str">
-        <f>IF(H44="", "", IF(H44="-","",VLOOKUP(H44, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H44="", "", IF(H44="-","",VLOOKUP(H44, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M44" s="19"/>
@@ -10194,13 +10243,13 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="45" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J45" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K45" s="17" t="str">
-        <f>IF(H45="", "", IF(H45="-","",VLOOKUP(H45, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H45="", "", IF(H45="-","",VLOOKUP(H45, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M45" s="19"/>
@@ -10245,13 +10294,13 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="46" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J46" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K46" s="17" t="str">
-        <f>IF(H46="", "", IF(H46="-","",VLOOKUP(H46, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H46="", "", IF(H46="-","",VLOOKUP(H46, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M46" s="19"/>
@@ -10296,13 +10345,13 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="47" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J47" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K47" s="17" t="str">
-        <f>IF(H47="", "", IF(H47="-","",VLOOKUP(H47, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H47="", "", IF(H47="-","",VLOOKUP(H47, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M47" s="19"/>
@@ -10347,13 +10396,13 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="48" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J48" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K48" s="17" t="str">
-        <f>IF(H48="", "", IF(H48="-","",VLOOKUP(H48, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H48="", "", IF(H48="-","",VLOOKUP(H48, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M48" s="19"/>
@@ -10398,13 +10447,13 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="49" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J49" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K49" s="17" t="str">
-        <f>IF(H49="", "", IF(H49="-","",VLOOKUP(H49, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H49="", "", IF(H49="-","",VLOOKUP(H49, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M49" s="19"/>
@@ -10449,13 +10498,13 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="50" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J50" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K50" s="17" t="str">
-        <f>IF(H50="", "", IF(H50="-","",VLOOKUP(H50, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H50="", "", IF(H50="-","",VLOOKUP(H50, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M50" s="19"/>
@@ -10500,13 +10549,13 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="51" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J51" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K51" s="17" t="str">
-        <f>IF(H51="", "", IF(H51="-","",VLOOKUP(H51, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H51="", "", IF(H51="-","",VLOOKUP(H51, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M51" s="19"/>
@@ -10551,13 +10600,13 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="52" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J52" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K52" s="17" t="str">
-        <f>IF(H52="", "", IF(H52="-","",VLOOKUP(H52, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H52="", "", IF(H52="-","",VLOOKUP(H52, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M52" s="19"/>
@@ -10602,13 +10651,13 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="53" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J53" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K53" s="17" t="str">
-        <f>IF(H53="", "", IF(H53="-","",VLOOKUP(H53, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H53="", "", IF(H53="-","",VLOOKUP(H53, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M53" s="19"/>
@@ -10653,13 +10702,13 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="54" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J54" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K54" s="17" t="str">
-        <f>IF(H54="", "", IF(H54="-","",VLOOKUP(H54, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H54="", "", IF(H54="-","",VLOOKUP(H54, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M54" s="19"/>
@@ -10704,13 +10753,13 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="55" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J55" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K55" s="17" t="str">
-        <f>IF(H55="", "", IF(H55="-","",VLOOKUP(H55, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H55="", "", IF(H55="-","",VLOOKUP(H55, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M55" s="19"/>
@@ -10755,13 +10804,13 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="56" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J56" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K56" s="17" t="str">
-        <f>IF(H56="", "", IF(H56="-","",VLOOKUP(H56, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H56="", "", IF(H56="-","",VLOOKUP(H56, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M56" s="19"/>
@@ -10806,13 +10855,13 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="57" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J57" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K57" s="17" t="str">
-        <f>IF(H57="", "", IF(H57="-","",VLOOKUP(H57, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H57="", "", IF(H57="-","",VLOOKUP(H57, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M57" s="19"/>
@@ -10857,13 +10906,13 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="58" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J58" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K58" s="17" t="str">
-        <f>IF(H58="", "", IF(H58="-","",VLOOKUP(H58, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H58="", "", IF(H58="-","",VLOOKUP(H58, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M58" s="19"/>
@@ -10908,13 +10957,13 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="59" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J59" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K59" s="17" t="str">
-        <f>IF(H59="", "", IF(H59="-","",VLOOKUP(H59, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H59="", "", IF(H59="-","",VLOOKUP(H59, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M59" s="18"/>
@@ -10959,13 +11008,13 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="60" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J60" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K60" s="17" t="str">
-        <f>IF(H60="", "", IF(H60="-","",VLOOKUP(H60, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H60="", "", IF(H60="-","",VLOOKUP(H60, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M60" s="19"/>
@@ -11010,13 +11059,13 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="61" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J61" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K61" s="17" t="str">
-        <f>IF(H61="", "", IF(H61="-","",VLOOKUP(H61, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H61="", "", IF(H61="-","",VLOOKUP(H61, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M61" s="19"/>
@@ -11061,13 +11110,13 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="62" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J62" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K62" s="17" t="str">
-        <f>IF(H62="", "", IF(H62="-","",VLOOKUP(H62, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H62="", "", IF(H62="-","",VLOOKUP(H62, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M62" s="19"/>
@@ -11112,13 +11161,13 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="63" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J63" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K63" s="17" t="str">
-        <f>IF(H63="", "", IF(H63="-","",VLOOKUP(H63, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H63="", "", IF(H63="-","",VLOOKUP(H63, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M63" s="19"/>
@@ -11163,13 +11212,13 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="64" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J64" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K64" s="17" t="str">
-        <f>IF(H64="", "", IF(H64="-","",VLOOKUP(H64, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H64="", "", IF(H64="-","",VLOOKUP(H64, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M64" s="19"/>
@@ -11214,13 +11263,13 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="65" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J65" s="9" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K65" s="17" t="str">
-        <f>IF(H65="", "", IF(H65="-","",VLOOKUP(H65, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H65="", "", IF(H65="-","",VLOOKUP(H65, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M65" s="19"/>
@@ -11265,13 +11314,13 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="66" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J66" s="9" t="str">
         <f t="shared" ref="J66:J97" ca="1" si="20">IF(M66="", IF(O66="","",X66+(INDIRECT("S" &amp; ROW() - 1) - S66)),IF(O66="", "", INDIRECT("S" &amp; ROW() - 1) - S66))</f>
         <v/>
       </c>
       <c r="K66" s="17" t="str">
-        <f>IF(H66="", "", IF(H66="-","",VLOOKUP(H66, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H66="", "", IF(H66="-","",VLOOKUP(H66, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M66" s="19"/>
@@ -11316,13 +11365,13 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="67" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J67" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K67" s="17" t="str">
-        <f>IF(H67="", "", IF(H67="-","",VLOOKUP(H67, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H67="", "", IF(H67="-","",VLOOKUP(H67, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M67" s="19"/>
@@ -11367,13 +11416,13 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="68" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J68" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K68" s="17" t="str">
-        <f>IF(H68="", "", IF(H68="-","",VLOOKUP(H68, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H68="", "", IF(H68="-","",VLOOKUP(H68, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M68" s="19"/>
@@ -11418,13 +11467,13 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="69" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J69" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K69" s="17" t="str">
-        <f>IF(H69="", "", IF(H69="-","",VLOOKUP(H69, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H69="", "", IF(H69="-","",VLOOKUP(H69, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M69" s="19"/>
@@ -11469,13 +11518,13 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="70" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J70" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K70" s="17" t="str">
-        <f>IF(H70="", "", IF(H70="-","",VLOOKUP(H70, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H70="", "", IF(H70="-","",VLOOKUP(H70, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M70" s="19"/>
@@ -11520,13 +11569,13 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="71" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J71" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K71" s="17" t="str">
-        <f>IF(H71="", "", IF(H71="-","",VLOOKUP(H71, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H71="", "", IF(H71="-","",VLOOKUP(H71, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M71" s="19"/>
@@ -11571,13 +11620,13 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="72" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J72" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K72" s="17" t="str">
-        <f>IF(H72="", "", IF(H72="-","",VLOOKUP(H72, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H72="", "", IF(H72="-","",VLOOKUP(H72, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M72" s="19"/>
@@ -11622,13 +11671,13 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="73" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J73" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K73" s="17" t="str">
-        <f>IF(H73="", "", IF(H73="-","",VLOOKUP(H73, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H73="", "", IF(H73="-","",VLOOKUP(H73, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M73" s="19"/>
@@ -11673,13 +11722,13 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="74" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J74" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K74" s="17" t="str">
-        <f>IF(H74="", "", IF(H74="-","",VLOOKUP(H74, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H74="", "", IF(H74="-","",VLOOKUP(H74, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M74" s="19"/>
@@ -11724,13 +11773,13 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="75" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J75" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K75" s="17" t="str">
-        <f>IF(H75="", "", IF(H75="-","",VLOOKUP(H75, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H75="", "", IF(H75="-","",VLOOKUP(H75, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M75" s="19"/>
@@ -11775,13 +11824,13 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="76" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J76" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K76" s="17" t="str">
-        <f>IF(H76="", "", IF(H76="-","",VLOOKUP(H76, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H76="", "", IF(H76="-","",VLOOKUP(H76, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M76" s="19"/>
@@ -11826,13 +11875,13 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="77" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J77" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K77" s="17" t="str">
-        <f>IF(H77="", "", IF(H77="-","",VLOOKUP(H77, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H77="", "", IF(H77="-","",VLOOKUP(H77, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M77" s="19"/>
@@ -11877,13 +11926,13 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="78" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J78" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K78" s="17" t="str">
-        <f>IF(H78="", "", IF(H78="-","",VLOOKUP(H78, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H78="", "", IF(H78="-","",VLOOKUP(H78, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M78" s="19"/>
@@ -11928,13 +11977,13 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="79" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J79" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K79" s="17" t="str">
-        <f>IF(H79="", "", IF(H79="-","",VLOOKUP(H79, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H79="", "", IF(H79="-","",VLOOKUP(H79, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M79" s="19"/>
@@ -11979,13 +12028,13 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="80" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J80" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K80" s="17" t="str">
-        <f>IF(H80="", "", IF(H80="-","",VLOOKUP(H80, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H80="", "", IF(H80="-","",VLOOKUP(H80, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M80" s="19"/>
@@ -12030,13 +12079,13 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="81" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J81" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K81" s="17" t="str">
-        <f>IF(H81="", "", IF(H81="-","",VLOOKUP(H81, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H81="", "", IF(H81="-","",VLOOKUP(H81, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M81" s="19"/>
@@ -12081,13 +12130,13 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="82" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J82" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K82" s="17" t="str">
-        <f>IF(H82="", "", IF(H82="-","",VLOOKUP(H82, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H82="", "", IF(H82="-","",VLOOKUP(H82, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M82" s="19"/>
@@ -12132,13 +12181,13 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="83" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J83" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K83" s="17" t="str">
-        <f>IF(H83="", "", IF(H83="-","",VLOOKUP(H83, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H83="", "", IF(H83="-","",VLOOKUP(H83, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M83" s="19"/>
@@ -12183,13 +12232,13 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="84" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J84" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K84" s="17" t="str">
-        <f>IF(H84="", "", IF(H84="-","",VLOOKUP(H84, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H84="", "", IF(H84="-","",VLOOKUP(H84, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M84" s="19"/>
@@ -12234,13 +12283,13 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="85" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J85" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K85" s="17" t="str">
-        <f>IF(H85="", "", IF(H85="-","",VLOOKUP(H85, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H85="", "", IF(H85="-","",VLOOKUP(H85, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M85" s="19"/>
@@ -12285,13 +12334,13 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="86" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J86" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K86" s="17" t="str">
-        <f>IF(H86="", "", IF(H86="-","",VLOOKUP(H86, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H86="", "", IF(H86="-","",VLOOKUP(H86, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M86" s="19"/>
@@ -12336,13 +12385,13 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="87" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J87" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K87" s="17" t="str">
-        <f>IF(H87="", "", IF(H87="-","",VLOOKUP(H87, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H87="", "", IF(H87="-","",VLOOKUP(H87, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M87" s="19"/>
@@ -12387,13 +12436,13 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="88" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J88" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K88" s="17" t="str">
-        <f>IF(H88="", "", IF(H88="-","",VLOOKUP(H88, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H88="", "", IF(H88="-","",VLOOKUP(H88, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M88" s="19"/>
@@ -12438,13 +12487,13 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="89" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J89" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K89" s="17" t="str">
-        <f>IF(H89="", "", IF(H89="-","",VLOOKUP(H89, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H89="", "", IF(H89="-","",VLOOKUP(H89, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M89" s="19"/>
@@ -12489,13 +12538,13 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="90" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J90" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K90" s="17" t="str">
-        <f>IF(H90="", "", IF(H90="-","",VLOOKUP(H90, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H90="", "", IF(H90="-","",VLOOKUP(H90, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M90" s="19"/>
@@ -12540,13 +12589,13 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="91" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J91" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K91" s="17" t="str">
-        <f>IF(H91="", "", IF(H91="-","",VLOOKUP(H91, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H91="", "", IF(H91="-","",VLOOKUP(H91, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M91" s="19"/>
@@ -12591,13 +12640,13 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="92" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J92" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K92" s="17" t="str">
-        <f>IF(H92="", "", IF(H92="-","",VLOOKUP(H92, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H92="", "", IF(H92="-","",VLOOKUP(H92, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M92" s="19"/>
@@ -12642,13 +12691,13 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="93" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J93" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K93" s="17" t="str">
-        <f>IF(H93="", "", IF(H93="-","",VLOOKUP(H93, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H93="", "", IF(H93="-","",VLOOKUP(H93, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M93" s="19"/>
@@ -12693,13 +12742,13 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="94" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J94" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K94" s="17" t="str">
-        <f>IF(H94="", "", IF(H94="-","",VLOOKUP(H94, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H94="", "", IF(H94="-","",VLOOKUP(H94, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M94" s="19"/>
@@ -12744,13 +12793,13 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="95" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J95" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K95" s="17" t="str">
-        <f>IF(H95="", "", IF(H95="-","",VLOOKUP(H95, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H95="", "", IF(H95="-","",VLOOKUP(H95, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M95" s="19"/>
@@ -12795,13 +12844,13 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="96" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J96" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K96" s="17" t="str">
-        <f>IF(H96="", "", IF(H96="-","",VLOOKUP(H96, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H96="", "", IF(H96="-","",VLOOKUP(H96, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M96" s="19"/>
@@ -12846,13 +12895,13 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="97" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J97" s="9" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K97" s="17" t="str">
-        <f>IF(H97="", "", IF(H97="-","",VLOOKUP(H97, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H97="", "", IF(H97="-","",VLOOKUP(H97, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M97" s="19"/>
@@ -12897,13 +12946,13 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="98" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J98" s="9" t="str">
         <f t="shared" ref="J98:J122" ca="1" si="31">IF(M98="", IF(O98="","",X98+(INDIRECT("S" &amp; ROW() - 1) - S98)),IF(O98="", "", INDIRECT("S" &amp; ROW() - 1) - S98))</f>
         <v/>
       </c>
       <c r="K98" s="17" t="str">
-        <f>IF(H98="", "", IF(H98="-","",VLOOKUP(H98, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H98="", "", IF(H98="-","",VLOOKUP(H98, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M98" s="19"/>
@@ -12948,13 +12997,13 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="99" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J99" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="K99" s="17" t="str">
-        <f>IF(H99="", "", IF(H99="-","",VLOOKUP(H99, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H99="", "", IF(H99="-","",VLOOKUP(H99, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M99" s="19"/>
@@ -12999,13 +13048,13 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="100" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J100" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="K100" s="17" t="str">
-        <f>IF(H100="", "", IF(H100="-","",VLOOKUP(H100, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H100="", "", IF(H100="-","",VLOOKUP(H100, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M100" s="19"/>
@@ -13050,13 +13099,13 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="101" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J101" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="K101" s="17" t="str">
-        <f>IF(H101="", "", IF(H101="-","",VLOOKUP(H101, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H101="", "", IF(H101="-","",VLOOKUP(H101, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M101" s="19"/>
@@ -13101,13 +13150,13 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="102" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J102" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="K102" s="17" t="str">
-        <f>IF(H102="", "", IF(H102="-","",VLOOKUP(H102, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H102="", "", IF(H102="-","",VLOOKUP(H102, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M102" s="19"/>
@@ -13152,13 +13201,13 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="103" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J103" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="K103" s="17" t="str">
-        <f>IF(H103="", "", IF(H103="-","",VLOOKUP(H103, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H103="", "", IF(H103="-","",VLOOKUP(H103, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M103" s="19"/>
@@ -13203,13 +13252,13 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="104" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J104" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="K104" s="17" t="str">
-        <f>IF(H104="", "", IF(H104="-","",VLOOKUP(H104, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H104="", "", IF(H104="-","",VLOOKUP(H104, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M104" s="19"/>
@@ -13254,13 +13303,13 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="105" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J105" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="K105" s="17" t="str">
-        <f>IF(H105="", "", IF(H105="-","",VLOOKUP(H105, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H105="", "", IF(H105="-","",VLOOKUP(H105, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M105" s="19"/>
@@ -13305,13 +13354,13 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="106" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J106" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="K106" s="17" t="str">
-        <f>IF(H106="", "", IF(H106="-","",VLOOKUP(H106, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H106="", "", IF(H106="-","",VLOOKUP(H106, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M106" s="19"/>
@@ -13356,13 +13405,13 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="107" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J107" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="K107" s="17" t="str">
-        <f>IF(H107="", "", IF(H107="-","",VLOOKUP(H107, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H107="", "", IF(H107="-","",VLOOKUP(H107, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M107" s="19"/>
@@ -13407,13 +13456,13 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="108" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J108" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="K108" s="17" t="str">
-        <f>IF(H108="", "", IF(H108="-","",VLOOKUP(H108, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H108="", "", IF(H108="-","",VLOOKUP(H108, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M108" s="19"/>
@@ -13458,13 +13507,13 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="109" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J109" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="K109" s="17" t="str">
-        <f>IF(H109="", "", IF(H109="-","",VLOOKUP(H109, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H109="", "", IF(H109="-","",VLOOKUP(H109, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M109" s="19"/>
@@ -13509,13 +13558,13 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="110" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J110" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="K110" s="17" t="str">
-        <f>IF(H110="", "", IF(H110="-","",VLOOKUP(H110, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H110="", "", IF(H110="-","",VLOOKUP(H110, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M110" s="19"/>
@@ -13560,13 +13609,13 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="111" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J111" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="K111" s="17" t="str">
-        <f>IF(H111="", "", IF(H111="-","",VLOOKUP(H111, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H111="", "", IF(H111="-","",VLOOKUP(H111, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M111" s="19"/>
@@ -13611,13 +13660,13 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="112" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J112" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="K112" s="17" t="str">
-        <f>IF(H112="", "", IF(H112="-","",VLOOKUP(H112, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H112="", "", IF(H112="-","",VLOOKUP(H112, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M112" s="19"/>
@@ -13662,13 +13711,13 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="113" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J113" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="K113" s="17" t="str">
-        <f>IF(H113="", "", IF(H113="-","",VLOOKUP(H113, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H113="", "", IF(H113="-","",VLOOKUP(H113, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M113" s="19"/>
@@ -13713,13 +13762,13 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="114" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J114" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="K114" s="17" t="str">
-        <f>IF(H114="", "", IF(H114="-","",VLOOKUP(H114, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H114="", "", IF(H114="-","",VLOOKUP(H114, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M114" s="19"/>
@@ -13764,13 +13813,13 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="115" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J115" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="K115" s="17" t="str">
-        <f>IF(H115="", "", IF(H115="-","",VLOOKUP(H115, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H115="", "", IF(H115="-","",VLOOKUP(H115, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M115" s="19"/>
@@ -13815,13 +13864,13 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="116" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J116" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="K116" s="17" t="str">
-        <f>IF(H116="", "", IF(H116="-","",VLOOKUP(H116, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H116="", "", IF(H116="-","",VLOOKUP(H116, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M116" s="19"/>
@@ -13866,13 +13915,13 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="117" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J117" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="K117" s="17" t="str">
-        <f>IF(H117="", "", IF(H117="-","",VLOOKUP(H117, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H117="", "", IF(H117="-","",VLOOKUP(H117, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M117" s="19"/>
@@ -13917,13 +13966,13 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="118" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J118" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="K118" s="17" t="str">
-        <f>IF(H118="", "", IF(H118="-","",VLOOKUP(H118, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H118="", "", IF(H118="-","",VLOOKUP(H118, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M118" s="19"/>
@@ -13968,13 +14017,13 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="119" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J119" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="K119" s="17" t="str">
-        <f>IF(H119="", "", IF(H119="-","",VLOOKUP(H119, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H119="", "", IF(H119="-","",VLOOKUP(H119, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M119" s="19"/>
@@ -14019,13 +14068,13 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="120" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J120" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="K120" s="17" t="str">
-        <f>IF(H120="", "", IF(H120="-","",VLOOKUP(H120, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H120="", "", IF(H120="-","",VLOOKUP(H120, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M120" s="19"/>
@@ -14070,13 +14119,13 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="121" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J121" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="K121" s="17" t="str">
-        <f>IF(H121="", "", IF(H121="-","",VLOOKUP(H121, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H121="", "", IF(H121="-","",VLOOKUP(H121, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M121" s="19"/>
@@ -14121,13 +14170,13 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="122" spans="10:24" x14ac:dyDescent="0.2">
       <c r="J122" s="9" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="K122" s="17" t="str">
-        <f>IF(H122="", "", IF(H122="-","",VLOOKUP(H122, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
+        <f>IF(H122="", "", IF(H122="-","",VLOOKUP(H122, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
         <v/>
       </c>
       <c r="M122" s="19"/>
@@ -14172,991 +14221,991 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="10:24" x14ac:dyDescent="0.35">
+    <row r="123" spans="10:24" x14ac:dyDescent="0.2">
       <c r="K123" s="17" t="str">
-        <f>IF(H123="", "", IF(H123="-","",VLOOKUP(H123, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="124" spans="10:24" x14ac:dyDescent="0.35">
+        <f>IF(H123="", "", IF(H123="-","",VLOOKUP(H123, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="10:24" x14ac:dyDescent="0.2">
       <c r="K124" s="17" t="str">
-        <f>IF(H124="", "", IF(H124="-","",VLOOKUP(H124, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="125" spans="10:24" x14ac:dyDescent="0.35">
+        <f>IF(H124="", "", IF(H124="-","",VLOOKUP(H124, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="10:24" x14ac:dyDescent="0.2">
       <c r="K125" s="17" t="str">
-        <f>IF(H125="", "", IF(H125="-","",VLOOKUP(H125, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="126" spans="10:24" x14ac:dyDescent="0.35">
+        <f>IF(H125="", "", IF(H125="-","",VLOOKUP(H125, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="10:24" x14ac:dyDescent="0.2">
       <c r="K126" s="17" t="str">
-        <f>IF(H126="", "", IF(H126="-","",VLOOKUP(H126, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="127" spans="10:24" x14ac:dyDescent="0.35">
+        <f>IF(H126="", "", IF(H126="-","",VLOOKUP(H126, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="10:24" x14ac:dyDescent="0.2">
       <c r="K127" s="17" t="str">
-        <f>IF(H127="", "", IF(H127="-","",VLOOKUP(H127, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="128" spans="10:24" x14ac:dyDescent="0.35">
+        <f>IF(H127="", "", IF(H127="-","",VLOOKUP(H127, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="10:24" x14ac:dyDescent="0.2">
       <c r="K128" s="17" t="str">
-        <f>IF(H128="", "", IF(H128="-","",VLOOKUP(H128, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="129" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H128="", "", IF(H128="-","",VLOOKUP(H128, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K129" s="17" t="str">
-        <f>IF(H129="", "", IF(H129="-","",VLOOKUP(H129, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="130" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H129="", "", IF(H129="-","",VLOOKUP(H129, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K130" s="17" t="str">
-        <f>IF(H130="", "", IF(H130="-","",VLOOKUP(H130, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="131" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H130="", "", IF(H130="-","",VLOOKUP(H130, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K131" s="17" t="str">
-        <f>IF(H131="", "", IF(H131="-","",VLOOKUP(H131, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="132" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H131="", "", IF(H131="-","",VLOOKUP(H131, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K132" s="17" t="str">
-        <f>IF(H132="", "", IF(H132="-","",VLOOKUP(H132, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="133" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H132="", "", IF(H132="-","",VLOOKUP(H132, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K133" s="17" t="str">
-        <f>IF(H133="", "", IF(H133="-","",VLOOKUP(H133, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="134" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H133="", "", IF(H133="-","",VLOOKUP(H133, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K134" s="17" t="str">
-        <f>IF(H134="", "", IF(H134="-","",VLOOKUP(H134, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="135" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H134="", "", IF(H134="-","",VLOOKUP(H134, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K135" s="17" t="str">
-        <f>IF(H135="", "", IF(H135="-","",VLOOKUP(H135, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="136" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H135="", "", IF(H135="-","",VLOOKUP(H135, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K136" s="17" t="str">
-        <f>IF(H136="", "", IF(H136="-","",VLOOKUP(H136, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="137" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H136="", "", IF(H136="-","",VLOOKUP(H136, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K137" s="17" t="str">
-        <f>IF(H137="", "", IF(H137="-","",VLOOKUP(H137, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="138" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H137="", "", IF(H137="-","",VLOOKUP(H137, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K138" s="17" t="str">
-        <f>IF(H138="", "", IF(H138="-","",VLOOKUP(H138, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="139" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H138="", "", IF(H138="-","",VLOOKUP(H138, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K139" s="17" t="str">
-        <f>IF(H139="", "", IF(H139="-","",VLOOKUP(H139, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="140" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H139="", "", IF(H139="-","",VLOOKUP(H139, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K140" s="17" t="str">
-        <f>IF(H140="", "", IF(H140="-","",VLOOKUP(H140, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="141" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H140="", "", IF(H140="-","",VLOOKUP(H140, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K141" s="17" t="str">
-        <f>IF(H141="", "", IF(H141="-","",VLOOKUP(H141, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="142" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H141="", "", IF(H141="-","",VLOOKUP(H141, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K142" s="17" t="str">
-        <f>IF(H142="", "", IF(H142="-","",VLOOKUP(H142, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="143" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H142="", "", IF(H142="-","",VLOOKUP(H142, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K143" s="17" t="str">
-        <f>IF(H143="", "", IF(H143="-","",VLOOKUP(H143, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="144" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H143="", "", IF(H143="-","",VLOOKUP(H143, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K144" s="17" t="str">
-        <f>IF(H144="", "", IF(H144="-","",VLOOKUP(H144, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="145" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H144="", "", IF(H144="-","",VLOOKUP(H144, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K145" s="17" t="str">
-        <f>IF(H145="", "", IF(H145="-","",VLOOKUP(H145, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="146" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H145="", "", IF(H145="-","",VLOOKUP(H145, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K146" s="17" t="str">
-        <f>IF(H146="", "", IF(H146="-","",VLOOKUP(H146, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="147" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H146="", "", IF(H146="-","",VLOOKUP(H146, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K147" s="17" t="str">
-        <f>IF(H147="", "", IF(H147="-","",VLOOKUP(H147, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="148" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H147="", "", IF(H147="-","",VLOOKUP(H147, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K148" s="17" t="str">
-        <f>IF(H148="", "", IF(H148="-","",VLOOKUP(H148, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="149" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H148="", "", IF(H148="-","",VLOOKUP(H148, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K149" s="17" t="str">
-        <f>IF(H149="", "", IF(H149="-","",VLOOKUP(H149, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="150" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H149="", "", IF(H149="-","",VLOOKUP(H149, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K150" s="17" t="str">
-        <f>IF(H150="", "", IF(H150="-","",VLOOKUP(H150, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="151" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H150="", "", IF(H150="-","",VLOOKUP(H150, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K151" s="17" t="str">
-        <f>IF(H151="", "", IF(H151="-","",VLOOKUP(H151, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="152" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H151="", "", IF(H151="-","",VLOOKUP(H151, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K152" s="17" t="str">
-        <f>IF(H152="", "", IF(H152="-","",VLOOKUP(H152, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="153" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H152="", "", IF(H152="-","",VLOOKUP(H152, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K153" s="17" t="str">
-        <f>IF(H153="", "", IF(H153="-","",VLOOKUP(H153, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="154" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H153="", "", IF(H153="-","",VLOOKUP(H153, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K154" s="17" t="str">
-        <f>IF(H154="", "", IF(H154="-","",VLOOKUP(H154, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="155" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H154="", "", IF(H154="-","",VLOOKUP(H154, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K155" s="17" t="str">
-        <f>IF(H155="", "", IF(H155="-","",VLOOKUP(H155, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="156" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H155="", "", IF(H155="-","",VLOOKUP(H155, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K156" s="17" t="str">
-        <f>IF(H156="", "", IF(H156="-","",VLOOKUP(H156, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="157" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H156="", "", IF(H156="-","",VLOOKUP(H156, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K157" s="17" t="str">
-        <f>IF(H157="", "", IF(H157="-","",VLOOKUP(H157, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="158" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H157="", "", IF(H157="-","",VLOOKUP(H157, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K158" s="17" t="str">
-        <f>IF(H158="", "", IF(H158="-","",VLOOKUP(H158, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="159" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H158="", "", IF(H158="-","",VLOOKUP(H158, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K159" s="17" t="str">
-        <f>IF(H159="", "", IF(H159="-","",VLOOKUP(H159, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="160" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H159="", "", IF(H159="-","",VLOOKUP(H159, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K160" s="17" t="str">
-        <f>IF(H160="", "", IF(H160="-","",VLOOKUP(H160, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="161" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H160="", "", IF(H160="-","",VLOOKUP(H160, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K161" s="17" t="str">
-        <f>IF(H161="", "", IF(H161="-","",VLOOKUP(H161, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="162" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H161="", "", IF(H161="-","",VLOOKUP(H161, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K162" s="17" t="str">
-        <f>IF(H162="", "", IF(H162="-","",VLOOKUP(H162, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="163" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H162="", "", IF(H162="-","",VLOOKUP(H162, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K163" s="17" t="str">
-        <f>IF(H163="", "", IF(H163="-","",VLOOKUP(H163, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="164" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H163="", "", IF(H163="-","",VLOOKUP(H163, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K164" s="17" t="str">
-        <f>IF(H164="", "", IF(H164="-","",VLOOKUP(H164, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="165" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H164="", "", IF(H164="-","",VLOOKUP(H164, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K165" s="17" t="str">
-        <f>IF(H165="", "", IF(H165="-","",VLOOKUP(H165, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="166" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H165="", "", IF(H165="-","",VLOOKUP(H165, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K166" s="17" t="str">
-        <f>IF(H166="", "", IF(H166="-","",VLOOKUP(H166, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="167" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H166="", "", IF(H166="-","",VLOOKUP(H166, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K167" s="17" t="str">
-        <f>IF(H167="", "", IF(H167="-","",VLOOKUP(H167, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="168" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H167="", "", IF(H167="-","",VLOOKUP(H167, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K168" s="17" t="str">
-        <f>IF(H168="", "", IF(H168="-","",VLOOKUP(H168, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="169" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H168="", "", IF(H168="-","",VLOOKUP(H168, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K169" s="17" t="str">
-        <f>IF(H169="", "", IF(H169="-","",VLOOKUP(H169, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="170" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H169="", "", IF(H169="-","",VLOOKUP(H169, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K170" s="17" t="str">
-        <f>IF(H170="", "", IF(H170="-","",VLOOKUP(H170, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="171" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H170="", "", IF(H170="-","",VLOOKUP(H170, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K171" s="17" t="str">
-        <f>IF(H171="", "", IF(H171="-","",VLOOKUP(H171, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="172" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H171="", "", IF(H171="-","",VLOOKUP(H171, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K172" s="17" t="str">
-        <f>IF(H172="", "", IF(H172="-","",VLOOKUP(H172, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="173" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H172="", "", IF(H172="-","",VLOOKUP(H172, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K173" s="17" t="str">
-        <f>IF(H173="", "", IF(H173="-","",VLOOKUP(H173, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="174" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H173="", "", IF(H173="-","",VLOOKUP(H173, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K174" s="17" t="str">
-        <f>IF(H174="", "", IF(H174="-","",VLOOKUP(H174, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="175" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H174="", "", IF(H174="-","",VLOOKUP(H174, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K175" s="17" t="str">
-        <f>IF(H175="", "", IF(H175="-","",VLOOKUP(H175, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="176" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H175="", "", IF(H175="-","",VLOOKUP(H175, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K176" s="17" t="str">
-        <f>IF(H176="", "", IF(H176="-","",VLOOKUP(H176, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="177" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H176="", "", IF(H176="-","",VLOOKUP(H176, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K177" s="17" t="str">
-        <f>IF(H177="", "", IF(H177="-","",VLOOKUP(H177, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="178" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H177="", "", IF(H177="-","",VLOOKUP(H177, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K178" s="17" t="str">
-        <f>IF(H178="", "", IF(H178="-","",VLOOKUP(H178, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="179" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H178="", "", IF(H178="-","",VLOOKUP(H178, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K179" s="17" t="str">
-        <f>IF(H179="", "", IF(H179="-","",VLOOKUP(H179, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="180" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H179="", "", IF(H179="-","",VLOOKUP(H179, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K180" s="17" t="str">
-        <f>IF(H180="", "", IF(H180="-","",VLOOKUP(H180, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="181" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H180="", "", IF(H180="-","",VLOOKUP(H180, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K181" s="17" t="str">
-        <f>IF(H181="", "", IF(H181="-","",VLOOKUP(H181, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="182" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H181="", "", IF(H181="-","",VLOOKUP(H181, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K182" s="17" t="str">
-        <f>IF(H182="", "", IF(H182="-","",VLOOKUP(H182, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="183" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H182="", "", IF(H182="-","",VLOOKUP(H182, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K183" s="17" t="str">
-        <f>IF(H183="", "", IF(H183="-","",VLOOKUP(H183, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="184" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H183="", "", IF(H183="-","",VLOOKUP(H183, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K184" s="17" t="str">
-        <f>IF(H184="", "", IF(H184="-","",VLOOKUP(H184, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="185" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H184="", "", IF(H184="-","",VLOOKUP(H184, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K185" s="17" t="str">
-        <f>IF(H185="", "", IF(H185="-","",VLOOKUP(H185, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="186" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H185="", "", IF(H185="-","",VLOOKUP(H185, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K186" s="17" t="str">
-        <f>IF(H186="", "", IF(H186="-","",VLOOKUP(H186, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="187" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H186="", "", IF(H186="-","",VLOOKUP(H186, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K187" s="17" t="str">
-        <f>IF(H187="", "", IF(H187="-","",VLOOKUP(H187, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="188" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H187="", "", IF(H187="-","",VLOOKUP(H187, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K188" s="17" t="str">
-        <f>IF(H188="", "", IF(H188="-","",VLOOKUP(H188, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="189" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H188="", "", IF(H188="-","",VLOOKUP(H188, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K189" s="17" t="str">
-        <f>IF(H189="", "", IF(H189="-","",VLOOKUP(H189, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="190" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H189="", "", IF(H189="-","",VLOOKUP(H189, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K190" s="17" t="str">
-        <f>IF(H190="", "", IF(H190="-","",VLOOKUP(H190, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="191" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H190="", "", IF(H190="-","",VLOOKUP(H190, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K191" s="17" t="str">
-        <f>IF(H191="", "", IF(H191="-","",VLOOKUP(H191, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="192" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H191="", "", IF(H191="-","",VLOOKUP(H191, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K192" s="17" t="str">
-        <f>IF(H192="", "", IF(H192="-","",VLOOKUP(H192, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="193" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H192="", "", IF(H192="-","",VLOOKUP(H192, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K193" s="17" t="str">
-        <f>IF(H193="", "", IF(H193="-","",VLOOKUP(H193, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="194" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H193="", "", IF(H193="-","",VLOOKUP(H193, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K194" s="17" t="str">
-        <f>IF(H194="", "", IF(H194="-","",VLOOKUP(H194, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="195" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H194="", "", IF(H194="-","",VLOOKUP(H194, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K195" s="17" t="str">
-        <f>IF(H195="", "", IF(H195="-","",VLOOKUP(H195, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="196" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H195="", "", IF(H195="-","",VLOOKUP(H195, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K196" s="17" t="str">
-        <f>IF(H196="", "", IF(H196="-","",VLOOKUP(H196, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="197" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H196="", "", IF(H196="-","",VLOOKUP(H196, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K197" s="17" t="str">
-        <f>IF(H197="", "", IF(H197="-","",VLOOKUP(H197, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="198" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H197="", "", IF(H197="-","",VLOOKUP(H197, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K198" s="17" t="str">
-        <f>IF(H198="", "", IF(H198="-","",VLOOKUP(H198, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="199" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H198="", "", IF(H198="-","",VLOOKUP(H198, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K199" s="17" t="str">
-        <f>IF(H199="", "", IF(H199="-","",VLOOKUP(H199, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="200" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H199="", "", IF(H199="-","",VLOOKUP(H199, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K200" s="17" t="str">
-        <f>IF(H200="", "", IF(H200="-","",VLOOKUP(H200, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="201" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H200="", "", IF(H200="-","",VLOOKUP(H200, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K201" s="17" t="str">
-        <f>IF(H201="", "", IF(H201="-","",VLOOKUP(H201, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="202" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H201="", "", IF(H201="-","",VLOOKUP(H201, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="202" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K202" s="17" t="str">
-        <f>IF(H202="", "", IF(H202="-","",VLOOKUP(H202, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="203" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H202="", "", IF(H202="-","",VLOOKUP(H202, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K203" s="17" t="str">
-        <f>IF(H203="", "", IF(H203="-","",VLOOKUP(H203, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="204" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H203="", "", IF(H203="-","",VLOOKUP(H203, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="204" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K204" s="17" t="str">
-        <f>IF(H204="", "", IF(H204="-","",VLOOKUP(H204, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="205" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H204="", "", IF(H204="-","",VLOOKUP(H204, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="205" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K205" s="17" t="str">
-        <f>IF(H205="", "", IF(H205="-","",VLOOKUP(H205, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="206" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H205="", "", IF(H205="-","",VLOOKUP(H205, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K206" s="17" t="str">
-        <f>IF(H206="", "", IF(H206="-","",VLOOKUP(H206, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="207" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H206="", "", IF(H206="-","",VLOOKUP(H206, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="207" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K207" s="17" t="str">
-        <f>IF(H207="", "", IF(H207="-","",VLOOKUP(H207, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="208" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H207="", "", IF(H207="-","",VLOOKUP(H207, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="208" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K208" s="17" t="str">
-        <f>IF(H208="", "", IF(H208="-","",VLOOKUP(H208, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="209" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H208="", "", IF(H208="-","",VLOOKUP(H208, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K209" s="17" t="str">
-        <f>IF(H209="", "", IF(H209="-","",VLOOKUP(H209, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="210" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H209="", "", IF(H209="-","",VLOOKUP(H209, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="210" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K210" s="17" t="str">
-        <f>IF(H210="", "", IF(H210="-","",VLOOKUP(H210, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="211" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H210="", "", IF(H210="-","",VLOOKUP(H210, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K211" s="17" t="str">
-        <f>IF(H211="", "", IF(H211="-","",VLOOKUP(H211, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="212" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H211="", "", IF(H211="-","",VLOOKUP(H211, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="212" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K212" s="17" t="str">
-        <f>IF(H212="", "", IF(H212="-","",VLOOKUP(H212, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="213" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H212="", "", IF(H212="-","",VLOOKUP(H212, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K213" s="17" t="str">
-        <f>IF(H213="", "", IF(H213="-","",VLOOKUP(H213, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="214" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H213="", "", IF(H213="-","",VLOOKUP(H213, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="214" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K214" s="17" t="str">
-        <f>IF(H214="", "", IF(H214="-","",VLOOKUP(H214, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="215" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H214="", "", IF(H214="-","",VLOOKUP(H214, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K215" s="17" t="str">
-        <f>IF(H215="", "", IF(H215="-","",VLOOKUP(H215, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="216" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H215="", "", IF(H215="-","",VLOOKUP(H215, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K216" s="17" t="str">
-        <f>IF(H216="", "", IF(H216="-","",VLOOKUP(H216, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="217" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H216="", "", IF(H216="-","",VLOOKUP(H216, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="217" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K217" s="17" t="str">
-        <f>IF(H217="", "", IF(H217="-","",VLOOKUP(H217, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="218" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H217="", "", IF(H217="-","",VLOOKUP(H217, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="218" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K218" s="17" t="str">
-        <f>IF(H218="", "", IF(H218="-","",VLOOKUP(H218, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="219" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H218="", "", IF(H218="-","",VLOOKUP(H218, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="219" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K219" s="17" t="str">
-        <f>IF(H219="", "", IF(H219="-","",VLOOKUP(H219, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="220" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H219="", "", IF(H219="-","",VLOOKUP(H219, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K220" s="17" t="str">
-        <f>IF(H220="", "", IF(H220="-","",VLOOKUP(H220, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="221" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H220="", "", IF(H220="-","",VLOOKUP(H220, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="221" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K221" s="17" t="str">
-        <f>IF(H221="", "", IF(H221="-","",VLOOKUP(H221, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="222" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H221="", "", IF(H221="-","",VLOOKUP(H221, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="222" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K222" s="17" t="str">
-        <f>IF(H222="", "", IF(H222="-","",VLOOKUP(H222, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="223" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H222="", "", IF(H222="-","",VLOOKUP(H222, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="223" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K223" s="17" t="str">
-        <f>IF(H223="", "", IF(H223="-","",VLOOKUP(H223, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="224" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H223="", "", IF(H223="-","",VLOOKUP(H223, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="224" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K224" s="17" t="str">
-        <f>IF(H224="", "", IF(H224="-","",VLOOKUP(H224, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="225" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H224="", "", IF(H224="-","",VLOOKUP(H224, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="225" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K225" s="17" t="str">
-        <f>IF(H225="", "", IF(H225="-","",VLOOKUP(H225, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="226" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H225="", "", IF(H225="-","",VLOOKUP(H225, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="226" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K226" s="17" t="str">
-        <f>IF(H226="", "", IF(H226="-","",VLOOKUP(H226, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="227" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H226="", "", IF(H226="-","",VLOOKUP(H226, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="227" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K227" s="17" t="str">
-        <f>IF(H227="", "", IF(H227="-","",VLOOKUP(H227, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="228" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H227="", "", IF(H227="-","",VLOOKUP(H227, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="228" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K228" s="17" t="str">
-        <f>IF(H228="", "", IF(H228="-","",VLOOKUP(H228, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="229" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H228="", "", IF(H228="-","",VLOOKUP(H228, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="229" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K229" s="17" t="str">
-        <f>IF(H229="", "", IF(H229="-","",VLOOKUP(H229, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="230" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H229="", "", IF(H229="-","",VLOOKUP(H229, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="230" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K230" s="17" t="str">
-        <f>IF(H230="", "", IF(H230="-","",VLOOKUP(H230, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="231" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H230="", "", IF(H230="-","",VLOOKUP(H230, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="231" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K231" s="17" t="str">
-        <f>IF(H231="", "", IF(H231="-","",VLOOKUP(H231, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="232" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H231="", "", IF(H231="-","",VLOOKUP(H231, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="232" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K232" s="17" t="str">
-        <f>IF(H232="", "", IF(H232="-","",VLOOKUP(H232, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="233" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H232="", "", IF(H232="-","",VLOOKUP(H232, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="233" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K233" s="17" t="str">
-        <f>IF(H233="", "", IF(H233="-","",VLOOKUP(H233, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="234" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H233="", "", IF(H233="-","",VLOOKUP(H233, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="234" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K234" s="17" t="str">
-        <f>IF(H234="", "", IF(H234="-","",VLOOKUP(H234, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="235" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H234="", "", IF(H234="-","",VLOOKUP(H234, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="235" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K235" s="17" t="str">
-        <f>IF(H235="", "", IF(H235="-","",VLOOKUP(H235, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="236" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H235="", "", IF(H235="-","",VLOOKUP(H235, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="236" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K236" s="17" t="str">
-        <f>IF(H236="", "", IF(H236="-","",VLOOKUP(H236, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="237" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H236="", "", IF(H236="-","",VLOOKUP(H236, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="237" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K237" s="17" t="str">
-        <f>IF(H237="", "", IF(H237="-","",VLOOKUP(H237, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="238" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H237="", "", IF(H237="-","",VLOOKUP(H237, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="238" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K238" s="17" t="str">
-        <f>IF(H238="", "", IF(H238="-","",VLOOKUP(H238, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="239" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H238="", "", IF(H238="-","",VLOOKUP(H238, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="239" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K239" s="17" t="str">
-        <f>IF(H239="", "", IF(H239="-","",VLOOKUP(H239, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="240" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H239="", "", IF(H239="-","",VLOOKUP(H239, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="240" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K240" s="17" t="str">
-        <f>IF(H240="", "", IF(H240="-","",VLOOKUP(H240, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="241" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H240="", "", IF(H240="-","",VLOOKUP(H240, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="241" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K241" s="17" t="str">
-        <f>IF(H241="", "", IF(H241="-","",VLOOKUP(H241, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="242" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H241="", "", IF(H241="-","",VLOOKUP(H241, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="242" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K242" s="17" t="str">
-        <f>IF(H242="", "", IF(H242="-","",VLOOKUP(H242, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="243" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H242="", "", IF(H242="-","",VLOOKUP(H242, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="243" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K243" s="17" t="str">
-        <f>IF(H243="", "", IF(H243="-","",VLOOKUP(H243, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="244" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H243="", "", IF(H243="-","",VLOOKUP(H243, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K244" s="17" t="str">
-        <f>IF(H244="", "", IF(H244="-","",VLOOKUP(H244, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="245" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H244="", "", IF(H244="-","",VLOOKUP(H244, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="245" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K245" s="17" t="str">
-        <f>IF(H245="", "", IF(H245="-","",VLOOKUP(H245, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="246" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H245="", "", IF(H245="-","",VLOOKUP(H245, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="246" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K246" s="17" t="str">
-        <f>IF(H246="", "", IF(H246="-","",VLOOKUP(H246, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="247" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H246="", "", IF(H246="-","",VLOOKUP(H246, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="247" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K247" s="17" t="str">
-        <f>IF(H247="", "", IF(H247="-","",VLOOKUP(H247, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="248" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H247="", "", IF(H247="-","",VLOOKUP(H247, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="248" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K248" s="17" t="str">
-        <f>IF(H248="", "", IF(H248="-","",VLOOKUP(H248, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="249" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H248="", "", IF(H248="-","",VLOOKUP(H248, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="249" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K249" s="17" t="str">
-        <f>IF(H249="", "", IF(H249="-","",VLOOKUP(H249, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="250" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H249="", "", IF(H249="-","",VLOOKUP(H249, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="250" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K250" s="17" t="str">
-        <f>IF(H250="", "", IF(H250="-","",VLOOKUP(H250, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="251" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H250="", "", IF(H250="-","",VLOOKUP(H250, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="251" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K251" s="17" t="str">
-        <f>IF(H251="", "", IF(H251="-","",VLOOKUP(H251, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="252" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H251="", "", IF(H251="-","",VLOOKUP(H251, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="252" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K252" s="17" t="str">
-        <f>IF(H252="", "", IF(H252="-","",VLOOKUP(H252, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="253" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H252="", "", IF(H252="-","",VLOOKUP(H252, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="253" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K253" s="17" t="str">
-        <f>IF(H253="", "", IF(H253="-","",VLOOKUP(H253, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="254" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H253="", "", IF(H253="-","",VLOOKUP(H253, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="254" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K254" s="17" t="str">
-        <f>IF(H254="", "", IF(H254="-","",VLOOKUP(H254, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="255" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H254="", "", IF(H254="-","",VLOOKUP(H254, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="255" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K255" s="17" t="str">
-        <f>IF(H255="", "", IF(H255="-","",VLOOKUP(H255, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="256" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H255="", "", IF(H255="-","",VLOOKUP(H255, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="256" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K256" s="17" t="str">
-        <f>IF(H256="", "", IF(H256="-","",VLOOKUP(H256, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="257" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H256="", "", IF(H256="-","",VLOOKUP(H256, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="257" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K257" s="17" t="str">
-        <f>IF(H257="", "", IF(H257="-","",VLOOKUP(H257, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="258" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H257="", "", IF(H257="-","",VLOOKUP(H257, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="258" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K258" s="17" t="str">
-        <f>IF(H258="", "", IF(H258="-","",VLOOKUP(H258, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="259" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H258="", "", IF(H258="-","",VLOOKUP(H258, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="259" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K259" s="17" t="str">
-        <f>IF(H259="", "", IF(H259="-","",VLOOKUP(H259, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="260" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H259="", "", IF(H259="-","",VLOOKUP(H259, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="260" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K260" s="17" t="str">
-        <f>IF(H260="", "", IF(H260="-","",VLOOKUP(H260, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="261" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H260="", "", IF(H260="-","",VLOOKUP(H260, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="261" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K261" s="17" t="str">
-        <f>IF(H261="", "", IF(H261="-","",VLOOKUP(H261, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="262" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H261="", "", IF(H261="-","",VLOOKUP(H261, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="262" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K262" s="17" t="str">
-        <f>IF(H262="", "", IF(H262="-","",VLOOKUP(H262, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="263" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H262="", "", IF(H262="-","",VLOOKUP(H262, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="263" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K263" s="17" t="str">
-        <f>IF(H263="", "", IF(H263="-","",VLOOKUP(H263, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="264" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H263="", "", IF(H263="-","",VLOOKUP(H263, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="264" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K264" s="17" t="str">
-        <f>IF(H264="", "", IF(H264="-","",VLOOKUP(H264, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="265" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H264="", "", IF(H264="-","",VLOOKUP(H264, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="265" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K265" s="17" t="str">
-        <f>IF(H265="", "", IF(H265="-","",VLOOKUP(H265, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="266" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H265="", "", IF(H265="-","",VLOOKUP(H265, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="266" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K266" s="17" t="str">
-        <f>IF(H266="", "", IF(H266="-","",VLOOKUP(H266, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="267" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H266="", "", IF(H266="-","",VLOOKUP(H266, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="267" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K267" s="17" t="str">
-        <f>IF(H267="", "", IF(H267="-","",VLOOKUP(H267, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="268" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H267="", "", IF(H267="-","",VLOOKUP(H267, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="268" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K268" s="17" t="str">
-        <f>IF(H268="", "", IF(H268="-","",VLOOKUP(H268, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="269" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H268="", "", IF(H268="-","",VLOOKUP(H268, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="269" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K269" s="17" t="str">
-        <f>IF(H269="", "", IF(H269="-","",VLOOKUP(H269, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="270" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H269="", "", IF(H269="-","",VLOOKUP(H269, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="270" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K270" s="17" t="str">
-        <f>IF(H270="", "", IF(H270="-","",VLOOKUP(H270, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="271" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H270="", "", IF(H270="-","",VLOOKUP(H270, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="271" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K271" s="17" t="str">
-        <f>IF(H271="", "", IF(H271="-","",VLOOKUP(H271, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="272" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H271="", "", IF(H271="-","",VLOOKUP(H271, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="272" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K272" s="17" t="str">
-        <f>IF(H272="", "", IF(H272="-","",VLOOKUP(H272, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="273" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H272="", "", IF(H272="-","",VLOOKUP(H272, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="273" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K273" s="17" t="str">
-        <f>IF(H273="", "", IF(H273="-","",VLOOKUP(H273, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="274" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H273="", "", IF(H273="-","",VLOOKUP(H273, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="274" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K274" s="17" t="str">
-        <f>IF(H274="", "", IF(H274="-","",VLOOKUP(H274, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="275" spans="11:11" x14ac:dyDescent="0.35">
+        <f>IF(H274="", "", IF(H274="-","",VLOOKUP(H274, 'Соль SKU'!$A$1:$C$1000, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="275" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K275" s="17" t="str">
         <f>IF(H275="", "", IF(H275="-","",VLOOKUP(H275, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="276" spans="11:11" x14ac:dyDescent="0.35">
+    <row r="276" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K276" s="17" t="str">
         <f>IF(H276="", "", IF(H276="-","",VLOOKUP(H276, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="277" spans="11:11" x14ac:dyDescent="0.35">
-      <c r="K277" s="17" t="str">
-        <f>IF(H277="", "", IF(H277="-","",VLOOKUP(H277, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="278" spans="11:11" x14ac:dyDescent="0.35">
-      <c r="K278" s="17" t="str">
-        <f>IF(H278="", "", IF(H278="-","",VLOOKUP(H278, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="279" spans="11:11" x14ac:dyDescent="0.35">
-      <c r="K279" s="17" t="str">
-        <f>IF(H279="", "", IF(H279="-","",VLOOKUP(H279, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="280" spans="11:11" x14ac:dyDescent="0.35">
-      <c r="K280" s="17" t="str">
-        <f>IF(H280="", "", IF(H280="-","",VLOOKUP(H280, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="281" spans="11:11" x14ac:dyDescent="0.35">
-      <c r="K281" s="17" t="str">
-        <f>IF(H281="", "", IF(H281="-","",VLOOKUP(H281, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="282" spans="11:11" x14ac:dyDescent="0.35">
-      <c r="K282" s="17" t="str">
-        <f>IF(H282="", "", IF(H282="-","",VLOOKUP(H282, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="283" spans="11:11" x14ac:dyDescent="0.35">
-      <c r="K283" s="17" t="str">
-        <f>IF(H283="", "", IF(H283="-","",VLOOKUP(H283, 'Соль SKU'!$A$1:$C$100, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="284" spans="11:11" x14ac:dyDescent="0.35">
+    <row r="277" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K277" t="str">
+        <f>IF(H277="", "", IF(H277="-","",VLOOKUP(H277, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="278" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K278" t="str">
+        <f>IF(H278="", "", IF(H278="-","",VLOOKUP(H278, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="279" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K279" t="str">
+        <f>IF(H279="", "", IF(H279="-","",VLOOKUP(H279, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="280" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K280" t="str">
+        <f>IF(H280="", "", IF(H280="-","",VLOOKUP(H280, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="281" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K281" t="str">
+        <f>IF(H281="", "", IF(H281="-","",VLOOKUP(H281, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="282" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K282" t="str">
+        <f>IF(H282="", "", IF(H282="-","",VLOOKUP(H282, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="283" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K283" t="str">
+        <f>IF(H283="", "", IF(H283="-","",VLOOKUP(H283, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="284" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K284" t="str">
         <f>IF(H284="", "", IF(H284="-","",VLOOKUP(H284, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="285" spans="11:11" x14ac:dyDescent="0.35">
+    <row r="285" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K285" t="str">
         <f>IF(H285="", "", IF(H285="-","",VLOOKUP(H285, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="286" spans="11:11" x14ac:dyDescent="0.35">
+    <row r="286" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K286" t="str">
         <f>IF(H286="", "", IF(H286="-","",VLOOKUP(H286, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="287" spans="11:11" x14ac:dyDescent="0.35">
+    <row r="287" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K287" t="str">
         <f>IF(H287="", "", IF(H287="-","",VLOOKUP(H287, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
@@ -15192,7 +15241,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
           <x14:formula1>
             <xm:f>'Типы варок'!$A$1:$A$102</xm:f>
           </x14:formula1>
@@ -15201,7 +15250,7 @@
           </x14:formula2>
           <xm:sqref>B2:B122</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{00000000-0002-0000-0300-000001000000}">
           <x14:formula1>
             <xm:f>'Форм фактор плавления'!$A$1:$A$25</xm:f>
           </x14:formula1>
@@ -15210,7 +15259,7 @@
           </x14:formula2>
           <xm:sqref>E2:F122</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{00000000-0002-0000-0300-000002000000}">
           <x14:formula1>
             <xm:f>Мойки!$A$1:$A$3</xm:f>
           </x14:formula1>
@@ -15219,7 +15268,7 @@
           </x14:formula2>
           <xm:sqref>L1:L122</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000003000000}">
           <x14:formula1>
             <xm:f>'Соль SKU'!$A$1:$A$137</xm:f>
           </x14:formula1>
@@ -15235,29 +15284,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.54296875" customWidth="1"/>
+    <col min="1" max="1025" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -15269,17 +15318,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.453125" customWidth="1"/>
-    <col min="2" max="1025" width="9.08984375" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="1025" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -15292,16 +15341,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AMK1"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="9.08984375" style="23" customWidth="1"/>
+    <col min="1" max="1025" width="9.1640625" style="23" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -15314,16 +15363,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.54296875" customWidth="1"/>
+    <col min="1" max="1025" width="8.5" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -15332,17 +15381,17 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.6328125" customWidth="1"/>
-    <col min="2" max="1025" width="8.54296875" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" customWidth="1"/>
+    <col min="2" max="1025" width="8.5" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/app/data/static/templates/constructor_mozzarella.xlsx
+++ b/app/data/static/templates/constructor_mozzarella.xlsx
@@ -4344,7 +4344,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <f t="shared" ref="Q66:Q97" ca="1" si="23">IF(O66 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(P66)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(P66)))), 0)</f>
+        <f t="shared" ref="Q66:Q73" ca="1" si="23">IF(O66 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(P66)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(P66)))), 0)</f>
         <v>0</v>
       </c>
       <c r="R66">
@@ -5968,11 +5968,11 @@
       </c>
       <c r="M98" s="19"/>
       <c r="N98" s="18" t="str">
-        <f t="shared" ref="N98:N129" ca="1" si="32">IF(M98="", IF(X98=0, "", X98), IF(V98 = "", "", IF(V98/U98 = 0, "", V98/U98)))</f>
+        <f t="shared" ref="N98:N122" ca="1" si="32">IF(M98="", IF(X98=0, "", X98), IF(V98 = "", "", IF(V98/U98 = 0, "", V98/U98)))</f>
         <v/>
       </c>
       <c r="P98">
-        <f t="shared" ref="P98:P129" si="33">IF(O98 = "-", -W98,I98)</f>
+        <f t="shared" ref="P98:P122" si="33">IF(O98 = "-", -W98,I98)</f>
         <v>0</v>
       </c>
       <c r="Q98">
@@ -6000,7 +6000,7 @@
         <v>0</v>
       </c>
       <c r="W98">
-        <f t="shared" ref="W98:W129" ca="1" si="38">IF(V98 = "", "", V98/U98)</f>
+        <f t="shared" ref="W98:W122" ca="1" si="38">IF(V98 = "", "", V98/U98)</f>
         <v>0</v>
       </c>
       <c r="X98" t="str">
@@ -7880,7 +7880,7 @@
           </x14:formula2>
           <xm:sqref>L1:L122</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>'Вода SKU'!$A$1:$A$150</xm:f>
           </x14:formula1>
@@ -11281,7 +11281,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <f t="shared" ref="Q66:Q97" ca="1" si="23">IF(O66 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(P66)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(P66)))), 0)</f>
+        <f t="shared" ref="Q66:Q73" ca="1" si="23">IF(O66 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(P66)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(P66)))), 0)</f>
         <v>0</v>
       </c>
       <c r="R66">
@@ -12905,11 +12905,11 @@
       </c>
       <c r="M98" s="19"/>
       <c r="N98" s="18" t="str">
-        <f t="shared" ref="N98:N129" ca="1" si="32">IF(M98="", IF(X98=0, "", X98), IF(V98 = "", "", IF(V98/U98 = 0, "", V98/U98)))</f>
+        <f t="shared" ref="N98:N122" ca="1" si="32">IF(M98="", IF(X98=0, "", X98), IF(V98 = "", "", IF(V98/U98 = 0, "", V98/U98)))</f>
         <v/>
       </c>
       <c r="P98">
-        <f t="shared" ref="P98:P129" si="33">IF(O98 = "-", -W98,I98)</f>
+        <f t="shared" ref="P98:P122" si="33">IF(O98 = "-", -W98,I98)</f>
         <v>0</v>
       </c>
       <c r="Q98">
@@ -12937,7 +12937,7 @@
         <v>0</v>
       </c>
       <c r="W98">
-        <f t="shared" ref="W98:W129" ca="1" si="38">IF(V98 = "", "", V98/U98)</f>
+        <f t="shared" ref="W98:W122" ca="1" si="38">IF(V98 = "", "", V98/U98)</f>
         <v>0</v>
       </c>
       <c r="X98" t="str">
@@ -15216,9 +15216,9 @@
           </x14:formula2>
           <xm:sqref>L1:L122</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
-            <xm:f>'Соль SKU'!$A$1:$A$200</xm:f>
+            <xm:f>'Соль SKU'!$A$1:$A$150</xm:f>
           </x14:formula1>
           <xm:sqref>H2:H200</xm:sqref>
         </x14:dataValidation>

--- a/app/data/static/templates/constructor_mozzarella.xlsx
+++ b/app/data/static/templates/constructor_mozzarella.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="файл остатки" sheetId="1" state="visible" r:id="rId2"/>
@@ -375,14 +375,14 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill>
@@ -397,85 +397,6 @@
         <family val="0"/>
         <color rgb="FF000000"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <charset val="1"/>
-        <family val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF7A19A"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="hair"/>
-        <right style="hair"/>
-        <top style="hair"/>
-        <bottom style="hair"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <charset val="1"/>
-        <family val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFED1C24"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <charset val="1"/>
-        <family val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0EFD4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <charset val="1"/>
-        <family val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE0EFD4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <charset val="1"/>
-        <family val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF65C295"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEBF1DE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -614,7 +535,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -624,14 +545,11 @@
       <selection pane="topLeft" activeCell="L24" activeCellId="0" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.09"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -640,7 +558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -650,15 +568,14 @@
       <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.54"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -667,7 +584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -677,15 +594,14 @@
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="69.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.54"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -694,7 +610,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -706,22 +622,18 @@
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="62.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="10.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="9.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="9.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="14" style="0" width="9.09"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="23" min="18" style="0" width="9.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="24" style="0" width="9.09"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="9.09"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="9.09"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="23" min="18" style="0" width="9.09"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -777,7 +689,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -786,23 +698,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:X220"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="16" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="Q1" activeCellId="0" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="10.36"/>
@@ -822,8 +733,7 @@
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="21" min="21" style="0" width="4.54"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="22" min="22" style="0" width="6.73"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="23" min="23" style="0" width="8.82"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="24" min="24" style="0" width="8.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="25" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="24" min="24" style="0" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -897,7 +807,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="16"/>
       <c r="J2" s="9" t="str">
         <f aca="true">IF(M2="", IF(O2="","",X2+(INDIRECT("S" &amp; ROW() - 1) - S2)),IF(O2="", "", INDIRECT("S" &amp; ROW() - 1) - S2))</f>
@@ -933,7 +843,7 @@
         <v/>
       </c>
       <c r="U2" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V2" s="0" t="n">
@@ -949,7 +859,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J3" s="9" t="str">
         <f aca="true">IF(M3="", IF(O3="","",X3+(INDIRECT("S" &amp; ROW() - 1) - S3)),IF(O3="", "", INDIRECT("S" &amp; ROW() - 1) - S3))</f>
         <v/>
@@ -984,7 +894,7 @@
         <v/>
       </c>
       <c r="U3" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V3" s="0" t="n">
@@ -1000,7 +910,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J4" s="9" t="str">
         <f aca="true">IF(M4="", IF(O4="","",X4+(INDIRECT("S" &amp; ROW() - 1) - S4)),IF(O4="", "", INDIRECT("S" &amp; ROW() - 1) - S4))</f>
         <v/>
@@ -1035,7 +945,7 @@
         <v/>
       </c>
       <c r="U4" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V4" s="0" t="n">
@@ -1051,7 +961,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J5" s="9" t="str">
         <f aca="true">IF(M5="", IF(O5="","",X5+(INDIRECT("S" &amp; ROW() - 1) - S5)),IF(O5="", "", INDIRECT("S" &amp; ROW() - 1) - S5))</f>
         <v/>
@@ -1086,7 +996,7 @@
         <v/>
       </c>
       <c r="U5" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V5" s="0" t="n">
@@ -1102,7 +1012,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J6" s="9" t="str">
         <f aca="true">IF(M6="", IF(O6="","",X6+(INDIRECT("S" &amp; ROW() - 1) - S6)),IF(O6="", "", INDIRECT("S" &amp; ROW() - 1) - S6))</f>
         <v/>
@@ -1137,7 +1047,7 @@
         <v/>
       </c>
       <c r="U6" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V6" s="0" t="n">
@@ -1153,7 +1063,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J7" s="9" t="str">
         <f aca="true">IF(M7="", IF(O7="","",X7+(INDIRECT("S" &amp; ROW() - 1) - S7)),IF(O7="", "", INDIRECT("S" &amp; ROW() - 1) - S7))</f>
         <v/>
@@ -1188,7 +1098,7 @@
         <v/>
       </c>
       <c r="U7" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V7" s="0" t="n">
@@ -1204,7 +1114,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J8" s="9" t="str">
         <f aca="true">IF(M8="", IF(O8="","",X8+(INDIRECT("S" &amp; ROW() - 1) - S8)),IF(O8="", "", INDIRECT("S" &amp; ROW() - 1) - S8))</f>
         <v/>
@@ -1239,7 +1149,7 @@
         <v/>
       </c>
       <c r="U8" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V8" s="0" t="n">
@@ -1255,7 +1165,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J9" s="9" t="str">
         <f aca="true">IF(M9="", IF(O9="","",X9+(INDIRECT("S" &amp; ROW() - 1) - S9)),IF(O9="", "", INDIRECT("S" &amp; ROW() - 1) - S9))</f>
         <v/>
@@ -1290,7 +1200,7 @@
         <v/>
       </c>
       <c r="U9" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V9" s="0" t="n">
@@ -1306,7 +1216,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J10" s="9" t="str">
         <f aca="true">IF(M10="", IF(O10="","",X10+(INDIRECT("S" &amp; ROW() - 1) - S10)),IF(O10="", "", INDIRECT("S" &amp; ROW() - 1) - S10))</f>
         <v/>
@@ -1341,7 +1251,7 @@
         <v/>
       </c>
       <c r="U10" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V10" s="0" t="n">
@@ -1357,7 +1267,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J11" s="9" t="str">
         <f aca="true">IF(M11="", IF(O11="","",X11+(INDIRECT("S" &amp; ROW() - 1) - S11)),IF(O11="", "", INDIRECT("S" &amp; ROW() - 1) - S11))</f>
         <v/>
@@ -1392,7 +1302,7 @@
         <v/>
       </c>
       <c r="U11" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V11" s="0" t="n">
@@ -1408,7 +1318,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J12" s="9" t="str">
         <f aca="true">IF(M12="", IF(O12="","",X12+(INDIRECT("S" &amp; ROW() - 1) - S12)),IF(O12="", "", INDIRECT("S" &amp; ROW() - 1) - S12))</f>
         <v/>
@@ -1443,7 +1353,7 @@
         <v/>
       </c>
       <c r="U12" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V12" s="0" t="n">
@@ -1459,7 +1369,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J13" s="9" t="str">
         <f aca="true">IF(M13="", IF(O13="","",X13+(INDIRECT("S" &amp; ROW() - 1) - S13)),IF(O13="", "", INDIRECT("S" &amp; ROW() - 1) - S13))</f>
         <v/>
@@ -1494,7 +1404,7 @@
         <v/>
       </c>
       <c r="U13" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V13" s="0" t="n">
@@ -1510,7 +1420,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J14" s="9" t="str">
         <f aca="true">IF(M14="", IF(O14="","",X14+(INDIRECT("S" &amp; ROW() - 1) - S14)),IF(O14="", "", INDIRECT("S" &amp; ROW() - 1) - S14))</f>
         <v/>
@@ -1545,7 +1455,7 @@
         <v/>
       </c>
       <c r="U14" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V14" s="0" t="n">
@@ -1561,7 +1471,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J15" s="9" t="str">
         <f aca="true">IF(M15="", IF(O15="","",X15+(INDIRECT("S" &amp; ROW() - 1) - S15)),IF(O15="", "", INDIRECT("S" &amp; ROW() - 1) - S15))</f>
         <v/>
@@ -1596,7 +1506,7 @@
         <v/>
       </c>
       <c r="U15" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V15" s="0" t="n">
@@ -1612,7 +1522,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J16" s="9" t="str">
         <f aca="true">IF(M16="", IF(O16="","",X16+(INDIRECT("S" &amp; ROW() - 1) - S16)),IF(O16="", "", INDIRECT("S" &amp; ROW() - 1) - S16))</f>
         <v/>
@@ -1647,7 +1557,7 @@
         <v/>
       </c>
       <c r="U16" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V16" s="0" t="n">
@@ -1663,7 +1573,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J17" s="9" t="str">
         <f aca="true">IF(M17="", IF(O17="","",X17+(INDIRECT("S" &amp; ROW() - 1) - S17)),IF(O17="", "", INDIRECT("S" &amp; ROW() - 1) - S17))</f>
         <v/>
@@ -1698,7 +1608,7 @@
         <v/>
       </c>
       <c r="U17" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V17" s="0" t="n">
@@ -1714,7 +1624,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J18" s="9" t="str">
         <f aca="true">IF(M18="", IF(O18="","",X18+(INDIRECT("S" &amp; ROW() - 1) - S18)),IF(O18="", "", INDIRECT("S" &amp; ROW() - 1) - S18))</f>
         <v/>
@@ -1749,7 +1659,7 @@
         <v/>
       </c>
       <c r="U18" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V18" s="0" t="n">
@@ -1765,7 +1675,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J19" s="9" t="str">
         <f aca="true">IF(M19="", IF(O19="","",X19+(INDIRECT("S" &amp; ROW() - 1) - S19)),IF(O19="", "", INDIRECT("S" &amp; ROW() - 1) - S19))</f>
         <v/>
@@ -1800,7 +1710,7 @@
         <v/>
       </c>
       <c r="U19" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V19" s="0" t="n">
@@ -1816,7 +1726,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J20" s="9" t="str">
         <f aca="true">IF(M20="", IF(O20="","",X20+(INDIRECT("S" &amp; ROW() - 1) - S20)),IF(O20="", "", INDIRECT("S" &amp; ROW() - 1) - S20))</f>
         <v/>
@@ -1851,7 +1761,7 @@
         <v/>
       </c>
       <c r="U20" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V20" s="0" t="n">
@@ -1867,7 +1777,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J21" s="9" t="str">
         <f aca="true">IF(M21="", IF(O21="","",X21+(INDIRECT("S" &amp; ROW() - 1) - S21)),IF(O21="", "", INDIRECT("S" &amp; ROW() - 1) - S21))</f>
         <v/>
@@ -1902,7 +1812,7 @@
         <v/>
       </c>
       <c r="U21" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V21" s="0" t="n">
@@ -1918,7 +1828,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J22" s="9" t="str">
         <f aca="true">IF(M22="", IF(O22="","",X22+(INDIRECT("S" &amp; ROW() - 1) - S22)),IF(O22="", "", INDIRECT("S" &amp; ROW() - 1) - S22))</f>
         <v/>
@@ -1953,7 +1863,7 @@
         <v/>
       </c>
       <c r="U22" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V22" s="0" t="n">
@@ -1969,7 +1879,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J23" s="9" t="str">
         <f aca="true">IF(M23="", IF(O23="","",X23+(INDIRECT("S" &amp; ROW() - 1) - S23)),IF(O23="", "", INDIRECT("S" &amp; ROW() - 1) - S23))</f>
         <v/>
@@ -2004,7 +1914,7 @@
         <v/>
       </c>
       <c r="U23" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V23" s="0" t="n">
@@ -2020,7 +1930,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J24" s="9" t="str">
         <f aca="true">IF(M24="", IF(O24="","",X24+(INDIRECT("S" &amp; ROW() - 1) - S24)),IF(O24="", "", INDIRECT("S" &amp; ROW() - 1) - S24))</f>
         <v/>
@@ -2055,7 +1965,7 @@
         <v/>
       </c>
       <c r="U24" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V24" s="0" t="n">
@@ -2071,7 +1981,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J25" s="9" t="str">
         <f aca="true">IF(M25="", IF(O25="","",X25+(INDIRECT("S" &amp; ROW() - 1) - S25)),IF(O25="", "", INDIRECT("S" &amp; ROW() - 1) - S25))</f>
         <v/>
@@ -2106,7 +2016,7 @@
         <v/>
       </c>
       <c r="U25" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V25" s="0" t="n">
@@ -2122,7 +2032,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J26" s="9" t="str">
         <f aca="true">IF(M26="", IF(O26="","",X26+(INDIRECT("S" &amp; ROW() - 1) - S26)),IF(O26="", "", INDIRECT("S" &amp; ROW() - 1) - S26))</f>
         <v/>
@@ -2157,7 +2067,7 @@
         <v/>
       </c>
       <c r="U26" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V26" s="0" t="n">
@@ -2173,7 +2083,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J27" s="9" t="str">
         <f aca="true">IF(M27="", IF(O27="","",X27+(INDIRECT("S" &amp; ROW() - 1) - S27)),IF(O27="", "", INDIRECT("S" &amp; ROW() - 1) - S27))</f>
         <v/>
@@ -2208,7 +2118,7 @@
         <v/>
       </c>
       <c r="U27" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V27" s="0" t="n">
@@ -2224,7 +2134,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J28" s="9" t="str">
         <f aca="true">IF(M28="", IF(O28="","",X28+(INDIRECT("S" &amp; ROW() - 1) - S28)),IF(O28="", "", INDIRECT("S" &amp; ROW() - 1) - S28))</f>
         <v/>
@@ -2259,7 +2169,7 @@
         <v/>
       </c>
       <c r="U28" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V28" s="0" t="n">
@@ -2275,7 +2185,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J29" s="9" t="str">
         <f aca="true">IF(M29="", IF(O29="","",X29+(INDIRECT("S" &amp; ROW() - 1) - S29)),IF(O29="", "", INDIRECT("S" &amp; ROW() - 1) - S29))</f>
         <v/>
@@ -2310,7 +2220,7 @@
         <v/>
       </c>
       <c r="U29" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V29" s="0" t="n">
@@ -2326,7 +2236,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J30" s="9" t="str">
         <f aca="true">IF(M30="", IF(O30="","",X30+(INDIRECT("S" &amp; ROW() - 1) - S30)),IF(O30="", "", INDIRECT("S" &amp; ROW() - 1) - S30))</f>
         <v/>
@@ -2361,7 +2271,7 @@
         <v/>
       </c>
       <c r="U30" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V30" s="0" t="n">
@@ -2377,7 +2287,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J31" s="9" t="str">
         <f aca="true">IF(M31="", IF(O31="","",X31+(INDIRECT("S" &amp; ROW() - 1) - S31)),IF(O31="", "", INDIRECT("S" &amp; ROW() - 1) - S31))</f>
         <v/>
@@ -2412,7 +2322,7 @@
         <v/>
       </c>
       <c r="U31" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V31" s="0" t="n">
@@ -2428,7 +2338,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J32" s="9" t="str">
         <f aca="true">IF(M32="", IF(O32="","",X32+(INDIRECT("S" &amp; ROW() - 1) - S32)),IF(O32="", "", INDIRECT("S" &amp; ROW() - 1) - S32))</f>
         <v/>
@@ -2463,7 +2373,7 @@
         <v/>
       </c>
       <c r="U32" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V32" s="0" t="n">
@@ -2479,7 +2389,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J33" s="9" t="str">
         <f aca="true">IF(M33="", IF(O33="","",X33+(INDIRECT("S" &amp; ROW() - 1) - S33)),IF(O33="", "", INDIRECT("S" &amp; ROW() - 1) - S33))</f>
         <v/>
@@ -2514,7 +2424,7 @@
         <v/>
       </c>
       <c r="U33" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V33" s="0" t="n">
@@ -2530,7 +2440,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J34" s="9" t="str">
         <f aca="true">IF(M34="", IF(O34="","",X34+(INDIRECT("S" &amp; ROW() - 1) - S34)),IF(O34="", "", INDIRECT("S" &amp; ROW() - 1) - S34))</f>
         <v/>
@@ -2565,7 +2475,7 @@
         <v/>
       </c>
       <c r="U34" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V34" s="0" t="n">
@@ -2581,7 +2491,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J35" s="9" t="str">
         <f aca="true">IF(M35="", IF(O35="","",X35+(INDIRECT("S" &amp; ROW() - 1) - S35)),IF(O35="", "", INDIRECT("S" &amp; ROW() - 1) - S35))</f>
         <v/>
@@ -2616,7 +2526,7 @@
         <v/>
       </c>
       <c r="U35" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V35" s="0" t="n">
@@ -2632,7 +2542,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J36" s="9" t="str">
         <f aca="true">IF(M36="", IF(O36="","",X36+(INDIRECT("S" &amp; ROW() - 1) - S36)),IF(O36="", "", INDIRECT("S" &amp; ROW() - 1) - S36))</f>
         <v/>
@@ -2667,7 +2577,7 @@
         <v/>
       </c>
       <c r="U36" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V36" s="0" t="n">
@@ -2683,7 +2593,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J37" s="9" t="str">
         <f aca="true">IF(M37="", IF(O37="","",X37+(INDIRECT("S" &amp; ROW() - 1) - S37)),IF(O37="", "", INDIRECT("S" &amp; ROW() - 1) - S37))</f>
         <v/>
@@ -2718,7 +2628,7 @@
         <v/>
       </c>
       <c r="U37" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V37" s="0" t="n">
@@ -2734,7 +2644,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J38" s="9" t="str">
         <f aca="true">IF(M38="", IF(O38="","",X38+(INDIRECT("S" &amp; ROW() - 1) - S38)),IF(O38="", "", INDIRECT("S" &amp; ROW() - 1) - S38))</f>
         <v/>
@@ -2769,7 +2679,7 @@
         <v/>
       </c>
       <c r="U38" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V38" s="0" t="n">
@@ -2785,7 +2695,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J39" s="9" t="str">
         <f aca="true">IF(M39="", IF(O39="","",X39+(INDIRECT("S" &amp; ROW() - 1) - S39)),IF(O39="", "", INDIRECT("S" &amp; ROW() - 1) - S39))</f>
         <v/>
@@ -2820,7 +2730,7 @@
         <v/>
       </c>
       <c r="U39" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V39" s="0" t="n">
@@ -2836,7 +2746,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J40" s="9" t="str">
         <f aca="true">IF(M40="", IF(O40="","",X40+(INDIRECT("S" &amp; ROW() - 1) - S40)),IF(O40="", "", INDIRECT("S" &amp; ROW() - 1) - S40))</f>
         <v/>
@@ -2871,7 +2781,7 @@
         <v/>
       </c>
       <c r="U40" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V40" s="0" t="n">
@@ -2887,7 +2797,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J41" s="9" t="str">
         <f aca="true">IF(M41="", IF(O41="","",X41+(INDIRECT("S" &amp; ROW() - 1) - S41)),IF(O41="", "", INDIRECT("S" &amp; ROW() - 1) - S41))</f>
         <v/>
@@ -2922,7 +2832,7 @@
         <v/>
       </c>
       <c r="U41" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V41" s="0" t="n">
@@ -2938,7 +2848,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J42" s="9" t="str">
         <f aca="true">IF(M42="", IF(O42="","",X42+(INDIRECT("S" &amp; ROW() - 1) - S42)),IF(O42="", "", INDIRECT("S" &amp; ROW() - 1) - S42))</f>
         <v/>
@@ -2973,7 +2883,7 @@
         <v/>
       </c>
       <c r="U42" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V42" s="0" t="n">
@@ -2989,7 +2899,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J43" s="9" t="str">
         <f aca="true">IF(M43="", IF(O43="","",X43+(INDIRECT("S" &amp; ROW() - 1) - S43)),IF(O43="", "", INDIRECT("S" &amp; ROW() - 1) - S43))</f>
         <v/>
@@ -3024,7 +2934,7 @@
         <v/>
       </c>
       <c r="U43" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V43" s="0" t="n">
@@ -3040,7 +2950,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J44" s="9" t="str">
         <f aca="true">IF(M44="", IF(O44="","",X44+(INDIRECT("S" &amp; ROW() - 1) - S44)),IF(O44="", "", INDIRECT("S" &amp; ROW() - 1) - S44))</f>
         <v/>
@@ -3075,7 +2985,7 @@
         <v/>
       </c>
       <c r="U44" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V44" s="0" t="n">
@@ -3091,7 +3001,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J45" s="9" t="str">
         <f aca="true">IF(M45="", IF(O45="","",X45+(INDIRECT("S" &amp; ROW() - 1) - S45)),IF(O45="", "", INDIRECT("S" &amp; ROW() - 1) - S45))</f>
         <v/>
@@ -3126,7 +3036,7 @@
         <v/>
       </c>
       <c r="U45" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V45" s="0" t="n">
@@ -3142,7 +3052,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J46" s="9" t="str">
         <f aca="true">IF(M46="", IF(O46="","",X46+(INDIRECT("S" &amp; ROW() - 1) - S46)),IF(O46="", "", INDIRECT("S" &amp; ROW() - 1) - S46))</f>
         <v/>
@@ -3177,7 +3087,7 @@
         <v/>
       </c>
       <c r="U46" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V46" s="0" t="n">
@@ -3193,7 +3103,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J47" s="9" t="str">
         <f aca="true">IF(M47="", IF(O47="","",X47+(INDIRECT("S" &amp; ROW() - 1) - S47)),IF(O47="", "", INDIRECT("S" &amp; ROW() - 1) - S47))</f>
         <v/>
@@ -3228,7 +3138,7 @@
         <v/>
       </c>
       <c r="U47" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V47" s="0" t="n">
@@ -3244,7 +3154,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J48" s="9" t="str">
         <f aca="true">IF(M48="", IF(O48="","",X48+(INDIRECT("S" &amp; ROW() - 1) - S48)),IF(O48="", "", INDIRECT("S" &amp; ROW() - 1) - S48))</f>
         <v/>
@@ -3279,7 +3189,7 @@
         <v/>
       </c>
       <c r="U48" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V48" s="0" t="n">
@@ -3295,7 +3205,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J49" s="9" t="str">
         <f aca="true">IF(M49="", IF(O49="","",X49+(INDIRECT("S" &amp; ROW() - 1) - S49)),IF(O49="", "", INDIRECT("S" &amp; ROW() - 1) - S49))</f>
         <v/>
@@ -3330,7 +3240,7 @@
         <v/>
       </c>
       <c r="U49" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V49" s="0" t="n">
@@ -3346,7 +3256,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J50" s="9" t="str">
         <f aca="true">IF(M50="", IF(O50="","",X50+(INDIRECT("S" &amp; ROW() - 1) - S50)),IF(O50="", "", INDIRECT("S" &amp; ROW() - 1) - S50))</f>
         <v/>
@@ -3381,7 +3291,7 @@
         <v/>
       </c>
       <c r="U50" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V50" s="0" t="n">
@@ -3397,7 +3307,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J51" s="9" t="str">
         <f aca="true">IF(M51="", IF(O51="","",X51+(INDIRECT("S" &amp; ROW() - 1) - S51)),IF(O51="", "", INDIRECT("S" &amp; ROW() - 1) - S51))</f>
         <v/>
@@ -3432,7 +3342,7 @@
         <v/>
       </c>
       <c r="U51" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V51" s="0" t="n">
@@ -3448,7 +3358,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J52" s="9" t="str">
         <f aca="true">IF(M52="", IF(O52="","",X52+(INDIRECT("S" &amp; ROW() - 1) - S52)),IF(O52="", "", INDIRECT("S" &amp; ROW() - 1) - S52))</f>
         <v/>
@@ -3483,7 +3393,7 @@
         <v/>
       </c>
       <c r="U52" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V52" s="0" t="n">
@@ -3499,7 +3409,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J53" s="9" t="str">
         <f aca="true">IF(M53="", IF(O53="","",X53+(INDIRECT("S" &amp; ROW() - 1) - S53)),IF(O53="", "", INDIRECT("S" &amp; ROW() - 1) - S53))</f>
         <v/>
@@ -3534,7 +3444,7 @@
         <v/>
       </c>
       <c r="U53" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V53" s="0" t="n">
@@ -3550,7 +3460,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J54" s="9" t="str">
         <f aca="true">IF(M54="", IF(O54="","",X54+(INDIRECT("S" &amp; ROW() - 1) - S54)),IF(O54="", "", INDIRECT("S" &amp; ROW() - 1) - S54))</f>
         <v/>
@@ -3585,7 +3495,7 @@
         <v/>
       </c>
       <c r="U54" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V54" s="0" t="n">
@@ -3601,7 +3511,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J55" s="9" t="str">
         <f aca="true">IF(M55="", IF(O55="","",X55+(INDIRECT("S" &amp; ROW() - 1) - S55)),IF(O55="", "", INDIRECT("S" &amp; ROW() - 1) - S55))</f>
         <v/>
@@ -3636,7 +3546,7 @@
         <v/>
       </c>
       <c r="U55" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V55" s="0" t="n">
@@ -3652,7 +3562,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J56" s="9" t="str">
         <f aca="true">IF(M56="", IF(O56="","",X56+(INDIRECT("S" &amp; ROW() - 1) - S56)),IF(O56="", "", INDIRECT("S" &amp; ROW() - 1) - S56))</f>
         <v/>
@@ -3687,7 +3597,7 @@
         <v/>
       </c>
       <c r="U56" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V56" s="0" t="n">
@@ -3703,7 +3613,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J57" s="9" t="str">
         <f aca="true">IF(M57="", IF(O57="","",X57+(INDIRECT("S" &amp; ROW() - 1) - S57)),IF(O57="", "", INDIRECT("S" &amp; ROW() - 1) - S57))</f>
         <v/>
@@ -3738,7 +3648,7 @@
         <v/>
       </c>
       <c r="U57" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V57" s="0" t="n">
@@ -3754,7 +3664,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J58" s="9" t="str">
         <f aca="true">IF(M58="", IF(O58="","",X58+(INDIRECT("S" &amp; ROW() - 1) - S58)),IF(O58="", "", INDIRECT("S" &amp; ROW() - 1) - S58))</f>
         <v/>
@@ -3789,7 +3699,7 @@
         <v/>
       </c>
       <c r="U58" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V58" s="0" t="n">
@@ -3805,7 +3715,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J59" s="9" t="str">
         <f aca="true">IF(M59="", IF(O59="","",X59+(INDIRECT("S" &amp; ROW() - 1) - S59)),IF(O59="", "", INDIRECT("S" &amp; ROW() - 1) - S59))</f>
         <v/>
@@ -3840,7 +3750,7 @@
         <v/>
       </c>
       <c r="U59" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V59" s="0" t="n">
@@ -3856,7 +3766,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J60" s="9" t="str">
         <f aca="true">IF(M60="", IF(O60="","",X60+(INDIRECT("S" &amp; ROW() - 1) - S60)),IF(O60="", "", INDIRECT("S" &amp; ROW() - 1) - S60))</f>
         <v/>
@@ -3891,7 +3801,7 @@
         <v/>
       </c>
       <c r="U60" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V60" s="0" t="n">
@@ -3907,7 +3817,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J61" s="9" t="str">
         <f aca="true">IF(M61="", IF(O61="","",X61+(INDIRECT("S" &amp; ROW() - 1) - S61)),IF(O61="", "", INDIRECT("S" &amp; ROW() - 1) - S61))</f>
         <v/>
@@ -3942,7 +3852,7 @@
         <v/>
       </c>
       <c r="U61" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V61" s="0" t="n">
@@ -3958,7 +3868,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J62" s="9" t="str">
         <f aca="true">IF(M62="", IF(O62="","",X62+(INDIRECT("S" &amp; ROW() - 1) - S62)),IF(O62="", "", INDIRECT("S" &amp; ROW() - 1) - S62))</f>
         <v/>
@@ -3993,7 +3903,7 @@
         <v/>
       </c>
       <c r="U62" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V62" s="0" t="n">
@@ -4009,7 +3919,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J63" s="9" t="str">
         <f aca="true">IF(M63="", IF(O63="","",X63+(INDIRECT("S" &amp; ROW() - 1) - S63)),IF(O63="", "", INDIRECT("S" &amp; ROW() - 1) - S63))</f>
         <v/>
@@ -4044,7 +3954,7 @@
         <v/>
       </c>
       <c r="U63" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V63" s="0" t="n">
@@ -4060,7 +3970,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J64" s="9" t="str">
         <f aca="true">IF(M64="", IF(O64="","",X64+(INDIRECT("S" &amp; ROW() - 1) - S64)),IF(O64="", "", INDIRECT("S" &amp; ROW() - 1) - S64))</f>
         <v/>
@@ -4095,7 +4005,7 @@
         <v/>
       </c>
       <c r="U64" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V64" s="0" t="n">
@@ -4111,7 +4021,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J65" s="9" t="str">
         <f aca="true">IF(M65="", IF(O65="","",X65+(INDIRECT("S" &amp; ROW() - 1) - S65)),IF(O65="", "", INDIRECT("S" &amp; ROW() - 1) - S65))</f>
         <v/>
@@ -4146,7 +4056,7 @@
         <v/>
       </c>
       <c r="U65" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V65" s="0" t="n">
@@ -4162,7 +4072,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J66" s="9" t="str">
         <f aca="true">IF(M66="", IF(O66="","",X66+(INDIRECT("S" &amp; ROW() - 1) - S66)),IF(O66="", "", INDIRECT("S" &amp; ROW() - 1) - S66))</f>
         <v/>
@@ -4197,7 +4107,7 @@
         <v/>
       </c>
       <c r="U66" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V66" s="0" t="n">
@@ -4213,7 +4123,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J67" s="9" t="str">
         <f aca="true">IF(M67="", IF(O67="","",X67+(INDIRECT("S" &amp; ROW() - 1) - S67)),IF(O67="", "", INDIRECT("S" &amp; ROW() - 1) - S67))</f>
         <v/>
@@ -4248,7 +4158,7 @@
         <v/>
       </c>
       <c r="U67" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V67" s="0" t="n">
@@ -4264,7 +4174,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J68" s="9" t="str">
         <f aca="true">IF(M68="", IF(O68="","",X68+(INDIRECT("S" &amp; ROW() - 1) - S68)),IF(O68="", "", INDIRECT("S" &amp; ROW() - 1) - S68))</f>
         <v/>
@@ -4299,7 +4209,7 @@
         <v/>
       </c>
       <c r="U68" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V68" s="0" t="n">
@@ -4315,7 +4225,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J69" s="9" t="str">
         <f aca="true">IF(M69="", IF(O69="","",X69+(INDIRECT("S" &amp; ROW() - 1) - S69)),IF(O69="", "", INDIRECT("S" &amp; ROW() - 1) - S69))</f>
         <v/>
@@ -4350,7 +4260,7 @@
         <v/>
       </c>
       <c r="U69" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V69" s="0" t="n">
@@ -4366,7 +4276,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J70" s="9" t="str">
         <f aca="true">IF(M70="", IF(O70="","",X70+(INDIRECT("S" &amp; ROW() - 1) - S70)),IF(O70="", "", INDIRECT("S" &amp; ROW() - 1) - S70))</f>
         <v/>
@@ -4401,7 +4311,7 @@
         <v/>
       </c>
       <c r="U70" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V70" s="0" t="n">
@@ -4417,7 +4327,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J71" s="9" t="str">
         <f aca="true">IF(M71="", IF(O71="","",X71+(INDIRECT("S" &amp; ROW() - 1) - S71)),IF(O71="", "", INDIRECT("S" &amp; ROW() - 1) - S71))</f>
         <v/>
@@ -4452,7 +4362,7 @@
         <v/>
       </c>
       <c r="U71" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V71" s="0" t="n">
@@ -4468,7 +4378,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J72" s="9" t="str">
         <f aca="true">IF(M72="", IF(O72="","",X72+(INDIRECT("S" &amp; ROW() - 1) - S72)),IF(O72="", "", INDIRECT("S" &amp; ROW() - 1) - S72))</f>
         <v/>
@@ -4503,7 +4413,7 @@
         <v/>
       </c>
       <c r="U72" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V72" s="0" t="n">
@@ -4519,7 +4429,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J73" s="9" t="str">
         <f aca="true">IF(M73="", IF(O73="","",X73+(INDIRECT("S" &amp; ROW() - 1) - S73)),IF(O73="", "", INDIRECT("S" &amp; ROW() - 1) - S73))</f>
         <v/>
@@ -4554,7 +4464,7 @@
         <v/>
       </c>
       <c r="U73" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V73" s="0" t="n">
@@ -4570,7 +4480,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J74" s="9" t="str">
         <f aca="true">IF(M74="", IF(O74="","",X74+(INDIRECT("S" &amp; ROW() - 1) - S74)),IF(O74="", "", INDIRECT("S" &amp; ROW() - 1) - S74))</f>
         <v/>
@@ -4605,7 +4515,7 @@
         <v/>
       </c>
       <c r="U74" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V74" s="0" t="n">
@@ -4621,7 +4531,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J75" s="9" t="str">
         <f aca="true">IF(M75="", IF(O75="","",X75+(INDIRECT("S" &amp; ROW() - 1) - S75)),IF(O75="", "", INDIRECT("S" &amp; ROW() - 1) - S75))</f>
         <v/>
@@ -4656,7 +4566,7 @@
         <v/>
       </c>
       <c r="U75" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V75" s="0" t="n">
@@ -4672,7 +4582,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J76" s="9" t="str">
         <f aca="true">IF(M76="", IF(O76="","",X76+(INDIRECT("S" &amp; ROW() - 1) - S76)),IF(O76="", "", INDIRECT("S" &amp; ROW() - 1) - S76))</f>
         <v/>
@@ -4707,7 +4617,7 @@
         <v/>
       </c>
       <c r="U76" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V76" s="0" t="n">
@@ -4723,7 +4633,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J77" s="9" t="str">
         <f aca="true">IF(M77="", IF(O77="","",X77+(INDIRECT("S" &amp; ROW() - 1) - S77)),IF(O77="", "", INDIRECT("S" &amp; ROW() - 1) - S77))</f>
         <v/>
@@ -4758,7 +4668,7 @@
         <v/>
       </c>
       <c r="U77" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V77" s="0" t="n">
@@ -4774,7 +4684,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J78" s="9" t="str">
         <f aca="true">IF(M78="", IF(O78="","",X78+(INDIRECT("S" &amp; ROW() - 1) - S78)),IF(O78="", "", INDIRECT("S" &amp; ROW() - 1) - S78))</f>
         <v/>
@@ -4809,7 +4719,7 @@
         <v/>
       </c>
       <c r="U78" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V78" s="0" t="n">
@@ -4825,7 +4735,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J79" s="9" t="str">
         <f aca="true">IF(M79="", IF(O79="","",X79+(INDIRECT("S" &amp; ROW() - 1) - S79)),IF(O79="", "", INDIRECT("S" &amp; ROW() - 1) - S79))</f>
         <v/>
@@ -4860,7 +4770,7 @@
         <v/>
       </c>
       <c r="U79" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V79" s="0" t="n">
@@ -4876,7 +4786,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J80" s="9" t="str">
         <f aca="true">IF(M80="", IF(O80="","",X80+(INDIRECT("S" &amp; ROW() - 1) - S80)),IF(O80="", "", INDIRECT("S" &amp; ROW() - 1) - S80))</f>
         <v/>
@@ -4911,7 +4821,7 @@
         <v/>
       </c>
       <c r="U80" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V80" s="0" t="n">
@@ -4927,7 +4837,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J81" s="9" t="str">
         <f aca="true">IF(M81="", IF(O81="","",X81+(INDIRECT("S" &amp; ROW() - 1) - S81)),IF(O81="", "", INDIRECT("S" &amp; ROW() - 1) - S81))</f>
         <v/>
@@ -4962,7 +4872,7 @@
         <v/>
       </c>
       <c r="U81" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V81" s="0" t="n">
@@ -4978,7 +4888,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J82" s="9" t="str">
         <f aca="true">IF(M82="", IF(O82="","",X82+(INDIRECT("S" &amp; ROW() - 1) - S82)),IF(O82="", "", INDIRECT("S" &amp; ROW() - 1) - S82))</f>
         <v/>
@@ -5013,7 +4923,7 @@
         <v/>
       </c>
       <c r="U82" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V82" s="0" t="n">
@@ -5029,7 +4939,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J83" s="9" t="str">
         <f aca="true">IF(M83="", IF(O83="","",X83+(INDIRECT("S" &amp; ROW() - 1) - S83)),IF(O83="", "", INDIRECT("S" &amp; ROW() - 1) - S83))</f>
         <v/>
@@ -5064,7 +4974,7 @@
         <v/>
       </c>
       <c r="U83" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V83" s="0" t="n">
@@ -5080,7 +4990,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J84" s="9" t="str">
         <f aca="true">IF(M84="", IF(O84="","",X84+(INDIRECT("S" &amp; ROW() - 1) - S84)),IF(O84="", "", INDIRECT("S" &amp; ROW() - 1) - S84))</f>
         <v/>
@@ -5115,7 +5025,7 @@
         <v/>
       </c>
       <c r="U84" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V84" s="0" t="n">
@@ -5131,7 +5041,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J85" s="9" t="str">
         <f aca="true">IF(M85="", IF(O85="","",X85+(INDIRECT("S" &amp; ROW() - 1) - S85)),IF(O85="", "", INDIRECT("S" &amp; ROW() - 1) - S85))</f>
         <v/>
@@ -5166,7 +5076,7 @@
         <v/>
       </c>
       <c r="U85" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V85" s="0" t="n">
@@ -5182,7 +5092,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J86" s="9" t="str">
         <f aca="true">IF(M86="", IF(O86="","",X86+(INDIRECT("S" &amp; ROW() - 1) - S86)),IF(O86="", "", INDIRECT("S" &amp; ROW() - 1) - S86))</f>
         <v/>
@@ -5217,7 +5127,7 @@
         <v/>
       </c>
       <c r="U86" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V86" s="0" t="n">
@@ -5233,7 +5143,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J87" s="9" t="str">
         <f aca="true">IF(M87="", IF(O87="","",X87+(INDIRECT("S" &amp; ROW() - 1) - S87)),IF(O87="", "", INDIRECT("S" &amp; ROW() - 1) - S87))</f>
         <v/>
@@ -5268,7 +5178,7 @@
         <v/>
       </c>
       <c r="U87" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V87" s="0" t="n">
@@ -5284,7 +5194,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J88" s="9" t="str">
         <f aca="true">IF(M88="", IF(O88="","",X88+(INDIRECT("S" &amp; ROW() - 1) - S88)),IF(O88="", "", INDIRECT("S" &amp; ROW() - 1) - S88))</f>
         <v/>
@@ -5319,7 +5229,7 @@
         <v/>
       </c>
       <c r="U88" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V88" s="0" t="n">
@@ -5335,7 +5245,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J89" s="9" t="str">
         <f aca="true">IF(M89="", IF(O89="","",X89+(INDIRECT("S" &amp; ROW() - 1) - S89)),IF(O89="", "", INDIRECT("S" &amp; ROW() - 1) - S89))</f>
         <v/>
@@ -5370,7 +5280,7 @@
         <v/>
       </c>
       <c r="U89" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V89" s="0" t="n">
@@ -5386,7 +5296,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J90" s="9" t="str">
         <f aca="true">IF(M90="", IF(O90="","",X90+(INDIRECT("S" &amp; ROW() - 1) - S90)),IF(O90="", "", INDIRECT("S" &amp; ROW() - 1) - S90))</f>
         <v/>
@@ -5421,7 +5331,7 @@
         <v/>
       </c>
       <c r="U90" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V90" s="0" t="n">
@@ -5437,7 +5347,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J91" s="9" t="str">
         <f aca="true">IF(M91="", IF(O91="","",X91+(INDIRECT("S" &amp; ROW() - 1) - S91)),IF(O91="", "", INDIRECT("S" &amp; ROW() - 1) - S91))</f>
         <v/>
@@ -5472,7 +5382,7 @@
         <v/>
       </c>
       <c r="U91" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V91" s="0" t="n">
@@ -5488,7 +5398,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J92" s="9" t="str">
         <f aca="true">IF(M92="", IF(O92="","",X92+(INDIRECT("S" &amp; ROW() - 1) - S92)),IF(O92="", "", INDIRECT("S" &amp; ROW() - 1) - S92))</f>
         <v/>
@@ -5523,7 +5433,7 @@
         <v/>
       </c>
       <c r="U92" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V92" s="0" t="n">
@@ -5539,7 +5449,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J93" s="9" t="str">
         <f aca="true">IF(M93="", IF(O93="","",X93+(INDIRECT("S" &amp; ROW() - 1) - S93)),IF(O93="", "", INDIRECT("S" &amp; ROW() - 1) - S93))</f>
         <v/>
@@ -5574,7 +5484,7 @@
         <v/>
       </c>
       <c r="U93" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V93" s="0" t="n">
@@ -5590,7 +5500,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J94" s="9" t="str">
         <f aca="true">IF(M94="", IF(O94="","",X94+(INDIRECT("S" &amp; ROW() - 1) - S94)),IF(O94="", "", INDIRECT("S" &amp; ROW() - 1) - S94))</f>
         <v/>
@@ -5625,7 +5535,7 @@
         <v/>
       </c>
       <c r="U94" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V94" s="0" t="n">
@@ -5641,7 +5551,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J95" s="9" t="str">
         <f aca="true">IF(M95="", IF(O95="","",X95+(INDIRECT("S" &amp; ROW() - 1) - S95)),IF(O95="", "", INDIRECT("S" &amp; ROW() - 1) - S95))</f>
         <v/>
@@ -5676,7 +5586,7 @@
         <v/>
       </c>
       <c r="U95" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V95" s="0" t="n">
@@ -5692,7 +5602,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J96" s="9" t="str">
         <f aca="true">IF(M96="", IF(O96="","",X96+(INDIRECT("S" &amp; ROW() - 1) - S96)),IF(O96="", "", INDIRECT("S" &amp; ROW() - 1) - S96))</f>
         <v/>
@@ -5727,7 +5637,7 @@
         <v/>
       </c>
       <c r="U96" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V96" s="0" t="n">
@@ -5743,7 +5653,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J97" s="9" t="str">
         <f aca="true">IF(M97="", IF(O97="","",X97+(INDIRECT("S" &amp; ROW() - 1) - S97)),IF(O97="", "", INDIRECT("S" &amp; ROW() - 1) - S97))</f>
         <v/>
@@ -5778,7 +5688,7 @@
         <v/>
       </c>
       <c r="U97" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V97" s="0" t="n">
@@ -5794,7 +5704,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J98" s="9" t="str">
         <f aca="true">IF(M98="", IF(O98="","",X98+(INDIRECT("S" &amp; ROW() - 1) - S98)),IF(O98="", "", INDIRECT("S" &amp; ROW() - 1) - S98))</f>
         <v/>
@@ -5829,7 +5739,7 @@
         <v/>
       </c>
       <c r="U98" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V98" s="0" t="n">
@@ -5845,7 +5755,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J99" s="9" t="str">
         <f aca="true">IF(M99="", IF(O99="","",X99+(INDIRECT("S" &amp; ROW() - 1) - S99)),IF(O99="", "", INDIRECT("S" &amp; ROW() - 1) - S99))</f>
         <v/>
@@ -5880,7 +5790,7 @@
         <v/>
       </c>
       <c r="U99" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V99" s="0" t="n">
@@ -5896,7 +5806,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J100" s="9" t="str">
         <f aca="true">IF(M100="", IF(O100="","",X100+(INDIRECT("S" &amp; ROW() - 1) - S100)),IF(O100="", "", INDIRECT("S" &amp; ROW() - 1) - S100))</f>
         <v/>
@@ -5931,7 +5841,7 @@
         <v/>
       </c>
       <c r="U100" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V100" s="0" t="n">
@@ -5947,7 +5857,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J101" s="9" t="str">
         <f aca="true">IF(M101="", IF(O101="","",X101+(INDIRECT("S" &amp; ROW() - 1) - S101)),IF(O101="", "", INDIRECT("S" &amp; ROW() - 1) - S101))</f>
         <v/>
@@ -5982,7 +5892,7 @@
         <v/>
       </c>
       <c r="U101" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V101" s="0" t="n">
@@ -5998,7 +5908,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J102" s="9" t="str">
         <f aca="true">IF(M102="", IF(O102="","",X102+(INDIRECT("S" &amp; ROW() - 1) - S102)),IF(O102="", "", INDIRECT("S" &amp; ROW() - 1) - S102))</f>
         <v/>
@@ -6033,7 +5943,7 @@
         <v/>
       </c>
       <c r="U102" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V102" s="0" t="n">
@@ -6049,7 +5959,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J103" s="9" t="str">
         <f aca="true">IF(M103="", IF(O103="","",X103+(INDIRECT("S" &amp; ROW() - 1) - S103)),IF(O103="", "", INDIRECT("S" &amp; ROW() - 1) - S103))</f>
         <v/>
@@ -6084,7 +5994,7 @@
         <v/>
       </c>
       <c r="U103" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V103" s="0" t="n">
@@ -6100,7 +6010,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J104" s="9" t="str">
         <f aca="true">IF(M104="", IF(O104="","",X104+(INDIRECT("S" &amp; ROW() - 1) - S104)),IF(O104="", "", INDIRECT("S" &amp; ROW() - 1) - S104))</f>
         <v/>
@@ -6135,7 +6045,7 @@
         <v/>
       </c>
       <c r="U104" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V104" s="0" t="n">
@@ -6151,7 +6061,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J105" s="9" t="str">
         <f aca="true">IF(M105="", IF(O105="","",X105+(INDIRECT("S" &amp; ROW() - 1) - S105)),IF(O105="", "", INDIRECT("S" &amp; ROW() - 1) - S105))</f>
         <v/>
@@ -6186,7 +6096,7 @@
         <v/>
       </c>
       <c r="U105" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V105" s="0" t="n">
@@ -6202,7 +6112,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J106" s="9" t="str">
         <f aca="true">IF(M106="", IF(O106="","",X106+(INDIRECT("S" &amp; ROW() - 1) - S106)),IF(O106="", "", INDIRECT("S" &amp; ROW() - 1) - S106))</f>
         <v/>
@@ -6237,7 +6147,7 @@
         <v/>
       </c>
       <c r="U106" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V106" s="0" t="n">
@@ -6253,7 +6163,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J107" s="9" t="str">
         <f aca="true">IF(M107="", IF(O107="","",X107+(INDIRECT("S" &amp; ROW() - 1) - S107)),IF(O107="", "", INDIRECT("S" &amp; ROW() - 1) - S107))</f>
         <v/>
@@ -6288,7 +6198,7 @@
         <v/>
       </c>
       <c r="U107" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V107" s="0" t="n">
@@ -6304,7 +6214,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J108" s="9" t="str">
         <f aca="true">IF(M108="", IF(O108="","",X108+(INDIRECT("S" &amp; ROW() - 1) - S108)),IF(O108="", "", INDIRECT("S" &amp; ROW() - 1) - S108))</f>
         <v/>
@@ -6339,7 +6249,7 @@
         <v/>
       </c>
       <c r="U108" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V108" s="0" t="n">
@@ -6355,7 +6265,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J109" s="9" t="str">
         <f aca="true">IF(M109="", IF(O109="","",X109+(INDIRECT("S" &amp; ROW() - 1) - S109)),IF(O109="", "", INDIRECT("S" &amp; ROW() - 1) - S109))</f>
         <v/>
@@ -6390,7 +6300,7 @@
         <v/>
       </c>
       <c r="U109" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V109" s="0" t="n">
@@ -6406,7 +6316,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J110" s="9" t="str">
         <f aca="true">IF(M110="", IF(O110="","",X110+(INDIRECT("S" &amp; ROW() - 1) - S110)),IF(O110="", "", INDIRECT("S" &amp; ROW() - 1) - S110))</f>
         <v/>
@@ -6441,7 +6351,7 @@
         <v/>
       </c>
       <c r="U110" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V110" s="0" t="n">
@@ -6457,7 +6367,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J111" s="9" t="str">
         <f aca="true">IF(M111="", IF(O111="","",X111+(INDIRECT("S" &amp; ROW() - 1) - S111)),IF(O111="", "", INDIRECT("S" &amp; ROW() - 1) - S111))</f>
         <v/>
@@ -6492,7 +6402,7 @@
         <v/>
       </c>
       <c r="U111" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V111" s="0" t="n">
@@ -6508,7 +6418,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J112" s="9" t="str">
         <f aca="true">IF(M112="", IF(O112="","",X112+(INDIRECT("S" &amp; ROW() - 1) - S112)),IF(O112="", "", INDIRECT("S" &amp; ROW() - 1) - S112))</f>
         <v/>
@@ -6543,7 +6453,7 @@
         <v/>
       </c>
       <c r="U112" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V112" s="0" t="n">
@@ -6559,7 +6469,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J113" s="9" t="str">
         <f aca="true">IF(M113="", IF(O113="","",X113+(INDIRECT("S" &amp; ROW() - 1) - S113)),IF(O113="", "", INDIRECT("S" &amp; ROW() - 1) - S113))</f>
         <v/>
@@ -6594,7 +6504,7 @@
         <v/>
       </c>
       <c r="U113" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V113" s="0" t="n">
@@ -6610,7 +6520,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J114" s="9" t="str">
         <f aca="true">IF(M114="", IF(O114="","",X114+(INDIRECT("S" &amp; ROW() - 1) - S114)),IF(O114="", "", INDIRECT("S" &amp; ROW() - 1) - S114))</f>
         <v/>
@@ -6645,7 +6555,7 @@
         <v/>
       </c>
       <c r="U114" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V114" s="0" t="n">
@@ -6661,7 +6571,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J115" s="9" t="str">
         <f aca="true">IF(M115="", IF(O115="","",X115+(INDIRECT("S" &amp; ROW() - 1) - S115)),IF(O115="", "", INDIRECT("S" &amp; ROW() - 1) - S115))</f>
         <v/>
@@ -6696,7 +6606,7 @@
         <v/>
       </c>
       <c r="U115" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V115" s="0" t="n">
@@ -6712,7 +6622,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J116" s="9" t="str">
         <f aca="true">IF(M116="", IF(O116="","",X116+(INDIRECT("S" &amp; ROW() - 1) - S116)),IF(O116="", "", INDIRECT("S" &amp; ROW() - 1) - S116))</f>
         <v/>
@@ -6747,7 +6657,7 @@
         <v/>
       </c>
       <c r="U116" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V116" s="0" t="n">
@@ -6763,7 +6673,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J117" s="9" t="str">
         <f aca="true">IF(M117="", IF(O117="","",X117+(INDIRECT("S" &amp; ROW() - 1) - S117)),IF(O117="", "", INDIRECT("S" &amp; ROW() - 1) - S117))</f>
         <v/>
@@ -6798,7 +6708,7 @@
         <v/>
       </c>
       <c r="U117" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V117" s="0" t="n">
@@ -6814,7 +6724,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J118" s="9" t="str">
         <f aca="true">IF(M118="", IF(O118="","",X118+(INDIRECT("S" &amp; ROW() - 1) - S118)),IF(O118="", "", INDIRECT("S" &amp; ROW() - 1) - S118))</f>
         <v/>
@@ -6849,7 +6759,7 @@
         <v/>
       </c>
       <c r="U118" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V118" s="0" t="n">
@@ -6865,7 +6775,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J119" s="9" t="str">
         <f aca="true">IF(M119="", IF(O119="","",X119+(INDIRECT("S" &amp; ROW() - 1) - S119)),IF(O119="", "", INDIRECT("S" &amp; ROW() - 1) - S119))</f>
         <v/>
@@ -6900,7 +6810,7 @@
         <v/>
       </c>
       <c r="U119" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V119" s="0" t="n">
@@ -6916,7 +6826,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J120" s="9" t="str">
         <f aca="true">IF(M120="", IF(O120="","",X120+(INDIRECT("S" &amp; ROW() - 1) - S120)),IF(O120="", "", INDIRECT("S" &amp; ROW() - 1) - S120))</f>
         <v/>
@@ -6951,7 +6861,7 @@
         <v/>
       </c>
       <c r="U120" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V120" s="0" t="n">
@@ -6967,7 +6877,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J121" s="9" t="str">
         <f aca="true">IF(M121="", IF(O121="","",X121+(INDIRECT("S" &amp; ROW() - 1) - S121)),IF(O121="", "", INDIRECT("S" &amp; ROW() - 1) - S121))</f>
         <v/>
@@ -7002,7 +6912,7 @@
         <v/>
       </c>
       <c r="U121" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V121" s="0" t="n">
@@ -7018,7 +6928,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J122" s="9" t="str">
         <f aca="true">IF(M122="", IF(O122="","",X122+(INDIRECT("S" &amp; ROW() - 1) - S122)),IF(O122="", "", INDIRECT("S" &amp; ROW() - 1) - S122))</f>
         <v/>
@@ -7053,7 +6963,7 @@
         <v/>
       </c>
       <c r="U122" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V122" s="0" t="n">
@@ -7686,26 +7596,26 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="B2:B122" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="B2:B122" type="list">
       <formula1>'Типы варок'!$A$1:$A$102</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="E2:F122" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="E2:F122" type="list">
       <formula1>'Форм фактор плавления'!$A$1:$A$25</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="L1:L122" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="L1:L122" type="list">
       <formula1>Мойки!$A$1:$A$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="H2:H200" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="H2:H200" type="list">
       <formula1>'Вода SKU'!$A$1:$A$150</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -7714,21 +7624,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:X287"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="10.36"/>
@@ -7748,8 +7657,7 @@
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="21" min="21" style="0" width="6.64"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="22" min="22" style="0" width="14.54"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="23" min="23" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="24" min="24" style="0" width="8.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="25" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="25" min="24" style="0" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7823,7 +7731,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J2" s="9" t="str">
         <f aca="true">IF(M2="", IF(O2="","",X2+(INDIRECT("S" &amp; ROW() - 1) - S2)),IF(O2="", "", INDIRECT("S" &amp; ROW() - 1) - S2))</f>
         <v/>
@@ -7858,7 +7766,7 @@
         <v/>
       </c>
       <c r="U2" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V2" s="0" t="n">
@@ -7874,7 +7782,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J3" s="9" t="str">
         <f aca="true">IF(M3="", IF(O3="","",X3+(INDIRECT("S" &amp; ROW() - 1) - S3)),IF(O3="", "", INDIRECT("S" &amp; ROW() - 1) - S3))</f>
         <v/>
@@ -7909,7 +7817,7 @@
         <v/>
       </c>
       <c r="U3" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V3" s="0" t="n">
@@ -7925,7 +7833,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J4" s="9" t="str">
         <f aca="true">IF(M4="", IF(O4="","",X4+(INDIRECT("S" &amp; ROW() - 1) - S4)),IF(O4="", "", INDIRECT("S" &amp; ROW() - 1) - S4))</f>
         <v/>
@@ -7960,7 +7868,7 @@
         <v/>
       </c>
       <c r="U4" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V4" s="0" t="n">
@@ -7976,7 +7884,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J5" s="9" t="str">
         <f aca="true">IF(M5="", IF(O5="","",X5+(INDIRECT("S" &amp; ROW() - 1) - S5)),IF(O5="", "", INDIRECT("S" &amp; ROW() - 1) - S5))</f>
         <v/>
@@ -8011,7 +7919,7 @@
         <v/>
       </c>
       <c r="U5" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V5" s="0" t="n">
@@ -8027,7 +7935,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J6" s="9" t="str">
         <f aca="true">IF(M6="", IF(O6="","",X6+(INDIRECT("S" &amp; ROW() - 1) - S6)),IF(O6="", "", INDIRECT("S" &amp; ROW() - 1) - S6))</f>
         <v/>
@@ -8062,7 +7970,7 @@
         <v/>
       </c>
       <c r="U6" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V6" s="0" t="n">
@@ -8078,7 +7986,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J7" s="9" t="str">
         <f aca="true">IF(M7="", IF(O7="","",X7+(INDIRECT("S" &amp; ROW() - 1) - S7)),IF(O7="", "", INDIRECT("S" &amp; ROW() - 1) - S7))</f>
         <v/>
@@ -8113,7 +8021,7 @@
         <v/>
       </c>
       <c r="U7" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V7" s="0" t="n">
@@ -8129,7 +8037,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J8" s="9" t="str">
         <f aca="true">IF(M8="", IF(O8="","",X8+(INDIRECT("S" &amp; ROW() - 1) - S8)),IF(O8="", "", INDIRECT("S" &amp; ROW() - 1) - S8))</f>
         <v/>
@@ -8164,7 +8072,7 @@
         <v/>
       </c>
       <c r="U8" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V8" s="0" t="n">
@@ -8180,7 +8088,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J9" s="9" t="str">
         <f aca="true">IF(M9="", IF(O9="","",X9+(INDIRECT("S" &amp; ROW() - 1) - S9)),IF(O9="", "", INDIRECT("S" &amp; ROW() - 1) - S9))</f>
         <v/>
@@ -8215,7 +8123,7 @@
         <v/>
       </c>
       <c r="U9" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V9" s="0" t="n">
@@ -8231,7 +8139,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J10" s="9" t="str">
         <f aca="true">IF(M10="", IF(O10="","",X10+(INDIRECT("S" &amp; ROW() - 1) - S10)),IF(O10="", "", INDIRECT("S" &amp; ROW() - 1) - S10))</f>
         <v/>
@@ -8266,7 +8174,7 @@
         <v/>
       </c>
       <c r="U10" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V10" s="0" t="n">
@@ -8282,7 +8190,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J11" s="9" t="str">
         <f aca="true">IF(M11="", IF(O11="","",X11+(INDIRECT("S" &amp; ROW() - 1) - S11)),IF(O11="", "", INDIRECT("S" &amp; ROW() - 1) - S11))</f>
         <v/>
@@ -8317,7 +8225,7 @@
         <v/>
       </c>
       <c r="U11" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V11" s="0" t="n">
@@ -8333,7 +8241,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J12" s="9" t="str">
         <f aca="true">IF(M12="", IF(O12="","",X12+(INDIRECT("S" &amp; ROW() - 1) - S12)),IF(O12="", "", INDIRECT("S" &amp; ROW() - 1) - S12))</f>
         <v/>
@@ -8368,7 +8276,7 @@
         <v/>
       </c>
       <c r="U12" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V12" s="0" t="n">
@@ -8384,7 +8292,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J13" s="9" t="str">
         <f aca="true">IF(M13="", IF(O13="","",X13+(INDIRECT("S" &amp; ROW() - 1) - S13)),IF(O13="", "", INDIRECT("S" &amp; ROW() - 1) - S13))</f>
         <v/>
@@ -8419,7 +8327,7 @@
         <v/>
       </c>
       <c r="U13" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V13" s="0" t="n">
@@ -8435,7 +8343,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J14" s="9" t="str">
         <f aca="true">IF(M14="", IF(O14="","",X14+(INDIRECT("S" &amp; ROW() - 1) - S14)),IF(O14="", "", INDIRECT("S" &amp; ROW() - 1) - S14))</f>
         <v/>
@@ -8470,7 +8378,7 @@
         <v/>
       </c>
       <c r="U14" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V14" s="0" t="n">
@@ -8486,7 +8394,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J15" s="9" t="str">
         <f aca="true">IF(M15="", IF(O15="","",X15+(INDIRECT("S" &amp; ROW() - 1) - S15)),IF(O15="", "", INDIRECT("S" &amp; ROW() - 1) - S15))</f>
         <v/>
@@ -8521,7 +8429,7 @@
         <v/>
       </c>
       <c r="U15" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V15" s="0" t="n">
@@ -8537,7 +8445,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J16" s="9" t="str">
         <f aca="true">IF(M16="", IF(O16="","",X16+(INDIRECT("S" &amp; ROW() - 1) - S16)),IF(O16="", "", INDIRECT("S" &amp; ROW() - 1) - S16))</f>
         <v/>
@@ -8572,7 +8480,7 @@
         <v/>
       </c>
       <c r="U16" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V16" s="0" t="n">
@@ -8588,7 +8496,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J17" s="9" t="str">
         <f aca="true">IF(M17="", IF(O17="","",X17+(INDIRECT("S" &amp; ROW() - 1) - S17)),IF(O17="", "", INDIRECT("S" &amp; ROW() - 1) - S17))</f>
         <v/>
@@ -8623,7 +8531,7 @@
         <v/>
       </c>
       <c r="U17" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V17" s="0" t="n">
@@ -8639,7 +8547,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J18" s="9" t="str">
         <f aca="true">IF(M18="", IF(O18="","",X18+(INDIRECT("S" &amp; ROW() - 1) - S18)),IF(O18="", "", INDIRECT("S" &amp; ROW() - 1) - S18))</f>
         <v/>
@@ -8674,7 +8582,7 @@
         <v/>
       </c>
       <c r="U18" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V18" s="0" t="n">
@@ -8690,7 +8598,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J19" s="9" t="str">
         <f aca="true">IF(M19="", IF(O19="","",X19+(INDIRECT("S" &amp; ROW() - 1) - S19)),IF(O19="", "", INDIRECT("S" &amp; ROW() - 1) - S19))</f>
         <v/>
@@ -8725,7 +8633,7 @@
         <v/>
       </c>
       <c r="U19" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V19" s="0" t="n">
@@ -8741,7 +8649,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J20" s="9" t="str">
         <f aca="true">IF(M20="", IF(O20="","",X20+(INDIRECT("S" &amp; ROW() - 1) - S20)),IF(O20="", "", INDIRECT("S" &amp; ROW() - 1) - S20))</f>
         <v/>
@@ -8776,7 +8684,7 @@
         <v/>
       </c>
       <c r="U20" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V20" s="0" t="n">
@@ -8792,7 +8700,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J21" s="9" t="str">
         <f aca="true">IF(M21="", IF(O21="","",X21+(INDIRECT("S" &amp; ROW() - 1) - S21)),IF(O21="", "", INDIRECT("S" &amp; ROW() - 1) - S21))</f>
         <v/>
@@ -8827,7 +8735,7 @@
         <v/>
       </c>
       <c r="U21" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V21" s="0" t="n">
@@ -8843,7 +8751,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J22" s="9" t="str">
         <f aca="true">IF(M22="", IF(O22="","",X22+(INDIRECT("S" &amp; ROW() - 1) - S22)),IF(O22="", "", INDIRECT("S" &amp; ROW() - 1) - S22))</f>
         <v/>
@@ -8878,7 +8786,7 @@
         <v/>
       </c>
       <c r="U22" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V22" s="0" t="n">
@@ -8894,7 +8802,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J23" s="9" t="str">
         <f aca="true">IF(M23="", IF(O23="","",X23+(INDIRECT("S" &amp; ROW() - 1) - S23)),IF(O23="", "", INDIRECT("S" &amp; ROW() - 1) - S23))</f>
         <v/>
@@ -8929,7 +8837,7 @@
         <v/>
       </c>
       <c r="U23" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V23" s="0" t="n">
@@ -8945,7 +8853,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J24" s="9" t="str">
         <f aca="true">IF(M24="", IF(O24="","",X24+(INDIRECT("S" &amp; ROW() - 1) - S24)),IF(O24="", "", INDIRECT("S" &amp; ROW() - 1) - S24))</f>
         <v/>
@@ -8980,7 +8888,7 @@
         <v/>
       </c>
       <c r="U24" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V24" s="0" t="n">
@@ -8996,7 +8904,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J25" s="9" t="str">
         <f aca="true">IF(M25="", IF(O25="","",X25+(INDIRECT("S" &amp; ROW() - 1) - S25)),IF(O25="", "", INDIRECT("S" &amp; ROW() - 1) - S25))</f>
         <v/>
@@ -9031,7 +8939,7 @@
         <v/>
       </c>
       <c r="U25" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V25" s="0" t="n">
@@ -9047,7 +8955,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J26" s="9" t="str">
         <f aca="true">IF(M26="", IF(O26="","",X26+(INDIRECT("S" &amp; ROW() - 1) - S26)),IF(O26="", "", INDIRECT("S" &amp; ROW() - 1) - S26))</f>
         <v/>
@@ -9082,7 +8990,7 @@
         <v/>
       </c>
       <c r="U26" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V26" s="0" t="n">
@@ -9098,7 +9006,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J27" s="9" t="str">
         <f aca="true">IF(M27="", IF(O27="","",X27+(INDIRECT("S" &amp; ROW() - 1) - S27)),IF(O27="", "", INDIRECT("S" &amp; ROW() - 1) - S27))</f>
         <v/>
@@ -9133,7 +9041,7 @@
         <v/>
       </c>
       <c r="U27" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V27" s="0" t="n">
@@ -9149,7 +9057,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J28" s="9" t="str">
         <f aca="true">IF(M28="", IF(O28="","",X28+(INDIRECT("S" &amp; ROW() - 1) - S28)),IF(O28="", "", INDIRECT("S" &amp; ROW() - 1) - S28))</f>
         <v/>
@@ -9184,7 +9092,7 @@
         <v/>
       </c>
       <c r="U28" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V28" s="0" t="n">
@@ -9200,7 +9108,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J29" s="9" t="str">
         <f aca="true">IF(M29="", IF(O29="","",X29+(INDIRECT("S" &amp; ROW() - 1) - S29)),IF(O29="", "", INDIRECT("S" &amp; ROW() - 1) - S29))</f>
         <v/>
@@ -9235,7 +9143,7 @@
         <v/>
       </c>
       <c r="U29" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V29" s="0" t="n">
@@ -9251,7 +9159,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J30" s="9" t="str">
         <f aca="true">IF(M30="", IF(O30="","",X30+(INDIRECT("S" &amp; ROW() - 1) - S30)),IF(O30="", "", INDIRECT("S" &amp; ROW() - 1) - S30))</f>
         <v/>
@@ -9286,7 +9194,7 @@
         <v/>
       </c>
       <c r="U30" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V30" s="0" t="n">
@@ -9302,7 +9210,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J31" s="9" t="str">
         <f aca="true">IF(M31="", IF(O31="","",X31+(INDIRECT("S" &amp; ROW() - 1) - S31)),IF(O31="", "", INDIRECT("S" &amp; ROW() - 1) - S31))</f>
         <v/>
@@ -9337,7 +9245,7 @@
         <v/>
       </c>
       <c r="U31" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V31" s="0" t="n">
@@ -9353,7 +9261,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J32" s="9" t="str">
         <f aca="true">IF(M32="", IF(O32="","",X32+(INDIRECT("S" &amp; ROW() - 1) - S32)),IF(O32="", "", INDIRECT("S" &amp; ROW() - 1) - S32))</f>
         <v/>
@@ -9388,7 +9296,7 @@
         <v/>
       </c>
       <c r="U32" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V32" s="0" t="n">
@@ -9404,7 +9312,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J33" s="9" t="str">
         <f aca="true">IF(M33="", IF(O33="","",X33+(INDIRECT("S" &amp; ROW() - 1) - S33)),IF(O33="", "", INDIRECT("S" &amp; ROW() - 1) - S33))</f>
         <v/>
@@ -9439,7 +9347,7 @@
         <v/>
       </c>
       <c r="U33" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V33" s="0" t="n">
@@ -9455,7 +9363,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J34" s="9" t="str">
         <f aca="true">IF(M34="", IF(O34="","",X34+(INDIRECT("S" &amp; ROW() - 1) - S34)),IF(O34="", "", INDIRECT("S" &amp; ROW() - 1) - S34))</f>
         <v/>
@@ -9490,7 +9398,7 @@
         <v/>
       </c>
       <c r="U34" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V34" s="0" t="n">
@@ -9506,7 +9414,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J35" s="9" t="str">
         <f aca="true">IF(M35="", IF(O35="","",X35+(INDIRECT("S" &amp; ROW() - 1) - S35)),IF(O35="", "", INDIRECT("S" &amp; ROW() - 1) - S35))</f>
         <v/>
@@ -9541,7 +9449,7 @@
         <v/>
       </c>
       <c r="U35" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V35" s="0" t="n">
@@ -9557,7 +9465,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J36" s="9" t="str">
         <f aca="true">IF(M36="", IF(O36="","",X36+(INDIRECT("S" &amp; ROW() - 1) - S36)),IF(O36="", "", INDIRECT("S" &amp; ROW() - 1) - S36))</f>
         <v/>
@@ -9592,7 +9500,7 @@
         <v/>
       </c>
       <c r="U36" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V36" s="0" t="n">
@@ -9608,7 +9516,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J37" s="9" t="str">
         <f aca="true">IF(M37="", IF(O37="","",X37+(INDIRECT("S" &amp; ROW() - 1) - S37)),IF(O37="", "", INDIRECT("S" &amp; ROW() - 1) - S37))</f>
         <v/>
@@ -9643,7 +9551,7 @@
         <v/>
       </c>
       <c r="U37" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V37" s="0" t="n">
@@ -9659,7 +9567,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J38" s="9" t="str">
         <f aca="true">IF(M38="", IF(O38="","",X38+(INDIRECT("S" &amp; ROW() - 1) - S38)),IF(O38="", "", INDIRECT("S" &amp; ROW() - 1) - S38))</f>
         <v/>
@@ -9694,7 +9602,7 @@
         <v/>
       </c>
       <c r="U38" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V38" s="0" t="n">
@@ -9710,7 +9618,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J39" s="9" t="str">
         <f aca="true">IF(M39="", IF(O39="","",X39+(INDIRECT("S" &amp; ROW() - 1) - S39)),IF(O39="", "", INDIRECT("S" &amp; ROW() - 1) - S39))</f>
         <v/>
@@ -9745,7 +9653,7 @@
         <v/>
       </c>
       <c r="U39" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V39" s="0" t="n">
@@ -9761,7 +9669,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J40" s="9" t="str">
         <f aca="true">IF(M40="", IF(O40="","",X40+(INDIRECT("S" &amp; ROW() - 1) - S40)),IF(O40="", "", INDIRECT("S" &amp; ROW() - 1) - S40))</f>
         <v/>
@@ -9796,7 +9704,7 @@
         <v/>
       </c>
       <c r="U40" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V40" s="0" t="n">
@@ -9812,7 +9720,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J41" s="9" t="str">
         <f aca="true">IF(M41="", IF(O41="","",X41+(INDIRECT("S" &amp; ROW() - 1) - S41)),IF(O41="", "", INDIRECT("S" &amp; ROW() - 1) - S41))</f>
         <v/>
@@ -9847,7 +9755,7 @@
         <v/>
       </c>
       <c r="U41" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V41" s="0" t="n">
@@ -9863,7 +9771,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J42" s="9" t="str">
         <f aca="true">IF(M42="", IF(O42="","",X42+(INDIRECT("S" &amp; ROW() - 1) - S42)),IF(O42="", "", INDIRECT("S" &amp; ROW() - 1) - S42))</f>
         <v/>
@@ -9898,7 +9806,7 @@
         <v/>
       </c>
       <c r="U42" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V42" s="0" t="n">
@@ -9914,7 +9822,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J43" s="9" t="str">
         <f aca="true">IF(M43="", IF(O43="","",X43+(INDIRECT("S" &amp; ROW() - 1) - S43)),IF(O43="", "", INDIRECT("S" &amp; ROW() - 1) - S43))</f>
         <v/>
@@ -9949,7 +9857,7 @@
         <v/>
       </c>
       <c r="U43" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V43" s="0" t="n">
@@ -9965,7 +9873,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J44" s="9" t="str">
         <f aca="true">IF(M44="", IF(O44="","",X44+(INDIRECT("S" &amp; ROW() - 1) - S44)),IF(O44="", "", INDIRECT("S" &amp; ROW() - 1) - S44))</f>
         <v/>
@@ -10000,7 +9908,7 @@
         <v/>
       </c>
       <c r="U44" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V44" s="0" t="n">
@@ -10016,7 +9924,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J45" s="9" t="str">
         <f aca="true">IF(M45="", IF(O45="","",X45+(INDIRECT("S" &amp; ROW() - 1) - S45)),IF(O45="", "", INDIRECT("S" &amp; ROW() - 1) - S45))</f>
         <v/>
@@ -10051,7 +9959,7 @@
         <v/>
       </c>
       <c r="U45" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V45" s="0" t="n">
@@ -10067,7 +9975,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J46" s="9" t="str">
         <f aca="true">IF(M46="", IF(O46="","",X46+(INDIRECT("S" &amp; ROW() - 1) - S46)),IF(O46="", "", INDIRECT("S" &amp; ROW() - 1) - S46))</f>
         <v/>
@@ -10102,7 +10010,7 @@
         <v/>
       </c>
       <c r="U46" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V46" s="0" t="n">
@@ -10118,7 +10026,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J47" s="9" t="str">
         <f aca="true">IF(M47="", IF(O47="","",X47+(INDIRECT("S" &amp; ROW() - 1) - S47)),IF(O47="", "", INDIRECT("S" &amp; ROW() - 1) - S47))</f>
         <v/>
@@ -10153,7 +10061,7 @@
         <v/>
       </c>
       <c r="U47" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V47" s="0" t="n">
@@ -10169,7 +10077,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J48" s="9" t="str">
         <f aca="true">IF(M48="", IF(O48="","",X48+(INDIRECT("S" &amp; ROW() - 1) - S48)),IF(O48="", "", INDIRECT("S" &amp; ROW() - 1) - S48))</f>
         <v/>
@@ -10204,7 +10112,7 @@
         <v/>
       </c>
       <c r="U48" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V48" s="0" t="n">
@@ -10220,7 +10128,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J49" s="9" t="str">
         <f aca="true">IF(M49="", IF(O49="","",X49+(INDIRECT("S" &amp; ROW() - 1) - S49)),IF(O49="", "", INDIRECT("S" &amp; ROW() - 1) - S49))</f>
         <v/>
@@ -10255,7 +10163,7 @@
         <v/>
       </c>
       <c r="U49" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V49" s="0" t="n">
@@ -10271,7 +10179,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J50" s="9" t="str">
         <f aca="true">IF(M50="", IF(O50="","",X50+(INDIRECT("S" &amp; ROW() - 1) - S50)),IF(O50="", "", INDIRECT("S" &amp; ROW() - 1) - S50))</f>
         <v/>
@@ -10306,7 +10214,7 @@
         <v/>
       </c>
       <c r="U50" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V50" s="0" t="n">
@@ -10322,7 +10230,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J51" s="9" t="str">
         <f aca="true">IF(M51="", IF(O51="","",X51+(INDIRECT("S" &amp; ROW() - 1) - S51)),IF(O51="", "", INDIRECT("S" &amp; ROW() - 1) - S51))</f>
         <v/>
@@ -10357,7 +10265,7 @@
         <v/>
       </c>
       <c r="U51" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V51" s="0" t="n">
@@ -10373,7 +10281,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J52" s="9" t="str">
         <f aca="true">IF(M52="", IF(O52="","",X52+(INDIRECT("S" &amp; ROW() - 1) - S52)),IF(O52="", "", INDIRECT("S" &amp; ROW() - 1) - S52))</f>
         <v/>
@@ -10408,7 +10316,7 @@
         <v/>
       </c>
       <c r="U52" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V52" s="0" t="n">
@@ -10424,7 +10332,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J53" s="9" t="str">
         <f aca="true">IF(M53="", IF(O53="","",X53+(INDIRECT("S" &amp; ROW() - 1) - S53)),IF(O53="", "", INDIRECT("S" &amp; ROW() - 1) - S53))</f>
         <v/>
@@ -10459,7 +10367,7 @@
         <v/>
       </c>
       <c r="U53" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V53" s="0" t="n">
@@ -10475,7 +10383,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J54" s="9" t="str">
         <f aca="true">IF(M54="", IF(O54="","",X54+(INDIRECT("S" &amp; ROW() - 1) - S54)),IF(O54="", "", INDIRECT("S" &amp; ROW() - 1) - S54))</f>
         <v/>
@@ -10510,7 +10418,7 @@
         <v/>
       </c>
       <c r="U54" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V54" s="0" t="n">
@@ -10526,7 +10434,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J55" s="9" t="str">
         <f aca="true">IF(M55="", IF(O55="","",X55+(INDIRECT("S" &amp; ROW() - 1) - S55)),IF(O55="", "", INDIRECT("S" &amp; ROW() - 1) - S55))</f>
         <v/>
@@ -10561,7 +10469,7 @@
         <v/>
       </c>
       <c r="U55" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V55" s="0" t="n">
@@ -10577,7 +10485,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J56" s="9" t="str">
         <f aca="true">IF(M56="", IF(O56="","",X56+(INDIRECT("S" &amp; ROW() - 1) - S56)),IF(O56="", "", INDIRECT("S" &amp; ROW() - 1) - S56))</f>
         <v/>
@@ -10612,7 +10520,7 @@
         <v/>
       </c>
       <c r="U56" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V56" s="0" t="n">
@@ -10628,7 +10536,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J57" s="9" t="str">
         <f aca="true">IF(M57="", IF(O57="","",X57+(INDIRECT("S" &amp; ROW() - 1) - S57)),IF(O57="", "", INDIRECT("S" &amp; ROW() - 1) - S57))</f>
         <v/>
@@ -10663,7 +10571,7 @@
         <v/>
       </c>
       <c r="U57" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V57" s="0" t="n">
@@ -10679,7 +10587,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J58" s="9" t="str">
         <f aca="true">IF(M58="", IF(O58="","",X58+(INDIRECT("S" &amp; ROW() - 1) - S58)),IF(O58="", "", INDIRECT("S" &amp; ROW() - 1) - S58))</f>
         <v/>
@@ -10714,7 +10622,7 @@
         <v/>
       </c>
       <c r="U58" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V58" s="0" t="n">
@@ -10730,7 +10638,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J59" s="9" t="str">
         <f aca="true">IF(M59="", IF(O59="","",X59+(INDIRECT("S" &amp; ROW() - 1) - S59)),IF(O59="", "", INDIRECT("S" &amp; ROW() - 1) - S59))</f>
         <v/>
@@ -10765,7 +10673,7 @@
         <v/>
       </c>
       <c r="U59" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V59" s="0" t="n">
@@ -10781,7 +10689,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J60" s="9" t="str">
         <f aca="true">IF(M60="", IF(O60="","",X60+(INDIRECT("S" &amp; ROW() - 1) - S60)),IF(O60="", "", INDIRECT("S" &amp; ROW() - 1) - S60))</f>
         <v/>
@@ -10816,7 +10724,7 @@
         <v/>
       </c>
       <c r="U60" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V60" s="0" t="n">
@@ -10832,7 +10740,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J61" s="9" t="str">
         <f aca="true">IF(M61="", IF(O61="","",X61+(INDIRECT("S" &amp; ROW() - 1) - S61)),IF(O61="", "", INDIRECT("S" &amp; ROW() - 1) - S61))</f>
         <v/>
@@ -10867,7 +10775,7 @@
         <v/>
       </c>
       <c r="U61" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V61" s="0" t="n">
@@ -10883,7 +10791,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J62" s="9" t="str">
         <f aca="true">IF(M62="", IF(O62="","",X62+(INDIRECT("S" &amp; ROW() - 1) - S62)),IF(O62="", "", INDIRECT("S" &amp; ROW() - 1) - S62))</f>
         <v/>
@@ -10918,7 +10826,7 @@
         <v/>
       </c>
       <c r="U62" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V62" s="0" t="n">
@@ -10934,7 +10842,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J63" s="9" t="str">
         <f aca="true">IF(M63="", IF(O63="","",X63+(INDIRECT("S" &amp; ROW() - 1) - S63)),IF(O63="", "", INDIRECT("S" &amp; ROW() - 1) - S63))</f>
         <v/>
@@ -10969,7 +10877,7 @@
         <v/>
       </c>
       <c r="U63" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V63" s="0" t="n">
@@ -10985,7 +10893,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J64" s="9" t="str">
         <f aca="true">IF(M64="", IF(O64="","",X64+(INDIRECT("S" &amp; ROW() - 1) - S64)),IF(O64="", "", INDIRECT("S" &amp; ROW() - 1) - S64))</f>
         <v/>
@@ -11020,7 +10928,7 @@
         <v/>
       </c>
       <c r="U64" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V64" s="0" t="n">
@@ -11036,7 +10944,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J65" s="9" t="str">
         <f aca="true">IF(M65="", IF(O65="","",X65+(INDIRECT("S" &amp; ROW() - 1) - S65)),IF(O65="", "", INDIRECT("S" &amp; ROW() - 1) - S65))</f>
         <v/>
@@ -11071,7 +10979,7 @@
         <v/>
       </c>
       <c r="U65" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V65" s="0" t="n">
@@ -11087,7 +10995,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J66" s="9" t="str">
         <f aca="true">IF(M66="", IF(O66="","",X66+(INDIRECT("S" &amp; ROW() - 1) - S66)),IF(O66="", "", INDIRECT("S" &amp; ROW() - 1) - S66))</f>
         <v/>
@@ -11122,7 +11030,7 @@
         <v/>
       </c>
       <c r="U66" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V66" s="0" t="n">
@@ -11138,7 +11046,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J67" s="9" t="str">
         <f aca="true">IF(M67="", IF(O67="","",X67+(INDIRECT("S" &amp; ROW() - 1) - S67)),IF(O67="", "", INDIRECT("S" &amp; ROW() - 1) - S67))</f>
         <v/>
@@ -11173,7 +11081,7 @@
         <v/>
       </c>
       <c r="U67" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V67" s="0" t="n">
@@ -11189,7 +11097,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J68" s="9" t="str">
         <f aca="true">IF(M68="", IF(O68="","",X68+(INDIRECT("S" &amp; ROW() - 1) - S68)),IF(O68="", "", INDIRECT("S" &amp; ROW() - 1) - S68))</f>
         <v/>
@@ -11224,7 +11132,7 @@
         <v/>
       </c>
       <c r="U68" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V68" s="0" t="n">
@@ -11240,7 +11148,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J69" s="9" t="str">
         <f aca="true">IF(M69="", IF(O69="","",X69+(INDIRECT("S" &amp; ROW() - 1) - S69)),IF(O69="", "", INDIRECT("S" &amp; ROW() - 1) - S69))</f>
         <v/>
@@ -11275,7 +11183,7 @@
         <v/>
       </c>
       <c r="U69" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V69" s="0" t="n">
@@ -11291,7 +11199,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J70" s="9" t="str">
         <f aca="true">IF(M70="", IF(O70="","",X70+(INDIRECT("S" &amp; ROW() - 1) - S70)),IF(O70="", "", INDIRECT("S" &amp; ROW() - 1) - S70))</f>
         <v/>
@@ -11326,7 +11234,7 @@
         <v/>
       </c>
       <c r="U70" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V70" s="0" t="n">
@@ -11342,7 +11250,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J71" s="9" t="str">
         <f aca="true">IF(M71="", IF(O71="","",X71+(INDIRECT("S" &amp; ROW() - 1) - S71)),IF(O71="", "", INDIRECT("S" &amp; ROW() - 1) - S71))</f>
         <v/>
@@ -11377,7 +11285,7 @@
         <v/>
       </c>
       <c r="U71" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V71" s="0" t="n">
@@ -11393,7 +11301,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J72" s="9" t="str">
         <f aca="true">IF(M72="", IF(O72="","",X72+(INDIRECT("S" &amp; ROW() - 1) - S72)),IF(O72="", "", INDIRECT("S" &amp; ROW() - 1) - S72))</f>
         <v/>
@@ -11428,7 +11336,7 @@
         <v/>
       </c>
       <c r="U72" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V72" s="0" t="n">
@@ -11444,7 +11352,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J73" s="9" t="str">
         <f aca="true">IF(M73="", IF(O73="","",X73+(INDIRECT("S" &amp; ROW() - 1) - S73)),IF(O73="", "", INDIRECT("S" &amp; ROW() - 1) - S73))</f>
         <v/>
@@ -11479,7 +11387,7 @@
         <v/>
       </c>
       <c r="U73" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V73" s="0" t="n">
@@ -11495,7 +11403,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J74" s="9" t="str">
         <f aca="true">IF(M74="", IF(O74="","",X74+(INDIRECT("S" &amp; ROW() - 1) - S74)),IF(O74="", "", INDIRECT("S" &amp; ROW() - 1) - S74))</f>
         <v/>
@@ -11530,7 +11438,7 @@
         <v/>
       </c>
       <c r="U74" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V74" s="0" t="n">
@@ -11546,7 +11454,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J75" s="9" t="str">
         <f aca="true">IF(M75="", IF(O75="","",X75+(INDIRECT("S" &amp; ROW() - 1) - S75)),IF(O75="", "", INDIRECT("S" &amp; ROW() - 1) - S75))</f>
         <v/>
@@ -11581,7 +11489,7 @@
         <v/>
       </c>
       <c r="U75" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V75" s="0" t="n">
@@ -11597,7 +11505,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J76" s="9" t="str">
         <f aca="true">IF(M76="", IF(O76="","",X76+(INDIRECT("S" &amp; ROW() - 1) - S76)),IF(O76="", "", INDIRECT("S" &amp; ROW() - 1) - S76))</f>
         <v/>
@@ -11632,7 +11540,7 @@
         <v/>
       </c>
       <c r="U76" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V76" s="0" t="n">
@@ -11648,7 +11556,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J77" s="9" t="str">
         <f aca="true">IF(M77="", IF(O77="","",X77+(INDIRECT("S" &amp; ROW() - 1) - S77)),IF(O77="", "", INDIRECT("S" &amp; ROW() - 1) - S77))</f>
         <v/>
@@ -11683,7 +11591,7 @@
         <v/>
       </c>
       <c r="U77" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V77" s="0" t="n">
@@ -11699,7 +11607,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J78" s="9" t="str">
         <f aca="true">IF(M78="", IF(O78="","",X78+(INDIRECT("S" &amp; ROW() - 1) - S78)),IF(O78="", "", INDIRECT("S" &amp; ROW() - 1) - S78))</f>
         <v/>
@@ -11734,7 +11642,7 @@
         <v/>
       </c>
       <c r="U78" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V78" s="0" t="n">
@@ -11750,7 +11658,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J79" s="9" t="str">
         <f aca="true">IF(M79="", IF(O79="","",X79+(INDIRECT("S" &amp; ROW() - 1) - S79)),IF(O79="", "", INDIRECT("S" &amp; ROW() - 1) - S79))</f>
         <v/>
@@ -11785,7 +11693,7 @@
         <v/>
       </c>
       <c r="U79" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V79" s="0" t="n">
@@ -11801,7 +11709,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J80" s="9" t="str">
         <f aca="true">IF(M80="", IF(O80="","",X80+(INDIRECT("S" &amp; ROW() - 1) - S80)),IF(O80="", "", INDIRECT("S" &amp; ROW() - 1) - S80))</f>
         <v/>
@@ -11836,7 +11744,7 @@
         <v/>
       </c>
       <c r="U80" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V80" s="0" t="n">
@@ -11852,7 +11760,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J81" s="9" t="str">
         <f aca="true">IF(M81="", IF(O81="","",X81+(INDIRECT("S" &amp; ROW() - 1) - S81)),IF(O81="", "", INDIRECT("S" &amp; ROW() - 1) - S81))</f>
         <v/>
@@ -11887,7 +11795,7 @@
         <v/>
       </c>
       <c r="U81" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V81" s="0" t="n">
@@ -11903,7 +11811,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J82" s="9" t="str">
         <f aca="true">IF(M82="", IF(O82="","",X82+(INDIRECT("S" &amp; ROW() - 1) - S82)),IF(O82="", "", INDIRECT("S" &amp; ROW() - 1) - S82))</f>
         <v/>
@@ -11938,7 +11846,7 @@
         <v/>
       </c>
       <c r="U82" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V82" s="0" t="n">
@@ -11954,7 +11862,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J83" s="9" t="str">
         <f aca="true">IF(M83="", IF(O83="","",X83+(INDIRECT("S" &amp; ROW() - 1) - S83)),IF(O83="", "", INDIRECT("S" &amp; ROW() - 1) - S83))</f>
         <v/>
@@ -11989,7 +11897,7 @@
         <v/>
       </c>
       <c r="U83" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V83" s="0" t="n">
@@ -12005,7 +11913,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J84" s="9" t="str">
         <f aca="true">IF(M84="", IF(O84="","",X84+(INDIRECT("S" &amp; ROW() - 1) - S84)),IF(O84="", "", INDIRECT("S" &amp; ROW() - 1) - S84))</f>
         <v/>
@@ -12040,7 +11948,7 @@
         <v/>
       </c>
       <c r="U84" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V84" s="0" t="n">
@@ -12056,7 +11964,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J85" s="9" t="str">
         <f aca="true">IF(M85="", IF(O85="","",X85+(INDIRECT("S" &amp; ROW() - 1) - S85)),IF(O85="", "", INDIRECT("S" &amp; ROW() - 1) - S85))</f>
         <v/>
@@ -12091,7 +11999,7 @@
         <v/>
       </c>
       <c r="U85" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V85" s="0" t="n">
@@ -12107,7 +12015,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J86" s="9" t="str">
         <f aca="true">IF(M86="", IF(O86="","",X86+(INDIRECT("S" &amp; ROW() - 1) - S86)),IF(O86="", "", INDIRECT("S" &amp; ROW() - 1) - S86))</f>
         <v/>
@@ -12142,7 +12050,7 @@
         <v/>
       </c>
       <c r="U86" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V86" s="0" t="n">
@@ -12158,7 +12066,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J87" s="9" t="str">
         <f aca="true">IF(M87="", IF(O87="","",X87+(INDIRECT("S" &amp; ROW() - 1) - S87)),IF(O87="", "", INDIRECT("S" &amp; ROW() - 1) - S87))</f>
         <v/>
@@ -12193,7 +12101,7 @@
         <v/>
       </c>
       <c r="U87" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V87" s="0" t="n">
@@ -12209,7 +12117,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J88" s="9" t="str">
         <f aca="true">IF(M88="", IF(O88="","",X88+(INDIRECT("S" &amp; ROW() - 1) - S88)),IF(O88="", "", INDIRECT("S" &amp; ROW() - 1) - S88))</f>
         <v/>
@@ -12244,7 +12152,7 @@
         <v/>
       </c>
       <c r="U88" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V88" s="0" t="n">
@@ -12260,7 +12168,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J89" s="9" t="str">
         <f aca="true">IF(M89="", IF(O89="","",X89+(INDIRECT("S" &amp; ROW() - 1) - S89)),IF(O89="", "", INDIRECT("S" &amp; ROW() - 1) - S89))</f>
         <v/>
@@ -12295,7 +12203,7 @@
         <v/>
       </c>
       <c r="U89" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V89" s="0" t="n">
@@ -12311,7 +12219,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J90" s="9" t="str">
         <f aca="true">IF(M90="", IF(O90="","",X90+(INDIRECT("S" &amp; ROW() - 1) - S90)),IF(O90="", "", INDIRECT("S" &amp; ROW() - 1) - S90))</f>
         <v/>
@@ -12346,7 +12254,7 @@
         <v/>
       </c>
       <c r="U90" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V90" s="0" t="n">
@@ -12362,7 +12270,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J91" s="9" t="str">
         <f aca="true">IF(M91="", IF(O91="","",X91+(INDIRECT("S" &amp; ROW() - 1) - S91)),IF(O91="", "", INDIRECT("S" &amp; ROW() - 1) - S91))</f>
         <v/>
@@ -12397,7 +12305,7 @@
         <v/>
       </c>
       <c r="U91" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V91" s="0" t="n">
@@ -12413,7 +12321,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J92" s="9" t="str">
         <f aca="true">IF(M92="", IF(O92="","",X92+(INDIRECT("S" &amp; ROW() - 1) - S92)),IF(O92="", "", INDIRECT("S" &amp; ROW() - 1) - S92))</f>
         <v/>
@@ -12448,7 +12356,7 @@
         <v/>
       </c>
       <c r="U92" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V92" s="0" t="n">
@@ -12464,7 +12372,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J93" s="9" t="str">
         <f aca="true">IF(M93="", IF(O93="","",X93+(INDIRECT("S" &amp; ROW() - 1) - S93)),IF(O93="", "", INDIRECT("S" &amp; ROW() - 1) - S93))</f>
         <v/>
@@ -12499,7 +12407,7 @@
         <v/>
       </c>
       <c r="U93" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V93" s="0" t="n">
@@ -12515,7 +12423,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J94" s="9" t="str">
         <f aca="true">IF(M94="", IF(O94="","",X94+(INDIRECT("S" &amp; ROW() - 1) - S94)),IF(O94="", "", INDIRECT("S" &amp; ROW() - 1) - S94))</f>
         <v/>
@@ -12550,7 +12458,7 @@
         <v/>
       </c>
       <c r="U94" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V94" s="0" t="n">
@@ -12566,7 +12474,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J95" s="9" t="str">
         <f aca="true">IF(M95="", IF(O95="","",X95+(INDIRECT("S" &amp; ROW() - 1) - S95)),IF(O95="", "", INDIRECT("S" &amp; ROW() - 1) - S95))</f>
         <v/>
@@ -12601,7 +12509,7 @@
         <v/>
       </c>
       <c r="U95" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V95" s="0" t="n">
@@ -12617,7 +12525,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J96" s="9" t="str">
         <f aca="true">IF(M96="", IF(O96="","",X96+(INDIRECT("S" &amp; ROW() - 1) - S96)),IF(O96="", "", INDIRECT("S" &amp; ROW() - 1) - S96))</f>
         <v/>
@@ -12652,7 +12560,7 @@
         <v/>
       </c>
       <c r="U96" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V96" s="0" t="n">
@@ -12668,7 +12576,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J97" s="9" t="str">
         <f aca="true">IF(M97="", IF(O97="","",X97+(INDIRECT("S" &amp; ROW() - 1) - S97)),IF(O97="", "", INDIRECT("S" &amp; ROW() - 1) - S97))</f>
         <v/>
@@ -12703,7 +12611,7 @@
         <v/>
       </c>
       <c r="U97" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V97" s="0" t="n">
@@ -12719,7 +12627,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J98" s="9" t="str">
         <f aca="true">IF(M98="", IF(O98="","",X98+(INDIRECT("S" &amp; ROW() - 1) - S98)),IF(O98="", "", INDIRECT("S" &amp; ROW() - 1) - S98))</f>
         <v/>
@@ -12754,7 +12662,7 @@
         <v/>
       </c>
       <c r="U98" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V98" s="0" t="n">
@@ -12770,7 +12678,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J99" s="9" t="str">
         <f aca="true">IF(M99="", IF(O99="","",X99+(INDIRECT("S" &amp; ROW() - 1) - S99)),IF(O99="", "", INDIRECT("S" &amp; ROW() - 1) - S99))</f>
         <v/>
@@ -12805,7 +12713,7 @@
         <v/>
       </c>
       <c r="U99" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V99" s="0" t="n">
@@ -12821,7 +12729,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J100" s="9" t="str">
         <f aca="true">IF(M100="", IF(O100="","",X100+(INDIRECT("S" &amp; ROW() - 1) - S100)),IF(O100="", "", INDIRECT("S" &amp; ROW() - 1) - S100))</f>
         <v/>
@@ -12856,7 +12764,7 @@
         <v/>
       </c>
       <c r="U100" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V100" s="0" t="n">
@@ -12872,7 +12780,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J101" s="9" t="str">
         <f aca="true">IF(M101="", IF(O101="","",X101+(INDIRECT("S" &amp; ROW() - 1) - S101)),IF(O101="", "", INDIRECT("S" &amp; ROW() - 1) - S101))</f>
         <v/>
@@ -12907,7 +12815,7 @@
         <v/>
       </c>
       <c r="U101" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V101" s="0" t="n">
@@ -12923,7 +12831,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J102" s="9" t="str">
         <f aca="true">IF(M102="", IF(O102="","",X102+(INDIRECT("S" &amp; ROW() - 1) - S102)),IF(O102="", "", INDIRECT("S" &amp; ROW() - 1) - S102))</f>
         <v/>
@@ -12958,7 +12866,7 @@
         <v/>
       </c>
       <c r="U102" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V102" s="0" t="n">
@@ -12974,7 +12882,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J103" s="9" t="str">
         <f aca="true">IF(M103="", IF(O103="","",X103+(INDIRECT("S" &amp; ROW() - 1) - S103)),IF(O103="", "", INDIRECT("S" &amp; ROW() - 1) - S103))</f>
         <v/>
@@ -13009,7 +12917,7 @@
         <v/>
       </c>
       <c r="U103" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V103" s="0" t="n">
@@ -13025,7 +12933,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J104" s="9" t="str">
         <f aca="true">IF(M104="", IF(O104="","",X104+(INDIRECT("S" &amp; ROW() - 1) - S104)),IF(O104="", "", INDIRECT("S" &amp; ROW() - 1) - S104))</f>
         <v/>
@@ -13060,7 +12968,7 @@
         <v/>
       </c>
       <c r="U104" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V104" s="0" t="n">
@@ -13076,7 +12984,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J105" s="9" t="str">
         <f aca="true">IF(M105="", IF(O105="","",X105+(INDIRECT("S" &amp; ROW() - 1) - S105)),IF(O105="", "", INDIRECT("S" &amp; ROW() - 1) - S105))</f>
         <v/>
@@ -13111,7 +13019,7 @@
         <v/>
       </c>
       <c r="U105" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V105" s="0" t="n">
@@ -13127,7 +13035,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J106" s="9" t="str">
         <f aca="true">IF(M106="", IF(O106="","",X106+(INDIRECT("S" &amp; ROW() - 1) - S106)),IF(O106="", "", INDIRECT("S" &amp; ROW() - 1) - S106))</f>
         <v/>
@@ -13162,7 +13070,7 @@
         <v/>
       </c>
       <c r="U106" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V106" s="0" t="n">
@@ -13178,7 +13086,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J107" s="9" t="str">
         <f aca="true">IF(M107="", IF(O107="","",X107+(INDIRECT("S" &amp; ROW() - 1) - S107)),IF(O107="", "", INDIRECT("S" &amp; ROW() - 1) - S107))</f>
         <v/>
@@ -13213,7 +13121,7 @@
         <v/>
       </c>
       <c r="U107" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V107" s="0" t="n">
@@ -13229,7 +13137,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J108" s="9" t="str">
         <f aca="true">IF(M108="", IF(O108="","",X108+(INDIRECT("S" &amp; ROW() - 1) - S108)),IF(O108="", "", INDIRECT("S" &amp; ROW() - 1) - S108))</f>
         <v/>
@@ -13264,7 +13172,7 @@
         <v/>
       </c>
       <c r="U108" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V108" s="0" t="n">
@@ -13280,7 +13188,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J109" s="9" t="str">
         <f aca="true">IF(M109="", IF(O109="","",X109+(INDIRECT("S" &amp; ROW() - 1) - S109)),IF(O109="", "", INDIRECT("S" &amp; ROW() - 1) - S109))</f>
         <v/>
@@ -13315,7 +13223,7 @@
         <v/>
       </c>
       <c r="U109" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V109" s="0" t="n">
@@ -13331,7 +13239,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J110" s="9" t="str">
         <f aca="true">IF(M110="", IF(O110="","",X110+(INDIRECT("S" &amp; ROW() - 1) - S110)),IF(O110="", "", INDIRECT("S" &amp; ROW() - 1) - S110))</f>
         <v/>
@@ -13366,7 +13274,7 @@
         <v/>
       </c>
       <c r="U110" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V110" s="0" t="n">
@@ -13382,7 +13290,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J111" s="9" t="str">
         <f aca="true">IF(M111="", IF(O111="","",X111+(INDIRECT("S" &amp; ROW() - 1) - S111)),IF(O111="", "", INDIRECT("S" &amp; ROW() - 1) - S111))</f>
         <v/>
@@ -13417,7 +13325,7 @@
         <v/>
       </c>
       <c r="U111" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V111" s="0" t="n">
@@ -13433,7 +13341,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J112" s="9" t="str">
         <f aca="true">IF(M112="", IF(O112="","",X112+(INDIRECT("S" &amp; ROW() - 1) - S112)),IF(O112="", "", INDIRECT("S" &amp; ROW() - 1) - S112))</f>
         <v/>
@@ -13468,7 +13376,7 @@
         <v/>
       </c>
       <c r="U112" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V112" s="0" t="n">
@@ -13484,7 +13392,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J113" s="9" t="str">
         <f aca="true">IF(M113="", IF(O113="","",X113+(INDIRECT("S" &amp; ROW() - 1) - S113)),IF(O113="", "", INDIRECT("S" &amp; ROW() - 1) - S113))</f>
         <v/>
@@ -13519,7 +13427,7 @@
         <v/>
       </c>
       <c r="U113" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V113" s="0" t="n">
@@ -13535,7 +13443,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J114" s="9" t="str">
         <f aca="true">IF(M114="", IF(O114="","",X114+(INDIRECT("S" &amp; ROW() - 1) - S114)),IF(O114="", "", INDIRECT("S" &amp; ROW() - 1) - S114))</f>
         <v/>
@@ -13570,7 +13478,7 @@
         <v/>
       </c>
       <c r="U114" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V114" s="0" t="n">
@@ -13586,7 +13494,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J115" s="9" t="str">
         <f aca="true">IF(M115="", IF(O115="","",X115+(INDIRECT("S" &amp; ROW() - 1) - S115)),IF(O115="", "", INDIRECT("S" &amp; ROW() - 1) - S115))</f>
         <v/>
@@ -13621,7 +13529,7 @@
         <v/>
       </c>
       <c r="U115" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V115" s="0" t="n">
@@ -13637,7 +13545,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J116" s="9" t="str">
         <f aca="true">IF(M116="", IF(O116="","",X116+(INDIRECT("S" &amp; ROW() - 1) - S116)),IF(O116="", "", INDIRECT("S" &amp; ROW() - 1) - S116))</f>
         <v/>
@@ -13672,7 +13580,7 @@
         <v/>
       </c>
       <c r="U116" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V116" s="0" t="n">
@@ -13688,7 +13596,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J117" s="9" t="str">
         <f aca="true">IF(M117="", IF(O117="","",X117+(INDIRECT("S" &amp; ROW() - 1) - S117)),IF(O117="", "", INDIRECT("S" &amp; ROW() - 1) - S117))</f>
         <v/>
@@ -13723,7 +13631,7 @@
         <v/>
       </c>
       <c r="U117" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V117" s="0" t="n">
@@ -13739,7 +13647,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J118" s="9" t="str">
         <f aca="true">IF(M118="", IF(O118="","",X118+(INDIRECT("S" &amp; ROW() - 1) - S118)),IF(O118="", "", INDIRECT("S" &amp; ROW() - 1) - S118))</f>
         <v/>
@@ -13774,7 +13682,7 @@
         <v/>
       </c>
       <c r="U118" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V118" s="0" t="n">
@@ -13790,7 +13698,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J119" s="9" t="str">
         <f aca="true">IF(M119="", IF(O119="","",X119+(INDIRECT("S" &amp; ROW() - 1) - S119)),IF(O119="", "", INDIRECT("S" &amp; ROW() - 1) - S119))</f>
         <v/>
@@ -13825,7 +13733,7 @@
         <v/>
       </c>
       <c r="U119" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V119" s="0" t="n">
@@ -13841,7 +13749,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J120" s="9" t="str">
         <f aca="true">IF(M120="", IF(O120="","",X120+(INDIRECT("S" &amp; ROW() - 1) - S120)),IF(O120="", "", INDIRECT("S" &amp; ROW() - 1) - S120))</f>
         <v/>
@@ -13876,7 +13784,7 @@
         <v/>
       </c>
       <c r="U120" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V120" s="0" t="n">
@@ -13892,7 +13800,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J121" s="9" t="str">
         <f aca="true">IF(M121="", IF(O121="","",X121+(INDIRECT("S" &amp; ROW() - 1) - S121)),IF(O121="", "", INDIRECT("S" &amp; ROW() - 1) - S121))</f>
         <v/>
@@ -13927,7 +13835,7 @@
         <v/>
       </c>
       <c r="U121" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V121" s="0" t="n">
@@ -13943,7 +13851,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J122" s="9" t="str">
         <f aca="true">IF(M122="", IF(O122="","",X122+(INDIRECT("S" &amp; ROW() - 1) - S122)),IF(O122="", "", INDIRECT("S" &amp; ROW() - 1) - S122))</f>
         <v/>
@@ -13978,7 +13886,7 @@
         <v/>
       </c>
       <c r="U122" s="0" t="n">
-        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8000/OFFSET($C$1, 1, 0))</f>
+        <f aca="true">IF(OFFSET($C$1, 1, 0)="", 1, 8300/OFFSET($C$1, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="V122" s="0" t="n">
@@ -15010,26 +14918,26 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="B2:B122" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="B2:B122" type="list">
       <formula1>'Типы варок'!$A$1:$A$102</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="E2:F122" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="E2:F122" type="list">
       <formula1>'Форм фактор плавления'!$A$1:$A$25</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="L1:L122" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="L1:L122" type="list">
       <formula1>Мойки!$A$1:$A$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="H2:H200" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="H2:H200" type="list">
       <formula1>'Соль SKU'!$A$1:$A$150</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -15038,7 +14946,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -15048,10 +14956,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.54"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -15070,8 +14975,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -15080,7 +14985,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -15090,15 +14995,14 @@
       <selection pane="topLeft" activeCell="G48" activeCellId="0" sqref="G48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="9.09"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -15107,7 +15011,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -15117,14 +15021,14 @@
       <selection pane="topLeft" activeCell="N10" activeCellId="0" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="23" width="9.09"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="23" width="9.09"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -15133,7 +15037,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -15143,14 +15047,11 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.54"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -15159,7 +15060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -15169,15 +15070,14 @@
       <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.54"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/app/data/static/templates/constructor_mozzarella.xlsx
+++ b/app/data/static/templates/constructor_mozzarella.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="файл остатки" sheetId="1" state="visible" r:id="rId2"/>
@@ -704,10 +704,10 @@
   </sheetPr>
   <dimension ref="A1:X220"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="16" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="16" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="Q1" activeCellId="0" sqref="Q1"/>
+      <selection pane="topRight" activeCell="T1" activeCellId="0" sqref="T1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
@@ -810,7 +810,7 @@
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="16"/>
       <c r="J2" s="9" t="str">
-        <f aca="true">IF(M2="", IF(O2="","",X2+(INDIRECT("S" &amp; ROW() - 1) - S2)),IF(O2="", "", INDIRECT("S" &amp; ROW() - 1) - S2))</f>
+        <f aca="true">IF(M2="", IF(O2="","",ROUND(X2+(INDIRECT("S" &amp; ROW() - 1) - S2),0)),IF(O2="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S2,0)))</f>
         <v/>
       </c>
       <c r="K2" s="17" t="str">
@@ -861,7 +861,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J3" s="9" t="str">
-        <f aca="true">IF(M3="", IF(O3="","",X3+(INDIRECT("S" &amp; ROW() - 1) - S3)),IF(O3="", "", INDIRECT("S" &amp; ROW() - 1) - S3))</f>
+        <f aca="true">IF(M3="", IF(O3="","",ROUND(X3+(INDIRECT("S" &amp; ROW() - 1) - S3),0)),IF(O3="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S3,0)))</f>
         <v/>
       </c>
       <c r="K3" s="17" t="str">
@@ -912,7 +912,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J4" s="9" t="str">
-        <f aca="true">IF(M4="", IF(O4="","",X4+(INDIRECT("S" &amp; ROW() - 1) - S4)),IF(O4="", "", INDIRECT("S" &amp; ROW() - 1) - S4))</f>
+        <f aca="true">IF(M4="", IF(O4="","",ROUND(X4+(INDIRECT("S" &amp; ROW() - 1) - S4),0)),IF(O4="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S4,0)))</f>
         <v/>
       </c>
       <c r="K4" s="17" t="str">
@@ -963,7 +963,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J5" s="9" t="str">
-        <f aca="true">IF(M5="", IF(O5="","",X5+(INDIRECT("S" &amp; ROW() - 1) - S5)),IF(O5="", "", INDIRECT("S" &amp; ROW() - 1) - S5))</f>
+        <f aca="true">IF(M5="", IF(O5="","",ROUND(X5+(INDIRECT("S" &amp; ROW() - 1) - S5),0)),IF(O5="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S5,0)))</f>
         <v/>
       </c>
       <c r="K5" s="17" t="str">
@@ -1014,7 +1014,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J6" s="9" t="str">
-        <f aca="true">IF(M6="", IF(O6="","",X6+(INDIRECT("S" &amp; ROW() - 1) - S6)),IF(O6="", "", INDIRECT("S" &amp; ROW() - 1) - S6))</f>
+        <f aca="true">IF(M6="", IF(O6="","",ROUND(X6+(INDIRECT("S" &amp; ROW() - 1) - S6),0)),IF(O6="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S6,0)))</f>
         <v/>
       </c>
       <c r="K6" s="17" t="str">
@@ -1065,7 +1065,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J7" s="9" t="str">
-        <f aca="true">IF(M7="", IF(O7="","",X7+(INDIRECT("S" &amp; ROW() - 1) - S7)),IF(O7="", "", INDIRECT("S" &amp; ROW() - 1) - S7))</f>
+        <f aca="true">IF(M7="", IF(O7="","",ROUND(X7+(INDIRECT("S" &amp; ROW() - 1) - S7),0)),IF(O7="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S7,0)))</f>
         <v/>
       </c>
       <c r="K7" s="17" t="str">
@@ -1116,7 +1116,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J8" s="9" t="str">
-        <f aca="true">IF(M8="", IF(O8="","",X8+(INDIRECT("S" &amp; ROW() - 1) - S8)),IF(O8="", "", INDIRECT("S" &amp; ROW() - 1) - S8))</f>
+        <f aca="true">IF(M8="", IF(O8="","",ROUND(X8+(INDIRECT("S" &amp; ROW() - 1) - S8),0)),IF(O8="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S8,0)))</f>
         <v/>
       </c>
       <c r="K8" s="17" t="str">
@@ -1167,7 +1167,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J9" s="9" t="str">
-        <f aca="true">IF(M9="", IF(O9="","",X9+(INDIRECT("S" &amp; ROW() - 1) - S9)),IF(O9="", "", INDIRECT("S" &amp; ROW() - 1) - S9))</f>
+        <f aca="true">IF(M9="", IF(O9="","",ROUND(X9+(INDIRECT("S" &amp; ROW() - 1) - S9),0)),IF(O9="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S9,0)))</f>
         <v/>
       </c>
       <c r="K9" s="17" t="str">
@@ -1218,7 +1218,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J10" s="9" t="str">
-        <f aca="true">IF(M10="", IF(O10="","",X10+(INDIRECT("S" &amp; ROW() - 1) - S10)),IF(O10="", "", INDIRECT("S" &amp; ROW() - 1) - S10))</f>
+        <f aca="true">IF(M10="", IF(O10="","",ROUND(X10+(INDIRECT("S" &amp; ROW() - 1) - S10),0)),IF(O10="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S10,0)))</f>
         <v/>
       </c>
       <c r="K10" s="17" t="str">
@@ -1269,7 +1269,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J11" s="9" t="str">
-        <f aca="true">IF(M11="", IF(O11="","",X11+(INDIRECT("S" &amp; ROW() - 1) - S11)),IF(O11="", "", INDIRECT("S" &amp; ROW() - 1) - S11))</f>
+        <f aca="true">IF(M11="", IF(O11="","",ROUND(X11+(INDIRECT("S" &amp; ROW() - 1) - S11),0)),IF(O11="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S11,0)))</f>
         <v/>
       </c>
       <c r="K11" s="17" t="str">
@@ -1320,7 +1320,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J12" s="9" t="str">
-        <f aca="true">IF(M12="", IF(O12="","",X12+(INDIRECT("S" &amp; ROW() - 1) - S12)),IF(O12="", "", INDIRECT("S" &amp; ROW() - 1) - S12))</f>
+        <f aca="true">IF(M12="", IF(O12="","",ROUND(X12+(INDIRECT("S" &amp; ROW() - 1) - S12),0)),IF(O12="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S12,0)))</f>
         <v/>
       </c>
       <c r="K12" s="17" t="str">
@@ -1371,7 +1371,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J13" s="9" t="str">
-        <f aca="true">IF(M13="", IF(O13="","",X13+(INDIRECT("S" &amp; ROW() - 1) - S13)),IF(O13="", "", INDIRECT("S" &amp; ROW() - 1) - S13))</f>
+        <f aca="true">IF(M13="", IF(O13="","",ROUND(X13+(INDIRECT("S" &amp; ROW() - 1) - S13),0)),IF(O13="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S13,0)))</f>
         <v/>
       </c>
       <c r="K13" s="17" t="str">
@@ -1422,7 +1422,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J14" s="9" t="str">
-        <f aca="true">IF(M14="", IF(O14="","",X14+(INDIRECT("S" &amp; ROW() - 1) - S14)),IF(O14="", "", INDIRECT("S" &amp; ROW() - 1) - S14))</f>
+        <f aca="true">IF(M14="", IF(O14="","",ROUND(X14+(INDIRECT("S" &amp; ROW() - 1) - S14),0)),IF(O14="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S14,0)))</f>
         <v/>
       </c>
       <c r="K14" s="17" t="str">
@@ -1473,7 +1473,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J15" s="9" t="str">
-        <f aca="true">IF(M15="", IF(O15="","",X15+(INDIRECT("S" &amp; ROW() - 1) - S15)),IF(O15="", "", INDIRECT("S" &amp; ROW() - 1) - S15))</f>
+        <f aca="true">IF(M15="", IF(O15="","",ROUND(X15+(INDIRECT("S" &amp; ROW() - 1) - S15),0)),IF(O15="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S15,0)))</f>
         <v/>
       </c>
       <c r="K15" s="17" t="str">
@@ -1524,7 +1524,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J16" s="9" t="str">
-        <f aca="true">IF(M16="", IF(O16="","",X16+(INDIRECT("S" &amp; ROW() - 1) - S16)),IF(O16="", "", INDIRECT("S" &amp; ROW() - 1) - S16))</f>
+        <f aca="true">IF(M16="", IF(O16="","",ROUND(X16+(INDIRECT("S" &amp; ROW() - 1) - S16),0)),IF(O16="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S16,0)))</f>
         <v/>
       </c>
       <c r="K16" s="17" t="str">
@@ -1575,7 +1575,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J17" s="9" t="str">
-        <f aca="true">IF(M17="", IF(O17="","",X17+(INDIRECT("S" &amp; ROW() - 1) - S17)),IF(O17="", "", INDIRECT("S" &amp; ROW() - 1) - S17))</f>
+        <f aca="true">IF(M17="", IF(O17="","",ROUND(X17+(INDIRECT("S" &amp; ROW() - 1) - S17),0)),IF(O17="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S17,0)))</f>
         <v/>
       </c>
       <c r="K17" s="17" t="str">
@@ -1626,7 +1626,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J18" s="9" t="str">
-        <f aca="true">IF(M18="", IF(O18="","",X18+(INDIRECT("S" &amp; ROW() - 1) - S18)),IF(O18="", "", INDIRECT("S" &amp; ROW() - 1) - S18))</f>
+        <f aca="true">IF(M18="", IF(O18="","",ROUND(X18+(INDIRECT("S" &amp; ROW() - 1) - S18),0)),IF(O18="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S18,0)))</f>
         <v/>
       </c>
       <c r="K18" s="17" t="str">
@@ -1677,7 +1677,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J19" s="9" t="str">
-        <f aca="true">IF(M19="", IF(O19="","",X19+(INDIRECT("S" &amp; ROW() - 1) - S19)),IF(O19="", "", INDIRECT("S" &amp; ROW() - 1) - S19))</f>
+        <f aca="true">IF(M19="", IF(O19="","",ROUND(X19+(INDIRECT("S" &amp; ROW() - 1) - S19),0)),IF(O19="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S19,0)))</f>
         <v/>
       </c>
       <c r="K19" s="17" t="str">
@@ -1728,7 +1728,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J20" s="9" t="str">
-        <f aca="true">IF(M20="", IF(O20="","",X20+(INDIRECT("S" &amp; ROW() - 1) - S20)),IF(O20="", "", INDIRECT("S" &amp; ROW() - 1) - S20))</f>
+        <f aca="true">IF(M20="", IF(O20="","",ROUND(X20+(INDIRECT("S" &amp; ROW() - 1) - S20),0)),IF(O20="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S20,0)))</f>
         <v/>
       </c>
       <c r="K20" s="17" t="str">
@@ -1779,7 +1779,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J21" s="9" t="str">
-        <f aca="true">IF(M21="", IF(O21="","",X21+(INDIRECT("S" &amp; ROW() - 1) - S21)),IF(O21="", "", INDIRECT("S" &amp; ROW() - 1) - S21))</f>
+        <f aca="true">IF(M21="", IF(O21="","",ROUND(X21+(INDIRECT("S" &amp; ROW() - 1) - S21),0)),IF(O21="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S21,0)))</f>
         <v/>
       </c>
       <c r="K21" s="17" t="str">
@@ -1830,7 +1830,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J22" s="9" t="str">
-        <f aca="true">IF(M22="", IF(O22="","",X22+(INDIRECT("S" &amp; ROW() - 1) - S22)),IF(O22="", "", INDIRECT("S" &amp; ROW() - 1) - S22))</f>
+        <f aca="true">IF(M22="", IF(O22="","",ROUND(X22+(INDIRECT("S" &amp; ROW() - 1) - S22),0)),IF(O22="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S22,0)))</f>
         <v/>
       </c>
       <c r="K22" s="17" t="str">
@@ -1881,7 +1881,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J23" s="9" t="str">
-        <f aca="true">IF(M23="", IF(O23="","",X23+(INDIRECT("S" &amp; ROW() - 1) - S23)),IF(O23="", "", INDIRECT("S" &amp; ROW() - 1) - S23))</f>
+        <f aca="true">IF(M23="", IF(O23="","",ROUND(X23+(INDIRECT("S" &amp; ROW() - 1) - S23),0)),IF(O23="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S23,0)))</f>
         <v/>
       </c>
       <c r="K23" s="17" t="str">
@@ -1932,7 +1932,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J24" s="9" t="str">
-        <f aca="true">IF(M24="", IF(O24="","",X24+(INDIRECT("S" &amp; ROW() - 1) - S24)),IF(O24="", "", INDIRECT("S" &amp; ROW() - 1) - S24))</f>
+        <f aca="true">IF(M24="", IF(O24="","",ROUND(X24+(INDIRECT("S" &amp; ROW() - 1) - S24),0)),IF(O24="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S24,0)))</f>
         <v/>
       </c>
       <c r="K24" s="17" t="str">
@@ -1983,7 +1983,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J25" s="9" t="str">
-        <f aca="true">IF(M25="", IF(O25="","",X25+(INDIRECT("S" &amp; ROW() - 1) - S25)),IF(O25="", "", INDIRECT("S" &amp; ROW() - 1) - S25))</f>
+        <f aca="true">IF(M25="", IF(O25="","",ROUND(X25+(INDIRECT("S" &amp; ROW() - 1) - S25),0)),IF(O25="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S25,0)))</f>
         <v/>
       </c>
       <c r="K25" s="17" t="str">
@@ -2034,7 +2034,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J26" s="9" t="str">
-        <f aca="true">IF(M26="", IF(O26="","",X26+(INDIRECT("S" &amp; ROW() - 1) - S26)),IF(O26="", "", INDIRECT("S" &amp; ROW() - 1) - S26))</f>
+        <f aca="true">IF(M26="", IF(O26="","",ROUND(X26+(INDIRECT("S" &amp; ROW() - 1) - S26),0)),IF(O26="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S26,0)))</f>
         <v/>
       </c>
       <c r="K26" s="17" t="str">
@@ -2085,7 +2085,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J27" s="9" t="str">
-        <f aca="true">IF(M27="", IF(O27="","",X27+(INDIRECT("S" &amp; ROW() - 1) - S27)),IF(O27="", "", INDIRECT("S" &amp; ROW() - 1) - S27))</f>
+        <f aca="true">IF(M27="", IF(O27="","",ROUND(X27+(INDIRECT("S" &amp; ROW() - 1) - S27),0)),IF(O27="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S27,0)))</f>
         <v/>
       </c>
       <c r="K27" s="17" t="str">
@@ -2136,7 +2136,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J28" s="9" t="str">
-        <f aca="true">IF(M28="", IF(O28="","",X28+(INDIRECT("S" &amp; ROW() - 1) - S28)),IF(O28="", "", INDIRECT("S" &amp; ROW() - 1) - S28))</f>
+        <f aca="true">IF(M28="", IF(O28="","",ROUND(X28+(INDIRECT("S" &amp; ROW() - 1) - S28),0)),IF(O28="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S28,0)))</f>
         <v/>
       </c>
       <c r="K28" s="17" t="str">
@@ -2187,7 +2187,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J29" s="9" t="str">
-        <f aca="true">IF(M29="", IF(O29="","",X29+(INDIRECT("S" &amp; ROW() - 1) - S29)),IF(O29="", "", INDIRECT("S" &amp; ROW() - 1) - S29))</f>
+        <f aca="true">IF(M29="", IF(O29="","",ROUND(X29+(INDIRECT("S" &amp; ROW() - 1) - S29),0)),IF(O29="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S29,0)))</f>
         <v/>
       </c>
       <c r="K29" s="17" t="str">
@@ -2238,7 +2238,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J30" s="9" t="str">
-        <f aca="true">IF(M30="", IF(O30="","",X30+(INDIRECT("S" &amp; ROW() - 1) - S30)),IF(O30="", "", INDIRECT("S" &amp; ROW() - 1) - S30))</f>
+        <f aca="true">IF(M30="", IF(O30="","",ROUND(X30+(INDIRECT("S" &amp; ROW() - 1) - S30),0)),IF(O30="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S30,0)))</f>
         <v/>
       </c>
       <c r="K30" s="17" t="str">
@@ -2289,7 +2289,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J31" s="9" t="str">
-        <f aca="true">IF(M31="", IF(O31="","",X31+(INDIRECT("S" &amp; ROW() - 1) - S31)),IF(O31="", "", INDIRECT("S" &amp; ROW() - 1) - S31))</f>
+        <f aca="true">IF(M31="", IF(O31="","",ROUND(X31+(INDIRECT("S" &amp; ROW() - 1) - S31),0)),IF(O31="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S31,0)))</f>
         <v/>
       </c>
       <c r="K31" s="17" t="str">
@@ -2340,7 +2340,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J32" s="9" t="str">
-        <f aca="true">IF(M32="", IF(O32="","",X32+(INDIRECT("S" &amp; ROW() - 1) - S32)),IF(O32="", "", INDIRECT("S" &amp; ROW() - 1) - S32))</f>
+        <f aca="true">IF(M32="", IF(O32="","",ROUND(X32+(INDIRECT("S" &amp; ROW() - 1) - S32),0)),IF(O32="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S32,0)))</f>
         <v/>
       </c>
       <c r="K32" s="17" t="str">
@@ -2391,7 +2391,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J33" s="9" t="str">
-        <f aca="true">IF(M33="", IF(O33="","",X33+(INDIRECT("S" &amp; ROW() - 1) - S33)),IF(O33="", "", INDIRECT("S" &amp; ROW() - 1) - S33))</f>
+        <f aca="true">IF(M33="", IF(O33="","",ROUND(X33+(INDIRECT("S" &amp; ROW() - 1) - S33),0)),IF(O33="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S33,0)))</f>
         <v/>
       </c>
       <c r="K33" s="17" t="str">
@@ -2442,7 +2442,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J34" s="9" t="str">
-        <f aca="true">IF(M34="", IF(O34="","",X34+(INDIRECT("S" &amp; ROW() - 1) - S34)),IF(O34="", "", INDIRECT("S" &amp; ROW() - 1) - S34))</f>
+        <f aca="true">IF(M34="", IF(O34="","",ROUND(X34+(INDIRECT("S" &amp; ROW() - 1) - S34),0)),IF(O34="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S34,0)))</f>
         <v/>
       </c>
       <c r="K34" s="17" t="str">
@@ -2493,7 +2493,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J35" s="9" t="str">
-        <f aca="true">IF(M35="", IF(O35="","",X35+(INDIRECT("S" &amp; ROW() - 1) - S35)),IF(O35="", "", INDIRECT("S" &amp; ROW() - 1) - S35))</f>
+        <f aca="true">IF(M35="", IF(O35="","",ROUND(X35+(INDIRECT("S" &amp; ROW() - 1) - S35),0)),IF(O35="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S35,0)))</f>
         <v/>
       </c>
       <c r="K35" s="17" t="str">
@@ -2544,7 +2544,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J36" s="9" t="str">
-        <f aca="true">IF(M36="", IF(O36="","",X36+(INDIRECT("S" &amp; ROW() - 1) - S36)),IF(O36="", "", INDIRECT("S" &amp; ROW() - 1) - S36))</f>
+        <f aca="true">IF(M36="", IF(O36="","",ROUND(X36+(INDIRECT("S" &amp; ROW() - 1) - S36),0)),IF(O36="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S36,0)))</f>
         <v/>
       </c>
       <c r="K36" s="17" t="str">
@@ -2595,7 +2595,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J37" s="9" t="str">
-        <f aca="true">IF(M37="", IF(O37="","",X37+(INDIRECT("S" &amp; ROW() - 1) - S37)),IF(O37="", "", INDIRECT("S" &amp; ROW() - 1) - S37))</f>
+        <f aca="true">IF(M37="", IF(O37="","",ROUND(X37+(INDIRECT("S" &amp; ROW() - 1) - S37),0)),IF(O37="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S37,0)))</f>
         <v/>
       </c>
       <c r="K37" s="17" t="str">
@@ -2646,7 +2646,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J38" s="9" t="str">
-        <f aca="true">IF(M38="", IF(O38="","",X38+(INDIRECT("S" &amp; ROW() - 1) - S38)),IF(O38="", "", INDIRECT("S" &amp; ROW() - 1) - S38))</f>
+        <f aca="true">IF(M38="", IF(O38="","",ROUND(X38+(INDIRECT("S" &amp; ROW() - 1) - S38),0)),IF(O38="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S38,0)))</f>
         <v/>
       </c>
       <c r="K38" s="17" t="str">
@@ -2697,7 +2697,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J39" s="9" t="str">
-        <f aca="true">IF(M39="", IF(O39="","",X39+(INDIRECT("S" &amp; ROW() - 1) - S39)),IF(O39="", "", INDIRECT("S" &amp; ROW() - 1) - S39))</f>
+        <f aca="true">IF(M39="", IF(O39="","",ROUND(X39+(INDIRECT("S" &amp; ROW() - 1) - S39),0)),IF(O39="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S39,0)))</f>
         <v/>
       </c>
       <c r="K39" s="17" t="str">
@@ -2748,7 +2748,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J40" s="9" t="str">
-        <f aca="true">IF(M40="", IF(O40="","",X40+(INDIRECT("S" &amp; ROW() - 1) - S40)),IF(O40="", "", INDIRECT("S" &amp; ROW() - 1) - S40))</f>
+        <f aca="true">IF(M40="", IF(O40="","",ROUND(X40+(INDIRECT("S" &amp; ROW() - 1) - S40),0)),IF(O40="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S40,0)))</f>
         <v/>
       </c>
       <c r="K40" s="17" t="str">
@@ -2799,7 +2799,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J41" s="9" t="str">
-        <f aca="true">IF(M41="", IF(O41="","",X41+(INDIRECT("S" &amp; ROW() - 1) - S41)),IF(O41="", "", INDIRECT("S" &amp; ROW() - 1) - S41))</f>
+        <f aca="true">IF(M41="", IF(O41="","",ROUND(X41+(INDIRECT("S" &amp; ROW() - 1) - S41),0)),IF(O41="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S41,0)))</f>
         <v/>
       </c>
       <c r="K41" s="17" t="str">
@@ -2850,7 +2850,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J42" s="9" t="str">
-        <f aca="true">IF(M42="", IF(O42="","",X42+(INDIRECT("S" &amp; ROW() - 1) - S42)),IF(O42="", "", INDIRECT("S" &amp; ROW() - 1) - S42))</f>
+        <f aca="true">IF(M42="", IF(O42="","",ROUND(X42+(INDIRECT("S" &amp; ROW() - 1) - S42),0)),IF(O42="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S42,0)))</f>
         <v/>
       </c>
       <c r="K42" s="17" t="str">
@@ -2901,7 +2901,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J43" s="9" t="str">
-        <f aca="true">IF(M43="", IF(O43="","",X43+(INDIRECT("S" &amp; ROW() - 1) - S43)),IF(O43="", "", INDIRECT("S" &amp; ROW() - 1) - S43))</f>
+        <f aca="true">IF(M43="", IF(O43="","",ROUND(X43+(INDIRECT("S" &amp; ROW() - 1) - S43),0)),IF(O43="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S43,0)))</f>
         <v/>
       </c>
       <c r="K43" s="17" t="str">
@@ -2952,7 +2952,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J44" s="9" t="str">
-        <f aca="true">IF(M44="", IF(O44="","",X44+(INDIRECT("S" &amp; ROW() - 1) - S44)),IF(O44="", "", INDIRECT("S" &amp; ROW() - 1) - S44))</f>
+        <f aca="true">IF(M44="", IF(O44="","",ROUND(X44+(INDIRECT("S" &amp; ROW() - 1) - S44),0)),IF(O44="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S44,0)))</f>
         <v/>
       </c>
       <c r="K44" s="17" t="str">
@@ -3003,7 +3003,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J45" s="9" t="str">
-        <f aca="true">IF(M45="", IF(O45="","",X45+(INDIRECT("S" &amp; ROW() - 1) - S45)),IF(O45="", "", INDIRECT("S" &amp; ROW() - 1) - S45))</f>
+        <f aca="true">IF(M45="", IF(O45="","",ROUND(X45+(INDIRECT("S" &amp; ROW() - 1) - S45),0)),IF(O45="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S45,0)))</f>
         <v/>
       </c>
       <c r="K45" s="17" t="str">
@@ -3054,7 +3054,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J46" s="9" t="str">
-        <f aca="true">IF(M46="", IF(O46="","",X46+(INDIRECT("S" &amp; ROW() - 1) - S46)),IF(O46="", "", INDIRECT("S" &amp; ROW() - 1) - S46))</f>
+        <f aca="true">IF(M46="", IF(O46="","",ROUND(X46+(INDIRECT("S" &amp; ROW() - 1) - S46),0)),IF(O46="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S46,0)))</f>
         <v/>
       </c>
       <c r="K46" s="17" t="str">
@@ -3105,7 +3105,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J47" s="9" t="str">
-        <f aca="true">IF(M47="", IF(O47="","",X47+(INDIRECT("S" &amp; ROW() - 1) - S47)),IF(O47="", "", INDIRECT("S" &amp; ROW() - 1) - S47))</f>
+        <f aca="true">IF(M47="", IF(O47="","",ROUND(X47+(INDIRECT("S" &amp; ROW() - 1) - S47),0)),IF(O47="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S47,0)))</f>
         <v/>
       </c>
       <c r="K47" s="17" t="str">
@@ -3156,7 +3156,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J48" s="9" t="str">
-        <f aca="true">IF(M48="", IF(O48="","",X48+(INDIRECT("S" &amp; ROW() - 1) - S48)),IF(O48="", "", INDIRECT("S" &amp; ROW() - 1) - S48))</f>
+        <f aca="true">IF(M48="", IF(O48="","",ROUND(X48+(INDIRECT("S" &amp; ROW() - 1) - S48),0)),IF(O48="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S48,0)))</f>
         <v/>
       </c>
       <c r="K48" s="17" t="str">
@@ -3207,7 +3207,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J49" s="9" t="str">
-        <f aca="true">IF(M49="", IF(O49="","",X49+(INDIRECT("S" &amp; ROW() - 1) - S49)),IF(O49="", "", INDIRECT("S" &amp; ROW() - 1) - S49))</f>
+        <f aca="true">IF(M49="", IF(O49="","",ROUND(X49+(INDIRECT("S" &amp; ROW() - 1) - S49),0)),IF(O49="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S49,0)))</f>
         <v/>
       </c>
       <c r="K49" s="17" t="str">
@@ -3258,7 +3258,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J50" s="9" t="str">
-        <f aca="true">IF(M50="", IF(O50="","",X50+(INDIRECT("S" &amp; ROW() - 1) - S50)),IF(O50="", "", INDIRECT("S" &amp; ROW() - 1) - S50))</f>
+        <f aca="true">IF(M50="", IF(O50="","",ROUND(X50+(INDIRECT("S" &amp; ROW() - 1) - S50),0)),IF(O50="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S50,0)))</f>
         <v/>
       </c>
       <c r="K50" s="17" t="str">
@@ -3309,7 +3309,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J51" s="9" t="str">
-        <f aca="true">IF(M51="", IF(O51="","",X51+(INDIRECT("S" &amp; ROW() - 1) - S51)),IF(O51="", "", INDIRECT("S" &amp; ROW() - 1) - S51))</f>
+        <f aca="true">IF(M51="", IF(O51="","",ROUND(X51+(INDIRECT("S" &amp; ROW() - 1) - S51),0)),IF(O51="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S51,0)))</f>
         <v/>
       </c>
       <c r="K51" s="17" t="str">
@@ -3360,7 +3360,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J52" s="9" t="str">
-        <f aca="true">IF(M52="", IF(O52="","",X52+(INDIRECT("S" &amp; ROW() - 1) - S52)),IF(O52="", "", INDIRECT("S" &amp; ROW() - 1) - S52))</f>
+        <f aca="true">IF(M52="", IF(O52="","",ROUND(X52+(INDIRECT("S" &amp; ROW() - 1) - S52),0)),IF(O52="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S52,0)))</f>
         <v/>
       </c>
       <c r="K52" s="17" t="str">
@@ -3411,7 +3411,7 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J53" s="9" t="str">
-        <f aca="true">IF(M53="", IF(O53="","",X53+(INDIRECT("S" &amp; ROW() - 1) - S53)),IF(O53="", "", INDIRECT("S" &amp; ROW() - 1) - S53))</f>
+        <f aca="true">IF(M53="", IF(O53="","",ROUND(X53+(INDIRECT("S" &amp; ROW() - 1) - S53),0)),IF(O53="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S53,0)))</f>
         <v/>
       </c>
       <c r="K53" s="17" t="str">
@@ -3462,7 +3462,7 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J54" s="9" t="str">
-        <f aca="true">IF(M54="", IF(O54="","",X54+(INDIRECT("S" &amp; ROW() - 1) - S54)),IF(O54="", "", INDIRECT("S" &amp; ROW() - 1) - S54))</f>
+        <f aca="true">IF(M54="", IF(O54="","",ROUND(X54+(INDIRECT("S" &amp; ROW() - 1) - S54),0)),IF(O54="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S54,0)))</f>
         <v/>
       </c>
       <c r="K54" s="17" t="str">
@@ -3513,7 +3513,7 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J55" s="9" t="str">
-        <f aca="true">IF(M55="", IF(O55="","",X55+(INDIRECT("S" &amp; ROW() - 1) - S55)),IF(O55="", "", INDIRECT("S" &amp; ROW() - 1) - S55))</f>
+        <f aca="true">IF(M55="", IF(O55="","",ROUND(X55+(INDIRECT("S" &amp; ROW() - 1) - S55),0)),IF(O55="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S55,0)))</f>
         <v/>
       </c>
       <c r="K55" s="17" t="str">
@@ -3564,7 +3564,7 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J56" s="9" t="str">
-        <f aca="true">IF(M56="", IF(O56="","",X56+(INDIRECT("S" &amp; ROW() - 1) - S56)),IF(O56="", "", INDIRECT("S" &amp; ROW() - 1) - S56))</f>
+        <f aca="true">IF(M56="", IF(O56="","",ROUND(X56+(INDIRECT("S" &amp; ROW() - 1) - S56),0)),IF(O56="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S56,0)))</f>
         <v/>
       </c>
       <c r="K56" s="17" t="str">
@@ -3615,7 +3615,7 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J57" s="9" t="str">
-        <f aca="true">IF(M57="", IF(O57="","",X57+(INDIRECT("S" &amp; ROW() - 1) - S57)),IF(O57="", "", INDIRECT("S" &amp; ROW() - 1) - S57))</f>
+        <f aca="true">IF(M57="", IF(O57="","",ROUND(X57+(INDIRECT("S" &amp; ROW() - 1) - S57),0)),IF(O57="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S57,0)))</f>
         <v/>
       </c>
       <c r="K57" s="17" t="str">
@@ -3666,7 +3666,7 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J58" s="9" t="str">
-        <f aca="true">IF(M58="", IF(O58="","",X58+(INDIRECT("S" &amp; ROW() - 1) - S58)),IF(O58="", "", INDIRECT("S" &amp; ROW() - 1) - S58))</f>
+        <f aca="true">IF(M58="", IF(O58="","",ROUND(X58+(INDIRECT("S" &amp; ROW() - 1) - S58),0)),IF(O58="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S58,0)))</f>
         <v/>
       </c>
       <c r="K58" s="17" t="str">
@@ -3717,7 +3717,7 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J59" s="9" t="str">
-        <f aca="true">IF(M59="", IF(O59="","",X59+(INDIRECT("S" &amp; ROW() - 1) - S59)),IF(O59="", "", INDIRECT("S" &amp; ROW() - 1) - S59))</f>
+        <f aca="true">IF(M59="", IF(O59="","",ROUND(X59+(INDIRECT("S" &amp; ROW() - 1) - S59),0)),IF(O59="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S59,0)))</f>
         <v/>
       </c>
       <c r="K59" s="17" t="str">
@@ -3768,7 +3768,7 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J60" s="9" t="str">
-        <f aca="true">IF(M60="", IF(O60="","",X60+(INDIRECT("S" &amp; ROW() - 1) - S60)),IF(O60="", "", INDIRECT("S" &amp; ROW() - 1) - S60))</f>
+        <f aca="true">IF(M60="", IF(O60="","",ROUND(X60+(INDIRECT("S" &amp; ROW() - 1) - S60),0)),IF(O60="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S60,0)))</f>
         <v/>
       </c>
       <c r="K60" s="17" t="str">
@@ -3819,7 +3819,7 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J61" s="9" t="str">
-        <f aca="true">IF(M61="", IF(O61="","",X61+(INDIRECT("S" &amp; ROW() - 1) - S61)),IF(O61="", "", INDIRECT("S" &amp; ROW() - 1) - S61))</f>
+        <f aca="true">IF(M61="", IF(O61="","",ROUND(X61+(INDIRECT("S" &amp; ROW() - 1) - S61),0)),IF(O61="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S61,0)))</f>
         <v/>
       </c>
       <c r="K61" s="17" t="str">
@@ -3870,7 +3870,7 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J62" s="9" t="str">
-        <f aca="true">IF(M62="", IF(O62="","",X62+(INDIRECT("S" &amp; ROW() - 1) - S62)),IF(O62="", "", INDIRECT("S" &amp; ROW() - 1) - S62))</f>
+        <f aca="true">IF(M62="", IF(O62="","",ROUND(X62+(INDIRECT("S" &amp; ROW() - 1) - S62),0)),IF(O62="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S62,0)))</f>
         <v/>
       </c>
       <c r="K62" s="17" t="str">
@@ -3921,7 +3921,7 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J63" s="9" t="str">
-        <f aca="true">IF(M63="", IF(O63="","",X63+(INDIRECT("S" &amp; ROW() - 1) - S63)),IF(O63="", "", INDIRECT("S" &amp; ROW() - 1) - S63))</f>
+        <f aca="true">IF(M63="", IF(O63="","",ROUND(X63+(INDIRECT("S" &amp; ROW() - 1) - S63),0)),IF(O63="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S63,0)))</f>
         <v/>
       </c>
       <c r="K63" s="17" t="str">
@@ -3972,7 +3972,7 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J64" s="9" t="str">
-        <f aca="true">IF(M64="", IF(O64="","",X64+(INDIRECT("S" &amp; ROW() - 1) - S64)),IF(O64="", "", INDIRECT("S" &amp; ROW() - 1) - S64))</f>
+        <f aca="true">IF(M64="", IF(O64="","",ROUND(X64+(INDIRECT("S" &amp; ROW() - 1) - S64),0)),IF(O64="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S64,0)))</f>
         <v/>
       </c>
       <c r="K64" s="17" t="str">
@@ -4023,7 +4023,7 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J65" s="9" t="str">
-        <f aca="true">IF(M65="", IF(O65="","",X65+(INDIRECT("S" &amp; ROW() - 1) - S65)),IF(O65="", "", INDIRECT("S" &amp; ROW() - 1) - S65))</f>
+        <f aca="true">IF(M65="", IF(O65="","",ROUND(X65+(INDIRECT("S" &amp; ROW() - 1) - S65),0)),IF(O65="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S65,0)))</f>
         <v/>
       </c>
       <c r="K65" s="17" t="str">
@@ -4074,7 +4074,7 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J66" s="9" t="str">
-        <f aca="true">IF(M66="", IF(O66="","",X66+(INDIRECT("S" &amp; ROW() - 1) - S66)),IF(O66="", "", INDIRECT("S" &amp; ROW() - 1) - S66))</f>
+        <f aca="true">IF(M66="", IF(O66="","",ROUND(X66+(INDIRECT("S" &amp; ROW() - 1) - S66),0)),IF(O66="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S66,0)))</f>
         <v/>
       </c>
       <c r="K66" s="17" t="str">
@@ -4125,7 +4125,7 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J67" s="9" t="str">
-        <f aca="true">IF(M67="", IF(O67="","",X67+(INDIRECT("S" &amp; ROW() - 1) - S67)),IF(O67="", "", INDIRECT("S" &amp; ROW() - 1) - S67))</f>
+        <f aca="true">IF(M67="", IF(O67="","",ROUND(X67+(INDIRECT("S" &amp; ROW() - 1) - S67),0)),IF(O67="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S67,0)))</f>
         <v/>
       </c>
       <c r="K67" s="17" t="str">
@@ -4176,7 +4176,7 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J68" s="9" t="str">
-        <f aca="true">IF(M68="", IF(O68="","",X68+(INDIRECT("S" &amp; ROW() - 1) - S68)),IF(O68="", "", INDIRECT("S" &amp; ROW() - 1) - S68))</f>
+        <f aca="true">IF(M68="", IF(O68="","",ROUND(X68+(INDIRECT("S" &amp; ROW() - 1) - S68),0)),IF(O68="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S68,0)))</f>
         <v/>
       </c>
       <c r="K68" s="17" t="str">
@@ -4227,7 +4227,7 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J69" s="9" t="str">
-        <f aca="true">IF(M69="", IF(O69="","",X69+(INDIRECT("S" &amp; ROW() - 1) - S69)),IF(O69="", "", INDIRECT("S" &amp; ROW() - 1) - S69))</f>
+        <f aca="true">IF(M69="", IF(O69="","",ROUND(X69+(INDIRECT("S" &amp; ROW() - 1) - S69),0)),IF(O69="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S69,0)))</f>
         <v/>
       </c>
       <c r="K69" s="17" t="str">
@@ -4278,7 +4278,7 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J70" s="9" t="str">
-        <f aca="true">IF(M70="", IF(O70="","",X70+(INDIRECT("S" &amp; ROW() - 1) - S70)),IF(O70="", "", INDIRECT("S" &amp; ROW() - 1) - S70))</f>
+        <f aca="true">IF(M70="", IF(O70="","",ROUND(X70+(INDIRECT("S" &amp; ROW() - 1) - S70),0)),IF(O70="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S70,0)))</f>
         <v/>
       </c>
       <c r="K70" s="17" t="str">
@@ -4329,7 +4329,7 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J71" s="9" t="str">
-        <f aca="true">IF(M71="", IF(O71="","",X71+(INDIRECT("S" &amp; ROW() - 1) - S71)),IF(O71="", "", INDIRECT("S" &amp; ROW() - 1) - S71))</f>
+        <f aca="true">IF(M71="", IF(O71="","",ROUND(X71+(INDIRECT("S" &amp; ROW() - 1) - S71),0)),IF(O71="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S71,0)))</f>
         <v/>
       </c>
       <c r="K71" s="17" t="str">
@@ -4380,7 +4380,7 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J72" s="9" t="str">
-        <f aca="true">IF(M72="", IF(O72="","",X72+(INDIRECT("S" &amp; ROW() - 1) - S72)),IF(O72="", "", INDIRECT("S" &amp; ROW() - 1) - S72))</f>
+        <f aca="true">IF(M72="", IF(O72="","",ROUND(X72+(INDIRECT("S" &amp; ROW() - 1) - S72),0)),IF(O72="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S72,0)))</f>
         <v/>
       </c>
       <c r="K72" s="17" t="str">
@@ -4431,7 +4431,7 @@
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J73" s="9" t="str">
-        <f aca="true">IF(M73="", IF(O73="","",X73+(INDIRECT("S" &amp; ROW() - 1) - S73)),IF(O73="", "", INDIRECT("S" &amp; ROW() - 1) - S73))</f>
+        <f aca="true">IF(M73="", IF(O73="","",ROUND(X73+(INDIRECT("S" &amp; ROW() - 1) - S73),0)),IF(O73="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S73,0)))</f>
         <v/>
       </c>
       <c r="K73" s="17" t="str">
@@ -4482,7 +4482,7 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J74" s="9" t="str">
-        <f aca="true">IF(M74="", IF(O74="","",X74+(INDIRECT("S" &amp; ROW() - 1) - S74)),IF(O74="", "", INDIRECT("S" &amp; ROW() - 1) - S74))</f>
+        <f aca="true">IF(M74="", IF(O74="","",ROUND(X74+(INDIRECT("S" &amp; ROW() - 1) - S74),0)),IF(O74="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S74,0)))</f>
         <v/>
       </c>
       <c r="K74" s="17" t="str">
@@ -4533,7 +4533,7 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J75" s="9" t="str">
-        <f aca="true">IF(M75="", IF(O75="","",X75+(INDIRECT("S" &amp; ROW() - 1) - S75)),IF(O75="", "", INDIRECT("S" &amp; ROW() - 1) - S75))</f>
+        <f aca="true">IF(M75="", IF(O75="","",ROUND(X75+(INDIRECT("S" &amp; ROW() - 1) - S75),0)),IF(O75="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S75,0)))</f>
         <v/>
       </c>
       <c r="K75" s="17" t="str">
@@ -4584,7 +4584,7 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J76" s="9" t="str">
-        <f aca="true">IF(M76="", IF(O76="","",X76+(INDIRECT("S" &amp; ROW() - 1) - S76)),IF(O76="", "", INDIRECT("S" &amp; ROW() - 1) - S76))</f>
+        <f aca="true">IF(M76="", IF(O76="","",ROUND(X76+(INDIRECT("S" &amp; ROW() - 1) - S76),0)),IF(O76="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S76,0)))</f>
         <v/>
       </c>
       <c r="K76" s="17" t="str">
@@ -4635,7 +4635,7 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J77" s="9" t="str">
-        <f aca="true">IF(M77="", IF(O77="","",X77+(INDIRECT("S" &amp; ROW() - 1) - S77)),IF(O77="", "", INDIRECT("S" &amp; ROW() - 1) - S77))</f>
+        <f aca="true">IF(M77="", IF(O77="","",ROUND(X77+(INDIRECT("S" &amp; ROW() - 1) - S77),0)),IF(O77="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S77,0)))</f>
         <v/>
       </c>
       <c r="K77" s="17" t="str">
@@ -4686,7 +4686,7 @@
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J78" s="9" t="str">
-        <f aca="true">IF(M78="", IF(O78="","",X78+(INDIRECT("S" &amp; ROW() - 1) - S78)),IF(O78="", "", INDIRECT("S" &amp; ROW() - 1) - S78))</f>
+        <f aca="true">IF(M78="", IF(O78="","",ROUND(X78+(INDIRECT("S" &amp; ROW() - 1) - S78),0)),IF(O78="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S78,0)))</f>
         <v/>
       </c>
       <c r="K78" s="17" t="str">
@@ -4737,7 +4737,7 @@
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J79" s="9" t="str">
-        <f aca="true">IF(M79="", IF(O79="","",X79+(INDIRECT("S" &amp; ROW() - 1) - S79)),IF(O79="", "", INDIRECT("S" &amp; ROW() - 1) - S79))</f>
+        <f aca="true">IF(M79="", IF(O79="","",ROUND(X79+(INDIRECT("S" &amp; ROW() - 1) - S79),0)),IF(O79="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S79,0)))</f>
         <v/>
       </c>
       <c r="K79" s="17" t="str">
@@ -4788,7 +4788,7 @@
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J80" s="9" t="str">
-        <f aca="true">IF(M80="", IF(O80="","",X80+(INDIRECT("S" &amp; ROW() - 1) - S80)),IF(O80="", "", INDIRECT("S" &amp; ROW() - 1) - S80))</f>
+        <f aca="true">IF(M80="", IF(O80="","",ROUND(X80+(INDIRECT("S" &amp; ROW() - 1) - S80),0)),IF(O80="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S80,0)))</f>
         <v/>
       </c>
       <c r="K80" s="17" t="str">
@@ -4839,7 +4839,7 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J81" s="9" t="str">
-        <f aca="true">IF(M81="", IF(O81="","",X81+(INDIRECT("S" &amp; ROW() - 1) - S81)),IF(O81="", "", INDIRECT("S" &amp; ROW() - 1) - S81))</f>
+        <f aca="true">IF(M81="", IF(O81="","",ROUND(X81+(INDIRECT("S" &amp; ROW() - 1) - S81),0)),IF(O81="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S81,0)))</f>
         <v/>
       </c>
       <c r="K81" s="17" t="str">
@@ -4890,7 +4890,7 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J82" s="9" t="str">
-        <f aca="true">IF(M82="", IF(O82="","",X82+(INDIRECT("S" &amp; ROW() - 1) - S82)),IF(O82="", "", INDIRECT("S" &amp; ROW() - 1) - S82))</f>
+        <f aca="true">IF(M82="", IF(O82="","",ROUND(X82+(INDIRECT("S" &amp; ROW() - 1) - S82),0)),IF(O82="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S82,0)))</f>
         <v/>
       </c>
       <c r="K82" s="17" t="str">
@@ -4941,7 +4941,7 @@
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J83" s="9" t="str">
-        <f aca="true">IF(M83="", IF(O83="","",X83+(INDIRECT("S" &amp; ROW() - 1) - S83)),IF(O83="", "", INDIRECT("S" &amp; ROW() - 1) - S83))</f>
+        <f aca="true">IF(M83="", IF(O83="","",ROUND(X83+(INDIRECT("S" &amp; ROW() - 1) - S83),0)),IF(O83="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S83,0)))</f>
         <v/>
       </c>
       <c r="K83" s="17" t="str">
@@ -4992,7 +4992,7 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J84" s="9" t="str">
-        <f aca="true">IF(M84="", IF(O84="","",X84+(INDIRECT("S" &amp; ROW() - 1) - S84)),IF(O84="", "", INDIRECT("S" &amp; ROW() - 1) - S84))</f>
+        <f aca="true">IF(M84="", IF(O84="","",ROUND(X84+(INDIRECT("S" &amp; ROW() - 1) - S84),0)),IF(O84="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S84,0)))</f>
         <v/>
       </c>
       <c r="K84" s="17" t="str">
@@ -5043,7 +5043,7 @@
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J85" s="9" t="str">
-        <f aca="true">IF(M85="", IF(O85="","",X85+(INDIRECT("S" &amp; ROW() - 1) - S85)),IF(O85="", "", INDIRECT("S" &amp; ROW() - 1) - S85))</f>
+        <f aca="true">IF(M85="", IF(O85="","",ROUND(X85+(INDIRECT("S" &amp; ROW() - 1) - S85),0)),IF(O85="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S85,0)))</f>
         <v/>
       </c>
       <c r="K85" s="17" t="str">
@@ -5094,7 +5094,7 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J86" s="9" t="str">
-        <f aca="true">IF(M86="", IF(O86="","",X86+(INDIRECT("S" &amp; ROW() - 1) - S86)),IF(O86="", "", INDIRECT("S" &amp; ROW() - 1) - S86))</f>
+        <f aca="true">IF(M86="", IF(O86="","",ROUND(X86+(INDIRECT("S" &amp; ROW() - 1) - S86),0)),IF(O86="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S86,0)))</f>
         <v/>
       </c>
       <c r="K86" s="17" t="str">
@@ -5145,7 +5145,7 @@
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J87" s="9" t="str">
-        <f aca="true">IF(M87="", IF(O87="","",X87+(INDIRECT("S" &amp; ROW() - 1) - S87)),IF(O87="", "", INDIRECT("S" &amp; ROW() - 1) - S87))</f>
+        <f aca="true">IF(M87="", IF(O87="","",ROUND(X87+(INDIRECT("S" &amp; ROW() - 1) - S87),0)),IF(O87="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S87,0)))</f>
         <v/>
       </c>
       <c r="K87" s="17" t="str">
@@ -5196,7 +5196,7 @@
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J88" s="9" t="str">
-        <f aca="true">IF(M88="", IF(O88="","",X88+(INDIRECT("S" &amp; ROW() - 1) - S88)),IF(O88="", "", INDIRECT("S" &amp; ROW() - 1) - S88))</f>
+        <f aca="true">IF(M88="", IF(O88="","",ROUND(X88+(INDIRECT("S" &amp; ROW() - 1) - S88),0)),IF(O88="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S88,0)))</f>
         <v/>
       </c>
       <c r="K88" s="17" t="str">
@@ -5247,7 +5247,7 @@
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J89" s="9" t="str">
-        <f aca="true">IF(M89="", IF(O89="","",X89+(INDIRECT("S" &amp; ROW() - 1) - S89)),IF(O89="", "", INDIRECT("S" &amp; ROW() - 1) - S89))</f>
+        <f aca="true">IF(M89="", IF(O89="","",ROUND(X89+(INDIRECT("S" &amp; ROW() - 1) - S89),0)),IF(O89="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S89,0)))</f>
         <v/>
       </c>
       <c r="K89" s="17" t="str">
@@ -5298,7 +5298,7 @@
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J90" s="9" t="str">
-        <f aca="true">IF(M90="", IF(O90="","",X90+(INDIRECT("S" &amp; ROW() - 1) - S90)),IF(O90="", "", INDIRECT("S" &amp; ROW() - 1) - S90))</f>
+        <f aca="true">IF(M90="", IF(O90="","",ROUND(X90+(INDIRECT("S" &amp; ROW() - 1) - S90),0)),IF(O90="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S90,0)))</f>
         <v/>
       </c>
       <c r="K90" s="17" t="str">
@@ -5349,7 +5349,7 @@
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J91" s="9" t="str">
-        <f aca="true">IF(M91="", IF(O91="","",X91+(INDIRECT("S" &amp; ROW() - 1) - S91)),IF(O91="", "", INDIRECT("S" &amp; ROW() - 1) - S91))</f>
+        <f aca="true">IF(M91="", IF(O91="","",ROUND(X91+(INDIRECT("S" &amp; ROW() - 1) - S91),0)),IF(O91="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S91,0)))</f>
         <v/>
       </c>
       <c r="K91" s="17" t="str">
@@ -5400,7 +5400,7 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J92" s="9" t="str">
-        <f aca="true">IF(M92="", IF(O92="","",X92+(INDIRECT("S" &amp; ROW() - 1) - S92)),IF(O92="", "", INDIRECT("S" &amp; ROW() - 1) - S92))</f>
+        <f aca="true">IF(M92="", IF(O92="","",ROUND(X92+(INDIRECT("S" &amp; ROW() - 1) - S92),0)),IF(O92="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S92,0)))</f>
         <v/>
       </c>
       <c r="K92" s="17" t="str">
@@ -5451,7 +5451,7 @@
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J93" s="9" t="str">
-        <f aca="true">IF(M93="", IF(O93="","",X93+(INDIRECT("S" &amp; ROW() - 1) - S93)),IF(O93="", "", INDIRECT("S" &amp; ROW() - 1) - S93))</f>
+        <f aca="true">IF(M93="", IF(O93="","",ROUND(X93+(INDIRECT("S" &amp; ROW() - 1) - S93),0)),IF(O93="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S93,0)))</f>
         <v/>
       </c>
       <c r="K93" s="17" t="str">
@@ -5502,7 +5502,7 @@
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J94" s="9" t="str">
-        <f aca="true">IF(M94="", IF(O94="","",X94+(INDIRECT("S" &amp; ROW() - 1) - S94)),IF(O94="", "", INDIRECT("S" &amp; ROW() - 1) - S94))</f>
+        <f aca="true">IF(M94="", IF(O94="","",ROUND(X94+(INDIRECT("S" &amp; ROW() - 1) - S94),0)),IF(O94="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S94,0)))</f>
         <v/>
       </c>
       <c r="K94" s="17" t="str">
@@ -5553,7 +5553,7 @@
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J95" s="9" t="str">
-        <f aca="true">IF(M95="", IF(O95="","",X95+(INDIRECT("S" &amp; ROW() - 1) - S95)),IF(O95="", "", INDIRECT("S" &amp; ROW() - 1) - S95))</f>
+        <f aca="true">IF(M95="", IF(O95="","",ROUND(X95+(INDIRECT("S" &amp; ROW() - 1) - S95),0)),IF(O95="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S95,0)))</f>
         <v/>
       </c>
       <c r="K95" s="17" t="str">
@@ -5604,7 +5604,7 @@
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J96" s="9" t="str">
-        <f aca="true">IF(M96="", IF(O96="","",X96+(INDIRECT("S" &amp; ROW() - 1) - S96)),IF(O96="", "", INDIRECT("S" &amp; ROW() - 1) - S96))</f>
+        <f aca="true">IF(M96="", IF(O96="","",ROUND(X96+(INDIRECT("S" &amp; ROW() - 1) - S96),0)),IF(O96="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S96,0)))</f>
         <v/>
       </c>
       <c r="K96" s="17" t="str">
@@ -5655,7 +5655,7 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J97" s="9" t="str">
-        <f aca="true">IF(M97="", IF(O97="","",X97+(INDIRECT("S" &amp; ROW() - 1) - S97)),IF(O97="", "", INDIRECT("S" &amp; ROW() - 1) - S97))</f>
+        <f aca="true">IF(M97="", IF(O97="","",ROUND(X97+(INDIRECT("S" &amp; ROW() - 1) - S97),0)),IF(O97="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S97,0)))</f>
         <v/>
       </c>
       <c r="K97" s="17" t="str">
@@ -5706,7 +5706,7 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J98" s="9" t="str">
-        <f aca="true">IF(M98="", IF(O98="","",X98+(INDIRECT("S" &amp; ROW() - 1) - S98)),IF(O98="", "", INDIRECT("S" &amp; ROW() - 1) - S98))</f>
+        <f aca="true">IF(M98="", IF(O98="","",ROUND(X98+(INDIRECT("S" &amp; ROW() - 1) - S98),0)),IF(O98="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S98,0)))</f>
         <v/>
       </c>
       <c r="K98" s="17" t="str">
@@ -5757,7 +5757,7 @@
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J99" s="9" t="str">
-        <f aca="true">IF(M99="", IF(O99="","",X99+(INDIRECT("S" &amp; ROW() - 1) - S99)),IF(O99="", "", INDIRECT("S" &amp; ROW() - 1) - S99))</f>
+        <f aca="true">IF(M99="", IF(O99="","",ROUND(X99+(INDIRECT("S" &amp; ROW() - 1) - S99),0)),IF(O99="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S99,0)))</f>
         <v/>
       </c>
       <c r="K99" s="17" t="str">
@@ -5808,7 +5808,7 @@
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J100" s="9" t="str">
-        <f aca="true">IF(M100="", IF(O100="","",X100+(INDIRECT("S" &amp; ROW() - 1) - S100)),IF(O100="", "", INDIRECT("S" &amp; ROW() - 1) - S100))</f>
+        <f aca="true">IF(M100="", IF(O100="","",ROUND(X100+(INDIRECT("S" &amp; ROW() - 1) - S100),0)),IF(O100="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S100,0)))</f>
         <v/>
       </c>
       <c r="K100" s="17" t="str">
@@ -5859,7 +5859,7 @@
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J101" s="9" t="str">
-        <f aca="true">IF(M101="", IF(O101="","",X101+(INDIRECT("S" &amp; ROW() - 1) - S101)),IF(O101="", "", INDIRECT("S" &amp; ROW() - 1) - S101))</f>
+        <f aca="true">IF(M101="", IF(O101="","",ROUND(X101+(INDIRECT("S" &amp; ROW() - 1) - S101),0)),IF(O101="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S101,0)))</f>
         <v/>
       </c>
       <c r="K101" s="17" t="str">
@@ -5910,7 +5910,7 @@
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J102" s="9" t="str">
-        <f aca="true">IF(M102="", IF(O102="","",X102+(INDIRECT("S" &amp; ROW() - 1) - S102)),IF(O102="", "", INDIRECT("S" &amp; ROW() - 1) - S102))</f>
+        <f aca="true">IF(M102="", IF(O102="","",ROUND(X102+(INDIRECT("S" &amp; ROW() - 1) - S102),0)),IF(O102="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S102,0)))</f>
         <v/>
       </c>
       <c r="K102" s="17" t="str">
@@ -5961,7 +5961,7 @@
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J103" s="9" t="str">
-        <f aca="true">IF(M103="", IF(O103="","",X103+(INDIRECT("S" &amp; ROW() - 1) - S103)),IF(O103="", "", INDIRECT("S" &amp; ROW() - 1) - S103))</f>
+        <f aca="true">IF(M103="", IF(O103="","",ROUND(X103+(INDIRECT("S" &amp; ROW() - 1) - S103),0)),IF(O103="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S103,0)))</f>
         <v/>
       </c>
       <c r="K103" s="17" t="str">
@@ -6012,7 +6012,7 @@
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J104" s="9" t="str">
-        <f aca="true">IF(M104="", IF(O104="","",X104+(INDIRECT("S" &amp; ROW() - 1) - S104)),IF(O104="", "", INDIRECT("S" &amp; ROW() - 1) - S104))</f>
+        <f aca="true">IF(M104="", IF(O104="","",ROUND(X104+(INDIRECT("S" &amp; ROW() - 1) - S104),0)),IF(O104="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S104,0)))</f>
         <v/>
       </c>
       <c r="K104" s="17" t="str">
@@ -6063,7 +6063,7 @@
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J105" s="9" t="str">
-        <f aca="true">IF(M105="", IF(O105="","",X105+(INDIRECT("S" &amp; ROW() - 1) - S105)),IF(O105="", "", INDIRECT("S" &amp; ROW() - 1) - S105))</f>
+        <f aca="true">IF(M105="", IF(O105="","",ROUND(X105+(INDIRECT("S" &amp; ROW() - 1) - S105),0)),IF(O105="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S105,0)))</f>
         <v/>
       </c>
       <c r="K105" s="17" t="str">
@@ -6114,7 +6114,7 @@
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J106" s="9" t="str">
-        <f aca="true">IF(M106="", IF(O106="","",X106+(INDIRECT("S" &amp; ROW() - 1) - S106)),IF(O106="", "", INDIRECT("S" &amp; ROW() - 1) - S106))</f>
+        <f aca="true">IF(M106="", IF(O106="","",ROUND(X106+(INDIRECT("S" &amp; ROW() - 1) - S106),0)),IF(O106="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S106,0)))</f>
         <v/>
       </c>
       <c r="K106" s="17" t="str">
@@ -6165,7 +6165,7 @@
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J107" s="9" t="str">
-        <f aca="true">IF(M107="", IF(O107="","",X107+(INDIRECT("S" &amp; ROW() - 1) - S107)),IF(O107="", "", INDIRECT("S" &amp; ROW() - 1) - S107))</f>
+        <f aca="true">IF(M107="", IF(O107="","",ROUND(X107+(INDIRECT("S" &amp; ROW() - 1) - S107),0)),IF(O107="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S107,0)))</f>
         <v/>
       </c>
       <c r="K107" s="17" t="str">
@@ -6216,7 +6216,7 @@
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J108" s="9" t="str">
-        <f aca="true">IF(M108="", IF(O108="","",X108+(INDIRECT("S" &amp; ROW() - 1) - S108)),IF(O108="", "", INDIRECT("S" &amp; ROW() - 1) - S108))</f>
+        <f aca="true">IF(M108="", IF(O108="","",ROUND(X108+(INDIRECT("S" &amp; ROW() - 1) - S108),0)),IF(O108="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S108,0)))</f>
         <v/>
       </c>
       <c r="K108" s="17" t="str">
@@ -6267,7 +6267,7 @@
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J109" s="9" t="str">
-        <f aca="true">IF(M109="", IF(O109="","",X109+(INDIRECT("S" &amp; ROW() - 1) - S109)),IF(O109="", "", INDIRECT("S" &amp; ROW() - 1) - S109))</f>
+        <f aca="true">IF(M109="", IF(O109="","",ROUND(X109+(INDIRECT("S" &amp; ROW() - 1) - S109),0)),IF(O109="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S109,0)))</f>
         <v/>
       </c>
       <c r="K109" s="17" t="str">
@@ -6318,7 +6318,7 @@
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J110" s="9" t="str">
-        <f aca="true">IF(M110="", IF(O110="","",X110+(INDIRECT("S" &amp; ROW() - 1) - S110)),IF(O110="", "", INDIRECT("S" &amp; ROW() - 1) - S110))</f>
+        <f aca="true">IF(M110="", IF(O110="","",ROUND(X110+(INDIRECT("S" &amp; ROW() - 1) - S110),0)),IF(O110="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S110,0)))</f>
         <v/>
       </c>
       <c r="K110" s="17" t="str">
@@ -6369,7 +6369,7 @@
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J111" s="9" t="str">
-        <f aca="true">IF(M111="", IF(O111="","",X111+(INDIRECT("S" &amp; ROW() - 1) - S111)),IF(O111="", "", INDIRECT("S" &amp; ROW() - 1) - S111))</f>
+        <f aca="true">IF(M111="", IF(O111="","",ROUND(X111+(INDIRECT("S" &amp; ROW() - 1) - S111),0)),IF(O111="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S111,0)))</f>
         <v/>
       </c>
       <c r="K111" s="17" t="str">
@@ -6420,7 +6420,7 @@
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J112" s="9" t="str">
-        <f aca="true">IF(M112="", IF(O112="","",X112+(INDIRECT("S" &amp; ROW() - 1) - S112)),IF(O112="", "", INDIRECT("S" &amp; ROW() - 1) - S112))</f>
+        <f aca="true">IF(M112="", IF(O112="","",ROUND(X112+(INDIRECT("S" &amp; ROW() - 1) - S112),0)),IF(O112="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S112,0)))</f>
         <v/>
       </c>
       <c r="K112" s="17" t="str">
@@ -6471,7 +6471,7 @@
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J113" s="9" t="str">
-        <f aca="true">IF(M113="", IF(O113="","",X113+(INDIRECT("S" &amp; ROW() - 1) - S113)),IF(O113="", "", INDIRECT("S" &amp; ROW() - 1) - S113))</f>
+        <f aca="true">IF(M113="", IF(O113="","",ROUND(X113+(INDIRECT("S" &amp; ROW() - 1) - S113),0)),IF(O113="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S113,0)))</f>
         <v/>
       </c>
       <c r="K113" s="17" t="str">
@@ -6522,7 +6522,7 @@
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J114" s="9" t="str">
-        <f aca="true">IF(M114="", IF(O114="","",X114+(INDIRECT("S" &amp; ROW() - 1) - S114)),IF(O114="", "", INDIRECT("S" &amp; ROW() - 1) - S114))</f>
+        <f aca="true">IF(M114="", IF(O114="","",ROUND(X114+(INDIRECT("S" &amp; ROW() - 1) - S114),0)),IF(O114="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S114,0)))</f>
         <v/>
       </c>
       <c r="K114" s="17" t="str">
@@ -6573,7 +6573,7 @@
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J115" s="9" t="str">
-        <f aca="true">IF(M115="", IF(O115="","",X115+(INDIRECT("S" &amp; ROW() - 1) - S115)),IF(O115="", "", INDIRECT("S" &amp; ROW() - 1) - S115))</f>
+        <f aca="true">IF(M115="", IF(O115="","",ROUND(X115+(INDIRECT("S" &amp; ROW() - 1) - S115),0)),IF(O115="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S115,0)))</f>
         <v/>
       </c>
       <c r="K115" s="17" t="str">
@@ -6624,7 +6624,7 @@
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J116" s="9" t="str">
-        <f aca="true">IF(M116="", IF(O116="","",X116+(INDIRECT("S" &amp; ROW() - 1) - S116)),IF(O116="", "", INDIRECT("S" &amp; ROW() - 1) - S116))</f>
+        <f aca="true">IF(M116="", IF(O116="","",ROUND(X116+(INDIRECT("S" &amp; ROW() - 1) - S116),0)),IF(O116="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S116,0)))</f>
         <v/>
       </c>
       <c r="K116" s="17" t="str">
@@ -6675,7 +6675,7 @@
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J117" s="9" t="str">
-        <f aca="true">IF(M117="", IF(O117="","",X117+(INDIRECT("S" &amp; ROW() - 1) - S117)),IF(O117="", "", INDIRECT("S" &amp; ROW() - 1) - S117))</f>
+        <f aca="true">IF(M117="", IF(O117="","",ROUND(X117+(INDIRECT("S" &amp; ROW() - 1) - S117),0)),IF(O117="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S117,0)))</f>
         <v/>
       </c>
       <c r="K117" s="17" t="str">
@@ -6726,7 +6726,7 @@
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J118" s="9" t="str">
-        <f aca="true">IF(M118="", IF(O118="","",X118+(INDIRECT("S" &amp; ROW() - 1) - S118)),IF(O118="", "", INDIRECT("S" &amp; ROW() - 1) - S118))</f>
+        <f aca="true">IF(M118="", IF(O118="","",ROUND(X118+(INDIRECT("S" &amp; ROW() - 1) - S118),0)),IF(O118="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S118,0)))</f>
         <v/>
       </c>
       <c r="K118" s="17" t="str">
@@ -6777,7 +6777,7 @@
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J119" s="9" t="str">
-        <f aca="true">IF(M119="", IF(O119="","",X119+(INDIRECT("S" &amp; ROW() - 1) - S119)),IF(O119="", "", INDIRECT("S" &amp; ROW() - 1) - S119))</f>
+        <f aca="true">IF(M119="", IF(O119="","",ROUND(X119+(INDIRECT("S" &amp; ROW() - 1) - S119),0)),IF(O119="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S119,0)))</f>
         <v/>
       </c>
       <c r="K119" s="17" t="str">
@@ -6828,7 +6828,7 @@
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J120" s="9" t="str">
-        <f aca="true">IF(M120="", IF(O120="","",X120+(INDIRECT("S" &amp; ROW() - 1) - S120)),IF(O120="", "", INDIRECT("S" &amp; ROW() - 1) - S120))</f>
+        <f aca="true">IF(M120="", IF(O120="","",ROUND(X120+(INDIRECT("S" &amp; ROW() - 1) - S120),0)),IF(O120="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S120,0)))</f>
         <v/>
       </c>
       <c r="K120" s="17" t="str">
@@ -6879,7 +6879,7 @@
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J121" s="9" t="str">
-        <f aca="true">IF(M121="", IF(O121="","",X121+(INDIRECT("S" &amp; ROW() - 1) - S121)),IF(O121="", "", INDIRECT("S" &amp; ROW() - 1) - S121))</f>
+        <f aca="true">IF(M121="", IF(O121="","",ROUND(X121+(INDIRECT("S" &amp; ROW() - 1) - S121),0)),IF(O121="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S121,0)))</f>
         <v/>
       </c>
       <c r="K121" s="17" t="str">
@@ -6930,7 +6930,7 @@
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J122" s="9" t="str">
-        <f aca="true">IF(M122="", IF(O122="","",X122+(INDIRECT("S" &amp; ROW() - 1) - S122)),IF(O122="", "", INDIRECT("S" &amp; ROW() - 1) - S122))</f>
+        <f aca="true">IF(M122="", IF(O122="","",ROUND(X122+(INDIRECT("S" &amp; ROW() - 1) - S122),0)),IF(O122="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S122,0)))</f>
         <v/>
       </c>
       <c r="K122" s="17" t="str">
@@ -6979,199 +6979,331 @@
         <v/>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J123" s="9" t="str">
+        <f aca="true">IF(M123="", IF(O123="","",ROUND(X123+(INDIRECT("S" &amp; ROW() - 1) - S123),0)),IF(O123="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S123,0)))</f>
+        <v/>
+      </c>
       <c r="K123" s="17" t="str">
         <f aca="false">IF(H123="", "", IF(H123="-","",VLOOKUP(H123, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J124" s="9" t="str">
+        <f aca="true">IF(M124="", IF(O124="","",ROUND(X124+(INDIRECT("S" &amp; ROW() - 1) - S124),0)),IF(O124="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S124,0)))</f>
+        <v/>
+      </c>
       <c r="K124" s="17" t="str">
         <f aca="false">IF(H124="", "", IF(H124="-","",VLOOKUP(H124, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J125" s="9" t="str">
+        <f aca="true">IF(M125="", IF(O125="","",ROUND(X125+(INDIRECT("S" &amp; ROW() - 1) - S125),0)),IF(O125="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S125,0)))</f>
+        <v/>
+      </c>
       <c r="K125" s="17" t="str">
         <f aca="false">IF(H125="", "", IF(H125="-","",VLOOKUP(H125, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J126" s="9" t="str">
+        <f aca="true">IF(M126="", IF(O126="","",ROUND(X126+(INDIRECT("S" &amp; ROW() - 1) - S126),0)),IF(O126="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S126,0)))</f>
+        <v/>
+      </c>
       <c r="K126" s="17" t="str">
         <f aca="false">IF(H126="", "", IF(H126="-","",VLOOKUP(H126, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J127" s="9" t="str">
+        <f aca="true">IF(M127="", IF(O127="","",ROUND(X127+(INDIRECT("S" &amp; ROW() - 1) - S127),0)),IF(O127="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S127,0)))</f>
+        <v/>
+      </c>
       <c r="K127" s="17" t="str">
         <f aca="false">IF(H127="", "", IF(H127="-","",VLOOKUP(H127, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J128" s="9" t="str">
+        <f aca="true">IF(M128="", IF(O128="","",ROUND(X128+(INDIRECT("S" &amp; ROW() - 1) - S128),0)),IF(O128="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S128,0)))</f>
+        <v/>
+      </c>
       <c r="K128" s="17" t="str">
         <f aca="false">IF(H128="", "", IF(H128="-","",VLOOKUP(H128, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J129" s="9" t="str">
+        <f aca="true">IF(M129="", IF(O129="","",ROUND(X129+(INDIRECT("S" &amp; ROW() - 1) - S129),0)),IF(O129="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S129,0)))</f>
+        <v/>
+      </c>
       <c r="K129" s="17" t="str">
         <f aca="false">IF(H129="", "", IF(H129="-","",VLOOKUP(H129, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J130" s="9" t="str">
+        <f aca="true">IF(M130="", IF(O130="","",ROUND(X130+(INDIRECT("S" &amp; ROW() - 1) - S130),0)),IF(O130="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S130,0)))</f>
+        <v/>
+      </c>
       <c r="K130" s="17" t="str">
         <f aca="false">IF(H130="", "", IF(H130="-","",VLOOKUP(H130, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J131" s="9" t="str">
+        <f aca="true">IF(M131="", IF(O131="","",ROUND(X131+(INDIRECT("S" &amp; ROW() - 1) - S131),0)),IF(O131="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S131,0)))</f>
+        <v/>
+      </c>
       <c r="K131" s="17" t="str">
         <f aca="false">IF(H131="", "", IF(H131="-","",VLOOKUP(H131, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J132" s="9" t="str">
+        <f aca="true">IF(M132="", IF(O132="","",ROUND(X132+(INDIRECT("S" &amp; ROW() - 1) - S132),0)),IF(O132="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S132,0)))</f>
+        <v/>
+      </c>
       <c r="K132" s="17" t="str">
         <f aca="false">IF(H132="", "", IF(H132="-","",VLOOKUP(H132, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J133" s="9" t="str">
+        <f aca="true">IF(M133="", IF(O133="","",ROUND(X133+(INDIRECT("S" &amp; ROW() - 1) - S133),0)),IF(O133="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S133,0)))</f>
+        <v/>
+      </c>
       <c r="K133" s="17" t="str">
         <f aca="false">IF(H133="", "", IF(H133="-","",VLOOKUP(H133, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J134" s="9" t="str">
+        <f aca="true">IF(M134="", IF(O134="","",ROUND(X134+(INDIRECT("S" &amp; ROW() - 1) - S134),0)),IF(O134="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S134,0)))</f>
+        <v/>
+      </c>
       <c r="K134" s="17" t="str">
         <f aca="false">IF(H134="", "", IF(H134="-","",VLOOKUP(H134, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J135" s="9" t="str">
+        <f aca="true">IF(M135="", IF(O135="","",ROUND(X135+(INDIRECT("S" &amp; ROW() - 1) - S135),0)),IF(O135="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S135,0)))</f>
+        <v/>
+      </c>
       <c r="K135" s="17" t="str">
         <f aca="false">IF(H135="", "", IF(H135="-","",VLOOKUP(H135, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J136" s="9" t="str">
+        <f aca="true">IF(M136="", IF(O136="","",ROUND(X136+(INDIRECT("S" &amp; ROW() - 1) - S136),0)),IF(O136="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S136,0)))</f>
+        <v/>
+      </c>
       <c r="K136" s="17" t="str">
         <f aca="false">IF(H136="", "", IF(H136="-","",VLOOKUP(H136, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J137" s="9" t="str">
+        <f aca="true">IF(M137="", IF(O137="","",ROUND(X137+(INDIRECT("S" &amp; ROW() - 1) - S137),0)),IF(O137="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S137,0)))</f>
+        <v/>
+      </c>
       <c r="K137" s="17" t="str">
         <f aca="false">IF(H137="", "", IF(H137="-","",VLOOKUP(H137, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J138" s="9" t="str">
+        <f aca="true">IF(M138="", IF(O138="","",ROUND(X138+(INDIRECT("S" &amp; ROW() - 1) - S138),0)),IF(O138="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S138,0)))</f>
+        <v/>
+      </c>
       <c r="K138" s="17" t="str">
         <f aca="false">IF(H138="", "", IF(H138="-","",VLOOKUP(H138, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J139" s="9" t="str">
+        <f aca="true">IF(M139="", IF(O139="","",ROUND(X139+(INDIRECT("S" &amp; ROW() - 1) - S139),0)),IF(O139="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S139,0)))</f>
+        <v/>
+      </c>
       <c r="K139" s="17" t="str">
         <f aca="false">IF(H139="", "", IF(H139="-","",VLOOKUP(H139, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J140" s="9" t="str">
+        <f aca="true">IF(M140="", IF(O140="","",ROUND(X140+(INDIRECT("S" &amp; ROW() - 1) - S140),0)),IF(O140="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S140,0)))</f>
+        <v/>
+      </c>
       <c r="K140" s="17" t="str">
         <f aca="false">IF(H140="", "", IF(H140="-","",VLOOKUP(H140, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J141" s="9" t="str">
+        <f aca="true">IF(M141="", IF(O141="","",ROUND(X141+(INDIRECT("S" &amp; ROW() - 1) - S141),0)),IF(O141="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S141,0)))</f>
+        <v/>
+      </c>
       <c r="K141" s="17" t="str">
         <f aca="false">IF(H141="", "", IF(H141="-","",VLOOKUP(H141, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J142" s="9" t="str">
+        <f aca="true">IF(M142="", IF(O142="","",ROUND(X142+(INDIRECT("S" &amp; ROW() - 1) - S142),0)),IF(O142="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S142,0)))</f>
+        <v/>
+      </c>
       <c r="K142" s="17" t="str">
         <f aca="false">IF(H142="", "", IF(H142="-","",VLOOKUP(H142, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J143" s="9" t="str">
+        <f aca="true">IF(M143="", IF(O143="","",ROUND(X143+(INDIRECT("S" &amp; ROW() - 1) - S143),0)),IF(O143="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S143,0)))</f>
+        <v/>
+      </c>
       <c r="K143" s="17" t="str">
         <f aca="false">IF(H143="", "", IF(H143="-","",VLOOKUP(H143, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J144" s="9" t="str">
+        <f aca="true">IF(M144="", IF(O144="","",ROUND(X144+(INDIRECT("S" &amp; ROW() - 1) - S144),0)),IF(O144="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S144,0)))</f>
+        <v/>
+      </c>
       <c r="K144" s="17" t="str">
         <f aca="false">IF(H144="", "", IF(H144="-","",VLOOKUP(H144, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J145" s="9" t="str">
+        <f aca="true">IF(M145="", IF(O145="","",ROUND(X145+(INDIRECT("S" &amp; ROW() - 1) - S145),0)),IF(O145="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S145,0)))</f>
+        <v/>
+      </c>
       <c r="K145" s="17" t="str">
         <f aca="false">IF(H145="", "", IF(H145="-","",VLOOKUP(H145, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J146" s="9" t="str">
+        <f aca="true">IF(M146="", IF(O146="","",ROUND(X146+(INDIRECT("S" &amp; ROW() - 1) - S146),0)),IF(O146="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S146,0)))</f>
+        <v/>
+      </c>
       <c r="K146" s="17" t="str">
         <f aca="false">IF(H146="", "", IF(H146="-","",VLOOKUP(H146, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J147" s="9" t="str">
+        <f aca="true">IF(M147="", IF(O147="","",ROUND(X147+(INDIRECT("S" &amp; ROW() - 1) - S147),0)),IF(O147="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S147,0)))</f>
+        <v/>
+      </c>
       <c r="K147" s="17" t="str">
         <f aca="false">IF(H147="", "", IF(H147="-","",VLOOKUP(H147, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J148" s="9" t="str">
+        <f aca="true">IF(M148="", IF(O148="","",ROUND(X148+(INDIRECT("S" &amp; ROW() - 1) - S148),0)),IF(O148="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S148,0)))</f>
+        <v/>
+      </c>
       <c r="K148" s="17" t="str">
         <f aca="false">IF(H148="", "", IF(H148="-","",VLOOKUP(H148, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J149" s="9" t="str">
+        <f aca="true">IF(M149="", IF(O149="","",ROUND(X149+(INDIRECT("S" &amp; ROW() - 1) - S149),0)),IF(O149="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S149,0)))</f>
+        <v/>
+      </c>
       <c r="K149" s="17" t="str">
         <f aca="false">IF(H149="", "", IF(H149="-","",VLOOKUP(H149, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J150" s="9" t="str">
+        <f aca="true">IF(M150="", IF(O150="","",ROUND(X150+(INDIRECT("S" &amp; ROW() - 1) - S150),0)),IF(O150="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S150,0)))</f>
+        <v/>
+      </c>
       <c r="K150" s="17" t="str">
         <f aca="false">IF(H150="", "", IF(H150="-","",VLOOKUP(H150, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J151" s="9" t="str">
+        <f aca="true">IF(M151="", IF(O151="","",ROUND(X151+(INDIRECT("S" &amp; ROW() - 1) - S151),0)),IF(O151="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S151,0)))</f>
+        <v/>
+      </c>
       <c r="K151" s="17" t="str">
         <f aca="false">IF(H151="", "", IF(H151="-","",VLOOKUP(H151, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J152" s="9" t="str">
+        <f aca="true">IF(M152="", IF(O152="","",ROUND(X152+(INDIRECT("S" &amp; ROW() - 1) - S152),0)),IF(O152="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S152,0)))</f>
+        <v/>
+      </c>
       <c r="K152" s="17" t="str">
         <f aca="false">IF(H152="", "", IF(H152="-","",VLOOKUP(H152, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J153" s="9" t="str">
+        <f aca="true">IF(M153="", IF(O153="","",ROUND(X153+(INDIRECT("S" &amp; ROW() - 1) - S153),0)),IF(O153="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S153,0)))</f>
+        <v/>
+      </c>
       <c r="K153" s="17" t="str">
         <f aca="false">IF(H153="", "", IF(H153="-","",VLOOKUP(H153, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J154" s="9" t="str">
+        <f aca="true">IF(M154="", IF(O154="","",ROUND(X154+(INDIRECT("S" &amp; ROW() - 1) - S154),0)),IF(O154="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S154,0)))</f>
+        <v/>
+      </c>
       <c r="K154" s="17" t="str">
         <f aca="false">IF(H154="", "", IF(H154="-","",VLOOKUP(H154, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J155" s="9" t="str">
+        <f aca="true">IF(M155="", IF(O155="","",ROUND(X155+(INDIRECT("S" &amp; ROW() - 1) - S155),0)),IF(O155="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S155,0)))</f>
+        <v/>
+      </c>
       <c r="K155" s="17" t="str">
         <f aca="false">IF(H155="", "", IF(H155="-","",VLOOKUP(H155, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
@@ -7630,7 +7762,7 @@
   </sheetPr>
   <dimension ref="A1:X287"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -7733,7 +7865,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J2" s="9" t="str">
-        <f aca="true">IF(M2="", IF(O2="","",X2+(INDIRECT("S" &amp; ROW() - 1) - S2)),IF(O2="", "", INDIRECT("S" &amp; ROW() - 1) - S2))</f>
+        <f aca="true">IF(M2="", IF(O2="","",ROUND(X2+(INDIRECT("S" &amp; ROW() - 1) - S2),0)),IF(O2="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S2,0)))</f>
         <v/>
       </c>
       <c r="K2" s="17" t="str">
@@ -7784,7 +7916,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J3" s="9" t="str">
-        <f aca="true">IF(M3="", IF(O3="","",X3+(INDIRECT("S" &amp; ROW() - 1) - S3)),IF(O3="", "", INDIRECT("S" &amp; ROW() - 1) - S3))</f>
+        <f aca="true">IF(M3="", IF(O3="","",ROUND(X3+(INDIRECT("S" &amp; ROW() - 1) - S3),0)),IF(O3="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S3,0)))</f>
         <v/>
       </c>
       <c r="K3" s="17" t="str">
@@ -7835,7 +7967,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J4" s="9" t="str">
-        <f aca="true">IF(M4="", IF(O4="","",X4+(INDIRECT("S" &amp; ROW() - 1) - S4)),IF(O4="", "", INDIRECT("S" &amp; ROW() - 1) - S4))</f>
+        <f aca="true">IF(M4="", IF(O4="","",ROUND(X4+(INDIRECT("S" &amp; ROW() - 1) - S4),0)),IF(O4="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S4,0)))</f>
         <v/>
       </c>
       <c r="K4" s="17" t="str">
@@ -7886,7 +8018,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J5" s="9" t="str">
-        <f aca="true">IF(M5="", IF(O5="","",X5+(INDIRECT("S" &amp; ROW() - 1) - S5)),IF(O5="", "", INDIRECT("S" &amp; ROW() - 1) - S5))</f>
+        <f aca="true">IF(M5="", IF(O5="","",ROUND(X5+(INDIRECT("S" &amp; ROW() - 1) - S5),0)),IF(O5="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S5,0)))</f>
         <v/>
       </c>
       <c r="K5" s="17" t="str">
@@ -7937,7 +8069,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J6" s="9" t="str">
-        <f aca="true">IF(M6="", IF(O6="","",X6+(INDIRECT("S" &amp; ROW() - 1) - S6)),IF(O6="", "", INDIRECT("S" &amp; ROW() - 1) - S6))</f>
+        <f aca="true">IF(M6="", IF(O6="","",ROUND(X6+(INDIRECT("S" &amp; ROW() - 1) - S6),0)),IF(O6="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S6,0)))</f>
         <v/>
       </c>
       <c r="K6" s="17" t="str">
@@ -7988,7 +8120,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J7" s="9" t="str">
-        <f aca="true">IF(M7="", IF(O7="","",X7+(INDIRECT("S" &amp; ROW() - 1) - S7)),IF(O7="", "", INDIRECT("S" &amp; ROW() - 1) - S7))</f>
+        <f aca="true">IF(M7="", IF(O7="","",ROUND(X7+(INDIRECT("S" &amp; ROW() - 1) - S7),0)),IF(O7="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S7,0)))</f>
         <v/>
       </c>
       <c r="K7" s="17" t="str">
@@ -8039,7 +8171,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J8" s="9" t="str">
-        <f aca="true">IF(M8="", IF(O8="","",X8+(INDIRECT("S" &amp; ROW() - 1) - S8)),IF(O8="", "", INDIRECT("S" &amp; ROW() - 1) - S8))</f>
+        <f aca="true">IF(M8="", IF(O8="","",ROUND(X8+(INDIRECT("S" &amp; ROW() - 1) - S8),0)),IF(O8="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S8,0)))</f>
         <v/>
       </c>
       <c r="K8" s="17" t="str">
@@ -8090,7 +8222,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J9" s="9" t="str">
-        <f aca="true">IF(M9="", IF(O9="","",X9+(INDIRECT("S" &amp; ROW() - 1) - S9)),IF(O9="", "", INDIRECT("S" &amp; ROW() - 1) - S9))</f>
+        <f aca="true">IF(M9="", IF(O9="","",ROUND(X9+(INDIRECT("S" &amp; ROW() - 1) - S9),0)),IF(O9="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S9,0)))</f>
         <v/>
       </c>
       <c r="K9" s="17" t="str">
@@ -8141,7 +8273,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J10" s="9" t="str">
-        <f aca="true">IF(M10="", IF(O10="","",X10+(INDIRECT("S" &amp; ROW() - 1) - S10)),IF(O10="", "", INDIRECT("S" &amp; ROW() - 1) - S10))</f>
+        <f aca="true">IF(M10="", IF(O10="","",ROUND(X10+(INDIRECT("S" &amp; ROW() - 1) - S10),0)),IF(O10="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S10,0)))</f>
         <v/>
       </c>
       <c r="K10" s="17" t="str">
@@ -8192,7 +8324,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J11" s="9" t="str">
-        <f aca="true">IF(M11="", IF(O11="","",X11+(INDIRECT("S" &amp; ROW() - 1) - S11)),IF(O11="", "", INDIRECT("S" &amp; ROW() - 1) - S11))</f>
+        <f aca="true">IF(M11="", IF(O11="","",ROUND(X11+(INDIRECT("S" &amp; ROW() - 1) - S11),0)),IF(O11="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S11,0)))</f>
         <v/>
       </c>
       <c r="K11" s="17" t="str">
@@ -8243,7 +8375,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J12" s="9" t="str">
-        <f aca="true">IF(M12="", IF(O12="","",X12+(INDIRECT("S" &amp; ROW() - 1) - S12)),IF(O12="", "", INDIRECT("S" &amp; ROW() - 1) - S12))</f>
+        <f aca="true">IF(M12="", IF(O12="","",ROUND(X12+(INDIRECT("S" &amp; ROW() - 1) - S12),0)),IF(O12="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S12,0)))</f>
         <v/>
       </c>
       <c r="K12" s="17" t="str">
@@ -8294,7 +8426,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J13" s="9" t="str">
-        <f aca="true">IF(M13="", IF(O13="","",X13+(INDIRECT("S" &amp; ROW() - 1) - S13)),IF(O13="", "", INDIRECT("S" &amp; ROW() - 1) - S13))</f>
+        <f aca="true">IF(M13="", IF(O13="","",ROUND(X13+(INDIRECT("S" &amp; ROW() - 1) - S13),0)),IF(O13="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S13,0)))</f>
         <v/>
       </c>
       <c r="K13" s="17" t="str">
@@ -8345,7 +8477,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J14" s="9" t="str">
-        <f aca="true">IF(M14="", IF(O14="","",X14+(INDIRECT("S" &amp; ROW() - 1) - S14)),IF(O14="", "", INDIRECT("S" &amp; ROW() - 1) - S14))</f>
+        <f aca="true">IF(M14="", IF(O14="","",ROUND(X14+(INDIRECT("S" &amp; ROW() - 1) - S14),0)),IF(O14="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S14,0)))</f>
         <v/>
       </c>
       <c r="K14" s="17" t="str">
@@ -8396,7 +8528,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J15" s="9" t="str">
-        <f aca="true">IF(M15="", IF(O15="","",X15+(INDIRECT("S" &amp; ROW() - 1) - S15)),IF(O15="", "", INDIRECT("S" &amp; ROW() - 1) - S15))</f>
+        <f aca="true">IF(M15="", IF(O15="","",ROUND(X15+(INDIRECT("S" &amp; ROW() - 1) - S15),0)),IF(O15="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S15,0)))</f>
         <v/>
       </c>
       <c r="K15" s="17" t="str">
@@ -8447,7 +8579,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J16" s="9" t="str">
-        <f aca="true">IF(M16="", IF(O16="","",X16+(INDIRECT("S" &amp; ROW() - 1) - S16)),IF(O16="", "", INDIRECT("S" &amp; ROW() - 1) - S16))</f>
+        <f aca="true">IF(M16="", IF(O16="","",ROUND(X16+(INDIRECT("S" &amp; ROW() - 1) - S16),0)),IF(O16="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S16,0)))</f>
         <v/>
       </c>
       <c r="K16" s="17" t="str">
@@ -8498,7 +8630,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J17" s="9" t="str">
-        <f aca="true">IF(M17="", IF(O17="","",X17+(INDIRECT("S" &amp; ROW() - 1) - S17)),IF(O17="", "", INDIRECT("S" &amp; ROW() - 1) - S17))</f>
+        <f aca="true">IF(M17="", IF(O17="","",ROUND(X17+(INDIRECT("S" &amp; ROW() - 1) - S17),0)),IF(O17="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S17,0)))</f>
         <v/>
       </c>
       <c r="K17" s="17" t="str">
@@ -8549,7 +8681,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J18" s="9" t="str">
-        <f aca="true">IF(M18="", IF(O18="","",X18+(INDIRECT("S" &amp; ROW() - 1) - S18)),IF(O18="", "", INDIRECT("S" &amp; ROW() - 1) - S18))</f>
+        <f aca="true">IF(M18="", IF(O18="","",ROUND(X18+(INDIRECT("S" &amp; ROW() - 1) - S18),0)),IF(O18="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S18,0)))</f>
         <v/>
       </c>
       <c r="K18" s="17" t="str">
@@ -8600,7 +8732,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J19" s="9" t="str">
-        <f aca="true">IF(M19="", IF(O19="","",X19+(INDIRECT("S" &amp; ROW() - 1) - S19)),IF(O19="", "", INDIRECT("S" &amp; ROW() - 1) - S19))</f>
+        <f aca="true">IF(M19="", IF(O19="","",ROUND(X19+(INDIRECT("S" &amp; ROW() - 1) - S19),0)),IF(O19="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S19,0)))</f>
         <v/>
       </c>
       <c r="K19" s="17" t="str">
@@ -8651,7 +8783,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J20" s="9" t="str">
-        <f aca="true">IF(M20="", IF(O20="","",X20+(INDIRECT("S" &amp; ROW() - 1) - S20)),IF(O20="", "", INDIRECT("S" &amp; ROW() - 1) - S20))</f>
+        <f aca="true">IF(M20="", IF(O20="","",ROUND(X20+(INDIRECT("S" &amp; ROW() - 1) - S20),0)),IF(O20="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S20,0)))</f>
         <v/>
       </c>
       <c r="K20" s="17" t="str">
@@ -8702,7 +8834,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J21" s="9" t="str">
-        <f aca="true">IF(M21="", IF(O21="","",X21+(INDIRECT("S" &amp; ROW() - 1) - S21)),IF(O21="", "", INDIRECT("S" &amp; ROW() - 1) - S21))</f>
+        <f aca="true">IF(M21="", IF(O21="","",ROUND(X21+(INDIRECT("S" &amp; ROW() - 1) - S21),0)),IF(O21="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S21,0)))</f>
         <v/>
       </c>
       <c r="K21" s="17" t="str">
@@ -8753,7 +8885,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J22" s="9" t="str">
-        <f aca="true">IF(M22="", IF(O22="","",X22+(INDIRECT("S" &amp; ROW() - 1) - S22)),IF(O22="", "", INDIRECT("S" &amp; ROW() - 1) - S22))</f>
+        <f aca="true">IF(M22="", IF(O22="","",ROUND(X22+(INDIRECT("S" &amp; ROW() - 1) - S22),0)),IF(O22="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S22,0)))</f>
         <v/>
       </c>
       <c r="K22" s="17" t="str">
@@ -8804,7 +8936,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J23" s="9" t="str">
-        <f aca="true">IF(M23="", IF(O23="","",X23+(INDIRECT("S" &amp; ROW() - 1) - S23)),IF(O23="", "", INDIRECT("S" &amp; ROW() - 1) - S23))</f>
+        <f aca="true">IF(M23="", IF(O23="","",ROUND(X23+(INDIRECT("S" &amp; ROW() - 1) - S23),0)),IF(O23="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S23,0)))</f>
         <v/>
       </c>
       <c r="K23" s="17" t="str">
@@ -8855,7 +8987,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J24" s="9" t="str">
-        <f aca="true">IF(M24="", IF(O24="","",X24+(INDIRECT("S" &amp; ROW() - 1) - S24)),IF(O24="", "", INDIRECT("S" &amp; ROW() - 1) - S24))</f>
+        <f aca="true">IF(M24="", IF(O24="","",ROUND(X24+(INDIRECT("S" &amp; ROW() - 1) - S24),0)),IF(O24="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S24,0)))</f>
         <v/>
       </c>
       <c r="K24" s="17" t="str">
@@ -8906,7 +9038,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J25" s="9" t="str">
-        <f aca="true">IF(M25="", IF(O25="","",X25+(INDIRECT("S" &amp; ROW() - 1) - S25)),IF(O25="", "", INDIRECT("S" &amp; ROW() - 1) - S25))</f>
+        <f aca="true">IF(M25="", IF(O25="","",ROUND(X25+(INDIRECT("S" &amp; ROW() - 1) - S25),0)),IF(O25="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S25,0)))</f>
         <v/>
       </c>
       <c r="K25" s="17" t="str">
@@ -8957,7 +9089,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J26" s="9" t="str">
-        <f aca="true">IF(M26="", IF(O26="","",X26+(INDIRECT("S" &amp; ROW() - 1) - S26)),IF(O26="", "", INDIRECT("S" &amp; ROW() - 1) - S26))</f>
+        <f aca="true">IF(M26="", IF(O26="","",ROUND(X26+(INDIRECT("S" &amp; ROW() - 1) - S26),0)),IF(O26="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S26,0)))</f>
         <v/>
       </c>
       <c r="K26" s="17" t="str">
@@ -9008,7 +9140,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J27" s="9" t="str">
-        <f aca="true">IF(M27="", IF(O27="","",X27+(INDIRECT("S" &amp; ROW() - 1) - S27)),IF(O27="", "", INDIRECT("S" &amp; ROW() - 1) - S27))</f>
+        <f aca="true">IF(M27="", IF(O27="","",ROUND(X27+(INDIRECT("S" &amp; ROW() - 1) - S27),0)),IF(O27="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S27,0)))</f>
         <v/>
       </c>
       <c r="K27" s="17" t="str">
@@ -9059,7 +9191,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J28" s="9" t="str">
-        <f aca="true">IF(M28="", IF(O28="","",X28+(INDIRECT("S" &amp; ROW() - 1) - S28)),IF(O28="", "", INDIRECT("S" &amp; ROW() - 1) - S28))</f>
+        <f aca="true">IF(M28="", IF(O28="","",ROUND(X28+(INDIRECT("S" &amp; ROW() - 1) - S28),0)),IF(O28="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S28,0)))</f>
         <v/>
       </c>
       <c r="K28" s="17" t="str">
@@ -9110,7 +9242,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J29" s="9" t="str">
-        <f aca="true">IF(M29="", IF(O29="","",X29+(INDIRECT("S" &amp; ROW() - 1) - S29)),IF(O29="", "", INDIRECT("S" &amp; ROW() - 1) - S29))</f>
+        <f aca="true">IF(M29="", IF(O29="","",ROUND(X29+(INDIRECT("S" &amp; ROW() - 1) - S29),0)),IF(O29="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S29,0)))</f>
         <v/>
       </c>
       <c r="K29" s="17" t="str">
@@ -9161,7 +9293,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J30" s="9" t="str">
-        <f aca="true">IF(M30="", IF(O30="","",X30+(INDIRECT("S" &amp; ROW() - 1) - S30)),IF(O30="", "", INDIRECT("S" &amp; ROW() - 1) - S30))</f>
+        <f aca="true">IF(M30="", IF(O30="","",ROUND(X30+(INDIRECT("S" &amp; ROW() - 1) - S30),0)),IF(O30="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S30,0)))</f>
         <v/>
       </c>
       <c r="K30" s="17" t="str">
@@ -9212,7 +9344,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J31" s="9" t="str">
-        <f aca="true">IF(M31="", IF(O31="","",X31+(INDIRECT("S" &amp; ROW() - 1) - S31)),IF(O31="", "", INDIRECT("S" &amp; ROW() - 1) - S31))</f>
+        <f aca="true">IF(M31="", IF(O31="","",ROUND(X31+(INDIRECT("S" &amp; ROW() - 1) - S31),0)),IF(O31="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S31,0)))</f>
         <v/>
       </c>
       <c r="K31" s="17" t="str">
@@ -9263,7 +9395,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J32" s="9" t="str">
-        <f aca="true">IF(M32="", IF(O32="","",X32+(INDIRECT("S" &amp; ROW() - 1) - S32)),IF(O32="", "", INDIRECT("S" &amp; ROW() - 1) - S32))</f>
+        <f aca="true">IF(M32="", IF(O32="","",ROUND(X32+(INDIRECT("S" &amp; ROW() - 1) - S32),0)),IF(O32="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S32,0)))</f>
         <v/>
       </c>
       <c r="K32" s="17" t="str">
@@ -9314,7 +9446,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J33" s="9" t="str">
-        <f aca="true">IF(M33="", IF(O33="","",X33+(INDIRECT("S" &amp; ROW() - 1) - S33)),IF(O33="", "", INDIRECT("S" &amp; ROW() - 1) - S33))</f>
+        <f aca="true">IF(M33="", IF(O33="","",ROUND(X33+(INDIRECT("S" &amp; ROW() - 1) - S33),0)),IF(O33="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S33,0)))</f>
         <v/>
       </c>
       <c r="K33" s="17" t="str">
@@ -9365,7 +9497,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J34" s="9" t="str">
-        <f aca="true">IF(M34="", IF(O34="","",X34+(INDIRECT("S" &amp; ROW() - 1) - S34)),IF(O34="", "", INDIRECT("S" &amp; ROW() - 1) - S34))</f>
+        <f aca="true">IF(M34="", IF(O34="","",ROUND(X34+(INDIRECT("S" &amp; ROW() - 1) - S34),0)),IF(O34="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S34,0)))</f>
         <v/>
       </c>
       <c r="K34" s="17" t="str">
@@ -9416,7 +9548,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J35" s="9" t="str">
-        <f aca="true">IF(M35="", IF(O35="","",X35+(INDIRECT("S" &amp; ROW() - 1) - S35)),IF(O35="", "", INDIRECT("S" &amp; ROW() - 1) - S35))</f>
+        <f aca="true">IF(M35="", IF(O35="","",ROUND(X35+(INDIRECT("S" &amp; ROW() - 1) - S35),0)),IF(O35="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S35,0)))</f>
         <v/>
       </c>
       <c r="K35" s="17" t="str">
@@ -9467,7 +9599,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J36" s="9" t="str">
-        <f aca="true">IF(M36="", IF(O36="","",X36+(INDIRECT("S" &amp; ROW() - 1) - S36)),IF(O36="", "", INDIRECT("S" &amp; ROW() - 1) - S36))</f>
+        <f aca="true">IF(M36="", IF(O36="","",ROUND(X36+(INDIRECT("S" &amp; ROW() - 1) - S36),0)),IF(O36="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S36,0)))</f>
         <v/>
       </c>
       <c r="K36" s="17" t="str">
@@ -9518,7 +9650,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J37" s="9" t="str">
-        <f aca="true">IF(M37="", IF(O37="","",X37+(INDIRECT("S" &amp; ROW() - 1) - S37)),IF(O37="", "", INDIRECT("S" &amp; ROW() - 1) - S37))</f>
+        <f aca="true">IF(M37="", IF(O37="","",ROUND(X37+(INDIRECT("S" &amp; ROW() - 1) - S37),0)),IF(O37="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S37,0)))</f>
         <v/>
       </c>
       <c r="K37" s="17" t="str">
@@ -9569,7 +9701,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J38" s="9" t="str">
-        <f aca="true">IF(M38="", IF(O38="","",X38+(INDIRECT("S" &amp; ROW() - 1) - S38)),IF(O38="", "", INDIRECT("S" &amp; ROW() - 1) - S38))</f>
+        <f aca="true">IF(M38="", IF(O38="","",ROUND(X38+(INDIRECT("S" &amp; ROW() - 1) - S38),0)),IF(O38="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S38,0)))</f>
         <v/>
       </c>
       <c r="K38" s="17" t="str">
@@ -9620,7 +9752,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J39" s="9" t="str">
-        <f aca="true">IF(M39="", IF(O39="","",X39+(INDIRECT("S" &amp; ROW() - 1) - S39)),IF(O39="", "", INDIRECT("S" &amp; ROW() - 1) - S39))</f>
+        <f aca="true">IF(M39="", IF(O39="","",ROUND(X39+(INDIRECT("S" &amp; ROW() - 1) - S39),0)),IF(O39="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S39,0)))</f>
         <v/>
       </c>
       <c r="K39" s="17" t="str">
@@ -9671,7 +9803,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J40" s="9" t="str">
-        <f aca="true">IF(M40="", IF(O40="","",X40+(INDIRECT("S" &amp; ROW() - 1) - S40)),IF(O40="", "", INDIRECT("S" &amp; ROW() - 1) - S40))</f>
+        <f aca="true">IF(M40="", IF(O40="","",ROUND(X40+(INDIRECT("S" &amp; ROW() - 1) - S40),0)),IF(O40="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S40,0)))</f>
         <v/>
       </c>
       <c r="K40" s="17" t="str">
@@ -9722,7 +9854,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J41" s="9" t="str">
-        <f aca="true">IF(M41="", IF(O41="","",X41+(INDIRECT("S" &amp; ROW() - 1) - S41)),IF(O41="", "", INDIRECT("S" &amp; ROW() - 1) - S41))</f>
+        <f aca="true">IF(M41="", IF(O41="","",ROUND(X41+(INDIRECT("S" &amp; ROW() - 1) - S41),0)),IF(O41="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S41,0)))</f>
         <v/>
       </c>
       <c r="K41" s="17" t="str">
@@ -9773,7 +9905,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J42" s="9" t="str">
-        <f aca="true">IF(M42="", IF(O42="","",X42+(INDIRECT("S" &amp; ROW() - 1) - S42)),IF(O42="", "", INDIRECT("S" &amp; ROW() - 1) - S42))</f>
+        <f aca="true">IF(M42="", IF(O42="","",ROUND(X42+(INDIRECT("S" &amp; ROW() - 1) - S42),0)),IF(O42="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S42,0)))</f>
         <v/>
       </c>
       <c r="K42" s="17" t="str">
@@ -9824,7 +9956,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J43" s="9" t="str">
-        <f aca="true">IF(M43="", IF(O43="","",X43+(INDIRECT("S" &amp; ROW() - 1) - S43)),IF(O43="", "", INDIRECT("S" &amp; ROW() - 1) - S43))</f>
+        <f aca="true">IF(M43="", IF(O43="","",ROUND(X43+(INDIRECT("S" &amp; ROW() - 1) - S43),0)),IF(O43="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S43,0)))</f>
         <v/>
       </c>
       <c r="K43" s="17" t="str">
@@ -9875,7 +10007,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J44" s="9" t="str">
-        <f aca="true">IF(M44="", IF(O44="","",X44+(INDIRECT("S" &amp; ROW() - 1) - S44)),IF(O44="", "", INDIRECT("S" &amp; ROW() - 1) - S44))</f>
+        <f aca="true">IF(M44="", IF(O44="","",ROUND(X44+(INDIRECT("S" &amp; ROW() - 1) - S44),0)),IF(O44="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S44,0)))</f>
         <v/>
       </c>
       <c r="K44" s="17" t="str">
@@ -9926,7 +10058,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J45" s="9" t="str">
-        <f aca="true">IF(M45="", IF(O45="","",X45+(INDIRECT("S" &amp; ROW() - 1) - S45)),IF(O45="", "", INDIRECT("S" &amp; ROW() - 1) - S45))</f>
+        <f aca="true">IF(M45="", IF(O45="","",ROUND(X45+(INDIRECT("S" &amp; ROW() - 1) - S45),0)),IF(O45="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S45,0)))</f>
         <v/>
       </c>
       <c r="K45" s="17" t="str">
@@ -9977,7 +10109,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J46" s="9" t="str">
-        <f aca="true">IF(M46="", IF(O46="","",X46+(INDIRECT("S" &amp; ROW() - 1) - S46)),IF(O46="", "", INDIRECT("S" &amp; ROW() - 1) - S46))</f>
+        <f aca="true">IF(M46="", IF(O46="","",ROUND(X46+(INDIRECT("S" &amp; ROW() - 1) - S46),0)),IF(O46="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S46,0)))</f>
         <v/>
       </c>
       <c r="K46" s="17" t="str">
@@ -10028,7 +10160,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J47" s="9" t="str">
-        <f aca="true">IF(M47="", IF(O47="","",X47+(INDIRECT("S" &amp; ROW() - 1) - S47)),IF(O47="", "", INDIRECT("S" &amp; ROW() - 1) - S47))</f>
+        <f aca="true">IF(M47="", IF(O47="","",ROUND(X47+(INDIRECT("S" &amp; ROW() - 1) - S47),0)),IF(O47="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S47,0)))</f>
         <v/>
       </c>
       <c r="K47" s="17" t="str">
@@ -10079,7 +10211,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J48" s="9" t="str">
-        <f aca="true">IF(M48="", IF(O48="","",X48+(INDIRECT("S" &amp; ROW() - 1) - S48)),IF(O48="", "", INDIRECT("S" &amp; ROW() - 1) - S48))</f>
+        <f aca="true">IF(M48="", IF(O48="","",ROUND(X48+(INDIRECT("S" &amp; ROW() - 1) - S48),0)),IF(O48="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S48,0)))</f>
         <v/>
       </c>
       <c r="K48" s="17" t="str">
@@ -10130,7 +10262,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J49" s="9" t="str">
-        <f aca="true">IF(M49="", IF(O49="","",X49+(INDIRECT("S" &amp; ROW() - 1) - S49)),IF(O49="", "", INDIRECT("S" &amp; ROW() - 1) - S49))</f>
+        <f aca="true">IF(M49="", IF(O49="","",ROUND(X49+(INDIRECT("S" &amp; ROW() - 1) - S49),0)),IF(O49="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S49,0)))</f>
         <v/>
       </c>
       <c r="K49" s="17" t="str">
@@ -10181,7 +10313,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J50" s="9" t="str">
-        <f aca="true">IF(M50="", IF(O50="","",X50+(INDIRECT("S" &amp; ROW() - 1) - S50)),IF(O50="", "", INDIRECT("S" &amp; ROW() - 1) - S50))</f>
+        <f aca="true">IF(M50="", IF(O50="","",ROUND(X50+(INDIRECT("S" &amp; ROW() - 1) - S50),0)),IF(O50="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S50,0)))</f>
         <v/>
       </c>
       <c r="K50" s="17" t="str">
@@ -10232,7 +10364,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J51" s="9" t="str">
-        <f aca="true">IF(M51="", IF(O51="","",X51+(INDIRECT("S" &amp; ROW() - 1) - S51)),IF(O51="", "", INDIRECT("S" &amp; ROW() - 1) - S51))</f>
+        <f aca="true">IF(M51="", IF(O51="","",ROUND(X51+(INDIRECT("S" &amp; ROW() - 1) - S51),0)),IF(O51="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S51,0)))</f>
         <v/>
       </c>
       <c r="K51" s="17" t="str">
@@ -10283,7 +10415,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J52" s="9" t="str">
-        <f aca="true">IF(M52="", IF(O52="","",X52+(INDIRECT("S" &amp; ROW() - 1) - S52)),IF(O52="", "", INDIRECT("S" &amp; ROW() - 1) - S52))</f>
+        <f aca="true">IF(M52="", IF(O52="","",ROUND(X52+(INDIRECT("S" &amp; ROW() - 1) - S52),0)),IF(O52="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S52,0)))</f>
         <v/>
       </c>
       <c r="K52" s="17" t="str">
@@ -10334,7 +10466,7 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J53" s="9" t="str">
-        <f aca="true">IF(M53="", IF(O53="","",X53+(INDIRECT("S" &amp; ROW() - 1) - S53)),IF(O53="", "", INDIRECT("S" &amp; ROW() - 1) - S53))</f>
+        <f aca="true">IF(M53="", IF(O53="","",ROUND(X53+(INDIRECT("S" &amp; ROW() - 1) - S53),0)),IF(O53="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S53,0)))</f>
         <v/>
       </c>
       <c r="K53" s="17" t="str">
@@ -10385,7 +10517,7 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J54" s="9" t="str">
-        <f aca="true">IF(M54="", IF(O54="","",X54+(INDIRECT("S" &amp; ROW() - 1) - S54)),IF(O54="", "", INDIRECT("S" &amp; ROW() - 1) - S54))</f>
+        <f aca="true">IF(M54="", IF(O54="","",ROUND(X54+(INDIRECT("S" &amp; ROW() - 1) - S54),0)),IF(O54="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S54,0)))</f>
         <v/>
       </c>
       <c r="K54" s="17" t="str">
@@ -10436,7 +10568,7 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J55" s="9" t="str">
-        <f aca="true">IF(M55="", IF(O55="","",X55+(INDIRECT("S" &amp; ROW() - 1) - S55)),IF(O55="", "", INDIRECT("S" &amp; ROW() - 1) - S55))</f>
+        <f aca="true">IF(M55="", IF(O55="","",ROUND(X55+(INDIRECT("S" &amp; ROW() - 1) - S55),0)),IF(O55="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S55,0)))</f>
         <v/>
       </c>
       <c r="K55" s="17" t="str">
@@ -10487,7 +10619,7 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J56" s="9" t="str">
-        <f aca="true">IF(M56="", IF(O56="","",X56+(INDIRECT("S" &amp; ROW() - 1) - S56)),IF(O56="", "", INDIRECT("S" &amp; ROW() - 1) - S56))</f>
+        <f aca="true">IF(M56="", IF(O56="","",ROUND(X56+(INDIRECT("S" &amp; ROW() - 1) - S56),0)),IF(O56="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S56,0)))</f>
         <v/>
       </c>
       <c r="K56" s="17" t="str">
@@ -10538,7 +10670,7 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J57" s="9" t="str">
-        <f aca="true">IF(M57="", IF(O57="","",X57+(INDIRECT("S" &amp; ROW() - 1) - S57)),IF(O57="", "", INDIRECT("S" &amp; ROW() - 1) - S57))</f>
+        <f aca="true">IF(M57="", IF(O57="","",ROUND(X57+(INDIRECT("S" &amp; ROW() - 1) - S57),0)),IF(O57="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S57,0)))</f>
         <v/>
       </c>
       <c r="K57" s="17" t="str">
@@ -10589,7 +10721,7 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J58" s="9" t="str">
-        <f aca="true">IF(M58="", IF(O58="","",X58+(INDIRECT("S" &amp; ROW() - 1) - S58)),IF(O58="", "", INDIRECT("S" &amp; ROW() - 1) - S58))</f>
+        <f aca="true">IF(M58="", IF(O58="","",ROUND(X58+(INDIRECT("S" &amp; ROW() - 1) - S58),0)),IF(O58="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S58,0)))</f>
         <v/>
       </c>
       <c r="K58" s="17" t="str">
@@ -10640,7 +10772,7 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J59" s="9" t="str">
-        <f aca="true">IF(M59="", IF(O59="","",X59+(INDIRECT("S" &amp; ROW() - 1) - S59)),IF(O59="", "", INDIRECT("S" &amp; ROW() - 1) - S59))</f>
+        <f aca="true">IF(M59="", IF(O59="","",ROUND(X59+(INDIRECT("S" &amp; ROW() - 1) - S59),0)),IF(O59="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S59,0)))</f>
         <v/>
       </c>
       <c r="K59" s="17" t="str">
@@ -10691,7 +10823,7 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J60" s="9" t="str">
-        <f aca="true">IF(M60="", IF(O60="","",X60+(INDIRECT("S" &amp; ROW() - 1) - S60)),IF(O60="", "", INDIRECT("S" &amp; ROW() - 1) - S60))</f>
+        <f aca="true">IF(M60="", IF(O60="","",ROUND(X60+(INDIRECT("S" &amp; ROW() - 1) - S60),0)),IF(O60="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S60,0)))</f>
         <v/>
       </c>
       <c r="K60" s="17" t="str">
@@ -10742,7 +10874,7 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J61" s="9" t="str">
-        <f aca="true">IF(M61="", IF(O61="","",X61+(INDIRECT("S" &amp; ROW() - 1) - S61)),IF(O61="", "", INDIRECT("S" &amp; ROW() - 1) - S61))</f>
+        <f aca="true">IF(M61="", IF(O61="","",ROUND(X61+(INDIRECT("S" &amp; ROW() - 1) - S61),0)),IF(O61="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S61,0)))</f>
         <v/>
       </c>
       <c r="K61" s="17" t="str">
@@ -10793,7 +10925,7 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J62" s="9" t="str">
-        <f aca="true">IF(M62="", IF(O62="","",X62+(INDIRECT("S" &amp; ROW() - 1) - S62)),IF(O62="", "", INDIRECT("S" &amp; ROW() - 1) - S62))</f>
+        <f aca="true">IF(M62="", IF(O62="","",ROUND(X62+(INDIRECT("S" &amp; ROW() - 1) - S62),0)),IF(O62="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S62,0)))</f>
         <v/>
       </c>
       <c r="K62" s="17" t="str">
@@ -10844,7 +10976,7 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J63" s="9" t="str">
-        <f aca="true">IF(M63="", IF(O63="","",X63+(INDIRECT("S" &amp; ROW() - 1) - S63)),IF(O63="", "", INDIRECT("S" &amp; ROW() - 1) - S63))</f>
+        <f aca="true">IF(M63="", IF(O63="","",ROUND(X63+(INDIRECT("S" &amp; ROW() - 1) - S63),0)),IF(O63="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S63,0)))</f>
         <v/>
       </c>
       <c r="K63" s="17" t="str">
@@ -10895,7 +11027,7 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J64" s="9" t="str">
-        <f aca="true">IF(M64="", IF(O64="","",X64+(INDIRECT("S" &amp; ROW() - 1) - S64)),IF(O64="", "", INDIRECT("S" &amp; ROW() - 1) - S64))</f>
+        <f aca="true">IF(M64="", IF(O64="","",ROUND(X64+(INDIRECT("S" &amp; ROW() - 1) - S64),0)),IF(O64="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S64,0)))</f>
         <v/>
       </c>
       <c r="K64" s="17" t="str">
@@ -10946,7 +11078,7 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J65" s="9" t="str">
-        <f aca="true">IF(M65="", IF(O65="","",X65+(INDIRECT("S" &amp; ROW() - 1) - S65)),IF(O65="", "", INDIRECT("S" &amp; ROW() - 1) - S65))</f>
+        <f aca="true">IF(M65="", IF(O65="","",ROUND(X65+(INDIRECT("S" &amp; ROW() - 1) - S65),0)),IF(O65="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S65,0)))</f>
         <v/>
       </c>
       <c r="K65" s="17" t="str">
@@ -10997,7 +11129,7 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J66" s="9" t="str">
-        <f aca="true">IF(M66="", IF(O66="","",X66+(INDIRECT("S" &amp; ROW() - 1) - S66)),IF(O66="", "", INDIRECT("S" &amp; ROW() - 1) - S66))</f>
+        <f aca="true">IF(M66="", IF(O66="","",ROUND(X66+(INDIRECT("S" &amp; ROW() - 1) - S66),0)),IF(O66="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S66,0)))</f>
         <v/>
       </c>
       <c r="K66" s="17" t="str">
@@ -11048,7 +11180,7 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J67" s="9" t="str">
-        <f aca="true">IF(M67="", IF(O67="","",X67+(INDIRECT("S" &amp; ROW() - 1) - S67)),IF(O67="", "", INDIRECT("S" &amp; ROW() - 1) - S67))</f>
+        <f aca="true">IF(M67="", IF(O67="","",ROUND(X67+(INDIRECT("S" &amp; ROW() - 1) - S67),0)),IF(O67="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S67,0)))</f>
         <v/>
       </c>
       <c r="K67" s="17" t="str">
@@ -11099,7 +11231,7 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J68" s="9" t="str">
-        <f aca="true">IF(M68="", IF(O68="","",X68+(INDIRECT("S" &amp; ROW() - 1) - S68)),IF(O68="", "", INDIRECT("S" &amp; ROW() - 1) - S68))</f>
+        <f aca="true">IF(M68="", IF(O68="","",ROUND(X68+(INDIRECT("S" &amp; ROW() - 1) - S68),0)),IF(O68="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S68,0)))</f>
         <v/>
       </c>
       <c r="K68" s="17" t="str">
@@ -11150,7 +11282,7 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J69" s="9" t="str">
-        <f aca="true">IF(M69="", IF(O69="","",X69+(INDIRECT("S" &amp; ROW() - 1) - S69)),IF(O69="", "", INDIRECT("S" &amp; ROW() - 1) - S69))</f>
+        <f aca="true">IF(M69="", IF(O69="","",ROUND(X69+(INDIRECT("S" &amp; ROW() - 1) - S69),0)),IF(O69="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S69,0)))</f>
         <v/>
       </c>
       <c r="K69" s="17" t="str">
@@ -11201,7 +11333,7 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J70" s="9" t="str">
-        <f aca="true">IF(M70="", IF(O70="","",X70+(INDIRECT("S" &amp; ROW() - 1) - S70)),IF(O70="", "", INDIRECT("S" &amp; ROW() - 1) - S70))</f>
+        <f aca="true">IF(M70="", IF(O70="","",ROUND(X70+(INDIRECT("S" &amp; ROW() - 1) - S70),0)),IF(O70="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S70,0)))</f>
         <v/>
       </c>
       <c r="K70" s="17" t="str">
@@ -11252,7 +11384,7 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J71" s="9" t="str">
-        <f aca="true">IF(M71="", IF(O71="","",X71+(INDIRECT("S" &amp; ROW() - 1) - S71)),IF(O71="", "", INDIRECT("S" &amp; ROW() - 1) - S71))</f>
+        <f aca="true">IF(M71="", IF(O71="","",ROUND(X71+(INDIRECT("S" &amp; ROW() - 1) - S71),0)),IF(O71="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S71,0)))</f>
         <v/>
       </c>
       <c r="K71" s="17" t="str">
@@ -11303,7 +11435,7 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J72" s="9" t="str">
-        <f aca="true">IF(M72="", IF(O72="","",X72+(INDIRECT("S" &amp; ROW() - 1) - S72)),IF(O72="", "", INDIRECT("S" &amp; ROW() - 1) - S72))</f>
+        <f aca="true">IF(M72="", IF(O72="","",ROUND(X72+(INDIRECT("S" &amp; ROW() - 1) - S72),0)),IF(O72="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S72,0)))</f>
         <v/>
       </c>
       <c r="K72" s="17" t="str">
@@ -11354,7 +11486,7 @@
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J73" s="9" t="str">
-        <f aca="true">IF(M73="", IF(O73="","",X73+(INDIRECT("S" &amp; ROW() - 1) - S73)),IF(O73="", "", INDIRECT("S" &amp; ROW() - 1) - S73))</f>
+        <f aca="true">IF(M73="", IF(O73="","",ROUND(X73+(INDIRECT("S" &amp; ROW() - 1) - S73),0)),IF(O73="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S73,0)))</f>
         <v/>
       </c>
       <c r="K73" s="17" t="str">
@@ -11405,7 +11537,7 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J74" s="9" t="str">
-        <f aca="true">IF(M74="", IF(O74="","",X74+(INDIRECT("S" &amp; ROW() - 1) - S74)),IF(O74="", "", INDIRECT("S" &amp; ROW() - 1) - S74))</f>
+        <f aca="true">IF(M74="", IF(O74="","",ROUND(X74+(INDIRECT("S" &amp; ROW() - 1) - S74),0)),IF(O74="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S74,0)))</f>
         <v/>
       </c>
       <c r="K74" s="17" t="str">
@@ -11456,7 +11588,7 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J75" s="9" t="str">
-        <f aca="true">IF(M75="", IF(O75="","",X75+(INDIRECT("S" &amp; ROW() - 1) - S75)),IF(O75="", "", INDIRECT("S" &amp; ROW() - 1) - S75))</f>
+        <f aca="true">IF(M75="", IF(O75="","",ROUND(X75+(INDIRECT("S" &amp; ROW() - 1) - S75),0)),IF(O75="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S75,0)))</f>
         <v/>
       </c>
       <c r="K75" s="17" t="str">
@@ -11507,7 +11639,7 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J76" s="9" t="str">
-        <f aca="true">IF(M76="", IF(O76="","",X76+(INDIRECT("S" &amp; ROW() - 1) - S76)),IF(O76="", "", INDIRECT("S" &amp; ROW() - 1) - S76))</f>
+        <f aca="true">IF(M76="", IF(O76="","",ROUND(X76+(INDIRECT("S" &amp; ROW() - 1) - S76),0)),IF(O76="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S76,0)))</f>
         <v/>
       </c>
       <c r="K76" s="17" t="str">
@@ -11558,7 +11690,7 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J77" s="9" t="str">
-        <f aca="true">IF(M77="", IF(O77="","",X77+(INDIRECT("S" &amp; ROW() - 1) - S77)),IF(O77="", "", INDIRECT("S" &amp; ROW() - 1) - S77))</f>
+        <f aca="true">IF(M77="", IF(O77="","",ROUND(X77+(INDIRECT("S" &amp; ROW() - 1) - S77),0)),IF(O77="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S77,0)))</f>
         <v/>
       </c>
       <c r="K77" s="17" t="str">
@@ -11609,7 +11741,7 @@
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J78" s="9" t="str">
-        <f aca="true">IF(M78="", IF(O78="","",X78+(INDIRECT("S" &amp; ROW() - 1) - S78)),IF(O78="", "", INDIRECT("S" &amp; ROW() - 1) - S78))</f>
+        <f aca="true">IF(M78="", IF(O78="","",ROUND(X78+(INDIRECT("S" &amp; ROW() - 1) - S78),0)),IF(O78="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S78,0)))</f>
         <v/>
       </c>
       <c r="K78" s="17" t="str">
@@ -11660,7 +11792,7 @@
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J79" s="9" t="str">
-        <f aca="true">IF(M79="", IF(O79="","",X79+(INDIRECT("S" &amp; ROW() - 1) - S79)),IF(O79="", "", INDIRECT("S" &amp; ROW() - 1) - S79))</f>
+        <f aca="true">IF(M79="", IF(O79="","",ROUND(X79+(INDIRECT("S" &amp; ROW() - 1) - S79),0)),IF(O79="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S79,0)))</f>
         <v/>
       </c>
       <c r="K79" s="17" t="str">
@@ -11711,7 +11843,7 @@
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J80" s="9" t="str">
-        <f aca="true">IF(M80="", IF(O80="","",X80+(INDIRECT("S" &amp; ROW() - 1) - S80)),IF(O80="", "", INDIRECT("S" &amp; ROW() - 1) - S80))</f>
+        <f aca="true">IF(M80="", IF(O80="","",ROUND(X80+(INDIRECT("S" &amp; ROW() - 1) - S80),0)),IF(O80="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S80,0)))</f>
         <v/>
       </c>
       <c r="K80" s="17" t="str">
@@ -11762,7 +11894,7 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J81" s="9" t="str">
-        <f aca="true">IF(M81="", IF(O81="","",X81+(INDIRECT("S" &amp; ROW() - 1) - S81)),IF(O81="", "", INDIRECT("S" &amp; ROW() - 1) - S81))</f>
+        <f aca="true">IF(M81="", IF(O81="","",ROUND(X81+(INDIRECT("S" &amp; ROW() - 1) - S81),0)),IF(O81="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S81,0)))</f>
         <v/>
       </c>
       <c r="K81" s="17" t="str">
@@ -11813,7 +11945,7 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J82" s="9" t="str">
-        <f aca="true">IF(M82="", IF(O82="","",X82+(INDIRECT("S" &amp; ROW() - 1) - S82)),IF(O82="", "", INDIRECT("S" &amp; ROW() - 1) - S82))</f>
+        <f aca="true">IF(M82="", IF(O82="","",ROUND(X82+(INDIRECT("S" &amp; ROW() - 1) - S82),0)),IF(O82="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S82,0)))</f>
         <v/>
       </c>
       <c r="K82" s="17" t="str">
@@ -11864,7 +11996,7 @@
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J83" s="9" t="str">
-        <f aca="true">IF(M83="", IF(O83="","",X83+(INDIRECT("S" &amp; ROW() - 1) - S83)),IF(O83="", "", INDIRECT("S" &amp; ROW() - 1) - S83))</f>
+        <f aca="true">IF(M83="", IF(O83="","",ROUND(X83+(INDIRECT("S" &amp; ROW() - 1) - S83),0)),IF(O83="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S83,0)))</f>
         <v/>
       </c>
       <c r="K83" s="17" t="str">
@@ -11915,7 +12047,7 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J84" s="9" t="str">
-        <f aca="true">IF(M84="", IF(O84="","",X84+(INDIRECT("S" &amp; ROW() - 1) - S84)),IF(O84="", "", INDIRECT("S" &amp; ROW() - 1) - S84))</f>
+        <f aca="true">IF(M84="", IF(O84="","",ROUND(X84+(INDIRECT("S" &amp; ROW() - 1) - S84),0)),IF(O84="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S84,0)))</f>
         <v/>
       </c>
       <c r="K84" s="17" t="str">
@@ -11966,7 +12098,7 @@
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J85" s="9" t="str">
-        <f aca="true">IF(M85="", IF(O85="","",X85+(INDIRECT("S" &amp; ROW() - 1) - S85)),IF(O85="", "", INDIRECT("S" &amp; ROW() - 1) - S85))</f>
+        <f aca="true">IF(M85="", IF(O85="","",ROUND(X85+(INDIRECT("S" &amp; ROW() - 1) - S85),0)),IF(O85="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S85,0)))</f>
         <v/>
       </c>
       <c r="K85" s="17" t="str">
@@ -12017,7 +12149,7 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J86" s="9" t="str">
-        <f aca="true">IF(M86="", IF(O86="","",X86+(INDIRECT("S" &amp; ROW() - 1) - S86)),IF(O86="", "", INDIRECT("S" &amp; ROW() - 1) - S86))</f>
+        <f aca="true">IF(M86="", IF(O86="","",ROUND(X86+(INDIRECT("S" &amp; ROW() - 1) - S86),0)),IF(O86="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S86,0)))</f>
         <v/>
       </c>
       <c r="K86" s="17" t="str">
@@ -12068,7 +12200,7 @@
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J87" s="9" t="str">
-        <f aca="true">IF(M87="", IF(O87="","",X87+(INDIRECT("S" &amp; ROW() - 1) - S87)),IF(O87="", "", INDIRECT("S" &amp; ROW() - 1) - S87))</f>
+        <f aca="true">IF(M87="", IF(O87="","",ROUND(X87+(INDIRECT("S" &amp; ROW() - 1) - S87),0)),IF(O87="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S87,0)))</f>
         <v/>
       </c>
       <c r="K87" s="17" t="str">
@@ -12119,7 +12251,7 @@
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J88" s="9" t="str">
-        <f aca="true">IF(M88="", IF(O88="","",X88+(INDIRECT("S" &amp; ROW() - 1) - S88)),IF(O88="", "", INDIRECT("S" &amp; ROW() - 1) - S88))</f>
+        <f aca="true">IF(M88="", IF(O88="","",ROUND(X88+(INDIRECT("S" &amp; ROW() - 1) - S88),0)),IF(O88="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S88,0)))</f>
         <v/>
       </c>
       <c r="K88" s="17" t="str">
@@ -12170,7 +12302,7 @@
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J89" s="9" t="str">
-        <f aca="true">IF(M89="", IF(O89="","",X89+(INDIRECT("S" &amp; ROW() - 1) - S89)),IF(O89="", "", INDIRECT("S" &amp; ROW() - 1) - S89))</f>
+        <f aca="true">IF(M89="", IF(O89="","",ROUND(X89+(INDIRECT("S" &amp; ROW() - 1) - S89),0)),IF(O89="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S89,0)))</f>
         <v/>
       </c>
       <c r="K89" s="17" t="str">
@@ -12221,7 +12353,7 @@
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J90" s="9" t="str">
-        <f aca="true">IF(M90="", IF(O90="","",X90+(INDIRECT("S" &amp; ROW() - 1) - S90)),IF(O90="", "", INDIRECT("S" &amp; ROW() - 1) - S90))</f>
+        <f aca="true">IF(M90="", IF(O90="","",ROUND(X90+(INDIRECT("S" &amp; ROW() - 1) - S90),0)),IF(O90="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S90,0)))</f>
         <v/>
       </c>
       <c r="K90" s="17" t="str">
@@ -12272,7 +12404,7 @@
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J91" s="9" t="str">
-        <f aca="true">IF(M91="", IF(O91="","",X91+(INDIRECT("S" &amp; ROW() - 1) - S91)),IF(O91="", "", INDIRECT("S" &amp; ROW() - 1) - S91))</f>
+        <f aca="true">IF(M91="", IF(O91="","",ROUND(X91+(INDIRECT("S" &amp; ROW() - 1) - S91),0)),IF(O91="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S91,0)))</f>
         <v/>
       </c>
       <c r="K91" s="17" t="str">
@@ -12323,7 +12455,7 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J92" s="9" t="str">
-        <f aca="true">IF(M92="", IF(O92="","",X92+(INDIRECT("S" &amp; ROW() - 1) - S92)),IF(O92="", "", INDIRECT("S" &amp; ROW() - 1) - S92))</f>
+        <f aca="true">IF(M92="", IF(O92="","",ROUND(X92+(INDIRECT("S" &amp; ROW() - 1) - S92),0)),IF(O92="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S92,0)))</f>
         <v/>
       </c>
       <c r="K92" s="17" t="str">
@@ -12374,7 +12506,7 @@
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J93" s="9" t="str">
-        <f aca="true">IF(M93="", IF(O93="","",X93+(INDIRECT("S" &amp; ROW() - 1) - S93)),IF(O93="", "", INDIRECT("S" &amp; ROW() - 1) - S93))</f>
+        <f aca="true">IF(M93="", IF(O93="","",ROUND(X93+(INDIRECT("S" &amp; ROW() - 1) - S93),0)),IF(O93="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S93,0)))</f>
         <v/>
       </c>
       <c r="K93" s="17" t="str">
@@ -12425,7 +12557,7 @@
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J94" s="9" t="str">
-        <f aca="true">IF(M94="", IF(O94="","",X94+(INDIRECT("S" &amp; ROW() - 1) - S94)),IF(O94="", "", INDIRECT("S" &amp; ROW() - 1) - S94))</f>
+        <f aca="true">IF(M94="", IF(O94="","",ROUND(X94+(INDIRECT("S" &amp; ROW() - 1) - S94),0)),IF(O94="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S94,0)))</f>
         <v/>
       </c>
       <c r="K94" s="17" t="str">
@@ -12476,7 +12608,7 @@
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J95" s="9" t="str">
-        <f aca="true">IF(M95="", IF(O95="","",X95+(INDIRECT("S" &amp; ROW() - 1) - S95)),IF(O95="", "", INDIRECT("S" &amp; ROW() - 1) - S95))</f>
+        <f aca="true">IF(M95="", IF(O95="","",ROUND(X95+(INDIRECT("S" &amp; ROW() - 1) - S95),0)),IF(O95="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S95,0)))</f>
         <v/>
       </c>
       <c r="K95" s="17" t="str">
@@ -12527,7 +12659,7 @@
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J96" s="9" t="str">
-        <f aca="true">IF(M96="", IF(O96="","",X96+(INDIRECT("S" &amp; ROW() - 1) - S96)),IF(O96="", "", INDIRECT("S" &amp; ROW() - 1) - S96))</f>
+        <f aca="true">IF(M96="", IF(O96="","",ROUND(X96+(INDIRECT("S" &amp; ROW() - 1) - S96),0)),IF(O96="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S96,0)))</f>
         <v/>
       </c>
       <c r="K96" s="17" t="str">
@@ -12578,7 +12710,7 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J97" s="9" t="str">
-        <f aca="true">IF(M97="", IF(O97="","",X97+(INDIRECT("S" &amp; ROW() - 1) - S97)),IF(O97="", "", INDIRECT("S" &amp; ROW() - 1) - S97))</f>
+        <f aca="true">IF(M97="", IF(O97="","",ROUND(X97+(INDIRECT("S" &amp; ROW() - 1) - S97),0)),IF(O97="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S97,0)))</f>
         <v/>
       </c>
       <c r="K97" s="17" t="str">
@@ -12629,7 +12761,7 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J98" s="9" t="str">
-        <f aca="true">IF(M98="", IF(O98="","",X98+(INDIRECT("S" &amp; ROW() - 1) - S98)),IF(O98="", "", INDIRECT("S" &amp; ROW() - 1) - S98))</f>
+        <f aca="true">IF(M98="", IF(O98="","",ROUND(X98+(INDIRECT("S" &amp; ROW() - 1) - S98),0)),IF(O98="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S98,0)))</f>
         <v/>
       </c>
       <c r="K98" s="17" t="str">
@@ -12680,7 +12812,7 @@
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J99" s="9" t="str">
-        <f aca="true">IF(M99="", IF(O99="","",X99+(INDIRECT("S" &amp; ROW() - 1) - S99)),IF(O99="", "", INDIRECT("S" &amp; ROW() - 1) - S99))</f>
+        <f aca="true">IF(M99="", IF(O99="","",ROUND(X99+(INDIRECT("S" &amp; ROW() - 1) - S99),0)),IF(O99="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S99,0)))</f>
         <v/>
       </c>
       <c r="K99" s="17" t="str">
@@ -12731,7 +12863,7 @@
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J100" s="9" t="str">
-        <f aca="true">IF(M100="", IF(O100="","",X100+(INDIRECT("S" &amp; ROW() - 1) - S100)),IF(O100="", "", INDIRECT("S" &amp; ROW() - 1) - S100))</f>
+        <f aca="true">IF(M100="", IF(O100="","",ROUND(X100+(INDIRECT("S" &amp; ROW() - 1) - S100),0)),IF(O100="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S100,0)))</f>
         <v/>
       </c>
       <c r="K100" s="17" t="str">
@@ -12782,7 +12914,7 @@
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J101" s="9" t="str">
-        <f aca="true">IF(M101="", IF(O101="","",X101+(INDIRECT("S" &amp; ROW() - 1) - S101)),IF(O101="", "", INDIRECT("S" &amp; ROW() - 1) - S101))</f>
+        <f aca="true">IF(M101="", IF(O101="","",ROUND(X101+(INDIRECT("S" &amp; ROW() - 1) - S101),0)),IF(O101="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S101,0)))</f>
         <v/>
       </c>
       <c r="K101" s="17" t="str">
@@ -12833,7 +12965,7 @@
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J102" s="9" t="str">
-        <f aca="true">IF(M102="", IF(O102="","",X102+(INDIRECT("S" &amp; ROW() - 1) - S102)),IF(O102="", "", INDIRECT("S" &amp; ROW() - 1) - S102))</f>
+        <f aca="true">IF(M102="", IF(O102="","",ROUND(X102+(INDIRECT("S" &amp; ROW() - 1) - S102),0)),IF(O102="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S102,0)))</f>
         <v/>
       </c>
       <c r="K102" s="17" t="str">
@@ -12884,7 +13016,7 @@
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J103" s="9" t="str">
-        <f aca="true">IF(M103="", IF(O103="","",X103+(INDIRECT("S" &amp; ROW() - 1) - S103)),IF(O103="", "", INDIRECT("S" &amp; ROW() - 1) - S103))</f>
+        <f aca="true">IF(M103="", IF(O103="","",ROUND(X103+(INDIRECT("S" &amp; ROW() - 1) - S103),0)),IF(O103="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S103,0)))</f>
         <v/>
       </c>
       <c r="K103" s="17" t="str">
@@ -12935,7 +13067,7 @@
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J104" s="9" t="str">
-        <f aca="true">IF(M104="", IF(O104="","",X104+(INDIRECT("S" &amp; ROW() - 1) - S104)),IF(O104="", "", INDIRECT("S" &amp; ROW() - 1) - S104))</f>
+        <f aca="true">IF(M104="", IF(O104="","",ROUND(X104+(INDIRECT("S" &amp; ROW() - 1) - S104),0)),IF(O104="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S104,0)))</f>
         <v/>
       </c>
       <c r="K104" s="17" t="str">
@@ -12986,7 +13118,7 @@
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J105" s="9" t="str">
-        <f aca="true">IF(M105="", IF(O105="","",X105+(INDIRECT("S" &amp; ROW() - 1) - S105)),IF(O105="", "", INDIRECT("S" &amp; ROW() - 1) - S105))</f>
+        <f aca="true">IF(M105="", IF(O105="","",ROUND(X105+(INDIRECT("S" &amp; ROW() - 1) - S105),0)),IF(O105="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S105,0)))</f>
         <v/>
       </c>
       <c r="K105" s="17" t="str">
@@ -13037,7 +13169,7 @@
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J106" s="9" t="str">
-        <f aca="true">IF(M106="", IF(O106="","",X106+(INDIRECT("S" &amp; ROW() - 1) - S106)),IF(O106="", "", INDIRECT("S" &amp; ROW() - 1) - S106))</f>
+        <f aca="true">IF(M106="", IF(O106="","",ROUND(X106+(INDIRECT("S" &amp; ROW() - 1) - S106),0)),IF(O106="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S106,0)))</f>
         <v/>
       </c>
       <c r="K106" s="17" t="str">
@@ -13088,7 +13220,7 @@
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J107" s="9" t="str">
-        <f aca="true">IF(M107="", IF(O107="","",X107+(INDIRECT("S" &amp; ROW() - 1) - S107)),IF(O107="", "", INDIRECT("S" &amp; ROW() - 1) - S107))</f>
+        <f aca="true">IF(M107="", IF(O107="","",ROUND(X107+(INDIRECT("S" &amp; ROW() - 1) - S107),0)),IF(O107="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S107,0)))</f>
         <v/>
       </c>
       <c r="K107" s="17" t="str">
@@ -13139,7 +13271,7 @@
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J108" s="9" t="str">
-        <f aca="true">IF(M108="", IF(O108="","",X108+(INDIRECT("S" &amp; ROW() - 1) - S108)),IF(O108="", "", INDIRECT("S" &amp; ROW() - 1) - S108))</f>
+        <f aca="true">IF(M108="", IF(O108="","",ROUND(X108+(INDIRECT("S" &amp; ROW() - 1) - S108),0)),IF(O108="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S108,0)))</f>
         <v/>
       </c>
       <c r="K108" s="17" t="str">
@@ -13190,7 +13322,7 @@
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J109" s="9" t="str">
-        <f aca="true">IF(M109="", IF(O109="","",X109+(INDIRECT("S" &amp; ROW() - 1) - S109)),IF(O109="", "", INDIRECT("S" &amp; ROW() - 1) - S109))</f>
+        <f aca="true">IF(M109="", IF(O109="","",ROUND(X109+(INDIRECT("S" &amp; ROW() - 1) - S109),0)),IF(O109="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S109,0)))</f>
         <v/>
       </c>
       <c r="K109" s="17" t="str">
@@ -13241,7 +13373,7 @@
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J110" s="9" t="str">
-        <f aca="true">IF(M110="", IF(O110="","",X110+(INDIRECT("S" &amp; ROW() - 1) - S110)),IF(O110="", "", INDIRECT("S" &amp; ROW() - 1) - S110))</f>
+        <f aca="true">IF(M110="", IF(O110="","",ROUND(X110+(INDIRECT("S" &amp; ROW() - 1) - S110),0)),IF(O110="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S110,0)))</f>
         <v/>
       </c>
       <c r="K110" s="17" t="str">
@@ -13292,7 +13424,7 @@
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J111" s="9" t="str">
-        <f aca="true">IF(M111="", IF(O111="","",X111+(INDIRECT("S" &amp; ROW() - 1) - S111)),IF(O111="", "", INDIRECT("S" &amp; ROW() - 1) - S111))</f>
+        <f aca="true">IF(M111="", IF(O111="","",ROUND(X111+(INDIRECT("S" &amp; ROW() - 1) - S111),0)),IF(O111="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S111,0)))</f>
         <v/>
       </c>
       <c r="K111" s="17" t="str">
@@ -13343,7 +13475,7 @@
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J112" s="9" t="str">
-        <f aca="true">IF(M112="", IF(O112="","",X112+(INDIRECT("S" &amp; ROW() - 1) - S112)),IF(O112="", "", INDIRECT("S" &amp; ROW() - 1) - S112))</f>
+        <f aca="true">IF(M112="", IF(O112="","",ROUND(X112+(INDIRECT("S" &amp; ROW() - 1) - S112),0)),IF(O112="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S112,0)))</f>
         <v/>
       </c>
       <c r="K112" s="17" t="str">
@@ -13394,7 +13526,7 @@
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J113" s="9" t="str">
-        <f aca="true">IF(M113="", IF(O113="","",X113+(INDIRECT("S" &amp; ROW() - 1) - S113)),IF(O113="", "", INDIRECT("S" &amp; ROW() - 1) - S113))</f>
+        <f aca="true">IF(M113="", IF(O113="","",ROUND(X113+(INDIRECT("S" &amp; ROW() - 1) - S113),0)),IF(O113="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S113,0)))</f>
         <v/>
       </c>
       <c r="K113" s="17" t="str">
@@ -13445,7 +13577,7 @@
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J114" s="9" t="str">
-        <f aca="true">IF(M114="", IF(O114="","",X114+(INDIRECT("S" &amp; ROW() - 1) - S114)),IF(O114="", "", INDIRECT("S" &amp; ROW() - 1) - S114))</f>
+        <f aca="true">IF(M114="", IF(O114="","",ROUND(X114+(INDIRECT("S" &amp; ROW() - 1) - S114),0)),IF(O114="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S114,0)))</f>
         <v/>
       </c>
       <c r="K114" s="17" t="str">
@@ -13496,7 +13628,7 @@
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J115" s="9" t="str">
-        <f aca="true">IF(M115="", IF(O115="","",X115+(INDIRECT("S" &amp; ROW() - 1) - S115)),IF(O115="", "", INDIRECT("S" &amp; ROW() - 1) - S115))</f>
+        <f aca="true">IF(M115="", IF(O115="","",ROUND(X115+(INDIRECT("S" &amp; ROW() - 1) - S115),0)),IF(O115="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S115,0)))</f>
         <v/>
       </c>
       <c r="K115" s="17" t="str">
@@ -13547,7 +13679,7 @@
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J116" s="9" t="str">
-        <f aca="true">IF(M116="", IF(O116="","",X116+(INDIRECT("S" &amp; ROW() - 1) - S116)),IF(O116="", "", INDIRECT("S" &amp; ROW() - 1) - S116))</f>
+        <f aca="true">IF(M116="", IF(O116="","",ROUND(X116+(INDIRECT("S" &amp; ROW() - 1) - S116),0)),IF(O116="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S116,0)))</f>
         <v/>
       </c>
       <c r="K116" s="17" t="str">
@@ -13598,7 +13730,7 @@
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J117" s="9" t="str">
-        <f aca="true">IF(M117="", IF(O117="","",X117+(INDIRECT("S" &amp; ROW() - 1) - S117)),IF(O117="", "", INDIRECT("S" &amp; ROW() - 1) - S117))</f>
+        <f aca="true">IF(M117="", IF(O117="","",ROUND(X117+(INDIRECT("S" &amp; ROW() - 1) - S117),0)),IF(O117="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S117,0)))</f>
         <v/>
       </c>
       <c r="K117" s="17" t="str">
@@ -13649,7 +13781,7 @@
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J118" s="9" t="str">
-        <f aca="true">IF(M118="", IF(O118="","",X118+(INDIRECT("S" &amp; ROW() - 1) - S118)),IF(O118="", "", INDIRECT("S" &amp; ROW() - 1) - S118))</f>
+        <f aca="true">IF(M118="", IF(O118="","",ROUND(X118+(INDIRECT("S" &amp; ROW() - 1) - S118),0)),IF(O118="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S118,0)))</f>
         <v/>
       </c>
       <c r="K118" s="17" t="str">
@@ -13700,7 +13832,7 @@
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J119" s="9" t="str">
-        <f aca="true">IF(M119="", IF(O119="","",X119+(INDIRECT("S" &amp; ROW() - 1) - S119)),IF(O119="", "", INDIRECT("S" &amp; ROW() - 1) - S119))</f>
+        <f aca="true">IF(M119="", IF(O119="","",ROUND(X119+(INDIRECT("S" &amp; ROW() - 1) - S119),0)),IF(O119="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S119,0)))</f>
         <v/>
       </c>
       <c r="K119" s="17" t="str">
@@ -13751,7 +13883,7 @@
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J120" s="9" t="str">
-        <f aca="true">IF(M120="", IF(O120="","",X120+(INDIRECT("S" &amp; ROW() - 1) - S120)),IF(O120="", "", INDIRECT("S" &amp; ROW() - 1) - S120))</f>
+        <f aca="true">IF(M120="", IF(O120="","",ROUND(X120+(INDIRECT("S" &amp; ROW() - 1) - S120),0)),IF(O120="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S120,0)))</f>
         <v/>
       </c>
       <c r="K120" s="17" t="str">
@@ -13802,7 +13934,7 @@
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J121" s="9" t="str">
-        <f aca="true">IF(M121="", IF(O121="","",X121+(INDIRECT("S" &amp; ROW() - 1) - S121)),IF(O121="", "", INDIRECT("S" &amp; ROW() - 1) - S121))</f>
+        <f aca="true">IF(M121="", IF(O121="","",ROUND(X121+(INDIRECT("S" &amp; ROW() - 1) - S121),0)),IF(O121="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S121,0)))</f>
         <v/>
       </c>
       <c r="K121" s="17" t="str">
@@ -13853,7 +13985,7 @@
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J122" s="9" t="str">
-        <f aca="true">IF(M122="", IF(O122="","",X122+(INDIRECT("S" &amp; ROW() - 1) - S122)),IF(O122="", "", INDIRECT("S" &amp; ROW() - 1) - S122))</f>
+        <f aca="true">IF(M122="", IF(O122="","",ROUND(X122+(INDIRECT("S" &amp; ROW() - 1) - S122),0)),IF(O122="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S122,0)))</f>
         <v/>
       </c>
       <c r="K122" s="17" t="str">
@@ -13902,679 +14034,1131 @@
         <v/>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J123" s="9" t="str">
+        <f aca="true">IF(M123="", IF(O123="","",ROUND(X123+(INDIRECT("S" &amp; ROW() - 1) - S123),0)),IF(O123="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S123,0)))</f>
+        <v/>
+      </c>
       <c r="K123" s="17" t="str">
         <f aca="false">IF(H123="", "", IF(H123="-","",VLOOKUP(H123, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J124" s="9" t="str">
+        <f aca="true">IF(M124="", IF(O124="","",ROUND(X124+(INDIRECT("S" &amp; ROW() - 1) - S124),0)),IF(O124="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S124,0)))</f>
+        <v/>
+      </c>
       <c r="K124" s="17" t="str">
         <f aca="false">IF(H124="", "", IF(H124="-","",VLOOKUP(H124, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J125" s="9" t="str">
+        <f aca="true">IF(M125="", IF(O125="","",ROUND(X125+(INDIRECT("S" &amp; ROW() - 1) - S125),0)),IF(O125="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S125,0)))</f>
+        <v/>
+      </c>
       <c r="K125" s="17" t="str">
         <f aca="false">IF(H125="", "", IF(H125="-","",VLOOKUP(H125, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J126" s="9" t="str">
+        <f aca="true">IF(M126="", IF(O126="","",ROUND(X126+(INDIRECT("S" &amp; ROW() - 1) - S126),0)),IF(O126="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S126,0)))</f>
+        <v/>
+      </c>
       <c r="K126" s="17" t="str">
         <f aca="false">IF(H126="", "", IF(H126="-","",VLOOKUP(H126, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J127" s="9" t="str">
+        <f aca="true">IF(M127="", IF(O127="","",ROUND(X127+(INDIRECT("S" &amp; ROW() - 1) - S127),0)),IF(O127="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S127,0)))</f>
+        <v/>
+      </c>
       <c r="K127" s="17" t="str">
         <f aca="false">IF(H127="", "", IF(H127="-","",VLOOKUP(H127, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J128" s="9" t="str">
+        <f aca="true">IF(M128="", IF(O128="","",ROUND(X128+(INDIRECT("S" &amp; ROW() - 1) - S128),0)),IF(O128="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S128,0)))</f>
+        <v/>
+      </c>
       <c r="K128" s="17" t="str">
         <f aca="false">IF(H128="", "", IF(H128="-","",VLOOKUP(H128, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J129" s="9" t="str">
+        <f aca="true">IF(M129="", IF(O129="","",ROUND(X129+(INDIRECT("S" &amp; ROW() - 1) - S129),0)),IF(O129="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S129,0)))</f>
+        <v/>
+      </c>
       <c r="K129" s="17" t="str">
         <f aca="false">IF(H129="", "", IF(H129="-","",VLOOKUP(H129, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J130" s="9" t="str">
+        <f aca="true">IF(M130="", IF(O130="","",ROUND(X130+(INDIRECT("S" &amp; ROW() - 1) - S130),0)),IF(O130="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S130,0)))</f>
+        <v/>
+      </c>
       <c r="K130" s="17" t="str">
         <f aca="false">IF(H130="", "", IF(H130="-","",VLOOKUP(H130, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J131" s="9" t="str">
+        <f aca="true">IF(M131="", IF(O131="","",ROUND(X131+(INDIRECT("S" &amp; ROW() - 1) - S131),0)),IF(O131="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S131,0)))</f>
+        <v/>
+      </c>
       <c r="K131" s="17" t="str">
         <f aca="false">IF(H131="", "", IF(H131="-","",VLOOKUP(H131, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J132" s="9" t="str">
+        <f aca="true">IF(M132="", IF(O132="","",ROUND(X132+(INDIRECT("S" &amp; ROW() - 1) - S132),0)),IF(O132="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S132,0)))</f>
+        <v/>
+      </c>
       <c r="K132" s="17" t="str">
         <f aca="false">IF(H132="", "", IF(H132="-","",VLOOKUP(H132, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J133" s="9" t="str">
+        <f aca="true">IF(M133="", IF(O133="","",ROUND(X133+(INDIRECT("S" &amp; ROW() - 1) - S133),0)),IF(O133="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S133,0)))</f>
+        <v/>
+      </c>
       <c r="K133" s="17" t="str">
         <f aca="false">IF(H133="", "", IF(H133="-","",VLOOKUP(H133, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J134" s="9" t="str">
+        <f aca="true">IF(M134="", IF(O134="","",ROUND(X134+(INDIRECT("S" &amp; ROW() - 1) - S134),0)),IF(O134="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S134,0)))</f>
+        <v/>
+      </c>
       <c r="K134" s="17" t="str">
         <f aca="false">IF(H134="", "", IF(H134="-","",VLOOKUP(H134, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J135" s="9" t="str">
+        <f aca="true">IF(M135="", IF(O135="","",ROUND(X135+(INDIRECT("S" &amp; ROW() - 1) - S135),0)),IF(O135="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S135,0)))</f>
+        <v/>
+      </c>
       <c r="K135" s="17" t="str">
         <f aca="false">IF(H135="", "", IF(H135="-","",VLOOKUP(H135, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J136" s="9" t="str">
+        <f aca="true">IF(M136="", IF(O136="","",ROUND(X136+(INDIRECT("S" &amp; ROW() - 1) - S136),0)),IF(O136="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S136,0)))</f>
+        <v/>
+      </c>
       <c r="K136" s="17" t="str">
         <f aca="false">IF(H136="", "", IF(H136="-","",VLOOKUP(H136, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J137" s="9" t="str">
+        <f aca="true">IF(M137="", IF(O137="","",ROUND(X137+(INDIRECT("S" &amp; ROW() - 1) - S137),0)),IF(O137="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S137,0)))</f>
+        <v/>
+      </c>
       <c r="K137" s="17" t="str">
         <f aca="false">IF(H137="", "", IF(H137="-","",VLOOKUP(H137, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J138" s="9" t="str">
+        <f aca="true">IF(M138="", IF(O138="","",ROUND(X138+(INDIRECT("S" &amp; ROW() - 1) - S138),0)),IF(O138="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S138,0)))</f>
+        <v/>
+      </c>
       <c r="K138" s="17" t="str">
         <f aca="false">IF(H138="", "", IF(H138="-","",VLOOKUP(H138, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J139" s="9" t="str">
+        <f aca="true">IF(M139="", IF(O139="","",ROUND(X139+(INDIRECT("S" &amp; ROW() - 1) - S139),0)),IF(O139="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S139,0)))</f>
+        <v/>
+      </c>
       <c r="K139" s="17" t="str">
         <f aca="false">IF(H139="", "", IF(H139="-","",VLOOKUP(H139, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J140" s="9" t="str">
+        <f aca="true">IF(M140="", IF(O140="","",ROUND(X140+(INDIRECT("S" &amp; ROW() - 1) - S140),0)),IF(O140="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S140,0)))</f>
+        <v/>
+      </c>
       <c r="K140" s="17" t="str">
         <f aca="false">IF(H140="", "", IF(H140="-","",VLOOKUP(H140, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J141" s="9" t="str">
+        <f aca="true">IF(M141="", IF(O141="","",ROUND(X141+(INDIRECT("S" &amp; ROW() - 1) - S141),0)),IF(O141="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S141,0)))</f>
+        <v/>
+      </c>
       <c r="K141" s="17" t="str">
         <f aca="false">IF(H141="", "", IF(H141="-","",VLOOKUP(H141, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J142" s="9" t="str">
+        <f aca="true">IF(M142="", IF(O142="","",ROUND(X142+(INDIRECT("S" &amp; ROW() - 1) - S142),0)),IF(O142="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S142,0)))</f>
+        <v/>
+      </c>
       <c r="K142" s="17" t="str">
         <f aca="false">IF(H142="", "", IF(H142="-","",VLOOKUP(H142, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J143" s="9" t="str">
+        <f aca="true">IF(M143="", IF(O143="","",ROUND(X143+(INDIRECT("S" &amp; ROW() - 1) - S143),0)),IF(O143="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S143,0)))</f>
+        <v/>
+      </c>
       <c r="K143" s="17" t="str">
         <f aca="false">IF(H143="", "", IF(H143="-","",VLOOKUP(H143, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J144" s="9" t="str">
+        <f aca="true">IF(M144="", IF(O144="","",ROUND(X144+(INDIRECT("S" &amp; ROW() - 1) - S144),0)),IF(O144="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S144,0)))</f>
+        <v/>
+      </c>
       <c r="K144" s="17" t="str">
         <f aca="false">IF(H144="", "", IF(H144="-","",VLOOKUP(H144, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J145" s="9" t="str">
+        <f aca="true">IF(M145="", IF(O145="","",ROUND(X145+(INDIRECT("S" &amp; ROW() - 1) - S145),0)),IF(O145="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S145,0)))</f>
+        <v/>
+      </c>
       <c r="K145" s="17" t="str">
         <f aca="false">IF(H145="", "", IF(H145="-","",VLOOKUP(H145, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J146" s="9" t="str">
+        <f aca="true">IF(M146="", IF(O146="","",ROUND(X146+(INDIRECT("S" &amp; ROW() - 1) - S146),0)),IF(O146="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S146,0)))</f>
+        <v/>
+      </c>
       <c r="K146" s="17" t="str">
         <f aca="false">IF(H146="", "", IF(H146="-","",VLOOKUP(H146, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J147" s="9" t="str">
+        <f aca="true">IF(M147="", IF(O147="","",ROUND(X147+(INDIRECT("S" &amp; ROW() - 1) - S147),0)),IF(O147="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S147,0)))</f>
+        <v/>
+      </c>
       <c r="K147" s="17" t="str">
         <f aca="false">IF(H147="", "", IF(H147="-","",VLOOKUP(H147, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J148" s="9" t="str">
+        <f aca="true">IF(M148="", IF(O148="","",ROUND(X148+(INDIRECT("S" &amp; ROW() - 1) - S148),0)),IF(O148="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S148,0)))</f>
+        <v/>
+      </c>
       <c r="K148" s="17" t="str">
         <f aca="false">IF(H148="", "", IF(H148="-","",VLOOKUP(H148, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J149" s="9" t="str">
+        <f aca="true">IF(M149="", IF(O149="","",ROUND(X149+(INDIRECT("S" &amp; ROW() - 1) - S149),0)),IF(O149="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S149,0)))</f>
+        <v/>
+      </c>
       <c r="K149" s="17" t="str">
         <f aca="false">IF(H149="", "", IF(H149="-","",VLOOKUP(H149, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J150" s="9" t="str">
+        <f aca="true">IF(M150="", IF(O150="","",ROUND(X150+(INDIRECT("S" &amp; ROW() - 1) - S150),0)),IF(O150="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S150,0)))</f>
+        <v/>
+      </c>
       <c r="K150" s="17" t="str">
         <f aca="false">IF(H150="", "", IF(H150="-","",VLOOKUP(H150, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J151" s="9" t="str">
+        <f aca="true">IF(M151="", IF(O151="","",ROUND(X151+(INDIRECT("S" &amp; ROW() - 1) - S151),0)),IF(O151="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S151,0)))</f>
+        <v/>
+      </c>
       <c r="K151" s="17" t="str">
         <f aca="false">IF(H151="", "", IF(H151="-","",VLOOKUP(H151, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J152" s="9" t="str">
+        <f aca="true">IF(M152="", IF(O152="","",ROUND(X152+(INDIRECT("S" &amp; ROW() - 1) - S152),0)),IF(O152="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S152,0)))</f>
+        <v/>
+      </c>
       <c r="K152" s="17" t="str">
         <f aca="false">IF(H152="", "", IF(H152="-","",VLOOKUP(H152, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J153" s="9" t="str">
+        <f aca="true">IF(M153="", IF(O153="","",ROUND(X153+(INDIRECT("S" &amp; ROW() - 1) - S153),0)),IF(O153="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S153,0)))</f>
+        <v/>
+      </c>
       <c r="K153" s="17" t="str">
         <f aca="false">IF(H153="", "", IF(H153="-","",VLOOKUP(H153, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J154" s="9" t="str">
+        <f aca="true">IF(M154="", IF(O154="","",ROUND(X154+(INDIRECT("S" &amp; ROW() - 1) - S154),0)),IF(O154="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S154,0)))</f>
+        <v/>
+      </c>
       <c r="K154" s="17" t="str">
         <f aca="false">IF(H154="", "", IF(H154="-","",VLOOKUP(H154, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J155" s="9" t="str">
+        <f aca="true">IF(M155="", IF(O155="","",ROUND(X155+(INDIRECT("S" &amp; ROW() - 1) - S155),0)),IF(O155="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S155,0)))</f>
+        <v/>
+      </c>
       <c r="K155" s="17" t="str">
         <f aca="false">IF(H155="", "", IF(H155="-","",VLOOKUP(H155, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J156" s="9" t="str">
+        <f aca="true">IF(M156="", IF(O156="","",ROUND(X156+(INDIRECT("S" &amp; ROW() - 1) - S156),0)),IF(O156="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S156,0)))</f>
+        <v/>
+      </c>
       <c r="K156" s="17" t="str">
         <f aca="false">IF(H156="", "", IF(H156="-","",VLOOKUP(H156, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J157" s="9" t="str">
+        <f aca="true">IF(M157="", IF(O157="","",ROUND(X157+(INDIRECT("S" &amp; ROW() - 1) - S157),0)),IF(O157="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S157,0)))</f>
+        <v/>
+      </c>
       <c r="K157" s="17" t="str">
         <f aca="false">IF(H157="", "", IF(H157="-","",VLOOKUP(H157, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J158" s="9" t="str">
+        <f aca="true">IF(M158="", IF(O158="","",ROUND(X158+(INDIRECT("S" &amp; ROW() - 1) - S158),0)),IF(O158="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S158,0)))</f>
+        <v/>
+      </c>
       <c r="K158" s="17" t="str">
         <f aca="false">IF(H158="", "", IF(H158="-","",VLOOKUP(H158, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J159" s="9" t="str">
+        <f aca="true">IF(M159="", IF(O159="","",ROUND(X159+(INDIRECT("S" &amp; ROW() - 1) - S159),0)),IF(O159="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S159,0)))</f>
+        <v/>
+      </c>
       <c r="K159" s="17" t="str">
         <f aca="false">IF(H159="", "", IF(H159="-","",VLOOKUP(H159, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J160" s="9" t="str">
+        <f aca="true">IF(M160="", IF(O160="","",ROUND(X160+(INDIRECT("S" &amp; ROW() - 1) - S160),0)),IF(O160="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S160,0)))</f>
+        <v/>
+      </c>
       <c r="K160" s="17" t="str">
         <f aca="false">IF(H160="", "", IF(H160="-","",VLOOKUP(H160, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J161" s="9" t="str">
+        <f aca="true">IF(M161="", IF(O161="","",ROUND(X161+(INDIRECT("S" &amp; ROW() - 1) - S161),0)),IF(O161="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S161,0)))</f>
+        <v/>
+      </c>
       <c r="K161" s="17" t="str">
         <f aca="false">IF(H161="", "", IF(H161="-","",VLOOKUP(H161, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J162" s="9" t="str">
+        <f aca="true">IF(M162="", IF(O162="","",ROUND(X162+(INDIRECT("S" &amp; ROW() - 1) - S162),0)),IF(O162="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S162,0)))</f>
+        <v/>
+      </c>
       <c r="K162" s="17" t="str">
         <f aca="false">IF(H162="", "", IF(H162="-","",VLOOKUP(H162, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J163" s="9" t="str">
+        <f aca="true">IF(M163="", IF(O163="","",ROUND(X163+(INDIRECT("S" &amp; ROW() - 1) - S163),0)),IF(O163="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S163,0)))</f>
+        <v/>
+      </c>
       <c r="K163" s="17" t="str">
         <f aca="false">IF(H163="", "", IF(H163="-","",VLOOKUP(H163, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J164" s="9" t="str">
+        <f aca="true">IF(M164="", IF(O164="","",ROUND(X164+(INDIRECT("S" &amp; ROW() - 1) - S164),0)),IF(O164="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S164,0)))</f>
+        <v/>
+      </c>
       <c r="K164" s="17" t="str">
         <f aca="false">IF(H164="", "", IF(H164="-","",VLOOKUP(H164, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J165" s="9" t="str">
+        <f aca="true">IF(M165="", IF(O165="","",ROUND(X165+(INDIRECT("S" &amp; ROW() - 1) - S165),0)),IF(O165="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S165,0)))</f>
+        <v/>
+      </c>
       <c r="K165" s="17" t="str">
         <f aca="false">IF(H165="", "", IF(H165="-","",VLOOKUP(H165, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J166" s="9" t="str">
+        <f aca="true">IF(M166="", IF(O166="","",ROUND(X166+(INDIRECT("S" &amp; ROW() - 1) - S166),0)),IF(O166="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S166,0)))</f>
+        <v/>
+      </c>
       <c r="K166" s="17" t="str">
         <f aca="false">IF(H166="", "", IF(H166="-","",VLOOKUP(H166, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J167" s="9" t="str">
+        <f aca="true">IF(M167="", IF(O167="","",ROUND(X167+(INDIRECT("S" &amp; ROW() - 1) - S167),0)),IF(O167="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S167,0)))</f>
+        <v/>
+      </c>
       <c r="K167" s="17" t="str">
         <f aca="false">IF(H167="", "", IF(H167="-","",VLOOKUP(H167, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J168" s="9" t="str">
+        <f aca="true">IF(M168="", IF(O168="","",ROUND(X168+(INDIRECT("S" &amp; ROW() - 1) - S168),0)),IF(O168="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S168,0)))</f>
+        <v/>
+      </c>
       <c r="K168" s="17" t="str">
         <f aca="false">IF(H168="", "", IF(H168="-","",VLOOKUP(H168, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J169" s="9" t="str">
+        <f aca="true">IF(M169="", IF(O169="","",ROUND(X169+(INDIRECT("S" &amp; ROW() - 1) - S169),0)),IF(O169="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S169,0)))</f>
+        <v/>
+      </c>
       <c r="K169" s="17" t="str">
         <f aca="false">IF(H169="", "", IF(H169="-","",VLOOKUP(H169, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J170" s="9" t="str">
+        <f aca="true">IF(M170="", IF(O170="","",ROUND(X170+(INDIRECT("S" &amp; ROW() - 1) - S170),0)),IF(O170="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S170,0)))</f>
+        <v/>
+      </c>
       <c r="K170" s="17" t="str">
         <f aca="false">IF(H170="", "", IF(H170="-","",VLOOKUP(H170, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J171" s="9" t="str">
+        <f aca="true">IF(M171="", IF(O171="","",ROUND(X171+(INDIRECT("S" &amp; ROW() - 1) - S171),0)),IF(O171="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S171,0)))</f>
+        <v/>
+      </c>
       <c r="K171" s="17" t="str">
         <f aca="false">IF(H171="", "", IF(H171="-","",VLOOKUP(H171, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J172" s="9" t="str">
+        <f aca="true">IF(M172="", IF(O172="","",ROUND(X172+(INDIRECT("S" &amp; ROW() - 1) - S172),0)),IF(O172="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S172,0)))</f>
+        <v/>
+      </c>
       <c r="K172" s="17" t="str">
         <f aca="false">IF(H172="", "", IF(H172="-","",VLOOKUP(H172, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J173" s="9" t="str">
+        <f aca="true">IF(M173="", IF(O173="","",ROUND(X173+(INDIRECT("S" &amp; ROW() - 1) - S173),0)),IF(O173="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S173,0)))</f>
+        <v/>
+      </c>
       <c r="K173" s="17" t="str">
         <f aca="false">IF(H173="", "", IF(H173="-","",VLOOKUP(H173, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J174" s="9" t="str">
+        <f aca="true">IF(M174="", IF(O174="","",ROUND(X174+(INDIRECT("S" &amp; ROW() - 1) - S174),0)),IF(O174="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S174,0)))</f>
+        <v/>
+      </c>
       <c r="K174" s="17" t="str">
         <f aca="false">IF(H174="", "", IF(H174="-","",VLOOKUP(H174, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J175" s="9" t="str">
+        <f aca="true">IF(M175="", IF(O175="","",ROUND(X175+(INDIRECT("S" &amp; ROW() - 1) - S175),0)),IF(O175="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S175,0)))</f>
+        <v/>
+      </c>
       <c r="K175" s="17" t="str">
         <f aca="false">IF(H175="", "", IF(H175="-","",VLOOKUP(H175, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J176" s="9" t="str">
+        <f aca="true">IF(M176="", IF(O176="","",ROUND(X176+(INDIRECT("S" &amp; ROW() - 1) - S176),0)),IF(O176="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S176,0)))</f>
+        <v/>
+      </c>
       <c r="K176" s="17" t="str">
         <f aca="false">IF(H176="", "", IF(H176="-","",VLOOKUP(H176, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J177" s="9" t="str">
+        <f aca="true">IF(M177="", IF(O177="","",ROUND(X177+(INDIRECT("S" &amp; ROW() - 1) - S177),0)),IF(O177="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S177,0)))</f>
+        <v/>
+      </c>
       <c r="K177" s="17" t="str">
         <f aca="false">IF(H177="", "", IF(H177="-","",VLOOKUP(H177, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J178" s="9" t="str">
+        <f aca="true">IF(M178="", IF(O178="","",ROUND(X178+(INDIRECT("S" &amp; ROW() - 1) - S178),0)),IF(O178="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S178,0)))</f>
+        <v/>
+      </c>
       <c r="K178" s="17" t="str">
         <f aca="false">IF(H178="", "", IF(H178="-","",VLOOKUP(H178, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J179" s="9" t="str">
+        <f aca="true">IF(M179="", IF(O179="","",ROUND(X179+(INDIRECT("S" &amp; ROW() - 1) - S179),0)),IF(O179="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S179,0)))</f>
+        <v/>
+      </c>
       <c r="K179" s="17" t="str">
         <f aca="false">IF(H179="", "", IF(H179="-","",VLOOKUP(H179, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J180" s="9" t="str">
+        <f aca="true">IF(M180="", IF(O180="","",ROUND(X180+(INDIRECT("S" &amp; ROW() - 1) - S180),0)),IF(O180="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S180,0)))</f>
+        <v/>
+      </c>
       <c r="K180" s="17" t="str">
         <f aca="false">IF(H180="", "", IF(H180="-","",VLOOKUP(H180, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J181" s="9" t="str">
+        <f aca="true">IF(M181="", IF(O181="","",ROUND(X181+(INDIRECT("S" &amp; ROW() - 1) - S181),0)),IF(O181="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S181,0)))</f>
+        <v/>
+      </c>
       <c r="K181" s="17" t="str">
         <f aca="false">IF(H181="", "", IF(H181="-","",VLOOKUP(H181, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J182" s="9" t="str">
+        <f aca="true">IF(M182="", IF(O182="","",ROUND(X182+(INDIRECT("S" &amp; ROW() - 1) - S182),0)),IF(O182="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S182,0)))</f>
+        <v/>
+      </c>
       <c r="K182" s="17" t="str">
         <f aca="false">IF(H182="", "", IF(H182="-","",VLOOKUP(H182, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J183" s="9" t="str">
+        <f aca="true">IF(M183="", IF(O183="","",ROUND(X183+(INDIRECT("S" &amp; ROW() - 1) - S183),0)),IF(O183="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S183,0)))</f>
+        <v/>
+      </c>
       <c r="K183" s="17" t="str">
         <f aca="false">IF(H183="", "", IF(H183="-","",VLOOKUP(H183, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J184" s="9" t="str">
+        <f aca="true">IF(M184="", IF(O184="","",ROUND(X184+(INDIRECT("S" &amp; ROW() - 1) - S184),0)),IF(O184="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S184,0)))</f>
+        <v/>
+      </c>
       <c r="K184" s="17" t="str">
         <f aca="false">IF(H184="", "", IF(H184="-","",VLOOKUP(H184, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J185" s="9" t="str">
+        <f aca="true">IF(M185="", IF(O185="","",ROUND(X185+(INDIRECT("S" &amp; ROW() - 1) - S185),0)),IF(O185="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S185,0)))</f>
+        <v/>
+      </c>
       <c r="K185" s="17" t="str">
         <f aca="false">IF(H185="", "", IF(H185="-","",VLOOKUP(H185, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J186" s="9" t="str">
+        <f aca="true">IF(M186="", IF(O186="","",ROUND(X186+(INDIRECT("S" &amp; ROW() - 1) - S186),0)),IF(O186="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S186,0)))</f>
+        <v/>
+      </c>
       <c r="K186" s="17" t="str">
         <f aca="false">IF(H186="", "", IF(H186="-","",VLOOKUP(H186, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J187" s="9" t="str">
+        <f aca="true">IF(M187="", IF(O187="","",ROUND(X187+(INDIRECT("S" &amp; ROW() - 1) - S187),0)),IF(O187="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S187,0)))</f>
+        <v/>
+      </c>
       <c r="K187" s="17" t="str">
         <f aca="false">IF(H187="", "", IF(H187="-","",VLOOKUP(H187, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J188" s="9" t="str">
+        <f aca="true">IF(M188="", IF(O188="","",ROUND(X188+(INDIRECT("S" &amp; ROW() - 1) - S188),0)),IF(O188="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S188,0)))</f>
+        <v/>
+      </c>
       <c r="K188" s="17" t="str">
         <f aca="false">IF(H188="", "", IF(H188="-","",VLOOKUP(H188, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J189" s="9" t="str">
+        <f aca="true">IF(M189="", IF(O189="","",ROUND(X189+(INDIRECT("S" &amp; ROW() - 1) - S189),0)),IF(O189="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S189,0)))</f>
+        <v/>
+      </c>
       <c r="K189" s="17" t="str">
         <f aca="false">IF(H189="", "", IF(H189="-","",VLOOKUP(H189, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J190" s="9" t="str">
+        <f aca="true">IF(M190="", IF(O190="","",ROUND(X190+(INDIRECT("S" &amp; ROW() - 1) - S190),0)),IF(O190="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S190,0)))</f>
+        <v/>
+      </c>
       <c r="K190" s="17" t="str">
         <f aca="false">IF(H190="", "", IF(H190="-","",VLOOKUP(H190, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J191" s="9" t="str">
+        <f aca="true">IF(M191="", IF(O191="","",ROUND(X191+(INDIRECT("S" &amp; ROW() - 1) - S191),0)),IF(O191="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S191,0)))</f>
+        <v/>
+      </c>
       <c r="K191" s="17" t="str">
         <f aca="false">IF(H191="", "", IF(H191="-","",VLOOKUP(H191, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J192" s="9" t="str">
+        <f aca="true">IF(M192="", IF(O192="","",ROUND(X192+(INDIRECT("S" &amp; ROW() - 1) - S192),0)),IF(O192="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S192,0)))</f>
+        <v/>
+      </c>
       <c r="K192" s="17" t="str">
         <f aca="false">IF(H192="", "", IF(H192="-","",VLOOKUP(H192, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J193" s="9" t="str">
+        <f aca="true">IF(M193="", IF(O193="","",ROUND(X193+(INDIRECT("S" &amp; ROW() - 1) - S193),0)),IF(O193="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S193,0)))</f>
+        <v/>
+      </c>
       <c r="K193" s="17" t="str">
         <f aca="false">IF(H193="", "", IF(H193="-","",VLOOKUP(H193, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J194" s="9" t="str">
+        <f aca="true">IF(M194="", IF(O194="","",ROUND(X194+(INDIRECT("S" &amp; ROW() - 1) - S194),0)),IF(O194="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S194,0)))</f>
+        <v/>
+      </c>
       <c r="K194" s="17" t="str">
         <f aca="false">IF(H194="", "", IF(H194="-","",VLOOKUP(H194, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J195" s="9" t="str">
+        <f aca="true">IF(M195="", IF(O195="","",ROUND(X195+(INDIRECT("S" &amp; ROW() - 1) - S195),0)),IF(O195="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S195,0)))</f>
+        <v/>
+      </c>
       <c r="K195" s="17" t="str">
         <f aca="false">IF(H195="", "", IF(H195="-","",VLOOKUP(H195, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J196" s="9" t="str">
+        <f aca="true">IF(M196="", IF(O196="","",ROUND(X196+(INDIRECT("S" &amp; ROW() - 1) - S196),0)),IF(O196="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S196,0)))</f>
+        <v/>
+      </c>
       <c r="K196" s="17" t="str">
         <f aca="false">IF(H196="", "", IF(H196="-","",VLOOKUP(H196, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J197" s="9" t="str">
+        <f aca="true">IF(M197="", IF(O197="","",ROUND(X197+(INDIRECT("S" &amp; ROW() - 1) - S197),0)),IF(O197="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S197,0)))</f>
+        <v/>
+      </c>
       <c r="K197" s="17" t="str">
         <f aca="false">IF(H197="", "", IF(H197="-","",VLOOKUP(H197, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J198" s="9" t="str">
+        <f aca="true">IF(M198="", IF(O198="","",ROUND(X198+(INDIRECT("S" &amp; ROW() - 1) - S198),0)),IF(O198="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S198,0)))</f>
+        <v/>
+      </c>
       <c r="K198" s="17" t="str">
         <f aca="false">IF(H198="", "", IF(H198="-","",VLOOKUP(H198, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J199" s="9" t="str">
+        <f aca="true">IF(M199="", IF(O199="","",ROUND(X199+(INDIRECT("S" &amp; ROW() - 1) - S199),0)),IF(O199="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S199,0)))</f>
+        <v/>
+      </c>
       <c r="K199" s="17" t="str">
         <f aca="false">IF(H199="", "", IF(H199="-","",VLOOKUP(H199, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J200" s="9" t="str">
+        <f aca="true">IF(M200="", IF(O200="","",ROUND(X200+(INDIRECT("S" &amp; ROW() - 1) - S200),0)),IF(O200="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S200,0)))</f>
+        <v/>
+      </c>
       <c r="K200" s="17" t="str">
         <f aca="false">IF(H200="", "", IF(H200="-","",VLOOKUP(H200, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J201" s="9" t="str">
+        <f aca="true">IF(M201="", IF(O201="","",ROUND(X201+(INDIRECT("S" &amp; ROW() - 1) - S201),0)),IF(O201="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S201,0)))</f>
+        <v/>
+      </c>
       <c r="K201" s="0" t="str">
         <f aca="false">IF(H201="", "", IF(H201="-","",VLOOKUP(H201, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J202" s="9" t="str">
+        <f aca="true">IF(M202="", IF(O202="","",ROUND(X202+(INDIRECT("S" &amp; ROW() - 1) - S202),0)),IF(O202="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S202,0)))</f>
+        <v/>
+      </c>
       <c r="K202" s="0" t="str">
         <f aca="false">IF(H202="", "", IF(H202="-","",VLOOKUP(H202, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J203" s="9" t="str">
+        <f aca="true">IF(M203="", IF(O203="","",ROUND(X203+(INDIRECT("S" &amp; ROW() - 1) - S203),0)),IF(O203="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S203,0)))</f>
+        <v/>
+      </c>
       <c r="K203" s="0" t="str">
         <f aca="false">IF(H203="", "", IF(H203="-","",VLOOKUP(H203, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J204" s="9" t="str">
+        <f aca="true">IF(M204="", IF(O204="","",ROUND(X204+(INDIRECT("S" &amp; ROW() - 1) - S204),0)),IF(O204="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S204,0)))</f>
+        <v/>
+      </c>
       <c r="K204" s="0" t="str">
         <f aca="false">IF(H204="", "", IF(H204="-","",VLOOKUP(H204, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J205" s="9" t="str">
+        <f aca="true">IF(M205="", IF(O205="","",ROUND(X205+(INDIRECT("S" &amp; ROW() - 1) - S205),0)),IF(O205="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S205,0)))</f>
+        <v/>
+      </c>
       <c r="K205" s="0" t="str">
         <f aca="false">IF(H205="", "", IF(H205="-","",VLOOKUP(H205, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J206" s="9" t="str">
+        <f aca="true">IF(M206="", IF(O206="","",ROUND(X206+(INDIRECT("S" &amp; ROW() - 1) - S206),0)),IF(O206="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S206,0)))</f>
+        <v/>
+      </c>
       <c r="K206" s="0" t="str">
         <f aca="false">IF(H206="", "", IF(H206="-","",VLOOKUP(H206, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J207" s="9" t="str">
+        <f aca="true">IF(M207="", IF(O207="","",ROUND(X207+(INDIRECT("S" &amp; ROW() - 1) - S207),0)),IF(O207="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S207,0)))</f>
+        <v/>
+      </c>
       <c r="K207" s="0" t="str">
         <f aca="false">IF(H207="", "", IF(H207="-","",VLOOKUP(H207, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J208" s="9" t="str">
+        <f aca="true">IF(M208="", IF(O208="","",ROUND(X208+(INDIRECT("S" &amp; ROW() - 1) - S208),0)),IF(O208="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S208,0)))</f>
+        <v/>
+      </c>
       <c r="K208" s="0" t="str">
         <f aca="false">IF(H208="", "", IF(H208="-","",VLOOKUP(H208, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J209" s="9" t="str">
+        <f aca="true">IF(M209="", IF(O209="","",ROUND(X209+(INDIRECT("S" &amp; ROW() - 1) - S209),0)),IF(O209="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S209,0)))</f>
+        <v/>
+      </c>
       <c r="K209" s="0" t="str">
         <f aca="false">IF(H209="", "", IF(H209="-","",VLOOKUP(H209, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J210" s="9" t="str">
+        <f aca="true">IF(M210="", IF(O210="","",ROUND(X210+(INDIRECT("S" &amp; ROW() - 1) - S210),0)),IF(O210="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S210,0)))</f>
+        <v/>
+      </c>
       <c r="K210" s="0" t="str">
         <f aca="false">IF(H210="", "", IF(H210="-","",VLOOKUP(H210, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J211" s="9" t="str">
+        <f aca="true">IF(M211="", IF(O211="","",ROUND(X211+(INDIRECT("S" &amp; ROW() - 1) - S211),0)),IF(O211="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S211,0)))</f>
+        <v/>
+      </c>
       <c r="K211" s="0" t="str">
         <f aca="false">IF(H211="", "", IF(H211="-","",VLOOKUP(H211, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J212" s="9" t="str">
+        <f aca="true">IF(M212="", IF(O212="","",ROUND(X212+(INDIRECT("S" &amp; ROW() - 1) - S212),0)),IF(O212="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S212,0)))</f>
+        <v/>
+      </c>
       <c r="K212" s="0" t="str">
         <f aca="false">IF(H212="", "", IF(H212="-","",VLOOKUP(H212, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J213" s="9" t="str">
+        <f aca="true">IF(M213="", IF(O213="","",ROUND(X213+(INDIRECT("S" &amp; ROW() - 1) - S213),0)),IF(O213="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S213,0)))</f>
+        <v/>
+      </c>
       <c r="K213" s="0" t="str">
         <f aca="false">IF(H213="", "", IF(H213="-","",VLOOKUP(H213, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J214" s="9" t="str">
+        <f aca="true">IF(M214="", IF(O214="","",ROUND(X214+(INDIRECT("S" &amp; ROW() - 1) - S214),0)),IF(O214="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S214,0)))</f>
+        <v/>
+      </c>
       <c r="K214" s="0" t="str">
         <f aca="false">IF(H214="", "", IF(H214="-","",VLOOKUP(H214, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J215" s="9" t="str">
+        <f aca="true">IF(M215="", IF(O215="","",ROUND(X215+(INDIRECT("S" &amp; ROW() - 1) - S215),0)),IF(O215="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S215,0)))</f>
+        <v/>
+      </c>
       <c r="K215" s="0" t="str">
         <f aca="false">IF(H215="", "", IF(H215="-","",VLOOKUP(H215, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J216" s="9" t="str">
+        <f aca="true">IF(M216="", IF(O216="","",ROUND(X216+(INDIRECT("S" &amp; ROW() - 1) - S216),0)),IF(O216="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S216,0)))</f>
+        <v/>
+      </c>
       <c r="K216" s="0" t="str">
         <f aca="false">IF(H216="", "", IF(H216="-","",VLOOKUP(H216, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J217" s="9" t="str">
+        <f aca="true">IF(M217="", IF(O217="","",ROUND(X217+(INDIRECT("S" &amp; ROW() - 1) - S217),0)),IF(O217="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S217,0)))</f>
+        <v/>
+      </c>
       <c r="K217" s="0" t="str">
         <f aca="false">IF(H217="", "", IF(H217="-","",VLOOKUP(H217, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J218" s="9" t="str">
+        <f aca="true">IF(M218="", IF(O218="","",ROUND(X218+(INDIRECT("S" &amp; ROW() - 1) - S218),0)),IF(O218="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S218,0)))</f>
+        <v/>
+      </c>
       <c r="K218" s="0" t="str">
         <f aca="false">IF(H218="", "", IF(H218="-","",VLOOKUP(H218, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J219" s="9" t="str">
+        <f aca="true">IF(M219="", IF(O219="","",ROUND(X219+(INDIRECT("S" &amp; ROW() - 1) - S219),0)),IF(O219="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S219,0)))</f>
+        <v/>
+      </c>
       <c r="K219" s="0" t="str">
         <f aca="false">IF(H219="", "", IF(H219="-","",VLOOKUP(H219, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J220" s="9" t="str">
+        <f aca="true">IF(M220="", IF(O220="","",ROUND(X220+(INDIRECT("S" &amp; ROW() - 1) - S220),0)),IF(O220="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S220,0)))</f>
+        <v/>
+      </c>
       <c r="K220" s="0" t="str">
         <f aca="false">IF(H220="", "", IF(H220="-","",VLOOKUP(H220, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J221" s="9" t="str">
+        <f aca="true">IF(M221="", IF(O221="","",ROUND(X221+(INDIRECT("S" &amp; ROW() - 1) - S221),0)),IF(O221="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S221,0)))</f>
+        <v/>
+      </c>
       <c r="K221" s="0" t="str">
         <f aca="false">IF(H221="", "", IF(H221="-","",VLOOKUP(H221, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J222" s="9" t="str">
+        <f aca="true">IF(M222="", IF(O222="","",ROUND(X222+(INDIRECT("S" &amp; ROW() - 1) - S222),0)),IF(O222="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S222,0)))</f>
+        <v/>
+      </c>
       <c r="K222" s="0" t="str">
         <f aca="false">IF(H222="", "", IF(H222="-","",VLOOKUP(H222, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J223" s="9" t="str">
+        <f aca="true">IF(M223="", IF(O223="","",ROUND(X223+(INDIRECT("S" &amp; ROW() - 1) - S223),0)),IF(O223="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S223,0)))</f>
+        <v/>
+      </c>
       <c r="K223" s="0" t="str">
         <f aca="false">IF(H223="", "", IF(H223="-","",VLOOKUP(H223, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J224" s="9" t="str">
+        <f aca="true">IF(M224="", IF(O224="","",ROUND(X224+(INDIRECT("S" &amp; ROW() - 1) - S224),0)),IF(O224="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S224,0)))</f>
+        <v/>
+      </c>
       <c r="K224" s="0" t="str">
         <f aca="false">IF(H224="", "", IF(H224="-","",VLOOKUP(H224, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J225" s="9" t="str">
+        <f aca="true">IF(M225="", IF(O225="","",ROUND(X225+(INDIRECT("S" &amp; ROW() - 1) - S225),0)),IF(O225="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S225,0)))</f>
+        <v/>
+      </c>
       <c r="K225" s="0" t="str">
         <f aca="false">IF(H225="", "", IF(H225="-","",VLOOKUP(H225, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J226" s="9" t="str">
+        <f aca="true">IF(M226="", IF(O226="","",ROUND(X226+(INDIRECT("S" &amp; ROW() - 1) - S226),0)),IF(O226="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S226,0)))</f>
+        <v/>
+      </c>
       <c r="K226" s="0" t="str">
         <f aca="false">IF(H226="", "", IF(H226="-","",VLOOKUP(H226, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J227" s="9" t="str">
+        <f aca="true">IF(M227="", IF(O227="","",ROUND(X227+(INDIRECT("S" &amp; ROW() - 1) - S227),0)),IF(O227="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S227,0)))</f>
+        <v/>
+      </c>
       <c r="K227" s="0" t="str">
         <f aca="false">IF(H227="", "", IF(H227="-","",VLOOKUP(H227, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J228" s="9" t="str">
+        <f aca="true">IF(M228="", IF(O228="","",ROUND(X228+(INDIRECT("S" &amp; ROW() - 1) - S228),0)),IF(O228="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S228,0)))</f>
+        <v/>
+      </c>
       <c r="K228" s="0" t="str">
         <f aca="false">IF(H228="", "", IF(H228="-","",VLOOKUP(H228, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J229" s="9" t="str">
+        <f aca="true">IF(M229="", IF(O229="","",ROUND(X229+(INDIRECT("S" &amp; ROW() - 1) - S229),0)),IF(O229="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S229,0)))</f>
+        <v/>
+      </c>
       <c r="K229" s="0" t="str">
         <f aca="false">IF(H229="", "", IF(H229="-","",VLOOKUP(H229, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J230" s="9" t="str">
+        <f aca="true">IF(M230="", IF(O230="","",ROUND(X230+(INDIRECT("S" &amp; ROW() - 1) - S230),0)),IF(O230="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S230,0)))</f>
+        <v/>
+      </c>
       <c r="K230" s="0" t="str">
         <f aca="false">IF(H230="", "", IF(H230="-","",VLOOKUP(H230, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J231" s="9" t="str">
+        <f aca="true">IF(M231="", IF(O231="","",ROUND(X231+(INDIRECT("S" &amp; ROW() - 1) - S231),0)),IF(O231="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S231,0)))</f>
+        <v/>
+      </c>
       <c r="K231" s="0" t="str">
         <f aca="false">IF(H231="", "", IF(H231="-","",VLOOKUP(H231, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J232" s="9" t="str">
+        <f aca="true">IF(M232="", IF(O232="","",ROUND(X232+(INDIRECT("S" &amp; ROW() - 1) - S232),0)),IF(O232="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S232,0)))</f>
+        <v/>
+      </c>
       <c r="K232" s="0" t="str">
         <f aca="false">IF(H232="", "", IF(H232="-","",VLOOKUP(H232, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J233" s="9" t="str">
+        <f aca="true">IF(M233="", IF(O233="","",ROUND(X233+(INDIRECT("S" &amp; ROW() - 1) - S233),0)),IF(O233="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S233,0)))</f>
+        <v/>
+      </c>
       <c r="K233" s="0" t="str">
         <f aca="false">IF(H233="", "", IF(H233="-","",VLOOKUP(H233, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J234" s="9" t="str">
+        <f aca="true">IF(M234="", IF(O234="","",ROUND(X234+(INDIRECT("S" &amp; ROW() - 1) - S234),0)),IF(O234="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S234,0)))</f>
+        <v/>
+      </c>
       <c r="K234" s="0" t="str">
         <f aca="false">IF(H234="", "", IF(H234="-","",VLOOKUP(H234, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J235" s="9" t="str">
+        <f aca="true">IF(M235="", IF(O235="","",ROUND(X235+(INDIRECT("S" &amp; ROW() - 1) - S235),0)),IF(O235="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S235,0)))</f>
+        <v/>
+      </c>
       <c r="K235" s="0" t="str">
         <f aca="false">IF(H235="", "", IF(H235="-","",VLOOKUP(H235, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
@@ -14904,17 +15488,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>IF(N1="",0, J1)  &lt; - 0.05* IF(N1="",0,N1)</formula>
     </cfRule>
-    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND(IF(N1="",0, J1)  &gt;= - 0.05* IF(N1="",0,N1), IF(N1="",0, J1) &lt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(IF(N1="",0, J1)  &lt;= 0.05* IF(N1="",0,N1), IF(N1="",0, J1) &gt; 0)</formula>
+    <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>IF(N1="",0,J1)  &gt; 0.05* IF(N1="",0,N1)</formula>
     </cfRule>
     <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>IF(N1="",0,J1)  &gt; 0.05* IF(N1="",0,N1)</formula>
+      <formula>AND(IF(N1="",0, J1)  &lt;= 0.05* IF(N1="",0,N1), IF(N1="",0, J1) &gt; 0)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/app/data/static/templates/constructor_mozzarella.xlsx
+++ b/app/data/static/templates/constructor_mozzarella.xlsx
@@ -5,20 +5,21 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="файл остатки" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="планирование суточное" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Вода" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Соль" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Мойки" sheetId="5" state="hidden" r:id="rId6"/>
-    <sheet name="Дополнительная фасовка" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Расписание" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Форм фактор плавления" sheetId="8" state="hidden" r:id="rId9"/>
-    <sheet name="Вода SKU" sheetId="9" state="hidden" r:id="rId10"/>
-    <sheet name="Соль SKU" sheetId="10" state="hidden" r:id="rId11"/>
-    <sheet name="Типы варок" sheetId="11" state="hidden" r:id="rId12"/>
+    <sheet name="Терка" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Мойки" sheetId="6" state="hidden" r:id="rId7"/>
+    <sheet name="Дополнительная фасовка" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Расписание" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Форм фактор плавления" sheetId="9" state="hidden" r:id="rId10"/>
+    <sheet name="Вода SKU" sheetId="10" state="hidden" r:id="rId11"/>
+    <sheet name="Соль SKU" sheetId="11" state="hidden" r:id="rId12"/>
+    <sheet name="Типы варок" sheetId="12" state="hidden" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="Water_SKU" vbProcedure="false">'Вода SKU'!$A$1:$A$100</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
   <si>
     <t xml:space="preserve">Тип варки</t>
   </si>
@@ -150,13 +151,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="@"/>
+    <numFmt numFmtId="168" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -226,6 +228,13 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -276,7 +285,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -345,7 +354,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -367,6 +380,10 @@
     </xf>
     <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -564,6 +581,32 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.63"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
     </sheetView>
@@ -583,7 +626,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -709,7 +752,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="T1" activeCellId="0" sqref="T1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -809,16 +852,16 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="16"/>
-      <c r="J2" s="9" t="str">
+      <c r="J2" s="17" t="str">
         <f aca="true">IF(M2="", IF(O2="","",ROUND(X2+(INDIRECT("S" &amp; ROW() - 1) - S2),0)),IF(O2="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S2,0)))</f>
         <v/>
       </c>
-      <c r="K2" s="17" t="str">
+      <c r="K2" s="18" t="str">
         <f aca="false">IF(H2="", "", IF(H2="-","",VLOOKUP(H2, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18" t="str">
+      <c r="M2" s="19"/>
+      <c r="N2" s="19" t="str">
         <f aca="false">IF(M2="", IF(X2=0, "", X2), IF(V2 = "", "", IF(V2/U2 = 0, "", V2/U2)))</f>
         <v/>
       </c>
@@ -860,16 +903,16 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J3" s="9" t="str">
+      <c r="J3" s="17" t="str">
         <f aca="true">IF(M3="", IF(O3="","",ROUND(X3+(INDIRECT("S" &amp; ROW() - 1) - S3),0)),IF(O3="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S3,0)))</f>
         <v/>
       </c>
-      <c r="K3" s="17" t="str">
+      <c r="K3" s="18" t="str">
         <f aca="false">IF(H3="", "", IF(H3="-","",VLOOKUP(H3, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M3" s="19"/>
-      <c r="N3" s="18" t="str">
+      <c r="M3" s="20"/>
+      <c r="N3" s="19" t="str">
         <f aca="false">IF(M3="", IF(X3=0, "", X3), IF(V3 = "", "", IF(V3/U3 = 0, "", V3/U3)))</f>
         <v/>
       </c>
@@ -911,16 +954,16 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J4" s="9" t="str">
+      <c r="J4" s="17" t="str">
         <f aca="true">IF(M4="", IF(O4="","",ROUND(X4+(INDIRECT("S" &amp; ROW() - 1) - S4),0)),IF(O4="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S4,0)))</f>
         <v/>
       </c>
-      <c r="K4" s="17" t="str">
+      <c r="K4" s="18" t="str">
         <f aca="false">IF(H4="", "", IF(H4="-","",VLOOKUP(H4, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M4" s="19"/>
-      <c r="N4" s="18" t="str">
+      <c r="M4" s="20"/>
+      <c r="N4" s="19" t="str">
         <f aca="false">IF(M4="", IF(X4=0, "", X4), IF(V4 = "", "", IF(V4/U4 = 0, "", V4/U4)))</f>
         <v/>
       </c>
@@ -962,16 +1005,16 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J5" s="9" t="str">
+      <c r="J5" s="17" t="str">
         <f aca="true">IF(M5="", IF(O5="","",ROUND(X5+(INDIRECT("S" &amp; ROW() - 1) - S5),0)),IF(O5="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S5,0)))</f>
         <v/>
       </c>
-      <c r="K5" s="17" t="str">
+      <c r="K5" s="18" t="str">
         <f aca="false">IF(H5="", "", IF(H5="-","",VLOOKUP(H5, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M5" s="19"/>
-      <c r="N5" s="18" t="str">
+      <c r="M5" s="20"/>
+      <c r="N5" s="19" t="str">
         <f aca="false">IF(M5="", IF(X5=0, "", X5), IF(V5 = "", "", IF(V5/U5 = 0, "", V5/U5)))</f>
         <v/>
       </c>
@@ -1013,16 +1056,16 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J6" s="9" t="str">
+      <c r="J6" s="17" t="str">
         <f aca="true">IF(M6="", IF(O6="","",ROUND(X6+(INDIRECT("S" &amp; ROW() - 1) - S6),0)),IF(O6="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S6,0)))</f>
         <v/>
       </c>
-      <c r="K6" s="17" t="str">
+      <c r="K6" s="18" t="str">
         <f aca="false">IF(H6="", "", IF(H6="-","",VLOOKUP(H6, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M6" s="19"/>
-      <c r="N6" s="18" t="str">
+      <c r="M6" s="20"/>
+      <c r="N6" s="19" t="str">
         <f aca="false">IF(M6="", IF(X6=0, "", X6), IF(V6 = "", "", IF(V6/U6 = 0, "", V6/U6)))</f>
         <v/>
       </c>
@@ -1064,16 +1107,16 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J7" s="9" t="str">
+      <c r="J7" s="17" t="str">
         <f aca="true">IF(M7="", IF(O7="","",ROUND(X7+(INDIRECT("S" &amp; ROW() - 1) - S7),0)),IF(O7="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S7,0)))</f>
         <v/>
       </c>
-      <c r="K7" s="17" t="str">
+      <c r="K7" s="18" t="str">
         <f aca="false">IF(H7="", "", IF(H7="-","",VLOOKUP(H7, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M7" s="19"/>
-      <c r="N7" s="18" t="str">
+      <c r="M7" s="20"/>
+      <c r="N7" s="19" t="str">
         <f aca="false">IF(M7="", IF(X7=0, "", X7), IF(V7 = "", "", IF(V7/U7 = 0, "", V7/U7)))</f>
         <v/>
       </c>
@@ -1115,16 +1158,16 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J8" s="9" t="str">
+      <c r="J8" s="17" t="str">
         <f aca="true">IF(M8="", IF(O8="","",ROUND(X8+(INDIRECT("S" &amp; ROW() - 1) - S8),0)),IF(O8="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S8,0)))</f>
         <v/>
       </c>
-      <c r="K8" s="17" t="str">
+      <c r="K8" s="18" t="str">
         <f aca="false">IF(H8="", "", IF(H8="-","",VLOOKUP(H8, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M8" s="19"/>
-      <c r="N8" s="18" t="str">
+      <c r="M8" s="20"/>
+      <c r="N8" s="19" t="str">
         <f aca="false">IF(M8="", IF(X8=0, "", X8), IF(V8 = "", "", IF(V8/U8 = 0, "", V8/U8)))</f>
         <v/>
       </c>
@@ -1166,16 +1209,16 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J9" s="9" t="str">
+      <c r="J9" s="17" t="str">
         <f aca="true">IF(M9="", IF(O9="","",ROUND(X9+(INDIRECT("S" &amp; ROW() - 1) - S9),0)),IF(O9="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S9,0)))</f>
         <v/>
       </c>
-      <c r="K9" s="17" t="str">
+      <c r="K9" s="18" t="str">
         <f aca="false">IF(H9="", "", IF(H9="-","",VLOOKUP(H9, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M9" s="19"/>
-      <c r="N9" s="18" t="str">
+      <c r="M9" s="20"/>
+      <c r="N9" s="19" t="str">
         <f aca="false">IF(M9="", IF(X9=0, "", X9), IF(V9 = "", "", IF(V9/U9 = 0, "", V9/U9)))</f>
         <v/>
       </c>
@@ -1217,16 +1260,16 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J10" s="9" t="str">
+      <c r="J10" s="17" t="str">
         <f aca="true">IF(M10="", IF(O10="","",ROUND(X10+(INDIRECT("S" &amp; ROW() - 1) - S10),0)),IF(O10="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S10,0)))</f>
         <v/>
       </c>
-      <c r="K10" s="17" t="str">
+      <c r="K10" s="18" t="str">
         <f aca="false">IF(H10="", "", IF(H10="-","",VLOOKUP(H10, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M10" s="19"/>
-      <c r="N10" s="18" t="str">
+      <c r="M10" s="20"/>
+      <c r="N10" s="19" t="str">
         <f aca="false">IF(M10="", IF(X10=0, "", X10), IF(V10 = "", "", IF(V10/U10 = 0, "", V10/U10)))</f>
         <v/>
       </c>
@@ -1268,16 +1311,16 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J11" s="9" t="str">
+      <c r="J11" s="17" t="str">
         <f aca="true">IF(M11="", IF(O11="","",ROUND(X11+(INDIRECT("S" &amp; ROW() - 1) - S11),0)),IF(O11="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S11,0)))</f>
         <v/>
       </c>
-      <c r="K11" s="17" t="str">
+      <c r="K11" s="18" t="str">
         <f aca="false">IF(H11="", "", IF(H11="-","",VLOOKUP(H11, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M11" s="19"/>
-      <c r="N11" s="18" t="str">
+      <c r="M11" s="20"/>
+      <c r="N11" s="19" t="str">
         <f aca="false">IF(M11="", IF(X11=0, "", X11), IF(V11 = "", "", IF(V11/U11 = 0, "", V11/U11)))</f>
         <v/>
       </c>
@@ -1319,16 +1362,16 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J12" s="9" t="str">
+      <c r="J12" s="17" t="str">
         <f aca="true">IF(M12="", IF(O12="","",ROUND(X12+(INDIRECT("S" &amp; ROW() - 1) - S12),0)),IF(O12="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S12,0)))</f>
         <v/>
       </c>
-      <c r="K12" s="17" t="str">
+      <c r="K12" s="18" t="str">
         <f aca="false">IF(H12="", "", IF(H12="-","",VLOOKUP(H12, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M12" s="19"/>
-      <c r="N12" s="18" t="str">
+      <c r="M12" s="20"/>
+      <c r="N12" s="19" t="str">
         <f aca="false">IF(M12="", IF(X12=0, "", X12), IF(V12 = "", "", IF(V12/U12 = 0, "", V12/U12)))</f>
         <v/>
       </c>
@@ -1370,16 +1413,16 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J13" s="9" t="str">
+      <c r="J13" s="17" t="str">
         <f aca="true">IF(M13="", IF(O13="","",ROUND(X13+(INDIRECT("S" &amp; ROW() - 1) - S13),0)),IF(O13="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S13,0)))</f>
         <v/>
       </c>
-      <c r="K13" s="17" t="str">
+      <c r="K13" s="18" t="str">
         <f aca="false">IF(H13="", "", IF(H13="-","",VLOOKUP(H13, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M13" s="19"/>
-      <c r="N13" s="18" t="str">
+      <c r="M13" s="20"/>
+      <c r="N13" s="19" t="str">
         <f aca="false">IF(M13="", IF(X13=0, "", X13), IF(V13 = "", "", IF(V13/U13 = 0, "", V13/U13)))</f>
         <v/>
       </c>
@@ -1421,16 +1464,16 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J14" s="9" t="str">
+      <c r="J14" s="17" t="str">
         <f aca="true">IF(M14="", IF(O14="","",ROUND(X14+(INDIRECT("S" &amp; ROW() - 1) - S14),0)),IF(O14="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S14,0)))</f>
         <v/>
       </c>
-      <c r="K14" s="17" t="str">
+      <c r="K14" s="18" t="str">
         <f aca="false">IF(H14="", "", IF(H14="-","",VLOOKUP(H14, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M14" s="19"/>
-      <c r="N14" s="18" t="str">
+      <c r="M14" s="20"/>
+      <c r="N14" s="19" t="str">
         <f aca="false">IF(M14="", IF(X14=0, "", X14), IF(V14 = "", "", IF(V14/U14 = 0, "", V14/U14)))</f>
         <v/>
       </c>
@@ -1472,16 +1515,16 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J15" s="9" t="str">
+      <c r="J15" s="17" t="str">
         <f aca="true">IF(M15="", IF(O15="","",ROUND(X15+(INDIRECT("S" &amp; ROW() - 1) - S15),0)),IF(O15="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S15,0)))</f>
         <v/>
       </c>
-      <c r="K15" s="17" t="str">
+      <c r="K15" s="18" t="str">
         <f aca="false">IF(H15="", "", IF(H15="-","",VLOOKUP(H15, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M15" s="19"/>
-      <c r="N15" s="18" t="str">
+      <c r="M15" s="20"/>
+      <c r="N15" s="19" t="str">
         <f aca="false">IF(M15="", IF(X15=0, "", X15), IF(V15 = "", "", IF(V15/U15 = 0, "", V15/U15)))</f>
         <v/>
       </c>
@@ -1523,16 +1566,16 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J16" s="9" t="str">
+      <c r="J16" s="17" t="str">
         <f aca="true">IF(M16="", IF(O16="","",ROUND(X16+(INDIRECT("S" &amp; ROW() - 1) - S16),0)),IF(O16="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S16,0)))</f>
         <v/>
       </c>
-      <c r="K16" s="17" t="str">
+      <c r="K16" s="18" t="str">
         <f aca="false">IF(H16="", "", IF(H16="-","",VLOOKUP(H16, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M16" s="19"/>
-      <c r="N16" s="18" t="str">
+      <c r="M16" s="20"/>
+      <c r="N16" s="19" t="str">
         <f aca="false">IF(M16="", IF(X16=0, "", X16), IF(V16 = "", "", IF(V16/U16 = 0, "", V16/U16)))</f>
         <v/>
       </c>
@@ -1574,16 +1617,16 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J17" s="9" t="str">
+      <c r="J17" s="17" t="str">
         <f aca="true">IF(M17="", IF(O17="","",ROUND(X17+(INDIRECT("S" &amp; ROW() - 1) - S17),0)),IF(O17="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S17,0)))</f>
         <v/>
       </c>
-      <c r="K17" s="17" t="str">
+      <c r="K17" s="18" t="str">
         <f aca="false">IF(H17="", "", IF(H17="-","",VLOOKUP(H17, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M17" s="19"/>
-      <c r="N17" s="18" t="str">
+      <c r="M17" s="20"/>
+      <c r="N17" s="19" t="str">
         <f aca="false">IF(M17="", IF(X17=0, "", X17), IF(V17 = "", "", IF(V17/U17 = 0, "", V17/U17)))</f>
         <v/>
       </c>
@@ -1625,16 +1668,16 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J18" s="9" t="str">
+      <c r="J18" s="17" t="str">
         <f aca="true">IF(M18="", IF(O18="","",ROUND(X18+(INDIRECT("S" &amp; ROW() - 1) - S18),0)),IF(O18="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S18,0)))</f>
         <v/>
       </c>
-      <c r="K18" s="17" t="str">
+      <c r="K18" s="18" t="str">
         <f aca="false">IF(H18="", "", IF(H18="-","",VLOOKUP(H18, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M18" s="19"/>
-      <c r="N18" s="18" t="str">
+      <c r="M18" s="20"/>
+      <c r="N18" s="19" t="str">
         <f aca="false">IF(M18="", IF(X18=0, "", X18), IF(V18 = "", "", IF(V18/U18 = 0, "", V18/U18)))</f>
         <v/>
       </c>
@@ -1676,16 +1719,16 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J19" s="9" t="str">
+      <c r="J19" s="17" t="str">
         <f aca="true">IF(M19="", IF(O19="","",ROUND(X19+(INDIRECT("S" &amp; ROW() - 1) - S19),0)),IF(O19="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S19,0)))</f>
         <v/>
       </c>
-      <c r="K19" s="17" t="str">
+      <c r="K19" s="18" t="str">
         <f aca="false">IF(H19="", "", IF(H19="-","",VLOOKUP(H19, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M19" s="19"/>
-      <c r="N19" s="18" t="str">
+      <c r="M19" s="20"/>
+      <c r="N19" s="19" t="str">
         <f aca="false">IF(M19="", IF(X19=0, "", X19), IF(V19 = "", "", IF(V19/U19 = 0, "", V19/U19)))</f>
         <v/>
       </c>
@@ -1727,16 +1770,16 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J20" s="9" t="str">
+      <c r="J20" s="17" t="str">
         <f aca="true">IF(M20="", IF(O20="","",ROUND(X20+(INDIRECT("S" &amp; ROW() - 1) - S20),0)),IF(O20="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S20,0)))</f>
         <v/>
       </c>
-      <c r="K20" s="17" t="str">
+      <c r="K20" s="18" t="str">
         <f aca="false">IF(H20="", "", IF(H20="-","",VLOOKUP(H20, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M20" s="19"/>
-      <c r="N20" s="18" t="str">
+      <c r="M20" s="20"/>
+      <c r="N20" s="19" t="str">
         <f aca="false">IF(M20="", IF(X20=0, "", X20), IF(V20 = "", "", IF(V20/U20 = 0, "", V20/U20)))</f>
         <v/>
       </c>
@@ -1778,16 +1821,16 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J21" s="9" t="str">
+      <c r="J21" s="17" t="str">
         <f aca="true">IF(M21="", IF(O21="","",ROUND(X21+(INDIRECT("S" &amp; ROW() - 1) - S21),0)),IF(O21="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S21,0)))</f>
         <v/>
       </c>
-      <c r="K21" s="17" t="str">
+      <c r="K21" s="18" t="str">
         <f aca="false">IF(H21="", "", IF(H21="-","",VLOOKUP(H21, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M21" s="19"/>
-      <c r="N21" s="18" t="str">
+      <c r="M21" s="20"/>
+      <c r="N21" s="19" t="str">
         <f aca="false">IF(M21="", IF(X21=0, "", X21), IF(V21 = "", "", IF(V21/U21 = 0, "", V21/U21)))</f>
         <v/>
       </c>
@@ -1829,16 +1872,16 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J22" s="9" t="str">
+      <c r="J22" s="17" t="str">
         <f aca="true">IF(M22="", IF(O22="","",ROUND(X22+(INDIRECT("S" &amp; ROW() - 1) - S22),0)),IF(O22="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S22,0)))</f>
         <v/>
       </c>
-      <c r="K22" s="17" t="str">
+      <c r="K22" s="18" t="str">
         <f aca="false">IF(H22="", "", IF(H22="-","",VLOOKUP(H22, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M22" s="19"/>
-      <c r="N22" s="18" t="str">
+      <c r="M22" s="20"/>
+      <c r="N22" s="19" t="str">
         <f aca="false">IF(M22="", IF(X22=0, "", X22), IF(V22 = "", "", IF(V22/U22 = 0, "", V22/U22)))</f>
         <v/>
       </c>
@@ -1880,16 +1923,16 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J23" s="9" t="str">
+      <c r="J23" s="17" t="str">
         <f aca="true">IF(M23="", IF(O23="","",ROUND(X23+(INDIRECT("S" &amp; ROW() - 1) - S23),0)),IF(O23="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S23,0)))</f>
         <v/>
       </c>
-      <c r="K23" s="17" t="str">
+      <c r="K23" s="18" t="str">
         <f aca="false">IF(H23="", "", IF(H23="-","",VLOOKUP(H23, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M23" s="19"/>
-      <c r="N23" s="18" t="str">
+      <c r="M23" s="20"/>
+      <c r="N23" s="19" t="str">
         <f aca="false">IF(M23="", IF(X23=0, "", X23), IF(V23 = "", "", IF(V23/U23 = 0, "", V23/U23)))</f>
         <v/>
       </c>
@@ -1931,16 +1974,16 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J24" s="9" t="str">
+      <c r="J24" s="17" t="str">
         <f aca="true">IF(M24="", IF(O24="","",ROUND(X24+(INDIRECT("S" &amp; ROW() - 1) - S24),0)),IF(O24="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S24,0)))</f>
         <v/>
       </c>
-      <c r="K24" s="17" t="str">
+      <c r="K24" s="18" t="str">
         <f aca="false">IF(H24="", "", IF(H24="-","",VLOOKUP(H24, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M24" s="19"/>
-      <c r="N24" s="18" t="str">
+      <c r="M24" s="20"/>
+      <c r="N24" s="19" t="str">
         <f aca="false">IF(M24="", IF(X24=0, "", X24), IF(V24 = "", "", IF(V24/U24 = 0, "", V24/U24)))</f>
         <v/>
       </c>
@@ -1982,16 +2025,16 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J25" s="9" t="str">
+      <c r="J25" s="17" t="str">
         <f aca="true">IF(M25="", IF(O25="","",ROUND(X25+(INDIRECT("S" &amp; ROW() - 1) - S25),0)),IF(O25="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S25,0)))</f>
         <v/>
       </c>
-      <c r="K25" s="17" t="str">
+      <c r="K25" s="18" t="str">
         <f aca="false">IF(H25="", "", IF(H25="-","",VLOOKUP(H25, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M25" s="19"/>
-      <c r="N25" s="18" t="str">
+      <c r="M25" s="20"/>
+      <c r="N25" s="19" t="str">
         <f aca="false">IF(M25="", IF(X25=0, "", X25), IF(V25 = "", "", IF(V25/U25 = 0, "", V25/U25)))</f>
         <v/>
       </c>
@@ -2033,16 +2076,16 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J26" s="9" t="str">
+      <c r="J26" s="17" t="str">
         <f aca="true">IF(M26="", IF(O26="","",ROUND(X26+(INDIRECT("S" &amp; ROW() - 1) - S26),0)),IF(O26="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S26,0)))</f>
         <v/>
       </c>
-      <c r="K26" s="17" t="str">
+      <c r="K26" s="18" t="str">
         <f aca="false">IF(H26="", "", IF(H26="-","",VLOOKUP(H26, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M26" s="19"/>
-      <c r="N26" s="18" t="str">
+      <c r="M26" s="20"/>
+      <c r="N26" s="19" t="str">
         <f aca="false">IF(M26="", IF(X26=0, "", X26), IF(V26 = "", "", IF(V26/U26 = 0, "", V26/U26)))</f>
         <v/>
       </c>
@@ -2084,16 +2127,16 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J27" s="9" t="str">
+      <c r="J27" s="17" t="str">
         <f aca="true">IF(M27="", IF(O27="","",ROUND(X27+(INDIRECT("S" &amp; ROW() - 1) - S27),0)),IF(O27="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S27,0)))</f>
         <v/>
       </c>
-      <c r="K27" s="17" t="str">
+      <c r="K27" s="18" t="str">
         <f aca="false">IF(H27="", "", IF(H27="-","",VLOOKUP(H27, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M27" s="19"/>
-      <c r="N27" s="18" t="str">
+      <c r="M27" s="20"/>
+      <c r="N27" s="19" t="str">
         <f aca="false">IF(M27="", IF(X27=0, "", X27), IF(V27 = "", "", IF(V27/U27 = 0, "", V27/U27)))</f>
         <v/>
       </c>
@@ -2135,16 +2178,16 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J28" s="9" t="str">
+      <c r="J28" s="17" t="str">
         <f aca="true">IF(M28="", IF(O28="","",ROUND(X28+(INDIRECT("S" &amp; ROW() - 1) - S28),0)),IF(O28="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S28,0)))</f>
         <v/>
       </c>
-      <c r="K28" s="17" t="str">
+      <c r="K28" s="18" t="str">
         <f aca="false">IF(H28="", "", IF(H28="-","",VLOOKUP(H28, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M28" s="19"/>
-      <c r="N28" s="18" t="str">
+      <c r="M28" s="20"/>
+      <c r="N28" s="19" t="str">
         <f aca="false">IF(M28="", IF(X28=0, "", X28), IF(V28 = "", "", IF(V28/U28 = 0, "", V28/U28)))</f>
         <v/>
       </c>
@@ -2186,16 +2229,16 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J29" s="9" t="str">
+      <c r="J29" s="17" t="str">
         <f aca="true">IF(M29="", IF(O29="","",ROUND(X29+(INDIRECT("S" &amp; ROW() - 1) - S29),0)),IF(O29="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S29,0)))</f>
         <v/>
       </c>
-      <c r="K29" s="17" t="str">
+      <c r="K29" s="18" t="str">
         <f aca="false">IF(H29="", "", IF(H29="-","",VLOOKUP(H29, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M29" s="19"/>
-      <c r="N29" s="18" t="str">
+      <c r="M29" s="20"/>
+      <c r="N29" s="19" t="str">
         <f aca="false">IF(M29="", IF(X29=0, "", X29), IF(V29 = "", "", IF(V29/U29 = 0, "", V29/U29)))</f>
         <v/>
       </c>
@@ -2237,16 +2280,16 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J30" s="9" t="str">
+      <c r="J30" s="17" t="str">
         <f aca="true">IF(M30="", IF(O30="","",ROUND(X30+(INDIRECT("S" &amp; ROW() - 1) - S30),0)),IF(O30="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S30,0)))</f>
         <v/>
       </c>
-      <c r="K30" s="17" t="str">
+      <c r="K30" s="18" t="str">
         <f aca="false">IF(H30="", "", IF(H30="-","",VLOOKUP(H30, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M30" s="19"/>
-      <c r="N30" s="18" t="str">
+      <c r="M30" s="20"/>
+      <c r="N30" s="19" t="str">
         <f aca="false">IF(M30="", IF(X30=0, "", X30), IF(V30 = "", "", IF(V30/U30 = 0, "", V30/U30)))</f>
         <v/>
       </c>
@@ -2288,16 +2331,16 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J31" s="9" t="str">
+      <c r="J31" s="17" t="str">
         <f aca="true">IF(M31="", IF(O31="","",ROUND(X31+(INDIRECT("S" &amp; ROW() - 1) - S31),0)),IF(O31="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S31,0)))</f>
         <v/>
       </c>
-      <c r="K31" s="17" t="str">
+      <c r="K31" s="18" t="str">
         <f aca="false">IF(H31="", "", IF(H31="-","",VLOOKUP(H31, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M31" s="19"/>
-      <c r="N31" s="18" t="str">
+      <c r="M31" s="20"/>
+      <c r="N31" s="19" t="str">
         <f aca="false">IF(M31="", IF(X31=0, "", X31), IF(V31 = "", "", IF(V31/U31 = 0, "", V31/U31)))</f>
         <v/>
       </c>
@@ -2339,16 +2382,16 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J32" s="9" t="str">
+      <c r="J32" s="17" t="str">
         <f aca="true">IF(M32="", IF(O32="","",ROUND(X32+(INDIRECT("S" &amp; ROW() - 1) - S32),0)),IF(O32="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S32,0)))</f>
         <v/>
       </c>
-      <c r="K32" s="17" t="str">
+      <c r="K32" s="18" t="str">
         <f aca="false">IF(H32="", "", IF(H32="-","",VLOOKUP(H32, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M32" s="19"/>
-      <c r="N32" s="18" t="str">
+      <c r="M32" s="20"/>
+      <c r="N32" s="19" t="str">
         <f aca="false">IF(M32="", IF(X32=0, "", X32), IF(V32 = "", "", IF(V32/U32 = 0, "", V32/U32)))</f>
         <v/>
       </c>
@@ -2390,16 +2433,16 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J33" s="9" t="str">
+      <c r="J33" s="17" t="str">
         <f aca="true">IF(M33="", IF(O33="","",ROUND(X33+(INDIRECT("S" &amp; ROW() - 1) - S33),0)),IF(O33="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S33,0)))</f>
         <v/>
       </c>
-      <c r="K33" s="17" t="str">
+      <c r="K33" s="18" t="str">
         <f aca="false">IF(H33="", "", IF(H33="-","",VLOOKUP(H33, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M33" s="19"/>
-      <c r="N33" s="18" t="str">
+      <c r="M33" s="20"/>
+      <c r="N33" s="19" t="str">
         <f aca="false">IF(M33="", IF(X33=0, "", X33), IF(V33 = "", "", IF(V33/U33 = 0, "", V33/U33)))</f>
         <v/>
       </c>
@@ -2441,16 +2484,16 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J34" s="9" t="str">
+      <c r="J34" s="17" t="str">
         <f aca="true">IF(M34="", IF(O34="","",ROUND(X34+(INDIRECT("S" &amp; ROW() - 1) - S34),0)),IF(O34="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S34,0)))</f>
         <v/>
       </c>
-      <c r="K34" s="17" t="str">
+      <c r="K34" s="18" t="str">
         <f aca="false">IF(H34="", "", IF(H34="-","",VLOOKUP(H34, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M34" s="19"/>
-      <c r="N34" s="18" t="str">
+      <c r="M34" s="20"/>
+      <c r="N34" s="19" t="str">
         <f aca="false">IF(M34="", IF(X34=0, "", X34), IF(V34 = "", "", IF(V34/U34 = 0, "", V34/U34)))</f>
         <v/>
       </c>
@@ -2492,16 +2535,16 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J35" s="9" t="str">
+      <c r="J35" s="17" t="str">
         <f aca="true">IF(M35="", IF(O35="","",ROUND(X35+(INDIRECT("S" &amp; ROW() - 1) - S35),0)),IF(O35="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S35,0)))</f>
         <v/>
       </c>
-      <c r="K35" s="17" t="str">
+      <c r="K35" s="18" t="str">
         <f aca="false">IF(H35="", "", IF(H35="-","",VLOOKUP(H35, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M35" s="19"/>
-      <c r="N35" s="18" t="str">
+      <c r="M35" s="20"/>
+      <c r="N35" s="19" t="str">
         <f aca="false">IF(M35="", IF(X35=0, "", X35), IF(V35 = "", "", IF(V35/U35 = 0, "", V35/U35)))</f>
         <v/>
       </c>
@@ -2543,16 +2586,16 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J36" s="9" t="str">
+      <c r="J36" s="17" t="str">
         <f aca="true">IF(M36="", IF(O36="","",ROUND(X36+(INDIRECT("S" &amp; ROW() - 1) - S36),0)),IF(O36="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S36,0)))</f>
         <v/>
       </c>
-      <c r="K36" s="17" t="str">
+      <c r="K36" s="18" t="str">
         <f aca="false">IF(H36="", "", IF(H36="-","",VLOOKUP(H36, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M36" s="19"/>
-      <c r="N36" s="18" t="str">
+      <c r="M36" s="20"/>
+      <c r="N36" s="19" t="str">
         <f aca="false">IF(M36="", IF(X36=0, "", X36), IF(V36 = "", "", IF(V36/U36 = 0, "", V36/U36)))</f>
         <v/>
       </c>
@@ -2594,16 +2637,16 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J37" s="9" t="str">
+      <c r="J37" s="17" t="str">
         <f aca="true">IF(M37="", IF(O37="","",ROUND(X37+(INDIRECT("S" &amp; ROW() - 1) - S37),0)),IF(O37="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S37,0)))</f>
         <v/>
       </c>
-      <c r="K37" s="17" t="str">
+      <c r="K37" s="18" t="str">
         <f aca="false">IF(H37="", "", IF(H37="-","",VLOOKUP(H37, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M37" s="19"/>
-      <c r="N37" s="18" t="str">
+      <c r="M37" s="20"/>
+      <c r="N37" s="19" t="str">
         <f aca="false">IF(M37="", IF(X37=0, "", X37), IF(V37 = "", "", IF(V37/U37 = 0, "", V37/U37)))</f>
         <v/>
       </c>
@@ -2645,16 +2688,16 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J38" s="9" t="str">
+      <c r="J38" s="17" t="str">
         <f aca="true">IF(M38="", IF(O38="","",ROUND(X38+(INDIRECT("S" &amp; ROW() - 1) - S38),0)),IF(O38="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S38,0)))</f>
         <v/>
       </c>
-      <c r="K38" s="17" t="str">
+      <c r="K38" s="18" t="str">
         <f aca="false">IF(H38="", "", IF(H38="-","",VLOOKUP(H38, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M38" s="19"/>
-      <c r="N38" s="18" t="str">
+      <c r="M38" s="20"/>
+      <c r="N38" s="19" t="str">
         <f aca="false">IF(M38="", IF(X38=0, "", X38), IF(V38 = "", "", IF(V38/U38 = 0, "", V38/U38)))</f>
         <v/>
       </c>
@@ -2696,16 +2739,16 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J39" s="9" t="str">
+      <c r="J39" s="17" t="str">
         <f aca="true">IF(M39="", IF(O39="","",ROUND(X39+(INDIRECT("S" &amp; ROW() - 1) - S39),0)),IF(O39="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S39,0)))</f>
         <v/>
       </c>
-      <c r="K39" s="17" t="str">
+      <c r="K39" s="18" t="str">
         <f aca="false">IF(H39="", "", IF(H39="-","",VLOOKUP(H39, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M39" s="19"/>
-      <c r="N39" s="18" t="str">
+      <c r="M39" s="20"/>
+      <c r="N39" s="19" t="str">
         <f aca="false">IF(M39="", IF(X39=0, "", X39), IF(V39 = "", "", IF(V39/U39 = 0, "", V39/U39)))</f>
         <v/>
       </c>
@@ -2747,16 +2790,16 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J40" s="9" t="str">
+      <c r="J40" s="17" t="str">
         <f aca="true">IF(M40="", IF(O40="","",ROUND(X40+(INDIRECT("S" &amp; ROW() - 1) - S40),0)),IF(O40="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S40,0)))</f>
         <v/>
       </c>
-      <c r="K40" s="17" t="str">
+      <c r="K40" s="18" t="str">
         <f aca="false">IF(H40="", "", IF(H40="-","",VLOOKUP(H40, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M40" s="19"/>
-      <c r="N40" s="18" t="str">
+      <c r="M40" s="20"/>
+      <c r="N40" s="19" t="str">
         <f aca="false">IF(M40="", IF(X40=0, "", X40), IF(V40 = "", "", IF(V40/U40 = 0, "", V40/U40)))</f>
         <v/>
       </c>
@@ -2798,16 +2841,16 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J41" s="9" t="str">
+      <c r="J41" s="17" t="str">
         <f aca="true">IF(M41="", IF(O41="","",ROUND(X41+(INDIRECT("S" &amp; ROW() - 1) - S41),0)),IF(O41="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S41,0)))</f>
         <v/>
       </c>
-      <c r="K41" s="17" t="str">
+      <c r="K41" s="18" t="str">
         <f aca="false">IF(H41="", "", IF(H41="-","",VLOOKUP(H41, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M41" s="19"/>
-      <c r="N41" s="18" t="str">
+      <c r="M41" s="20"/>
+      <c r="N41" s="19" t="str">
         <f aca="false">IF(M41="", IF(X41=0, "", X41), IF(V41 = "", "", IF(V41/U41 = 0, "", V41/U41)))</f>
         <v/>
       </c>
@@ -2849,16 +2892,16 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J42" s="9" t="str">
+      <c r="J42" s="17" t="str">
         <f aca="true">IF(M42="", IF(O42="","",ROUND(X42+(INDIRECT("S" &amp; ROW() - 1) - S42),0)),IF(O42="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S42,0)))</f>
         <v/>
       </c>
-      <c r="K42" s="17" t="str">
+      <c r="K42" s="18" t="str">
         <f aca="false">IF(H42="", "", IF(H42="-","",VLOOKUP(H42, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M42" s="19"/>
-      <c r="N42" s="18" t="str">
+      <c r="M42" s="20"/>
+      <c r="N42" s="19" t="str">
         <f aca="false">IF(M42="", IF(X42=0, "", X42), IF(V42 = "", "", IF(V42/U42 = 0, "", V42/U42)))</f>
         <v/>
       </c>
@@ -2900,16 +2943,16 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J43" s="9" t="str">
+      <c r="J43" s="17" t="str">
         <f aca="true">IF(M43="", IF(O43="","",ROUND(X43+(INDIRECT("S" &amp; ROW() - 1) - S43),0)),IF(O43="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S43,0)))</f>
         <v/>
       </c>
-      <c r="K43" s="17" t="str">
+      <c r="K43" s="18" t="str">
         <f aca="false">IF(H43="", "", IF(H43="-","",VLOOKUP(H43, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M43" s="19"/>
-      <c r="N43" s="18" t="str">
+      <c r="M43" s="20"/>
+      <c r="N43" s="19" t="str">
         <f aca="false">IF(M43="", IF(X43=0, "", X43), IF(V43 = "", "", IF(V43/U43 = 0, "", V43/U43)))</f>
         <v/>
       </c>
@@ -2951,16 +2994,16 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J44" s="9" t="str">
+      <c r="J44" s="17" t="str">
         <f aca="true">IF(M44="", IF(O44="","",ROUND(X44+(INDIRECT("S" &amp; ROW() - 1) - S44),0)),IF(O44="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S44,0)))</f>
         <v/>
       </c>
-      <c r="K44" s="17" t="str">
+      <c r="K44" s="18" t="str">
         <f aca="false">IF(H44="", "", IF(H44="-","",VLOOKUP(H44, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M44" s="19"/>
-      <c r="N44" s="18" t="str">
+      <c r="M44" s="20"/>
+      <c r="N44" s="19" t="str">
         <f aca="false">IF(M44="", IF(X44=0, "", X44), IF(V44 = "", "", IF(V44/U44 = 0, "", V44/U44)))</f>
         <v/>
       </c>
@@ -3002,16 +3045,16 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J45" s="9" t="str">
+      <c r="J45" s="17" t="str">
         <f aca="true">IF(M45="", IF(O45="","",ROUND(X45+(INDIRECT("S" &amp; ROW() - 1) - S45),0)),IF(O45="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S45,0)))</f>
         <v/>
       </c>
-      <c r="K45" s="17" t="str">
+      <c r="K45" s="18" t="str">
         <f aca="false">IF(H45="", "", IF(H45="-","",VLOOKUP(H45, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M45" s="19"/>
-      <c r="N45" s="18" t="str">
+      <c r="M45" s="20"/>
+      <c r="N45" s="19" t="str">
         <f aca="false">IF(M45="", IF(X45=0, "", X45), IF(V45 = "", "", IF(V45/U45 = 0, "", V45/U45)))</f>
         <v/>
       </c>
@@ -3053,16 +3096,16 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J46" s="9" t="str">
+      <c r="J46" s="17" t="str">
         <f aca="true">IF(M46="", IF(O46="","",ROUND(X46+(INDIRECT("S" &amp; ROW() - 1) - S46),0)),IF(O46="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S46,0)))</f>
         <v/>
       </c>
-      <c r="K46" s="17" t="str">
+      <c r="K46" s="18" t="str">
         <f aca="false">IF(H46="", "", IF(H46="-","",VLOOKUP(H46, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M46" s="19"/>
-      <c r="N46" s="18" t="str">
+      <c r="M46" s="20"/>
+      <c r="N46" s="19" t="str">
         <f aca="false">IF(M46="", IF(X46=0, "", X46), IF(V46 = "", "", IF(V46/U46 = 0, "", V46/U46)))</f>
         <v/>
       </c>
@@ -3104,16 +3147,16 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J47" s="9" t="str">
+      <c r="J47" s="17" t="str">
         <f aca="true">IF(M47="", IF(O47="","",ROUND(X47+(INDIRECT("S" &amp; ROW() - 1) - S47),0)),IF(O47="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S47,0)))</f>
         <v/>
       </c>
-      <c r="K47" s="17" t="str">
+      <c r="K47" s="18" t="str">
         <f aca="false">IF(H47="", "", IF(H47="-","",VLOOKUP(H47, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M47" s="19"/>
-      <c r="N47" s="18" t="str">
+      <c r="M47" s="20"/>
+      <c r="N47" s="19" t="str">
         <f aca="false">IF(M47="", IF(X47=0, "", X47), IF(V47 = "", "", IF(V47/U47 = 0, "", V47/U47)))</f>
         <v/>
       </c>
@@ -3155,16 +3198,16 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J48" s="9" t="str">
+      <c r="J48" s="17" t="str">
         <f aca="true">IF(M48="", IF(O48="","",ROUND(X48+(INDIRECT("S" &amp; ROW() - 1) - S48),0)),IF(O48="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S48,0)))</f>
         <v/>
       </c>
-      <c r="K48" s="17" t="str">
+      <c r="K48" s="18" t="str">
         <f aca="false">IF(H48="", "", IF(H48="-","",VLOOKUP(H48, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M48" s="19"/>
-      <c r="N48" s="18" t="str">
+      <c r="M48" s="20"/>
+      <c r="N48" s="19" t="str">
         <f aca="false">IF(M48="", IF(X48=0, "", X48), IF(V48 = "", "", IF(V48/U48 = 0, "", V48/U48)))</f>
         <v/>
       </c>
@@ -3206,16 +3249,16 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J49" s="9" t="str">
+      <c r="J49" s="17" t="str">
         <f aca="true">IF(M49="", IF(O49="","",ROUND(X49+(INDIRECT("S" &amp; ROW() - 1) - S49),0)),IF(O49="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S49,0)))</f>
         <v/>
       </c>
-      <c r="K49" s="17" t="str">
+      <c r="K49" s="18" t="str">
         <f aca="false">IF(H49="", "", IF(H49="-","",VLOOKUP(H49, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M49" s="19"/>
-      <c r="N49" s="18" t="str">
+      <c r="M49" s="20"/>
+      <c r="N49" s="19" t="str">
         <f aca="false">IF(M49="", IF(X49=0, "", X49), IF(V49 = "", "", IF(V49/U49 = 0, "", V49/U49)))</f>
         <v/>
       </c>
@@ -3257,16 +3300,16 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J50" s="9" t="str">
+      <c r="J50" s="17" t="str">
         <f aca="true">IF(M50="", IF(O50="","",ROUND(X50+(INDIRECT("S" &amp; ROW() - 1) - S50),0)),IF(O50="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S50,0)))</f>
         <v/>
       </c>
-      <c r="K50" s="17" t="str">
+      <c r="K50" s="18" t="str">
         <f aca="false">IF(H50="", "", IF(H50="-","",VLOOKUP(H50, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M50" s="19"/>
-      <c r="N50" s="18" t="str">
+      <c r="M50" s="20"/>
+      <c r="N50" s="19" t="str">
         <f aca="false">IF(M50="", IF(X50=0, "", X50), IF(V50 = "", "", IF(V50/U50 = 0, "", V50/U50)))</f>
         <v/>
       </c>
@@ -3308,16 +3351,16 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J51" s="9" t="str">
+      <c r="J51" s="17" t="str">
         <f aca="true">IF(M51="", IF(O51="","",ROUND(X51+(INDIRECT("S" &amp; ROW() - 1) - S51),0)),IF(O51="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S51,0)))</f>
         <v/>
       </c>
-      <c r="K51" s="17" t="str">
+      <c r="K51" s="18" t="str">
         <f aca="false">IF(H51="", "", IF(H51="-","",VLOOKUP(H51, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M51" s="19"/>
-      <c r="N51" s="18" t="str">
+      <c r="M51" s="20"/>
+      <c r="N51" s="19" t="str">
         <f aca="false">IF(M51="", IF(X51=0, "", X51), IF(V51 = "", "", IF(V51/U51 = 0, "", V51/U51)))</f>
         <v/>
       </c>
@@ -3359,16 +3402,16 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J52" s="9" t="str">
+      <c r="J52" s="17" t="str">
         <f aca="true">IF(M52="", IF(O52="","",ROUND(X52+(INDIRECT("S" &amp; ROW() - 1) - S52),0)),IF(O52="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S52,0)))</f>
         <v/>
       </c>
-      <c r="K52" s="17" t="str">
+      <c r="K52" s="18" t="str">
         <f aca="false">IF(H52="", "", IF(H52="-","",VLOOKUP(H52, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M52" s="19"/>
-      <c r="N52" s="18" t="str">
+      <c r="M52" s="20"/>
+      <c r="N52" s="19" t="str">
         <f aca="false">IF(M52="", IF(X52=0, "", X52), IF(V52 = "", "", IF(V52/U52 = 0, "", V52/U52)))</f>
         <v/>
       </c>
@@ -3410,16 +3453,16 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J53" s="9" t="str">
+      <c r="J53" s="17" t="str">
         <f aca="true">IF(M53="", IF(O53="","",ROUND(X53+(INDIRECT("S" &amp; ROW() - 1) - S53),0)),IF(O53="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S53,0)))</f>
         <v/>
       </c>
-      <c r="K53" s="17" t="str">
+      <c r="K53" s="18" t="str">
         <f aca="false">IF(H53="", "", IF(H53="-","",VLOOKUP(H53, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M53" s="19"/>
-      <c r="N53" s="18" t="str">
+      <c r="M53" s="20"/>
+      <c r="N53" s="19" t="str">
         <f aca="false">IF(M53="", IF(X53=0, "", X53), IF(V53 = "", "", IF(V53/U53 = 0, "", V53/U53)))</f>
         <v/>
       </c>
@@ -3461,16 +3504,16 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J54" s="9" t="str">
+      <c r="J54" s="17" t="str">
         <f aca="true">IF(M54="", IF(O54="","",ROUND(X54+(INDIRECT("S" &amp; ROW() - 1) - S54),0)),IF(O54="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S54,0)))</f>
         <v/>
       </c>
-      <c r="K54" s="17" t="str">
+      <c r="K54" s="18" t="str">
         <f aca="false">IF(H54="", "", IF(H54="-","",VLOOKUP(H54, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M54" s="19"/>
-      <c r="N54" s="18" t="str">
+      <c r="M54" s="20"/>
+      <c r="N54" s="19" t="str">
         <f aca="false">IF(M54="", IF(X54=0, "", X54), IF(V54 = "", "", IF(V54/U54 = 0, "", V54/U54)))</f>
         <v/>
       </c>
@@ -3512,16 +3555,16 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J55" s="9" t="str">
+      <c r="J55" s="17" t="str">
         <f aca="true">IF(M55="", IF(O55="","",ROUND(X55+(INDIRECT("S" &amp; ROW() - 1) - S55),0)),IF(O55="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S55,0)))</f>
         <v/>
       </c>
-      <c r="K55" s="17" t="str">
+      <c r="K55" s="18" t="str">
         <f aca="false">IF(H55="", "", IF(H55="-","",VLOOKUP(H55, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M55" s="19"/>
-      <c r="N55" s="18" t="str">
+      <c r="M55" s="20"/>
+      <c r="N55" s="19" t="str">
         <f aca="false">IF(M55="", IF(X55=0, "", X55), IF(V55 = "", "", IF(V55/U55 = 0, "", V55/U55)))</f>
         <v/>
       </c>
@@ -3563,16 +3606,16 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J56" s="9" t="str">
+      <c r="J56" s="17" t="str">
         <f aca="true">IF(M56="", IF(O56="","",ROUND(X56+(INDIRECT("S" &amp; ROW() - 1) - S56),0)),IF(O56="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S56,0)))</f>
         <v/>
       </c>
-      <c r="K56" s="17" t="str">
+      <c r="K56" s="18" t="str">
         <f aca="false">IF(H56="", "", IF(H56="-","",VLOOKUP(H56, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M56" s="19"/>
-      <c r="N56" s="18" t="str">
+      <c r="M56" s="20"/>
+      <c r="N56" s="19" t="str">
         <f aca="false">IF(M56="", IF(X56=0, "", X56), IF(V56 = "", "", IF(V56/U56 = 0, "", V56/U56)))</f>
         <v/>
       </c>
@@ -3614,16 +3657,16 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J57" s="9" t="str">
+      <c r="J57" s="17" t="str">
         <f aca="true">IF(M57="", IF(O57="","",ROUND(X57+(INDIRECT("S" &amp; ROW() - 1) - S57),0)),IF(O57="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S57,0)))</f>
         <v/>
       </c>
-      <c r="K57" s="17" t="str">
+      <c r="K57" s="18" t="str">
         <f aca="false">IF(H57="", "", IF(H57="-","",VLOOKUP(H57, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M57" s="19"/>
-      <c r="N57" s="18" t="str">
+      <c r="M57" s="20"/>
+      <c r="N57" s="19" t="str">
         <f aca="false">IF(M57="", IF(X57=0, "", X57), IF(V57 = "", "", IF(V57/U57 = 0, "", V57/U57)))</f>
         <v/>
       </c>
@@ -3665,16 +3708,16 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J58" s="9" t="str">
+      <c r="J58" s="17" t="str">
         <f aca="true">IF(M58="", IF(O58="","",ROUND(X58+(INDIRECT("S" &amp; ROW() - 1) - S58),0)),IF(O58="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S58,0)))</f>
         <v/>
       </c>
-      <c r="K58" s="17" t="str">
+      <c r="K58" s="18" t="str">
         <f aca="false">IF(H58="", "", IF(H58="-","",VLOOKUP(H58, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M58" s="19"/>
-      <c r="N58" s="18" t="str">
+      <c r="M58" s="20"/>
+      <c r="N58" s="19" t="str">
         <f aca="false">IF(M58="", IF(X58=0, "", X58), IF(V58 = "", "", IF(V58/U58 = 0, "", V58/U58)))</f>
         <v/>
       </c>
@@ -3716,16 +3759,16 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J59" s="9" t="str">
+      <c r="J59" s="17" t="str">
         <f aca="true">IF(M59="", IF(O59="","",ROUND(X59+(INDIRECT("S" &amp; ROW() - 1) - S59),0)),IF(O59="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S59,0)))</f>
         <v/>
       </c>
-      <c r="K59" s="17" t="str">
+      <c r="K59" s="18" t="str">
         <f aca="false">IF(H59="", "", IF(H59="-","",VLOOKUP(H59, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M59" s="18"/>
-      <c r="N59" s="18" t="str">
+      <c r="M59" s="19"/>
+      <c r="N59" s="19" t="str">
         <f aca="false">IF(M59="", IF(X59=0, "", X59), IF(V59 = "", "", IF(V59/U59 = 0, "", V59/U59)))</f>
         <v/>
       </c>
@@ -3767,16 +3810,16 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J60" s="9" t="str">
+      <c r="J60" s="17" t="str">
         <f aca="true">IF(M60="", IF(O60="","",ROUND(X60+(INDIRECT("S" &amp; ROW() - 1) - S60),0)),IF(O60="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S60,0)))</f>
         <v/>
       </c>
-      <c r="K60" s="17" t="str">
+      <c r="K60" s="18" t="str">
         <f aca="false">IF(H60="", "", IF(H60="-","",VLOOKUP(H60, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M60" s="19"/>
-      <c r="N60" s="18" t="str">
+      <c r="M60" s="20"/>
+      <c r="N60" s="19" t="str">
         <f aca="false">IF(M60="", IF(X60=0, "", X60), IF(V60 = "", "", IF(V60/U60 = 0, "", V60/U60)))</f>
         <v/>
       </c>
@@ -3818,16 +3861,16 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J61" s="9" t="str">
+      <c r="J61" s="17" t="str">
         <f aca="true">IF(M61="", IF(O61="","",ROUND(X61+(INDIRECT("S" &amp; ROW() - 1) - S61),0)),IF(O61="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S61,0)))</f>
         <v/>
       </c>
-      <c r="K61" s="17" t="str">
+      <c r="K61" s="18" t="str">
         <f aca="false">IF(H61="", "", IF(H61="-","",VLOOKUP(H61, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M61" s="19"/>
-      <c r="N61" s="18" t="str">
+      <c r="M61" s="20"/>
+      <c r="N61" s="19" t="str">
         <f aca="false">IF(M61="", IF(X61=0, "", X61), IF(V61 = "", "", IF(V61/U61 = 0, "", V61/U61)))</f>
         <v/>
       </c>
@@ -3869,16 +3912,16 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J62" s="9" t="str">
+      <c r="J62" s="17" t="str">
         <f aca="true">IF(M62="", IF(O62="","",ROUND(X62+(INDIRECT("S" &amp; ROW() - 1) - S62),0)),IF(O62="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S62,0)))</f>
         <v/>
       </c>
-      <c r="K62" s="17" t="str">
+      <c r="K62" s="18" t="str">
         <f aca="false">IF(H62="", "", IF(H62="-","",VLOOKUP(H62, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M62" s="19"/>
-      <c r="N62" s="18" t="str">
+      <c r="M62" s="20"/>
+      <c r="N62" s="19" t="str">
         <f aca="false">IF(M62="", IF(X62=0, "", X62), IF(V62 = "", "", IF(V62/U62 = 0, "", V62/U62)))</f>
         <v/>
       </c>
@@ -3920,16 +3963,16 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J63" s="9" t="str">
+      <c r="J63" s="17" t="str">
         <f aca="true">IF(M63="", IF(O63="","",ROUND(X63+(INDIRECT("S" &amp; ROW() - 1) - S63),0)),IF(O63="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S63,0)))</f>
         <v/>
       </c>
-      <c r="K63" s="17" t="str">
+      <c r="K63" s="18" t="str">
         <f aca="false">IF(H63="", "", IF(H63="-","",VLOOKUP(H63, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M63" s="19"/>
-      <c r="N63" s="18" t="str">
+      <c r="M63" s="20"/>
+      <c r="N63" s="19" t="str">
         <f aca="false">IF(M63="", IF(X63=0, "", X63), IF(V63 = "", "", IF(V63/U63 = 0, "", V63/U63)))</f>
         <v/>
       </c>
@@ -3971,16 +4014,16 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J64" s="9" t="str">
+      <c r="J64" s="17" t="str">
         <f aca="true">IF(M64="", IF(O64="","",ROUND(X64+(INDIRECT("S" &amp; ROW() - 1) - S64),0)),IF(O64="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S64,0)))</f>
         <v/>
       </c>
-      <c r="K64" s="17" t="str">
+      <c r="K64" s="18" t="str">
         <f aca="false">IF(H64="", "", IF(H64="-","",VLOOKUP(H64, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M64" s="19"/>
-      <c r="N64" s="18" t="str">
+      <c r="M64" s="20"/>
+      <c r="N64" s="19" t="str">
         <f aca="false">IF(M64="", IF(X64=0, "", X64), IF(V64 = "", "", IF(V64/U64 = 0, "", V64/U64)))</f>
         <v/>
       </c>
@@ -4022,16 +4065,16 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J65" s="9" t="str">
+      <c r="J65" s="17" t="str">
         <f aca="true">IF(M65="", IF(O65="","",ROUND(X65+(INDIRECT("S" &amp; ROW() - 1) - S65),0)),IF(O65="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S65,0)))</f>
         <v/>
       </c>
-      <c r="K65" s="17" t="str">
+      <c r="K65" s="18" t="str">
         <f aca="false">IF(H65="", "", IF(H65="-","",VLOOKUP(H65, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M65" s="19"/>
-      <c r="N65" s="18" t="str">
+      <c r="M65" s="20"/>
+      <c r="N65" s="19" t="str">
         <f aca="false">IF(M65="", IF(X65=0, "", X65), IF(V65 = "", "", IF(V65/U65 = 0, "", V65/U65)))</f>
         <v/>
       </c>
@@ -4073,16 +4116,16 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J66" s="9" t="str">
+      <c r="J66" s="17" t="str">
         <f aca="true">IF(M66="", IF(O66="","",ROUND(X66+(INDIRECT("S" &amp; ROW() - 1) - S66),0)),IF(O66="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S66,0)))</f>
         <v/>
       </c>
-      <c r="K66" s="17" t="str">
+      <c r="K66" s="18" t="str">
         <f aca="false">IF(H66="", "", IF(H66="-","",VLOOKUP(H66, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M66" s="19"/>
-      <c r="N66" s="18" t="str">
+      <c r="M66" s="20"/>
+      <c r="N66" s="19" t="str">
         <f aca="false">IF(M66="", IF(X66=0, "", X66), IF(V66 = "", "", IF(V66/U66 = 0, "", V66/U66)))</f>
         <v/>
       </c>
@@ -4124,16 +4167,16 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J67" s="9" t="str">
+      <c r="J67" s="17" t="str">
         <f aca="true">IF(M67="", IF(O67="","",ROUND(X67+(INDIRECT("S" &amp; ROW() - 1) - S67),0)),IF(O67="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S67,0)))</f>
         <v/>
       </c>
-      <c r="K67" s="17" t="str">
+      <c r="K67" s="18" t="str">
         <f aca="false">IF(H67="", "", IF(H67="-","",VLOOKUP(H67, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M67" s="19"/>
-      <c r="N67" s="18" t="str">
+      <c r="M67" s="20"/>
+      <c r="N67" s="19" t="str">
         <f aca="false">IF(M67="", IF(X67=0, "", X67), IF(V67 = "", "", IF(V67/U67 = 0, "", V67/U67)))</f>
         <v/>
       </c>
@@ -4175,16 +4218,16 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J68" s="9" t="str">
+      <c r="J68" s="17" t="str">
         <f aca="true">IF(M68="", IF(O68="","",ROUND(X68+(INDIRECT("S" &amp; ROW() - 1) - S68),0)),IF(O68="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S68,0)))</f>
         <v/>
       </c>
-      <c r="K68" s="17" t="str">
+      <c r="K68" s="18" t="str">
         <f aca="false">IF(H68="", "", IF(H68="-","",VLOOKUP(H68, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M68" s="19"/>
-      <c r="N68" s="18" t="str">
+      <c r="M68" s="20"/>
+      <c r="N68" s="19" t="str">
         <f aca="false">IF(M68="", IF(X68=0, "", X68), IF(V68 = "", "", IF(V68/U68 = 0, "", V68/U68)))</f>
         <v/>
       </c>
@@ -4226,16 +4269,16 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J69" s="9" t="str">
+      <c r="J69" s="17" t="str">
         <f aca="true">IF(M69="", IF(O69="","",ROUND(X69+(INDIRECT("S" &amp; ROW() - 1) - S69),0)),IF(O69="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S69,0)))</f>
         <v/>
       </c>
-      <c r="K69" s="17" t="str">
+      <c r="K69" s="18" t="str">
         <f aca="false">IF(H69="", "", IF(H69="-","",VLOOKUP(H69, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M69" s="19"/>
-      <c r="N69" s="18" t="str">
+      <c r="M69" s="20"/>
+      <c r="N69" s="19" t="str">
         <f aca="false">IF(M69="", IF(X69=0, "", X69), IF(V69 = "", "", IF(V69/U69 = 0, "", V69/U69)))</f>
         <v/>
       </c>
@@ -4277,16 +4320,16 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J70" s="9" t="str">
+      <c r="J70" s="17" t="str">
         <f aca="true">IF(M70="", IF(O70="","",ROUND(X70+(INDIRECT("S" &amp; ROW() - 1) - S70),0)),IF(O70="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S70,0)))</f>
         <v/>
       </c>
-      <c r="K70" s="17" t="str">
+      <c r="K70" s="18" t="str">
         <f aca="false">IF(H70="", "", IF(H70="-","",VLOOKUP(H70, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M70" s="19"/>
-      <c r="N70" s="18" t="str">
+      <c r="M70" s="20"/>
+      <c r="N70" s="19" t="str">
         <f aca="false">IF(M70="", IF(X70=0, "", X70), IF(V70 = "", "", IF(V70/U70 = 0, "", V70/U70)))</f>
         <v/>
       </c>
@@ -4328,16 +4371,16 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J71" s="9" t="str">
+      <c r="J71" s="17" t="str">
         <f aca="true">IF(M71="", IF(O71="","",ROUND(X71+(INDIRECT("S" &amp; ROW() - 1) - S71),0)),IF(O71="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S71,0)))</f>
         <v/>
       </c>
-      <c r="K71" s="17" t="str">
+      <c r="K71" s="18" t="str">
         <f aca="false">IF(H71="", "", IF(H71="-","",VLOOKUP(H71, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M71" s="19"/>
-      <c r="N71" s="18" t="str">
+      <c r="M71" s="20"/>
+      <c r="N71" s="19" t="str">
         <f aca="false">IF(M71="", IF(X71=0, "", X71), IF(V71 = "", "", IF(V71/U71 = 0, "", V71/U71)))</f>
         <v/>
       </c>
@@ -4379,16 +4422,16 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J72" s="9" t="str">
+      <c r="J72" s="17" t="str">
         <f aca="true">IF(M72="", IF(O72="","",ROUND(X72+(INDIRECT("S" &amp; ROW() - 1) - S72),0)),IF(O72="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S72,0)))</f>
         <v/>
       </c>
-      <c r="K72" s="17" t="str">
+      <c r="K72" s="18" t="str">
         <f aca="false">IF(H72="", "", IF(H72="-","",VLOOKUP(H72, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M72" s="19"/>
-      <c r="N72" s="18" t="str">
+      <c r="M72" s="20"/>
+      <c r="N72" s="19" t="str">
         <f aca="false">IF(M72="", IF(X72=0, "", X72), IF(V72 = "", "", IF(V72/U72 = 0, "", V72/U72)))</f>
         <v/>
       </c>
@@ -4430,16 +4473,16 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J73" s="9" t="str">
+      <c r="J73" s="17" t="str">
         <f aca="true">IF(M73="", IF(O73="","",ROUND(X73+(INDIRECT("S" &amp; ROW() - 1) - S73),0)),IF(O73="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S73,0)))</f>
         <v/>
       </c>
-      <c r="K73" s="17" t="str">
+      <c r="K73" s="18" t="str">
         <f aca="false">IF(H73="", "", IF(H73="-","",VLOOKUP(H73, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M73" s="19"/>
-      <c r="N73" s="18" t="str">
+      <c r="M73" s="20"/>
+      <c r="N73" s="19" t="str">
         <f aca="false">IF(M73="", IF(X73=0, "", X73), IF(V73 = "", "", IF(V73/U73 = 0, "", V73/U73)))</f>
         <v/>
       </c>
@@ -4481,16 +4524,16 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J74" s="9" t="str">
+      <c r="J74" s="17" t="str">
         <f aca="true">IF(M74="", IF(O74="","",ROUND(X74+(INDIRECT("S" &amp; ROW() - 1) - S74),0)),IF(O74="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S74,0)))</f>
         <v/>
       </c>
-      <c r="K74" s="17" t="str">
+      <c r="K74" s="18" t="str">
         <f aca="false">IF(H74="", "", IF(H74="-","",VLOOKUP(H74, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M74" s="19"/>
-      <c r="N74" s="18" t="str">
+      <c r="M74" s="20"/>
+      <c r="N74" s="19" t="str">
         <f aca="false">IF(M74="", IF(X74=0, "", X74), IF(V74 = "", "", IF(V74/U74 = 0, "", V74/U74)))</f>
         <v/>
       </c>
@@ -4532,16 +4575,16 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J75" s="9" t="str">
+      <c r="J75" s="17" t="str">
         <f aca="true">IF(M75="", IF(O75="","",ROUND(X75+(INDIRECT("S" &amp; ROW() - 1) - S75),0)),IF(O75="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S75,0)))</f>
         <v/>
       </c>
-      <c r="K75" s="17" t="str">
+      <c r="K75" s="18" t="str">
         <f aca="false">IF(H75="", "", IF(H75="-","",VLOOKUP(H75, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M75" s="19"/>
-      <c r="N75" s="18" t="str">
+      <c r="M75" s="20"/>
+      <c r="N75" s="19" t="str">
         <f aca="false">IF(M75="", IF(X75=0, "", X75), IF(V75 = "", "", IF(V75/U75 = 0, "", V75/U75)))</f>
         <v/>
       </c>
@@ -4583,16 +4626,16 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J76" s="9" t="str">
+      <c r="J76" s="17" t="str">
         <f aca="true">IF(M76="", IF(O76="","",ROUND(X76+(INDIRECT("S" &amp; ROW() - 1) - S76),0)),IF(O76="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S76,0)))</f>
         <v/>
       </c>
-      <c r="K76" s="17" t="str">
+      <c r="K76" s="18" t="str">
         <f aca="false">IF(H76="", "", IF(H76="-","",VLOOKUP(H76, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M76" s="19"/>
-      <c r="N76" s="18" t="str">
+      <c r="M76" s="20"/>
+      <c r="N76" s="19" t="str">
         <f aca="false">IF(M76="", IF(X76=0, "", X76), IF(V76 = "", "", IF(V76/U76 = 0, "", V76/U76)))</f>
         <v/>
       </c>
@@ -4634,16 +4677,16 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J77" s="9" t="str">
+      <c r="J77" s="17" t="str">
         <f aca="true">IF(M77="", IF(O77="","",ROUND(X77+(INDIRECT("S" &amp; ROW() - 1) - S77),0)),IF(O77="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S77,0)))</f>
         <v/>
       </c>
-      <c r="K77" s="17" t="str">
+      <c r="K77" s="18" t="str">
         <f aca="false">IF(H77="", "", IF(H77="-","",VLOOKUP(H77, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M77" s="19"/>
-      <c r="N77" s="18" t="str">
+      <c r="M77" s="20"/>
+      <c r="N77" s="19" t="str">
         <f aca="false">IF(M77="", IF(X77=0, "", X77), IF(V77 = "", "", IF(V77/U77 = 0, "", V77/U77)))</f>
         <v/>
       </c>
@@ -4685,16 +4728,16 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J78" s="9" t="str">
+      <c r="J78" s="17" t="str">
         <f aca="true">IF(M78="", IF(O78="","",ROUND(X78+(INDIRECT("S" &amp; ROW() - 1) - S78),0)),IF(O78="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S78,0)))</f>
         <v/>
       </c>
-      <c r="K78" s="17" t="str">
+      <c r="K78" s="18" t="str">
         <f aca="false">IF(H78="", "", IF(H78="-","",VLOOKUP(H78, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M78" s="19"/>
-      <c r="N78" s="18" t="str">
+      <c r="M78" s="20"/>
+      <c r="N78" s="19" t="str">
         <f aca="false">IF(M78="", IF(X78=0, "", X78), IF(V78 = "", "", IF(V78/U78 = 0, "", V78/U78)))</f>
         <v/>
       </c>
@@ -4736,16 +4779,16 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J79" s="9" t="str">
+      <c r="J79" s="17" t="str">
         <f aca="true">IF(M79="", IF(O79="","",ROUND(X79+(INDIRECT("S" &amp; ROW() - 1) - S79),0)),IF(O79="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S79,0)))</f>
         <v/>
       </c>
-      <c r="K79" s="17" t="str">
+      <c r="K79" s="18" t="str">
         <f aca="false">IF(H79="", "", IF(H79="-","",VLOOKUP(H79, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M79" s="19"/>
-      <c r="N79" s="18" t="str">
+      <c r="M79" s="20"/>
+      <c r="N79" s="19" t="str">
         <f aca="false">IF(M79="", IF(X79=0, "", X79), IF(V79 = "", "", IF(V79/U79 = 0, "", V79/U79)))</f>
         <v/>
       </c>
@@ -4787,16 +4830,16 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J80" s="9" t="str">
+      <c r="J80" s="17" t="str">
         <f aca="true">IF(M80="", IF(O80="","",ROUND(X80+(INDIRECT("S" &amp; ROW() - 1) - S80),0)),IF(O80="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S80,0)))</f>
         <v/>
       </c>
-      <c r="K80" s="17" t="str">
+      <c r="K80" s="18" t="str">
         <f aca="false">IF(H80="", "", IF(H80="-","",VLOOKUP(H80, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M80" s="19"/>
-      <c r="N80" s="18" t="str">
+      <c r="M80" s="20"/>
+      <c r="N80" s="19" t="str">
         <f aca="false">IF(M80="", IF(X80=0, "", X80), IF(V80 = "", "", IF(V80/U80 = 0, "", V80/U80)))</f>
         <v/>
       </c>
@@ -4838,16 +4881,16 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J81" s="9" t="str">
+      <c r="J81" s="17" t="str">
         <f aca="true">IF(M81="", IF(O81="","",ROUND(X81+(INDIRECT("S" &amp; ROW() - 1) - S81),0)),IF(O81="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S81,0)))</f>
         <v/>
       </c>
-      <c r="K81" s="17" t="str">
+      <c r="K81" s="18" t="str">
         <f aca="false">IF(H81="", "", IF(H81="-","",VLOOKUP(H81, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M81" s="19"/>
-      <c r="N81" s="18" t="str">
+      <c r="M81" s="20"/>
+      <c r="N81" s="19" t="str">
         <f aca="false">IF(M81="", IF(X81=0, "", X81), IF(V81 = "", "", IF(V81/U81 = 0, "", V81/U81)))</f>
         <v/>
       </c>
@@ -4889,16 +4932,16 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J82" s="9" t="str">
+      <c r="J82" s="17" t="str">
         <f aca="true">IF(M82="", IF(O82="","",ROUND(X82+(INDIRECT("S" &amp; ROW() - 1) - S82),0)),IF(O82="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S82,0)))</f>
         <v/>
       </c>
-      <c r="K82" s="17" t="str">
+      <c r="K82" s="18" t="str">
         <f aca="false">IF(H82="", "", IF(H82="-","",VLOOKUP(H82, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M82" s="19"/>
-      <c r="N82" s="18" t="str">
+      <c r="M82" s="20"/>
+      <c r="N82" s="19" t="str">
         <f aca="false">IF(M82="", IF(X82=0, "", X82), IF(V82 = "", "", IF(V82/U82 = 0, "", V82/U82)))</f>
         <v/>
       </c>
@@ -4940,16 +4983,16 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J83" s="9" t="str">
+      <c r="J83" s="17" t="str">
         <f aca="true">IF(M83="", IF(O83="","",ROUND(X83+(INDIRECT("S" &amp; ROW() - 1) - S83),0)),IF(O83="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S83,0)))</f>
         <v/>
       </c>
-      <c r="K83" s="17" t="str">
+      <c r="K83" s="18" t="str">
         <f aca="false">IF(H83="", "", IF(H83="-","",VLOOKUP(H83, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M83" s="19"/>
-      <c r="N83" s="18" t="str">
+      <c r="M83" s="20"/>
+      <c r="N83" s="19" t="str">
         <f aca="false">IF(M83="", IF(X83=0, "", X83), IF(V83 = "", "", IF(V83/U83 = 0, "", V83/U83)))</f>
         <v/>
       </c>
@@ -4991,16 +5034,16 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J84" s="9" t="str">
+      <c r="J84" s="17" t="str">
         <f aca="true">IF(M84="", IF(O84="","",ROUND(X84+(INDIRECT("S" &amp; ROW() - 1) - S84),0)),IF(O84="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S84,0)))</f>
         <v/>
       </c>
-      <c r="K84" s="17" t="str">
+      <c r="K84" s="18" t="str">
         <f aca="false">IF(H84="", "", IF(H84="-","",VLOOKUP(H84, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M84" s="19"/>
-      <c r="N84" s="18" t="str">
+      <c r="M84" s="20"/>
+      <c r="N84" s="19" t="str">
         <f aca="false">IF(M84="", IF(X84=0, "", X84), IF(V84 = "", "", IF(V84/U84 = 0, "", V84/U84)))</f>
         <v/>
       </c>
@@ -5042,16 +5085,16 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J85" s="9" t="str">
+      <c r="J85" s="17" t="str">
         <f aca="true">IF(M85="", IF(O85="","",ROUND(X85+(INDIRECT("S" &amp; ROW() - 1) - S85),0)),IF(O85="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S85,0)))</f>
         <v/>
       </c>
-      <c r="K85" s="17" t="str">
+      <c r="K85" s="18" t="str">
         <f aca="false">IF(H85="", "", IF(H85="-","",VLOOKUP(H85, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M85" s="19"/>
-      <c r="N85" s="18" t="str">
+      <c r="M85" s="20"/>
+      <c r="N85" s="19" t="str">
         <f aca="false">IF(M85="", IF(X85=0, "", X85), IF(V85 = "", "", IF(V85/U85 = 0, "", V85/U85)))</f>
         <v/>
       </c>
@@ -5093,16 +5136,16 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J86" s="9" t="str">
+      <c r="J86" s="17" t="str">
         <f aca="true">IF(M86="", IF(O86="","",ROUND(X86+(INDIRECT("S" &amp; ROW() - 1) - S86),0)),IF(O86="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S86,0)))</f>
         <v/>
       </c>
-      <c r="K86" s="17" t="str">
+      <c r="K86" s="18" t="str">
         <f aca="false">IF(H86="", "", IF(H86="-","",VLOOKUP(H86, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M86" s="19"/>
-      <c r="N86" s="18" t="str">
+      <c r="M86" s="20"/>
+      <c r="N86" s="19" t="str">
         <f aca="false">IF(M86="", IF(X86=0, "", X86), IF(V86 = "", "", IF(V86/U86 = 0, "", V86/U86)))</f>
         <v/>
       </c>
@@ -5144,16 +5187,16 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J87" s="9" t="str">
+      <c r="J87" s="17" t="str">
         <f aca="true">IF(M87="", IF(O87="","",ROUND(X87+(INDIRECT("S" &amp; ROW() - 1) - S87),0)),IF(O87="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S87,0)))</f>
         <v/>
       </c>
-      <c r="K87" s="17" t="str">
+      <c r="K87" s="18" t="str">
         <f aca="false">IF(H87="", "", IF(H87="-","",VLOOKUP(H87, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M87" s="19"/>
-      <c r="N87" s="18" t="str">
+      <c r="M87" s="20"/>
+      <c r="N87" s="19" t="str">
         <f aca="false">IF(M87="", IF(X87=0, "", X87), IF(V87 = "", "", IF(V87/U87 = 0, "", V87/U87)))</f>
         <v/>
       </c>
@@ -5195,16 +5238,16 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J88" s="9" t="str">
+      <c r="J88" s="17" t="str">
         <f aca="true">IF(M88="", IF(O88="","",ROUND(X88+(INDIRECT("S" &amp; ROW() - 1) - S88),0)),IF(O88="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S88,0)))</f>
         <v/>
       </c>
-      <c r="K88" s="17" t="str">
+      <c r="K88" s="18" t="str">
         <f aca="false">IF(H88="", "", IF(H88="-","",VLOOKUP(H88, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M88" s="19"/>
-      <c r="N88" s="18" t="str">
+      <c r="M88" s="20"/>
+      <c r="N88" s="19" t="str">
         <f aca="false">IF(M88="", IF(X88=0, "", X88), IF(V88 = "", "", IF(V88/U88 = 0, "", V88/U88)))</f>
         <v/>
       </c>
@@ -5246,16 +5289,16 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J89" s="9" t="str">
+      <c r="J89" s="17" t="str">
         <f aca="true">IF(M89="", IF(O89="","",ROUND(X89+(INDIRECT("S" &amp; ROW() - 1) - S89),0)),IF(O89="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S89,0)))</f>
         <v/>
       </c>
-      <c r="K89" s="17" t="str">
+      <c r="K89" s="18" t="str">
         <f aca="false">IF(H89="", "", IF(H89="-","",VLOOKUP(H89, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M89" s="19"/>
-      <c r="N89" s="18" t="str">
+      <c r="M89" s="20"/>
+      <c r="N89" s="19" t="str">
         <f aca="false">IF(M89="", IF(X89=0, "", X89), IF(V89 = "", "", IF(V89/U89 = 0, "", V89/U89)))</f>
         <v/>
       </c>
@@ -5297,16 +5340,16 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J90" s="9" t="str">
+      <c r="J90" s="17" t="str">
         <f aca="true">IF(M90="", IF(O90="","",ROUND(X90+(INDIRECT("S" &amp; ROW() - 1) - S90),0)),IF(O90="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S90,0)))</f>
         <v/>
       </c>
-      <c r="K90" s="17" t="str">
+      <c r="K90" s="18" t="str">
         <f aca="false">IF(H90="", "", IF(H90="-","",VLOOKUP(H90, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M90" s="19"/>
-      <c r="N90" s="18" t="str">
+      <c r="M90" s="20"/>
+      <c r="N90" s="19" t="str">
         <f aca="false">IF(M90="", IF(X90=0, "", X90), IF(V90 = "", "", IF(V90/U90 = 0, "", V90/U90)))</f>
         <v/>
       </c>
@@ -5348,16 +5391,16 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J91" s="9" t="str">
+      <c r="J91" s="17" t="str">
         <f aca="true">IF(M91="", IF(O91="","",ROUND(X91+(INDIRECT("S" &amp; ROW() - 1) - S91),0)),IF(O91="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S91,0)))</f>
         <v/>
       </c>
-      <c r="K91" s="17" t="str">
+      <c r="K91" s="18" t="str">
         <f aca="false">IF(H91="", "", IF(H91="-","",VLOOKUP(H91, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M91" s="19"/>
-      <c r="N91" s="18" t="str">
+      <c r="M91" s="20"/>
+      <c r="N91" s="19" t="str">
         <f aca="false">IF(M91="", IF(X91=0, "", X91), IF(V91 = "", "", IF(V91/U91 = 0, "", V91/U91)))</f>
         <v/>
       </c>
@@ -5399,16 +5442,16 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J92" s="9" t="str">
+      <c r="J92" s="17" t="str">
         <f aca="true">IF(M92="", IF(O92="","",ROUND(X92+(INDIRECT("S" &amp; ROW() - 1) - S92),0)),IF(O92="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S92,0)))</f>
         <v/>
       </c>
-      <c r="K92" s="17" t="str">
+      <c r="K92" s="18" t="str">
         <f aca="false">IF(H92="", "", IF(H92="-","",VLOOKUP(H92, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M92" s="19"/>
-      <c r="N92" s="18" t="str">
+      <c r="M92" s="20"/>
+      <c r="N92" s="19" t="str">
         <f aca="false">IF(M92="", IF(X92=0, "", X92), IF(V92 = "", "", IF(V92/U92 = 0, "", V92/U92)))</f>
         <v/>
       </c>
@@ -5450,16 +5493,16 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J93" s="9" t="str">
+      <c r="J93" s="17" t="str">
         <f aca="true">IF(M93="", IF(O93="","",ROUND(X93+(INDIRECT("S" &amp; ROW() - 1) - S93),0)),IF(O93="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S93,0)))</f>
         <v/>
       </c>
-      <c r="K93" s="17" t="str">
+      <c r="K93" s="18" t="str">
         <f aca="false">IF(H93="", "", IF(H93="-","",VLOOKUP(H93, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M93" s="19"/>
-      <c r="N93" s="18" t="str">
+      <c r="M93" s="20"/>
+      <c r="N93" s="19" t="str">
         <f aca="false">IF(M93="", IF(X93=0, "", X93), IF(V93 = "", "", IF(V93/U93 = 0, "", V93/U93)))</f>
         <v/>
       </c>
@@ -5501,16 +5544,16 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J94" s="9" t="str">
+      <c r="J94" s="17" t="str">
         <f aca="true">IF(M94="", IF(O94="","",ROUND(X94+(INDIRECT("S" &amp; ROW() - 1) - S94),0)),IF(O94="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S94,0)))</f>
         <v/>
       </c>
-      <c r="K94" s="17" t="str">
+      <c r="K94" s="18" t="str">
         <f aca="false">IF(H94="", "", IF(H94="-","",VLOOKUP(H94, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M94" s="19"/>
-      <c r="N94" s="18" t="str">
+      <c r="M94" s="20"/>
+      <c r="N94" s="19" t="str">
         <f aca="false">IF(M94="", IF(X94=0, "", X94), IF(V94 = "", "", IF(V94/U94 = 0, "", V94/U94)))</f>
         <v/>
       </c>
@@ -5552,16 +5595,16 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J95" s="9" t="str">
+      <c r="J95" s="17" t="str">
         <f aca="true">IF(M95="", IF(O95="","",ROUND(X95+(INDIRECT("S" &amp; ROW() - 1) - S95),0)),IF(O95="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S95,0)))</f>
         <v/>
       </c>
-      <c r="K95" s="17" t="str">
+      <c r="K95" s="18" t="str">
         <f aca="false">IF(H95="", "", IF(H95="-","",VLOOKUP(H95, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M95" s="19"/>
-      <c r="N95" s="18" t="str">
+      <c r="M95" s="20"/>
+      <c r="N95" s="19" t="str">
         <f aca="false">IF(M95="", IF(X95=0, "", X95), IF(V95 = "", "", IF(V95/U95 = 0, "", V95/U95)))</f>
         <v/>
       </c>
@@ -5603,16 +5646,16 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J96" s="9" t="str">
+      <c r="J96" s="17" t="str">
         <f aca="true">IF(M96="", IF(O96="","",ROUND(X96+(INDIRECT("S" &amp; ROW() - 1) - S96),0)),IF(O96="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S96,0)))</f>
         <v/>
       </c>
-      <c r="K96" s="17" t="str">
+      <c r="K96" s="18" t="str">
         <f aca="false">IF(H96="", "", IF(H96="-","",VLOOKUP(H96, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M96" s="19"/>
-      <c r="N96" s="18" t="str">
+      <c r="M96" s="20"/>
+      <c r="N96" s="19" t="str">
         <f aca="false">IF(M96="", IF(X96=0, "", X96), IF(V96 = "", "", IF(V96/U96 = 0, "", V96/U96)))</f>
         <v/>
       </c>
@@ -5654,16 +5697,16 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J97" s="9" t="str">
+      <c r="J97" s="17" t="str">
         <f aca="true">IF(M97="", IF(O97="","",ROUND(X97+(INDIRECT("S" &amp; ROW() - 1) - S97),0)),IF(O97="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S97,0)))</f>
         <v/>
       </c>
-      <c r="K97" s="17" t="str">
+      <c r="K97" s="18" t="str">
         <f aca="false">IF(H97="", "", IF(H97="-","",VLOOKUP(H97, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M97" s="19"/>
-      <c r="N97" s="18" t="str">
+      <c r="M97" s="20"/>
+      <c r="N97" s="19" t="str">
         <f aca="false">IF(M97="", IF(X97=0, "", X97), IF(V97 = "", "", IF(V97/U97 = 0, "", V97/U97)))</f>
         <v/>
       </c>
@@ -5705,16 +5748,16 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J98" s="9" t="str">
+      <c r="J98" s="17" t="str">
         <f aca="true">IF(M98="", IF(O98="","",ROUND(X98+(INDIRECT("S" &amp; ROW() - 1) - S98),0)),IF(O98="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S98,0)))</f>
         <v/>
       </c>
-      <c r="K98" s="17" t="str">
+      <c r="K98" s="18" t="str">
         <f aca="false">IF(H98="", "", IF(H98="-","",VLOOKUP(H98, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M98" s="19"/>
-      <c r="N98" s="18" t="str">
+      <c r="M98" s="20"/>
+      <c r="N98" s="19" t="str">
         <f aca="false">IF(M98="", IF(X98=0, "", X98), IF(V98 = "", "", IF(V98/U98 = 0, "", V98/U98)))</f>
         <v/>
       </c>
@@ -5756,16 +5799,16 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J99" s="9" t="str">
+      <c r="J99" s="17" t="str">
         <f aca="true">IF(M99="", IF(O99="","",ROUND(X99+(INDIRECT("S" &amp; ROW() - 1) - S99),0)),IF(O99="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S99,0)))</f>
         <v/>
       </c>
-      <c r="K99" s="17" t="str">
+      <c r="K99" s="18" t="str">
         <f aca="false">IF(H99="", "", IF(H99="-","",VLOOKUP(H99, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M99" s="19"/>
-      <c r="N99" s="18" t="str">
+      <c r="M99" s="20"/>
+      <c r="N99" s="19" t="str">
         <f aca="false">IF(M99="", IF(X99=0, "", X99), IF(V99 = "", "", IF(V99/U99 = 0, "", V99/U99)))</f>
         <v/>
       </c>
@@ -5807,16 +5850,16 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J100" s="9" t="str">
+      <c r="J100" s="17" t="str">
         <f aca="true">IF(M100="", IF(O100="","",ROUND(X100+(INDIRECT("S" &amp; ROW() - 1) - S100),0)),IF(O100="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S100,0)))</f>
         <v/>
       </c>
-      <c r="K100" s="17" t="str">
+      <c r="K100" s="18" t="str">
         <f aca="false">IF(H100="", "", IF(H100="-","",VLOOKUP(H100, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M100" s="19"/>
-      <c r="N100" s="18" t="str">
+      <c r="M100" s="20"/>
+      <c r="N100" s="19" t="str">
         <f aca="false">IF(M100="", IF(X100=0, "", X100), IF(V100 = "", "", IF(V100/U100 = 0, "", V100/U100)))</f>
         <v/>
       </c>
@@ -5858,16 +5901,16 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J101" s="9" t="str">
+      <c r="J101" s="17" t="str">
         <f aca="true">IF(M101="", IF(O101="","",ROUND(X101+(INDIRECT("S" &amp; ROW() - 1) - S101),0)),IF(O101="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S101,0)))</f>
         <v/>
       </c>
-      <c r="K101" s="17" t="str">
+      <c r="K101" s="18" t="str">
         <f aca="false">IF(H101="", "", IF(H101="-","",VLOOKUP(H101, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M101" s="19"/>
-      <c r="N101" s="18" t="str">
+      <c r="M101" s="20"/>
+      <c r="N101" s="19" t="str">
         <f aca="false">IF(M101="", IF(X101=0, "", X101), IF(V101 = "", "", IF(V101/U101 = 0, "", V101/U101)))</f>
         <v/>
       </c>
@@ -5909,16 +5952,16 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J102" s="9" t="str">
+      <c r="J102" s="17" t="str">
         <f aca="true">IF(M102="", IF(O102="","",ROUND(X102+(INDIRECT("S" &amp; ROW() - 1) - S102),0)),IF(O102="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S102,0)))</f>
         <v/>
       </c>
-      <c r="K102" s="17" t="str">
+      <c r="K102" s="18" t="str">
         <f aca="false">IF(H102="", "", IF(H102="-","",VLOOKUP(H102, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M102" s="19"/>
-      <c r="N102" s="18" t="str">
+      <c r="M102" s="20"/>
+      <c r="N102" s="19" t="str">
         <f aca="false">IF(M102="", IF(X102=0, "", X102), IF(V102 = "", "", IF(V102/U102 = 0, "", V102/U102)))</f>
         <v/>
       </c>
@@ -5960,16 +6003,16 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J103" s="9" t="str">
+      <c r="J103" s="17" t="str">
         <f aca="true">IF(M103="", IF(O103="","",ROUND(X103+(INDIRECT("S" &amp; ROW() - 1) - S103),0)),IF(O103="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S103,0)))</f>
         <v/>
       </c>
-      <c r="K103" s="17" t="str">
+      <c r="K103" s="18" t="str">
         <f aca="false">IF(H103="", "", IF(H103="-","",VLOOKUP(H103, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M103" s="19"/>
-      <c r="N103" s="18" t="str">
+      <c r="M103" s="20"/>
+      <c r="N103" s="19" t="str">
         <f aca="false">IF(M103="", IF(X103=0, "", X103), IF(V103 = "", "", IF(V103/U103 = 0, "", V103/U103)))</f>
         <v/>
       </c>
@@ -6011,16 +6054,16 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J104" s="9" t="str">
+      <c r="J104" s="17" t="str">
         <f aca="true">IF(M104="", IF(O104="","",ROUND(X104+(INDIRECT("S" &amp; ROW() - 1) - S104),0)),IF(O104="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S104,0)))</f>
         <v/>
       </c>
-      <c r="K104" s="17" t="str">
+      <c r="K104" s="18" t="str">
         <f aca="false">IF(H104="", "", IF(H104="-","",VLOOKUP(H104, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M104" s="19"/>
-      <c r="N104" s="18" t="str">
+      <c r="M104" s="20"/>
+      <c r="N104" s="19" t="str">
         <f aca="false">IF(M104="", IF(X104=0, "", X104), IF(V104 = "", "", IF(V104/U104 = 0, "", V104/U104)))</f>
         <v/>
       </c>
@@ -6062,16 +6105,16 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J105" s="9" t="str">
+      <c r="J105" s="17" t="str">
         <f aca="true">IF(M105="", IF(O105="","",ROUND(X105+(INDIRECT("S" &amp; ROW() - 1) - S105),0)),IF(O105="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S105,0)))</f>
         <v/>
       </c>
-      <c r="K105" s="17" t="str">
+      <c r="K105" s="18" t="str">
         <f aca="false">IF(H105="", "", IF(H105="-","",VLOOKUP(H105, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M105" s="19"/>
-      <c r="N105" s="18" t="str">
+      <c r="M105" s="20"/>
+      <c r="N105" s="19" t="str">
         <f aca="false">IF(M105="", IF(X105=0, "", X105), IF(V105 = "", "", IF(V105/U105 = 0, "", V105/U105)))</f>
         <v/>
       </c>
@@ -6113,16 +6156,16 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J106" s="9" t="str">
+      <c r="J106" s="17" t="str">
         <f aca="true">IF(M106="", IF(O106="","",ROUND(X106+(INDIRECT("S" &amp; ROW() - 1) - S106),0)),IF(O106="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S106,0)))</f>
         <v/>
       </c>
-      <c r="K106" s="17" t="str">
+      <c r="K106" s="18" t="str">
         <f aca="false">IF(H106="", "", IF(H106="-","",VLOOKUP(H106, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M106" s="19"/>
-      <c r="N106" s="18" t="str">
+      <c r="M106" s="20"/>
+      <c r="N106" s="19" t="str">
         <f aca="false">IF(M106="", IF(X106=0, "", X106), IF(V106 = "", "", IF(V106/U106 = 0, "", V106/U106)))</f>
         <v/>
       </c>
@@ -6164,16 +6207,16 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J107" s="9" t="str">
+      <c r="J107" s="17" t="str">
         <f aca="true">IF(M107="", IF(O107="","",ROUND(X107+(INDIRECT("S" &amp; ROW() - 1) - S107),0)),IF(O107="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S107,0)))</f>
         <v/>
       </c>
-      <c r="K107" s="17" t="str">
+      <c r="K107" s="18" t="str">
         <f aca="false">IF(H107="", "", IF(H107="-","",VLOOKUP(H107, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M107" s="19"/>
-      <c r="N107" s="18" t="str">
+      <c r="M107" s="20"/>
+      <c r="N107" s="19" t="str">
         <f aca="false">IF(M107="", IF(X107=0, "", X107), IF(V107 = "", "", IF(V107/U107 = 0, "", V107/U107)))</f>
         <v/>
       </c>
@@ -6215,16 +6258,16 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J108" s="9" t="str">
+      <c r="J108" s="17" t="str">
         <f aca="true">IF(M108="", IF(O108="","",ROUND(X108+(INDIRECT("S" &amp; ROW() - 1) - S108),0)),IF(O108="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S108,0)))</f>
         <v/>
       </c>
-      <c r="K108" s="17" t="str">
+      <c r="K108" s="18" t="str">
         <f aca="false">IF(H108="", "", IF(H108="-","",VLOOKUP(H108, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M108" s="19"/>
-      <c r="N108" s="18" t="str">
+      <c r="M108" s="20"/>
+      <c r="N108" s="19" t="str">
         <f aca="false">IF(M108="", IF(X108=0, "", X108), IF(V108 = "", "", IF(V108/U108 = 0, "", V108/U108)))</f>
         <v/>
       </c>
@@ -6266,16 +6309,16 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J109" s="9" t="str">
+      <c r="J109" s="17" t="str">
         <f aca="true">IF(M109="", IF(O109="","",ROUND(X109+(INDIRECT("S" &amp; ROW() - 1) - S109),0)),IF(O109="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S109,0)))</f>
         <v/>
       </c>
-      <c r="K109" s="17" t="str">
+      <c r="K109" s="18" t="str">
         <f aca="false">IF(H109="", "", IF(H109="-","",VLOOKUP(H109, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M109" s="19"/>
-      <c r="N109" s="18" t="str">
+      <c r="M109" s="20"/>
+      <c r="N109" s="19" t="str">
         <f aca="false">IF(M109="", IF(X109=0, "", X109), IF(V109 = "", "", IF(V109/U109 = 0, "", V109/U109)))</f>
         <v/>
       </c>
@@ -6317,16 +6360,16 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J110" s="9" t="str">
+      <c r="J110" s="17" t="str">
         <f aca="true">IF(M110="", IF(O110="","",ROUND(X110+(INDIRECT("S" &amp; ROW() - 1) - S110),0)),IF(O110="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S110,0)))</f>
         <v/>
       </c>
-      <c r="K110" s="17" t="str">
+      <c r="K110" s="18" t="str">
         <f aca="false">IF(H110="", "", IF(H110="-","",VLOOKUP(H110, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M110" s="19"/>
-      <c r="N110" s="18" t="str">
+      <c r="M110" s="20"/>
+      <c r="N110" s="19" t="str">
         <f aca="false">IF(M110="", IF(X110=0, "", X110), IF(V110 = "", "", IF(V110/U110 = 0, "", V110/U110)))</f>
         <v/>
       </c>
@@ -6368,16 +6411,16 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J111" s="9" t="str">
+      <c r="J111" s="17" t="str">
         <f aca="true">IF(M111="", IF(O111="","",ROUND(X111+(INDIRECT("S" &amp; ROW() - 1) - S111),0)),IF(O111="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S111,0)))</f>
         <v/>
       </c>
-      <c r="K111" s="17" t="str">
+      <c r="K111" s="18" t="str">
         <f aca="false">IF(H111="", "", IF(H111="-","",VLOOKUP(H111, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M111" s="19"/>
-      <c r="N111" s="18" t="str">
+      <c r="M111" s="20"/>
+      <c r="N111" s="19" t="str">
         <f aca="false">IF(M111="", IF(X111=0, "", X111), IF(V111 = "", "", IF(V111/U111 = 0, "", V111/U111)))</f>
         <v/>
       </c>
@@ -6419,16 +6462,16 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J112" s="9" t="str">
+      <c r="J112" s="17" t="str">
         <f aca="true">IF(M112="", IF(O112="","",ROUND(X112+(INDIRECT("S" &amp; ROW() - 1) - S112),0)),IF(O112="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S112,0)))</f>
         <v/>
       </c>
-      <c r="K112" s="17" t="str">
+      <c r="K112" s="18" t="str">
         <f aca="false">IF(H112="", "", IF(H112="-","",VLOOKUP(H112, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M112" s="19"/>
-      <c r="N112" s="18" t="str">
+      <c r="M112" s="20"/>
+      <c r="N112" s="19" t="str">
         <f aca="false">IF(M112="", IF(X112=0, "", X112), IF(V112 = "", "", IF(V112/U112 = 0, "", V112/U112)))</f>
         <v/>
       </c>
@@ -6470,16 +6513,16 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J113" s="9" t="str">
+      <c r="J113" s="17" t="str">
         <f aca="true">IF(M113="", IF(O113="","",ROUND(X113+(INDIRECT("S" &amp; ROW() - 1) - S113),0)),IF(O113="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S113,0)))</f>
         <v/>
       </c>
-      <c r="K113" s="17" t="str">
+      <c r="K113" s="18" t="str">
         <f aca="false">IF(H113="", "", IF(H113="-","",VLOOKUP(H113, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M113" s="19"/>
-      <c r="N113" s="18" t="str">
+      <c r="M113" s="20"/>
+      <c r="N113" s="19" t="str">
         <f aca="false">IF(M113="", IF(X113=0, "", X113), IF(V113 = "", "", IF(V113/U113 = 0, "", V113/U113)))</f>
         <v/>
       </c>
@@ -6521,16 +6564,16 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J114" s="9" t="str">
+      <c r="J114" s="17" t="str">
         <f aca="true">IF(M114="", IF(O114="","",ROUND(X114+(INDIRECT("S" &amp; ROW() - 1) - S114),0)),IF(O114="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S114,0)))</f>
         <v/>
       </c>
-      <c r="K114" s="17" t="str">
+      <c r="K114" s="18" t="str">
         <f aca="false">IF(H114="", "", IF(H114="-","",VLOOKUP(H114, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M114" s="19"/>
-      <c r="N114" s="18" t="str">
+      <c r="M114" s="20"/>
+      <c r="N114" s="19" t="str">
         <f aca="false">IF(M114="", IF(X114=0, "", X114), IF(V114 = "", "", IF(V114/U114 = 0, "", V114/U114)))</f>
         <v/>
       </c>
@@ -6572,16 +6615,16 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J115" s="9" t="str">
+      <c r="J115" s="17" t="str">
         <f aca="true">IF(M115="", IF(O115="","",ROUND(X115+(INDIRECT("S" &amp; ROW() - 1) - S115),0)),IF(O115="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S115,0)))</f>
         <v/>
       </c>
-      <c r="K115" s="17" t="str">
+      <c r="K115" s="18" t="str">
         <f aca="false">IF(H115="", "", IF(H115="-","",VLOOKUP(H115, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M115" s="19"/>
-      <c r="N115" s="18" t="str">
+      <c r="M115" s="20"/>
+      <c r="N115" s="19" t="str">
         <f aca="false">IF(M115="", IF(X115=0, "", X115), IF(V115 = "", "", IF(V115/U115 = 0, "", V115/U115)))</f>
         <v/>
       </c>
@@ -6623,16 +6666,16 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J116" s="9" t="str">
+      <c r="J116" s="17" t="str">
         <f aca="true">IF(M116="", IF(O116="","",ROUND(X116+(INDIRECT("S" &amp; ROW() - 1) - S116),0)),IF(O116="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S116,0)))</f>
         <v/>
       </c>
-      <c r="K116" s="17" t="str">
+      <c r="K116" s="18" t="str">
         <f aca="false">IF(H116="", "", IF(H116="-","",VLOOKUP(H116, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M116" s="19"/>
-      <c r="N116" s="18" t="str">
+      <c r="M116" s="20"/>
+      <c r="N116" s="19" t="str">
         <f aca="false">IF(M116="", IF(X116=0, "", X116), IF(V116 = "", "", IF(V116/U116 = 0, "", V116/U116)))</f>
         <v/>
       </c>
@@ -6674,16 +6717,16 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J117" s="9" t="str">
+      <c r="J117" s="17" t="str">
         <f aca="true">IF(M117="", IF(O117="","",ROUND(X117+(INDIRECT("S" &amp; ROW() - 1) - S117),0)),IF(O117="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S117,0)))</f>
         <v/>
       </c>
-      <c r="K117" s="17" t="str">
+      <c r="K117" s="18" t="str">
         <f aca="false">IF(H117="", "", IF(H117="-","",VLOOKUP(H117, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M117" s="19"/>
-      <c r="N117" s="18" t="str">
+      <c r="M117" s="20"/>
+      <c r="N117" s="19" t="str">
         <f aca="false">IF(M117="", IF(X117=0, "", X117), IF(V117 = "", "", IF(V117/U117 = 0, "", V117/U117)))</f>
         <v/>
       </c>
@@ -6725,16 +6768,16 @@
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J118" s="9" t="str">
+      <c r="J118" s="17" t="str">
         <f aca="true">IF(M118="", IF(O118="","",ROUND(X118+(INDIRECT("S" &amp; ROW() - 1) - S118),0)),IF(O118="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S118,0)))</f>
         <v/>
       </c>
-      <c r="K118" s="17" t="str">
+      <c r="K118" s="18" t="str">
         <f aca="false">IF(H118="", "", IF(H118="-","",VLOOKUP(H118, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M118" s="19"/>
-      <c r="N118" s="18" t="str">
+      <c r="M118" s="20"/>
+      <c r="N118" s="19" t="str">
         <f aca="false">IF(M118="", IF(X118=0, "", X118), IF(V118 = "", "", IF(V118/U118 = 0, "", V118/U118)))</f>
         <v/>
       </c>
@@ -6776,16 +6819,16 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J119" s="9" t="str">
+      <c r="J119" s="17" t="str">
         <f aca="true">IF(M119="", IF(O119="","",ROUND(X119+(INDIRECT("S" &amp; ROW() - 1) - S119),0)),IF(O119="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S119,0)))</f>
         <v/>
       </c>
-      <c r="K119" s="17" t="str">
+      <c r="K119" s="18" t="str">
         <f aca="false">IF(H119="", "", IF(H119="-","",VLOOKUP(H119, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M119" s="19"/>
-      <c r="N119" s="18" t="str">
+      <c r="M119" s="20"/>
+      <c r="N119" s="19" t="str">
         <f aca="false">IF(M119="", IF(X119=0, "", X119), IF(V119 = "", "", IF(V119/U119 = 0, "", V119/U119)))</f>
         <v/>
       </c>
@@ -6827,16 +6870,16 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J120" s="9" t="str">
+      <c r="J120" s="17" t="str">
         <f aca="true">IF(M120="", IF(O120="","",ROUND(X120+(INDIRECT("S" &amp; ROW() - 1) - S120),0)),IF(O120="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S120,0)))</f>
         <v/>
       </c>
-      <c r="K120" s="17" t="str">
+      <c r="K120" s="18" t="str">
         <f aca="false">IF(H120="", "", IF(H120="-","",VLOOKUP(H120, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M120" s="19"/>
-      <c r="N120" s="18" t="str">
+      <c r="M120" s="20"/>
+      <c r="N120" s="19" t="str">
         <f aca="false">IF(M120="", IF(X120=0, "", X120), IF(V120 = "", "", IF(V120/U120 = 0, "", V120/U120)))</f>
         <v/>
       </c>
@@ -6878,16 +6921,16 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J121" s="9" t="str">
+      <c r="J121" s="17" t="str">
         <f aca="true">IF(M121="", IF(O121="","",ROUND(X121+(INDIRECT("S" &amp; ROW() - 1) - S121),0)),IF(O121="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S121,0)))</f>
         <v/>
       </c>
-      <c r="K121" s="17" t="str">
+      <c r="K121" s="18" t="str">
         <f aca="false">IF(H121="", "", IF(H121="-","",VLOOKUP(H121, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M121" s="19"/>
-      <c r="N121" s="18" t="str">
+      <c r="M121" s="20"/>
+      <c r="N121" s="19" t="str">
         <f aca="false">IF(M121="", IF(X121=0, "", X121), IF(V121 = "", "", IF(V121/U121 = 0, "", V121/U121)))</f>
         <v/>
       </c>
@@ -6929,16 +6972,16 @@
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J122" s="9" t="str">
+      <c r="J122" s="17" t="str">
         <f aca="true">IF(M122="", IF(O122="","",ROUND(X122+(INDIRECT("S" &amp; ROW() - 1) - S122),0)),IF(O122="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S122,0)))</f>
         <v/>
       </c>
-      <c r="K122" s="17" t="str">
+      <c r="K122" s="18" t="str">
         <f aca="false">IF(H122="", "", IF(H122="-","",VLOOKUP(H122, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M122" s="19"/>
-      <c r="N122" s="18" t="str">
+      <c r="M122" s="20"/>
+      <c r="N122" s="19" t="str">
         <f aca="false">IF(M122="", IF(X122=0, "", X122), IF(V122 = "", "", IF(V122/U122 = 0, "", V122/U122)))</f>
         <v/>
       </c>
@@ -6980,673 +7023,673 @@
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J123" s="9" t="str">
+      <c r="J123" s="17" t="str">
         <f aca="true">IF(M123="", IF(O123="","",ROUND(X123+(INDIRECT("S" &amp; ROW() - 1) - S123),0)),IF(O123="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S123,0)))</f>
         <v/>
       </c>
-      <c r="K123" s="17" t="str">
+      <c r="K123" s="18" t="str">
         <f aca="false">IF(H123="", "", IF(H123="-","",VLOOKUP(H123, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J124" s="9" t="str">
+      <c r="J124" s="17" t="str">
         <f aca="true">IF(M124="", IF(O124="","",ROUND(X124+(INDIRECT("S" &amp; ROW() - 1) - S124),0)),IF(O124="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S124,0)))</f>
         <v/>
       </c>
-      <c r="K124" s="17" t="str">
+      <c r="K124" s="18" t="str">
         <f aca="false">IF(H124="", "", IF(H124="-","",VLOOKUP(H124, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J125" s="9" t="str">
+      <c r="J125" s="17" t="str">
         <f aca="true">IF(M125="", IF(O125="","",ROUND(X125+(INDIRECT("S" &amp; ROW() - 1) - S125),0)),IF(O125="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S125,0)))</f>
         <v/>
       </c>
-      <c r="K125" s="17" t="str">
+      <c r="K125" s="18" t="str">
         <f aca="false">IF(H125="", "", IF(H125="-","",VLOOKUP(H125, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J126" s="9" t="str">
+      <c r="J126" s="17" t="str">
         <f aca="true">IF(M126="", IF(O126="","",ROUND(X126+(INDIRECT("S" &amp; ROW() - 1) - S126),0)),IF(O126="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S126,0)))</f>
         <v/>
       </c>
-      <c r="K126" s="17" t="str">
+      <c r="K126" s="18" t="str">
         <f aca="false">IF(H126="", "", IF(H126="-","",VLOOKUP(H126, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J127" s="9" t="str">
+      <c r="J127" s="17" t="str">
         <f aca="true">IF(M127="", IF(O127="","",ROUND(X127+(INDIRECT("S" &amp; ROW() - 1) - S127),0)),IF(O127="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S127,0)))</f>
         <v/>
       </c>
-      <c r="K127" s="17" t="str">
+      <c r="K127" s="18" t="str">
         <f aca="false">IF(H127="", "", IF(H127="-","",VLOOKUP(H127, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J128" s="9" t="str">
+      <c r="J128" s="17" t="str">
         <f aca="true">IF(M128="", IF(O128="","",ROUND(X128+(INDIRECT("S" &amp; ROW() - 1) - S128),0)),IF(O128="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S128,0)))</f>
         <v/>
       </c>
-      <c r="K128" s="17" t="str">
+      <c r="K128" s="18" t="str">
         <f aca="false">IF(H128="", "", IF(H128="-","",VLOOKUP(H128, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J129" s="9" t="str">
+      <c r="J129" s="17" t="str">
         <f aca="true">IF(M129="", IF(O129="","",ROUND(X129+(INDIRECT("S" &amp; ROW() - 1) - S129),0)),IF(O129="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S129,0)))</f>
         <v/>
       </c>
-      <c r="K129" s="17" t="str">
+      <c r="K129" s="18" t="str">
         <f aca="false">IF(H129="", "", IF(H129="-","",VLOOKUP(H129, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J130" s="9" t="str">
+      <c r="J130" s="17" t="str">
         <f aca="true">IF(M130="", IF(O130="","",ROUND(X130+(INDIRECT("S" &amp; ROW() - 1) - S130),0)),IF(O130="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S130,0)))</f>
         <v/>
       </c>
-      <c r="K130" s="17" t="str">
+      <c r="K130" s="18" t="str">
         <f aca="false">IF(H130="", "", IF(H130="-","",VLOOKUP(H130, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J131" s="9" t="str">
+      <c r="J131" s="17" t="str">
         <f aca="true">IF(M131="", IF(O131="","",ROUND(X131+(INDIRECT("S" &amp; ROW() - 1) - S131),0)),IF(O131="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S131,0)))</f>
         <v/>
       </c>
-      <c r="K131" s="17" t="str">
+      <c r="K131" s="18" t="str">
         <f aca="false">IF(H131="", "", IF(H131="-","",VLOOKUP(H131, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J132" s="9" t="str">
+      <c r="J132" s="17" t="str">
         <f aca="true">IF(M132="", IF(O132="","",ROUND(X132+(INDIRECT("S" &amp; ROW() - 1) - S132),0)),IF(O132="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S132,0)))</f>
         <v/>
       </c>
-      <c r="K132" s="17" t="str">
+      <c r="K132" s="18" t="str">
         <f aca="false">IF(H132="", "", IF(H132="-","",VLOOKUP(H132, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J133" s="9" t="str">
+      <c r="J133" s="17" t="str">
         <f aca="true">IF(M133="", IF(O133="","",ROUND(X133+(INDIRECT("S" &amp; ROW() - 1) - S133),0)),IF(O133="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S133,0)))</f>
         <v/>
       </c>
-      <c r="K133" s="17" t="str">
+      <c r="K133" s="18" t="str">
         <f aca="false">IF(H133="", "", IF(H133="-","",VLOOKUP(H133, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J134" s="9" t="str">
+      <c r="J134" s="17" t="str">
         <f aca="true">IF(M134="", IF(O134="","",ROUND(X134+(INDIRECT("S" &amp; ROW() - 1) - S134),0)),IF(O134="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S134,0)))</f>
         <v/>
       </c>
-      <c r="K134" s="17" t="str">
+      <c r="K134" s="18" t="str">
         <f aca="false">IF(H134="", "", IF(H134="-","",VLOOKUP(H134, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J135" s="9" t="str">
+      <c r="J135" s="17" t="str">
         <f aca="true">IF(M135="", IF(O135="","",ROUND(X135+(INDIRECT("S" &amp; ROW() - 1) - S135),0)),IF(O135="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S135,0)))</f>
         <v/>
       </c>
-      <c r="K135" s="17" t="str">
+      <c r="K135" s="18" t="str">
         <f aca="false">IF(H135="", "", IF(H135="-","",VLOOKUP(H135, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J136" s="9" t="str">
+      <c r="J136" s="17" t="str">
         <f aca="true">IF(M136="", IF(O136="","",ROUND(X136+(INDIRECT("S" &amp; ROW() - 1) - S136),0)),IF(O136="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S136,0)))</f>
         <v/>
       </c>
-      <c r="K136" s="17" t="str">
+      <c r="K136" s="18" t="str">
         <f aca="false">IF(H136="", "", IF(H136="-","",VLOOKUP(H136, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J137" s="9" t="str">
+      <c r="J137" s="17" t="str">
         <f aca="true">IF(M137="", IF(O137="","",ROUND(X137+(INDIRECT("S" &amp; ROW() - 1) - S137),0)),IF(O137="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S137,0)))</f>
         <v/>
       </c>
-      <c r="K137" s="17" t="str">
+      <c r="K137" s="18" t="str">
         <f aca="false">IF(H137="", "", IF(H137="-","",VLOOKUP(H137, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J138" s="9" t="str">
+      <c r="J138" s="17" t="str">
         <f aca="true">IF(M138="", IF(O138="","",ROUND(X138+(INDIRECT("S" &amp; ROW() - 1) - S138),0)),IF(O138="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S138,0)))</f>
         <v/>
       </c>
-      <c r="K138" s="17" t="str">
+      <c r="K138" s="18" t="str">
         <f aca="false">IF(H138="", "", IF(H138="-","",VLOOKUP(H138, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J139" s="9" t="str">
+      <c r="J139" s="17" t="str">
         <f aca="true">IF(M139="", IF(O139="","",ROUND(X139+(INDIRECT("S" &amp; ROW() - 1) - S139),0)),IF(O139="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S139,0)))</f>
         <v/>
       </c>
-      <c r="K139" s="17" t="str">
+      <c r="K139" s="18" t="str">
         <f aca="false">IF(H139="", "", IF(H139="-","",VLOOKUP(H139, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J140" s="9" t="str">
+      <c r="J140" s="17" t="str">
         <f aca="true">IF(M140="", IF(O140="","",ROUND(X140+(INDIRECT("S" &amp; ROW() - 1) - S140),0)),IF(O140="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S140,0)))</f>
         <v/>
       </c>
-      <c r="K140" s="17" t="str">
+      <c r="K140" s="18" t="str">
         <f aca="false">IF(H140="", "", IF(H140="-","",VLOOKUP(H140, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J141" s="9" t="str">
+      <c r="J141" s="17" t="str">
         <f aca="true">IF(M141="", IF(O141="","",ROUND(X141+(INDIRECT("S" &amp; ROW() - 1) - S141),0)),IF(O141="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S141,0)))</f>
         <v/>
       </c>
-      <c r="K141" s="17" t="str">
+      <c r="K141" s="18" t="str">
         <f aca="false">IF(H141="", "", IF(H141="-","",VLOOKUP(H141, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J142" s="9" t="str">
+      <c r="J142" s="17" t="str">
         <f aca="true">IF(M142="", IF(O142="","",ROUND(X142+(INDIRECT("S" &amp; ROW() - 1) - S142),0)),IF(O142="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S142,0)))</f>
         <v/>
       </c>
-      <c r="K142" s="17" t="str">
+      <c r="K142" s="18" t="str">
         <f aca="false">IF(H142="", "", IF(H142="-","",VLOOKUP(H142, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J143" s="9" t="str">
+      <c r="J143" s="17" t="str">
         <f aca="true">IF(M143="", IF(O143="","",ROUND(X143+(INDIRECT("S" &amp; ROW() - 1) - S143),0)),IF(O143="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S143,0)))</f>
         <v/>
       </c>
-      <c r="K143" s="17" t="str">
+      <c r="K143" s="18" t="str">
         <f aca="false">IF(H143="", "", IF(H143="-","",VLOOKUP(H143, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J144" s="9" t="str">
+      <c r="J144" s="17" t="str">
         <f aca="true">IF(M144="", IF(O144="","",ROUND(X144+(INDIRECT("S" &amp; ROW() - 1) - S144),0)),IF(O144="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S144,0)))</f>
         <v/>
       </c>
-      <c r="K144" s="17" t="str">
+      <c r="K144" s="18" t="str">
         <f aca="false">IF(H144="", "", IF(H144="-","",VLOOKUP(H144, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J145" s="9" t="str">
+      <c r="J145" s="17" t="str">
         <f aca="true">IF(M145="", IF(O145="","",ROUND(X145+(INDIRECT("S" &amp; ROW() - 1) - S145),0)),IF(O145="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S145,0)))</f>
         <v/>
       </c>
-      <c r="K145" s="17" t="str">
+      <c r="K145" s="18" t="str">
         <f aca="false">IF(H145="", "", IF(H145="-","",VLOOKUP(H145, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J146" s="9" t="str">
+      <c r="J146" s="17" t="str">
         <f aca="true">IF(M146="", IF(O146="","",ROUND(X146+(INDIRECT("S" &amp; ROW() - 1) - S146),0)),IF(O146="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S146,0)))</f>
         <v/>
       </c>
-      <c r="K146" s="17" t="str">
+      <c r="K146" s="18" t="str">
         <f aca="false">IF(H146="", "", IF(H146="-","",VLOOKUP(H146, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J147" s="9" t="str">
+      <c r="J147" s="17" t="str">
         <f aca="true">IF(M147="", IF(O147="","",ROUND(X147+(INDIRECT("S" &amp; ROW() - 1) - S147),0)),IF(O147="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S147,0)))</f>
         <v/>
       </c>
-      <c r="K147" s="17" t="str">
+      <c r="K147" s="18" t="str">
         <f aca="false">IF(H147="", "", IF(H147="-","",VLOOKUP(H147, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J148" s="9" t="str">
+      <c r="J148" s="17" t="str">
         <f aca="true">IF(M148="", IF(O148="","",ROUND(X148+(INDIRECT("S" &amp; ROW() - 1) - S148),0)),IF(O148="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S148,0)))</f>
         <v/>
       </c>
-      <c r="K148" s="17" t="str">
+      <c r="K148" s="18" t="str">
         <f aca="false">IF(H148="", "", IF(H148="-","",VLOOKUP(H148, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J149" s="9" t="str">
+      <c r="J149" s="17" t="str">
         <f aca="true">IF(M149="", IF(O149="","",ROUND(X149+(INDIRECT("S" &amp; ROW() - 1) - S149),0)),IF(O149="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S149,0)))</f>
         <v/>
       </c>
-      <c r="K149" s="17" t="str">
+      <c r="K149" s="18" t="str">
         <f aca="false">IF(H149="", "", IF(H149="-","",VLOOKUP(H149, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J150" s="9" t="str">
+      <c r="J150" s="17" t="str">
         <f aca="true">IF(M150="", IF(O150="","",ROUND(X150+(INDIRECT("S" &amp; ROW() - 1) - S150),0)),IF(O150="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S150,0)))</f>
         <v/>
       </c>
-      <c r="K150" s="17" t="str">
+      <c r="K150" s="18" t="str">
         <f aca="false">IF(H150="", "", IF(H150="-","",VLOOKUP(H150, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J151" s="9" t="str">
+      <c r="J151" s="17" t="str">
         <f aca="true">IF(M151="", IF(O151="","",ROUND(X151+(INDIRECT("S" &amp; ROW() - 1) - S151),0)),IF(O151="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S151,0)))</f>
         <v/>
       </c>
-      <c r="K151" s="17" t="str">
+      <c r="K151" s="18" t="str">
         <f aca="false">IF(H151="", "", IF(H151="-","",VLOOKUP(H151, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J152" s="9" t="str">
+      <c r="J152" s="17" t="str">
         <f aca="true">IF(M152="", IF(O152="","",ROUND(X152+(INDIRECT("S" &amp; ROW() - 1) - S152),0)),IF(O152="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S152,0)))</f>
         <v/>
       </c>
-      <c r="K152" s="17" t="str">
+      <c r="K152" s="18" t="str">
         <f aca="false">IF(H152="", "", IF(H152="-","",VLOOKUP(H152, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J153" s="9" t="str">
+      <c r="J153" s="17" t="str">
         <f aca="true">IF(M153="", IF(O153="","",ROUND(X153+(INDIRECT("S" &amp; ROW() - 1) - S153),0)),IF(O153="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S153,0)))</f>
         <v/>
       </c>
-      <c r="K153" s="17" t="str">
+      <c r="K153" s="18" t="str">
         <f aca="false">IF(H153="", "", IF(H153="-","",VLOOKUP(H153, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J154" s="9" t="str">
+      <c r="J154" s="17" t="str">
         <f aca="true">IF(M154="", IF(O154="","",ROUND(X154+(INDIRECT("S" &amp; ROW() - 1) - S154),0)),IF(O154="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S154,0)))</f>
         <v/>
       </c>
-      <c r="K154" s="17" t="str">
+      <c r="K154" s="18" t="str">
         <f aca="false">IF(H154="", "", IF(H154="-","",VLOOKUP(H154, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J155" s="9" t="str">
+      <c r="J155" s="17" t="str">
         <f aca="true">IF(M155="", IF(O155="","",ROUND(X155+(INDIRECT("S" &amp; ROW() - 1) - S155),0)),IF(O155="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S155,0)))</f>
         <v/>
       </c>
-      <c r="K155" s="17" t="str">
+      <c r="K155" s="18" t="str">
         <f aca="false">IF(H155="", "", IF(H155="-","",VLOOKUP(H155, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="156" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K156" s="17" t="str">
+      <c r="K156" s="18" t="str">
         <f aca="false">IF(H156="", "", IF(H156="-","",VLOOKUP(H156, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="157" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K157" s="17" t="str">
+      <c r="K157" s="18" t="str">
         <f aca="false">IF(H157="", "", IF(H157="-","",VLOOKUP(H157, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="158" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K158" s="17" t="str">
+      <c r="K158" s="18" t="str">
         <f aca="false">IF(H158="", "", IF(H158="-","",VLOOKUP(H158, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="159" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K159" s="17" t="str">
+      <c r="K159" s="18" t="str">
         <f aca="false">IF(H159="", "", IF(H159="-","",VLOOKUP(H159, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="160" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K160" s="17" t="str">
+      <c r="K160" s="18" t="str">
         <f aca="false">IF(H160="", "", IF(H160="-","",VLOOKUP(H160, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="161" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K161" s="17" t="str">
+      <c r="K161" s="18" t="str">
         <f aca="false">IF(H161="", "", IF(H161="-","",VLOOKUP(H161, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="162" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K162" s="17" t="str">
+      <c r="K162" s="18" t="str">
         <f aca="false">IF(H162="", "", IF(H162="-","",VLOOKUP(H162, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="163" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K163" s="17" t="str">
+      <c r="K163" s="18" t="str">
         <f aca="false">IF(H163="", "", IF(H163="-","",VLOOKUP(H163, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="164" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K164" s="17" t="str">
+      <c r="K164" s="18" t="str">
         <f aca="false">IF(H164="", "", IF(H164="-","",VLOOKUP(H164, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="165" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K165" s="17" t="str">
+      <c r="K165" s="18" t="str">
         <f aca="false">IF(H165="", "", IF(H165="-","",VLOOKUP(H165, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="166" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K166" s="17" t="str">
+      <c r="K166" s="18" t="str">
         <f aca="false">IF(H166="", "", IF(H166="-","",VLOOKUP(H166, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="167" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K167" s="17" t="str">
+      <c r="K167" s="18" t="str">
         <f aca="false">IF(H167="", "", IF(H167="-","",VLOOKUP(H167, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="168" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K168" s="17" t="str">
+      <c r="K168" s="18" t="str">
         <f aca="false">IF(H168="", "", IF(H168="-","",VLOOKUP(H168, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="169" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K169" s="17" t="str">
+      <c r="K169" s="18" t="str">
         <f aca="false">IF(H169="", "", IF(H169="-","",VLOOKUP(H169, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="170" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K170" s="17" t="str">
+      <c r="K170" s="18" t="str">
         <f aca="false">IF(H170="", "", IF(H170="-","",VLOOKUP(H170, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="171" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K171" s="17" t="str">
+      <c r="K171" s="18" t="str">
         <f aca="false">IF(H171="", "", IF(H171="-","",VLOOKUP(H171, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="172" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K172" s="17" t="str">
+      <c r="K172" s="18" t="str">
         <f aca="false">IF(H172="", "", IF(H172="-","",VLOOKUP(H172, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="173" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K173" s="17" t="str">
+      <c r="K173" s="18" t="str">
         <f aca="false">IF(H173="", "", IF(H173="-","",VLOOKUP(H173, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="174" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K174" s="17" t="str">
+      <c r="K174" s="18" t="str">
         <f aca="false">IF(H174="", "", IF(H174="-","",VLOOKUP(H174, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="175" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K175" s="17" t="str">
+      <c r="K175" s="18" t="str">
         <f aca="false">IF(H175="", "", IF(H175="-","",VLOOKUP(H175, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="176" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K176" s="17" t="str">
+      <c r="K176" s="18" t="str">
         <f aca="false">IF(H176="", "", IF(H176="-","",VLOOKUP(H176, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="177" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K177" s="17" t="str">
+      <c r="K177" s="18" t="str">
         <f aca="false">IF(H177="", "", IF(H177="-","",VLOOKUP(H177, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="178" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K178" s="17" t="str">
+      <c r="K178" s="18" t="str">
         <f aca="false">IF(H178="", "", IF(H178="-","",VLOOKUP(H178, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="179" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K179" s="17" t="str">
+      <c r="K179" s="18" t="str">
         <f aca="false">IF(H179="", "", IF(H179="-","",VLOOKUP(H179, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="180" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K180" s="17" t="str">
+      <c r="K180" s="18" t="str">
         <f aca="false">IF(H180="", "", IF(H180="-","",VLOOKUP(H180, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="181" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K181" s="17" t="str">
+      <c r="K181" s="18" t="str">
         <f aca="false">IF(H181="", "", IF(H181="-","",VLOOKUP(H181, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="182" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K182" s="17" t="str">
+      <c r="K182" s="18" t="str">
         <f aca="false">IF(H182="", "", IF(H182="-","",VLOOKUP(H182, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="183" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K183" s="17" t="str">
+      <c r="K183" s="18" t="str">
         <f aca="false">IF(H183="", "", IF(H183="-","",VLOOKUP(H183, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="184" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K184" s="17" t="str">
+      <c r="K184" s="18" t="str">
         <f aca="false">IF(H184="", "", IF(H184="-","",VLOOKUP(H184, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="185" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K185" s="17" t="str">
+      <c r="K185" s="18" t="str">
         <f aca="false">IF(H185="", "", IF(H185="-","",VLOOKUP(H185, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="186" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K186" s="17" t="str">
+      <c r="K186" s="18" t="str">
         <f aca="false">IF(H186="", "", IF(H186="-","",VLOOKUP(H186, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="187" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K187" s="17" t="str">
+      <c r="K187" s="18" t="str">
         <f aca="false">IF(H187="", "", IF(H187="-","",VLOOKUP(H187, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="188" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K188" s="17" t="str">
+      <c r="K188" s="18" t="str">
         <f aca="false">IF(H188="", "", IF(H188="-","",VLOOKUP(H188, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="189" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K189" s="17" t="str">
+      <c r="K189" s="18" t="str">
         <f aca="false">IF(H189="", "", IF(H189="-","",VLOOKUP(H189, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="190" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K190" s="17" t="str">
+      <c r="K190" s="18" t="str">
         <f aca="false">IF(H190="", "", IF(H190="-","",VLOOKUP(H190, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="191" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K191" s="17" t="str">
+      <c r="K191" s="18" t="str">
         <f aca="false">IF(H191="", "", IF(H191="-","",VLOOKUP(H191, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="192" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K192" s="17" t="str">
+      <c r="K192" s="18" t="str">
         <f aca="false">IF(H192="", "", IF(H192="-","",VLOOKUP(H192, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="193" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K193" s="17" t="str">
+      <c r="K193" s="18" t="str">
         <f aca="false">IF(H193="", "", IF(H193="-","",VLOOKUP(H193, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="194" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K194" s="17" t="str">
+      <c r="K194" s="18" t="str">
         <f aca="false">IF(H194="", "", IF(H194="-","",VLOOKUP(H194, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="195" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K195" s="17" t="str">
+      <c r="K195" s="18" t="str">
         <f aca="false">IF(H195="", "", IF(H195="-","",VLOOKUP(H195, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="196" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K196" s="17" t="str">
+      <c r="K196" s="18" t="str">
         <f aca="false">IF(H196="", "", IF(H196="-","",VLOOKUP(H196, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="197" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K197" s="17" t="str">
+      <c r="K197" s="18" t="str">
         <f aca="false">IF(H197="", "", IF(H197="-","",VLOOKUP(H197, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="198" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K198" s="17" t="str">
+      <c r="K198" s="18" t="str">
         <f aca="false">IF(H198="", "", IF(H198="-","",VLOOKUP(H198, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="199" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K199" s="17" t="str">
+      <c r="K199" s="18" t="str">
         <f aca="false">IF(H199="", "", IF(H199="-","",VLOOKUP(H199, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="200" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K200" s="17" t="str">
+      <c r="K200" s="18" t="str">
         <f aca="false">IF(H200="", "", IF(H200="-","",VLOOKUP(H200, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="201" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K201" s="17" t="str">
+      <c r="K201" s="18" t="str">
         <f aca="false">IF(H201="", "", IF(H201="-","",VLOOKUP(H201, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="202" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K202" s="17" t="str">
+      <c r="K202" s="18" t="str">
         <f aca="false">IF(H202="", "", IF(H202="-","",VLOOKUP(H202, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="203" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K203" s="17" t="str">
+      <c r="K203" s="18" t="str">
         <f aca="false">IF(H203="", "", IF(H203="-","",VLOOKUP(H203, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="204" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K204" s="17" t="str">
+      <c r="K204" s="18" t="str">
         <f aca="false">IF(H204="", "", IF(H204="-","",VLOOKUP(H204, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="205" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K205" s="17" t="str">
+      <c r="K205" s="18" t="str">
         <f aca="false">IF(H205="", "", IF(H205="-","",VLOOKUP(H205, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="206" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K206" s="17" t="str">
+      <c r="K206" s="18" t="str">
         <f aca="false">IF(H206="", "", IF(H206="-","",VLOOKUP(H206, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="207" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K207" s="17" t="str">
+      <c r="K207" s="18" t="str">
         <f aca="false">IF(H207="", "", IF(H207="-","",VLOOKUP(H207, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="208" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K208" s="17" t="str">
+      <c r="K208" s="18" t="str">
         <f aca="false">IF(H208="", "", IF(H208="-","",VLOOKUP(H208, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="209" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K209" s="17" t="str">
+      <c r="K209" s="18" t="str">
         <f aca="false">IF(H209="", "", IF(H209="-","",VLOOKUP(H209, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="210" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K210" s="17" t="str">
+      <c r="K210" s="18" t="str">
         <f aca="false">IF(H210="", "", IF(H210="-","",VLOOKUP(H210, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="211" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K211" s="17" t="str">
+      <c r="K211" s="18" t="str">
         <f aca="false">IF(H211="", "", IF(H211="-","",VLOOKUP(H211, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
     </row>
     <row r="212" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K212" s="17" t="str">
+      <c r="K212" s="18" t="str">
         <f aca="false">IF(H212="", "", IF(H212="-","",VLOOKUP(H212, 'Вода SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
@@ -7762,10 +7805,10 @@
   </sheetPr>
   <dimension ref="A1:X287"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7778,8 +7821,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="8.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="9" width="8.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="20" width="8.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="21" width="8.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="21" width="8.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="22" width="8.72"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="15" min="15" style="0" width="1.82"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="16" min="16" style="0" width="5.54"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="17" min="17" style="0" width="5.46"/>
@@ -7829,10 +7872,10 @@
       <c r="L1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="23" t="s">
         <v>25</v>
       </c>
       <c r="O1" s="13" t="s">
@@ -7864,16 +7907,16 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J2" s="9" t="str">
+      <c r="J2" s="17" t="str">
         <f aca="true">IF(M2="", IF(O2="","",ROUND(X2+(INDIRECT("S" &amp; ROW() - 1) - S2),0)),IF(O2="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S2,0)))</f>
         <v/>
       </c>
-      <c r="K2" s="17" t="str">
+      <c r="K2" s="18" t="str">
         <f aca="false">IF(H2="", "", IF(H2="-","",VLOOKUP(H2, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18" t="str">
+      <c r="M2" s="19"/>
+      <c r="N2" s="19" t="str">
         <f aca="false">IF(M2="", IF(X2=0, "", X2), IF(V2 = "", "", IF(V2/U2 = 0, "", V2/U2)))</f>
         <v/>
       </c>
@@ -7915,16 +7958,16 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J3" s="9" t="str">
+      <c r="J3" s="17" t="str">
         <f aca="true">IF(M3="", IF(O3="","",ROUND(X3+(INDIRECT("S" &amp; ROW() - 1) - S3),0)),IF(O3="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S3,0)))</f>
         <v/>
       </c>
-      <c r="K3" s="17" t="str">
+      <c r="K3" s="18" t="str">
         <f aca="false">IF(H3="", "", IF(H3="-","",VLOOKUP(H3, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M3" s="19"/>
-      <c r="N3" s="18" t="str">
+      <c r="M3" s="20"/>
+      <c r="N3" s="19" t="str">
         <f aca="false">IF(M3="", IF(X3=0, "", X3), IF(V3 = "", "", IF(V3/U3 = 0, "", V3/U3)))</f>
         <v/>
       </c>
@@ -7966,16 +8009,16 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J4" s="9" t="str">
+      <c r="J4" s="17" t="str">
         <f aca="true">IF(M4="", IF(O4="","",ROUND(X4+(INDIRECT("S" &amp; ROW() - 1) - S4),0)),IF(O4="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S4,0)))</f>
         <v/>
       </c>
-      <c r="K4" s="17" t="str">
+      <c r="K4" s="18" t="str">
         <f aca="false">IF(H4="", "", IF(H4="-","",VLOOKUP(H4, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M4" s="19"/>
-      <c r="N4" s="18" t="str">
+      <c r="M4" s="20"/>
+      <c r="N4" s="19" t="str">
         <f aca="false">IF(M4="", IF(X4=0, "", X4), IF(V4 = "", "", IF(V4/U4 = 0, "", V4/U4)))</f>
         <v/>
       </c>
@@ -8017,16 +8060,16 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J5" s="9" t="str">
+      <c r="J5" s="17" t="str">
         <f aca="true">IF(M5="", IF(O5="","",ROUND(X5+(INDIRECT("S" &amp; ROW() - 1) - S5),0)),IF(O5="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S5,0)))</f>
         <v/>
       </c>
-      <c r="K5" s="17" t="str">
+      <c r="K5" s="18" t="str">
         <f aca="false">IF(H5="", "", IF(H5="-","",VLOOKUP(H5, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M5" s="19"/>
-      <c r="N5" s="18" t="str">
+      <c r="M5" s="20"/>
+      <c r="N5" s="19" t="str">
         <f aca="false">IF(M5="", IF(X5=0, "", X5), IF(V5 = "", "", IF(V5/U5 = 0, "", V5/U5)))</f>
         <v/>
       </c>
@@ -8068,16 +8111,16 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J6" s="9" t="str">
+      <c r="J6" s="17" t="str">
         <f aca="true">IF(M6="", IF(O6="","",ROUND(X6+(INDIRECT("S" &amp; ROW() - 1) - S6),0)),IF(O6="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S6,0)))</f>
         <v/>
       </c>
-      <c r="K6" s="17" t="str">
+      <c r="K6" s="18" t="str">
         <f aca="false">IF(H6="", "", IF(H6="-","",VLOOKUP(H6, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M6" s="19"/>
-      <c r="N6" s="18" t="str">
+      <c r="M6" s="20"/>
+      <c r="N6" s="19" t="str">
         <f aca="false">IF(M6="", IF(X6=0, "", X6), IF(V6 = "", "", IF(V6/U6 = 0, "", V6/U6)))</f>
         <v/>
       </c>
@@ -8119,16 +8162,16 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J7" s="9" t="str">
+      <c r="J7" s="17" t="str">
         <f aca="true">IF(M7="", IF(O7="","",ROUND(X7+(INDIRECT("S" &amp; ROW() - 1) - S7),0)),IF(O7="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S7,0)))</f>
         <v/>
       </c>
-      <c r="K7" s="17" t="str">
+      <c r="K7" s="18" t="str">
         <f aca="false">IF(H7="", "", IF(H7="-","",VLOOKUP(H7, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M7" s="19"/>
-      <c r="N7" s="18" t="str">
+      <c r="M7" s="20"/>
+      <c r="N7" s="19" t="str">
         <f aca="false">IF(M7="", IF(X7=0, "", X7), IF(V7 = "", "", IF(V7/U7 = 0, "", V7/U7)))</f>
         <v/>
       </c>
@@ -8170,16 +8213,16 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J8" s="9" t="str">
+      <c r="J8" s="17" t="str">
         <f aca="true">IF(M8="", IF(O8="","",ROUND(X8+(INDIRECT("S" &amp; ROW() - 1) - S8),0)),IF(O8="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S8,0)))</f>
         <v/>
       </c>
-      <c r="K8" s="17" t="str">
+      <c r="K8" s="18" t="str">
         <f aca="false">IF(H8="", "", IF(H8="-","",VLOOKUP(H8, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M8" s="19"/>
-      <c r="N8" s="18" t="str">
+      <c r="M8" s="20"/>
+      <c r="N8" s="19" t="str">
         <f aca="false">IF(M8="", IF(X8=0, "", X8), IF(V8 = "", "", IF(V8/U8 = 0, "", V8/U8)))</f>
         <v/>
       </c>
@@ -8221,16 +8264,16 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J9" s="9" t="str">
+      <c r="J9" s="17" t="str">
         <f aca="true">IF(M9="", IF(O9="","",ROUND(X9+(INDIRECT("S" &amp; ROW() - 1) - S9),0)),IF(O9="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S9,0)))</f>
         <v/>
       </c>
-      <c r="K9" s="17" t="str">
+      <c r="K9" s="18" t="str">
         <f aca="false">IF(H9="", "", IF(H9="-","",VLOOKUP(H9, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M9" s="19"/>
-      <c r="N9" s="18" t="str">
+      <c r="M9" s="20"/>
+      <c r="N9" s="19" t="str">
         <f aca="false">IF(M9="", IF(X9=0, "", X9), IF(V9 = "", "", IF(V9/U9 = 0, "", V9/U9)))</f>
         <v/>
       </c>
@@ -8272,16 +8315,16 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J10" s="9" t="str">
+      <c r="J10" s="17" t="str">
         <f aca="true">IF(M10="", IF(O10="","",ROUND(X10+(INDIRECT("S" &amp; ROW() - 1) - S10),0)),IF(O10="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S10,0)))</f>
         <v/>
       </c>
-      <c r="K10" s="17" t="str">
+      <c r="K10" s="18" t="str">
         <f aca="false">IF(H10="", "", IF(H10="-","",VLOOKUP(H10, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M10" s="19"/>
-      <c r="N10" s="18" t="str">
+      <c r="M10" s="20"/>
+      <c r="N10" s="19" t="str">
         <f aca="false">IF(M10="", IF(X10=0, "", X10), IF(V10 = "", "", IF(V10/U10 = 0, "", V10/U10)))</f>
         <v/>
       </c>
@@ -8323,16 +8366,16 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J11" s="9" t="str">
+      <c r="J11" s="17" t="str">
         <f aca="true">IF(M11="", IF(O11="","",ROUND(X11+(INDIRECT("S" &amp; ROW() - 1) - S11),0)),IF(O11="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S11,0)))</f>
         <v/>
       </c>
-      <c r="K11" s="17" t="str">
+      <c r="K11" s="18" t="str">
         <f aca="false">IF(H11="", "", IF(H11="-","",VLOOKUP(H11, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M11" s="19"/>
-      <c r="N11" s="18" t="str">
+      <c r="M11" s="20"/>
+      <c r="N11" s="19" t="str">
         <f aca="false">IF(M11="", IF(X11=0, "", X11), IF(V11 = "", "", IF(V11/U11 = 0, "", V11/U11)))</f>
         <v/>
       </c>
@@ -8374,16 +8417,16 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J12" s="9" t="str">
+      <c r="J12" s="17" t="str">
         <f aca="true">IF(M12="", IF(O12="","",ROUND(X12+(INDIRECT("S" &amp; ROW() - 1) - S12),0)),IF(O12="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S12,0)))</f>
         <v/>
       </c>
-      <c r="K12" s="17" t="str">
+      <c r="K12" s="18" t="str">
         <f aca="false">IF(H12="", "", IF(H12="-","",VLOOKUP(H12, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M12" s="19"/>
-      <c r="N12" s="18" t="str">
+      <c r="M12" s="20"/>
+      <c r="N12" s="19" t="str">
         <f aca="false">IF(M12="", IF(X12=0, "", X12), IF(V12 = "", "", IF(V12/U12 = 0, "", V12/U12)))</f>
         <v/>
       </c>
@@ -8425,16 +8468,16 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J13" s="9" t="str">
+      <c r="J13" s="17" t="str">
         <f aca="true">IF(M13="", IF(O13="","",ROUND(X13+(INDIRECT("S" &amp; ROW() - 1) - S13),0)),IF(O13="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S13,0)))</f>
         <v/>
       </c>
-      <c r="K13" s="17" t="str">
+      <c r="K13" s="18" t="str">
         <f aca="false">IF(H13="", "", IF(H13="-","",VLOOKUP(H13, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M13" s="19"/>
-      <c r="N13" s="18" t="str">
+      <c r="M13" s="20"/>
+      <c r="N13" s="19" t="str">
         <f aca="false">IF(M13="", IF(X13=0, "", X13), IF(V13 = "", "", IF(V13/U13 = 0, "", V13/U13)))</f>
         <v/>
       </c>
@@ -8476,16 +8519,16 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J14" s="9" t="str">
+      <c r="J14" s="17" t="str">
         <f aca="true">IF(M14="", IF(O14="","",ROUND(X14+(INDIRECT("S" &amp; ROW() - 1) - S14),0)),IF(O14="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S14,0)))</f>
         <v/>
       </c>
-      <c r="K14" s="17" t="str">
+      <c r="K14" s="18" t="str">
         <f aca="false">IF(H14="", "", IF(H14="-","",VLOOKUP(H14, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M14" s="19"/>
-      <c r="N14" s="18" t="str">
+      <c r="M14" s="20"/>
+      <c r="N14" s="19" t="str">
         <f aca="false">IF(M14="", IF(X14=0, "", X14), IF(V14 = "", "", IF(V14/U14 = 0, "", V14/U14)))</f>
         <v/>
       </c>
@@ -8527,16 +8570,16 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J15" s="9" t="str">
+      <c r="J15" s="17" t="str">
         <f aca="true">IF(M15="", IF(O15="","",ROUND(X15+(INDIRECT("S" &amp; ROW() - 1) - S15),0)),IF(O15="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S15,0)))</f>
         <v/>
       </c>
-      <c r="K15" s="17" t="str">
+      <c r="K15" s="18" t="str">
         <f aca="false">IF(H15="", "", IF(H15="-","",VLOOKUP(H15, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M15" s="19"/>
-      <c r="N15" s="18" t="str">
+      <c r="M15" s="20"/>
+      <c r="N15" s="19" t="str">
         <f aca="false">IF(M15="", IF(X15=0, "", X15), IF(V15 = "", "", IF(V15/U15 = 0, "", V15/U15)))</f>
         <v/>
       </c>
@@ -8578,16 +8621,16 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J16" s="9" t="str">
+      <c r="J16" s="17" t="str">
         <f aca="true">IF(M16="", IF(O16="","",ROUND(X16+(INDIRECT("S" &amp; ROW() - 1) - S16),0)),IF(O16="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S16,0)))</f>
         <v/>
       </c>
-      <c r="K16" s="17" t="str">
+      <c r="K16" s="18" t="str">
         <f aca="false">IF(H16="", "", IF(H16="-","",VLOOKUP(H16, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M16" s="19"/>
-      <c r="N16" s="18" t="str">
+      <c r="M16" s="20"/>
+      <c r="N16" s="19" t="str">
         <f aca="false">IF(M16="", IF(X16=0, "", X16), IF(V16 = "", "", IF(V16/U16 = 0, "", V16/U16)))</f>
         <v/>
       </c>
@@ -8629,16 +8672,16 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J17" s="9" t="str">
+      <c r="J17" s="17" t="str">
         <f aca="true">IF(M17="", IF(O17="","",ROUND(X17+(INDIRECT("S" &amp; ROW() - 1) - S17),0)),IF(O17="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S17,0)))</f>
         <v/>
       </c>
-      <c r="K17" s="17" t="str">
+      <c r="K17" s="18" t="str">
         <f aca="false">IF(H17="", "", IF(H17="-","",VLOOKUP(H17, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M17" s="19"/>
-      <c r="N17" s="18" t="str">
+      <c r="M17" s="20"/>
+      <c r="N17" s="19" t="str">
         <f aca="false">IF(M17="", IF(X17=0, "", X17), IF(V17 = "", "", IF(V17/U17 = 0, "", V17/U17)))</f>
         <v/>
       </c>
@@ -8680,16 +8723,16 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J18" s="9" t="str">
+      <c r="J18" s="17" t="str">
         <f aca="true">IF(M18="", IF(O18="","",ROUND(X18+(INDIRECT("S" &amp; ROW() - 1) - S18),0)),IF(O18="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S18,0)))</f>
         <v/>
       </c>
-      <c r="K18" s="17" t="str">
+      <c r="K18" s="18" t="str">
         <f aca="false">IF(H18="", "", IF(H18="-","",VLOOKUP(H18, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M18" s="19"/>
-      <c r="N18" s="18" t="str">
+      <c r="M18" s="20"/>
+      <c r="N18" s="19" t="str">
         <f aca="false">IF(M18="", IF(X18=0, "", X18), IF(V18 = "", "", IF(V18/U18 = 0, "", V18/U18)))</f>
         <v/>
       </c>
@@ -8731,16 +8774,16 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J19" s="9" t="str">
+      <c r="J19" s="17" t="str">
         <f aca="true">IF(M19="", IF(O19="","",ROUND(X19+(INDIRECT("S" &amp; ROW() - 1) - S19),0)),IF(O19="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S19,0)))</f>
         <v/>
       </c>
-      <c r="K19" s="17" t="str">
+      <c r="K19" s="18" t="str">
         <f aca="false">IF(H19="", "", IF(H19="-","",VLOOKUP(H19, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M19" s="19"/>
-      <c r="N19" s="18" t="str">
+      <c r="M19" s="20"/>
+      <c r="N19" s="19" t="str">
         <f aca="false">IF(M19="", IF(X19=0, "", X19), IF(V19 = "", "", IF(V19/U19 = 0, "", V19/U19)))</f>
         <v/>
       </c>
@@ -8782,16 +8825,16 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J20" s="9" t="str">
+      <c r="J20" s="17" t="str">
         <f aca="true">IF(M20="", IF(O20="","",ROUND(X20+(INDIRECT("S" &amp; ROW() - 1) - S20),0)),IF(O20="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S20,0)))</f>
         <v/>
       </c>
-      <c r="K20" s="17" t="str">
+      <c r="K20" s="18" t="str">
         <f aca="false">IF(H20="", "", IF(H20="-","",VLOOKUP(H20, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M20" s="19"/>
-      <c r="N20" s="18" t="str">
+      <c r="M20" s="20"/>
+      <c r="N20" s="19" t="str">
         <f aca="false">IF(M20="", IF(X20=0, "", X20), IF(V20 = "", "", IF(V20/U20 = 0, "", V20/U20)))</f>
         <v/>
       </c>
@@ -8833,16 +8876,16 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J21" s="9" t="str">
+      <c r="J21" s="17" t="str">
         <f aca="true">IF(M21="", IF(O21="","",ROUND(X21+(INDIRECT("S" &amp; ROW() - 1) - S21),0)),IF(O21="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S21,0)))</f>
         <v/>
       </c>
-      <c r="K21" s="17" t="str">
+      <c r="K21" s="18" t="str">
         <f aca="false">IF(H21="", "", IF(H21="-","",VLOOKUP(H21, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M21" s="19"/>
-      <c r="N21" s="18" t="str">
+      <c r="M21" s="20"/>
+      <c r="N21" s="19" t="str">
         <f aca="false">IF(M21="", IF(X21=0, "", X21), IF(V21 = "", "", IF(V21/U21 = 0, "", V21/U21)))</f>
         <v/>
       </c>
@@ -8884,16 +8927,16 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J22" s="9" t="str">
+      <c r="J22" s="17" t="str">
         <f aca="true">IF(M22="", IF(O22="","",ROUND(X22+(INDIRECT("S" &amp; ROW() - 1) - S22),0)),IF(O22="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S22,0)))</f>
         <v/>
       </c>
-      <c r="K22" s="17" t="str">
+      <c r="K22" s="18" t="str">
         <f aca="false">IF(H22="", "", IF(H22="-","",VLOOKUP(H22, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M22" s="19"/>
-      <c r="N22" s="18" t="str">
+      <c r="M22" s="20"/>
+      <c r="N22" s="19" t="str">
         <f aca="false">IF(M22="", IF(X22=0, "", X22), IF(V22 = "", "", IF(V22/U22 = 0, "", V22/U22)))</f>
         <v/>
       </c>
@@ -8935,16 +8978,16 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J23" s="9" t="str">
+      <c r="J23" s="17" t="str">
         <f aca="true">IF(M23="", IF(O23="","",ROUND(X23+(INDIRECT("S" &amp; ROW() - 1) - S23),0)),IF(O23="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S23,0)))</f>
         <v/>
       </c>
-      <c r="K23" s="17" t="str">
+      <c r="K23" s="18" t="str">
         <f aca="false">IF(H23="", "", IF(H23="-","",VLOOKUP(H23, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M23" s="19"/>
-      <c r="N23" s="18" t="str">
+      <c r="M23" s="20"/>
+      <c r="N23" s="19" t="str">
         <f aca="false">IF(M23="", IF(X23=0, "", X23), IF(V23 = "", "", IF(V23/U23 = 0, "", V23/U23)))</f>
         <v/>
       </c>
@@ -8986,16 +9029,16 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J24" s="9" t="str">
+      <c r="J24" s="17" t="str">
         <f aca="true">IF(M24="", IF(O24="","",ROUND(X24+(INDIRECT("S" &amp; ROW() - 1) - S24),0)),IF(O24="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S24,0)))</f>
         <v/>
       </c>
-      <c r="K24" s="17" t="str">
+      <c r="K24" s="18" t="str">
         <f aca="false">IF(H24="", "", IF(H24="-","",VLOOKUP(H24, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M24" s="19"/>
-      <c r="N24" s="18" t="str">
+      <c r="M24" s="20"/>
+      <c r="N24" s="19" t="str">
         <f aca="false">IF(M24="", IF(X24=0, "", X24), IF(V24 = "", "", IF(V24/U24 = 0, "", V24/U24)))</f>
         <v/>
       </c>
@@ -9037,16 +9080,16 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J25" s="9" t="str">
+      <c r="J25" s="17" t="str">
         <f aca="true">IF(M25="", IF(O25="","",ROUND(X25+(INDIRECT("S" &amp; ROW() - 1) - S25),0)),IF(O25="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S25,0)))</f>
         <v/>
       </c>
-      <c r="K25" s="17" t="str">
+      <c r="K25" s="18" t="str">
         <f aca="false">IF(H25="", "", IF(H25="-","",VLOOKUP(H25, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M25" s="19"/>
-      <c r="N25" s="18" t="str">
+      <c r="M25" s="20"/>
+      <c r="N25" s="19" t="str">
         <f aca="false">IF(M25="", IF(X25=0, "", X25), IF(V25 = "", "", IF(V25/U25 = 0, "", V25/U25)))</f>
         <v/>
       </c>
@@ -9088,16 +9131,16 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J26" s="9" t="str">
+      <c r="J26" s="17" t="str">
         <f aca="true">IF(M26="", IF(O26="","",ROUND(X26+(INDIRECT("S" &amp; ROW() - 1) - S26),0)),IF(O26="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S26,0)))</f>
         <v/>
       </c>
-      <c r="K26" s="17" t="str">
+      <c r="K26" s="18" t="str">
         <f aca="false">IF(H26="", "", IF(H26="-","",VLOOKUP(H26, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M26" s="19"/>
-      <c r="N26" s="18" t="str">
+      <c r="M26" s="20"/>
+      <c r="N26" s="19" t="str">
         <f aca="false">IF(M26="", IF(X26=0, "", X26), IF(V26 = "", "", IF(V26/U26 = 0, "", V26/U26)))</f>
         <v/>
       </c>
@@ -9139,16 +9182,16 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J27" s="9" t="str">
+      <c r="J27" s="17" t="str">
         <f aca="true">IF(M27="", IF(O27="","",ROUND(X27+(INDIRECT("S" &amp; ROW() - 1) - S27),0)),IF(O27="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S27,0)))</f>
         <v/>
       </c>
-      <c r="K27" s="17" t="str">
+      <c r="K27" s="18" t="str">
         <f aca="false">IF(H27="", "", IF(H27="-","",VLOOKUP(H27, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M27" s="19"/>
-      <c r="N27" s="18" t="str">
+      <c r="M27" s="20"/>
+      <c r="N27" s="19" t="str">
         <f aca="false">IF(M27="", IF(X27=0, "", X27), IF(V27 = "", "", IF(V27/U27 = 0, "", V27/U27)))</f>
         <v/>
       </c>
@@ -9190,16 +9233,16 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J28" s="9" t="str">
+      <c r="J28" s="17" t="str">
         <f aca="true">IF(M28="", IF(O28="","",ROUND(X28+(INDIRECT("S" &amp; ROW() - 1) - S28),0)),IF(O28="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S28,0)))</f>
         <v/>
       </c>
-      <c r="K28" s="17" t="str">
+      <c r="K28" s="18" t="str">
         <f aca="false">IF(H28="", "", IF(H28="-","",VLOOKUP(H28, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M28" s="19"/>
-      <c r="N28" s="18" t="str">
+      <c r="M28" s="20"/>
+      <c r="N28" s="19" t="str">
         <f aca="false">IF(M28="", IF(X28=0, "", X28), IF(V28 = "", "", IF(V28/U28 = 0, "", V28/U28)))</f>
         <v/>
       </c>
@@ -9241,16 +9284,16 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J29" s="9" t="str">
+      <c r="J29" s="17" t="str">
         <f aca="true">IF(M29="", IF(O29="","",ROUND(X29+(INDIRECT("S" &amp; ROW() - 1) - S29),0)),IF(O29="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S29,0)))</f>
         <v/>
       </c>
-      <c r="K29" s="17" t="str">
+      <c r="K29" s="18" t="str">
         <f aca="false">IF(H29="", "", IF(H29="-","",VLOOKUP(H29, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M29" s="19"/>
-      <c r="N29" s="18" t="str">
+      <c r="M29" s="20"/>
+      <c r="N29" s="19" t="str">
         <f aca="false">IF(M29="", IF(X29=0, "", X29), IF(V29 = "", "", IF(V29/U29 = 0, "", V29/U29)))</f>
         <v/>
       </c>
@@ -9292,16 +9335,16 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J30" s="9" t="str">
+      <c r="J30" s="17" t="str">
         <f aca="true">IF(M30="", IF(O30="","",ROUND(X30+(INDIRECT("S" &amp; ROW() - 1) - S30),0)),IF(O30="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S30,0)))</f>
         <v/>
       </c>
-      <c r="K30" s="17" t="str">
+      <c r="K30" s="18" t="str">
         <f aca="false">IF(H30="", "", IF(H30="-","",VLOOKUP(H30, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M30" s="19"/>
-      <c r="N30" s="18" t="str">
+      <c r="M30" s="20"/>
+      <c r="N30" s="19" t="str">
         <f aca="false">IF(M30="", IF(X30=0, "", X30), IF(V30 = "", "", IF(V30/U30 = 0, "", V30/U30)))</f>
         <v/>
       </c>
@@ -9343,16 +9386,16 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J31" s="9" t="str">
+      <c r="J31" s="17" t="str">
         <f aca="true">IF(M31="", IF(O31="","",ROUND(X31+(INDIRECT("S" &amp; ROW() - 1) - S31),0)),IF(O31="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S31,0)))</f>
         <v/>
       </c>
-      <c r="K31" s="17" t="str">
+      <c r="K31" s="18" t="str">
         <f aca="false">IF(H31="", "", IF(H31="-","",VLOOKUP(H31, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M31" s="19"/>
-      <c r="N31" s="18" t="str">
+      <c r="M31" s="20"/>
+      <c r="N31" s="19" t="str">
         <f aca="false">IF(M31="", IF(X31=0, "", X31), IF(V31 = "", "", IF(V31/U31 = 0, "", V31/U31)))</f>
         <v/>
       </c>
@@ -9394,16 +9437,16 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J32" s="9" t="str">
+      <c r="J32" s="17" t="str">
         <f aca="true">IF(M32="", IF(O32="","",ROUND(X32+(INDIRECT("S" &amp; ROW() - 1) - S32),0)),IF(O32="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S32,0)))</f>
         <v/>
       </c>
-      <c r="K32" s="17" t="str">
+      <c r="K32" s="18" t="str">
         <f aca="false">IF(H32="", "", IF(H32="-","",VLOOKUP(H32, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M32" s="19"/>
-      <c r="N32" s="18" t="str">
+      <c r="M32" s="20"/>
+      <c r="N32" s="19" t="str">
         <f aca="false">IF(M32="", IF(X32=0, "", X32), IF(V32 = "", "", IF(V32/U32 = 0, "", V32/U32)))</f>
         <v/>
       </c>
@@ -9445,16 +9488,16 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J33" s="9" t="str">
+      <c r="J33" s="17" t="str">
         <f aca="true">IF(M33="", IF(O33="","",ROUND(X33+(INDIRECT("S" &amp; ROW() - 1) - S33),0)),IF(O33="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S33,0)))</f>
         <v/>
       </c>
-      <c r="K33" s="17" t="str">
+      <c r="K33" s="18" t="str">
         <f aca="false">IF(H33="", "", IF(H33="-","",VLOOKUP(H33, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M33" s="19"/>
-      <c r="N33" s="18" t="str">
+      <c r="M33" s="20"/>
+      <c r="N33" s="19" t="str">
         <f aca="false">IF(M33="", IF(X33=0, "", X33), IF(V33 = "", "", IF(V33/U33 = 0, "", V33/U33)))</f>
         <v/>
       </c>
@@ -9496,16 +9539,16 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J34" s="9" t="str">
+      <c r="J34" s="17" t="str">
         <f aca="true">IF(M34="", IF(O34="","",ROUND(X34+(INDIRECT("S" &amp; ROW() - 1) - S34),0)),IF(O34="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S34,0)))</f>
         <v/>
       </c>
-      <c r="K34" s="17" t="str">
+      <c r="K34" s="18" t="str">
         <f aca="false">IF(H34="", "", IF(H34="-","",VLOOKUP(H34, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M34" s="19"/>
-      <c r="N34" s="18" t="str">
+      <c r="M34" s="20"/>
+      <c r="N34" s="19" t="str">
         <f aca="false">IF(M34="", IF(X34=0, "", X34), IF(V34 = "", "", IF(V34/U34 = 0, "", V34/U34)))</f>
         <v/>
       </c>
@@ -9547,16 +9590,16 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J35" s="9" t="str">
+      <c r="J35" s="17" t="str">
         <f aca="true">IF(M35="", IF(O35="","",ROUND(X35+(INDIRECT("S" &amp; ROW() - 1) - S35),0)),IF(O35="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S35,0)))</f>
         <v/>
       </c>
-      <c r="K35" s="17" t="str">
+      <c r="K35" s="18" t="str">
         <f aca="false">IF(H35="", "", IF(H35="-","",VLOOKUP(H35, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M35" s="19"/>
-      <c r="N35" s="18" t="str">
+      <c r="M35" s="20"/>
+      <c r="N35" s="19" t="str">
         <f aca="false">IF(M35="", IF(X35=0, "", X35), IF(V35 = "", "", IF(V35/U35 = 0, "", V35/U35)))</f>
         <v/>
       </c>
@@ -9598,16 +9641,16 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J36" s="9" t="str">
+      <c r="J36" s="17" t="str">
         <f aca="true">IF(M36="", IF(O36="","",ROUND(X36+(INDIRECT("S" &amp; ROW() - 1) - S36),0)),IF(O36="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S36,0)))</f>
         <v/>
       </c>
-      <c r="K36" s="17" t="str">
+      <c r="K36" s="18" t="str">
         <f aca="false">IF(H36="", "", IF(H36="-","",VLOOKUP(H36, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M36" s="19"/>
-      <c r="N36" s="18" t="str">
+      <c r="M36" s="20"/>
+      <c r="N36" s="19" t="str">
         <f aca="false">IF(M36="", IF(X36=0, "", X36), IF(V36 = "", "", IF(V36/U36 = 0, "", V36/U36)))</f>
         <v/>
       </c>
@@ -9649,16 +9692,16 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J37" s="9" t="str">
+      <c r="J37" s="17" t="str">
         <f aca="true">IF(M37="", IF(O37="","",ROUND(X37+(INDIRECT("S" &amp; ROW() - 1) - S37),0)),IF(O37="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S37,0)))</f>
         <v/>
       </c>
-      <c r="K37" s="17" t="str">
+      <c r="K37" s="18" t="str">
         <f aca="false">IF(H37="", "", IF(H37="-","",VLOOKUP(H37, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M37" s="19"/>
-      <c r="N37" s="18" t="str">
+      <c r="M37" s="20"/>
+      <c r="N37" s="19" t="str">
         <f aca="false">IF(M37="", IF(X37=0, "", X37), IF(V37 = "", "", IF(V37/U37 = 0, "", V37/U37)))</f>
         <v/>
       </c>
@@ -9700,16 +9743,16 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J38" s="9" t="str">
+      <c r="J38" s="17" t="str">
         <f aca="true">IF(M38="", IF(O38="","",ROUND(X38+(INDIRECT("S" &amp; ROW() - 1) - S38),0)),IF(O38="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S38,0)))</f>
         <v/>
       </c>
-      <c r="K38" s="17" t="str">
+      <c r="K38" s="18" t="str">
         <f aca="false">IF(H38="", "", IF(H38="-","",VLOOKUP(H38, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M38" s="19"/>
-      <c r="N38" s="18" t="str">
+      <c r="M38" s="20"/>
+      <c r="N38" s="19" t="str">
         <f aca="false">IF(M38="", IF(X38=0, "", X38), IF(V38 = "", "", IF(V38/U38 = 0, "", V38/U38)))</f>
         <v/>
       </c>
@@ -9751,16 +9794,16 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J39" s="9" t="str">
+      <c r="J39" s="17" t="str">
         <f aca="true">IF(M39="", IF(O39="","",ROUND(X39+(INDIRECT("S" &amp; ROW() - 1) - S39),0)),IF(O39="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S39,0)))</f>
         <v/>
       </c>
-      <c r="K39" s="17" t="str">
+      <c r="K39" s="18" t="str">
         <f aca="false">IF(H39="", "", IF(H39="-","",VLOOKUP(H39, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M39" s="19"/>
-      <c r="N39" s="18" t="str">
+      <c r="M39" s="20"/>
+      <c r="N39" s="19" t="str">
         <f aca="false">IF(M39="", IF(X39=0, "", X39), IF(V39 = "", "", IF(V39/U39 = 0, "", V39/U39)))</f>
         <v/>
       </c>
@@ -9802,16 +9845,16 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J40" s="9" t="str">
+      <c r="J40" s="17" t="str">
         <f aca="true">IF(M40="", IF(O40="","",ROUND(X40+(INDIRECT("S" &amp; ROW() - 1) - S40),0)),IF(O40="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S40,0)))</f>
         <v/>
       </c>
-      <c r="K40" s="17" t="str">
+      <c r="K40" s="18" t="str">
         <f aca="false">IF(H40="", "", IF(H40="-","",VLOOKUP(H40, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M40" s="19"/>
-      <c r="N40" s="18" t="str">
+      <c r="M40" s="20"/>
+      <c r="N40" s="19" t="str">
         <f aca="false">IF(M40="", IF(X40=0, "", X40), IF(V40 = "", "", IF(V40/U40 = 0, "", V40/U40)))</f>
         <v/>
       </c>
@@ -9853,16 +9896,16 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J41" s="9" t="str">
+      <c r="J41" s="17" t="str">
         <f aca="true">IF(M41="", IF(O41="","",ROUND(X41+(INDIRECT("S" &amp; ROW() - 1) - S41),0)),IF(O41="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S41,0)))</f>
         <v/>
       </c>
-      <c r="K41" s="17" t="str">
+      <c r="K41" s="18" t="str">
         <f aca="false">IF(H41="", "", IF(H41="-","",VLOOKUP(H41, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M41" s="19"/>
-      <c r="N41" s="18" t="str">
+      <c r="M41" s="20"/>
+      <c r="N41" s="19" t="str">
         <f aca="false">IF(M41="", IF(X41=0, "", X41), IF(V41 = "", "", IF(V41/U41 = 0, "", V41/U41)))</f>
         <v/>
       </c>
@@ -9904,16 +9947,16 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J42" s="9" t="str">
+      <c r="J42" s="17" t="str">
         <f aca="true">IF(M42="", IF(O42="","",ROUND(X42+(INDIRECT("S" &amp; ROW() - 1) - S42),0)),IF(O42="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S42,0)))</f>
         <v/>
       </c>
-      <c r="K42" s="17" t="str">
+      <c r="K42" s="18" t="str">
         <f aca="false">IF(H42="", "", IF(H42="-","",VLOOKUP(H42, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M42" s="19"/>
-      <c r="N42" s="18" t="str">
+      <c r="M42" s="20"/>
+      <c r="N42" s="19" t="str">
         <f aca="false">IF(M42="", IF(X42=0, "", X42), IF(V42 = "", "", IF(V42/U42 = 0, "", V42/U42)))</f>
         <v/>
       </c>
@@ -9955,16 +9998,16 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J43" s="9" t="str">
+      <c r="J43" s="17" t="str">
         <f aca="true">IF(M43="", IF(O43="","",ROUND(X43+(INDIRECT("S" &amp; ROW() - 1) - S43),0)),IF(O43="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S43,0)))</f>
         <v/>
       </c>
-      <c r="K43" s="17" t="str">
+      <c r="K43" s="18" t="str">
         <f aca="false">IF(H43="", "", IF(H43="-","",VLOOKUP(H43, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M43" s="19"/>
-      <c r="N43" s="18" t="str">
+      <c r="M43" s="20"/>
+      <c r="N43" s="19" t="str">
         <f aca="false">IF(M43="", IF(X43=0, "", X43), IF(V43 = "", "", IF(V43/U43 = 0, "", V43/U43)))</f>
         <v/>
       </c>
@@ -10006,16 +10049,16 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J44" s="9" t="str">
+      <c r="J44" s="17" t="str">
         <f aca="true">IF(M44="", IF(O44="","",ROUND(X44+(INDIRECT("S" &amp; ROW() - 1) - S44),0)),IF(O44="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S44,0)))</f>
         <v/>
       </c>
-      <c r="K44" s="17" t="str">
+      <c r="K44" s="18" t="str">
         <f aca="false">IF(H44="", "", IF(H44="-","",VLOOKUP(H44, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M44" s="19"/>
-      <c r="N44" s="18" t="str">
+      <c r="M44" s="20"/>
+      <c r="N44" s="19" t="str">
         <f aca="false">IF(M44="", IF(X44=0, "", X44), IF(V44 = "", "", IF(V44/U44 = 0, "", V44/U44)))</f>
         <v/>
       </c>
@@ -10057,16 +10100,16 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J45" s="9" t="str">
+      <c r="J45" s="17" t="str">
         <f aca="true">IF(M45="", IF(O45="","",ROUND(X45+(INDIRECT("S" &amp; ROW() - 1) - S45),0)),IF(O45="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S45,0)))</f>
         <v/>
       </c>
-      <c r="K45" s="17" t="str">
+      <c r="K45" s="18" t="str">
         <f aca="false">IF(H45="", "", IF(H45="-","",VLOOKUP(H45, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M45" s="19"/>
-      <c r="N45" s="18" t="str">
+      <c r="M45" s="20"/>
+      <c r="N45" s="19" t="str">
         <f aca="false">IF(M45="", IF(X45=0, "", X45), IF(V45 = "", "", IF(V45/U45 = 0, "", V45/U45)))</f>
         <v/>
       </c>
@@ -10108,16 +10151,16 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J46" s="9" t="str">
+      <c r="J46" s="17" t="str">
         <f aca="true">IF(M46="", IF(O46="","",ROUND(X46+(INDIRECT("S" &amp; ROW() - 1) - S46),0)),IF(O46="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S46,0)))</f>
         <v/>
       </c>
-      <c r="K46" s="17" t="str">
+      <c r="K46" s="18" t="str">
         <f aca="false">IF(H46="", "", IF(H46="-","",VLOOKUP(H46, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M46" s="19"/>
-      <c r="N46" s="18" t="str">
+      <c r="M46" s="20"/>
+      <c r="N46" s="19" t="str">
         <f aca="false">IF(M46="", IF(X46=0, "", X46), IF(V46 = "", "", IF(V46/U46 = 0, "", V46/U46)))</f>
         <v/>
       </c>
@@ -10159,16 +10202,16 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J47" s="9" t="str">
+      <c r="J47" s="17" t="str">
         <f aca="true">IF(M47="", IF(O47="","",ROUND(X47+(INDIRECT("S" &amp; ROW() - 1) - S47),0)),IF(O47="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S47,0)))</f>
         <v/>
       </c>
-      <c r="K47" s="17" t="str">
+      <c r="K47" s="18" t="str">
         <f aca="false">IF(H47="", "", IF(H47="-","",VLOOKUP(H47, 'Соль SKU'!$A$1:$C$150, 3, 0)))</f>
         <v/>
       </c>
-      <c r="M47" s="19"/>
-      <c r="N47" s="18" t="str">
+      <c r="M47" s="20"/>
+      <c r="N47" s="19" t="str">
         <f aca="false">IF(M47="", IF(X47=0, "", X47), IF(V47 = "", "", IF(V47/U47 = 0, "", V47/U47)))</f>
         <v/>
       </c>
@@ -10210,16 +10253,16 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J48" s="9" t="str">
+      <c r="J48" s="17" t="str">
         <f aca="true">IF(M48="", IF(O48="","",ROUND(X48+(INDIRECT("S" &amp; ROW() - 1) - S48),0)),IF(O48="", "", ROUND(INDIRECT("S" &amp; ROW() - 1) - S48,0)))</f>
    